--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23619,10 +23619,10 @@
   </sheetPr>
   <dimension ref="A1:EW139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD5" sqref="CD5"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23634,8 +23634,8 @@
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="11.54296875" style="1" customWidth="1"/>
-    <col min="82" max="87" width="11.54296875" style="17" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="9.7265625" style="17" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.25">
@@ -23800,6 +23800,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24062,6 +24063,9 @@
       </c>
       <c r="CI10" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24327,9 +24331,11 @@
         <v>125934.52691420163</v>
       </c>
       <c r="CI12" s="19">
-        <v>129576.13774285914</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>130429.76216058555</v>
+      </c>
+      <c r="CJ12" s="19">
+        <v>159203.06107818737</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24656,9 +24662,11 @@
         <v>556310.12994573393</v>
       </c>
       <c r="CI13" s="19">
-        <v>666564.10267241159</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>664628.85626506037</v>
+      </c>
+      <c r="CJ13" s="19">
+        <v>788390.71624751377</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -24985,9 +24993,11 @@
         <v>22229.866504719321</v>
       </c>
       <c r="CI14" s="19">
-        <v>9575.1109765046858</v>
-      </c>
-      <c r="CJ14" s="9"/>
+        <v>11073.668521034813</v>
+      </c>
+      <c r="CJ14" s="19">
+        <v>18743.130143448438</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25141,7 +25151,7 @@
       <c r="CG15" s="20"/>
       <c r="CH15" s="20"/>
       <c r="CI15" s="20"/>
-      <c r="CJ15" s="9"/>
+      <c r="CJ15" s="20"/>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25468,9 +25478,11 @@
         <v>704474.52336465498</v>
       </c>
       <c r="CI16" s="21">
-        <v>805715.3513917753</v>
-      </c>
-      <c r="CJ16" s="9"/>
+        <v>806132.28694668063</v>
+      </c>
+      <c r="CJ16" s="21">
+        <v>966336.90746914968</v>
+      </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -25625,6 +25637,7 @@
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
       <c r="CI17" s="22"/>
+      <c r="CJ17" s="22"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -25718,7 +25731,7 @@
       <c r="CG19" s="20"/>
       <c r="CH19" s="20"/>
       <c r="CI19" s="20"/>
-      <c r="CJ19" s="9"/>
+      <c r="CJ19" s="20"/>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -25872,7 +25885,7 @@
       <c r="CG20" s="20"/>
       <c r="CH20" s="20"/>
       <c r="CI20" s="20"/>
-      <c r="CJ20" s="9"/>
+      <c r="CJ20" s="20"/>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
@@ -26103,6 +26116,7 @@
       <c r="CI29" s="27">
         <v>0</v>
       </c>
+      <c r="CJ29" s="27"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -26365,6 +26379,9 @@
       </c>
       <c r="CI30" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ30" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26630,9 +26647,11 @@
         <v>117334.74706809164</v>
       </c>
       <c r="CI32" s="19">
-        <v>121488.88320059434</v>
-      </c>
-      <c r="CJ32" s="9"/>
+        <v>122534.66867416279</v>
+      </c>
+      <c r="CJ32" s="19">
+        <v>148962.70980472476</v>
+      </c>
       <c r="CK32" s="9"/>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
@@ -26959,9 +26978,11 @@
         <v>559420.39392693527</v>
       </c>
       <c r="CI33" s="19">
-        <v>653613.36626621964</v>
-      </c>
-      <c r="CJ33" s="9"/>
+        <v>650769.9722624555</v>
+      </c>
+      <c r="CJ33" s="19">
+        <v>763597.79165588447</v>
+      </c>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -27288,9 +27309,11 @@
         <v>22053.277989249957</v>
       </c>
       <c r="CI34" s="19">
-        <v>9758.6759359378484</v>
-      </c>
-      <c r="CJ34" s="9"/>
+        <v>11279.082191936619</v>
+      </c>
+      <c r="CJ34" s="19">
+        <v>19271.952061430275</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -27444,7 +27467,7 @@
       <c r="CG35" s="21"/>
       <c r="CH35" s="21"/>
       <c r="CI35" s="21"/>
-      <c r="CJ35" s="9"/>
+      <c r="CJ35" s="21"/>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -27771,9 +27794,11 @@
         <v>698808.41898427682</v>
       </c>
       <c r="CI36" s="21">
-        <v>784860.92540275189</v>
-      </c>
-      <c r="CJ36" s="9"/>
+        <v>784583.72312855499</v>
+      </c>
+      <c r="CJ36" s="21">
+        <v>931832.45352203958</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -27928,6 +27953,7 @@
       <c r="CG37" s="22"/>
       <c r="CH37" s="22"/>
       <c r="CI37" s="22"/>
+      <c r="CJ37" s="22"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -28021,7 +28047,7 @@
       <c r="CG39" s="20"/>
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
-      <c r="CJ39" s="9"/>
+      <c r="CJ39" s="20"/>
       <c r="CK39" s="9"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
@@ -28175,7 +28201,7 @@
       <c r="CG40" s="20"/>
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
-      <c r="CJ40" s="9"/>
+      <c r="CJ40" s="20"/>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
@@ -28404,6 +28430,7 @@
       <c r="CG49" s="23"/>
       <c r="CH49" s="23"/>
       <c r="CI49" s="23"/>
+      <c r="CJ49" s="23"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -28659,6 +28686,7 @@
       <c r="CG50" s="24"/>
       <c r="CH50" s="24"/>
       <c r="CI50" s="24"/>
+      <c r="CJ50" s="24"/>
     </row>
     <row r="51" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -28911,13 +28939,15 @@
         <v>-6.3182341684614158</v>
       </c>
       <c r="CE52" s="25">
-        <v>-10.445661656281573</v>
-      </c>
-      <c r="CF52" s="20"/>
+        <v>-9.8556936941616016</v>
+      </c>
+      <c r="CF52" s="25">
+        <v>3.7353315295976017</v>
+      </c>
       <c r="CG52" s="20"/>
       <c r="CH52" s="20"/>
       <c r="CI52" s="20"/>
-      <c r="CJ52" s="9"/>
+      <c r="CJ52" s="20"/>
       <c r="CK52" s="9"/>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
@@ -29228,13 +29258,15 @@
         <v>-2.3279437782407655</v>
       </c>
       <c r="CE53" s="25">
-        <v>10.665533592578981</v>
-      </c>
-      <c r="CF53" s="20"/>
+        <v>10.344236547862636</v>
+      </c>
+      <c r="CF53" s="25">
+        <v>8.5869754618836254</v>
+      </c>
       <c r="CG53" s="20"/>
       <c r="CH53" s="20"/>
       <c r="CI53" s="20"/>
-      <c r="CJ53" s="9"/>
+      <c r="CJ53" s="20"/>
       <c r="CK53" s="9"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
@@ -29545,13 +29577,15 @@
         <v>4.7724646742907595</v>
       </c>
       <c r="CE54" s="25">
-        <v>80.296805697439652</v>
-      </c>
-      <c r="CF54" s="20"/>
+        <v>108.51424767754395</v>
+      </c>
+      <c r="CF54" s="25">
+        <v>3.3109854407666006</v>
+      </c>
       <c r="CG54" s="20"/>
       <c r="CH54" s="20"/>
       <c r="CI54" s="20"/>
-      <c r="CJ54" s="9"/>
+      <c r="CJ54" s="20"/>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
@@ -29701,7 +29735,7 @@
       <c r="CG55" s="20"/>
       <c r="CH55" s="20"/>
       <c r="CI55" s="20"/>
-      <c r="CJ55" s="9"/>
+      <c r="CJ55" s="20"/>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
@@ -30012,13 +30046,15 @@
         <v>-2.8598627204164586</v>
       </c>
       <c r="CE56" s="25">
-        <v>7.096879139549884</v>
-      </c>
-      <c r="CF56" s="20"/>
+        <v>7.1522988316974079</v>
+      </c>
+      <c r="CF56" s="25">
+        <v>7.6508695361291501</v>
+      </c>
       <c r="CG56" s="20"/>
       <c r="CH56" s="20"/>
       <c r="CI56" s="20"/>
-      <c r="CJ56" s="9"/>
+      <c r="CJ56" s="20"/>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
@@ -30169,6 +30205,7 @@
       <c r="CG57" s="22"/>
       <c r="CH57" s="22"/>
       <c r="CI57" s="22"/>
+      <c r="CJ57" s="22"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -30262,7 +30299,7 @@
       <c r="CG59" s="20"/>
       <c r="CH59" s="20"/>
       <c r="CI59" s="20"/>
-      <c r="CJ59" s="9"/>
+      <c r="CJ59" s="20"/>
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
@@ -30412,7 +30449,7 @@
       <c r="CG60" s="20"/>
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
-      <c r="CJ60" s="9"/>
+      <c r="CJ60" s="20"/>
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
@@ -30633,10 +30670,11 @@
       <c r="CE69" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="CF69" s="23"/>
+      <c r="CF69" s="27"/>
       <c r="CG69" s="23"/>
       <c r="CH69" s="23"/>
       <c r="CI69" s="23"/>
+      <c r="CJ69" s="23"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -30888,10 +30926,13 @@
       <c r="CE70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="24"/>
+      <c r="CF70" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="CG70" s="24"/>
       <c r="CH70" s="24"/>
       <c r="CI70" s="24"/>
+      <c r="CJ70" s="24"/>
     </row>
     <row r="71" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -31144,13 +31185,15 @@
         <v>-8.9393352212368029</v>
       </c>
       <c r="CE72" s="25">
-        <v>-12.582022442767865</v>
-      </c>
-      <c r="CF72" s="20"/>
+        <v>-11.829521895807218</v>
+      </c>
+      <c r="CF72" s="25">
+        <v>0.88839731999306082</v>
+      </c>
       <c r="CG72" s="20"/>
       <c r="CH72" s="20"/>
       <c r="CI72" s="20"/>
-      <c r="CJ72" s="9"/>
+      <c r="CJ72" s="20"/>
       <c r="CK72" s="9"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
@@ -31461,13 +31504,15 @@
         <v>-2.4624166579406079</v>
       </c>
       <c r="CE73" s="25">
-        <v>8.8942171736930078</v>
-      </c>
-      <c r="CF73" s="20"/>
+        <v>8.4204980300270194</v>
+      </c>
+      <c r="CF73" s="25">
+        <v>7.5658044692225275</v>
+      </c>
       <c r="CG73" s="20"/>
       <c r="CH73" s="20"/>
       <c r="CI73" s="20"/>
-      <c r="CJ73" s="9"/>
+      <c r="CJ73" s="20"/>
       <c r="CK73" s="9"/>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
@@ -31778,13 +31823,15 @@
         <v>4.4503242904647919</v>
       </c>
       <c r="CE74" s="25">
-        <v>81.180441986817243</v>
-      </c>
-      <c r="CF74" s="20"/>
+        <v>109.40843923457146</v>
+      </c>
+      <c r="CF74" s="25">
+        <v>3.6559729825532656</v>
+      </c>
       <c r="CG74" s="20"/>
       <c r="CH74" s="20"/>
       <c r="CI74" s="20"/>
-      <c r="CJ74" s="9"/>
+      <c r="CJ74" s="20"/>
       <c r="CK74" s="9"/>
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
@@ -31934,7 +31981,7 @@
       <c r="CG75" s="20"/>
       <c r="CH75" s="20"/>
       <c r="CI75" s="20"/>
-      <c r="CJ75" s="9"/>
+      <c r="CJ75" s="20"/>
       <c r="CK75" s="9"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
@@ -32245,13 +32292,15 @@
         <v>-3.4141923422735374</v>
       </c>
       <c r="CE76" s="25">
-        <v>5.4086568425982335</v>
-      </c>
-      <c r="CF76" s="20"/>
+        <v>5.3714279292314444</v>
+      </c>
+      <c r="CF76" s="25">
+        <v>6.357518540391041</v>
+      </c>
       <c r="CG76" s="20"/>
       <c r="CH76" s="20"/>
       <c r="CI76" s="20"/>
-      <c r="CJ76" s="9"/>
+      <c r="CJ76" s="20"/>
       <c r="CK76" s="9"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
@@ -32402,6 +32451,7 @@
       <c r="CG77" s="22"/>
       <c r="CH77" s="22"/>
       <c r="CI77" s="22"/>
+      <c r="CJ77" s="22"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -32495,7 +32545,7 @@
       <c r="CG79" s="20"/>
       <c r="CH79" s="20"/>
       <c r="CI79" s="20"/>
-      <c r="CJ79" s="9"/>
+      <c r="CJ79" s="20"/>
       <c r="CK79" s="9"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
@@ -32645,7 +32695,7 @@
       <c r="CG80" s="20"/>
       <c r="CH80" s="20"/>
       <c r="CI80" s="20"/>
-      <c r="CJ80" s="9"/>
+      <c r="CJ80" s="20"/>
       <c r="CK80" s="9"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
@@ -32867,6 +32917,7 @@
       <c r="CI88" s="27">
         <v>0</v>
       </c>
+      <c r="CJ88" s="27"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -33129,6 +33180,9 @@
       </c>
       <c r="CI89" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ89" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33394,9 +33448,11 @@
         <v>107.32926951393125</v>
       </c>
       <c r="CI91" s="25">
-        <v>106.6567856491953</v>
-      </c>
-      <c r="CJ91" s="9"/>
+        <v>106.44315080119647</v>
+      </c>
+      <c r="CJ91" s="25">
+        <v>106.87443943983477</v>
+      </c>
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
@@ -33723,9 +33779,11 @@
         <v>99.444020272595296</v>
       </c>
       <c r="CI92" s="25">
-        <v>101.98140629837076</v>
-      </c>
-      <c r="CJ92" s="9"/>
+        <v>102.12961331857757</v>
+      </c>
+      <c r="CJ92" s="25">
+        <v>103.24685650777813</v>
+      </c>
       <c r="CK92" s="9"/>
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
@@ -34052,9 +34110,11 @@
         <v>100.80073590672301</v>
       </c>
       <c r="CI93" s="25">
-        <v>98.118956294499384</v>
-      </c>
-      <c r="CJ93" s="9"/>
+        <v>98.178808635257084</v>
+      </c>
+      <c r="CJ93" s="25">
+        <v>97.256002317273342</v>
+      </c>
       <c r="CK93" s="9"/>
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
@@ -34208,7 +34268,7 @@
       <c r="CG94" s="20"/>
       <c r="CH94" s="20"/>
       <c r="CI94" s="20"/>
-      <c r="CJ94" s="9"/>
+      <c r="CJ94" s="20"/>
       <c r="CK94" s="9"/>
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
@@ -34535,9 +34595,11 @@
         <v>100.8108237145474</v>
       </c>
       <c r="CI95" s="25">
-        <v>102.65708551847219</v>
-      </c>
-      <c r="CJ95" s="9"/>
+        <v>102.74649641369055</v>
+      </c>
+      <c r="CJ95" s="25">
+        <v>103.70286029604291</v>
+      </c>
       <c r="CK95" s="9"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
@@ -34692,6 +34754,7 @@
       <c r="CG96" s="22"/>
       <c r="CH96" s="22"/>
       <c r="CI96" s="22"/>
+      <c r="CJ96" s="22"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
@@ -34862,6 +34925,7 @@
       <c r="CI108" s="27">
         <v>0</v>
       </c>
+      <c r="CJ108" s="27"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -35124,6 +35188,9 @@
       </c>
       <c r="CI109" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ109" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35389,9 +35456,11 @@
         <v>17.87637774503515</v>
       </c>
       <c r="CI111" s="25">
-        <v>16.082123484308958</v>
-      </c>
-      <c r="CJ111" s="9"/>
+        <v>16.179697088501861</v>
+      </c>
+      <c r="CJ111" s="25">
+        <v>16.474902267278861</v>
+      </c>
       <c r="CK111" s="9"/>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
@@ -35718,9 +35787,11 @@
         <v>78.968097709017187</v>
       </c>
       <c r="CI112" s="25">
-        <v>82.72947778902352</v>
-      </c>
-      <c r="CJ112" s="9"/>
+        <v>82.446624087272212</v>
+      </c>
+      <c r="CJ112" s="25">
+        <v>81.585491576878752</v>
+      </c>
       <c r="CK112" s="9"/>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
@@ -36047,9 +36118,11 @@
         <v>3.1555245459476389</v>
       </c>
       <c r="CI113" s="25">
-        <v>1.1883987266675315</v>
-      </c>
-      <c r="CJ113" s="9"/>
+        <v>1.3736788242259363</v>
+      </c>
+      <c r="CJ113" s="25">
+        <v>1.9396061558423723</v>
+      </c>
       <c r="CK113" s="9"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
@@ -36203,7 +36276,7 @@
       <c r="CG114" s="20"/>
       <c r="CH114" s="20"/>
       <c r="CI114" s="20"/>
-      <c r="CJ114" s="9"/>
+      <c r="CJ114" s="20"/>
       <c r="CK114" s="9"/>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
@@ -36532,7 +36605,9 @@
       <c r="CI115" s="25">
         <v>100</v>
       </c>
-      <c r="CJ115" s="9"/>
+      <c r="CJ115" s="25">
+        <v>100</v>
+      </c>
       <c r="CK115" s="9"/>
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
@@ -36687,6 +36762,7 @@
       <c r="CG116" s="22"/>
       <c r="CH116" s="22"/>
       <c r="CI116" s="22"/>
+      <c r="CJ116" s="22"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
@@ -36780,7 +36856,7 @@
       <c r="CG118" s="20"/>
       <c r="CH118" s="20"/>
       <c r="CI118" s="20"/>
-      <c r="CJ118" s="9"/>
+      <c r="CJ118" s="20"/>
       <c r="CK118" s="9"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
@@ -36934,7 +37010,7 @@
       <c r="CG119" s="20"/>
       <c r="CH119" s="20"/>
       <c r="CI119" s="20"/>
-      <c r="CJ119" s="9"/>
+      <c r="CJ119" s="20"/>
       <c r="CK119" s="9"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
@@ -37165,6 +37241,7 @@
       <c r="CI128" s="27">
         <v>0</v>
       </c>
+      <c r="CJ128" s="27"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -37427,6 +37504,9 @@
       </c>
       <c r="CI129" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ129" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37692,9 +37772,11 @@
         <v>16.79068881835147</v>
       </c>
       <c r="CI131" s="25">
-        <v>15.47903319792003</v>
-      </c>
-      <c r="CJ131" s="9"/>
+        <v>15.617793877440068</v>
+      </c>
+      <c r="CJ131" s="25">
+        <v>15.985997186692909</v>
+      </c>
       <c r="CK131" s="9"/>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
@@ -38021,9 +38103,11 @@
         <v>80.053470841129382</v>
       </c>
       <c r="CI132" s="25">
-        <v>83.277603090103838</v>
-      </c>
-      <c r="CJ132" s="9"/>
+        <v>82.944618028460681</v>
+      </c>
+      <c r="CJ132" s="25">
+        <v>81.945824999947163</v>
+      </c>
       <c r="CK132" s="9"/>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
@@ -38350,9 +38434,11 @@
         <v>3.1558403405191595</v>
       </c>
       <c r="CI133" s="25">
-        <v>1.2433637119761285</v>
-      </c>
-      <c r="CJ133" s="9"/>
+        <v>1.4375880940992358</v>
+      </c>
+      <c r="CJ133" s="25">
+        <v>2.0681778133599269</v>
+      </c>
       <c r="CK133" s="9"/>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
@@ -38506,7 +38592,7 @@
       <c r="CG134" s="20"/>
       <c r="CH134" s="20"/>
       <c r="CI134" s="20"/>
-      <c r="CJ134" s="9"/>
+      <c r="CJ134" s="20"/>
       <c r="CK134" s="9"/>
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
@@ -38835,7 +38921,9 @@
       <c r="CI135" s="25">
         <v>100</v>
       </c>
-      <c r="CJ135" s="9"/>
+      <c r="CJ135" s="25">
+        <v>100</v>
+      </c>
       <c r="CK135" s="9"/>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
@@ -38990,6 +39078,7 @@
       <c r="CG136" s="22"/>
       <c r="CH136" s="22"/>
       <c r="CI136" s="22"/>
+      <c r="CJ136" s="22"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -39084,7 +39173,7 @@
       <c r="CG138" s="17"/>
       <c r="CH138" s="17"/>
       <c r="CI138" s="17"/>
-      <c r="CJ138" s="15"/>
+      <c r="CJ138" s="17"/>
       <c r="CK138" s="15"/>
       <c r="CL138" s="15"/>
       <c r="CM138" s="15"/>
@@ -39239,7 +39328,7 @@
       <c r="CG139" s="17"/>
       <c r="CH139" s="17"/>
       <c r="CI139" s="17"/>
-      <c r="CJ139" s="15"/>
+      <c r="CJ139" s="17"/>
       <c r="CK139" s="15"/>
       <c r="CL139" s="15"/>
       <c r="CM139" s="15"/>
@@ -39436,13 +39525,13 @@
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
     <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH29:CI29"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH29:CJ29"/>
+    <mergeCell ref="CD69:CF69"/>
+    <mergeCell ref="CH88:CJ88"/>
+    <mergeCell ref="CH108:CJ108"/>
+    <mergeCell ref="CH128:CJ128"/>
     <mergeCell ref="CD49:CE49"/>
-    <mergeCell ref="CD69:CE69"/>
-    <mergeCell ref="CH88:CI88"/>
-    <mergeCell ref="CH108:CI108"/>
-    <mergeCell ref="CH128:CI128"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="AT128:AW128"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CI$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CK$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,16 +611,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23620,9 +23617,9 @@
   <dimension ref="A1:EW139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23634,8 +23631,8 @@
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="11.54296875" style="1" customWidth="1"/>
-    <col min="82" max="88" width="9.7265625" style="17" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="9.26953125" style="17" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.25">
@@ -23650,7 +23647,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.25">
@@ -23660,7 +23657,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.25">
@@ -23801,6 +23798,7 @@
       </c>
       <c r="CI9" s="27"/>
       <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24066,6 +24064,9 @@
       </c>
       <c r="CJ10" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24334,9 +24335,11 @@
         <v>130429.76216058555</v>
       </c>
       <c r="CJ12" s="19">
-        <v>159203.06107818737</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>160975.38033352135</v>
+      </c>
+      <c r="CK12" s="19">
+        <v>218091.56878135525</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24665,9 +24668,11 @@
         <v>664628.85626506037</v>
       </c>
       <c r="CJ13" s="19">
-        <v>788390.71624751377</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>787926.29941272957</v>
+      </c>
+      <c r="CK13" s="19">
+        <v>798045.23567642726</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -24996,9 +25001,11 @@
         <v>11073.668521034813</v>
       </c>
       <c r="CJ14" s="19">
-        <v>18743.130143448438</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>17483.618536133064</v>
+      </c>
+      <c r="CK14" s="19">
+        <v>19661.112913709345</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25152,7 +25159,7 @@
       <c r="CH15" s="20"/>
       <c r="CI15" s="20"/>
       <c r="CJ15" s="20"/>
-      <c r="CK15" s="9"/>
+      <c r="CK15" s="20"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25481,9 +25488,11 @@
         <v>806132.28694668063</v>
       </c>
       <c r="CJ16" s="21">
-        <v>966336.90746914968</v>
-      </c>
-      <c r="CK16" s="9"/>
+        <v>966385.29828238394</v>
+      </c>
+      <c r="CK16" s="21">
+        <v>1035797.9173714919</v>
+      </c>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -25638,6 +25647,7 @@
       <c r="CH17" s="22"/>
       <c r="CI17" s="22"/>
       <c r="CJ17" s="22"/>
+      <c r="CK17" s="22"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -25732,7 +25742,7 @@
       <c r="CH19" s="20"/>
       <c r="CI19" s="20"/>
       <c r="CJ19" s="20"/>
-      <c r="CK19" s="9"/>
+      <c r="CK19" s="20"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -25886,7 +25896,7 @@
       <c r="CH20" s="20"/>
       <c r="CI20" s="20"/>
       <c r="CJ20" s="20"/>
-      <c r="CK20" s="9"/>
+      <c r="CK20" s="20"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
@@ -25964,7 +25974,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.25">
@@ -25974,7 +25984,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.25">
@@ -26113,10 +26123,9 @@
       <c r="CH29" s="27">
         <v>2021</v>
       </c>
-      <c r="CI29" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI29" s="27"/>
       <c r="CJ29" s="27"/>
+      <c r="CK29" s="27"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -26382,6 +26391,9 @@
       </c>
       <c r="CJ30" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK30" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26650,9 +26662,11 @@
         <v>122534.66867416279</v>
       </c>
       <c r="CJ32" s="19">
-        <v>148962.70980472476</v>
-      </c>
-      <c r="CK32" s="9"/>
+        <v>149849.83840446768</v>
+      </c>
+      <c r="CK32" s="19">
+        <v>200411.80588154728</v>
+      </c>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
@@ -26981,9 +26995,11 @@
         <v>650769.9722624555</v>
       </c>
       <c r="CJ33" s="19">
-        <v>763597.79165588447</v>
-      </c>
-      <c r="CK33" s="9"/>
+        <v>765281.26945021667</v>
+      </c>
+      <c r="CK33" s="19">
+        <v>783714.04116221564</v>
+      </c>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -27312,9 +27328,11 @@
         <v>11279.082191936619</v>
       </c>
       <c r="CJ34" s="19">
-        <v>19271.952061430275</v>
-      </c>
-      <c r="CK34" s="9"/>
+        <v>18022.981191521263</v>
+      </c>
+      <c r="CK34" s="19">
+        <v>20284.183518963779</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -27468,7 +27486,7 @@
       <c r="CH35" s="21"/>
       <c r="CI35" s="21"/>
       <c r="CJ35" s="21"/>
-      <c r="CK35" s="9"/>
+      <c r="CK35" s="21"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -27797,9 +27815,11 @@
         <v>784583.72312855499</v>
       </c>
       <c r="CJ36" s="21">
-        <v>931832.45352203958</v>
-      </c>
-      <c r="CK36" s="9"/>
+        <v>933154.08904620563</v>
+      </c>
+      <c r="CK36" s="21">
+        <v>1004410.0305627267</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -27954,6 +27974,7 @@
       <c r="CH37" s="22"/>
       <c r="CI37" s="22"/>
       <c r="CJ37" s="22"/>
+      <c r="CK37" s="22"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -28048,7 +28069,7 @@
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
       <c r="CJ39" s="20"/>
-      <c r="CK39" s="9"/>
+      <c r="CK39" s="20"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
@@ -28202,7 +28223,7 @@
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
       <c r="CJ40" s="20"/>
-      <c r="CK40" s="9"/>
+      <c r="CK40" s="20"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
@@ -28280,7 +28301,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.25">
@@ -28290,7 +28311,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.25">
@@ -28423,14 +28444,13 @@
       <c r="CD49" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="23"/>
+      <c r="CE49" s="27"/>
+      <c r="CF49" s="27"/>
+      <c r="CG49" s="27"/>
       <c r="CH49" s="23"/>
       <c r="CI49" s="23"/>
       <c r="CJ49" s="23"/>
+      <c r="CK49" s="23"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -28682,11 +28702,16 @@
       <c r="CE50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="24"/>
-      <c r="CG50" s="24"/>
+      <c r="CF50" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG50" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="CH50" s="24"/>
       <c r="CI50" s="24"/>
       <c r="CJ50" s="24"/>
+      <c r="CK50" s="24"/>
     </row>
     <row r="51" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -28942,13 +28967,15 @@
         <v>-9.8556936941616016</v>
       </c>
       <c r="CF52" s="25">
-        <v>3.7353315295976017</v>
-      </c>
-      <c r="CG52" s="20"/>
+        <v>4.8901593594348043</v>
+      </c>
+      <c r="CG52" s="25">
+        <v>9.4423587689708768</v>
+      </c>
       <c r="CH52" s="20"/>
       <c r="CI52" s="20"/>
       <c r="CJ52" s="20"/>
-      <c r="CK52" s="9"/>
+      <c r="CK52" s="20"/>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
@@ -29261,13 +29288,15 @@
         <v>10.344236547862636</v>
       </c>
       <c r="CF53" s="25">
-        <v>8.5869754618836254</v>
-      </c>
-      <c r="CG53" s="20"/>
+        <v>8.5230101989708089</v>
+      </c>
+      <c r="CG53" s="25">
+        <v>9.6521947576153337</v>
+      </c>
       <c r="CH53" s="20"/>
       <c r="CI53" s="20"/>
       <c r="CJ53" s="20"/>
-      <c r="CK53" s="9"/>
+      <c r="CK53" s="20"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
@@ -29580,13 +29609,15 @@
         <v>108.51424767754395</v>
       </c>
       <c r="CF54" s="25">
-        <v>3.3109854407666006</v>
-      </c>
-      <c r="CG54" s="20"/>
+        <v>-3.6313654008466045</v>
+      </c>
+      <c r="CG54" s="25">
+        <v>4.9236616717304997</v>
+      </c>
       <c r="CH54" s="20"/>
       <c r="CI54" s="20"/>
       <c r="CJ54" s="20"/>
-      <c r="CK54" s="9"/>
+      <c r="CK54" s="20"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
@@ -29736,7 +29767,7 @@
       <c r="CH55" s="20"/>
       <c r="CI55" s="20"/>
       <c r="CJ55" s="20"/>
-      <c r="CK55" s="9"/>
+      <c r="CK55" s="20"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
@@ -30049,13 +30080,15 @@
         <v>7.1522988316974079</v>
       </c>
       <c r="CF56" s="25">
-        <v>7.6508695361291501</v>
-      </c>
-      <c r="CG56" s="20"/>
+        <v>7.6562603196974379</v>
+      </c>
+      <c r="CG56" s="25">
+        <v>9.5143017121567937</v>
+      </c>
       <c r="CH56" s="20"/>
       <c r="CI56" s="20"/>
       <c r="CJ56" s="20"/>
-      <c r="CK56" s="9"/>
+      <c r="CK56" s="20"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -30206,6 +30239,7 @@
       <c r="CH57" s="22"/>
       <c r="CI57" s="22"/>
       <c r="CJ57" s="22"/>
+      <c r="CK57" s="22"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -30300,7 +30334,7 @@
       <c r="CH59" s="20"/>
       <c r="CI59" s="20"/>
       <c r="CJ59" s="20"/>
-      <c r="CK59" s="9"/>
+      <c r="CK59" s="20"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
@@ -30450,7 +30484,7 @@
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
       <c r="CJ60" s="20"/>
-      <c r="CK60" s="9"/>
+      <c r="CK60" s="20"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
@@ -30524,7 +30558,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.25">
@@ -30534,7 +30568,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.25">
@@ -30667,14 +30701,13 @@
       <c r="CD69" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="27" t="s">
-        <v>48</v>
-      </c>
+      <c r="CE69" s="27"/>
       <c r="CF69" s="27"/>
-      <c r="CG69" s="23"/>
+      <c r="CG69" s="27"/>
       <c r="CH69" s="23"/>
       <c r="CI69" s="23"/>
       <c r="CJ69" s="23"/>
+      <c r="CK69" s="23"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -30929,10 +30962,13 @@
       <c r="CF70" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="24"/>
+      <c r="CG70" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="CH70" s="24"/>
       <c r="CI70" s="24"/>
       <c r="CJ70" s="24"/>
+      <c r="CK70" s="24"/>
     </row>
     <row r="71" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -31188,13 +31224,15 @@
         <v>-11.829521895807218</v>
       </c>
       <c r="CF72" s="25">
-        <v>0.88839731999306082</v>
-      </c>
-      <c r="CG72" s="20"/>
+        <v>1.4892254249739665</v>
+      </c>
+      <c r="CG72" s="25">
+        <v>4.7327594071570473</v>
+      </c>
       <c r="CH72" s="20"/>
       <c r="CI72" s="20"/>
       <c r="CJ72" s="20"/>
-      <c r="CK72" s="9"/>
+      <c r="CK72" s="20"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
@@ -31507,13 +31545,15 @@
         <v>8.4204980300270194</v>
       </c>
       <c r="CF73" s="25">
-        <v>7.5658044692225275</v>
-      </c>
-      <c r="CG73" s="20"/>
+        <v>7.8029510995980758</v>
+      </c>
+      <c r="CG73" s="25">
+        <v>8.17932245857547</v>
+      </c>
       <c r="CH73" s="20"/>
       <c r="CI73" s="20"/>
       <c r="CJ73" s="20"/>
-      <c r="CK73" s="9"/>
+      <c r="CK73" s="20"/>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
@@ -31826,13 +31866,15 @@
         <v>109.40843923457146</v>
       </c>
       <c r="CF74" s="25">
-        <v>3.6559729825532656</v>
-      </c>
-      <c r="CG74" s="20"/>
+        <v>-3.0617321224933818</v>
+      </c>
+      <c r="CG74" s="25">
+        <v>5.4273803677590706</v>
+      </c>
       <c r="CH74" s="20"/>
       <c r="CI74" s="20"/>
       <c r="CJ74" s="20"/>
-      <c r="CK74" s="9"/>
+      <c r="CK74" s="20"/>
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
       <c r="CN74" s="9"/>
@@ -31982,7 +32024,7 @@
       <c r="CH75" s="20"/>
       <c r="CI75" s="20"/>
       <c r="CJ75" s="20"/>
-      <c r="CK75" s="9"/>
+      <c r="CK75" s="20"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
@@ -32295,13 +32337,15 @@
         <v>5.3714279292314444</v>
       </c>
       <c r="CF76" s="25">
-        <v>6.357518540391041</v>
-      </c>
-      <c r="CG76" s="20"/>
+        <v>6.5083674126682638</v>
+      </c>
+      <c r="CG76" s="25">
+        <v>7.4173707120401815</v>
+      </c>
       <c r="CH76" s="20"/>
       <c r="CI76" s="20"/>
       <c r="CJ76" s="20"/>
-      <c r="CK76" s="9"/>
+      <c r="CK76" s="20"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
@@ -32452,6 +32496,7 @@
       <c r="CH77" s="22"/>
       <c r="CI77" s="22"/>
       <c r="CJ77" s="22"/>
+      <c r="CK77" s="22"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -32546,7 +32591,7 @@
       <c r="CH79" s="20"/>
       <c r="CI79" s="20"/>
       <c r="CJ79" s="20"/>
-      <c r="CK79" s="9"/>
+      <c r="CK79" s="20"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
@@ -32696,7 +32741,7 @@
       <c r="CH80" s="20"/>
       <c r="CI80" s="20"/>
       <c r="CJ80" s="20"/>
-      <c r="CK80" s="9"/>
+      <c r="CK80" s="20"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
@@ -32765,7 +32810,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.25">
@@ -32775,7 +32820,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.25">
@@ -32914,10 +32959,9 @@
       <c r="CH88" s="27">
         <v>2021</v>
       </c>
-      <c r="CI88" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI88" s="27"/>
       <c r="CJ88" s="27"/>
+      <c r="CK88" s="27"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -33183,6 +33227,9 @@
       </c>
       <c r="CJ89" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK89" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33451,9 +33498,11 @@
         <v>106.44315080119647</v>
       </c>
       <c r="CJ91" s="25">
-        <v>106.87443943983477</v>
-      </c>
-      <c r="CK91" s="9"/>
+        <v>107.4244604115115</v>
+      </c>
+      <c r="CK91" s="25">
+        <v>108.82171727460883</v>
+      </c>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
@@ -33782,9 +33831,11 @@
         <v>102.12961331857757</v>
       </c>
       <c r="CJ92" s="25">
-        <v>103.24685650777813</v>
-      </c>
-      <c r="CK92" s="9"/>
+        <v>102.95904667558129</v>
+      </c>
+      <c r="CK92" s="25">
+        <v>101.82862546305272</v>
+      </c>
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
@@ -34113,9 +34164,11 @@
         <v>98.178808635257084</v>
       </c>
       <c r="CJ93" s="25">
-        <v>97.256002317273342</v>
-      </c>
-      <c r="CK93" s="9"/>
+        <v>97.007361603185075</v>
+      </c>
+      <c r="CK93" s="25">
+        <v>96.92829339336275</v>
+      </c>
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
       <c r="CN93" s="9"/>
@@ -34269,7 +34322,7 @@
       <c r="CH94" s="20"/>
       <c r="CI94" s="20"/>
       <c r="CJ94" s="20"/>
-      <c r="CK94" s="9"/>
+      <c r="CK94" s="20"/>
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
@@ -34598,9 +34651,11 @@
         <v>102.74649641369055</v>
       </c>
       <c r="CJ95" s="25">
-        <v>103.70286029604291</v>
-      </c>
-      <c r="CK95" s="9"/>
+        <v>103.56117061761414</v>
+      </c>
+      <c r="CK95" s="25">
+        <v>103.12500730316083</v>
+      </c>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
@@ -34755,6 +34810,7 @@
       <c r="CH96" s="22"/>
       <c r="CI96" s="22"/>
       <c r="CJ96" s="22"/>
+      <c r="CK96" s="22"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
@@ -34773,7 +34829,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.25">
@@ -34783,7 +34839,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.25">
@@ -34922,10 +34978,9 @@
       <c r="CH108" s="27">
         <v>2021</v>
       </c>
-      <c r="CI108" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI108" s="27"/>
       <c r="CJ108" s="27"/>
+      <c r="CK108" s="27"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -35191,6 +35246,9 @@
       </c>
       <c r="CJ109" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK109" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35459,9 +35517,11 @@
         <v>16.179697088501861</v>
       </c>
       <c r="CJ111" s="25">
-        <v>16.474902267278861</v>
-      </c>
-      <c r="CK111" s="9"/>
+        <v>16.657474055082666</v>
+      </c>
+      <c r="CK111" s="25">
+        <v>21.055416807054275</v>
+      </c>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
       <c r="CN111" s="9"/>
@@ -35790,9 +35850,11 @@
         <v>82.446624087272212</v>
       </c>
       <c r="CJ112" s="25">
-        <v>81.585491576878752</v>
-      </c>
-      <c r="CK112" s="9"/>
+        <v>81.533349153092402</v>
+      </c>
+      <c r="CK112" s="25">
+        <v>77.046422115000837</v>
+      </c>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
@@ -36121,9 +36183,11 @@
         <v>1.3736788242259363</v>
       </c>
       <c r="CJ113" s="25">
-        <v>1.9396061558423723</v>
-      </c>
-      <c r="CK113" s="9"/>
+        <v>1.8091767918249353</v>
+      </c>
+      <c r="CK113" s="25">
+        <v>1.8981610779448816</v>
+      </c>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
@@ -36277,7 +36341,7 @@
       <c r="CH114" s="20"/>
       <c r="CI114" s="20"/>
       <c r="CJ114" s="20"/>
-      <c r="CK114" s="9"/>
+      <c r="CK114" s="20"/>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
@@ -36608,7 +36672,9 @@
       <c r="CJ115" s="25">
         <v>100</v>
       </c>
-      <c r="CK115" s="9"/>
+      <c r="CK115" s="25">
+        <v>100</v>
+      </c>
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
       <c r="CN115" s="9"/>
@@ -36763,6 +36829,7 @@
       <c r="CH116" s="22"/>
       <c r="CI116" s="22"/>
       <c r="CJ116" s="22"/>
+      <c r="CK116" s="22"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
@@ -36857,7 +36924,7 @@
       <c r="CH118" s="20"/>
       <c r="CI118" s="20"/>
       <c r="CJ118" s="20"/>
-      <c r="CK118" s="9"/>
+      <c r="CK118" s="20"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
@@ -37011,7 +37078,7 @@
       <c r="CH119" s="20"/>
       <c r="CI119" s="20"/>
       <c r="CJ119" s="20"/>
-      <c r="CK119" s="9"/>
+      <c r="CK119" s="20"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
@@ -37089,7 +37156,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.25">
@@ -37099,7 +37166,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.25">
@@ -37238,10 +37305,9 @@
       <c r="CH128" s="27">
         <v>2021</v>
       </c>
-      <c r="CI128" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI128" s="27"/>
       <c r="CJ128" s="27"/>
+      <c r="CK128" s="27"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -37507,6 +37573,9 @@
       </c>
       <c r="CJ129" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK129" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37775,9 +37844,11 @@
         <v>15.617793877440068</v>
       </c>
       <c r="CJ131" s="25">
-        <v>15.985997186692909</v>
-      </c>
-      <c r="CK131" s="9"/>
+        <v>16.058423808401464</v>
+      </c>
+      <c r="CK131" s="25">
+        <v>19.95318642619144</v>
+      </c>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
@@ -38106,9 +38177,11 @@
         <v>82.944618028460681</v>
       </c>
       <c r="CJ132" s="25">
-        <v>81.945824999947163</v>
-      </c>
-      <c r="CK132" s="9"/>
+        <v>82.010171571173757</v>
+      </c>
+      <c r="CK132" s="25">
+        <v>78.02730133261764</v>
+      </c>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
@@ -38437,9 +38510,11 @@
         <v>1.4375880940992358</v>
       </c>
       <c r="CJ133" s="25">
-        <v>2.0681778133599269</v>
-      </c>
-      <c r="CK133" s="9"/>
+        <v>1.9314046204247888</v>
+      </c>
+      <c r="CK133" s="25">
+        <v>2.0195122411909252</v>
+      </c>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
@@ -38593,7 +38668,7 @@
       <c r="CH134" s="20"/>
       <c r="CI134" s="20"/>
       <c r="CJ134" s="20"/>
-      <c r="CK134" s="9"/>
+      <c r="CK134" s="20"/>
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
@@ -38924,7 +38999,9 @@
       <c r="CJ135" s="25">
         <v>100</v>
       </c>
-      <c r="CK135" s="9"/>
+      <c r="CK135" s="25">
+        <v>100</v>
+      </c>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
       <c r="CN135" s="9"/>
@@ -39079,6 +39156,7 @@
       <c r="CH136" s="22"/>
       <c r="CI136" s="22"/>
       <c r="CJ136" s="22"/>
+      <c r="CK136" s="22"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -39174,7 +39252,7 @@
       <c r="CH138" s="17"/>
       <c r="CI138" s="17"/>
       <c r="CJ138" s="17"/>
-      <c r="CK138" s="15"/>
+      <c r="CK138" s="17"/>
       <c r="CL138" s="15"/>
       <c r="CM138" s="15"/>
       <c r="CN138" s="15"/>
@@ -39329,7 +39407,7 @@
       <c r="CH139" s="17"/>
       <c r="CI139" s="17"/>
       <c r="CJ139" s="17"/>
-      <c r="CK139" s="15"/>
+      <c r="CK139" s="17"/>
       <c r="CL139" s="15"/>
       <c r="CM139" s="15"/>
       <c r="CN139" s="15"/>
@@ -39525,13 +39603,13 @@
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
     <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH29:CJ29"/>
-    <mergeCell ref="CD69:CF69"/>
-    <mergeCell ref="CH88:CJ88"/>
-    <mergeCell ref="CH108:CJ108"/>
-    <mergeCell ref="CH128:CJ128"/>
-    <mergeCell ref="CD49:CE49"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="AT128:AW128"/>
@@ -39555,9 +39633,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="86" man="1"/>
-    <brk id="80" max="86" man="1"/>
-    <brk id="99" max="86" man="1"/>
+    <brk id="40" max="88" man="1"/>
+    <brk id="80" max="88" man="1"/>
+    <brk id="99" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCEBB3D-A32B-49FE-B3E3-82372141B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -320,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CK$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CN$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,24 +612,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2001 to Q1 2022</t>
+  </si>
+  <si>
+    <t>2021 - 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -702,9 +706,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -719,33 +723,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,14 +759,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23357,7 +23373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23409,7 +23425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23610,62 +23626,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EW139"/>
+  <dimension ref="A1:EW162"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A160" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CI67" sqref="CI67:CM83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
-    <col min="2" max="69" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="10.08984375" style="1" customWidth="1"/>
-    <col min="74" max="77" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.54296875" style="1" customWidth="1"/>
-    <col min="82" max="89" width="9.26953125" style="17" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
+    <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
+    <col min="74" max="77" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="11.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="28">
         <v>2000</v>
@@ -23781,12 +23795,12 @@
       <c r="BW9" s="28"/>
       <c r="BX9" s="28"/>
       <c r="BY9" s="28"/>
-      <c r="BZ9" s="28">
+      <c r="BZ9" s="27">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
       <c r="CD9" s="27">
         <v>2020</v>
       </c>
@@ -23799,8 +23813,11 @@
       <c r="CI9" s="27"/>
       <c r="CJ9" s="27"/>
       <c r="CK9" s="27"/>
+      <c r="CL9" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24032,16 +24049,16 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="18" t="s">
@@ -24068,11 +24085,14 @@
       <c r="CK10" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24304,16 +24324,16 @@
       <c r="BY12" s="8">
         <v>200459.26066137082</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="19">
         <v>137148.49122247534</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="19">
         <v>166239.87409286501</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="19">
         <v>165809.22701737122</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="19">
         <v>211939.34770343461</v>
       </c>
       <c r="CD12" s="19">
@@ -24326,7 +24346,7 @@
         <v>153470.43165593373</v>
       </c>
       <c r="CG12" s="19">
-        <v>199275.28174145002</v>
+        <v>202885.43723331287</v>
       </c>
       <c r="CH12" s="19">
         <v>125934.52691420163</v>
@@ -24338,9 +24358,11 @@
         <v>160975.38033352135</v>
       </c>
       <c r="CK12" s="19">
-        <v>218091.56878135525</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>217986.43405091568</v>
+      </c>
+      <c r="CL12" s="19">
+        <v>135232.90344832296</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24405,7 +24427,7 @@
       <c r="EV12" s="9"/>
       <c r="EW12" s="9"/>
     </row>
-    <row r="13" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24637,16 +24659,16 @@
       <c r="BY13" s="8">
         <v>693276.46351653419</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="19">
         <v>555934.52198276797</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="19">
         <v>679045.00227141869</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="19">
         <v>749115.19154581183</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="19">
         <v>745064.33817422262</v>
       </c>
       <c r="CD13" s="19">
@@ -24659,7 +24681,7 @@
         <v>726045.37781260512</v>
       </c>
       <c r="CG13" s="19">
-        <v>727796.86484205374</v>
+        <v>720588.29363605776</v>
       </c>
       <c r="CH13" s="19">
         <v>556310.12994573393</v>
@@ -24671,9 +24693,11 @@
         <v>787926.29941272957</v>
       </c>
       <c r="CK13" s="19">
-        <v>798045.23567642726</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>788538.73960287869</v>
+      </c>
+      <c r="CL13" s="19">
+        <v>622543.52220588969</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24738,7 +24762,7 @@
       <c r="EV13" s="9"/>
       <c r="EW13" s="9"/>
     </row>
-    <row r="14" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24970,16 +24994,16 @@
       <c r="BY14" s="8">
         <v>26580.096353468754</v>
       </c>
-      <c r="BZ14" s="8">
+      <c r="BZ14" s="19">
         <v>25223.514675185925</v>
       </c>
-      <c r="CA14" s="8">
+      <c r="CA14" s="19">
         <v>26224.241993592579</v>
       </c>
-      <c r="CB14" s="8">
+      <c r="CB14" s="19">
         <v>28105.435585655418</v>
       </c>
-      <c r="CC14" s="8">
+      <c r="CC14" s="19">
         <v>27803.896591451896</v>
       </c>
       <c r="CD14" s="19">
@@ -24992,7 +25016,7 @@
         <v>18142.436705528107</v>
       </c>
       <c r="CG14" s="19">
-        <v>18738.49291994984</v>
+        <v>18700.19865871939</v>
       </c>
       <c r="CH14" s="19">
         <v>22229.866504719321</v>
@@ -25004,9 +25028,11 @@
         <v>17483.618536133064</v>
       </c>
       <c r="CK14" s="19">
-        <v>19661.112913709345</v>
-      </c>
-      <c r="CL14" s="9"/>
+        <v>19719.197301440134</v>
+      </c>
+      <c r="CL14" s="19">
+        <v>22910.748164996636</v>
+      </c>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25071,7 +25097,7 @@
       <c r="EV14" s="9"/>
       <c r="EW14" s="9"/>
     </row>
-    <row r="15" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -25148,10 +25174,10 @@
       <c r="BW15" s="9"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
-      <c r="BZ15" s="9"/>
-      <c r="CA15" s="9"/>
-      <c r="CB15" s="9"/>
-      <c r="CC15" s="9"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
       <c r="CD15" s="20"/>
       <c r="CE15" s="20"/>
       <c r="CF15" s="20"/>
@@ -25160,7 +25186,7 @@
       <c r="CI15" s="20"/>
       <c r="CJ15" s="20"/>
       <c r="CK15" s="20"/>
-      <c r="CL15" s="9"/>
+      <c r="CL15" s="20"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25225,7 +25251,7 @@
       <c r="EV15" s="9"/>
       <c r="EW15" s="9"/>
     </row>
-    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -25457,16 +25483,16 @@
       <c r="BY16" s="11">
         <v>920315.82053137373</v>
       </c>
-      <c r="BZ16" s="11">
+      <c r="BZ16" s="21">
         <v>718306.52788042917</v>
       </c>
-      <c r="CA16" s="11">
+      <c r="CA16" s="21">
         <v>871509.11835787632</v>
       </c>
-      <c r="CB16" s="11">
+      <c r="CB16" s="21">
         <v>943029.85414883844</v>
       </c>
-      <c r="CC16" s="11">
+      <c r="CC16" s="21">
         <v>984807.58246910921</v>
       </c>
       <c r="CD16" s="21">
@@ -25479,7 +25505,7 @@
         <v>897658.24617406691</v>
       </c>
       <c r="CG16" s="21">
-        <v>945810.63950345363</v>
+        <v>942173.92952809006</v>
       </c>
       <c r="CH16" s="21">
         <v>704474.52336465498</v>
@@ -25491,9 +25517,11 @@
         <v>966385.29828238394</v>
       </c>
       <c r="CK16" s="21">
-        <v>1035797.9173714919</v>
-      </c>
-      <c r="CL16" s="9"/>
+        <v>1026244.3709552345</v>
+      </c>
+      <c r="CL16" s="21">
+        <v>780687.17381920933</v>
+      </c>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25558,7 +25586,7 @@
       <c r="EV16" s="9"/>
       <c r="EW16" s="9"/>
     </row>
-    <row r="17" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -25636,10 +25664,10 @@
       <c r="BW17" s="12"/>
       <c r="BX17" s="12"/>
       <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
-      <c r="CB17" s="12"/>
-      <c r="CC17" s="12"/>
+      <c r="BZ17" s="22"/>
+      <c r="CA17" s="22"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
       <c r="CD17" s="22"/>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
@@ -25648,13 +25676,14 @@
       <c r="CI17" s="22"/>
       <c r="CJ17" s="22"/>
       <c r="CK17" s="22"/>
+      <c r="CL17" s="22"/>
     </row>
-    <row r="18" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -25731,10 +25760,10 @@
       <c r="BW19" s="9"/>
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
-      <c r="BZ19" s="9"/>
-      <c r="CA19" s="9"/>
-      <c r="CB19" s="9"/>
-      <c r="CC19" s="9"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
       <c r="CD19" s="20"/>
       <c r="CE19" s="20"/>
       <c r="CF19" s="20"/>
@@ -25743,7 +25772,7 @@
       <c r="CI19" s="20"/>
       <c r="CJ19" s="20"/>
       <c r="CK19" s="20"/>
-      <c r="CL19" s="9"/>
+      <c r="CL19" s="20"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -25808,7 +25837,7 @@
       <c r="EV19" s="9"/>
       <c r="EW19" s="9"/>
     </row>
-    <row r="20" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -25885,10 +25914,10 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
+      <c r="BZ20" s="20"/>
+      <c r="CA20" s="20"/>
+      <c r="CB20" s="20"/>
+      <c r="CC20" s="20"/>
       <c r="CD20" s="20"/>
       <c r="CE20" s="20"/>
       <c r="CF20" s="20"/>
@@ -25897,7 +25926,7 @@
       <c r="CI20" s="20"/>
       <c r="CJ20" s="20"/>
       <c r="CK20" s="20"/>
-      <c r="CL20" s="9"/>
+      <c r="CL20" s="20"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -25962,37 +25991,37 @@
       <c r="EV20" s="9"/>
       <c r="EW20" s="9"/>
     </row>
-    <row r="21" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="28">
         <v>2000</v>
@@ -26108,12 +26137,12 @@
       <c r="BW29" s="28"/>
       <c r="BX29" s="28"/>
       <c r="BY29" s="28"/>
-      <c r="BZ29" s="28">
+      <c r="BZ29" s="27">
         <v>2019</v>
       </c>
-      <c r="CA29" s="28"/>
-      <c r="CB29" s="28"/>
-      <c r="CC29" s="28"/>
+      <c r="CA29" s="30"/>
+      <c r="CB29" s="30"/>
+      <c r="CC29" s="30"/>
       <c r="CD29" s="27">
         <v>2020</v>
       </c>
@@ -26126,8 +26155,11 @@
       <c r="CI29" s="27"/>
       <c r="CJ29" s="27"/>
       <c r="CK29" s="27"/>
+      <c r="CL29" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -26359,16 +26391,16 @@
       <c r="BY30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ30" s="6" t="s">
+      <c r="BZ30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA30" s="6" t="s">
+      <c r="CA30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB30" s="6" t="s">
+      <c r="CB30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC30" s="6" t="s">
+      <c r="CC30" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD30" s="18" t="s">
@@ -26395,11 +26427,14 @@
       <c r="CK30" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL30" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -26631,16 +26666,16 @@
       <c r="BY32" s="8">
         <v>196464.54787105293</v>
       </c>
-      <c r="BZ32" s="8">
+      <c r="BZ32" s="19">
         <v>135698.77619281673</v>
       </c>
-      <c r="CA32" s="8">
+      <c r="CA32" s="19">
         <v>165116.96986125276</v>
       </c>
-      <c r="CB32" s="8">
+      <c r="CB32" s="19">
         <v>164335.49011773395</v>
       </c>
-      <c r="CC32" s="8">
+      <c r="CC32" s="19">
         <v>209530.66714622904</v>
       </c>
       <c r="CD32" s="19">
@@ -26653,7 +26688,7 @@
         <v>147650.98243383912</v>
       </c>
       <c r="CG32" s="19">
-        <v>191355.4145006628</v>
+        <v>194822.09031976195</v>
       </c>
       <c r="CH32" s="19">
         <v>117334.74706809164</v>
@@ -26665,9 +26700,11 @@
         <v>149849.83840446768</v>
       </c>
       <c r="CK32" s="19">
-        <v>200411.80588154728</v>
-      </c>
-      <c r="CL32" s="9"/>
+        <v>200376.31381551066</v>
+      </c>
+      <c r="CL32" s="19">
+        <v>122142.35642447366</v>
+      </c>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
@@ -26732,7 +26769,7 @@
       <c r="EV32" s="9"/>
       <c r="EW32" s="9"/>
     </row>
-    <row r="33" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -26964,16 +27001,16 @@
       <c r="BY33" s="8">
         <v>685913.1490692267</v>
       </c>
-      <c r="BZ33" s="8">
+      <c r="BZ33" s="19">
         <v>552359.66261243483</v>
       </c>
-      <c r="CA33" s="8">
+      <c r="CA33" s="19">
         <v>675087.74610758526</v>
       </c>
-      <c r="CB33" s="8">
+      <c r="CB33" s="19">
         <v>741463.0831795194</v>
       </c>
-      <c r="CC33" s="8">
+      <c r="CC33" s="19">
         <v>735663.52985589486</v>
       </c>
       <c r="CD33" s="19">
@@ -26986,7 +27023,7 @@
         <v>709888.97951706429</v>
       </c>
       <c r="CG33" s="19">
-        <v>724458.2636966682</v>
+        <v>717282.76015728002</v>
       </c>
       <c r="CH33" s="19">
         <v>559420.39392693527</v>
@@ -26998,9 +27035,11 @@
         <v>765281.26945021667</v>
       </c>
       <c r="CK33" s="19">
-        <v>783714.04116221564</v>
-      </c>
-      <c r="CL33" s="9"/>
+        <v>777036.31249135442</v>
+      </c>
+      <c r="CL33" s="19">
+        <v>605400.1998387624</v>
+      </c>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -27065,7 +27104,7 @@
       <c r="EV33" s="9"/>
       <c r="EW33" s="9"/>
     </row>
-    <row r="34" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -27297,16 +27336,16 @@
       <c r="BY34" s="8">
         <v>26289.167337810952</v>
       </c>
-      <c r="BZ34" s="8">
+      <c r="BZ34" s="19">
         <v>25512.429245526371</v>
       </c>
-      <c r="CA34" s="8">
+      <c r="CA34" s="19">
         <v>26892.912546802785</v>
       </c>
-      <c r="CB34" s="8">
+      <c r="CB34" s="19">
         <v>28954.610060903618</v>
       </c>
-      <c r="CC34" s="8">
+      <c r="CC34" s="19">
         <v>28683.521697405748</v>
       </c>
       <c r="CD34" s="19">
@@ -27319,7 +27358,7 @@
         <v>18592.225326633139</v>
       </c>
       <c r="CG34" s="19">
-        <v>19239.957825194069</v>
+        <v>19200.638762867737</v>
       </c>
       <c r="CH34" s="19">
         <v>22053.277989249957</v>
@@ -27331,9 +27370,11 @@
         <v>18022.981191521263</v>
       </c>
       <c r="CK34" s="19">
-        <v>20284.183518963779</v>
-      </c>
-      <c r="CL34" s="9"/>
+        <v>20367.470748935582</v>
+      </c>
+      <c r="CL34" s="19">
+        <v>22383.36476799507</v>
+      </c>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
@@ -27398,7 +27439,7 @@
       <c r="EV34" s="9"/>
       <c r="EW34" s="9"/>
     </row>
-    <row r="35" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -27475,10 +27516,10 @@
       <c r="BW35" s="11"/>
       <c r="BX35" s="11"/>
       <c r="BY35" s="11"/>
-      <c r="BZ35" s="11"/>
-      <c r="CA35" s="11"/>
-      <c r="CB35" s="11"/>
-      <c r="CC35" s="11"/>
+      <c r="BZ35" s="21"/>
+      <c r="CA35" s="21"/>
+      <c r="CB35" s="21"/>
+      <c r="CC35" s="21"/>
       <c r="CD35" s="21"/>
       <c r="CE35" s="21"/>
       <c r="CF35" s="21"/>
@@ -27487,7 +27528,7 @@
       <c r="CI35" s="21"/>
       <c r="CJ35" s="21"/>
       <c r="CK35" s="21"/>
-      <c r="CL35" s="9"/>
+      <c r="CL35" s="21"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
@@ -27552,7 +27593,7 @@
       <c r="EV35" s="9"/>
       <c r="EW35" s="9"/>
     </row>
-    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -27784,16 +27825,16 @@
       <c r="BY36" s="11">
         <v>908666.86427809054</v>
       </c>
-      <c r="BZ36" s="11">
+      <c r="BZ36" s="21">
         <v>713570.86805077794</v>
       </c>
-      <c r="CA36" s="11">
+      <c r="CA36" s="21">
         <v>867097.62851564074</v>
       </c>
-      <c r="CB36" s="11">
+      <c r="CB36" s="21">
         <v>934753.18335815694</v>
       </c>
-      <c r="CC36" s="11">
+      <c r="CC36" s="21">
         <v>973877.71869952965</v>
       </c>
       <c r="CD36" s="21">
@@ -27806,7 +27847,7 @@
         <v>876132.18727753661</v>
       </c>
       <c r="CG36" s="21">
-        <v>935053.63602252514</v>
+        <v>931305.48923990969</v>
       </c>
       <c r="CH36" s="21">
         <v>698808.41898427682</v>
@@ -27818,9 +27859,11 @@
         <v>933154.08904620563</v>
       </c>
       <c r="CK36" s="21">
-        <v>1004410.0305627267</v>
-      </c>
-      <c r="CL36" s="9"/>
+        <v>997780.09705580072</v>
+      </c>
+      <c r="CL36" s="21">
+        <v>749925.92103123118</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -27885,7 +27928,7 @@
       <c r="EV36" s="9"/>
       <c r="EW36" s="9"/>
     </row>
-    <row r="37" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -27963,10 +28006,10 @@
       <c r="BW37" s="12"/>
       <c r="BX37" s="12"/>
       <c r="BY37" s="12"/>
-      <c r="BZ37" s="12"/>
-      <c r="CA37" s="12"/>
-      <c r="CB37" s="12"/>
-      <c r="CC37" s="12"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
+      <c r="CC37" s="22"/>
       <c r="CD37" s="22"/>
       <c r="CE37" s="22"/>
       <c r="CF37" s="22"/>
@@ -27975,13 +28018,14 @@
       <c r="CI37" s="22"/>
       <c r="CJ37" s="22"/>
       <c r="CK37" s="22"/>
+      <c r="CL37" s="22"/>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -28058,10 +28102,10 @@
       <c r="BW39" s="9"/>
       <c r="BX39" s="9"/>
       <c r="BY39" s="9"/>
-      <c r="BZ39" s="9"/>
-      <c r="CA39" s="9"/>
-      <c r="CB39" s="9"/>
-      <c r="CC39" s="9"/>
+      <c r="BZ39" s="20"/>
+      <c r="CA39" s="20"/>
+      <c r="CB39" s="20"/>
+      <c r="CC39" s="20"/>
       <c r="CD39" s="20"/>
       <c r="CE39" s="20"/>
       <c r="CF39" s="20"/>
@@ -28070,7 +28114,7 @@
       <c r="CI39" s="20"/>
       <c r="CJ39" s="20"/>
       <c r="CK39" s="20"/>
-      <c r="CL39" s="9"/>
+      <c r="CL39" s="20"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
@@ -28135,7 +28179,7 @@
       <c r="EV39" s="9"/>
       <c r="EW39" s="9"/>
     </row>
-    <row r="40" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -28212,10 +28256,10 @@
       <c r="BW40" s="9"/>
       <c r="BX40" s="9"/>
       <c r="BY40" s="9"/>
-      <c r="BZ40" s="9"/>
-      <c r="CA40" s="9"/>
-      <c r="CB40" s="9"/>
-      <c r="CC40" s="9"/>
+      <c r="BZ40" s="20"/>
+      <c r="CA40" s="20"/>
+      <c r="CB40" s="20"/>
+      <c r="CC40" s="20"/>
       <c r="CD40" s="20"/>
       <c r="CE40" s="20"/>
       <c r="CF40" s="20"/>
@@ -28224,7 +28268,7 @@
       <c r="CI40" s="20"/>
       <c r="CJ40" s="20"/>
       <c r="CK40" s="20"/>
-      <c r="CL40" s="9"/>
+      <c r="CL40" s="20"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
@@ -28289,37 +28333,49 @@
       <c r="EV40" s="9"/>
       <c r="EW40" s="9"/>
     </row>
-    <row r="41" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CI47" s="32"/>
+      <c r="CJ47" s="32"/>
+      <c r="CK47" s="32"/>
+      <c r="CL47" s="32"/>
+      <c r="CM47" s="33"/>
     </row>
-    <row r="49" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CI48" s="32"/>
+      <c r="CJ48" s="32"/>
+      <c r="CK48" s="32"/>
+      <c r="CL48" s="32"/>
+      <c r="CM48" s="33"/>
+    </row>
+    <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="28" t="s">
         <v>30</v>
@@ -28435,24 +28491,28 @@
       <c r="BW49" s="28"/>
       <c r="BX49" s="28"/>
       <c r="BY49" s="28"/>
-      <c r="BZ49" s="28" t="s">
+      <c r="BZ49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="28"/>
-      <c r="CB49" s="28"/>
-      <c r="CC49" s="28"/>
+      <c r="CA49" s="27"/>
+      <c r="CB49" s="27"/>
+      <c r="CC49" s="27"/>
       <c r="CD49" s="27" t="s">
         <v>47</v>
       </c>
       <c r="CE49" s="27"/>
       <c r="CF49" s="27"/>
       <c r="CG49" s="27"/>
-      <c r="CH49" s="23"/>
-      <c r="CI49" s="23"/>
-      <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
+      <c r="CH49" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="CI49" s="36"/>
+      <c r="CJ49" s="36"/>
+      <c r="CK49" s="36"/>
+      <c r="CL49" s="37"/>
+      <c r="CM49" s="33"/>
     </row>
-    <row r="50" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -28684,39 +28744,48 @@
       <c r="BY50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ50" s="5" t="s">
+      <c r="BZ50" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA50" s="5" t="s">
+      <c r="CA50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB50" s="5" t="s">
+      <c r="CB50" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC50" s="5" t="s">
+      <c r="CC50" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CD50" s="26" t="s">
+      <c r="CD50" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE50" s="26" t="s">
+      <c r="CE50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="26" t="s">
+      <c r="CF50" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CG50" s="26" t="s">
+      <c r="CG50" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CH50" s="24"/>
-      <c r="CI50" s="24"/>
-      <c r="CJ50" s="24"/>
-      <c r="CK50" s="24"/>
+      <c r="CH50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI50" s="36"/>
+      <c r="CJ50" s="36"/>
+      <c r="CK50" s="36"/>
+      <c r="CL50" s="36"/>
+      <c r="CM50" s="33"/>
     </row>
-    <row r="51" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
+      <c r="CI51" s="32"/>
+      <c r="CJ51" s="32"/>
+      <c r="CK51" s="32"/>
+      <c r="CL51" s="32"/>
+      <c r="CM51" s="33"/>
     </row>
-    <row r="52" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -28948,36 +29017,38 @@
       <c r="BY52" s="14">
         <v>5.7268928380698441</v>
       </c>
-      <c r="BZ52" s="14">
+      <c r="BZ52" s="23">
         <v>-1.9836078917841178</v>
       </c>
-      <c r="CA52" s="14">
+      <c r="CA52" s="23">
         <v>-12.963142946501662</v>
       </c>
-      <c r="CB52" s="14">
+      <c r="CB52" s="23">
         <v>-7.4415613554152884</v>
       </c>
-      <c r="CC52" s="14">
-        <v>-5.975325534975866</v>
-      </c>
-      <c r="CD52" s="25">
+      <c r="CC52" s="23">
+        <v>-4.2719346682102781</v>
+      </c>
+      <c r="CD52" s="23">
         <v>-6.3182341684614158</v>
       </c>
-      <c r="CE52" s="25">
+      <c r="CE52" s="23">
         <v>-9.8556936941616016</v>
       </c>
-      <c r="CF52" s="25">
+      <c r="CF52" s="23">
         <v>4.8901593594348043</v>
       </c>
-      <c r="CG52" s="25">
-        <v>9.4423587689708768</v>
-      </c>
-      <c r="CH52" s="20"/>
-      <c r="CI52" s="20"/>
-      <c r="CJ52" s="20"/>
-      <c r="CK52" s="20"/>
-      <c r="CL52" s="9"/>
-      <c r="CM52" s="9"/>
+      <c r="CG52" s="23">
+        <v>7.4431152001496628</v>
+      </c>
+      <c r="CH52" s="23">
+        <v>7.3835005871394088</v>
+      </c>
+      <c r="CI52" s="34"/>
+      <c r="CJ52" s="34"/>
+      <c r="CK52" s="34"/>
+      <c r="CL52" s="34"/>
+      <c r="CM52" s="35"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
@@ -29037,7 +29108,7 @@
       <c r="ER52" s="9"/>
       <c r="ES52" s="9"/>
     </row>
-    <row r="53" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -29269,36 +29340,38 @@
       <c r="BY53" s="14">
         <v>7.4700177177518441</v>
       </c>
-      <c r="BZ53" s="14">
+      <c r="BZ53" s="23">
         <v>2.4526023272247244</v>
       </c>
-      <c r="CA53" s="14">
+      <c r="CA53" s="23">
         <v>-11.298496389818538</v>
       </c>
-      <c r="CB53" s="14">
+      <c r="CB53" s="23">
         <v>-3.079608315725352</v>
       </c>
-      <c r="CC53" s="14">
-        <v>-2.3175815090657466</v>
-      </c>
-      <c r="CD53" s="25">
+      <c r="CC53" s="23">
+        <v>-3.2850914054138372</v>
+      </c>
+      <c r="CD53" s="23">
         <v>-2.3279437782407655</v>
       </c>
-      <c r="CE53" s="25">
+      <c r="CE53" s="23">
         <v>10.344236547862636</v>
       </c>
-      <c r="CF53" s="25">
+      <c r="CF53" s="23">
         <v>8.5230101989708089</v>
       </c>
-      <c r="CG53" s="25">
-        <v>9.6521947576153337</v>
-      </c>
-      <c r="CH53" s="20"/>
-      <c r="CI53" s="20"/>
-      <c r="CJ53" s="20"/>
-      <c r="CK53" s="20"/>
-      <c r="CL53" s="9"/>
-      <c r="CM53" s="9"/>
+      <c r="CG53" s="23">
+        <v>9.4298570441584388</v>
+      </c>
+      <c r="CH53" s="23">
+        <v>11.905839691723145</v>
+      </c>
+      <c r="CI53" s="34"/>
+      <c r="CJ53" s="34"/>
+      <c r="CK53" s="34"/>
+      <c r="CL53" s="34"/>
+      <c r="CM53" s="35"/>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
@@ -29358,7 +29431,7 @@
       <c r="ER53" s="9"/>
       <c r="ES53" s="9"/>
     </row>
-    <row r="54" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -29590,36 +29663,38 @@
       <c r="BY54" s="14">
         <v>4.6041978994686161</v>
       </c>
-      <c r="BZ54" s="14">
+      <c r="BZ54" s="23">
         <v>-15.882938533972464</v>
       </c>
-      <c r="CA54" s="14">
+      <c r="CA54" s="23">
         <v>-79.748703142369209</v>
       </c>
-      <c r="CB54" s="14">
+      <c r="CB54" s="23">
         <v>-35.448654939944319</v>
       </c>
-      <c r="CC54" s="14">
-        <v>-32.604795668421332</v>
-      </c>
-      <c r="CD54" s="25">
+      <c r="CC54" s="23">
+        <v>-32.742525504613525</v>
+      </c>
+      <c r="CD54" s="23">
         <v>4.7724646742907595</v>
       </c>
-      <c r="CE54" s="25">
+      <c r="CE54" s="23">
         <v>108.51424767754395</v>
       </c>
-      <c r="CF54" s="25">
+      <c r="CF54" s="23">
         <v>-3.6313654008466045</v>
       </c>
-      <c r="CG54" s="25">
-        <v>4.9236616717304997</v>
-      </c>
-      <c r="CH54" s="20"/>
-      <c r="CI54" s="20"/>
-      <c r="CJ54" s="20"/>
-      <c r="CK54" s="20"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
+      <c r="CG54" s="23">
+        <v>5.4491327141362262</v>
+      </c>
+      <c r="CH54" s="23">
+        <v>3.0629138512044989</v>
+      </c>
+      <c r="CI54" s="34"/>
+      <c r="CJ54" s="34"/>
+      <c r="CK54" s="34"/>
+      <c r="CL54" s="34"/>
+      <c r="CM54" s="35"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
@@ -29679,7 +29754,7 @@
       <c r="ER54" s="9"/>
       <c r="ES54" s="9"/>
     </row>
-    <row r="55" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -29756,20 +29831,20 @@
       <c r="BW55" s="9"/>
       <c r="BX55" s="9"/>
       <c r="BY55" s="9"/>
-      <c r="BZ55" s="9"/>
-      <c r="CA55" s="9"/>
-      <c r="CB55" s="9"/>
-      <c r="CC55" s="9"/>
+      <c r="BZ55" s="20"/>
+      <c r="CA55" s="20"/>
+      <c r="CB55" s="20"/>
+      <c r="CC55" s="20"/>
       <c r="CD55" s="20"/>
       <c r="CE55" s="20"/>
       <c r="CF55" s="20"/>
       <c r="CG55" s="20"/>
       <c r="CH55" s="20"/>
-      <c r="CI55" s="20"/>
-      <c r="CJ55" s="20"/>
-      <c r="CK55" s="20"/>
-      <c r="CL55" s="9"/>
-      <c r="CM55" s="9"/>
+      <c r="CI55" s="34"/>
+      <c r="CJ55" s="34"/>
+      <c r="CK55" s="34"/>
+      <c r="CL55" s="34"/>
+      <c r="CM55" s="35"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
@@ -29829,7 +29904,7 @@
       <c r="ER55" s="9"/>
       <c r="ES55" s="9"/>
     </row>
-    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>14</v>
       </c>
@@ -30061,36 +30136,38 @@
       <c r="BY56" s="14">
         <v>7.0075685432093451</v>
       </c>
-      <c r="BZ56" s="14">
+      <c r="BZ56" s="23">
         <v>0.96172582714240207</v>
       </c>
-      <c r="CA56" s="14">
+      <c r="CA56" s="23">
         <v>-13.675735338604497</v>
       </c>
-      <c r="CB56" s="14">
+      <c r="CB56" s="23">
         <v>-4.811258919869843</v>
       </c>
-      <c r="CC56" s="14">
-        <v>-3.9598540526955048</v>
-      </c>
-      <c r="CD56" s="25">
+      <c r="CC56" s="23">
+        <v>-4.3291353255148692</v>
+      </c>
+      <c r="CD56" s="23">
         <v>-2.8598627204164586</v>
       </c>
-      <c r="CE56" s="25">
+      <c r="CE56" s="23">
         <v>7.1522988316974079</v>
       </c>
-      <c r="CF56" s="25">
+      <c r="CF56" s="23">
         <v>7.6562603196974379</v>
       </c>
-      <c r="CG56" s="25">
-        <v>9.5143017121567937</v>
-      </c>
-      <c r="CH56" s="20"/>
-      <c r="CI56" s="20"/>
-      <c r="CJ56" s="20"/>
-      <c r="CK56" s="20"/>
-      <c r="CL56" s="9"/>
-      <c r="CM56" s="9"/>
+      <c r="CG56" s="23">
+        <v>8.923027775694564</v>
+      </c>
+      <c r="CH56" s="23">
+        <v>10.818368574998786</v>
+      </c>
+      <c r="CI56" s="34"/>
+      <c r="CJ56" s="34"/>
+      <c r="CK56" s="34"/>
+      <c r="CL56" s="34"/>
+      <c r="CM56" s="35"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30150,7 +30227,7 @@
       <c r="ER56" s="9"/>
       <c r="ES56" s="9"/>
     </row>
-    <row r="57" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -30228,25 +30305,32 @@
       <c r="BW57" s="12"/>
       <c r="BX57" s="12"/>
       <c r="BY57" s="12"/>
-      <c r="BZ57" s="12"/>
-      <c r="CA57" s="12"/>
-      <c r="CB57" s="12"/>
-      <c r="CC57" s="12"/>
+      <c r="BZ57" s="22"/>
+      <c r="CA57" s="22"/>
+      <c r="CB57" s="22"/>
+      <c r="CC57" s="22"/>
       <c r="CD57" s="22"/>
       <c r="CE57" s="22"/>
       <c r="CF57" s="22"/>
       <c r="CG57" s="22"/>
       <c r="CH57" s="22"/>
-      <c r="CI57" s="22"/>
-      <c r="CJ57" s="22"/>
-      <c r="CK57" s="22"/>
+      <c r="CI57" s="38"/>
+      <c r="CJ57" s="38"/>
+      <c r="CK57" s="38"/>
+      <c r="CL57" s="38"/>
+      <c r="CM57" s="33"/>
     </row>
-    <row r="58" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="33"/>
     </row>
-    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -30323,20 +30407,20 @@
       <c r="BW59" s="9"/>
       <c r="BX59" s="9"/>
       <c r="BY59" s="9"/>
-      <c r="BZ59" s="9"/>
-      <c r="CA59" s="9"/>
-      <c r="CB59" s="9"/>
-      <c r="CC59" s="9"/>
+      <c r="BZ59" s="20"/>
+      <c r="CA59" s="20"/>
+      <c r="CB59" s="20"/>
+      <c r="CC59" s="20"/>
       <c r="CD59" s="20"/>
       <c r="CE59" s="20"/>
       <c r="CF59" s="20"/>
       <c r="CG59" s="20"/>
       <c r="CH59" s="20"/>
-      <c r="CI59" s="20"/>
-      <c r="CJ59" s="20"/>
-      <c r="CK59" s="20"/>
-      <c r="CL59" s="9"/>
-      <c r="CM59" s="9"/>
+      <c r="CI59" s="34"/>
+      <c r="CJ59" s="34"/>
+      <c r="CK59" s="34"/>
+      <c r="CL59" s="34"/>
+      <c r="CM59" s="35"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
@@ -30396,7 +30480,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -30473,20 +30557,20 @@
       <c r="BW60" s="9"/>
       <c r="BX60" s="9"/>
       <c r="BY60" s="9"/>
-      <c r="BZ60" s="9"/>
-      <c r="CA60" s="9"/>
-      <c r="CB60" s="9"/>
-      <c r="CC60" s="9"/>
+      <c r="BZ60" s="20"/>
+      <c r="CA60" s="20"/>
+      <c r="CB60" s="20"/>
+      <c r="CC60" s="20"/>
       <c r="CD60" s="20"/>
       <c r="CE60" s="20"/>
       <c r="CF60" s="20"/>
       <c r="CG60" s="20"/>
       <c r="CH60" s="20"/>
-      <c r="CI60" s="20"/>
-      <c r="CJ60" s="20"/>
-      <c r="CK60" s="20"/>
-      <c r="CL60" s="9"/>
-      <c r="CM60" s="9"/>
+      <c r="CI60" s="34"/>
+      <c r="CJ60" s="34"/>
+      <c r="CK60" s="34"/>
+      <c r="CL60" s="34"/>
+      <c r="CM60" s="35"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
@@ -30546,170 +30630,201 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI61" s="32"/>
+      <c r="CJ61" s="32"/>
+      <c r="CK61" s="32"/>
+      <c r="CL61" s="32"/>
+      <c r="CM61" s="33"/>
     </row>
-    <row r="62" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CI62" s="32"/>
+      <c r="CJ62" s="32"/>
+      <c r="CK62" s="32"/>
+      <c r="CL62" s="32"/>
+      <c r="CM62" s="33"/>
     </row>
-    <row r="63" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="CI63" s="32"/>
+      <c r="CJ63" s="32"/>
+      <c r="CK63" s="32"/>
+      <c r="CL63" s="32"/>
+      <c r="CM63" s="33"/>
     </row>
-    <row r="65" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CI67" s="32"/>
+      <c r="CJ67" s="32"/>
+      <c r="CK67" s="32"/>
+      <c r="CL67" s="32"/>
+      <c r="CM67" s="33"/>
     </row>
-    <row r="69" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CI68" s="32"/>
+      <c r="CJ68" s="32"/>
+      <c r="CK68" s="32"/>
+      <c r="CL68" s="32"/>
+      <c r="CM68" s="33"/>
+    </row>
+    <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
       <c r="N69" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
       <c r="R69" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
       <c r="V69" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="31"/>
+      <c r="Y69" s="31"/>
       <c r="Z69" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
+      <c r="AA69" s="31"/>
+      <c r="AB69" s="31"/>
+      <c r="AC69" s="31"/>
       <c r="AD69" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
+      <c r="AE69" s="31"/>
+      <c r="AF69" s="31"/>
+      <c r="AG69" s="31"/>
       <c r="AH69" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="30"/>
-      <c r="AK69" s="30"/>
+      <c r="AI69" s="31"/>
+      <c r="AJ69" s="31"/>
+      <c r="AK69" s="31"/>
       <c r="AL69" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="30"/>
-      <c r="AN69" s="30"/>
-      <c r="AO69" s="30"/>
+      <c r="AM69" s="31"/>
+      <c r="AN69" s="31"/>
+      <c r="AO69" s="31"/>
       <c r="AP69" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="30"/>
-      <c r="AR69" s="30"/>
-      <c r="AS69" s="30"/>
+      <c r="AQ69" s="31"/>
+      <c r="AR69" s="31"/>
+      <c r="AS69" s="31"/>
       <c r="AT69" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="30"/>
-      <c r="AV69" s="30"/>
-      <c r="AW69" s="30"/>
+      <c r="AU69" s="31"/>
+      <c r="AV69" s="31"/>
+      <c r="AW69" s="31"/>
       <c r="AX69" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="30"/>
-      <c r="AZ69" s="30"/>
-      <c r="BA69" s="30"/>
+      <c r="AY69" s="31"/>
+      <c r="AZ69" s="31"/>
+      <c r="BA69" s="31"/>
       <c r="BB69" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="30"/>
-      <c r="BD69" s="30"/>
-      <c r="BE69" s="30"/>
+      <c r="BC69" s="31"/>
+      <c r="BD69" s="31"/>
+      <c r="BE69" s="31"/>
       <c r="BF69" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="30"/>
-      <c r="BH69" s="30"/>
-      <c r="BI69" s="30"/>
+      <c r="BG69" s="31"/>
+      <c r="BH69" s="31"/>
+      <c r="BI69" s="31"/>
       <c r="BJ69" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="30"/>
-      <c r="BL69" s="30"/>
-      <c r="BM69" s="30"/>
+      <c r="BK69" s="31"/>
+      <c r="BL69" s="31"/>
+      <c r="BM69" s="31"/>
       <c r="BN69" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="30"/>
-      <c r="BP69" s="30"/>
-      <c r="BQ69" s="30"/>
+      <c r="BO69" s="31"/>
+      <c r="BP69" s="31"/>
+      <c r="BQ69" s="31"/>
       <c r="BR69" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="30"/>
-      <c r="BT69" s="30"/>
-      <c r="BU69" s="30"/>
+      <c r="BS69" s="31"/>
+      <c r="BT69" s="31"/>
+      <c r="BU69" s="31"/>
       <c r="BV69" s="28" t="s">
         <v>27</v>
       </c>
       <c r="BW69" s="28"/>
       <c r="BX69" s="28"/>
       <c r="BY69" s="28"/>
-      <c r="BZ69" s="28" t="s">
+      <c r="BZ69" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="28"/>
-      <c r="CB69" s="28"/>
-      <c r="CC69" s="28"/>
+      <c r="CA69" s="27"/>
+      <c r="CB69" s="27"/>
+      <c r="CC69" s="27"/>
       <c r="CD69" s="27" t="s">
         <v>47</v>
       </c>
       <c r="CE69" s="27"/>
       <c r="CF69" s="27"/>
       <c r="CG69" s="27"/>
-      <c r="CH69" s="23"/>
-      <c r="CI69" s="23"/>
-      <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
+      <c r="CH69" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="CI69" s="36"/>
+      <c r="CJ69" s="36"/>
+      <c r="CK69" s="36"/>
+      <c r="CL69" s="37"/>
+      <c r="CM69" s="33"/>
     </row>
-    <row r="70" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -30941,39 +31056,48 @@
       <c r="BY70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ70" s="5" t="s">
+      <c r="BZ70" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA70" s="5" t="s">
+      <c r="CA70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB70" s="5" t="s">
+      <c r="CB70" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC70" s="5" t="s">
+      <c r="CC70" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CD70" s="26" t="s">
+      <c r="CD70" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE70" s="26" t="s">
+      <c r="CE70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="26" t="s">
+      <c r="CF70" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="26" t="s">
+      <c r="CG70" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CH70" s="24"/>
-      <c r="CI70" s="24"/>
-      <c r="CJ70" s="24"/>
-      <c r="CK70" s="24"/>
+      <c r="CH70" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI70" s="36"/>
+      <c r="CJ70" s="36"/>
+      <c r="CK70" s="36"/>
+      <c r="CL70" s="36"/>
+      <c r="CM70" s="33"/>
     </row>
-    <row r="71" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
+      <c r="CI71" s="32"/>
+      <c r="CJ71" s="32"/>
+      <c r="CK71" s="32"/>
+      <c r="CL71" s="32"/>
+      <c r="CM71" s="33"/>
     </row>
-    <row r="72" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -31205,36 +31329,38 @@
       <c r="BY72" s="14">
         <v>6.6506244596108388</v>
       </c>
-      <c r="BZ72" s="14">
+      <c r="BZ72" s="23">
         <v>-5.0445504922890052</v>
       </c>
-      <c r="CA72" s="14">
+      <c r="CA72" s="23">
         <v>-15.832568351305198</v>
       </c>
-      <c r="CB72" s="14">
+      <c r="CB72" s="23">
         <v>-10.152711183653423</v>
       </c>
-      <c r="CC72" s="14">
-        <v>-8.6742684940157062</v>
-      </c>
-      <c r="CD72" s="25">
+      <c r="CC72" s="23">
+        <v>-7.0197728221817499</v>
+      </c>
+      <c r="CD72" s="23">
         <v>-8.9393352212368029</v>
       </c>
-      <c r="CE72" s="25">
+      <c r="CE72" s="23">
         <v>-11.829521895807218</v>
       </c>
-      <c r="CF72" s="25">
+      <c r="CF72" s="23">
         <v>1.4892254249739665</v>
       </c>
-      <c r="CG72" s="25">
-        <v>4.7327594071570473</v>
-      </c>
-      <c r="CH72" s="20"/>
-      <c r="CI72" s="20"/>
-      <c r="CJ72" s="20"/>
-      <c r="CK72" s="20"/>
-      <c r="CL72" s="9"/>
-      <c r="CM72" s="9"/>
+      <c r="CG72" s="23">
+        <v>2.85092079991162</v>
+      </c>
+      <c r="CH72" s="23">
+        <v>4.0973449694250235</v>
+      </c>
+      <c r="CI72" s="34"/>
+      <c r="CJ72" s="34"/>
+      <c r="CK72" s="34"/>
+      <c r="CL72" s="34"/>
+      <c r="CM72" s="35"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
@@ -31294,7 +31420,7 @@
       <c r="ER72" s="9"/>
       <c r="ES72" s="9"/>
     </row>
-    <row r="73" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -31526,36 +31652,38 @@
       <c r="BY73" s="14">
         <v>7.253160382503026</v>
       </c>
-      <c r="BZ73" s="14">
+      <c r="BZ73" s="23">
         <v>3.8351388650648346</v>
       </c>
-      <c r="CA73" s="14">
+      <c r="CA73" s="23">
         <v>-11.088920591633538</v>
       </c>
-      <c r="CB73" s="14">
+      <c r="CB73" s="23">
         <v>-4.2583514107081442</v>
       </c>
-      <c r="CC73" s="14">
-        <v>-1.523150965689652</v>
-      </c>
-      <c r="CD73" s="25">
+      <c r="CC73" s="23">
+        <v>-2.4985294163237057</v>
+      </c>
+      <c r="CD73" s="23">
         <v>-2.4624166579406079</v>
       </c>
-      <c r="CE73" s="25">
+      <c r="CE73" s="23">
         <v>8.4204980300270194</v>
       </c>
-      <c r="CF73" s="25">
+      <c r="CF73" s="23">
         <v>7.8029510995980758</v>
       </c>
-      <c r="CG73" s="25">
-        <v>8.17932245857547</v>
-      </c>
-      <c r="CH73" s="20"/>
-      <c r="CI73" s="20"/>
-      <c r="CJ73" s="20"/>
-      <c r="CK73" s="20"/>
-      <c r="CL73" s="9"/>
-      <c r="CM73" s="9"/>
+      <c r="CG73" s="23">
+        <v>8.3305434973750323</v>
+      </c>
+      <c r="CH73" s="23">
+        <v>8.2191865743515393</v>
+      </c>
+      <c r="CI73" s="34"/>
+      <c r="CJ73" s="34"/>
+      <c r="CK73" s="34"/>
+      <c r="CL73" s="34"/>
+      <c r="CM73" s="35"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
@@ -31615,7 +31743,7 @@
       <c r="ER73" s="9"/>
       <c r="ES73" s="9"/>
     </row>
-    <row r="74" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -31847,36 +31975,38 @@
       <c r="BY74" s="14">
         <v>9.1077603517364594</v>
       </c>
-      <c r="BZ74" s="14">
+      <c r="BZ74" s="23">
         <v>-17.241702849015724</v>
       </c>
-      <c r="CA74" s="14">
+      <c r="CA74" s="23">
         <v>-79.971808192829059</v>
       </c>
-      <c r="CB74" s="14">
+      <c r="CB74" s="23">
         <v>-35.788376056434757</v>
       </c>
-      <c r="CC74" s="14">
-        <v>-32.923306879244862</v>
-      </c>
-      <c r="CD74" s="25">
+      <c r="CC74" s="23">
+        <v>-33.060385801216597</v>
+      </c>
+      <c r="CD74" s="23">
         <v>4.4503242904647919</v>
       </c>
-      <c r="CE74" s="25">
+      <c r="CE74" s="23">
         <v>109.40843923457146</v>
       </c>
-      <c r="CF74" s="25">
+      <c r="CF74" s="23">
         <v>-3.0617321224933818</v>
       </c>
-      <c r="CG74" s="25">
-        <v>5.4273803677590706</v>
-      </c>
-      <c r="CH74" s="20"/>
-      <c r="CI74" s="20"/>
-      <c r="CJ74" s="20"/>
-      <c r="CK74" s="20"/>
-      <c r="CL74" s="9"/>
-      <c r="CM74" s="9"/>
+      <c r="CG74" s="23">
+        <v>6.0770477507466722</v>
+      </c>
+      <c r="CH74" s="23">
+        <v>1.4967696816138556</v>
+      </c>
+      <c r="CI74" s="34"/>
+      <c r="CJ74" s="34"/>
+      <c r="CK74" s="34"/>
+      <c r="CL74" s="34"/>
+      <c r="CM74" s="35"/>
       <c r="CN74" s="9"/>
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
@@ -31936,7 +32066,7 @@
       <c r="ER74" s="9"/>
       <c r="ES74" s="9"/>
     </row>
-    <row r="75" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32013,20 +32143,20 @@
       <c r="BW75" s="9"/>
       <c r="BX75" s="9"/>
       <c r="BY75" s="9"/>
-      <c r="BZ75" s="9"/>
-      <c r="CA75" s="9"/>
-      <c r="CB75" s="9"/>
-      <c r="CC75" s="9"/>
+      <c r="BZ75" s="20"/>
+      <c r="CA75" s="20"/>
+      <c r="CB75" s="20"/>
+      <c r="CC75" s="20"/>
       <c r="CD75" s="20"/>
       <c r="CE75" s="20"/>
       <c r="CF75" s="20"/>
       <c r="CG75" s="20"/>
       <c r="CH75" s="20"/>
-      <c r="CI75" s="20"/>
-      <c r="CJ75" s="20"/>
-      <c r="CK75" s="20"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
+      <c r="CI75" s="34"/>
+      <c r="CJ75" s="34"/>
+      <c r="CK75" s="34"/>
+      <c r="CL75" s="34"/>
+      <c r="CM75" s="35"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32086,7 +32216,7 @@
       <c r="ER75" s="9"/>
       <c r="ES75" s="9"/>
     </row>
-    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>14</v>
       </c>
@@ -32318,36 +32448,38 @@
       <c r="BY76" s="14">
         <v>7.1765414790653068</v>
       </c>
-      <c r="BZ76" s="14">
+      <c r="BZ76" s="23">
         <v>1.3929365699020195</v>
       </c>
-      <c r="CA76" s="14">
+      <c r="CA76" s="23">
         <v>-14.128622384969432</v>
       </c>
-      <c r="CB76" s="14">
+      <c r="CB76" s="23">
         <v>-6.2712807107027828</v>
       </c>
-      <c r="CC76" s="14">
-        <v>-3.9865459422203742</v>
-      </c>
-      <c r="CD76" s="25">
+      <c r="CC76" s="23">
+        <v>-4.3714142589142426</v>
+      </c>
+      <c r="CD76" s="23">
         <v>-3.4141923422735374</v>
       </c>
-      <c r="CE76" s="25">
+      <c r="CE76" s="23">
         <v>5.3714279292314444</v>
       </c>
-      <c r="CF76" s="25">
+      <c r="CF76" s="23">
         <v>6.5083674126682638</v>
       </c>
-      <c r="CG76" s="25">
-        <v>7.4173707120401815</v>
-      </c>
-      <c r="CH76" s="20"/>
-      <c r="CI76" s="20"/>
-      <c r="CJ76" s="20"/>
-      <c r="CK76" s="20"/>
-      <c r="CL76" s="9"/>
-      <c r="CM76" s="9"/>
+      <c r="CG76" s="23">
+        <v>7.1377876093208243</v>
+      </c>
+      <c r="CH76" s="23">
+        <v>7.3149522327240959</v>
+      </c>
+      <c r="CI76" s="34"/>
+      <c r="CJ76" s="34"/>
+      <c r="CK76" s="34"/>
+      <c r="CL76" s="34"/>
+      <c r="CM76" s="35"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -32407,7 +32539,7 @@
       <c r="ER76" s="9"/>
       <c r="ES76" s="9"/>
     </row>
-    <row r="77" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -32485,25 +32617,32 @@
       <c r="BW77" s="12"/>
       <c r="BX77" s="12"/>
       <c r="BY77" s="12"/>
-      <c r="BZ77" s="12"/>
-      <c r="CA77" s="12"/>
-      <c r="CB77" s="12"/>
-      <c r="CC77" s="12"/>
+      <c r="BZ77" s="22"/>
+      <c r="CA77" s="22"/>
+      <c r="CB77" s="22"/>
+      <c r="CC77" s="22"/>
       <c r="CD77" s="22"/>
       <c r="CE77" s="22"/>
       <c r="CF77" s="22"/>
       <c r="CG77" s="22"/>
       <c r="CH77" s="22"/>
-      <c r="CI77" s="22"/>
-      <c r="CJ77" s="22"/>
-      <c r="CK77" s="22"/>
+      <c r="CI77" s="38"/>
+      <c r="CJ77" s="38"/>
+      <c r="CK77" s="38"/>
+      <c r="CL77" s="38"/>
+      <c r="CM77" s="33"/>
     </row>
-    <row r="78" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI78" s="32"/>
+      <c r="CJ78" s="32"/>
+      <c r="CK78" s="32"/>
+      <c r="CL78" s="32"/>
+      <c r="CM78" s="33"/>
     </row>
-    <row r="79" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -32580,20 +32719,20 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="9"/>
-      <c r="CA79" s="9"/>
-      <c r="CB79" s="9"/>
-      <c r="CC79" s="9"/>
+      <c r="BZ79" s="20"/>
+      <c r="CA79" s="20"/>
+      <c r="CB79" s="20"/>
+      <c r="CC79" s="20"/>
       <c r="CD79" s="20"/>
       <c r="CE79" s="20"/>
       <c r="CF79" s="20"/>
       <c r="CG79" s="20"/>
       <c r="CH79" s="20"/>
-      <c r="CI79" s="20"/>
-      <c r="CJ79" s="20"/>
-      <c r="CK79" s="20"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
+      <c r="CI79" s="34"/>
+      <c r="CJ79" s="34"/>
+      <c r="CK79" s="34"/>
+      <c r="CL79" s="34"/>
+      <c r="CM79" s="35"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
       <c r="CP79" s="9"/>
@@ -32653,7 +32792,7 @@
       <c r="ER79" s="9"/>
       <c r="ES79" s="9"/>
     </row>
-    <row r="80" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -32730,20 +32869,20 @@
       <c r="BW80" s="9"/>
       <c r="BX80" s="9"/>
       <c r="BY80" s="9"/>
-      <c r="BZ80" s="9"/>
-      <c r="CA80" s="9"/>
-      <c r="CB80" s="9"/>
-      <c r="CC80" s="9"/>
+      <c r="BZ80" s="20"/>
+      <c r="CA80" s="20"/>
+      <c r="CB80" s="20"/>
+      <c r="CC80" s="20"/>
       <c r="CD80" s="20"/>
       <c r="CE80" s="20"/>
       <c r="CF80" s="20"/>
       <c r="CG80" s="20"/>
       <c r="CH80" s="20"/>
-      <c r="CI80" s="20"/>
-      <c r="CJ80" s="20"/>
-      <c r="CK80" s="20"/>
-      <c r="CL80" s="9"/>
-      <c r="CM80" s="9"/>
+      <c r="CI80" s="34"/>
+      <c r="CJ80" s="34"/>
+      <c r="CK80" s="34"/>
+      <c r="CL80" s="34"/>
+      <c r="CM80" s="35"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
@@ -32803,32 +32942,49 @@
       <c r="ER80" s="9"/>
       <c r="ES80" s="9"/>
     </row>
-    <row r="81" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI81" s="32"/>
+      <c r="CJ81" s="32"/>
+      <c r="CK81" s="32"/>
+      <c r="CL81" s="32"/>
+      <c r="CM81" s="33"/>
     </row>
-    <row r="82" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="CI82" s="32"/>
+      <c r="CJ82" s="32"/>
+      <c r="CK82" s="32"/>
+      <c r="CL82" s="32"/>
+      <c r="CM82" s="33"/>
     </row>
-    <row r="84" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CI83" s="32"/>
+      <c r="CJ83" s="32"/>
+      <c r="CK83" s="32"/>
+      <c r="CL83" s="32"/>
+      <c r="CM83" s="33"/>
+    </row>
+    <row r="84" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="28">
         <v>2000</v>
@@ -32944,12 +33100,12 @@
       <c r="BW88" s="28"/>
       <c r="BX88" s="28"/>
       <c r="BY88" s="28"/>
-      <c r="BZ88" s="28">
+      <c r="BZ88" s="27">
         <v>2019</v>
       </c>
-      <c r="CA88" s="28"/>
-      <c r="CB88" s="28"/>
-      <c r="CC88" s="28"/>
+      <c r="CA88" s="30"/>
+      <c r="CB88" s="30"/>
+      <c r="CC88" s="30"/>
       <c r="CD88" s="27">
         <v>2020</v>
       </c>
@@ -32962,8 +33118,11 @@
       <c r="CI88" s="27"/>
       <c r="CJ88" s="27"/>
       <c r="CK88" s="27"/>
+      <c r="CL88" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="89" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>4</v>
       </c>
@@ -33195,16 +33354,16 @@
       <c r="BY89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ89" s="6" t="s">
+      <c r="BZ89" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA89" s="6" t="s">
+      <c r="CA89" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB89" s="6" t="s">
+      <c r="CB89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC89" s="6" t="s">
+      <c r="CC89" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD89" s="18" t="s">
@@ -33231,11 +33390,14 @@
       <c r="CK89" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL89" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="90" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -33467,43 +33629,45 @@
       <c r="BY91" s="14">
         <v>102.03329956147597</v>
       </c>
-      <c r="BZ91" s="14">
+      <c r="BZ91" s="23">
         <v>101.0683331643306</v>
       </c>
-      <c r="CA91" s="14">
+      <c r="CA91" s="23">
         <v>100.68006591482137</v>
       </c>
-      <c r="CB91" s="14">
+      <c r="CB91" s="23">
         <v>100.89678553219481</v>
       </c>
-      <c r="CC91" s="14">
+      <c r="CC91" s="23">
         <v>101.14955991407433</v>
       </c>
-      <c r="CD91" s="25">
+      <c r="CD91" s="23">
         <v>104.32632802559019</v>
       </c>
-      <c r="CE91" s="25">
+      <c r="CE91" s="23">
         <v>104.11243795272662</v>
       </c>
-      <c r="CF91" s="25">
+      <c r="CF91" s="23">
         <v>103.94135489393189</v>
       </c>
-      <c r="CG91" s="25">
-        <v>104.13882578732037</v>
-      </c>
-      <c r="CH91" s="25">
+      <c r="CG91" s="23">
+        <v>104.13882578732039</v>
+      </c>
+      <c r="CH91" s="23">
         <v>107.32926951393125</v>
       </c>
-      <c r="CI91" s="25">
+      <c r="CI91" s="23">
         <v>106.44315080119647</v>
       </c>
-      <c r="CJ91" s="25">
+      <c r="CJ91" s="23">
         <v>107.4244604115115</v>
       </c>
-      <c r="CK91" s="25">
-        <v>108.82171727460883</v>
-      </c>
-      <c r="CL91" s="9"/>
+      <c r="CK91" s="23">
+        <v>108.78852390288949</v>
+      </c>
+      <c r="CL91" s="23">
+        <v>110.71745085575108</v>
+      </c>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
@@ -33568,7 +33732,7 @@
       <c r="EV91" s="9"/>
       <c r="EW91" s="9"/>
     </row>
-    <row r="92" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -33800,43 +33964,45 @@
       <c r="BY92" s="14">
         <v>101.07350536395161</v>
       </c>
-      <c r="BZ92" s="14">
+      <c r="BZ92" s="23">
         <v>100.64719776122419</v>
       </c>
-      <c r="CA92" s="14">
+      <c r="CA92" s="23">
         <v>100.58618397188368</v>
       </c>
-      <c r="CB92" s="14">
+      <c r="CB92" s="23">
         <v>101.03202823443063</v>
       </c>
-      <c r="CC92" s="14">
+      <c r="CC92" s="23">
         <v>101.27786792967287</v>
       </c>
-      <c r="CD92" s="25">
+      <c r="CD92" s="23">
         <v>99.307107789206754</v>
       </c>
-      <c r="CE92" s="25">
+      <c r="CE92" s="23">
         <v>100.3490883260703</v>
       </c>
-      <c r="CF92" s="25">
+      <c r="CF92" s="23">
         <v>102.27590493185737</v>
       </c>
-      <c r="CG92" s="25">
-        <v>100.46084106051185</v>
-      </c>
-      <c r="CH92" s="25">
+      <c r="CG92" s="23">
+        <v>100.4608410605119</v>
+      </c>
+      <c r="CH92" s="23">
         <v>99.444020272595296</v>
       </c>
-      <c r="CI92" s="25">
+      <c r="CI92" s="23">
         <v>102.12961331857757</v>
       </c>
-      <c r="CJ92" s="25">
+      <c r="CJ92" s="23">
         <v>102.95904667558129</v>
       </c>
-      <c r="CK92" s="25">
-        <v>101.82862546305272</v>
-      </c>
-      <c r="CL92" s="9"/>
+      <c r="CK92" s="23">
+        <v>101.48029466919569</v>
+      </c>
+      <c r="CL92" s="23">
+        <v>102.83173384675015</v>
+      </c>
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
@@ -33901,7 +34067,7 @@
       <c r="EV92" s="9"/>
       <c r="EW92" s="9"/>
     </row>
-    <row r="93" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -34133,43 +34299,45 @@
       <c r="BY93" s="14">
         <v>101.10664979198245</v>
       </c>
-      <c r="BZ93" s="14">
+      <c r="BZ93" s="23">
         <v>98.867553663510463</v>
       </c>
-      <c r="CA93" s="14">
+      <c r="CA93" s="23">
         <v>97.513580754607773</v>
       </c>
-      <c r="CB93" s="14">
+      <c r="CB93" s="23">
         <v>97.067221857030589</v>
       </c>
-      <c r="CC93" s="14">
+      <c r="CC93" s="23">
         <v>96.933343418449866</v>
       </c>
-      <c r="CD93" s="25">
+      <c r="CD93" s="23">
         <v>100.49080726415571</v>
       </c>
-      <c r="CE93" s="25">
+      <c r="CE93" s="23">
         <v>98.599838194332762</v>
       </c>
-      <c r="CF93" s="25">
+      <c r="CF93" s="23">
         <v>97.580770385454002</v>
       </c>
-      <c r="CG93" s="25">
-        <v>97.393627835360547</v>
-      </c>
-      <c r="CH93" s="25">
+      <c r="CG93" s="23">
+        <v>97.393627835360604</v>
+      </c>
+      <c r="CH93" s="23">
         <v>100.80073590672301</v>
       </c>
-      <c r="CI93" s="25">
+      <c r="CI93" s="23">
         <v>98.178808635257084</v>
       </c>
-      <c r="CJ93" s="25">
+      <c r="CJ93" s="23">
         <v>97.007361603185075</v>
       </c>
-      <c r="CK93" s="25">
-        <v>96.92829339336275</v>
-      </c>
-      <c r="CL93" s="9"/>
+      <c r="CK93" s="23">
+        <v>96.817113644170433</v>
+      </c>
+      <c r="CL93" s="23">
+        <v>102.35613993904815</v>
+      </c>
       <c r="CM93" s="9"/>
       <c r="CN93" s="9"/>
       <c r="CO93" s="9"/>
@@ -34234,7 +34402,7 @@
       <c r="EV93" s="9"/>
       <c r="EW93" s="9"/>
     </row>
-    <row r="94" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -34311,10 +34479,10 @@
       <c r="BW94" s="9"/>
       <c r="BX94" s="9"/>
       <c r="BY94" s="9"/>
-      <c r="BZ94" s="9"/>
-      <c r="CA94" s="9"/>
-      <c r="CB94" s="9"/>
-      <c r="CC94" s="9"/>
+      <c r="BZ94" s="20"/>
+      <c r="CA94" s="20"/>
+      <c r="CB94" s="20"/>
+      <c r="CC94" s="20"/>
       <c r="CD94" s="20"/>
       <c r="CE94" s="20"/>
       <c r="CF94" s="20"/>
@@ -34323,7 +34491,7 @@
       <c r="CI94" s="20"/>
       <c r="CJ94" s="20"/>
       <c r="CK94" s="20"/>
-      <c r="CL94" s="9"/>
+      <c r="CL94" s="20"/>
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
       <c r="CO94" s="9"/>
@@ -34388,7 +34556,7 @@
       <c r="EV94" s="9"/>
       <c r="EW94" s="9"/>
     </row>
-    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>14</v>
       </c>
@@ -34620,43 +34788,45 @@
       <c r="BY95" s="14">
         <v>101.28198316800491</v>
       </c>
-      <c r="BZ95" s="14">
+      <c r="BZ95" s="23">
         <v>100.66365655349516</v>
       </c>
-      <c r="CA95" s="14">
+      <c r="CA95" s="23">
         <v>100.50876506833349</v>
       </c>
-      <c r="CB95" s="14">
+      <c r="CB95" s="23">
         <v>100.88543916597823</v>
       </c>
-      <c r="CC95" s="14">
+      <c r="CC95" s="23">
         <v>101.12230350481524</v>
       </c>
-      <c r="CD95" s="25">
+      <c r="CD95" s="23">
         <v>100.23554734214586</v>
       </c>
-      <c r="CE95" s="25">
+      <c r="CE95" s="23">
         <v>101.03884993490743</v>
       </c>
-      <c r="CF95" s="25">
+      <c r="CF95" s="23">
         <v>102.45694191003525</v>
       </c>
-      <c r="CG95" s="25">
-        <v>101.15041566243043</v>
-      </c>
-      <c r="CH95" s="25">
+      <c r="CG95" s="23">
+        <v>101.16701129905834</v>
+      </c>
+      <c r="CH95" s="23">
         <v>100.8108237145474</v>
       </c>
-      <c r="CI95" s="25">
+      <c r="CI95" s="23">
         <v>102.74649641369055</v>
       </c>
-      <c r="CJ95" s="25">
+      <c r="CJ95" s="23">
         <v>103.56117061761414</v>
       </c>
-      <c r="CK95" s="25">
-        <v>103.12500730316083</v>
-      </c>
-      <c r="CL95" s="9"/>
+      <c r="CK95" s="23">
+        <v>102.85276024080103</v>
+      </c>
+      <c r="CL95" s="23">
+        <v>104.10190552497211</v>
+      </c>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
@@ -34721,7 +34891,7 @@
       <c r="EV95" s="9"/>
       <c r="EW95" s="9"/>
     </row>
-    <row r="96" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -34799,10 +34969,10 @@
       <c r="BW96" s="12"/>
       <c r="BX96" s="12"/>
       <c r="BY96" s="12"/>
-      <c r="BZ96" s="12"/>
-      <c r="CA96" s="12"/>
-      <c r="CB96" s="12"/>
-      <c r="CC96" s="12"/>
+      <c r="BZ96" s="22"/>
+      <c r="CA96" s="22"/>
+      <c r="CB96" s="22"/>
+      <c r="CC96" s="22"/>
       <c r="CD96" s="22"/>
       <c r="CE96" s="22"/>
       <c r="CF96" s="22"/>
@@ -34811,43 +34981,44 @@
       <c r="CI96" s="22"/>
       <c r="CJ96" s="22"/>
       <c r="CK96" s="22"/>
+      <c r="CL96" s="22"/>
     </row>
-    <row r="97" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="28">
         <v>2000</v>
@@ -34963,12 +35134,12 @@
       <c r="BW108" s="28"/>
       <c r="BX108" s="28"/>
       <c r="BY108" s="28"/>
-      <c r="BZ108" s="28">
+      <c r="BZ108" s="27">
         <v>2019</v>
       </c>
-      <c r="CA108" s="28"/>
-      <c r="CB108" s="28"/>
-      <c r="CC108" s="28"/>
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
       <c r="CD108" s="27">
         <v>2020</v>
       </c>
@@ -34981,8 +35152,11 @@
       <c r="CI108" s="27"/>
       <c r="CJ108" s="27"/>
       <c r="CK108" s="27"/>
+      <c r="CL108" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="109" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>4</v>
       </c>
@@ -35214,16 +35388,16 @@
       <c r="BY109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ109" s="6" t="s">
+      <c r="BZ109" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="6" t="s">
+      <c r="CA109" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="6" t="s">
+      <c r="CB109" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC109" s="6" t="s">
+      <c r="CC109" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD109" s="18" t="s">
@@ -35250,11 +35424,14 @@
       <c r="CK109" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL109" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -35486,43 +35663,45 @@
       <c r="BY111" s="14">
         <v>21.781572824166954</v>
       </c>
-      <c r="BZ111" s="14">
+      <c r="BZ111" s="23">
         <v>19.093309875266144</v>
       </c>
-      <c r="CA111" s="14">
+      <c r="CA111" s="23">
         <v>19.074943748850178</v>
       </c>
-      <c r="CB111" s="14">
+      <c r="CB111" s="23">
         <v>17.582606349936565</v>
       </c>
-      <c r="CC111" s="14">
+      <c r="CC111" s="23">
         <v>21.520889103235817</v>
       </c>
-      <c r="CD111" s="25">
+      <c r="CD111" s="23">
         <v>18.536305040802269</v>
       </c>
-      <c r="CE111" s="25">
+      <c r="CE111" s="23">
         <v>19.232404224749239</v>
       </c>
-      <c r="CF111" s="25">
+      <c r="CF111" s="23">
         <v>17.096755063527144</v>
       </c>
-      <c r="CG111" s="25">
-        <v>21.069257779344568</v>
-      </c>
-      <c r="CH111" s="25">
+      <c r="CG111" s="23">
+        <v>21.533756228527022</v>
+      </c>
+      <c r="CH111" s="23">
         <v>17.87637774503515</v>
       </c>
-      <c r="CI111" s="25">
+      <c r="CI111" s="23">
         <v>16.179697088501861</v>
       </c>
-      <c r="CJ111" s="25">
+      <c r="CJ111" s="23">
         <v>16.657474055082666</v>
       </c>
-      <c r="CK111" s="25">
-        <v>21.055416807054275</v>
-      </c>
-      <c r="CL111" s="9"/>
+      <c r="CK111" s="23">
+        <v>21.241181946558456</v>
+      </c>
+      <c r="CL111" s="23">
+        <v>17.322290923104116</v>
+      </c>
       <c r="CM111" s="9"/>
       <c r="CN111" s="9"/>
       <c r="CO111" s="9"/>
@@ -35587,7 +35766,7 @@
       <c r="EV111" s="9"/>
       <c r="EW111" s="9"/>
     </row>
-    <row r="112" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -35819,43 +35998,45 @@
       <c r="BY112" s="14">
         <v>75.330277720994616</v>
       </c>
-      <c r="BZ112" s="14">
+      <c r="BZ112" s="23">
         <v>77.395164933724502</v>
       </c>
-      <c r="CA112" s="14">
+      <c r="CA112" s="23">
         <v>77.91599513621793</v>
       </c>
-      <c r="CB112" s="14">
+      <c r="CB112" s="23">
         <v>79.437060051714852</v>
       </c>
-      <c r="CC112" s="14">
+      <c r="CC112" s="23">
         <v>75.655828756537147</v>
       </c>
-      <c r="CD112" s="25">
+      <c r="CD112" s="23">
         <v>78.538039935853931</v>
       </c>
-      <c r="CE112" s="25">
+      <c r="CE112" s="23">
         <v>80.061683131334647</v>
       </c>
-      <c r="CF112" s="25">
+      <c r="CF112" s="23">
         <v>80.882159876222659</v>
       </c>
-      <c r="CG112" s="25">
-        <v>76.949532437501858</v>
-      </c>
-      <c r="CH112" s="25">
+      <c r="CG112" s="23">
+        <v>76.48145114745229</v>
+      </c>
+      <c r="CH112" s="23">
         <v>78.968097709017187</v>
       </c>
-      <c r="CI112" s="25">
+      <c r="CI112" s="23">
         <v>82.446624087272212</v>
       </c>
-      <c r="CJ112" s="25">
+      <c r="CJ112" s="23">
         <v>81.533349153092402</v>
       </c>
-      <c r="CK112" s="25">
-        <v>77.046422115000837</v>
-      </c>
-      <c r="CL112" s="9"/>
+      <c r="CK112" s="23">
+        <v>76.837326656311106</v>
+      </c>
+      <c r="CL112" s="23">
+        <v>79.743019109733396</v>
+      </c>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
@@ -35920,7 +36101,7 @@
       <c r="EV112" s="9"/>
       <c r="EW112" s="9"/>
     </row>
-    <row r="113" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -36152,43 +36333,45 @@
       <c r="BY113" s="14">
         <v>2.8881494548384365</v>
       </c>
-      <c r="BZ113" s="14">
+      <c r="BZ113" s="23">
         <v>3.5115251910093579</v>
       </c>
-      <c r="CA113" s="14">
+      <c r="CA113" s="23">
         <v>3.009061114931888</v>
       </c>
-      <c r="CB113" s="14">
+      <c r="CB113" s="23">
         <v>2.9803335983485773</v>
       </c>
-      <c r="CC113" s="14">
+      <c r="CC113" s="23">
         <v>2.8232821402270254</v>
       </c>
-      <c r="CD113" s="25">
+      <c r="CD113" s="23">
         <v>2.9256550233437961</v>
       </c>
-      <c r="CE113" s="25">
+      <c r="CE113" s="23">
         <v>0.70591264391610342</v>
       </c>
-      <c r="CF113" s="25">
+      <c r="CF113" s="23">
         <v>2.0210850602502091</v>
       </c>
-      <c r="CG113" s="25">
-        <v>1.9812097831535778</v>
-      </c>
-      <c r="CH113" s="25">
+      <c r="CG113" s="23">
+        <v>1.9847926240206863</v>
+      </c>
+      <c r="CH113" s="23">
         <v>3.1555245459476389</v>
       </c>
-      <c r="CI113" s="25">
+      <c r="CI113" s="23">
         <v>1.3736788242259363</v>
       </c>
-      <c r="CJ113" s="25">
+      <c r="CJ113" s="23">
         <v>1.8091767918249353</v>
       </c>
-      <c r="CK113" s="25">
-        <v>1.8981610779448816</v>
-      </c>
-      <c r="CL113" s="9"/>
+      <c r="CK113" s="23">
+        <v>1.9214913971304304</v>
+      </c>
+      <c r="CL113" s="23">
+        <v>2.9346899671624787</v>
+      </c>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
@@ -36253,7 +36436,7 @@
       <c r="EV113" s="9"/>
       <c r="EW113" s="9"/>
     </row>
-    <row r="114" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -36330,10 +36513,10 @@
       <c r="BW114" s="9"/>
       <c r="BX114" s="9"/>
       <c r="BY114" s="9"/>
-      <c r="BZ114" s="9"/>
-      <c r="CA114" s="9"/>
-      <c r="CB114" s="9"/>
-      <c r="CC114" s="9"/>
+      <c r="BZ114" s="20"/>
+      <c r="CA114" s="20"/>
+      <c r="CB114" s="20"/>
+      <c r="CC114" s="20"/>
       <c r="CD114" s="20"/>
       <c r="CE114" s="20"/>
       <c r="CF114" s="20"/>
@@ -36342,7 +36525,7 @@
       <c r="CI114" s="20"/>
       <c r="CJ114" s="20"/>
       <c r="CK114" s="20"/>
-      <c r="CL114" s="9"/>
+      <c r="CL114" s="20"/>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
@@ -36407,7 +36590,7 @@
       <c r="EV114" s="9"/>
       <c r="EW114" s="9"/>
     </row>
-    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>14</v>
       </c>
@@ -36639,43 +36822,45 @@
       <c r="BY115" s="14">
         <v>100</v>
       </c>
-      <c r="BZ115" s="14">
+      <c r="BZ115" s="23">
         <v>100</v>
       </c>
-      <c r="CA115" s="14">
+      <c r="CA115" s="23">
         <v>100</v>
       </c>
-      <c r="CB115" s="14">
+      <c r="CB115" s="23">
         <v>100</v>
       </c>
-      <c r="CC115" s="14">
+      <c r="CC115" s="23">
         <v>100</v>
       </c>
-      <c r="CD115" s="25">
+      <c r="CD115" s="23">
         <v>100</v>
       </c>
-      <c r="CE115" s="25">
+      <c r="CE115" s="23">
         <v>100</v>
       </c>
-      <c r="CF115" s="25">
+      <c r="CF115" s="23">
         <v>100</v>
       </c>
-      <c r="CG115" s="25">
+      <c r="CG115" s="23">
         <v>100</v>
       </c>
-      <c r="CH115" s="25">
+      <c r="CH115" s="23">
         <v>100</v>
       </c>
-      <c r="CI115" s="25">
+      <c r="CI115" s="23">
         <v>100</v>
       </c>
-      <c r="CJ115" s="25">
+      <c r="CJ115" s="23">
         <v>100</v>
       </c>
-      <c r="CK115" s="25">
+      <c r="CK115" s="23">
         <v>100</v>
       </c>
-      <c r="CL115" s="9"/>
+      <c r="CL115" s="23">
+        <v>100</v>
+      </c>
       <c r="CM115" s="9"/>
       <c r="CN115" s="9"/>
       <c r="CO115" s="9"/>
@@ -36740,7 +36925,7 @@
       <c r="EV115" s="9"/>
       <c r="EW115" s="9"/>
     </row>
-    <row r="116" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -36818,10 +37003,10 @@
       <c r="BW116" s="12"/>
       <c r="BX116" s="12"/>
       <c r="BY116" s="12"/>
-      <c r="BZ116" s="12"/>
-      <c r="CA116" s="12"/>
-      <c r="CB116" s="12"/>
-      <c r="CC116" s="12"/>
+      <c r="BZ116" s="22"/>
+      <c r="CA116" s="22"/>
+      <c r="CB116" s="22"/>
+      <c r="CC116" s="22"/>
       <c r="CD116" s="22"/>
       <c r="CE116" s="22"/>
       <c r="CF116" s="22"/>
@@ -36830,13 +37015,14 @@
       <c r="CI116" s="22"/>
       <c r="CJ116" s="22"/>
       <c r="CK116" s="22"/>
+      <c r="CL116" s="22"/>
     </row>
-    <row r="117" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -36913,10 +37099,10 @@
       <c r="BW118" s="9"/>
       <c r="BX118" s="9"/>
       <c r="BY118" s="9"/>
-      <c r="BZ118" s="9"/>
-      <c r="CA118" s="9"/>
-      <c r="CB118" s="9"/>
-      <c r="CC118" s="9"/>
+      <c r="BZ118" s="20"/>
+      <c r="CA118" s="20"/>
+      <c r="CB118" s="20"/>
+      <c r="CC118" s="20"/>
       <c r="CD118" s="20"/>
       <c r="CE118" s="20"/>
       <c r="CF118" s="20"/>
@@ -36925,7 +37111,7 @@
       <c r="CI118" s="20"/>
       <c r="CJ118" s="20"/>
       <c r="CK118" s="20"/>
-      <c r="CL118" s="9"/>
+      <c r="CL118" s="20"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
@@ -36990,7 +37176,7 @@
       <c r="EV118" s="9"/>
       <c r="EW118" s="9"/>
     </row>
-    <row r="119" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -37067,10 +37253,10 @@
       <c r="BW119" s="9"/>
       <c r="BX119" s="9"/>
       <c r="BY119" s="9"/>
-      <c r="BZ119" s="9"/>
-      <c r="CA119" s="9"/>
-      <c r="CB119" s="9"/>
-      <c r="CC119" s="9"/>
+      <c r="BZ119" s="20"/>
+      <c r="CA119" s="20"/>
+      <c r="CB119" s="20"/>
+      <c r="CC119" s="20"/>
       <c r="CD119" s="20"/>
       <c r="CE119" s="20"/>
       <c r="CF119" s="20"/>
@@ -37079,7 +37265,7 @@
       <c r="CI119" s="20"/>
       <c r="CJ119" s="20"/>
       <c r="CK119" s="20"/>
-      <c r="CL119" s="9"/>
+      <c r="CL119" s="20"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
@@ -37144,37 +37330,37 @@
       <c r="EV119" s="9"/>
       <c r="EW119" s="9"/>
     </row>
-    <row r="120" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="28">
         <v>2000</v>
@@ -37290,12 +37476,12 @@
       <c r="BW128" s="28"/>
       <c r="BX128" s="28"/>
       <c r="BY128" s="28"/>
-      <c r="BZ128" s="28">
+      <c r="BZ128" s="27">
         <v>2019</v>
       </c>
-      <c r="CA128" s="28"/>
-      <c r="CB128" s="28"/>
-      <c r="CC128" s="28"/>
+      <c r="CA128" s="30"/>
+      <c r="CB128" s="30"/>
+      <c r="CC128" s="30"/>
       <c r="CD128" s="27">
         <v>2020</v>
       </c>
@@ -37308,8 +37494,11 @@
       <c r="CI128" s="27"/>
       <c r="CJ128" s="27"/>
       <c r="CK128" s="27"/>
+      <c r="CL128" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="129" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>4</v>
       </c>
@@ -37541,16 +37730,16 @@
       <c r="BY129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ129" s="6" t="s">
+      <c r="BZ129" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA129" s="6" t="s">
+      <c r="CA129" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB129" s="6" t="s">
+      <c r="CB129" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC129" s="6" t="s">
+      <c r="CC129" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD129" s="18" t="s">
@@ -37577,11 +37766,14 @@
       <c r="CK129" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL129" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="130" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -37813,43 +38005,45 @@
       <c r="BY131" s="14">
         <v>21.621185452507756</v>
       </c>
-      <c r="BZ131" s="14">
+      <c r="BZ131" s="23">
         <v>19.016860450525058</v>
       </c>
-      <c r="CA131" s="14">
+      <c r="CA131" s="23">
         <v>19.042488922949968</v>
       </c>
-      <c r="CB131" s="14">
+      <c r="CB131" s="23">
         <v>17.580629094767971</v>
       </c>
-      <c r="CC131" s="14">
+      <c r="CC131" s="23">
         <v>21.51508994640789</v>
       </c>
-      <c r="CD131" s="25">
+      <c r="CD131" s="23">
         <v>17.809470692863307</v>
       </c>
-      <c r="CE131" s="25">
+      <c r="CE131" s="23">
         <v>18.664628766394443</v>
       </c>
-      <c r="CF131" s="25">
+      <c r="CF131" s="23">
         <v>16.852591946501221</v>
       </c>
-      <c r="CG131" s="25">
-        <v>20.464645783811818</v>
-      </c>
-      <c r="CH131" s="25">
+      <c r="CG131" s="23">
+        <v>20.91924643102524</v>
+      </c>
+      <c r="CH131" s="23">
         <v>16.79068881835147</v>
       </c>
-      <c r="CI131" s="25">
+      <c r="CI131" s="23">
         <v>15.617793877440068</v>
       </c>
-      <c r="CJ131" s="25">
+      <c r="CJ131" s="23">
         <v>16.058423808401464</v>
       </c>
-      <c r="CK131" s="25">
-        <v>19.95318642619144</v>
-      </c>
-      <c r="CL131" s="9"/>
+      <c r="CK131" s="23">
+        <v>20.082211942969298</v>
+      </c>
+      <c r="CL131" s="23">
+        <v>16.287256247459002</v>
+      </c>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
       <c r="CO131" s="9"/>
@@ -37914,7 +38108,7 @@
       <c r="EV131" s="9"/>
       <c r="EW131" s="9"/>
     </row>
-    <row r="132" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -38146,43 +38340,45 @@
       <c r="BY132" s="14">
         <v>75.485656628864177</v>
       </c>
-      <c r="BZ132" s="14">
+      <c r="BZ132" s="23">
         <v>77.407821331227439</v>
       </c>
-      <c r="CA132" s="14">
+      <c r="CA132" s="23">
         <v>77.856024962638685</v>
       </c>
-      <c r="CB132" s="14">
+      <c r="CB132" s="23">
         <v>79.32180348568258</v>
       </c>
-      <c r="CC132" s="14">
+      <c r="CC132" s="23">
         <v>75.539620193617864</v>
       </c>
-      <c r="CD132" s="25">
+      <c r="CD132" s="23">
         <v>79.272305833935818</v>
       </c>
-      <c r="CE132" s="25">
+      <c r="CE132" s="23">
         <v>80.61199680417478</v>
       </c>
-      <c r="CF132" s="25">
+      <c r="CF132" s="23">
         <v>81.025328121199294</v>
       </c>
-      <c r="CG132" s="25">
-        <v>77.477722751640769</v>
-      </c>
-      <c r="CH132" s="25">
+      <c r="CG132" s="23">
+        <v>77.019062857955916</v>
+      </c>
+      <c r="CH132" s="23">
         <v>80.053470841129382</v>
       </c>
-      <c r="CI132" s="25">
+      <c r="CI132" s="23">
         <v>82.944618028460681</v>
       </c>
-      <c r="CJ132" s="25">
+      <c r="CJ132" s="23">
         <v>82.010171571173757</v>
       </c>
-      <c r="CK132" s="25">
-        <v>78.02730133261764</v>
-      </c>
-      <c r="CL132" s="9"/>
+      <c r="CK132" s="23">
+        <v>77.876509541951577</v>
+      </c>
+      <c r="CL132" s="23">
+        <v>80.728000307853094</v>
+      </c>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
@@ -38247,7 +38443,7 @@
       <c r="EV132" s="9"/>
       <c r="EW132" s="9"/>
     </row>
-    <row r="133" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -38479,43 +38675,45 @@
       <c r="BY133" s="14">
         <v>2.89315791862807</v>
       </c>
-      <c r="BZ133" s="14">
+      <c r="BZ133" s="23">
         <v>3.5753182182475114</v>
       </c>
-      <c r="CA133" s="14">
+      <c r="CA133" s="23">
         <v>3.101486114411359</v>
       </c>
-      <c r="CB133" s="14">
+      <c r="CB133" s="23">
         <v>3.0975674195494518</v>
       </c>
-      <c r="CC133" s="14">
+      <c r="CC133" s="23">
         <v>2.945289859974245</v>
       </c>
-      <c r="CD133" s="25">
+      <c r="CD133" s="23">
         <v>2.9182234732008721</v>
       </c>
-      <c r="CE133" s="25">
+      <c r="CE133" s="23">
         <v>0.72337442943078245</v>
       </c>
-      <c r="CF133" s="25">
+      <c r="CF133" s="23">
         <v>2.1220799322994841</v>
       </c>
-      <c r="CG133" s="25">
-        <v>2.0576314645474074</v>
-      </c>
-      <c r="CH133" s="25">
+      <c r="CG133" s="23">
+        <v>2.0616907110188354</v>
+      </c>
+      <c r="CH133" s="23">
         <v>3.1558403405191595</v>
       </c>
-      <c r="CI133" s="25">
+      <c r="CI133" s="23">
         <v>1.4375880940992358</v>
       </c>
-      <c r="CJ133" s="25">
+      <c r="CJ133" s="23">
         <v>1.9314046204247888</v>
       </c>
-      <c r="CK133" s="25">
-        <v>2.0195122411909252</v>
-      </c>
-      <c r="CL133" s="9"/>
+      <c r="CK133" s="23">
+        <v>2.0412785150791133</v>
+      </c>
+      <c r="CL133" s="23">
+        <v>2.9847434446879055</v>
+      </c>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
       <c r="CO133" s="9"/>
@@ -38580,7 +38778,7 @@
       <c r="EV133" s="9"/>
       <c r="EW133" s="9"/>
     </row>
-    <row r="134" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -38657,10 +38855,10 @@
       <c r="BW134" s="9"/>
       <c r="BX134" s="9"/>
       <c r="BY134" s="9"/>
-      <c r="BZ134" s="9"/>
-      <c r="CA134" s="9"/>
-      <c r="CB134" s="9"/>
-      <c r="CC134" s="9"/>
+      <c r="BZ134" s="20"/>
+      <c r="CA134" s="20"/>
+      <c r="CB134" s="20"/>
+      <c r="CC134" s="20"/>
       <c r="CD134" s="20"/>
       <c r="CE134" s="20"/>
       <c r="CF134" s="20"/>
@@ -38669,7 +38867,7 @@
       <c r="CI134" s="20"/>
       <c r="CJ134" s="20"/>
       <c r="CK134" s="20"/>
-      <c r="CL134" s="9"/>
+      <c r="CL134" s="20"/>
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
@@ -38734,7 +38932,7 @@
       <c r="EV134" s="9"/>
       <c r="EW134" s="9"/>
     </row>
-    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -38966,43 +39164,45 @@
       <c r="BY135" s="14">
         <v>100</v>
       </c>
-      <c r="BZ135" s="14">
+      <c r="BZ135" s="23">
         <v>100</v>
       </c>
-      <c r="CA135" s="14">
+      <c r="CA135" s="23">
         <v>100</v>
       </c>
-      <c r="CB135" s="14">
+      <c r="CB135" s="23">
         <v>100</v>
       </c>
-      <c r="CC135" s="14">
+      <c r="CC135" s="23">
         <v>100</v>
       </c>
-      <c r="CD135" s="25">
+      <c r="CD135" s="23">
         <v>100</v>
       </c>
-      <c r="CE135" s="25">
+      <c r="CE135" s="23">
         <v>100</v>
       </c>
-      <c r="CF135" s="25">
+      <c r="CF135" s="23">
         <v>100</v>
       </c>
-      <c r="CG135" s="25">
+      <c r="CG135" s="23">
         <v>100</v>
       </c>
-      <c r="CH135" s="25">
+      <c r="CH135" s="23">
         <v>100</v>
       </c>
-      <c r="CI135" s="25">
+      <c r="CI135" s="23">
         <v>100</v>
       </c>
-      <c r="CJ135" s="25">
+      <c r="CJ135" s="23">
         <v>100</v>
       </c>
-      <c r="CK135" s="25">
+      <c r="CK135" s="23">
         <v>100</v>
       </c>
-      <c r="CL135" s="9"/>
+      <c r="CL135" s="23">
+        <v>100</v>
+      </c>
       <c r="CM135" s="9"/>
       <c r="CN135" s="9"/>
       <c r="CO135" s="9"/>
@@ -39067,7 +39267,7 @@
       <c r="EV135" s="9"/>
       <c r="EW135" s="9"/>
     </row>
-    <row r="136" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -39145,10 +39345,10 @@
       <c r="BW136" s="12"/>
       <c r="BX136" s="12"/>
       <c r="BY136" s="12"/>
-      <c r="BZ136" s="12"/>
-      <c r="CA136" s="12"/>
-      <c r="CB136" s="12"/>
-      <c r="CC136" s="12"/>
+      <c r="BZ136" s="22"/>
+      <c r="CA136" s="22"/>
+      <c r="CB136" s="22"/>
+      <c r="CC136" s="22"/>
       <c r="CD136" s="22"/>
       <c r="CE136" s="22"/>
       <c r="CF136" s="22"/>
@@ -39157,13 +39357,14 @@
       <c r="CI136" s="22"/>
       <c r="CJ136" s="22"/>
       <c r="CK136" s="22"/>
+      <c r="CL136" s="22"/>
     </row>
-    <row r="137" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -39241,19 +39442,19 @@
       <c r="BW138" s="1"/>
       <c r="BX138" s="1"/>
       <c r="BY138" s="1"/>
-      <c r="BZ138" s="1"/>
-      <c r="CA138" s="1"/>
-      <c r="CB138" s="1"/>
-      <c r="CC138" s="1"/>
-      <c r="CD138" s="17"/>
-      <c r="CE138" s="17"/>
-      <c r="CF138" s="17"/>
-      <c r="CG138" s="17"/>
-      <c r="CH138" s="17"/>
-      <c r="CI138" s="17"/>
-      <c r="CJ138" s="17"/>
-      <c r="CK138" s="17"/>
-      <c r="CL138" s="15"/>
+      <c r="BZ138" s="17"/>
+      <c r="CA138" s="17"/>
+      <c r="CB138" s="17"/>
+      <c r="CC138" s="17"/>
+      <c r="CD138" s="26"/>
+      <c r="CE138" s="26"/>
+      <c r="CF138" s="26"/>
+      <c r="CG138" s="26"/>
+      <c r="CH138" s="26"/>
+      <c r="CI138" s="26"/>
+      <c r="CJ138" s="26"/>
+      <c r="CK138" s="26"/>
+      <c r="CL138" s="26"/>
       <c r="CM138" s="15"/>
       <c r="CN138" s="15"/>
       <c r="CO138" s="15"/>
@@ -39318,7 +39519,7 @@
       <c r="EV138" s="15"/>
       <c r="EW138" s="15"/>
     </row>
-    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -39396,19 +39597,19 @@
       <c r="BW139" s="1"/>
       <c r="BX139" s="1"/>
       <c r="BY139" s="1"/>
-      <c r="BZ139" s="1"/>
-      <c r="CA139" s="1"/>
-      <c r="CB139" s="1"/>
-      <c r="CC139" s="1"/>
-      <c r="CD139" s="17"/>
-      <c r="CE139" s="17"/>
-      <c r="CF139" s="17"/>
-      <c r="CG139" s="17"/>
-      <c r="CH139" s="17"/>
-      <c r="CI139" s="17"/>
-      <c r="CJ139" s="17"/>
-      <c r="CK139" s="17"/>
-      <c r="CL139" s="15"/>
+      <c r="BZ139" s="17"/>
+      <c r="CA139" s="17"/>
+      <c r="CB139" s="17"/>
+      <c r="CC139" s="17"/>
+      <c r="CD139" s="26"/>
+      <c r="CE139" s="26"/>
+      <c r="CF139" s="26"/>
+      <c r="CG139" s="26"/>
+      <c r="CH139" s="26"/>
+      <c r="CI139" s="26"/>
+      <c r="CJ139" s="26"/>
+      <c r="CK139" s="26"/>
+      <c r="CL139" s="26"/>
       <c r="CM139" s="15"/>
       <c r="CN139" s="15"/>
       <c r="CO139" s="15"/>
@@ -39473,48 +39674,312 @@
       <c r="EV139" s="15"/>
       <c r="EW139" s="15"/>
     </row>
+    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC145" s="1"/>
+      <c r="CD145" s="1"/>
+      <c r="CE145" s="1"/>
+      <c r="CF145" s="1"/>
+      <c r="CG145" s="1"/>
+      <c r="CH145" s="1"/>
+      <c r="CI145" s="1"/>
+      <c r="CJ145" s="1"/>
+      <c r="CK145" s="1"/>
+      <c r="CL145" s="1"/>
+    </row>
+    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC146" s="1"/>
+      <c r="CD146" s="1"/>
+      <c r="CE146" s="1"/>
+      <c r="CF146" s="1"/>
+      <c r="CG146" s="1"/>
+      <c r="CH146" s="1"/>
+      <c r="CI146" s="1"/>
+      <c r="CJ146" s="1"/>
+      <c r="CK146" s="1"/>
+      <c r="CL146" s="1"/>
+    </row>
+    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC147" s="1"/>
+      <c r="CD147" s="1"/>
+      <c r="CE147" s="1"/>
+      <c r="CF147" s="1"/>
+      <c r="CG147" s="1"/>
+      <c r="CH147" s="1"/>
+      <c r="CI147" s="1"/>
+      <c r="CJ147" s="1"/>
+      <c r="CK147" s="1"/>
+      <c r="CL147" s="1"/>
+    </row>
+    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC148" s="1"/>
+      <c r="CD148" s="1"/>
+      <c r="CE148" s="1"/>
+      <c r="CF148" s="1"/>
+      <c r="CG148" s="1"/>
+      <c r="CH148" s="1"/>
+      <c r="CI148" s="1"/>
+      <c r="CJ148" s="1"/>
+      <c r="CK148" s="1"/>
+      <c r="CL148" s="1"/>
+    </row>
+    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC149" s="1"/>
+      <c r="CD149" s="1"/>
+      <c r="CE149" s="1"/>
+      <c r="CF149" s="1"/>
+      <c r="CG149" s="1"/>
+      <c r="CH149" s="1"/>
+      <c r="CI149" s="1"/>
+      <c r="CJ149" s="1"/>
+      <c r="CK149" s="1"/>
+      <c r="CL149" s="1"/>
+    </row>
+    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC150" s="1"/>
+      <c r="CD150" s="1"/>
+      <c r="CE150" s="1"/>
+      <c r="CF150" s="1"/>
+      <c r="CG150" s="1"/>
+      <c r="CH150" s="1"/>
+      <c r="CI150" s="1"/>
+      <c r="CJ150" s="1"/>
+      <c r="CK150" s="1"/>
+      <c r="CL150" s="1"/>
+    </row>
+    <row r="151" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC151" s="1"/>
+      <c r="CD151" s="1"/>
+      <c r="CE151" s="1"/>
+      <c r="CF151" s="1"/>
+      <c r="CG151" s="1"/>
+      <c r="CH151" s="1"/>
+      <c r="CI151" s="1"/>
+      <c r="CJ151" s="1"/>
+      <c r="CK151" s="1"/>
+      <c r="CL151" s="1"/>
+    </row>
+    <row r="152" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC152" s="1"/>
+      <c r="CD152" s="1"/>
+      <c r="CE152" s="1"/>
+      <c r="CF152" s="1"/>
+      <c r="CG152" s="1"/>
+      <c r="CH152" s="1"/>
+      <c r="CI152" s="1"/>
+      <c r="CJ152" s="1"/>
+      <c r="CK152" s="1"/>
+      <c r="CL152" s="1"/>
+    </row>
+    <row r="153" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC153" s="1"/>
+      <c r="CD153" s="1"/>
+      <c r="CE153" s="1"/>
+      <c r="CF153" s="1"/>
+      <c r="CG153" s="1"/>
+      <c r="CH153" s="1"/>
+      <c r="CI153" s="1"/>
+      <c r="CJ153" s="1"/>
+      <c r="CK153" s="1"/>
+      <c r="CL153" s="1"/>
+    </row>
+    <row r="154" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC154" s="1"/>
+      <c r="CD154" s="1"/>
+      <c r="CE154" s="1"/>
+      <c r="CF154" s="1"/>
+      <c r="CG154" s="1"/>
+      <c r="CH154" s="1"/>
+      <c r="CI154" s="1"/>
+      <c r="CJ154" s="1"/>
+      <c r="CK154" s="1"/>
+      <c r="CL154" s="1"/>
+    </row>
+    <row r="155" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC155" s="1"/>
+      <c r="CD155" s="1"/>
+      <c r="CE155" s="1"/>
+      <c r="CF155" s="1"/>
+      <c r="CG155" s="1"/>
+      <c r="CH155" s="1"/>
+      <c r="CI155" s="1"/>
+      <c r="CJ155" s="1"/>
+      <c r="CK155" s="1"/>
+      <c r="CL155" s="1"/>
+    </row>
+    <row r="156" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC156" s="1"/>
+      <c r="CD156" s="1"/>
+      <c r="CE156" s="1"/>
+      <c r="CF156" s="1"/>
+      <c r="CG156" s="1"/>
+      <c r="CH156" s="1"/>
+      <c r="CI156" s="1"/>
+      <c r="CJ156" s="1"/>
+      <c r="CK156" s="1"/>
+      <c r="CL156" s="1"/>
+    </row>
+    <row r="157" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+    </row>
+    <row r="158" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC158" s="1"/>
+      <c r="CD158" s="1"/>
+      <c r="CE158" s="1"/>
+      <c r="CF158" s="1"/>
+      <c r="CG158" s="1"/>
+      <c r="CH158" s="1"/>
+      <c r="CI158" s="1"/>
+      <c r="CJ158" s="1"/>
+      <c r="CK158" s="1"/>
+      <c r="CL158" s="1"/>
+    </row>
+    <row r="159" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+    </row>
+    <row r="160" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC160" s="1"/>
+      <c r="CD160" s="1"/>
+      <c r="CE160" s="1"/>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
+      <c r="CH160" s="1"/>
+      <c r="CI160" s="1"/>
+      <c r="CJ160" s="1"/>
+      <c r="CK160" s="1"/>
+      <c r="CL160" s="1"/>
+    </row>
+    <row r="161" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC161" s="1"/>
+      <c r="CD161" s="1"/>
+      <c r="CE161" s="1"/>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
+      <c r="CH161" s="1"/>
+      <c r="CI161" s="1"/>
+      <c r="CJ161" s="1"/>
+      <c r="CK161" s="1"/>
+      <c r="CL161" s="1"/>
+    </row>
+    <row r="162" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC162" s="1"/>
+      <c r="CD162" s="1"/>
+      <c r="CE162" s="1"/>
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+      <c r="CH162" s="1"/>
+      <c r="CI162" s="1"/>
+      <c r="CJ162" s="1"/>
+      <c r="CK162" s="1"/>
+      <c r="CL162" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B29:E29"/>
@@ -39539,103 +40004,55 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="88" man="1"/>
-    <brk id="80" max="88" man="1"/>
-    <brk id="99" max="88" man="1"/>
+    <brk id="40" max="91" man="1"/>
+    <brk id="80" max="91" man="1"/>
+    <brk id="99" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCEBB3D-A32B-49FE-B3E3-82372141B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13455949-0901-446B-AA86-CBB21A8DBA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CN$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CM$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,16 +612,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>2021 - 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -629,10 +629,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -703,82 +703,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{6B72EC4E-2C04-41FC-ACCA-7F38431B8283}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{70B010FA-44A1-4BF1-A758-8BEDF47A3DEF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23630,194 +23612,193 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EW162"/>
+  <dimension ref="A1:EW139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A160" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CI67" sqref="CI67:CM83"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="77" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="90" width="11.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
+    <col min="2" max="69" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="10.08984375" style="1" customWidth="1"/>
+    <col min="74" max="91" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="28">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="28">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="28"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="28"/>
-      <c r="BV9" s="28">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
+      <c r="CM9" s="22"/>
     </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24049,50 +24030,53 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="18" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="18" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="18" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="18" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="18" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="18" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="18" t="s">
+      <c r="CF10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="18" t="s">
+      <c r="CG10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="18" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="18" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="18" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="18" t="s">
+      <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="18" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24324,46 +24308,48 @@
       <c r="BY12" s="8">
         <v>200459.26066137082</v>
       </c>
-      <c r="BZ12" s="19">
+      <c r="BZ12" s="8">
         <v>137148.49122247534</v>
       </c>
-      <c r="CA12" s="19">
+      <c r="CA12" s="8">
         <v>166239.87409286501</v>
       </c>
-      <c r="CB12" s="19">
+      <c r="CB12" s="8">
         <v>165809.22701737122</v>
       </c>
-      <c r="CC12" s="19">
+      <c r="CC12" s="8">
         <v>211939.34770343461</v>
       </c>
-      <c r="CD12" s="19">
+      <c r="CD12" s="8">
         <v>134428.00292712345</v>
       </c>
-      <c r="CE12" s="19">
+      <c r="CE12" s="8">
         <v>144689.96158012253</v>
       </c>
-      <c r="CF12" s="19">
+      <c r="CF12" s="8">
         <v>153470.43165593373</v>
       </c>
-      <c r="CG12" s="19">
+      <c r="CG12" s="8">
         <v>202885.43723331287</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="18">
         <v>125934.52691420163</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="18">
         <v>130429.76216058555</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="18">
         <v>160975.38033352135</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="18">
         <v>217986.43405091568</v>
       </c>
-      <c r="CL12" s="19">
-        <v>135232.90344832296</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="18">
+        <v>139742.9469087047</v>
+      </c>
+      <c r="CM12" s="18">
+        <v>141185.9044928964</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -24427,7 +24413,7 @@
       <c r="EV12" s="9"/>
       <c r="EW12" s="9"/>
     </row>
-    <row r="13" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24659,46 +24645,48 @@
       <c r="BY13" s="8">
         <v>693276.46351653419</v>
       </c>
-      <c r="BZ13" s="19">
+      <c r="BZ13" s="8">
         <v>555934.52198276797</v>
       </c>
-      <c r="CA13" s="19">
+      <c r="CA13" s="8">
         <v>679045.00227141869</v>
       </c>
-      <c r="CB13" s="19">
+      <c r="CB13" s="8">
         <v>749115.19154581183</v>
       </c>
-      <c r="CC13" s="19">
+      <c r="CC13" s="8">
         <v>745064.33817422262</v>
       </c>
-      <c r="CD13" s="19">
+      <c r="CD13" s="8">
         <v>569569.38500676304</v>
       </c>
-      <c r="CE13" s="19">
+      <c r="CE13" s="8">
         <v>602323.12720453925</v>
       </c>
-      <c r="CF13" s="19">
+      <c r="CF13" s="8">
         <v>726045.37781260512</v>
       </c>
-      <c r="CG13" s="19">
+      <c r="CG13" s="8">
         <v>720588.29363605776</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="18">
         <v>556310.12994573393</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="18">
         <v>664628.85626506037</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="18">
         <v>787926.29941272957</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="18">
         <v>788538.73960287869</v>
       </c>
-      <c r="CL13" s="19">
-        <v>622543.52220588969</v>
-      </c>
-      <c r="CM13" s="9"/>
+      <c r="CL13" s="18">
+        <v>615882.96401822648</v>
+      </c>
+      <c r="CM13" s="18">
+        <v>763391.51486397209</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -24762,7 +24750,7 @@
       <c r="EV13" s="9"/>
       <c r="EW13" s="9"/>
     </row>
-    <row r="14" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24994,46 +24982,48 @@
       <c r="BY14" s="8">
         <v>26580.096353468754</v>
       </c>
-      <c r="BZ14" s="19">
+      <c r="BZ14" s="8">
         <v>25223.514675185925</v>
       </c>
-      <c r="CA14" s="19">
+      <c r="CA14" s="8">
         <v>26224.241993592579</v>
       </c>
-      <c r="CB14" s="19">
+      <c r="CB14" s="8">
         <v>28105.435585655418</v>
       </c>
-      <c r="CC14" s="19">
+      <c r="CC14" s="8">
         <v>27803.896591451896</v>
       </c>
-      <c r="CD14" s="19">
+      <c r="CD14" s="8">
         <v>21217.279343218623</v>
       </c>
-      <c r="CE14" s="19">
+      <c r="CE14" s="8">
         <v>5310.7490947859096</v>
       </c>
-      <c r="CF14" s="19">
+      <c r="CF14" s="8">
         <v>18142.436705528107</v>
       </c>
-      <c r="CG14" s="19">
+      <c r="CG14" s="8">
         <v>18700.19865871939</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="18">
         <v>22229.866504719321</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="18">
         <v>11073.668521034813</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="18">
         <v>17483.618536133064</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="18">
         <v>19719.197301440134</v>
       </c>
-      <c r="CL14" s="19">
-        <v>22910.748164996636</v>
-      </c>
-      <c r="CM14" s="9"/>
+      <c r="CL14" s="18">
+        <v>23009.414939819319</v>
+      </c>
+      <c r="CM14" s="18">
+        <v>14537.438061670005</v>
+      </c>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
@@ -25097,7 +25087,7 @@
       <c r="EV14" s="9"/>
       <c r="EW14" s="9"/>
     </row>
-    <row r="15" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -25174,19 +25164,19 @@
       <c r="BW15" s="9"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
-      <c r="BZ15" s="20"/>
-      <c r="CA15" s="20"/>
-      <c r="CB15" s="20"/>
-      <c r="CC15" s="20"/>
-      <c r="CD15" s="20"/>
-      <c r="CE15" s="20"/>
-      <c r="CF15" s="20"/>
-      <c r="CG15" s="20"/>
-      <c r="CH15" s="20"/>
-      <c r="CI15" s="20"/>
-      <c r="CJ15" s="20"/>
-      <c r="CK15" s="20"/>
-      <c r="CL15" s="20"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25251,7 +25241,7 @@
       <c r="EV15" s="9"/>
       <c r="EW15" s="9"/>
     </row>
-    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -25483,46 +25473,48 @@
       <c r="BY16" s="11">
         <v>920315.82053137373</v>
       </c>
-      <c r="BZ16" s="21">
+      <c r="BZ16" s="11">
         <v>718306.52788042917</v>
       </c>
-      <c r="CA16" s="21">
+      <c r="CA16" s="11">
         <v>871509.11835787632</v>
       </c>
-      <c r="CB16" s="21">
+      <c r="CB16" s="11">
         <v>943029.85414883844</v>
       </c>
-      <c r="CC16" s="21">
+      <c r="CC16" s="11">
         <v>984807.58246910921</v>
       </c>
-      <c r="CD16" s="21">
+      <c r="CD16" s="11">
         <v>725214.66727710515</v>
       </c>
-      <c r="CE16" s="21">
+      <c r="CE16" s="11">
         <v>752323.83787944773</v>
       </c>
-      <c r="CF16" s="21">
+      <c r="CF16" s="11">
         <v>897658.24617406691</v>
       </c>
-      <c r="CG16" s="21">
+      <c r="CG16" s="11">
         <v>942173.92952809006</v>
       </c>
-      <c r="CH16" s="21">
+      <c r="CH16" s="19">
         <v>704474.52336465498</v>
       </c>
-      <c r="CI16" s="21">
+      <c r="CI16" s="19">
         <v>806132.28694668063</v>
       </c>
-      <c r="CJ16" s="21">
+      <c r="CJ16" s="19">
         <v>966385.29828238394</v>
       </c>
-      <c r="CK16" s="21">
+      <c r="CK16" s="19">
         <v>1026244.3709552345</v>
       </c>
-      <c r="CL16" s="21">
-        <v>780687.17381920933</v>
-      </c>
-      <c r="CM16" s="9"/>
+      <c r="CL16" s="19">
+        <v>778635.32586675056</v>
+      </c>
+      <c r="CM16" s="19">
+        <v>919114.85741853854</v>
+      </c>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
@@ -25586,7 +25578,7 @@
       <c r="EV16" s="9"/>
       <c r="EW16" s="9"/>
     </row>
-    <row r="17" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -25664,26 +25656,27 @@
       <c r="BW17" s="12"/>
       <c r="BX17" s="12"/>
       <c r="BY17" s="12"/>
-      <c r="BZ17" s="22"/>
-      <c r="CA17" s="22"/>
-      <c r="CB17" s="22"/>
-      <c r="CC17" s="22"/>
-      <c r="CD17" s="22"/>
-      <c r="CE17" s="22"/>
-      <c r="CF17" s="22"/>
-      <c r="CG17" s="22"/>
-      <c r="CH17" s="22"/>
-      <c r="CI17" s="22"/>
-      <c r="CJ17" s="22"/>
-      <c r="CK17" s="22"/>
-      <c r="CL17" s="22"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+      <c r="CI17" s="12"/>
+      <c r="CJ17" s="12"/>
+      <c r="CK17" s="12"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
     </row>
-    <row r="18" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -25760,19 +25753,19 @@
       <c r="BW19" s="9"/>
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
-      <c r="BZ19" s="20"/>
-      <c r="CA19" s="20"/>
-      <c r="CB19" s="20"/>
-      <c r="CC19" s="20"/>
-      <c r="CD19" s="20"/>
-      <c r="CE19" s="20"/>
-      <c r="CF19" s="20"/>
-      <c r="CG19" s="20"/>
-      <c r="CH19" s="20"/>
-      <c r="CI19" s="20"/>
-      <c r="CJ19" s="20"/>
-      <c r="CK19" s="20"/>
-      <c r="CL19" s="20"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -25837,7 +25830,7 @@
       <c r="EV19" s="9"/>
       <c r="EW19" s="9"/>
     </row>
-    <row r="20" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -25914,19 +25907,19 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="20"/>
-      <c r="CA20" s="20"/>
-      <c r="CB20" s="20"/>
-      <c r="CC20" s="20"/>
-      <c r="CD20" s="20"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="20"/>
-      <c r="CG20" s="20"/>
-      <c r="CH20" s="20"/>
-      <c r="CI20" s="20"/>
-      <c r="CJ20" s="20"/>
-      <c r="CK20" s="20"/>
-      <c r="CL20" s="20"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -25991,175 +25984,176 @@
       <c r="EV20" s="9"/>
       <c r="EW20" s="9"/>
     </row>
-    <row r="21" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="28">
+      <c r="B29" s="22">
         <v>2000</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22">
         <v>2001</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="22">
         <v>2002</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="28">
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="22">
         <v>2003</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="28">
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="22">
         <v>2004</v>
       </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="28">
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="22">
         <v>2005</v>
       </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="28">
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="22">
         <v>2006</v>
       </c>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="28">
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="22">
         <v>2007</v>
       </c>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="28">
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="22">
         <v>2008</v>
       </c>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="28">
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="22">
         <v>2009</v>
       </c>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="28">
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="28">
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="22">
         <v>2011</v>
       </c>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="28">
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
+      <c r="AX29" s="22">
         <v>2012</v>
       </c>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="28">
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="23"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="22">
         <v>2013</v>
       </c>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="29"/>
-      <c r="BE29" s="29"/>
-      <c r="BF29" s="28">
+      <c r="BC29" s="23"/>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="22">
         <v>2014</v>
       </c>
-      <c r="BG29" s="29"/>
-      <c r="BH29" s="29"/>
-      <c r="BI29" s="29"/>
-      <c r="BJ29" s="28">
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="22">
         <v>2015</v>
       </c>
-      <c r="BK29" s="29"/>
-      <c r="BL29" s="29"/>
-      <c r="BM29" s="29"/>
-      <c r="BN29" s="28">
+      <c r="BK29" s="23"/>
+      <c r="BL29" s="23"/>
+      <c r="BM29" s="23"/>
+      <c r="BN29" s="22">
         <v>2016</v>
       </c>
-      <c r="BO29" s="29"/>
-      <c r="BP29" s="29"/>
-      <c r="BQ29" s="29"/>
-      <c r="BR29" s="28">
+      <c r="BO29" s="23"/>
+      <c r="BP29" s="23"/>
+      <c r="BQ29" s="23"/>
+      <c r="BR29" s="22">
         <v>2017</v>
       </c>
-      <c r="BS29" s="29"/>
-      <c r="BT29" s="29"/>
-      <c r="BU29" s="29"/>
-      <c r="BV29" s="28">
+      <c r="BS29" s="23"/>
+      <c r="BT29" s="23"/>
+      <c r="BU29" s="23"/>
+      <c r="BV29" s="22">
         <v>2018</v>
       </c>
-      <c r="BW29" s="28"/>
-      <c r="BX29" s="28"/>
-      <c r="BY29" s="28"/>
-      <c r="BZ29" s="27">
+      <c r="BW29" s="22"/>
+      <c r="BX29" s="22"/>
+      <c r="BY29" s="22"/>
+      <c r="BZ29" s="22">
         <v>2019</v>
       </c>
-      <c r="CA29" s="30"/>
-      <c r="CB29" s="30"/>
-      <c r="CC29" s="30"/>
-      <c r="CD29" s="27">
+      <c r="CA29" s="22"/>
+      <c r="CB29" s="22"/>
+      <c r="CC29" s="22"/>
+      <c r="CD29" s="22">
         <v>2020</v>
       </c>
-      <c r="CE29" s="27"/>
-      <c r="CF29" s="27"/>
-      <c r="CG29" s="27"/>
-      <c r="CH29" s="27">
+      <c r="CE29" s="22"/>
+      <c r="CF29" s="22"/>
+      <c r="CG29" s="22"/>
+      <c r="CH29" s="22">
         <v>2021</v>
       </c>
-      <c r="CI29" s="27"/>
-      <c r="CJ29" s="27"/>
-      <c r="CK29" s="27"/>
-      <c r="CL29" s="25">
+      <c r="CI29" s="22"/>
+      <c r="CJ29" s="22"/>
+      <c r="CK29" s="22"/>
+      <c r="CL29" s="22">
         <v>2022</v>
       </c>
+      <c r="CM29" s="22"/>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -26391,50 +26385,53 @@
       <c r="BY30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ30" s="18" t="s">
+      <c r="BZ30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA30" s="18" t="s">
+      <c r="CA30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB30" s="18" t="s">
+      <c r="CB30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC30" s="18" t="s">
+      <c r="CC30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD30" s="18" t="s">
+      <c r="CD30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE30" s="18" t="s">
+      <c r="CE30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF30" s="18" t="s">
+      <c r="CF30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG30" s="18" t="s">
+      <c r="CG30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH30" s="18" t="s">
+      <c r="CH30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI30" s="18" t="s">
+      <c r="CI30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ30" s="18" t="s">
+      <c r="CJ30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK30" s="18" t="s">
+      <c r="CK30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="18" t="s">
+      <c r="CL30" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM30" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -26666,46 +26663,48 @@
       <c r="BY32" s="8">
         <v>196464.54787105293</v>
       </c>
-      <c r="BZ32" s="19">
+      <c r="BZ32" s="8">
         <v>135698.77619281673</v>
       </c>
-      <c r="CA32" s="19">
+      <c r="CA32" s="8">
         <v>165116.96986125276</v>
       </c>
-      <c r="CB32" s="19">
+      <c r="CB32" s="8">
         <v>164335.49011773395</v>
       </c>
-      <c r="CC32" s="19">
+      <c r="CC32" s="8">
         <v>209530.66714622904</v>
       </c>
-      <c r="CD32" s="19">
+      <c r="CD32" s="8">
         <v>128853.38291035185</v>
       </c>
-      <c r="CE32" s="19">
+      <c r="CE32" s="8">
         <v>138974.71274836591</v>
       </c>
-      <c r="CF32" s="19">
+      <c r="CF32" s="8">
         <v>147650.98243383912</v>
       </c>
-      <c r="CG32" s="19">
+      <c r="CG32" s="8">
         <v>194822.09031976195</v>
       </c>
-      <c r="CH32" s="19">
+      <c r="CH32" s="18">
         <v>117334.74706809164</v>
       </c>
-      <c r="CI32" s="19">
+      <c r="CI32" s="18">
         <v>122534.66867416279</v>
       </c>
-      <c r="CJ32" s="19">
+      <c r="CJ32" s="18">
         <v>149849.83840446768</v>
       </c>
-      <c r="CK32" s="19">
+      <c r="CK32" s="18">
         <v>200376.31381551066</v>
       </c>
-      <c r="CL32" s="19">
-        <v>122142.35642447366</v>
-      </c>
-      <c r="CM32" s="9"/>
+      <c r="CL32" s="18">
+        <v>126215.82761218885</v>
+      </c>
+      <c r="CM32" s="18">
+        <v>127356.38228959241</v>
+      </c>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
@@ -26769,7 +26768,7 @@
       <c r="EV32" s="9"/>
       <c r="EW32" s="9"/>
     </row>
-    <row r="33" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -27001,46 +27000,48 @@
       <c r="BY33" s="8">
         <v>685913.1490692267</v>
       </c>
-      <c r="BZ33" s="19">
+      <c r="BZ33" s="8">
         <v>552359.66261243483</v>
       </c>
-      <c r="CA33" s="19">
+      <c r="CA33" s="8">
         <v>675087.74610758526</v>
       </c>
-      <c r="CB33" s="19">
+      <c r="CB33" s="8">
         <v>741463.0831795194</v>
       </c>
-      <c r="CC33" s="19">
+      <c r="CC33" s="8">
         <v>735663.52985589486</v>
       </c>
-      <c r="CD33" s="19">
+      <c r="CD33" s="8">
         <v>573543.42270822532</v>
       </c>
-      <c r="CE33" s="19">
+      <c r="CE33" s="8">
         <v>600227.80201786652</v>
       </c>
-      <c r="CF33" s="19">
+      <c r="CF33" s="8">
         <v>709888.97951706429</v>
       </c>
-      <c r="CG33" s="19">
+      <c r="CG33" s="8">
         <v>717282.76015728002</v>
       </c>
-      <c r="CH33" s="19">
+      <c r="CH33" s="18">
         <v>559420.39392693527</v>
       </c>
-      <c r="CI33" s="19">
+      <c r="CI33" s="18">
         <v>650769.9722624555</v>
       </c>
-      <c r="CJ33" s="19">
+      <c r="CJ33" s="18">
         <v>765281.26945021667</v>
       </c>
-      <c r="CK33" s="19">
+      <c r="CK33" s="18">
         <v>777036.31249135442</v>
       </c>
-      <c r="CL33" s="19">
-        <v>605400.1998387624</v>
-      </c>
-      <c r="CM33" s="9"/>
+      <c r="CL33" s="18">
+        <v>598923.05709449085</v>
+      </c>
+      <c r="CM33" s="18">
+        <v>718626.85720478895</v>
+      </c>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
@@ -27104,7 +27105,7 @@
       <c r="EV33" s="9"/>
       <c r="EW33" s="9"/>
     </row>
-    <row r="34" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -27336,46 +27337,48 @@
       <c r="BY34" s="8">
         <v>26289.167337810952</v>
       </c>
-      <c r="BZ34" s="19">
+      <c r="BZ34" s="8">
         <v>25512.429245526371</v>
       </c>
-      <c r="CA34" s="19">
+      <c r="CA34" s="8">
         <v>26892.912546802785</v>
       </c>
-      <c r="CB34" s="19">
+      <c r="CB34" s="8">
         <v>28954.610060903618</v>
       </c>
-      <c r="CC34" s="19">
+      <c r="CC34" s="8">
         <v>28683.521697405748</v>
       </c>
-      <c r="CD34" s="19">
+      <c r="CD34" s="8">
         <v>21113.652005447329</v>
       </c>
-      <c r="CE34" s="19">
+      <c r="CE34" s="8">
         <v>5386.1641074084</v>
       </c>
-      <c r="CF34" s="19">
+      <c r="CF34" s="8">
         <v>18592.225326633139</v>
       </c>
-      <c r="CG34" s="19">
+      <c r="CG34" s="8">
         <v>19200.638762867737</v>
       </c>
-      <c r="CH34" s="19">
+      <c r="CH34" s="18">
         <v>22053.277989249957</v>
       </c>
-      <c r="CI34" s="19">
+      <c r="CI34" s="18">
         <v>11279.082191936619</v>
       </c>
-      <c r="CJ34" s="19">
+      <c r="CJ34" s="18">
         <v>18022.981191521263</v>
       </c>
-      <c r="CK34" s="19">
+      <c r="CK34" s="18">
         <v>20367.470748935582</v>
       </c>
-      <c r="CL34" s="19">
-        <v>22383.36476799507</v>
-      </c>
-      <c r="CM34" s="9"/>
+      <c r="CL34" s="18">
+        <v>22479.760328516833</v>
+      </c>
+      <c r="CM34" s="18">
+        <v>14525.932883976839</v>
+      </c>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
@@ -27439,7 +27442,7 @@
       <c r="EV34" s="9"/>
       <c r="EW34" s="9"/>
     </row>
-    <row r="35" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -27516,20 +27519,20 @@
       <c r="BW35" s="11"/>
       <c r="BX35" s="11"/>
       <c r="BY35" s="11"/>
-      <c r="BZ35" s="21"/>
-      <c r="CA35" s="21"/>
-      <c r="CB35" s="21"/>
-      <c r="CC35" s="21"/>
-      <c r="CD35" s="21"/>
-      <c r="CE35" s="21"/>
-      <c r="CF35" s="21"/>
-      <c r="CG35" s="21"/>
-      <c r="CH35" s="21"/>
-      <c r="CI35" s="21"/>
-      <c r="CJ35" s="21"/>
-      <c r="CK35" s="21"/>
-      <c r="CL35" s="21"/>
-      <c r="CM35" s="9"/>
+      <c r="BZ35" s="11"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="11"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="11"/>
+      <c r="CG35" s="11"/>
+      <c r="CH35" s="19"/>
+      <c r="CI35" s="19"/>
+      <c r="CJ35" s="19"/>
+      <c r="CK35" s="19"/>
+      <c r="CL35" s="19"/>
+      <c r="CM35" s="19"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
@@ -27593,7 +27596,7 @@
       <c r="EV35" s="9"/>
       <c r="EW35" s="9"/>
     </row>
-    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -27825,46 +27828,48 @@
       <c r="BY36" s="11">
         <v>908666.86427809054</v>
       </c>
-      <c r="BZ36" s="21">
+      <c r="BZ36" s="11">
         <v>713570.86805077794</v>
       </c>
-      <c r="CA36" s="21">
+      <c r="CA36" s="11">
         <v>867097.62851564074</v>
       </c>
-      <c r="CB36" s="21">
+      <c r="CB36" s="11">
         <v>934753.18335815694</v>
       </c>
-      <c r="CC36" s="21">
+      <c r="CC36" s="11">
         <v>973877.71869952965</v>
       </c>
-      <c r="CD36" s="21">
+      <c r="CD36" s="11">
         <v>723510.45762402448</v>
       </c>
-      <c r="CE36" s="21">
+      <c r="CE36" s="11">
         <v>744588.67887364083</v>
       </c>
-      <c r="CF36" s="21">
+      <c r="CF36" s="11">
         <v>876132.18727753661</v>
       </c>
-      <c r="CG36" s="21">
+      <c r="CG36" s="11">
         <v>931305.48923990969</v>
       </c>
-      <c r="CH36" s="21">
+      <c r="CH36" s="19">
         <v>698808.41898427682</v>
       </c>
-      <c r="CI36" s="21">
+      <c r="CI36" s="19">
         <v>784583.72312855499</v>
       </c>
-      <c r="CJ36" s="21">
+      <c r="CJ36" s="19">
         <v>933154.08904620563</v>
       </c>
-      <c r="CK36" s="21">
+      <c r="CK36" s="19">
         <v>997780.09705580072</v>
       </c>
-      <c r="CL36" s="21">
-        <v>749925.92103123118</v>
-      </c>
-      <c r="CM36" s="9"/>
+      <c r="CL36" s="19">
+        <v>747618.64503519656</v>
+      </c>
+      <c r="CM36" s="19">
+        <v>860509.1723783582</v>
+      </c>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
@@ -27928,7 +27933,7 @@
       <c r="EV36" s="9"/>
       <c r="EW36" s="9"/>
     </row>
-    <row r="37" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -28006,26 +28011,27 @@
       <c r="BW37" s="12"/>
       <c r="BX37" s="12"/>
       <c r="BY37" s="12"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="22"/>
-      <c r="CF37" s="22"/>
-      <c r="CG37" s="22"/>
-      <c r="CH37" s="22"/>
-      <c r="CI37" s="22"/>
-      <c r="CJ37" s="22"/>
-      <c r="CK37" s="22"/>
-      <c r="CL37" s="22"/>
+      <c r="BZ37" s="12"/>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+      <c r="CC37" s="12"/>
+      <c r="CD37" s="12"/>
+      <c r="CE37" s="12"/>
+      <c r="CF37" s="12"/>
+      <c r="CG37" s="12"/>
+      <c r="CH37" s="12"/>
+      <c r="CI37" s="12"/>
+      <c r="CJ37" s="12"/>
+      <c r="CK37" s="12"/>
+      <c r="CL37" s="12"/>
+      <c r="CM37" s="12"/>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -28102,19 +28108,19 @@
       <c r="BW39" s="9"/>
       <c r="BX39" s="9"/>
       <c r="BY39" s="9"/>
-      <c r="BZ39" s="20"/>
-      <c r="CA39" s="20"/>
-      <c r="CB39" s="20"/>
-      <c r="CC39" s="20"/>
-      <c r="CD39" s="20"/>
-      <c r="CE39" s="20"/>
-      <c r="CF39" s="20"/>
-      <c r="CG39" s="20"/>
-      <c r="CH39" s="20"/>
-      <c r="CI39" s="20"/>
-      <c r="CJ39" s="20"/>
-      <c r="CK39" s="20"/>
-      <c r="CL39" s="20"/>
+      <c r="BZ39" s="9"/>
+      <c r="CA39" s="9"/>
+      <c r="CB39" s="9"/>
+      <c r="CC39" s="9"/>
+      <c r="CD39" s="9"/>
+      <c r="CE39" s="9"/>
+      <c r="CF39" s="9"/>
+      <c r="CG39" s="9"/>
+      <c r="CH39" s="9"/>
+      <c r="CI39" s="9"/>
+      <c r="CJ39" s="9"/>
+      <c r="CK39" s="9"/>
+      <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
@@ -28179,7 +28185,7 @@
       <c r="EV39" s="9"/>
       <c r="EW39" s="9"/>
     </row>
-    <row r="40" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -28256,19 +28262,19 @@
       <c r="BW40" s="9"/>
       <c r="BX40" s="9"/>
       <c r="BY40" s="9"/>
-      <c r="BZ40" s="20"/>
-      <c r="CA40" s="20"/>
-      <c r="CB40" s="20"/>
-      <c r="CC40" s="20"/>
-      <c r="CD40" s="20"/>
-      <c r="CE40" s="20"/>
-      <c r="CF40" s="20"/>
-      <c r="CG40" s="20"/>
-      <c r="CH40" s="20"/>
-      <c r="CI40" s="20"/>
-      <c r="CJ40" s="20"/>
-      <c r="CK40" s="20"/>
-      <c r="CL40" s="20"/>
+      <c r="BZ40" s="9"/>
+      <c r="CA40" s="9"/>
+      <c r="CB40" s="9"/>
+      <c r="CC40" s="9"/>
+      <c r="CD40" s="9"/>
+      <c r="CE40" s="9"/>
+      <c r="CF40" s="9"/>
+      <c r="CG40" s="9"/>
+      <c r="CH40" s="9"/>
+      <c r="CI40" s="9"/>
+      <c r="CJ40" s="9"/>
+      <c r="CK40" s="9"/>
+      <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
@@ -28333,186 +28339,174 @@
       <c r="EV40" s="9"/>
       <c r="EW40" s="9"/>
     </row>
-    <row r="41" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CI47" s="32"/>
-      <c r="CJ47" s="32"/>
-      <c r="CK47" s="32"/>
-      <c r="CL47" s="32"/>
-      <c r="CM47" s="33"/>
     </row>
-    <row r="48" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CI48" s="32"/>
-      <c r="CJ48" s="32"/>
-      <c r="CK48" s="32"/>
-      <c r="CL48" s="32"/>
-      <c r="CM48" s="33"/>
+    <row r="49" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK49" s="22"/>
+      <c r="BL49" s="22"/>
+      <c r="BM49" s="22"/>
+      <c r="BN49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO49" s="22"/>
+      <c r="BP49" s="22"/>
+      <c r="BQ49" s="22"/>
+      <c r="BR49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS49" s="22"/>
+      <c r="BT49" s="22"/>
+      <c r="BU49" s="22"/>
+      <c r="BV49" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW49" s="22"/>
+      <c r="BX49" s="22"/>
+      <c r="BY49" s="22"/>
+      <c r="BZ49" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA49" s="22"/>
+      <c r="CB49" s="22"/>
+      <c r="CC49" s="22"/>
+      <c r="CD49" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="CE49" s="22"/>
+      <c r="CF49" s="22"/>
+      <c r="CG49" s="22"/>
+      <c r="CH49" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI49" s="22"/>
+      <c r="CJ49" s="20"/>
+      <c r="CK49" s="20"/>
+      <c r="CL49" s="17"/>
+      <c r="CM49" s="17"/>
     </row>
-    <row r="49" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
-      <c r="AK49" s="28"/>
-      <c r="AL49" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM49" s="28"/>
-      <c r="AN49" s="28"/>
-      <c r="AO49" s="28"/>
-      <c r="AP49" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ49" s="28"/>
-      <c r="AR49" s="28"/>
-      <c r="AS49" s="28"/>
-      <c r="AT49" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU49" s="28"/>
-      <c r="AV49" s="28"/>
-      <c r="AW49" s="28"/>
-      <c r="AX49" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY49" s="28"/>
-      <c r="AZ49" s="28"/>
-      <c r="BA49" s="28"/>
-      <c r="BB49" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC49" s="28"/>
-      <c r="BD49" s="28"/>
-      <c r="BE49" s="28"/>
-      <c r="BF49" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG49" s="28"/>
-      <c r="BH49" s="28"/>
-      <c r="BI49" s="28"/>
-      <c r="BJ49" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK49" s="28"/>
-      <c r="BL49" s="28"/>
-      <c r="BM49" s="28"/>
-      <c r="BN49" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO49" s="28"/>
-      <c r="BP49" s="28"/>
-      <c r="BQ49" s="28"/>
-      <c r="BR49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="BS49" s="28"/>
-      <c r="BT49" s="28"/>
-      <c r="BU49" s="28"/>
-      <c r="BV49" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="BW49" s="28"/>
-      <c r="BX49" s="28"/>
-      <c r="BY49" s="28"/>
-      <c r="BZ49" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="CA49" s="27"/>
-      <c r="CB49" s="27"/>
-      <c r="CC49" s="27"/>
-      <c r="CD49" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="CE49" s="27"/>
-      <c r="CF49" s="27"/>
-      <c r="CG49" s="27"/>
-      <c r="CH49" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="CI49" s="36"/>
-      <c r="CJ49" s="36"/>
-      <c r="CK49" s="36"/>
-      <c r="CL49" s="37"/>
-      <c r="CM49" s="33"/>
-    </row>
-    <row r="50" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -28744,48 +28738,45 @@
       <c r="BY50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ50" s="24" t="s">
+      <c r="BZ50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA50" s="24" t="s">
+      <c r="CA50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB50" s="24" t="s">
+      <c r="CB50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC50" s="24" t="s">
+      <c r="CC50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD50" s="24" t="s">
+      <c r="CD50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE50" s="24" t="s">
+      <c r="CE50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="24" t="s">
+      <c r="CF50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG50" s="24" t="s">
+      <c r="CG50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH50" s="24" t="s">
+      <c r="CH50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI50" s="36"/>
-      <c r="CJ50" s="36"/>
-      <c r="CK50" s="36"/>
-      <c r="CL50" s="36"/>
-      <c r="CM50" s="33"/>
+      <c r="CI50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ50" s="5"/>
+      <c r="CK50" s="5"/>
+      <c r="CL50" s="5"/>
+      <c r="CM50" s="21"/>
     </row>
-    <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="CI51" s="32"/>
-      <c r="CJ51" s="32"/>
-      <c r="CK51" s="32"/>
-      <c r="CL51" s="32"/>
-      <c r="CM51" s="33"/>
     </row>
-    <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -29017,38 +29008,40 @@
       <c r="BY52" s="14">
         <v>5.7268928380698441</v>
       </c>
-      <c r="BZ52" s="23">
+      <c r="BZ52" s="14">
         <v>-1.9836078917841178</v>
       </c>
-      <c r="CA52" s="23">
+      <c r="CA52" s="14">
         <v>-12.963142946501662</v>
       </c>
-      <c r="CB52" s="23">
+      <c r="CB52" s="14">
         <v>-7.4415613554152884</v>
       </c>
-      <c r="CC52" s="23">
+      <c r="CC52" s="14">
         <v>-4.2719346682102781</v>
       </c>
-      <c r="CD52" s="23">
+      <c r="CD52" s="14">
         <v>-6.3182341684614158</v>
       </c>
-      <c r="CE52" s="23">
+      <c r="CE52" s="14">
         <v>-9.8556936941616016</v>
       </c>
-      <c r="CF52" s="23">
+      <c r="CF52" s="14">
         <v>4.8901593594348043</v>
       </c>
-      <c r="CG52" s="23">
+      <c r="CG52" s="14">
         <v>7.4431152001496628</v>
       </c>
-      <c r="CH52" s="23">
-        <v>7.3835005871394088</v>
-      </c>
-      <c r="CI52" s="34"/>
-      <c r="CJ52" s="34"/>
-      <c r="CK52" s="34"/>
-      <c r="CL52" s="34"/>
-      <c r="CM52" s="35"/>
+      <c r="CH52" s="14">
+        <v>10.964761080899322</v>
+      </c>
+      <c r="CI52" s="14">
+        <v>8.2466932041690484</v>
+      </c>
+      <c r="CJ52" s="14"/>
+      <c r="CK52" s="14"/>
+      <c r="CL52" s="14"/>
+      <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
@@ -29108,7 +29101,7 @@
       <c r="ER52" s="9"/>
       <c r="ES52" s="9"/>
     </row>
-    <row r="53" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -29340,38 +29333,40 @@
       <c r="BY53" s="14">
         <v>7.4700177177518441</v>
       </c>
-      <c r="BZ53" s="23">
+      <c r="BZ53" s="14">
         <v>2.4526023272247244</v>
       </c>
-      <c r="CA53" s="23">
+      <c r="CA53" s="14">
         <v>-11.298496389818538</v>
       </c>
-      <c r="CB53" s="23">
+      <c r="CB53" s="14">
         <v>-3.079608315725352</v>
       </c>
-      <c r="CC53" s="23">
+      <c r="CC53" s="14">
         <v>-3.2850914054138372</v>
       </c>
-      <c r="CD53" s="23">
+      <c r="CD53" s="14">
         <v>-2.3279437782407655</v>
       </c>
-      <c r="CE53" s="23">
+      <c r="CE53" s="14">
         <v>10.344236547862636</v>
       </c>
-      <c r="CF53" s="23">
+      <c r="CF53" s="14">
         <v>8.5230101989708089</v>
       </c>
-      <c r="CG53" s="23">
+      <c r="CG53" s="14">
         <v>9.4298570441584388</v>
       </c>
-      <c r="CH53" s="23">
-        <v>11.905839691723145</v>
-      </c>
-      <c r="CI53" s="34"/>
-      <c r="CJ53" s="34"/>
-      <c r="CK53" s="34"/>
-      <c r="CL53" s="34"/>
-      <c r="CM53" s="35"/>
+      <c r="CH53" s="14">
+        <v>10.70856539648193</v>
+      </c>
+      <c r="CI53" s="14">
+        <v>14.859821036648498</v>
+      </c>
+      <c r="CJ53" s="14"/>
+      <c r="CK53" s="14"/>
+      <c r="CL53" s="14"/>
+      <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
@@ -29431,7 +29426,7 @@
       <c r="ER53" s="9"/>
       <c r="ES53" s="9"/>
     </row>
-    <row r="54" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -29663,38 +29658,40 @@
       <c r="BY54" s="14">
         <v>4.6041978994686161</v>
       </c>
-      <c r="BZ54" s="23">
+      <c r="BZ54" s="14">
         <v>-15.882938533972464</v>
       </c>
-      <c r="CA54" s="23">
+      <c r="CA54" s="14">
         <v>-79.748703142369209</v>
       </c>
-      <c r="CB54" s="23">
+      <c r="CB54" s="14">
         <v>-35.448654939944319</v>
       </c>
-      <c r="CC54" s="23">
+      <c r="CC54" s="14">
         <v>-32.742525504613525</v>
       </c>
-      <c r="CD54" s="23">
+      <c r="CD54" s="14">
         <v>4.7724646742907595</v>
       </c>
-      <c r="CE54" s="23">
+      <c r="CE54" s="14">
         <v>108.51424767754395</v>
       </c>
-      <c r="CF54" s="23">
+      <c r="CF54" s="14">
         <v>-3.6313654008466045</v>
       </c>
-      <c r="CG54" s="23">
+      <c r="CG54" s="14">
         <v>5.4491327141362262</v>
       </c>
-      <c r="CH54" s="23">
-        <v>3.0629138512044989</v>
-      </c>
-      <c r="CI54" s="34"/>
-      <c r="CJ54" s="34"/>
-      <c r="CK54" s="34"/>
-      <c r="CL54" s="34"/>
-      <c r="CM54" s="35"/>
+      <c r="CH54" s="14">
+        <v>3.5067616574957867</v>
+      </c>
+      <c r="CI54" s="14">
+        <v>31.279331994231569</v>
+      </c>
+      <c r="CJ54" s="14"/>
+      <c r="CK54" s="14"/>
+      <c r="CL54" s="14"/>
+      <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
@@ -29754,7 +29751,7 @@
       <c r="ER54" s="9"/>
       <c r="ES54" s="9"/>
     </row>
-    <row r="55" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -29831,20 +29828,20 @@
       <c r="BW55" s="9"/>
       <c r="BX55" s="9"/>
       <c r="BY55" s="9"/>
-      <c r="BZ55" s="20"/>
-      <c r="CA55" s="20"/>
-      <c r="CB55" s="20"/>
-      <c r="CC55" s="20"/>
-      <c r="CD55" s="20"/>
-      <c r="CE55" s="20"/>
-      <c r="CF55" s="20"/>
-      <c r="CG55" s="20"/>
-      <c r="CH55" s="20"/>
-      <c r="CI55" s="34"/>
-      <c r="CJ55" s="34"/>
-      <c r="CK55" s="34"/>
-      <c r="CL55" s="34"/>
-      <c r="CM55" s="35"/>
+      <c r="BZ55" s="9"/>
+      <c r="CA55" s="9"/>
+      <c r="CB55" s="9"/>
+      <c r="CC55" s="9"/>
+      <c r="CD55" s="9"/>
+      <c r="CE55" s="9"/>
+      <c r="CF55" s="9"/>
+      <c r="CG55" s="9"/>
+      <c r="CH55" s="9"/>
+      <c r="CI55" s="9"/>
+      <c r="CJ55" s="9"/>
+      <c r="CK55" s="9"/>
+      <c r="CL55" s="9"/>
+      <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
@@ -29904,7 +29901,7 @@
       <c r="ER55" s="9"/>
       <c r="ES55" s="9"/>
     </row>
-    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>14</v>
       </c>
@@ -30136,38 +30133,40 @@
       <c r="BY56" s="14">
         <v>7.0075685432093451</v>
       </c>
-      <c r="BZ56" s="23">
+      <c r="BZ56" s="14">
         <v>0.96172582714240207</v>
       </c>
-      <c r="CA56" s="23">
+      <c r="CA56" s="14">
         <v>-13.675735338604497</v>
       </c>
-      <c r="CB56" s="23">
+      <c r="CB56" s="14">
         <v>-4.811258919869843</v>
       </c>
-      <c r="CC56" s="23">
+      <c r="CC56" s="14">
         <v>-4.3291353255148692</v>
       </c>
-      <c r="CD56" s="23">
+      <c r="CD56" s="14">
         <v>-2.8598627204164586</v>
       </c>
-      <c r="CE56" s="23">
+      <c r="CE56" s="14">
         <v>7.1522988316974079</v>
       </c>
-      <c r="CF56" s="23">
+      <c r="CF56" s="14">
         <v>7.6562603196974379</v>
       </c>
-      <c r="CG56" s="23">
+      <c r="CG56" s="14">
         <v>8.923027775694564</v>
       </c>
-      <c r="CH56" s="23">
-        <v>10.818368574998786</v>
-      </c>
-      <c r="CI56" s="34"/>
-      <c r="CJ56" s="34"/>
-      <c r="CK56" s="34"/>
-      <c r="CL56" s="34"/>
-      <c r="CM56" s="35"/>
+      <c r="CH56" s="14">
+        <v>10.527109220060169</v>
+      </c>
+      <c r="CI56" s="14">
+        <v>14.015388330343697</v>
+      </c>
+      <c r="CJ56" s="14"/>
+      <c r="CK56" s="14"/>
+      <c r="CL56" s="14"/>
+      <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30227,7 +30226,7 @@
       <c r="ER56" s="9"/>
       <c r="ES56" s="9"/>
     </row>
-    <row r="57" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -30305,32 +30304,27 @@
       <c r="BW57" s="12"/>
       <c r="BX57" s="12"/>
       <c r="BY57" s="12"/>
-      <c r="BZ57" s="22"/>
-      <c r="CA57" s="22"/>
-      <c r="CB57" s="22"/>
-      <c r="CC57" s="22"/>
-      <c r="CD57" s="22"/>
-      <c r="CE57" s="22"/>
-      <c r="CF57" s="22"/>
-      <c r="CG57" s="22"/>
-      <c r="CH57" s="22"/>
-      <c r="CI57" s="38"/>
-      <c r="CJ57" s="38"/>
-      <c r="CK57" s="38"/>
-      <c r="CL57" s="38"/>
-      <c r="CM57" s="33"/>
+      <c r="BZ57" s="12"/>
+      <c r="CA57" s="12"/>
+      <c r="CB57" s="12"/>
+      <c r="CC57" s="12"/>
+      <c r="CD57" s="12"/>
+      <c r="CE57" s="12"/>
+      <c r="CF57" s="12"/>
+      <c r="CG57" s="12"/>
+      <c r="CH57" s="12"/>
+      <c r="CI57" s="12"/>
+      <c r="CJ57" s="12"/>
+      <c r="CK57" s="12"/>
+      <c r="CL57" s="12"/>
+      <c r="CM57" s="12"/>
     </row>
-    <row r="58" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CI58" s="32"/>
-      <c r="CJ58" s="32"/>
-      <c r="CK58" s="32"/>
-      <c r="CL58" s="32"/>
-      <c r="CM58" s="33"/>
     </row>
-    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -30407,20 +30401,20 @@
       <c r="BW59" s="9"/>
       <c r="BX59" s="9"/>
       <c r="BY59" s="9"/>
-      <c r="BZ59" s="20"/>
-      <c r="CA59" s="20"/>
-      <c r="CB59" s="20"/>
-      <c r="CC59" s="20"/>
-      <c r="CD59" s="20"/>
-      <c r="CE59" s="20"/>
-      <c r="CF59" s="20"/>
-      <c r="CG59" s="20"/>
-      <c r="CH59" s="20"/>
-      <c r="CI59" s="34"/>
-      <c r="CJ59" s="34"/>
-      <c r="CK59" s="34"/>
-      <c r="CL59" s="34"/>
-      <c r="CM59" s="35"/>
+      <c r="BZ59" s="9"/>
+      <c r="CA59" s="9"/>
+      <c r="CB59" s="9"/>
+      <c r="CC59" s="9"/>
+      <c r="CD59" s="9"/>
+      <c r="CE59" s="9"/>
+      <c r="CF59" s="9"/>
+      <c r="CG59" s="9"/>
+      <c r="CH59" s="9"/>
+      <c r="CI59" s="9"/>
+      <c r="CJ59" s="9"/>
+      <c r="CK59" s="9"/>
+      <c r="CL59" s="9"/>
+      <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
@@ -30480,7 +30474,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -30557,20 +30551,20 @@
       <c r="BW60" s="9"/>
       <c r="BX60" s="9"/>
       <c r="BY60" s="9"/>
-      <c r="BZ60" s="20"/>
-      <c r="CA60" s="20"/>
-      <c r="CB60" s="20"/>
-      <c r="CC60" s="20"/>
-      <c r="CD60" s="20"/>
-      <c r="CE60" s="20"/>
-      <c r="CF60" s="20"/>
-      <c r="CG60" s="20"/>
-      <c r="CH60" s="20"/>
-      <c r="CI60" s="34"/>
-      <c r="CJ60" s="34"/>
-      <c r="CK60" s="34"/>
-      <c r="CL60" s="34"/>
-      <c r="CM60" s="35"/>
+      <c r="BZ60" s="9"/>
+      <c r="CA60" s="9"/>
+      <c r="CB60" s="9"/>
+      <c r="CC60" s="9"/>
+      <c r="CD60" s="9"/>
+      <c r="CE60" s="9"/>
+      <c r="CF60" s="9"/>
+      <c r="CG60" s="9"/>
+      <c r="CH60" s="9"/>
+      <c r="CI60" s="9"/>
+      <c r="CJ60" s="9"/>
+      <c r="CK60" s="9"/>
+      <c r="CL60" s="9"/>
+      <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
@@ -30630,201 +30624,174 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CI61" s="32"/>
-      <c r="CJ61" s="32"/>
-      <c r="CK61" s="32"/>
-      <c r="CL61" s="32"/>
-      <c r="CM61" s="33"/>
     </row>
-    <row r="62" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CI62" s="32"/>
-      <c r="CJ62" s="32"/>
-      <c r="CK62" s="32"/>
-      <c r="CL62" s="32"/>
-      <c r="CM62" s="33"/>
     </row>
-    <row r="63" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CI63" s="32"/>
-      <c r="CJ63" s="32"/>
-      <c r="CK63" s="32"/>
-      <c r="CL63" s="32"/>
-      <c r="CM63" s="33"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="65" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CI67" s="32"/>
-      <c r="CJ67" s="32"/>
-      <c r="CK67" s="32"/>
-      <c r="CL67" s="32"/>
-      <c r="CM67" s="33"/>
     </row>
-    <row r="68" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CI68" s="32"/>
-      <c r="CJ68" s="32"/>
-      <c r="CK68" s="32"/>
-      <c r="CL68" s="32"/>
-      <c r="CM68" s="33"/>
+    <row r="69" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
+      <c r="BR69" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="24"/>
+      <c r="BU69" s="24"/>
+      <c r="BV69" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW69" s="22"/>
+      <c r="BX69" s="22"/>
+      <c r="BY69" s="22"/>
+      <c r="BZ69" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA69" s="22"/>
+      <c r="CB69" s="22"/>
+      <c r="CC69" s="22"/>
+      <c r="CD69" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="20"/>
+      <c r="CK69" s="20"/>
+      <c r="CL69" s="17"/>
+      <c r="CM69" s="17"/>
     </row>
-    <row r="69" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
-      <c r="AD69" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE69" s="31"/>
-      <c r="AF69" s="31"/>
-      <c r="AG69" s="31"/>
-      <c r="AH69" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI69" s="31"/>
-      <c r="AJ69" s="31"/>
-      <c r="AK69" s="31"/>
-      <c r="AL69" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM69" s="31"/>
-      <c r="AN69" s="31"/>
-      <c r="AO69" s="31"/>
-      <c r="AP69" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ69" s="31"/>
-      <c r="AR69" s="31"/>
-      <c r="AS69" s="31"/>
-      <c r="AT69" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU69" s="31"/>
-      <c r="AV69" s="31"/>
-      <c r="AW69" s="31"/>
-      <c r="AX69" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY69" s="31"/>
-      <c r="AZ69" s="31"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC69" s="31"/>
-      <c r="BD69" s="31"/>
-      <c r="BE69" s="31"/>
-      <c r="BF69" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG69" s="31"/>
-      <c r="BH69" s="31"/>
-      <c r="BI69" s="31"/>
-      <c r="BJ69" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK69" s="31"/>
-      <c r="BL69" s="31"/>
-      <c r="BM69" s="31"/>
-      <c r="BN69" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO69" s="31"/>
-      <c r="BP69" s="31"/>
-      <c r="BQ69" s="31"/>
-      <c r="BR69" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="BS69" s="31"/>
-      <c r="BT69" s="31"/>
-      <c r="BU69" s="31"/>
-      <c r="BV69" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="BW69" s="28"/>
-      <c r="BX69" s="28"/>
-      <c r="BY69" s="28"/>
-      <c r="BZ69" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="CA69" s="27"/>
-      <c r="CB69" s="27"/>
-      <c r="CC69" s="27"/>
-      <c r="CD69" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="CE69" s="27"/>
-      <c r="CF69" s="27"/>
-      <c r="CG69" s="27"/>
-      <c r="CH69" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="CI69" s="36"/>
-      <c r="CJ69" s="36"/>
-      <c r="CK69" s="36"/>
-      <c r="CL69" s="37"/>
-      <c r="CM69" s="33"/>
-    </row>
-    <row r="70" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -31056,48 +31023,45 @@
       <c r="BY70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ70" s="24" t="s">
+      <c r="BZ70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA70" s="24" t="s">
+      <c r="CA70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB70" s="24" t="s">
+      <c r="CB70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC70" s="24" t="s">
+      <c r="CC70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD70" s="24" t="s">
+      <c r="CD70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE70" s="24" t="s">
+      <c r="CE70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="24" t="s">
+      <c r="CF70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="24" t="s">
+      <c r="CG70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH70" s="24" t="s">
+      <c r="CH70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI70" s="36"/>
-      <c r="CJ70" s="36"/>
-      <c r="CK70" s="36"/>
-      <c r="CL70" s="36"/>
-      <c r="CM70" s="33"/>
+      <c r="CI70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ70" s="5"/>
+      <c r="CK70" s="5"/>
+      <c r="CL70" s="5"/>
+      <c r="CM70" s="21"/>
     </row>
-    <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="CI71" s="32"/>
-      <c r="CJ71" s="32"/>
-      <c r="CK71" s="32"/>
-      <c r="CL71" s="32"/>
-      <c r="CM71" s="33"/>
     </row>
-    <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -31329,38 +31293,40 @@
       <c r="BY72" s="14">
         <v>6.6506244596108388</v>
       </c>
-      <c r="BZ72" s="23">
+      <c r="BZ72" s="14">
         <v>-5.0445504922890052</v>
       </c>
-      <c r="CA72" s="23">
+      <c r="CA72" s="14">
         <v>-15.832568351305198</v>
       </c>
-      <c r="CB72" s="23">
+      <c r="CB72" s="14">
         <v>-10.152711183653423</v>
       </c>
-      <c r="CC72" s="23">
+      <c r="CC72" s="14">
         <v>-7.0197728221817499</v>
       </c>
-      <c r="CD72" s="23">
+      <c r="CD72" s="14">
         <v>-8.9393352212368029</v>
       </c>
-      <c r="CE72" s="23">
+      <c r="CE72" s="14">
         <v>-11.829521895807218</v>
       </c>
-      <c r="CF72" s="23">
+      <c r="CF72" s="14">
         <v>1.4892254249739665</v>
       </c>
-      <c r="CG72" s="23">
+      <c r="CG72" s="14">
         <v>2.85092079991162</v>
       </c>
-      <c r="CH72" s="23">
-        <v>4.0973449694250235</v>
-      </c>
-      <c r="CI72" s="34"/>
-      <c r="CJ72" s="34"/>
-      <c r="CK72" s="34"/>
-      <c r="CL72" s="34"/>
-      <c r="CM72" s="35"/>
+      <c r="CH72" s="14">
+        <v>7.5690115383666665</v>
+      </c>
+      <c r="CI72" s="14">
+        <v>3.9349791104844343</v>
+      </c>
+      <c r="CJ72" s="14"/>
+      <c r="CK72" s="14"/>
+      <c r="CL72" s="14"/>
+      <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
@@ -31420,7 +31386,7 @@
       <c r="ER72" s="9"/>
       <c r="ES72" s="9"/>
     </row>
-    <row r="73" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -31652,38 +31618,40 @@
       <c r="BY73" s="14">
         <v>7.253160382503026</v>
       </c>
-      <c r="BZ73" s="23">
+      <c r="BZ73" s="14">
         <v>3.8351388650648346</v>
       </c>
-      <c r="CA73" s="23">
+      <c r="CA73" s="14">
         <v>-11.088920591633538</v>
       </c>
-      <c r="CB73" s="23">
+      <c r="CB73" s="14">
         <v>-4.2583514107081442</v>
       </c>
-      <c r="CC73" s="23">
+      <c r="CC73" s="14">
         <v>-2.4985294163237057</v>
       </c>
-      <c r="CD73" s="23">
+      <c r="CD73" s="14">
         <v>-2.4624166579406079</v>
       </c>
-      <c r="CE73" s="23">
+      <c r="CE73" s="14">
         <v>8.4204980300270194</v>
       </c>
-      <c r="CF73" s="23">
+      <c r="CF73" s="14">
         <v>7.8029510995980758</v>
       </c>
-      <c r="CG73" s="23">
+      <c r="CG73" s="14">
         <v>8.3305434973750323</v>
       </c>
-      <c r="CH73" s="23">
-        <v>8.2191865743515393</v>
-      </c>
-      <c r="CI73" s="34"/>
-      <c r="CJ73" s="34"/>
-      <c r="CK73" s="34"/>
-      <c r="CL73" s="34"/>
-      <c r="CM73" s="35"/>
+      <c r="CH73" s="14">
+        <v>7.0613555738039366</v>
+      </c>
+      <c r="CI73" s="14">
+        <v>10.42716902047944</v>
+      </c>
+      <c r="CJ73" s="14"/>
+      <c r="CK73" s="14"/>
+      <c r="CL73" s="14"/>
+      <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
@@ -31743,7 +31711,7 @@
       <c r="ER73" s="9"/>
       <c r="ES73" s="9"/>
     </row>
-    <row r="74" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -31975,38 +31943,40 @@
       <c r="BY74" s="14">
         <v>9.1077603517364594</v>
       </c>
-      <c r="BZ74" s="23">
+      <c r="BZ74" s="14">
         <v>-17.241702849015724</v>
       </c>
-      <c r="CA74" s="23">
+      <c r="CA74" s="14">
         <v>-79.971808192829059</v>
       </c>
-      <c r="CB74" s="23">
+      <c r="CB74" s="14">
         <v>-35.788376056434757</v>
       </c>
-      <c r="CC74" s="23">
+      <c r="CC74" s="14">
         <v>-33.060385801216597</v>
       </c>
-      <c r="CD74" s="23">
+      <c r="CD74" s="14">
         <v>4.4503242904647919</v>
       </c>
-      <c r="CE74" s="23">
+      <c r="CE74" s="14">
         <v>109.40843923457146</v>
       </c>
-      <c r="CF74" s="23">
+      <c r="CF74" s="14">
         <v>-3.0617321224933818</v>
       </c>
-      <c r="CG74" s="23">
+      <c r="CG74" s="14">
         <v>6.0770477507466722</v>
       </c>
-      <c r="CH74" s="23">
-        <v>1.4967696816138556</v>
-      </c>
-      <c r="CI74" s="34"/>
-      <c r="CJ74" s="34"/>
-      <c r="CK74" s="34"/>
-      <c r="CL74" s="34"/>
-      <c r="CM74" s="35"/>
+      <c r="CH74" s="14">
+        <v>1.9338727760778625</v>
+      </c>
+      <c r="CI74" s="14">
+        <v>28.786479580416426</v>
+      </c>
+      <c r="CJ74" s="14"/>
+      <c r="CK74" s="14"/>
+      <c r="CL74" s="14"/>
+      <c r="CM74" s="9"/>
       <c r="CN74" s="9"/>
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
@@ -32066,7 +32036,7 @@
       <c r="ER74" s="9"/>
       <c r="ES74" s="9"/>
     </row>
-    <row r="75" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32143,20 +32113,20 @@
       <c r="BW75" s="9"/>
       <c r="BX75" s="9"/>
       <c r="BY75" s="9"/>
-      <c r="BZ75" s="20"/>
-      <c r="CA75" s="20"/>
-      <c r="CB75" s="20"/>
-      <c r="CC75" s="20"/>
-      <c r="CD75" s="20"/>
-      <c r="CE75" s="20"/>
-      <c r="CF75" s="20"/>
-      <c r="CG75" s="20"/>
-      <c r="CH75" s="20"/>
-      <c r="CI75" s="34"/>
-      <c r="CJ75" s="34"/>
-      <c r="CK75" s="34"/>
-      <c r="CL75" s="34"/>
-      <c r="CM75" s="35"/>
+      <c r="BZ75" s="9"/>
+      <c r="CA75" s="9"/>
+      <c r="CB75" s="9"/>
+      <c r="CC75" s="9"/>
+      <c r="CD75" s="9"/>
+      <c r="CE75" s="9"/>
+      <c r="CF75" s="9"/>
+      <c r="CG75" s="9"/>
+      <c r="CH75" s="9"/>
+      <c r="CI75" s="9"/>
+      <c r="CJ75" s="9"/>
+      <c r="CK75" s="9"/>
+      <c r="CL75" s="9"/>
+      <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32216,7 +32186,7 @@
       <c r="ER75" s="9"/>
       <c r="ES75" s="9"/>
     </row>
-    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>14</v>
       </c>
@@ -32448,38 +32418,40 @@
       <c r="BY76" s="14">
         <v>7.1765414790653068</v>
       </c>
-      <c r="BZ76" s="23">
+      <c r="BZ76" s="14">
         <v>1.3929365699020195</v>
       </c>
-      <c r="CA76" s="23">
+      <c r="CA76" s="14">
         <v>-14.128622384969432</v>
       </c>
-      <c r="CB76" s="23">
+      <c r="CB76" s="14">
         <v>-6.2712807107027828</v>
       </c>
-      <c r="CC76" s="23">
+      <c r="CC76" s="14">
         <v>-4.3714142589142426</v>
       </c>
-      <c r="CD76" s="23">
+      <c r="CD76" s="14">
         <v>-3.4141923422735374</v>
       </c>
-      <c r="CE76" s="23">
+      <c r="CE76" s="14">
         <v>5.3714279292314444</v>
       </c>
-      <c r="CF76" s="23">
+      <c r="CF76" s="14">
         <v>6.5083674126682638</v>
       </c>
-      <c r="CG76" s="23">
+      <c r="CG76" s="14">
         <v>7.1377876093208243</v>
       </c>
-      <c r="CH76" s="23">
-        <v>7.3149522327240959</v>
-      </c>
-      <c r="CI76" s="34"/>
-      <c r="CJ76" s="34"/>
-      <c r="CK76" s="34"/>
-      <c r="CL76" s="34"/>
-      <c r="CM76" s="35"/>
+      <c r="CH76" s="14">
+        <v>6.9847793364976667</v>
+      </c>
+      <c r="CI76" s="14">
+        <v>9.6771634449728055</v>
+      </c>
+      <c r="CJ76" s="14"/>
+      <c r="CK76" s="14"/>
+      <c r="CL76" s="14"/>
+      <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -32539,7 +32511,7 @@
       <c r="ER76" s="9"/>
       <c r="ES76" s="9"/>
     </row>
-    <row r="77" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -32617,32 +32589,27 @@
       <c r="BW77" s="12"/>
       <c r="BX77" s="12"/>
       <c r="BY77" s="12"/>
-      <c r="BZ77" s="22"/>
-      <c r="CA77" s="22"/>
-      <c r="CB77" s="22"/>
-      <c r="CC77" s="22"/>
-      <c r="CD77" s="22"/>
-      <c r="CE77" s="22"/>
-      <c r="CF77" s="22"/>
-      <c r="CG77" s="22"/>
-      <c r="CH77" s="22"/>
-      <c r="CI77" s="38"/>
-      <c r="CJ77" s="38"/>
-      <c r="CK77" s="38"/>
-      <c r="CL77" s="38"/>
-      <c r="CM77" s="33"/>
+      <c r="BZ77" s="12"/>
+      <c r="CA77" s="12"/>
+      <c r="CB77" s="12"/>
+      <c r="CC77" s="12"/>
+      <c r="CD77" s="12"/>
+      <c r="CE77" s="12"/>
+      <c r="CF77" s="12"/>
+      <c r="CG77" s="12"/>
+      <c r="CH77" s="12"/>
+      <c r="CI77" s="12"/>
+      <c r="CJ77" s="12"/>
+      <c r="CK77" s="12"/>
+      <c r="CL77" s="12"/>
+      <c r="CM77" s="12"/>
     </row>
-    <row r="78" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CI78" s="32"/>
-      <c r="CJ78" s="32"/>
-      <c r="CK78" s="32"/>
-      <c r="CL78" s="32"/>
-      <c r="CM78" s="33"/>
     </row>
-    <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -32719,20 +32686,20 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="20"/>
-      <c r="CA79" s="20"/>
-      <c r="CB79" s="20"/>
-      <c r="CC79" s="20"/>
-      <c r="CD79" s="20"/>
-      <c r="CE79" s="20"/>
-      <c r="CF79" s="20"/>
-      <c r="CG79" s="20"/>
-      <c r="CH79" s="20"/>
-      <c r="CI79" s="34"/>
-      <c r="CJ79" s="34"/>
-      <c r="CK79" s="34"/>
-      <c r="CL79" s="34"/>
-      <c r="CM79" s="35"/>
+      <c r="BZ79" s="9"/>
+      <c r="CA79" s="9"/>
+      <c r="CB79" s="9"/>
+      <c r="CC79" s="9"/>
+      <c r="CD79" s="9"/>
+      <c r="CE79" s="9"/>
+      <c r="CF79" s="9"/>
+      <c r="CG79" s="9"/>
+      <c r="CH79" s="9"/>
+      <c r="CI79" s="9"/>
+      <c r="CJ79" s="9"/>
+      <c r="CK79" s="9"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
       <c r="CP79" s="9"/>
@@ -32792,7 +32759,7 @@
       <c r="ER79" s="9"/>
       <c r="ES79" s="9"/>
     </row>
-    <row r="80" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -32869,20 +32836,20 @@
       <c r="BW80" s="9"/>
       <c r="BX80" s="9"/>
       <c r="BY80" s="9"/>
-      <c r="BZ80" s="20"/>
-      <c r="CA80" s="20"/>
-      <c r="CB80" s="20"/>
-      <c r="CC80" s="20"/>
-      <c r="CD80" s="20"/>
-      <c r="CE80" s="20"/>
-      <c r="CF80" s="20"/>
-      <c r="CG80" s="20"/>
-      <c r="CH80" s="20"/>
-      <c r="CI80" s="34"/>
-      <c r="CJ80" s="34"/>
-      <c r="CK80" s="34"/>
-      <c r="CL80" s="34"/>
-      <c r="CM80" s="35"/>
+      <c r="BZ80" s="9"/>
+      <c r="CA80" s="9"/>
+      <c r="CB80" s="9"/>
+      <c r="CC80" s="9"/>
+      <c r="CD80" s="9"/>
+      <c r="CE80" s="9"/>
+      <c r="CF80" s="9"/>
+      <c r="CG80" s="9"/>
+      <c r="CH80" s="9"/>
+      <c r="CI80" s="9"/>
+      <c r="CJ80" s="9"/>
+      <c r="CK80" s="9"/>
+      <c r="CL80" s="9"/>
+      <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
@@ -32942,187 +32909,171 @@
       <c r="ER80" s="9"/>
       <c r="ES80" s="9"/>
     </row>
-    <row r="81" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CI81" s="32"/>
-      <c r="CJ81" s="32"/>
-      <c r="CK81" s="32"/>
-      <c r="CL81" s="32"/>
-      <c r="CM81" s="33"/>
     </row>
-    <row r="82" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CI82" s="32"/>
-      <c r="CJ82" s="32"/>
-      <c r="CK82" s="32"/>
-      <c r="CL82" s="32"/>
-      <c r="CM82" s="33"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="83" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CI83" s="32"/>
-      <c r="CJ83" s="32"/>
-      <c r="CK83" s="32"/>
-      <c r="CL83" s="32"/>
-      <c r="CM83" s="33"/>
-    </row>
-    <row r="84" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="28">
+      <c r="B88" s="22">
         <v>2000</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="28">
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="22">
         <v>2001</v>
       </c>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="28">
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="22">
         <v>2002</v>
       </c>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="28">
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="22">
         <v>2003</v>
       </c>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="28">
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="22">
         <v>2004</v>
       </c>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="28">
+      <c r="S88" s="23"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="23"/>
+      <c r="V88" s="22">
         <v>2005</v>
       </c>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="28">
+      <c r="W88" s="23"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="22">
         <v>2006</v>
       </c>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="28">
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="22">
         <v>2007</v>
       </c>
-      <c r="AE88" s="29"/>
-      <c r="AF88" s="29"/>
-      <c r="AG88" s="29"/>
-      <c r="AH88" s="28">
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="22">
         <v>2008</v>
       </c>
-      <c r="AI88" s="29"/>
-      <c r="AJ88" s="29"/>
-      <c r="AK88" s="29"/>
-      <c r="AL88" s="28">
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+      <c r="AL88" s="22">
         <v>2009</v>
       </c>
-      <c r="AM88" s="29"/>
-      <c r="AN88" s="29"/>
-      <c r="AO88" s="29"/>
-      <c r="AP88" s="28">
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="23"/>
+      <c r="AP88" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="29"/>
-      <c r="AR88" s="29"/>
-      <c r="AS88" s="29"/>
-      <c r="AT88" s="28">
+      <c r="AQ88" s="23"/>
+      <c r="AR88" s="23"/>
+      <c r="AS88" s="23"/>
+      <c r="AT88" s="22">
         <v>2011</v>
       </c>
-      <c r="AU88" s="29"/>
-      <c r="AV88" s="29"/>
-      <c r="AW88" s="29"/>
-      <c r="AX88" s="28">
+      <c r="AU88" s="23"/>
+      <c r="AV88" s="23"/>
+      <c r="AW88" s="23"/>
+      <c r="AX88" s="22">
         <v>2012</v>
       </c>
-      <c r="AY88" s="29"/>
-      <c r="AZ88" s="29"/>
-      <c r="BA88" s="29"/>
-      <c r="BB88" s="28">
+      <c r="AY88" s="23"/>
+      <c r="AZ88" s="23"/>
+      <c r="BA88" s="23"/>
+      <c r="BB88" s="22">
         <v>2013</v>
       </c>
-      <c r="BC88" s="29"/>
-      <c r="BD88" s="29"/>
-      <c r="BE88" s="29"/>
-      <c r="BF88" s="28">
+      <c r="BC88" s="23"/>
+      <c r="BD88" s="23"/>
+      <c r="BE88" s="23"/>
+      <c r="BF88" s="22">
         <v>2014</v>
       </c>
-      <c r="BG88" s="29"/>
-      <c r="BH88" s="29"/>
-      <c r="BI88" s="29"/>
-      <c r="BJ88" s="28">
+      <c r="BG88" s="23"/>
+      <c r="BH88" s="23"/>
+      <c r="BI88" s="23"/>
+      <c r="BJ88" s="22">
         <v>2015</v>
       </c>
-      <c r="BK88" s="29"/>
-      <c r="BL88" s="29"/>
-      <c r="BM88" s="29"/>
-      <c r="BN88" s="28">
+      <c r="BK88" s="23"/>
+      <c r="BL88" s="23"/>
+      <c r="BM88" s="23"/>
+      <c r="BN88" s="22">
         <v>2016</v>
       </c>
-      <c r="BO88" s="29"/>
-      <c r="BP88" s="29"/>
-      <c r="BQ88" s="29"/>
-      <c r="BR88" s="28">
+      <c r="BO88" s="23"/>
+      <c r="BP88" s="23"/>
+      <c r="BQ88" s="23"/>
+      <c r="BR88" s="22">
         <v>2017</v>
       </c>
-      <c r="BS88" s="29"/>
-      <c r="BT88" s="29"/>
-      <c r="BU88" s="29"/>
-      <c r="BV88" s="28">
+      <c r="BS88" s="23"/>
+      <c r="BT88" s="23"/>
+      <c r="BU88" s="23"/>
+      <c r="BV88" s="22">
         <v>2018</v>
       </c>
-      <c r="BW88" s="28"/>
-      <c r="BX88" s="28"/>
-      <c r="BY88" s="28"/>
-      <c r="BZ88" s="27">
+      <c r="BW88" s="22"/>
+      <c r="BX88" s="22"/>
+      <c r="BY88" s="22"/>
+      <c r="BZ88" s="22">
         <v>2019</v>
       </c>
-      <c r="CA88" s="30"/>
-      <c r="CB88" s="30"/>
-      <c r="CC88" s="30"/>
-      <c r="CD88" s="27">
+      <c r="CA88" s="22"/>
+      <c r="CB88" s="22"/>
+      <c r="CC88" s="22"/>
+      <c r="CD88" s="22">
         <v>2020</v>
       </c>
-      <c r="CE88" s="27"/>
-      <c r="CF88" s="27"/>
-      <c r="CG88" s="27"/>
-      <c r="CH88" s="27">
+      <c r="CE88" s="22"/>
+      <c r="CF88" s="22"/>
+      <c r="CG88" s="22"/>
+      <c r="CH88" s="22">
         <v>2021</v>
       </c>
-      <c r="CI88" s="27"/>
-      <c r="CJ88" s="27"/>
-      <c r="CK88" s="27"/>
-      <c r="CL88" s="25">
+      <c r="CI88" s="22"/>
+      <c r="CJ88" s="22"/>
+      <c r="CK88" s="22"/>
+      <c r="CL88" s="22">
         <v>2022</v>
       </c>
+      <c r="CM88" s="22"/>
     </row>
-    <row r="89" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>4</v>
       </c>
@@ -33354,50 +33305,53 @@
       <c r="BY89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ89" s="18" t="s">
+      <c r="BZ89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA89" s="18" t="s">
+      <c r="CA89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB89" s="18" t="s">
+      <c r="CB89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC89" s="18" t="s">
+      <c r="CC89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD89" s="18" t="s">
+      <c r="CD89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE89" s="18" t="s">
+      <c r="CE89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF89" s="18" t="s">
+      <c r="CF89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG89" s="18" t="s">
+      <c r="CG89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH89" s="18" t="s">
+      <c r="CH89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI89" s="18" t="s">
+      <c r="CI89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ89" s="18" t="s">
+      <c r="CJ89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK89" s="18" t="s">
+      <c r="CK89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="18" t="s">
+      <c r="CL89" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM89" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -33629,46 +33583,48 @@
       <c r="BY91" s="14">
         <v>102.03329956147597</v>
       </c>
-      <c r="BZ91" s="23">
+      <c r="BZ91" s="14">
         <v>101.0683331643306</v>
       </c>
-      <c r="CA91" s="23">
+      <c r="CA91" s="14">
         <v>100.68006591482137</v>
       </c>
-      <c r="CB91" s="23">
+      <c r="CB91" s="14">
         <v>100.89678553219481</v>
       </c>
-      <c r="CC91" s="23">
+      <c r="CC91" s="14">
         <v>101.14955991407433</v>
       </c>
-      <c r="CD91" s="23">
+      <c r="CD91" s="14">
         <v>104.32632802559019</v>
       </c>
-      <c r="CE91" s="23">
+      <c r="CE91" s="14">
         <v>104.11243795272662</v>
       </c>
-      <c r="CF91" s="23">
+      <c r="CF91" s="14">
         <v>103.94135489393189</v>
       </c>
-      <c r="CG91" s="23">
+      <c r="CG91" s="14">
         <v>104.13882578732039</v>
       </c>
-      <c r="CH91" s="23">
+      <c r="CH91" s="14">
         <v>107.32926951393125</v>
       </c>
-      <c r="CI91" s="23">
+      <c r="CI91" s="14">
         <v>106.44315080119647</v>
       </c>
-      <c r="CJ91" s="23">
+      <c r="CJ91" s="14">
         <v>107.4244604115115</v>
       </c>
-      <c r="CK91" s="23">
+      <c r="CK91" s="14">
         <v>108.78852390288949</v>
       </c>
-      <c r="CL91" s="23">
+      <c r="CL91" s="14">
         <v>110.71745085575108</v>
       </c>
-      <c r="CM91" s="9"/>
+      <c r="CM91" s="14">
+        <v>110.85891570934969</v>
+      </c>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
@@ -33732,7 +33688,7 @@
       <c r="EV91" s="9"/>
       <c r="EW91" s="9"/>
     </row>
-    <row r="92" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -33964,46 +33920,48 @@
       <c r="BY92" s="14">
         <v>101.07350536395161</v>
       </c>
-      <c r="BZ92" s="23">
+      <c r="BZ92" s="14">
         <v>100.64719776122419</v>
       </c>
-      <c r="CA92" s="23">
+      <c r="CA92" s="14">
         <v>100.58618397188368</v>
       </c>
-      <c r="CB92" s="23">
+      <c r="CB92" s="14">
         <v>101.03202823443063</v>
       </c>
-      <c r="CC92" s="23">
+      <c r="CC92" s="14">
         <v>101.27786792967287</v>
       </c>
-      <c r="CD92" s="23">
+      <c r="CD92" s="14">
         <v>99.307107789206754</v>
       </c>
-      <c r="CE92" s="23">
+      <c r="CE92" s="14">
         <v>100.3490883260703</v>
       </c>
-      <c r="CF92" s="23">
+      <c r="CF92" s="14">
         <v>102.27590493185737</v>
       </c>
-      <c r="CG92" s="23">
+      <c r="CG92" s="14">
         <v>100.4608410605119</v>
       </c>
-      <c r="CH92" s="23">
+      <c r="CH92" s="14">
         <v>99.444020272595296</v>
       </c>
-      <c r="CI92" s="23">
+      <c r="CI92" s="14">
         <v>102.12961331857757</v>
       </c>
-      <c r="CJ92" s="23">
+      <c r="CJ92" s="14">
         <v>102.95904667558129</v>
       </c>
-      <c r="CK92" s="23">
+      <c r="CK92" s="14">
         <v>101.48029466919569</v>
       </c>
-      <c r="CL92" s="23">
-        <v>102.83173384675015</v>
-      </c>
-      <c r="CM92" s="9"/>
+      <c r="CL92" s="14">
+        <v>102.8317338467502</v>
+      </c>
+      <c r="CM92" s="14">
+        <v>106.22919352517692</v>
+      </c>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
       <c r="CP92" s="9"/>
@@ -34067,7 +34025,7 @@
       <c r="EV92" s="9"/>
       <c r="EW92" s="9"/>
     </row>
-    <row r="93" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -34299,46 +34257,48 @@
       <c r="BY93" s="14">
         <v>101.10664979198245</v>
       </c>
-      <c r="BZ93" s="23">
+      <c r="BZ93" s="14">
         <v>98.867553663510463</v>
       </c>
-      <c r="CA93" s="23">
+      <c r="CA93" s="14">
         <v>97.513580754607773</v>
       </c>
-      <c r="CB93" s="23">
+      <c r="CB93" s="14">
         <v>97.067221857030589</v>
       </c>
-      <c r="CC93" s="23">
+      <c r="CC93" s="14">
         <v>96.933343418449866</v>
       </c>
-      <c r="CD93" s="23">
+      <c r="CD93" s="14">
         <v>100.49080726415571</v>
       </c>
-      <c r="CE93" s="23">
+      <c r="CE93" s="14">
         <v>98.599838194332762</v>
       </c>
-      <c r="CF93" s="23">
+      <c r="CF93" s="14">
         <v>97.580770385454002</v>
       </c>
-      <c r="CG93" s="23">
+      <c r="CG93" s="14">
         <v>97.393627835360604</v>
       </c>
-      <c r="CH93" s="23">
+      <c r="CH93" s="14">
         <v>100.80073590672301</v>
       </c>
-      <c r="CI93" s="23">
+      <c r="CI93" s="14">
         <v>98.178808635257084</v>
       </c>
-      <c r="CJ93" s="23">
+      <c r="CJ93" s="14">
         <v>97.007361603185075</v>
       </c>
-      <c r="CK93" s="23">
+      <c r="CK93" s="14">
         <v>96.817113644170433</v>
       </c>
-      <c r="CL93" s="23">
+      <c r="CL93" s="14">
         <v>102.35613993904815</v>
       </c>
-      <c r="CM93" s="9"/>
+      <c r="CM93" s="14">
+        <v>100.07920439798987</v>
+      </c>
       <c r="CN93" s="9"/>
       <c r="CO93" s="9"/>
       <c r="CP93" s="9"/>
@@ -34402,7 +34362,7 @@
       <c r="EV93" s="9"/>
       <c r="EW93" s="9"/>
     </row>
-    <row r="94" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -34479,19 +34439,19 @@
       <c r="BW94" s="9"/>
       <c r="BX94" s="9"/>
       <c r="BY94" s="9"/>
-      <c r="BZ94" s="20"/>
-      <c r="CA94" s="20"/>
-      <c r="CB94" s="20"/>
-      <c r="CC94" s="20"/>
-      <c r="CD94" s="20"/>
-      <c r="CE94" s="20"/>
-      <c r="CF94" s="20"/>
-      <c r="CG94" s="20"/>
-      <c r="CH94" s="20"/>
-      <c r="CI94" s="20"/>
-      <c r="CJ94" s="20"/>
-      <c r="CK94" s="20"/>
-      <c r="CL94" s="20"/>
+      <c r="BZ94" s="9"/>
+      <c r="CA94" s="9"/>
+      <c r="CB94" s="9"/>
+      <c r="CC94" s="9"/>
+      <c r="CD94" s="9"/>
+      <c r="CE94" s="9"/>
+      <c r="CF94" s="9"/>
+      <c r="CG94" s="9"/>
+      <c r="CH94" s="9"/>
+      <c r="CI94" s="9"/>
+      <c r="CJ94" s="9"/>
+      <c r="CK94" s="9"/>
+      <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
       <c r="CO94" s="9"/>
@@ -34556,7 +34516,7 @@
       <c r="EV94" s="9"/>
       <c r="EW94" s="9"/>
     </row>
-    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>14</v>
       </c>
@@ -34788,46 +34748,48 @@
       <c r="BY95" s="14">
         <v>101.28198316800491</v>
       </c>
-      <c r="BZ95" s="23">
+      <c r="BZ95" s="14">
         <v>100.66365655349516</v>
       </c>
-      <c r="CA95" s="23">
+      <c r="CA95" s="14">
         <v>100.50876506833349</v>
       </c>
-      <c r="CB95" s="23">
+      <c r="CB95" s="14">
         <v>100.88543916597823</v>
       </c>
-      <c r="CC95" s="23">
+      <c r="CC95" s="14">
         <v>101.12230350481524</v>
       </c>
-      <c r="CD95" s="23">
+      <c r="CD95" s="14">
         <v>100.23554734214586</v>
       </c>
-      <c r="CE95" s="23">
+      <c r="CE95" s="14">
         <v>101.03884993490743</v>
       </c>
-      <c r="CF95" s="23">
+      <c r="CF95" s="14">
         <v>102.45694191003525</v>
       </c>
-      <c r="CG95" s="23">
+      <c r="CG95" s="14">
         <v>101.16701129905834</v>
       </c>
-      <c r="CH95" s="23">
+      <c r="CH95" s="14">
         <v>100.8108237145474</v>
       </c>
-      <c r="CI95" s="23">
+      <c r="CI95" s="14">
         <v>102.74649641369055</v>
       </c>
-      <c r="CJ95" s="23">
+      <c r="CJ95" s="14">
         <v>103.56117061761414</v>
       </c>
-      <c r="CK95" s="23">
+      <c r="CK95" s="14">
         <v>102.85276024080103</v>
       </c>
-      <c r="CL95" s="23">
-        <v>104.10190552497211</v>
-      </c>
-      <c r="CM95" s="9"/>
+      <c r="CL95" s="14">
+        <v>104.14873024335741</v>
+      </c>
+      <c r="CM95" s="14">
+        <v>106.81058226005892</v>
+      </c>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
@@ -34891,7 +34853,7 @@
       <c r="EV95" s="9"/>
       <c r="EW95" s="9"/>
     </row>
-    <row r="96" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -34969,194 +34931,196 @@
       <c r="BW96" s="12"/>
       <c r="BX96" s="12"/>
       <c r="BY96" s="12"/>
-      <c r="BZ96" s="22"/>
-      <c r="CA96" s="22"/>
-      <c r="CB96" s="22"/>
-      <c r="CC96" s="22"/>
-      <c r="CD96" s="22"/>
-      <c r="CE96" s="22"/>
-      <c r="CF96" s="22"/>
-      <c r="CG96" s="22"/>
-      <c r="CH96" s="22"/>
-      <c r="CI96" s="22"/>
-      <c r="CJ96" s="22"/>
-      <c r="CK96" s="22"/>
-      <c r="CL96" s="22"/>
+      <c r="BZ96" s="12"/>
+      <c r="CA96" s="12"/>
+      <c r="CB96" s="12"/>
+      <c r="CC96" s="12"/>
+      <c r="CD96" s="12"/>
+      <c r="CE96" s="12"/>
+      <c r="CF96" s="12"/>
+      <c r="CG96" s="12"/>
+      <c r="CH96" s="12"/>
+      <c r="CI96" s="12"/>
+      <c r="CJ96" s="12"/>
+      <c r="CK96" s="12"/>
+      <c r="CL96" s="12"/>
+      <c r="CM96" s="12"/>
     </row>
-    <row r="97" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="28">
+      <c r="B108" s="22">
         <v>2000</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="28">
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="22">
         <v>2001</v>
       </c>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="28">
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="22">
         <v>2002</v>
       </c>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="28">
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="22">
         <v>2003</v>
       </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="28">
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="22">
         <v>2004</v>
       </c>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="28">
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+      <c r="U108" s="23"/>
+      <c r="V108" s="22">
         <v>2005</v>
       </c>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="28">
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="22">
         <v>2006</v>
       </c>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="28">
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="22">
         <v>2007</v>
       </c>
-      <c r="AE108" s="29"/>
-      <c r="AF108" s="29"/>
-      <c r="AG108" s="29"/>
-      <c r="AH108" s="28">
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="22">
         <v>2008</v>
       </c>
-      <c r="AI108" s="29"/>
-      <c r="AJ108" s="29"/>
-      <c r="AK108" s="29"/>
-      <c r="AL108" s="28">
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="22">
         <v>2009</v>
       </c>
-      <c r="AM108" s="29"/>
-      <c r="AN108" s="29"/>
-      <c r="AO108" s="29"/>
-      <c r="AP108" s="28">
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="29"/>
-      <c r="AR108" s="29"/>
-      <c r="AS108" s="29"/>
-      <c r="AT108" s="28">
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="22">
         <v>2011</v>
       </c>
-      <c r="AU108" s="29"/>
-      <c r="AV108" s="29"/>
-      <c r="AW108" s="29"/>
-      <c r="AX108" s="28">
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="22">
         <v>2012</v>
       </c>
-      <c r="AY108" s="29"/>
-      <c r="AZ108" s="29"/>
-      <c r="BA108" s="29"/>
-      <c r="BB108" s="28">
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="22">
         <v>2013</v>
       </c>
-      <c r="BC108" s="29"/>
-      <c r="BD108" s="29"/>
-      <c r="BE108" s="29"/>
-      <c r="BF108" s="28">
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="22">
         <v>2014</v>
       </c>
-      <c r="BG108" s="29"/>
-      <c r="BH108" s="29"/>
-      <c r="BI108" s="29"/>
-      <c r="BJ108" s="28">
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="22">
         <v>2015</v>
       </c>
-      <c r="BK108" s="29"/>
-      <c r="BL108" s="29"/>
-      <c r="BM108" s="29"/>
-      <c r="BN108" s="28">
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="23"/>
+      <c r="BM108" s="23"/>
+      <c r="BN108" s="22">
         <v>2016</v>
       </c>
-      <c r="BO108" s="29"/>
-      <c r="BP108" s="29"/>
-      <c r="BQ108" s="29"/>
-      <c r="BR108" s="28">
+      <c r="BO108" s="23"/>
+      <c r="BP108" s="23"/>
+      <c r="BQ108" s="23"/>
+      <c r="BR108" s="22">
         <v>2017</v>
       </c>
-      <c r="BS108" s="29"/>
-      <c r="BT108" s="29"/>
-      <c r="BU108" s="29"/>
-      <c r="BV108" s="28">
+      <c r="BS108" s="23"/>
+      <c r="BT108" s="23"/>
+      <c r="BU108" s="23"/>
+      <c r="BV108" s="22">
         <v>2018</v>
       </c>
-      <c r="BW108" s="28"/>
-      <c r="BX108" s="28"/>
-      <c r="BY108" s="28"/>
-      <c r="BZ108" s="27">
+      <c r="BW108" s="22"/>
+      <c r="BX108" s="22"/>
+      <c r="BY108" s="22"/>
+      <c r="BZ108" s="22">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="27">
+      <c r="CA108" s="22"/>
+      <c r="CB108" s="22"/>
+      <c r="CC108" s="22"/>
+      <c r="CD108" s="22">
         <v>2020</v>
       </c>
-      <c r="CE108" s="27"/>
-      <c r="CF108" s="27"/>
-      <c r="CG108" s="27"/>
-      <c r="CH108" s="27">
+      <c r="CE108" s="22"/>
+      <c r="CF108" s="22"/>
+      <c r="CG108" s="22"/>
+      <c r="CH108" s="22">
         <v>2021</v>
       </c>
-      <c r="CI108" s="27"/>
-      <c r="CJ108" s="27"/>
-      <c r="CK108" s="27"/>
-      <c r="CL108" s="25">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
+      <c r="CM108" s="22"/>
     </row>
-    <row r="109" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>4</v>
       </c>
@@ -35388,50 +35352,53 @@
       <c r="BY109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ109" s="18" t="s">
+      <c r="BZ109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="18" t="s">
+      <c r="CA109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="18" t="s">
+      <c r="CB109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC109" s="18" t="s">
+      <c r="CC109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD109" s="18" t="s">
+      <c r="CD109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="18" t="s">
+      <c r="CE109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="18" t="s">
+      <c r="CF109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG109" s="18" t="s">
+      <c r="CG109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH109" s="18" t="s">
+      <c r="CH109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="18" t="s">
+      <c r="CI109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="18" t="s">
+      <c r="CJ109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK109" s="18" t="s">
+      <c r="CK109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="18" t="s">
+      <c r="CL109" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM109" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -35663,46 +35630,48 @@
       <c r="BY111" s="14">
         <v>21.781572824166954</v>
       </c>
-      <c r="BZ111" s="23">
+      <c r="BZ111" s="14">
         <v>19.093309875266144</v>
       </c>
-      <c r="CA111" s="23">
+      <c r="CA111" s="14">
         <v>19.074943748850178</v>
       </c>
-      <c r="CB111" s="23">
+      <c r="CB111" s="14">
         <v>17.582606349936565</v>
       </c>
-      <c r="CC111" s="23">
+      <c r="CC111" s="14">
         <v>21.520889103235817</v>
       </c>
-      <c r="CD111" s="23">
+      <c r="CD111" s="14">
         <v>18.536305040802269</v>
       </c>
-      <c r="CE111" s="23">
+      <c r="CE111" s="14">
         <v>19.232404224749239</v>
       </c>
-      <c r="CF111" s="23">
+      <c r="CF111" s="14">
         <v>17.096755063527144</v>
       </c>
-      <c r="CG111" s="23">
+      <c r="CG111" s="14">
         <v>21.533756228527022</v>
       </c>
-      <c r="CH111" s="23">
+      <c r="CH111" s="14">
         <v>17.87637774503515</v>
       </c>
-      <c r="CI111" s="23">
+      <c r="CI111" s="14">
         <v>16.179697088501861</v>
       </c>
-      <c r="CJ111" s="23">
+      <c r="CJ111" s="14">
         <v>16.657474055082666</v>
       </c>
-      <c r="CK111" s="23">
+      <c r="CK111" s="14">
         <v>21.241181946558456</v>
       </c>
-      <c r="CL111" s="23">
-        <v>17.322290923104116</v>
-      </c>
-      <c r="CM111" s="9"/>
+      <c r="CL111" s="14">
+        <v>17.947162460571331</v>
+      </c>
+      <c r="CM111" s="14">
+        <v>15.361073031659675</v>
+      </c>
       <c r="CN111" s="9"/>
       <c r="CO111" s="9"/>
       <c r="CP111" s="9"/>
@@ -35766,7 +35735,7 @@
       <c r="EV111" s="9"/>
       <c r="EW111" s="9"/>
     </row>
-    <row r="112" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -35998,46 +35967,48 @@
       <c r="BY112" s="14">
         <v>75.330277720994616</v>
       </c>
-      <c r="BZ112" s="23">
+      <c r="BZ112" s="14">
         <v>77.395164933724502</v>
       </c>
-      <c r="CA112" s="23">
+      <c r="CA112" s="14">
         <v>77.91599513621793</v>
       </c>
-      <c r="CB112" s="23">
+      <c r="CB112" s="14">
         <v>79.437060051714852</v>
       </c>
-      <c r="CC112" s="23">
+      <c r="CC112" s="14">
         <v>75.655828756537147</v>
       </c>
-      <c r="CD112" s="23">
+      <c r="CD112" s="14">
         <v>78.538039935853931</v>
       </c>
-      <c r="CE112" s="23">
+      <c r="CE112" s="14">
         <v>80.061683131334647</v>
       </c>
-      <c r="CF112" s="23">
+      <c r="CF112" s="14">
         <v>80.882159876222659</v>
       </c>
-      <c r="CG112" s="23">
+      <c r="CG112" s="14">
         <v>76.48145114745229</v>
       </c>
-      <c r="CH112" s="23">
+      <c r="CH112" s="14">
         <v>78.968097709017187</v>
       </c>
-      <c r="CI112" s="23">
+      <c r="CI112" s="14">
         <v>82.446624087272212</v>
       </c>
-      <c r="CJ112" s="23">
+      <c r="CJ112" s="14">
         <v>81.533349153092402</v>
       </c>
-      <c r="CK112" s="23">
+      <c r="CK112" s="14">
         <v>76.837326656311106</v>
       </c>
-      <c r="CL112" s="23">
-        <v>79.743019109733396</v>
-      </c>
-      <c r="CM112" s="9"/>
+      <c r="CL112" s="14">
+        <v>79.097742365162588</v>
+      </c>
+      <c r="CM112" s="14">
+        <v>83.057248906634257</v>
+      </c>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
       <c r="CP112" s="9"/>
@@ -36101,7 +36072,7 @@
       <c r="EV112" s="9"/>
       <c r="EW112" s="9"/>
     </row>
-    <row r="113" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -36333,46 +36304,48 @@
       <c r="BY113" s="14">
         <v>2.8881494548384365</v>
       </c>
-      <c r="BZ113" s="23">
+      <c r="BZ113" s="14">
         <v>3.5115251910093579</v>
       </c>
-      <c r="CA113" s="23">
+      <c r="CA113" s="14">
         <v>3.009061114931888</v>
       </c>
-      <c r="CB113" s="23">
+      <c r="CB113" s="14">
         <v>2.9803335983485773</v>
       </c>
-      <c r="CC113" s="23">
+      <c r="CC113" s="14">
         <v>2.8232821402270254</v>
       </c>
-      <c r="CD113" s="23">
+      <c r="CD113" s="14">
         <v>2.9256550233437961</v>
       </c>
-      <c r="CE113" s="23">
+      <c r="CE113" s="14">
         <v>0.70591264391610342</v>
       </c>
-      <c r="CF113" s="23">
+      <c r="CF113" s="14">
         <v>2.0210850602502091</v>
       </c>
-      <c r="CG113" s="23">
+      <c r="CG113" s="14">
         <v>1.9847926240206863</v>
       </c>
-      <c r="CH113" s="23">
+      <c r="CH113" s="14">
         <v>3.1555245459476389</v>
       </c>
-      <c r="CI113" s="23">
+      <c r="CI113" s="14">
         <v>1.3736788242259363</v>
       </c>
-      <c r="CJ113" s="23">
+      <c r="CJ113" s="14">
         <v>1.8091767918249353</v>
       </c>
-      <c r="CK113" s="23">
+      <c r="CK113" s="14">
         <v>1.9214913971304304</v>
       </c>
-      <c r="CL113" s="23">
-        <v>2.9346899671624787</v>
-      </c>
-      <c r="CM113" s="9"/>
+      <c r="CL113" s="14">
+        <v>2.9550951742660807</v>
+      </c>
+      <c r="CM113" s="14">
+        <v>1.5816780617060651</v>
+      </c>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
       <c r="CP113" s="9"/>
@@ -36436,7 +36409,7 @@
       <c r="EV113" s="9"/>
       <c r="EW113" s="9"/>
     </row>
-    <row r="114" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -36513,19 +36486,19 @@
       <c r="BW114" s="9"/>
       <c r="BX114" s="9"/>
       <c r="BY114" s="9"/>
-      <c r="BZ114" s="20"/>
-      <c r="CA114" s="20"/>
-      <c r="CB114" s="20"/>
-      <c r="CC114" s="20"/>
-      <c r="CD114" s="20"/>
-      <c r="CE114" s="20"/>
-      <c r="CF114" s="20"/>
-      <c r="CG114" s="20"/>
-      <c r="CH114" s="20"/>
-      <c r="CI114" s="20"/>
-      <c r="CJ114" s="20"/>
-      <c r="CK114" s="20"/>
-      <c r="CL114" s="20"/>
+      <c r="BZ114" s="9"/>
+      <c r="CA114" s="9"/>
+      <c r="CB114" s="9"/>
+      <c r="CC114" s="9"/>
+      <c r="CD114" s="9"/>
+      <c r="CE114" s="9"/>
+      <c r="CF114" s="9"/>
+      <c r="CG114" s="9"/>
+      <c r="CH114" s="9"/>
+      <c r="CI114" s="9"/>
+      <c r="CJ114" s="9"/>
+      <c r="CK114" s="9"/>
+      <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
@@ -36590,7 +36563,7 @@
       <c r="EV114" s="9"/>
       <c r="EW114" s="9"/>
     </row>
-    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>14</v>
       </c>
@@ -36822,46 +36795,48 @@
       <c r="BY115" s="14">
         <v>100</v>
       </c>
-      <c r="BZ115" s="23">
+      <c r="BZ115" s="14">
         <v>100</v>
       </c>
-      <c r="CA115" s="23">
+      <c r="CA115" s="14">
         <v>100</v>
       </c>
-      <c r="CB115" s="23">
+      <c r="CB115" s="14">
         <v>100</v>
       </c>
-      <c r="CC115" s="23">
+      <c r="CC115" s="14">
         <v>100</v>
       </c>
-      <c r="CD115" s="23">
+      <c r="CD115" s="14">
         <v>100</v>
       </c>
-      <c r="CE115" s="23">
+      <c r="CE115" s="14">
         <v>100</v>
       </c>
-      <c r="CF115" s="23">
+      <c r="CF115" s="14">
         <v>100</v>
       </c>
-      <c r="CG115" s="23">
+      <c r="CG115" s="14">
         <v>100</v>
       </c>
-      <c r="CH115" s="23">
+      <c r="CH115" s="14">
         <v>100</v>
       </c>
-      <c r="CI115" s="23">
+      <c r="CI115" s="14">
         <v>100</v>
       </c>
-      <c r="CJ115" s="23">
+      <c r="CJ115" s="14">
         <v>100</v>
       </c>
-      <c r="CK115" s="23">
+      <c r="CK115" s="14">
         <v>100</v>
       </c>
-      <c r="CL115" s="23">
+      <c r="CL115" s="14">
         <v>100</v>
       </c>
-      <c r="CM115" s="9"/>
+      <c r="CM115" s="14">
+        <v>100</v>
+      </c>
       <c r="CN115" s="9"/>
       <c r="CO115" s="9"/>
       <c r="CP115" s="9"/>
@@ -36925,7 +36900,7 @@
       <c r="EV115" s="9"/>
       <c r="EW115" s="9"/>
     </row>
-    <row r="116" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -37003,26 +36978,27 @@
       <c r="BW116" s="12"/>
       <c r="BX116" s="12"/>
       <c r="BY116" s="12"/>
-      <c r="BZ116" s="22"/>
-      <c r="CA116" s="22"/>
-      <c r="CB116" s="22"/>
-      <c r="CC116" s="22"/>
-      <c r="CD116" s="22"/>
-      <c r="CE116" s="22"/>
-      <c r="CF116" s="22"/>
-      <c r="CG116" s="22"/>
-      <c r="CH116" s="22"/>
-      <c r="CI116" s="22"/>
-      <c r="CJ116" s="22"/>
-      <c r="CK116" s="22"/>
-      <c r="CL116" s="22"/>
+      <c r="BZ116" s="12"/>
+      <c r="CA116" s="12"/>
+      <c r="CB116" s="12"/>
+      <c r="CC116" s="12"/>
+      <c r="CD116" s="12"/>
+      <c r="CE116" s="12"/>
+      <c r="CF116" s="12"/>
+      <c r="CG116" s="12"/>
+      <c r="CH116" s="12"/>
+      <c r="CI116" s="12"/>
+      <c r="CJ116" s="12"/>
+      <c r="CK116" s="12"/>
+      <c r="CL116" s="12"/>
+      <c r="CM116" s="12"/>
     </row>
-    <row r="117" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -37099,19 +37075,19 @@
       <c r="BW118" s="9"/>
       <c r="BX118" s="9"/>
       <c r="BY118" s="9"/>
-      <c r="BZ118" s="20"/>
-      <c r="CA118" s="20"/>
-      <c r="CB118" s="20"/>
-      <c r="CC118" s="20"/>
-      <c r="CD118" s="20"/>
-      <c r="CE118" s="20"/>
-      <c r="CF118" s="20"/>
-      <c r="CG118" s="20"/>
-      <c r="CH118" s="20"/>
-      <c r="CI118" s="20"/>
-      <c r="CJ118" s="20"/>
-      <c r="CK118" s="20"/>
-      <c r="CL118" s="20"/>
+      <c r="BZ118" s="9"/>
+      <c r="CA118" s="9"/>
+      <c r="CB118" s="9"/>
+      <c r="CC118" s="9"/>
+      <c r="CD118" s="9"/>
+      <c r="CE118" s="9"/>
+      <c r="CF118" s="9"/>
+      <c r="CG118" s="9"/>
+      <c r="CH118" s="9"/>
+      <c r="CI118" s="9"/>
+      <c r="CJ118" s="9"/>
+      <c r="CK118" s="9"/>
+      <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
@@ -37176,7 +37152,7 @@
       <c r="EV118" s="9"/>
       <c r="EW118" s="9"/>
     </row>
-    <row r="119" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -37253,19 +37229,19 @@
       <c r="BW119" s="9"/>
       <c r="BX119" s="9"/>
       <c r="BY119" s="9"/>
-      <c r="BZ119" s="20"/>
-      <c r="CA119" s="20"/>
-      <c r="CB119" s="20"/>
-      <c r="CC119" s="20"/>
-      <c r="CD119" s="20"/>
-      <c r="CE119" s="20"/>
-      <c r="CF119" s="20"/>
-      <c r="CG119" s="20"/>
-      <c r="CH119" s="20"/>
-      <c r="CI119" s="20"/>
-      <c r="CJ119" s="20"/>
-      <c r="CK119" s="20"/>
-      <c r="CL119" s="20"/>
+      <c r="BZ119" s="9"/>
+      <c r="CA119" s="9"/>
+      <c r="CB119" s="9"/>
+      <c r="CC119" s="9"/>
+      <c r="CD119" s="9"/>
+      <c r="CE119" s="9"/>
+      <c r="CF119" s="9"/>
+      <c r="CG119" s="9"/>
+      <c r="CH119" s="9"/>
+      <c r="CI119" s="9"/>
+      <c r="CJ119" s="9"/>
+      <c r="CK119" s="9"/>
+      <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
@@ -37330,175 +37306,176 @@
       <c r="EV119" s="9"/>
       <c r="EW119" s="9"/>
     </row>
-    <row r="120" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="28">
+      <c r="B128" s="22">
         <v>2000</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="28">
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="22">
         <v>2001</v>
       </c>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="28">
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="22">
         <v>2002</v>
       </c>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="29"/>
-      <c r="N128" s="28">
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="22">
         <v>2003</v>
       </c>
-      <c r="O128" s="29"/>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="29"/>
-      <c r="R128" s="28">
+      <c r="O128" s="23"/>
+      <c r="P128" s="23"/>
+      <c r="Q128" s="23"/>
+      <c r="R128" s="22">
         <v>2004</v>
       </c>
-      <c r="S128" s="29"/>
-      <c r="T128" s="29"/>
-      <c r="U128" s="29"/>
-      <c r="V128" s="28">
+      <c r="S128" s="23"/>
+      <c r="T128" s="23"/>
+      <c r="U128" s="23"/>
+      <c r="V128" s="22">
         <v>2005</v>
       </c>
-      <c r="W128" s="29"/>
-      <c r="X128" s="29"/>
-      <c r="Y128" s="29"/>
-      <c r="Z128" s="28">
+      <c r="W128" s="23"/>
+      <c r="X128" s="23"/>
+      <c r="Y128" s="23"/>
+      <c r="Z128" s="22">
         <v>2006</v>
       </c>
-      <c r="AA128" s="29"/>
-      <c r="AB128" s="29"/>
-      <c r="AC128" s="29"/>
-      <c r="AD128" s="28">
+      <c r="AA128" s="23"/>
+      <c r="AB128" s="23"/>
+      <c r="AC128" s="23"/>
+      <c r="AD128" s="22">
         <v>2007</v>
       </c>
-      <c r="AE128" s="29"/>
-      <c r="AF128" s="29"/>
-      <c r="AG128" s="29"/>
-      <c r="AH128" s="28">
+      <c r="AE128" s="23"/>
+      <c r="AF128" s="23"/>
+      <c r="AG128" s="23"/>
+      <c r="AH128" s="22">
         <v>2008</v>
       </c>
-      <c r="AI128" s="29"/>
-      <c r="AJ128" s="29"/>
-      <c r="AK128" s="29"/>
-      <c r="AL128" s="28">
+      <c r="AI128" s="23"/>
+      <c r="AJ128" s="23"/>
+      <c r="AK128" s="23"/>
+      <c r="AL128" s="22">
         <v>2009</v>
       </c>
-      <c r="AM128" s="29"/>
-      <c r="AN128" s="29"/>
-      <c r="AO128" s="29"/>
-      <c r="AP128" s="28">
+      <c r="AM128" s="23"/>
+      <c r="AN128" s="23"/>
+      <c r="AO128" s="23"/>
+      <c r="AP128" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="29"/>
-      <c r="AR128" s="29"/>
-      <c r="AS128" s="29"/>
-      <c r="AT128" s="28">
+      <c r="AQ128" s="23"/>
+      <c r="AR128" s="23"/>
+      <c r="AS128" s="23"/>
+      <c r="AT128" s="22">
         <v>2011</v>
       </c>
-      <c r="AU128" s="29"/>
-      <c r="AV128" s="29"/>
-      <c r="AW128" s="29"/>
-      <c r="AX128" s="28">
+      <c r="AU128" s="23"/>
+      <c r="AV128" s="23"/>
+      <c r="AW128" s="23"/>
+      <c r="AX128" s="22">
         <v>2012</v>
       </c>
-      <c r="AY128" s="29"/>
-      <c r="AZ128" s="29"/>
-      <c r="BA128" s="29"/>
-      <c r="BB128" s="28">
+      <c r="AY128" s="23"/>
+      <c r="AZ128" s="23"/>
+      <c r="BA128" s="23"/>
+      <c r="BB128" s="22">
         <v>2013</v>
       </c>
-      <c r="BC128" s="29"/>
-      <c r="BD128" s="29"/>
-      <c r="BE128" s="29"/>
-      <c r="BF128" s="28">
+      <c r="BC128" s="23"/>
+      <c r="BD128" s="23"/>
+      <c r="BE128" s="23"/>
+      <c r="BF128" s="22">
         <v>2014</v>
       </c>
-      <c r="BG128" s="29"/>
-      <c r="BH128" s="29"/>
-      <c r="BI128" s="29"/>
-      <c r="BJ128" s="28">
+      <c r="BG128" s="23"/>
+      <c r="BH128" s="23"/>
+      <c r="BI128" s="23"/>
+      <c r="BJ128" s="22">
         <v>2015</v>
       </c>
-      <c r="BK128" s="29"/>
-      <c r="BL128" s="29"/>
-      <c r="BM128" s="29"/>
-      <c r="BN128" s="28">
+      <c r="BK128" s="23"/>
+      <c r="BL128" s="23"/>
+      <c r="BM128" s="23"/>
+      <c r="BN128" s="22">
         <v>2016</v>
       </c>
-      <c r="BO128" s="29"/>
-      <c r="BP128" s="29"/>
-      <c r="BQ128" s="29"/>
-      <c r="BR128" s="28">
+      <c r="BO128" s="23"/>
+      <c r="BP128" s="23"/>
+      <c r="BQ128" s="23"/>
+      <c r="BR128" s="22">
         <v>2017</v>
       </c>
-      <c r="BS128" s="29"/>
-      <c r="BT128" s="29"/>
-      <c r="BU128" s="29"/>
-      <c r="BV128" s="28">
+      <c r="BS128" s="23"/>
+      <c r="BT128" s="23"/>
+      <c r="BU128" s="23"/>
+      <c r="BV128" s="22">
         <v>2018</v>
       </c>
-      <c r="BW128" s="28"/>
-      <c r="BX128" s="28"/>
-      <c r="BY128" s="28"/>
-      <c r="BZ128" s="27">
+      <c r="BW128" s="22"/>
+      <c r="BX128" s="22"/>
+      <c r="BY128" s="22"/>
+      <c r="BZ128" s="22">
         <v>2019</v>
       </c>
-      <c r="CA128" s="30"/>
-      <c r="CB128" s="30"/>
-      <c r="CC128" s="30"/>
-      <c r="CD128" s="27">
+      <c r="CA128" s="22"/>
+      <c r="CB128" s="22"/>
+      <c r="CC128" s="22"/>
+      <c r="CD128" s="22">
         <v>2020</v>
       </c>
-      <c r="CE128" s="27"/>
-      <c r="CF128" s="27"/>
-      <c r="CG128" s="27"/>
-      <c r="CH128" s="27">
+      <c r="CE128" s="22"/>
+      <c r="CF128" s="22"/>
+      <c r="CG128" s="22"/>
+      <c r="CH128" s="22">
         <v>2021</v>
       </c>
-      <c r="CI128" s="27"/>
-      <c r="CJ128" s="27"/>
-      <c r="CK128" s="27"/>
-      <c r="CL128" s="25">
+      <c r="CI128" s="22"/>
+      <c r="CJ128" s="22"/>
+      <c r="CK128" s="22"/>
+      <c r="CL128" s="22">
         <v>2022</v>
       </c>
+      <c r="CM128" s="22"/>
     </row>
-    <row r="129" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>4</v>
       </c>
@@ -37730,50 +37707,53 @@
       <c r="BY129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ129" s="18" t="s">
+      <c r="BZ129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA129" s="18" t="s">
+      <c r="CA129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB129" s="18" t="s">
+      <c r="CB129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC129" s="18" t="s">
+      <c r="CC129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD129" s="18" t="s">
+      <c r="CD129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE129" s="18" t="s">
+      <c r="CE129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF129" s="18" t="s">
+      <c r="CF129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG129" s="18" t="s">
+      <c r="CG129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH129" s="18" t="s">
+      <c r="CH129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI129" s="18" t="s">
+      <c r="CI129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ129" s="18" t="s">
+      <c r="CJ129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK129" s="18" t="s">
+      <c r="CK129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="18" t="s">
+      <c r="CL129" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM129" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -38005,46 +37985,48 @@
       <c r="BY131" s="14">
         <v>21.621185452507756</v>
       </c>
-      <c r="BZ131" s="23">
+      <c r="BZ131" s="14">
         <v>19.016860450525058</v>
       </c>
-      <c r="CA131" s="23">
+      <c r="CA131" s="14">
         <v>19.042488922949968</v>
       </c>
-      <c r="CB131" s="23">
+      <c r="CB131" s="14">
         <v>17.580629094767971</v>
       </c>
-      <c r="CC131" s="23">
+      <c r="CC131" s="14">
         <v>21.51508994640789</v>
       </c>
-      <c r="CD131" s="23">
+      <c r="CD131" s="14">
         <v>17.809470692863307</v>
       </c>
-      <c r="CE131" s="23">
+      <c r="CE131" s="14">
         <v>18.664628766394443</v>
       </c>
-      <c r="CF131" s="23">
+      <c r="CF131" s="14">
         <v>16.852591946501221</v>
       </c>
-      <c r="CG131" s="23">
+      <c r="CG131" s="14">
         <v>20.91924643102524</v>
       </c>
-      <c r="CH131" s="23">
+      <c r="CH131" s="14">
         <v>16.79068881835147</v>
       </c>
-      <c r="CI131" s="23">
+      <c r="CI131" s="14">
         <v>15.617793877440068</v>
       </c>
-      <c r="CJ131" s="23">
+      <c r="CJ131" s="14">
         <v>16.058423808401464</v>
       </c>
-      <c r="CK131" s="23">
+      <c r="CK131" s="14">
         <v>20.082211942969298</v>
       </c>
-      <c r="CL131" s="23">
-        <v>16.287256247459002</v>
-      </c>
-      <c r="CM131" s="9"/>
+      <c r="CL131" s="14">
+        <v>16.882380937175107</v>
+      </c>
+      <c r="CM131" s="14">
+        <v>14.800119089677169</v>
+      </c>
       <c r="CN131" s="9"/>
       <c r="CO131" s="9"/>
       <c r="CP131" s="9"/>
@@ -38108,7 +38090,7 @@
       <c r="EV131" s="9"/>
       <c r="EW131" s="9"/>
     </row>
-    <row r="132" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -38340,46 +38322,48 @@
       <c r="BY132" s="14">
         <v>75.485656628864177</v>
       </c>
-      <c r="BZ132" s="23">
+      <c r="BZ132" s="14">
         <v>77.407821331227439</v>
       </c>
-      <c r="CA132" s="23">
+      <c r="CA132" s="14">
         <v>77.856024962638685</v>
       </c>
-      <c r="CB132" s="23">
+      <c r="CB132" s="14">
         <v>79.32180348568258</v>
       </c>
-      <c r="CC132" s="23">
+      <c r="CC132" s="14">
         <v>75.539620193617864</v>
       </c>
-      <c r="CD132" s="23">
+      <c r="CD132" s="14">
         <v>79.272305833935818</v>
       </c>
-      <c r="CE132" s="23">
+      <c r="CE132" s="14">
         <v>80.61199680417478</v>
       </c>
-      <c r="CF132" s="23">
+      <c r="CF132" s="14">
         <v>81.025328121199294</v>
       </c>
-      <c r="CG132" s="23">
+      <c r="CG132" s="14">
         <v>77.019062857955916</v>
       </c>
-      <c r="CH132" s="23">
+      <c r="CH132" s="14">
         <v>80.053470841129382</v>
       </c>
-      <c r="CI132" s="23">
+      <c r="CI132" s="14">
         <v>82.944618028460681</v>
       </c>
-      <c r="CJ132" s="23">
+      <c r="CJ132" s="14">
         <v>82.010171571173757</v>
       </c>
-      <c r="CK132" s="23">
+      <c r="CK132" s="14">
         <v>77.876509541951577</v>
       </c>
-      <c r="CL132" s="23">
-        <v>80.728000307853094</v>
-      </c>
-      <c r="CM132" s="9"/>
+      <c r="CL132" s="14">
+        <v>80.110770520750535</v>
+      </c>
+      <c r="CM132" s="14">
+        <v>83.511818382897502</v>
+      </c>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
       <c r="CP132" s="9"/>
@@ -38443,7 +38427,7 @@
       <c r="EV132" s="9"/>
       <c r="EW132" s="9"/>
     </row>
-    <row r="133" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -38675,46 +38659,48 @@
       <c r="BY133" s="14">
         <v>2.89315791862807</v>
       </c>
-      <c r="BZ133" s="23">
+      <c r="BZ133" s="14">
         <v>3.5753182182475114</v>
       </c>
-      <c r="CA133" s="23">
+      <c r="CA133" s="14">
         <v>3.101486114411359</v>
       </c>
-      <c r="CB133" s="23">
+      <c r="CB133" s="14">
         <v>3.0975674195494518</v>
       </c>
-      <c r="CC133" s="23">
+      <c r="CC133" s="14">
         <v>2.945289859974245</v>
       </c>
-      <c r="CD133" s="23">
+      <c r="CD133" s="14">
         <v>2.9182234732008721</v>
       </c>
-      <c r="CE133" s="23">
+      <c r="CE133" s="14">
         <v>0.72337442943078245</v>
       </c>
-      <c r="CF133" s="23">
+      <c r="CF133" s="14">
         <v>2.1220799322994841</v>
       </c>
-      <c r="CG133" s="23">
+      <c r="CG133" s="14">
         <v>2.0616907110188354</v>
       </c>
-      <c r="CH133" s="23">
+      <c r="CH133" s="14">
         <v>3.1558403405191595</v>
       </c>
-      <c r="CI133" s="23">
+      <c r="CI133" s="14">
         <v>1.4375880940992358</v>
       </c>
-      <c r="CJ133" s="23">
+      <c r="CJ133" s="14">
         <v>1.9314046204247888</v>
       </c>
-      <c r="CK133" s="23">
+      <c r="CK133" s="14">
         <v>2.0412785150791133</v>
       </c>
-      <c r="CL133" s="23">
-        <v>2.9847434446879055</v>
-      </c>
-      <c r="CM133" s="9"/>
+      <c r="CL133" s="14">
+        <v>3.0068485420743523</v>
+      </c>
+      <c r="CM133" s="14">
+        <v>1.6880625274253225</v>
+      </c>
       <c r="CN133" s="9"/>
       <c r="CO133" s="9"/>
       <c r="CP133" s="9"/>
@@ -38778,7 +38764,7 @@
       <c r="EV133" s="9"/>
       <c r="EW133" s="9"/>
     </row>
-    <row r="134" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -38855,19 +38841,19 @@
       <c r="BW134" s="9"/>
       <c r="BX134" s="9"/>
       <c r="BY134" s="9"/>
-      <c r="BZ134" s="20"/>
-      <c r="CA134" s="20"/>
-      <c r="CB134" s="20"/>
-      <c r="CC134" s="20"/>
-      <c r="CD134" s="20"/>
-      <c r="CE134" s="20"/>
-      <c r="CF134" s="20"/>
-      <c r="CG134" s="20"/>
-      <c r="CH134" s="20"/>
-      <c r="CI134" s="20"/>
-      <c r="CJ134" s="20"/>
-      <c r="CK134" s="20"/>
-      <c r="CL134" s="20"/>
+      <c r="BZ134" s="9"/>
+      <c r="CA134" s="9"/>
+      <c r="CB134" s="9"/>
+      <c r="CC134" s="9"/>
+      <c r="CD134" s="9"/>
+      <c r="CE134" s="9"/>
+      <c r="CF134" s="9"/>
+      <c r="CG134" s="9"/>
+      <c r="CH134" s="9"/>
+      <c r="CI134" s="9"/>
+      <c r="CJ134" s="9"/>
+      <c r="CK134" s="9"/>
+      <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
@@ -38932,7 +38918,7 @@
       <c r="EV134" s="9"/>
       <c r="EW134" s="9"/>
     </row>
-    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -39164,46 +39150,48 @@
       <c r="BY135" s="14">
         <v>100</v>
       </c>
-      <c r="BZ135" s="23">
+      <c r="BZ135" s="14">
         <v>100</v>
       </c>
-      <c r="CA135" s="23">
+      <c r="CA135" s="14">
         <v>100</v>
       </c>
-      <c r="CB135" s="23">
+      <c r="CB135" s="14">
         <v>100</v>
       </c>
-      <c r="CC135" s="23">
+      <c r="CC135" s="14">
         <v>100</v>
       </c>
-      <c r="CD135" s="23">
+      <c r="CD135" s="14">
         <v>100</v>
       </c>
-      <c r="CE135" s="23">
+      <c r="CE135" s="14">
         <v>100</v>
       </c>
-      <c r="CF135" s="23">
+      <c r="CF135" s="14">
         <v>100</v>
       </c>
-      <c r="CG135" s="23">
+      <c r="CG135" s="14">
         <v>100</v>
       </c>
-      <c r="CH135" s="23">
+      <c r="CH135" s="14">
         <v>100</v>
       </c>
-      <c r="CI135" s="23">
+      <c r="CI135" s="14">
         <v>100</v>
       </c>
-      <c r="CJ135" s="23">
+      <c r="CJ135" s="14">
         <v>100</v>
       </c>
-      <c r="CK135" s="23">
+      <c r="CK135" s="14">
         <v>100</v>
       </c>
-      <c r="CL135" s="23">
+      <c r="CL135" s="14">
         <v>100</v>
       </c>
-      <c r="CM135" s="9"/>
+      <c r="CM135" s="14">
+        <v>100</v>
+      </c>
       <c r="CN135" s="9"/>
       <c r="CO135" s="9"/>
       <c r="CP135" s="9"/>
@@ -39267,7 +39255,7 @@
       <c r="EV135" s="9"/>
       <c r="EW135" s="9"/>
     </row>
-    <row r="136" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -39345,26 +39333,27 @@
       <c r="BW136" s="12"/>
       <c r="BX136" s="12"/>
       <c r="BY136" s="12"/>
-      <c r="BZ136" s="22"/>
-      <c r="CA136" s="22"/>
-      <c r="CB136" s="22"/>
-      <c r="CC136" s="22"/>
-      <c r="CD136" s="22"/>
-      <c r="CE136" s="22"/>
-      <c r="CF136" s="22"/>
-      <c r="CG136" s="22"/>
-      <c r="CH136" s="22"/>
-      <c r="CI136" s="22"/>
-      <c r="CJ136" s="22"/>
-      <c r="CK136" s="22"/>
-      <c r="CL136" s="22"/>
+      <c r="BZ136" s="12"/>
+      <c r="CA136" s="12"/>
+      <c r="CB136" s="12"/>
+      <c r="CC136" s="12"/>
+      <c r="CD136" s="12"/>
+      <c r="CE136" s="12"/>
+      <c r="CF136" s="12"/>
+      <c r="CG136" s="12"/>
+      <c r="CH136" s="12"/>
+      <c r="CI136" s="12"/>
+      <c r="CJ136" s="12"/>
+      <c r="CK136" s="12"/>
+      <c r="CL136" s="12"/>
+      <c r="CM136" s="12"/>
     </row>
-    <row r="137" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -39442,20 +39431,20 @@
       <c r="BW138" s="1"/>
       <c r="BX138" s="1"/>
       <c r="BY138" s="1"/>
-      <c r="BZ138" s="17"/>
-      <c r="CA138" s="17"/>
-      <c r="CB138" s="17"/>
-      <c r="CC138" s="17"/>
-      <c r="CD138" s="26"/>
-      <c r="CE138" s="26"/>
-      <c r="CF138" s="26"/>
-      <c r="CG138" s="26"/>
-      <c r="CH138" s="26"/>
-      <c r="CI138" s="26"/>
-      <c r="CJ138" s="26"/>
-      <c r="CK138" s="26"/>
-      <c r="CL138" s="26"/>
-      <c r="CM138" s="15"/>
+      <c r="BZ138" s="1"/>
+      <c r="CA138" s="1"/>
+      <c r="CB138" s="1"/>
+      <c r="CC138" s="1"/>
+      <c r="CD138" s="1"/>
+      <c r="CE138" s="1"/>
+      <c r="CF138" s="1"/>
+      <c r="CG138" s="1"/>
+      <c r="CH138" s="1"/>
+      <c r="CI138" s="1"/>
+      <c r="CJ138" s="1"/>
+      <c r="CK138" s="1"/>
+      <c r="CL138" s="1"/>
+      <c r="CM138" s="1"/>
       <c r="CN138" s="15"/>
       <c r="CO138" s="15"/>
       <c r="CP138" s="15"/>
@@ -39519,7 +39508,7 @@
       <c r="EV138" s="15"/>
       <c r="EW138" s="15"/>
     </row>
-    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -39597,20 +39586,20 @@
       <c r="BW139" s="1"/>
       <c r="BX139" s="1"/>
       <c r="BY139" s="1"/>
-      <c r="BZ139" s="17"/>
-      <c r="CA139" s="17"/>
-      <c r="CB139" s="17"/>
-      <c r="CC139" s="17"/>
-      <c r="CD139" s="26"/>
-      <c r="CE139" s="26"/>
-      <c r="CF139" s="26"/>
-      <c r="CG139" s="26"/>
-      <c r="CH139" s="26"/>
-      <c r="CI139" s="26"/>
-      <c r="CJ139" s="26"/>
-      <c r="CK139" s="26"/>
-      <c r="CL139" s="26"/>
-      <c r="CM139" s="15"/>
+      <c r="BZ139" s="1"/>
+      <c r="CA139" s="1"/>
+      <c r="CB139" s="1"/>
+      <c r="CC139" s="1"/>
+      <c r="CD139" s="1"/>
+      <c r="CE139" s="1"/>
+      <c r="CF139" s="1"/>
+      <c r="CG139" s="1"/>
+      <c r="CH139" s="1"/>
+      <c r="CI139" s="1"/>
+      <c r="CJ139" s="1"/>
+      <c r="CK139" s="1"/>
+      <c r="CL139" s="1"/>
+      <c r="CM139" s="1"/>
       <c r="CN139" s="15"/>
       <c r="CO139" s="15"/>
       <c r="CP139" s="15"/>
@@ -39674,231 +39663,124 @@
       <c r="EV139" s="15"/>
       <c r="EW139" s="15"/>
     </row>
-    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC145" s="1"/>
-      <c r="CD145" s="1"/>
-      <c r="CE145" s="1"/>
-      <c r="CF145" s="1"/>
-      <c r="CG145" s="1"/>
-      <c r="CH145" s="1"/>
-      <c r="CI145" s="1"/>
-      <c r="CJ145" s="1"/>
-      <c r="CK145" s="1"/>
-      <c r="CL145" s="1"/>
-    </row>
-    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC146" s="1"/>
-      <c r="CD146" s="1"/>
-      <c r="CE146" s="1"/>
-      <c r="CF146" s="1"/>
-      <c r="CG146" s="1"/>
-      <c r="CH146" s="1"/>
-      <c r="CI146" s="1"/>
-      <c r="CJ146" s="1"/>
-      <c r="CK146" s="1"/>
-      <c r="CL146" s="1"/>
-    </row>
-    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC147" s="1"/>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-      <c r="CI147" s="1"/>
-      <c r="CJ147" s="1"/>
-      <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-    </row>
-    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1"/>
-      <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-      <c r="CI148" s="1"/>
-      <c r="CJ148" s="1"/>
-      <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-    </row>
-    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC149" s="1"/>
-      <c r="CD149" s="1"/>
-      <c r="CE149" s="1"/>
-      <c r="CF149" s="1"/>
-      <c r="CG149" s="1"/>
-      <c r="CH149" s="1"/>
-      <c r="CI149" s="1"/>
-      <c r="CJ149" s="1"/>
-      <c r="CK149" s="1"/>
-      <c r="CL149" s="1"/>
-    </row>
-    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC150" s="1"/>
-      <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
-      <c r="CG150" s="1"/>
-      <c r="CH150" s="1"/>
-      <c r="CI150" s="1"/>
-      <c r="CJ150" s="1"/>
-      <c r="CK150" s="1"/>
-      <c r="CL150" s="1"/>
-    </row>
-    <row r="151" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC151" s="1"/>
-      <c r="CD151" s="1"/>
-      <c r="CE151" s="1"/>
-      <c r="CF151" s="1"/>
-      <c r="CG151" s="1"/>
-      <c r="CH151" s="1"/>
-      <c r="CI151" s="1"/>
-      <c r="CJ151" s="1"/>
-      <c r="CK151" s="1"/>
-      <c r="CL151" s="1"/>
-    </row>
-    <row r="152" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC152" s="1"/>
-      <c r="CD152" s="1"/>
-      <c r="CE152" s="1"/>
-      <c r="CF152" s="1"/>
-      <c r="CG152" s="1"/>
-      <c r="CH152" s="1"/>
-      <c r="CI152" s="1"/>
-      <c r="CJ152" s="1"/>
-      <c r="CK152" s="1"/>
-      <c r="CL152" s="1"/>
-    </row>
-    <row r="153" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC153" s="1"/>
-      <c r="CD153" s="1"/>
-      <c r="CE153" s="1"/>
-      <c r="CF153" s="1"/>
-      <c r="CG153" s="1"/>
-      <c r="CH153" s="1"/>
-      <c r="CI153" s="1"/>
-      <c r="CJ153" s="1"/>
-      <c r="CK153" s="1"/>
-      <c r="CL153" s="1"/>
-    </row>
-    <row r="154" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC154" s="1"/>
-      <c r="CD154" s="1"/>
-      <c r="CE154" s="1"/>
-      <c r="CF154" s="1"/>
-      <c r="CG154" s="1"/>
-      <c r="CH154" s="1"/>
-      <c r="CI154" s="1"/>
-      <c r="CJ154" s="1"/>
-      <c r="CK154" s="1"/>
-      <c r="CL154" s="1"/>
-    </row>
-    <row r="155" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC155" s="1"/>
-      <c r="CD155" s="1"/>
-      <c r="CE155" s="1"/>
-      <c r="CF155" s="1"/>
-      <c r="CG155" s="1"/>
-      <c r="CH155" s="1"/>
-      <c r="CI155" s="1"/>
-      <c r="CJ155" s="1"/>
-      <c r="CK155" s="1"/>
-      <c r="CL155" s="1"/>
-    </row>
-    <row r="156" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC156" s="1"/>
-      <c r="CD156" s="1"/>
-      <c r="CE156" s="1"/>
-      <c r="CF156" s="1"/>
-      <c r="CG156" s="1"/>
-      <c r="CH156" s="1"/>
-      <c r="CI156" s="1"/>
-      <c r="CJ156" s="1"/>
-      <c r="CK156" s="1"/>
-      <c r="CL156" s="1"/>
-    </row>
-    <row r="157" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC157" s="1"/>
-      <c r="CD157" s="1"/>
-      <c r="CE157" s="1"/>
-      <c r="CF157" s="1"/>
-      <c r="CG157" s="1"/>
-      <c r="CH157" s="1"/>
-      <c r="CI157" s="1"/>
-      <c r="CJ157" s="1"/>
-      <c r="CK157" s="1"/>
-      <c r="CL157" s="1"/>
-    </row>
-    <row r="158" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC158" s="1"/>
-      <c r="CD158" s="1"/>
-      <c r="CE158" s="1"/>
-      <c r="CF158" s="1"/>
-      <c r="CG158" s="1"/>
-      <c r="CH158" s="1"/>
-      <c r="CI158" s="1"/>
-      <c r="CJ158" s="1"/>
-      <c r="CK158" s="1"/>
-      <c r="CL158" s="1"/>
-    </row>
-    <row r="159" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC159" s="1"/>
-      <c r="CD159" s="1"/>
-      <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-      <c r="CI159" s="1"/>
-      <c r="CJ159" s="1"/>
-      <c r="CK159" s="1"/>
-      <c r="CL159" s="1"/>
-    </row>
-    <row r="160" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC160" s="1"/>
-      <c r="CD160" s="1"/>
-      <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-      <c r="CI160" s="1"/>
-      <c r="CJ160" s="1"/>
-      <c r="CK160" s="1"/>
-      <c r="CL160" s="1"/>
-    </row>
-    <row r="161" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC161" s="1"/>
-      <c r="CD161" s="1"/>
-      <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
-      <c r="CH161" s="1"/>
-      <c r="CI161" s="1"/>
-      <c r="CJ161" s="1"/>
-      <c r="CK161" s="1"/>
-      <c r="CL161" s="1"/>
-    </row>
-    <row r="162" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC162" s="1"/>
-      <c r="CD162" s="1"/>
-      <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
-      <c r="CH162" s="1"/>
-      <c r="CI162" s="1"/>
-      <c r="CJ162" s="1"/>
-      <c r="CK162" s="1"/>
-      <c r="CL162" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
+  <mergeCells count="159">
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="AT128:AW128"/>
@@ -39923,136 +39805,34 @@
     <mergeCell ref="BF108:BI108"/>
     <mergeCell ref="BJ108:BM108"/>
     <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL29:CM29"/>
+    <mergeCell ref="CH49:CI49"/>
+    <mergeCell ref="CH69:CI69"/>
+    <mergeCell ref="CL88:CM88"/>
+    <mergeCell ref="CL108:CM108"/>
+    <mergeCell ref="CL128:CM128"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="91" man="1"/>
-    <brk id="80" max="91" man="1"/>
-    <brk id="99" max="91" man="1"/>
+    <brk id="40" max="90" man="1"/>
+    <brk id="80" max="90" man="1"/>
+    <brk id="99" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13455949-0901-446B-AA86-CBB21A8DBA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF08C4-512B-4B52-B6A7-2F9C9DD6194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CM$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CN$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -629,10 +629,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -706,11 +706,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,26 +725,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23617,188 +23611,189 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
-    <col min="2" max="69" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="10.08984375" style="1" customWidth="1"/>
-    <col min="74" max="91" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
+    <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
+    <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
     </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24072,11 +24067,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24332,25 +24330,27 @@
       <c r="CG12" s="8">
         <v>202885.43723331287</v>
       </c>
-      <c r="CH12" s="18">
+      <c r="CH12" s="17">
         <v>125934.52691420163</v>
       </c>
-      <c r="CI12" s="18">
+      <c r="CI12" s="17">
         <v>130429.76216058555</v>
       </c>
-      <c r="CJ12" s="18">
+      <c r="CJ12" s="17">
         <v>160975.38033352135</v>
       </c>
-      <c r="CK12" s="18">
+      <c r="CK12" s="17">
         <v>217986.43405091568</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="17">
         <v>139742.9469087047</v>
       </c>
-      <c r="CM12" s="18">
-        <v>141185.9044928964</v>
-      </c>
-      <c r="CN12" s="9"/>
+      <c r="CM12" s="17">
+        <v>138983.11386234284</v>
+      </c>
+      <c r="CN12" s="17">
+        <v>171914.01614653756</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24413,7 +24413,7 @@
       <c r="EV12" s="9"/>
       <c r="EW12" s="9"/>
     </row>
-    <row r="13" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24669,25 +24669,27 @@
       <c r="CG13" s="8">
         <v>720588.29363605776</v>
       </c>
-      <c r="CH13" s="18">
+      <c r="CH13" s="17">
         <v>556310.12994573393</v>
       </c>
-      <c r="CI13" s="18">
+      <c r="CI13" s="17">
         <v>664628.85626506037</v>
       </c>
-      <c r="CJ13" s="18">
+      <c r="CJ13" s="17">
         <v>787926.29941272957</v>
       </c>
-      <c r="CK13" s="18">
+      <c r="CK13" s="17">
         <v>788538.73960287869</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="17">
         <v>615882.96401822648</v>
       </c>
-      <c r="CM13" s="18">
-        <v>763391.51486397209</v>
-      </c>
-      <c r="CN13" s="9"/>
+      <c r="CM13" s="17">
+        <v>765864.18356986763</v>
+      </c>
+      <c r="CN13" s="17">
+        <v>902793.88448029058</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24750,7 +24752,7 @@
       <c r="EV13" s="9"/>
       <c r="EW13" s="9"/>
     </row>
-    <row r="14" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25006,25 +25008,27 @@
       <c r="CG14" s="8">
         <v>18700.19865871939</v>
       </c>
-      <c r="CH14" s="18">
+      <c r="CH14" s="17">
         <v>22229.866504719321</v>
       </c>
-      <c r="CI14" s="18">
+      <c r="CI14" s="17">
         <v>11073.668521034813</v>
       </c>
-      <c r="CJ14" s="18">
+      <c r="CJ14" s="17">
         <v>17483.618536133064</v>
       </c>
-      <c r="CK14" s="18">
+      <c r="CK14" s="17">
         <v>19719.197301440134</v>
       </c>
-      <c r="CL14" s="18">
+      <c r="CL14" s="17">
         <v>23009.414939819319</v>
       </c>
-      <c r="CM14" s="18">
-        <v>14537.438061670005</v>
-      </c>
-      <c r="CN14" s="9"/>
+      <c r="CM14" s="17">
+        <v>14582.738614062011</v>
+      </c>
+      <c r="CN14" s="17">
+        <v>24405.247702609726</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25087,7 +25091,7 @@
       <c r="EV14" s="9"/>
       <c r="EW14" s="9"/>
     </row>
-    <row r="15" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -25241,7 +25245,7 @@
       <c r="EV15" s="9"/>
       <c r="EW15" s="9"/>
     </row>
-    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -25497,25 +25501,27 @@
       <c r="CG16" s="11">
         <v>942173.92952809006</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="18">
         <v>704474.52336465498</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="18">
         <v>806132.28694668063</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="18">
         <v>966385.29828238394</v>
       </c>
-      <c r="CK16" s="19">
+      <c r="CK16" s="18">
         <v>1026244.3709552345</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="18">
         <v>778635.32586675056</v>
       </c>
-      <c r="CM16" s="19">
-        <v>919114.85741853854</v>
-      </c>
-      <c r="CN16" s="9"/>
+      <c r="CM16" s="18">
+        <v>919430.03604627249</v>
+      </c>
+      <c r="CN16" s="18">
+        <v>1099113.1483294379</v>
+      </c>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -25578,7 +25584,7 @@
       <c r="EV16" s="9"/>
       <c r="EW16" s="9"/>
     </row>
-    <row r="17" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -25670,13 +25676,14 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
     </row>
-    <row r="18" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -25830,7 +25837,7 @@
       <c r="EV19" s="9"/>
       <c r="EW19" s="9"/>
     </row>
-    <row r="20" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -25984,176 +25991,177 @@
       <c r="EV20" s="9"/>
       <c r="EW20" s="9"/>
     </row>
-    <row r="21" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <v>2000</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20">
         <v>2001</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="20">
         <v>2002</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="22">
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20">
         <v>2003</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="22">
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="20">
         <v>2004</v>
       </c>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="22">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="20">
         <v>2005</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="22">
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="20">
         <v>2006</v>
       </c>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="22">
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="20">
         <v>2007</v>
       </c>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="22">
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="20">
         <v>2008</v>
       </c>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="22">
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="20">
         <v>2009</v>
       </c>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="22">
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="22">
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="20">
         <v>2011</v>
       </c>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
-      <c r="AX29" s="22">
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="20">
         <v>2012</v>
       </c>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
-      <c r="BA29" s="23"/>
-      <c r="BB29" s="22">
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="20">
         <v>2013</v>
       </c>
-      <c r="BC29" s="23"/>
-      <c r="BD29" s="23"/>
-      <c r="BE29" s="23"/>
-      <c r="BF29" s="22">
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="20">
         <v>2014</v>
       </c>
-      <c r="BG29" s="23"/>
-      <c r="BH29" s="23"/>
-      <c r="BI29" s="23"/>
-      <c r="BJ29" s="22">
+      <c r="BG29" s="21"/>
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="20">
         <v>2015</v>
       </c>
-      <c r="BK29" s="23"/>
-      <c r="BL29" s="23"/>
-      <c r="BM29" s="23"/>
-      <c r="BN29" s="22">
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="21"/>
+      <c r="BM29" s="21"/>
+      <c r="BN29" s="20">
         <v>2016</v>
       </c>
-      <c r="BO29" s="23"/>
-      <c r="BP29" s="23"/>
-      <c r="BQ29" s="23"/>
-      <c r="BR29" s="22">
+      <c r="BO29" s="21"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="21"/>
+      <c r="BR29" s="20">
         <v>2017</v>
       </c>
-      <c r="BS29" s="23"/>
-      <c r="BT29" s="23"/>
-      <c r="BU29" s="23"/>
-      <c r="BV29" s="22">
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="20">
         <v>2018</v>
       </c>
-      <c r="BW29" s="22"/>
-      <c r="BX29" s="22"/>
-      <c r="BY29" s="22"/>
-      <c r="BZ29" s="22">
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="20">
         <v>2019</v>
       </c>
-      <c r="CA29" s="22"/>
-      <c r="CB29" s="22"/>
-      <c r="CC29" s="22"/>
-      <c r="CD29" s="22">
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20">
         <v>2020</v>
       </c>
-      <c r="CE29" s="22"/>
-      <c r="CF29" s="22"/>
-      <c r="CG29" s="22"/>
-      <c r="CH29" s="22">
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="20"/>
+      <c r="CH29" s="20">
         <v>2021</v>
       </c>
-      <c r="CI29" s="22"/>
-      <c r="CJ29" s="22"/>
-      <c r="CK29" s="22"/>
-      <c r="CL29" s="22">
+      <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
+      <c r="CK29" s="20"/>
+      <c r="CL29" s="20">
         <v>2022</v>
       </c>
-      <c r="CM29" s="22"/>
+      <c r="CM29" s="20"/>
+      <c r="CN29" s="20"/>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -26427,11 +26435,14 @@
       <c r="CM30" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -26687,25 +26698,27 @@
       <c r="CG32" s="8">
         <v>194822.09031976195</v>
       </c>
-      <c r="CH32" s="18">
+      <c r="CH32" s="17">
         <v>117334.74706809164</v>
       </c>
-      <c r="CI32" s="18">
+      <c r="CI32" s="17">
         <v>122534.66867416279</v>
       </c>
-      <c r="CJ32" s="18">
+      <c r="CJ32" s="17">
         <v>149849.83840446768</v>
       </c>
-      <c r="CK32" s="18">
+      <c r="CK32" s="17">
         <v>200376.31381551066</v>
       </c>
-      <c r="CL32" s="18">
+      <c r="CL32" s="17">
         <v>126215.82761218885</v>
       </c>
-      <c r="CM32" s="18">
-        <v>127356.38228959241</v>
-      </c>
-      <c r="CN32" s="9"/>
+      <c r="CM32" s="17">
+        <v>125350.96413813224</v>
+      </c>
+      <c r="CN32" s="17">
+        <v>152688.66262938149</v>
+      </c>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -26768,7 +26781,7 @@
       <c r="EV32" s="9"/>
       <c r="EW32" s="9"/>
     </row>
-    <row r="33" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -27024,25 +27037,27 @@
       <c r="CG33" s="8">
         <v>717282.76015728002</v>
       </c>
-      <c r="CH33" s="18">
+      <c r="CH33" s="17">
         <v>559420.39392693527</v>
       </c>
-      <c r="CI33" s="18">
+      <c r="CI33" s="17">
         <v>650769.9722624555</v>
       </c>
-      <c r="CJ33" s="18">
+      <c r="CJ33" s="17">
         <v>765281.26945021667</v>
       </c>
-      <c r="CK33" s="18">
+      <c r="CK33" s="17">
         <v>777036.31249135442</v>
       </c>
-      <c r="CL33" s="18">
+      <c r="CL33" s="17">
         <v>598923.05709449085</v>
       </c>
-      <c r="CM33" s="18">
-        <v>718626.85720478895</v>
-      </c>
-      <c r="CN33" s="9"/>
+      <c r="CM33" s="17">
+        <v>720726.62857110938</v>
+      </c>
+      <c r="CN33" s="17">
+        <v>840596.6203082446</v>
+      </c>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27105,7 +27120,7 @@
       <c r="EV33" s="9"/>
       <c r="EW33" s="9"/>
     </row>
-    <row r="34" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -27361,25 +27376,27 @@
       <c r="CG34" s="8">
         <v>19200.638762867737</v>
       </c>
-      <c r="CH34" s="18">
+      <c r="CH34" s="17">
         <v>22053.277989249957</v>
       </c>
-      <c r="CI34" s="18">
+      <c r="CI34" s="17">
         <v>11279.082191936619</v>
       </c>
-      <c r="CJ34" s="18">
+      <c r="CJ34" s="17">
         <v>18022.981191521263</v>
       </c>
-      <c r="CK34" s="18">
+      <c r="CK34" s="17">
         <v>20367.470748935582</v>
       </c>
-      <c r="CL34" s="18">
+      <c r="CL34" s="17">
         <v>22479.760328516833</v>
       </c>
-      <c r="CM34" s="18">
-        <v>14525.932883976839</v>
-      </c>
-      <c r="CN34" s="9"/>
+      <c r="CM34" s="17">
+        <v>14560.912872982955</v>
+      </c>
+      <c r="CN34" s="17">
+        <v>24731.763403036268</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27442,7 +27459,7 @@
       <c r="EV34" s="9"/>
       <c r="EW34" s="9"/>
     </row>
-    <row r="35" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -27527,13 +27544,13 @@
       <c r="CE35" s="11"/>
       <c r="CF35" s="11"/>
       <c r="CG35" s="11"/>
-      <c r="CH35" s="19"/>
-      <c r="CI35" s="19"/>
-      <c r="CJ35" s="19"/>
-      <c r="CK35" s="19"/>
-      <c r="CL35" s="19"/>
-      <c r="CM35" s="19"/>
-      <c r="CN35" s="9"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="18"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -27596,7 +27613,7 @@
       <c r="EV35" s="9"/>
       <c r="EW35" s="9"/>
     </row>
-    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -27852,25 +27869,27 @@
       <c r="CG36" s="11">
         <v>931305.48923990969</v>
       </c>
-      <c r="CH36" s="19">
+      <c r="CH36" s="18">
         <v>698808.41898427682</v>
       </c>
-      <c r="CI36" s="19">
+      <c r="CI36" s="18">
         <v>784583.72312855499</v>
       </c>
-      <c r="CJ36" s="19">
+      <c r="CJ36" s="18">
         <v>933154.08904620563</v>
       </c>
-      <c r="CK36" s="19">
+      <c r="CK36" s="18">
         <v>997780.09705580072</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="18">
         <v>747618.64503519656</v>
       </c>
-      <c r="CM36" s="19">
-        <v>860509.1723783582</v>
-      </c>
-      <c r="CN36" s="9"/>
+      <c r="CM36" s="18">
+        <v>860638.50558222458</v>
+      </c>
+      <c r="CN36" s="18">
+        <v>1018017.0463406624</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -27933,7 +27952,7 @@
       <c r="EV36" s="9"/>
       <c r="EW36" s="9"/>
     </row>
-    <row r="37" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -28025,13 +28044,14 @@
       <c r="CK37" s="12"/>
       <c r="CL37" s="12"/>
       <c r="CM37" s="12"/>
+      <c r="CN37" s="12"/>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -28185,7 +28205,7 @@
       <c r="EV39" s="9"/>
       <c r="EW39" s="9"/>
     </row>
-    <row r="40" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -28339,174 +28359,175 @@
       <c r="EV40" s="9"/>
       <c r="EW40" s="9"/>
     </row>
-    <row r="41" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22" t="s">
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22" t="s">
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22" t="s">
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22" t="s">
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22" t="s">
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22" t="s">
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22" t="s">
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22" t="s">
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="22"/>
-      <c r="AR49" s="22"/>
-      <c r="AS49" s="22"/>
-      <c r="AT49" s="22" t="s">
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="22"/>
-      <c r="AV49" s="22"/>
-      <c r="AW49" s="22"/>
-      <c r="AX49" s="22" t="s">
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="22"/>
-      <c r="AZ49" s="22"/>
-      <c r="BA49" s="22"/>
-      <c r="BB49" s="22" t="s">
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="22"/>
-      <c r="BD49" s="22"/>
-      <c r="BE49" s="22"/>
-      <c r="BF49" s="22" t="s">
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="22"/>
-      <c r="BH49" s="22"/>
-      <c r="BI49" s="22"/>
-      <c r="BJ49" s="22" t="s">
+      <c r="BG49" s="20"/>
+      <c r="BH49" s="20"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="22"/>
-      <c r="BL49" s="22"/>
-      <c r="BM49" s="22"/>
-      <c r="BN49" s="22" t="s">
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="20"/>
+      <c r="BM49" s="20"/>
+      <c r="BN49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="22"/>
-      <c r="BP49" s="22"/>
-      <c r="BQ49" s="22"/>
-      <c r="BR49" s="22" t="s">
+      <c r="BO49" s="20"/>
+      <c r="BP49" s="20"/>
+      <c r="BQ49" s="20"/>
+      <c r="BR49" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="22"/>
-      <c r="BT49" s="22"/>
-      <c r="BU49" s="22"/>
-      <c r="BV49" s="22" t="s">
+      <c r="BS49" s="20"/>
+      <c r="BT49" s="20"/>
+      <c r="BU49" s="20"/>
+      <c r="BV49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="22"/>
-      <c r="BX49" s="22"/>
-      <c r="BY49" s="22"/>
-      <c r="BZ49" s="22" t="s">
+      <c r="BW49" s="20"/>
+      <c r="BX49" s="20"/>
+      <c r="BY49" s="20"/>
+      <c r="BZ49" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="22"/>
-      <c r="CB49" s="22"/>
-      <c r="CC49" s="22"/>
-      <c r="CD49" s="22" t="s">
+      <c r="CA49" s="20"/>
+      <c r="CB49" s="20"/>
+      <c r="CC49" s="20"/>
+      <c r="CD49" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="22"/>
-      <c r="CF49" s="22"/>
-      <c r="CG49" s="22"/>
-      <c r="CH49" s="22" t="s">
+      <c r="CE49" s="20"/>
+      <c r="CF49" s="20"/>
+      <c r="CG49" s="20"/>
+      <c r="CH49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="22"/>
+      <c r="CI49" s="20"/>
       <c r="CJ49" s="20"/>
-      <c r="CK49" s="20"/>
-      <c r="CL49" s="17"/>
-      <c r="CM49" s="17"/>
+      <c r="CK49" s="19"/>
+      <c r="CL49" s="20"/>
+      <c r="CM49" s="20"/>
+      <c r="CN49" s="19"/>
     </row>
-    <row r="50" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -28768,15 +28789,18 @@
       <c r="CI50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ50" s="5"/>
+      <c r="CJ50" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK50" s="5"/>
       <c r="CL50" s="5"/>
-      <c r="CM50" s="21"/>
+      <c r="CM50" s="5"/>
+      <c r="CN50" s="5"/>
     </row>
-    <row r="51" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -29036,13 +29060,15 @@
         <v>10.964761080899322</v>
       </c>
       <c r="CI52" s="14">
-        <v>8.2466932041690484</v>
-      </c>
-      <c r="CJ52" s="14"/>
+        <v>6.5578220492546535</v>
+      </c>
+      <c r="CJ52" s="14">
+        <v>6.7952228411280515</v>
+      </c>
       <c r="CK52" s="14"/>
       <c r="CL52" s="14"/>
-      <c r="CM52" s="9"/>
-      <c r="CN52" s="9"/>
+      <c r="CM52" s="14"/>
+      <c r="CN52" s="14"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
       <c r="CQ52" s="9"/>
@@ -29101,7 +29127,7 @@
       <c r="ER52" s="9"/>
       <c r="ES52" s="9"/>
     </row>
-    <row r="53" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -29361,13 +29387,15 @@
         <v>10.70856539648193</v>
       </c>
       <c r="CI53" s="14">
-        <v>14.859821036648498</v>
-      </c>
-      <c r="CJ53" s="14"/>
+        <v>15.231858555421127</v>
+      </c>
+      <c r="CJ53" s="14">
+        <v>14.578468208660638</v>
+      </c>
       <c r="CK53" s="14"/>
       <c r="CL53" s="14"/>
-      <c r="CM53" s="9"/>
-      <c r="CN53" s="9"/>
+      <c r="CM53" s="14"/>
+      <c r="CN53" s="14"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
@@ -29426,7 +29454,7 @@
       <c r="ER53" s="9"/>
       <c r="ES53" s="9"/>
     </row>
-    <row r="54" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -29686,13 +29714,15 @@
         <v>3.5067616574957867</v>
       </c>
       <c r="CI54" s="14">
-        <v>31.279331994231569</v>
-      </c>
-      <c r="CJ54" s="14"/>
+        <v>31.688415508930944</v>
+      </c>
+      <c r="CJ54" s="14">
+        <v>39.589225492262159</v>
+      </c>
       <c r="CK54" s="14"/>
       <c r="CL54" s="14"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
+      <c r="CM54" s="14"/>
+      <c r="CN54" s="14"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
@@ -29751,7 +29781,7 @@
       <c r="ER54" s="9"/>
       <c r="ES54" s="9"/>
     </row>
-    <row r="55" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -29901,7 +29931,7 @@
       <c r="ER55" s="9"/>
       <c r="ES55" s="9"/>
     </row>
-    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>14</v>
       </c>
@@ -30161,13 +30191,15 @@
         <v>10.527109220060169</v>
       </c>
       <c r="CI56" s="14">
-        <v>14.015388330343697</v>
-      </c>
-      <c r="CJ56" s="14"/>
+        <v>14.054485961444385</v>
+      </c>
+      <c r="CJ56" s="14">
+        <v>13.734464947155061</v>
+      </c>
       <c r="CK56" s="14"/>
       <c r="CL56" s="14"/>
-      <c r="CM56" s="9"/>
-      <c r="CN56" s="9"/>
+      <c r="CM56" s="14"/>
+      <c r="CN56" s="14"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
@@ -30226,7 +30258,7 @@
       <c r="ER56" s="9"/>
       <c r="ES56" s="9"/>
     </row>
-    <row r="57" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -30318,13 +30350,14 @@
       <c r="CK57" s="12"/>
       <c r="CL57" s="12"/>
       <c r="CM57" s="12"/>
+      <c r="CN57" s="12"/>
     </row>
-    <row r="58" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -30474,7 +30507,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -30624,174 +30657,175 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="22" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="22" t="s">
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="22" t="s">
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="22" t="s">
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="22" t="s">
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="22" t="s">
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="22" t="s">
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="22" t="s">
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="22" t="s">
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="22" t="s">
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="24"/>
-      <c r="AS69" s="24"/>
-      <c r="AT69" s="22" t="s">
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="24"/>
-      <c r="AV69" s="24"/>
-      <c r="AW69" s="24"/>
-      <c r="AX69" s="22" t="s">
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="24"/>
-      <c r="AZ69" s="24"/>
-      <c r="BA69" s="24"/>
-      <c r="BB69" s="22" t="s">
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="24"/>
-      <c r="BD69" s="24"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="22" t="s">
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="24"/>
-      <c r="BH69" s="24"/>
-      <c r="BI69" s="24"/>
-      <c r="BJ69" s="22" t="s">
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="22" t="s">
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="22" t="s">
+      <c r="BO69" s="22"/>
+      <c r="BP69" s="22"/>
+      <c r="BQ69" s="22"/>
+      <c r="BR69" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="22" t="s">
+      <c r="BS69" s="22"/>
+      <c r="BT69" s="22"/>
+      <c r="BU69" s="22"/>
+      <c r="BV69" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="22"/>
-      <c r="BX69" s="22"/>
-      <c r="BY69" s="22"/>
-      <c r="BZ69" s="22" t="s">
+      <c r="BW69" s="20"/>
+      <c r="BX69" s="20"/>
+      <c r="BY69" s="20"/>
+      <c r="BZ69" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="22"/>
-      <c r="CB69" s="22"/>
-      <c r="CC69" s="22"/>
-      <c r="CD69" s="22" t="s">
+      <c r="CA69" s="20"/>
+      <c r="CB69" s="20"/>
+      <c r="CC69" s="20"/>
+      <c r="CD69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="22"/>
-      <c r="CF69" s="22"/>
-      <c r="CG69" s="22"/>
-      <c r="CH69" s="22" t="s">
+      <c r="CE69" s="20"/>
+      <c r="CF69" s="20"/>
+      <c r="CG69" s="20"/>
+      <c r="CH69" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="22"/>
+      <c r="CI69" s="20"/>
       <c r="CJ69" s="20"/>
-      <c r="CK69" s="20"/>
-      <c r="CL69" s="17"/>
-      <c r="CM69" s="17"/>
+      <c r="CK69" s="19"/>
+      <c r="CL69" s="20"/>
+      <c r="CM69" s="20"/>
+      <c r="CN69" s="19"/>
     </row>
-    <row r="70" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -31053,15 +31087,18 @@
       <c r="CI70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ70" s="5"/>
+      <c r="CJ70" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK70" s="5"/>
       <c r="CL70" s="5"/>
-      <c r="CM70" s="21"/>
+      <c r="CM70" s="5"/>
+      <c r="CN70" s="5"/>
     </row>
-    <row r="71" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -31321,13 +31358,15 @@
         <v>7.5690115383666665</v>
       </c>
       <c r="CI72" s="14">
-        <v>3.9349791104844343</v>
-      </c>
-      <c r="CJ72" s="14"/>
+        <v>2.2983662456038161</v>
+      </c>
+      <c r="CJ72" s="14">
+        <v>1.8944459701393868</v>
+      </c>
       <c r="CK72" s="14"/>
       <c r="CL72" s="14"/>
-      <c r="CM72" s="9"/>
-      <c r="CN72" s="9"/>
+      <c r="CM72" s="14"/>
+      <c r="CN72" s="14"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
@@ -31386,7 +31425,7 @@
       <c r="ER72" s="9"/>
       <c r="ES72" s="9"/>
     </row>
-    <row r="73" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -31646,13 +31685,15 @@
         <v>7.0613555738039366</v>
       </c>
       <c r="CI73" s="14">
-        <v>10.42716902047944</v>
-      </c>
-      <c r="CJ73" s="14"/>
+        <v>10.749828555463893</v>
+      </c>
+      <c r="CJ73" s="14">
+        <v>9.8415254449040646</v>
+      </c>
       <c r="CK73" s="14"/>
       <c r="CL73" s="14"/>
-      <c r="CM73" s="9"/>
-      <c r="CN73" s="9"/>
+      <c r="CM73" s="14"/>
+      <c r="CN73" s="14"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
       <c r="CQ73" s="9"/>
@@ -31711,7 +31752,7 @@
       <c r="ER73" s="9"/>
       <c r="ES73" s="9"/>
     </row>
-    <row r="74" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -31971,13 +32012,15 @@
         <v>1.9338727760778625</v>
       </c>
       <c r="CI74" s="14">
-        <v>28.786479580416426</v>
-      </c>
-      <c r="CJ74" s="14"/>
+        <v>29.096611100081418</v>
+      </c>
+      <c r="CJ74" s="14">
+        <v>37.223487836025072</v>
+      </c>
       <c r="CK74" s="14"/>
       <c r="CL74" s="14"/>
-      <c r="CM74" s="9"/>
-      <c r="CN74" s="9"/>
+      <c r="CM74" s="14"/>
+      <c r="CN74" s="14"/>
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
       <c r="CQ74" s="9"/>
@@ -32036,7 +32079,7 @@
       <c r="ER74" s="9"/>
       <c r="ES74" s="9"/>
     </row>
-    <row r="75" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32186,7 +32229,7 @@
       <c r="ER75" s="9"/>
       <c r="ES75" s="9"/>
     </row>
-    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>14</v>
       </c>
@@ -32446,13 +32489,15 @@
         <v>6.9847793364976667</v>
       </c>
       <c r="CI76" s="14">
-        <v>9.6771634449728055</v>
-      </c>
-      <c r="CJ76" s="14"/>
+        <v>9.6936477537920922</v>
+      </c>
+      <c r="CJ76" s="14">
+        <v>9.0942062292409531</v>
+      </c>
       <c r="CK76" s="14"/>
       <c r="CL76" s="14"/>
-      <c r="CM76" s="9"/>
-      <c r="CN76" s="9"/>
+      <c r="CM76" s="14"/>
+      <c r="CN76" s="14"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
@@ -32511,7 +32556,7 @@
       <c r="ER76" s="9"/>
       <c r="ES76" s="9"/>
     </row>
-    <row r="77" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -32603,13 +32648,14 @@
       <c r="CK77" s="12"/>
       <c r="CL77" s="12"/>
       <c r="CM77" s="12"/>
+      <c r="CN77" s="12"/>
     </row>
-    <row r="78" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -32759,7 +32805,7 @@
       <c r="ER79" s="9"/>
       <c r="ES79" s="9"/>
     </row>
-    <row r="80" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -32909,171 +32955,172 @@
       <c r="ER80" s="9"/>
       <c r="ES80" s="9"/>
     </row>
-    <row r="81" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="22">
+      <c r="B88" s="20">
         <v>2000</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="22">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="20">
         <v>2001</v>
       </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="22">
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="20">
         <v>2002</v>
       </c>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="22">
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="20">
         <v>2003</v>
       </c>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-      <c r="R88" s="22">
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="20">
         <v>2004</v>
       </c>
-      <c r="S88" s="23"/>
-      <c r="T88" s="23"/>
-      <c r="U88" s="23"/>
-      <c r="V88" s="22">
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="20">
         <v>2005</v>
       </c>
-      <c r="W88" s="23"/>
-      <c r="X88" s="23"/>
-      <c r="Y88" s="23"/>
-      <c r="Z88" s="22">
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="20">
         <v>2006</v>
       </c>
-      <c r="AA88" s="23"/>
-      <c r="AB88" s="23"/>
-      <c r="AC88" s="23"/>
-      <c r="AD88" s="22">
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="20">
         <v>2007</v>
       </c>
-      <c r="AE88" s="23"/>
-      <c r="AF88" s="23"/>
-      <c r="AG88" s="23"/>
-      <c r="AH88" s="22">
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="20">
         <v>2008</v>
       </c>
-      <c r="AI88" s="23"/>
-      <c r="AJ88" s="23"/>
-      <c r="AK88" s="23"/>
-      <c r="AL88" s="22">
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="20">
         <v>2009</v>
       </c>
-      <c r="AM88" s="23"/>
-      <c r="AN88" s="23"/>
-      <c r="AO88" s="23"/>
-      <c r="AP88" s="22">
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="23"/>
-      <c r="AR88" s="23"/>
-      <c r="AS88" s="23"/>
-      <c r="AT88" s="22">
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="20">
         <v>2011</v>
       </c>
-      <c r="AU88" s="23"/>
-      <c r="AV88" s="23"/>
-      <c r="AW88" s="23"/>
-      <c r="AX88" s="22">
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="20">
         <v>2012</v>
       </c>
-      <c r="AY88" s="23"/>
-      <c r="AZ88" s="23"/>
-      <c r="BA88" s="23"/>
-      <c r="BB88" s="22">
+      <c r="AY88" s="21"/>
+      <c r="AZ88" s="21"/>
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="20">
         <v>2013</v>
       </c>
-      <c r="BC88" s="23"/>
-      <c r="BD88" s="23"/>
-      <c r="BE88" s="23"/>
-      <c r="BF88" s="22">
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="21"/>
+      <c r="BE88" s="21"/>
+      <c r="BF88" s="20">
         <v>2014</v>
       </c>
-      <c r="BG88" s="23"/>
-      <c r="BH88" s="23"/>
-      <c r="BI88" s="23"/>
-      <c r="BJ88" s="22">
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="21"/>
+      <c r="BJ88" s="20">
         <v>2015</v>
       </c>
-      <c r="BK88" s="23"/>
-      <c r="BL88" s="23"/>
-      <c r="BM88" s="23"/>
-      <c r="BN88" s="22">
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="21"/>
+      <c r="BM88" s="21"/>
+      <c r="BN88" s="20">
         <v>2016</v>
       </c>
-      <c r="BO88" s="23"/>
-      <c r="BP88" s="23"/>
-      <c r="BQ88" s="23"/>
-      <c r="BR88" s="22">
+      <c r="BO88" s="21"/>
+      <c r="BP88" s="21"/>
+      <c r="BQ88" s="21"/>
+      <c r="BR88" s="20">
         <v>2017</v>
       </c>
-      <c r="BS88" s="23"/>
-      <c r="BT88" s="23"/>
-      <c r="BU88" s="23"/>
-      <c r="BV88" s="22">
+      <c r="BS88" s="21"/>
+      <c r="BT88" s="21"/>
+      <c r="BU88" s="21"/>
+      <c r="BV88" s="20">
         <v>2018</v>
       </c>
-      <c r="BW88" s="22"/>
-      <c r="BX88" s="22"/>
-      <c r="BY88" s="22"/>
-      <c r="BZ88" s="22">
+      <c r="BW88" s="20"/>
+      <c r="BX88" s="20"/>
+      <c r="BY88" s="20"/>
+      <c r="BZ88" s="20">
         <v>2019</v>
       </c>
-      <c r="CA88" s="22"/>
-      <c r="CB88" s="22"/>
-      <c r="CC88" s="22"/>
-      <c r="CD88" s="22">
+      <c r="CA88" s="20"/>
+      <c r="CB88" s="20"/>
+      <c r="CC88" s="20"/>
+      <c r="CD88" s="20">
         <v>2020</v>
       </c>
-      <c r="CE88" s="22"/>
-      <c r="CF88" s="22"/>
-      <c r="CG88" s="22"/>
-      <c r="CH88" s="22">
+      <c r="CE88" s="20"/>
+      <c r="CF88" s="20"/>
+      <c r="CG88" s="20"/>
+      <c r="CH88" s="20">
         <v>2021</v>
       </c>
-      <c r="CI88" s="22"/>
-      <c r="CJ88" s="22"/>
-      <c r="CK88" s="22"/>
-      <c r="CL88" s="22">
+      <c r="CI88" s="20"/>
+      <c r="CJ88" s="20"/>
+      <c r="CK88" s="20"/>
+      <c r="CL88" s="20">
         <v>2022</v>
       </c>
-      <c r="CM88" s="22"/>
+      <c r="CM88" s="20"/>
+      <c r="CN88" s="20"/>
     </row>
-    <row r="89" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>4</v>
       </c>
@@ -33347,11 +33394,14 @@
       <c r="CM89" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN89" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="90" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -33623,9 +33673,11 @@
         <v>110.71745085575108</v>
       </c>
       <c r="CM91" s="14">
-        <v>110.85891570934969</v>
-      </c>
-      <c r="CN91" s="9"/>
+        <v>110.87518537886032</v>
+      </c>
+      <c r="CN91" s="14">
+        <v>112.59121220009729</v>
+      </c>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
@@ -33688,7 +33740,7 @@
       <c r="EV91" s="9"/>
       <c r="EW91" s="9"/>
     </row>
-    <row r="92" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -33960,9 +34012,11 @@
         <v>102.8317338467502</v>
       </c>
       <c r="CM92" s="14">
-        <v>106.22919352517692</v>
-      </c>
-      <c r="CN92" s="9"/>
+        <v>106.26278441914192</v>
+      </c>
+      <c r="CN92" s="14">
+        <v>107.39918085195708</v>
+      </c>
       <c r="CO92" s="9"/>
       <c r="CP92" s="9"/>
       <c r="CQ92" s="9"/>
@@ -34025,7 +34079,7 @@
       <c r="EV92" s="9"/>
       <c r="EW92" s="9"/>
     </row>
-    <row r="93" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -34297,9 +34351,11 @@
         <v>102.35613993904815</v>
       </c>
       <c r="CM93" s="14">
-        <v>100.07920439798987</v>
-      </c>
-      <c r="CN93" s="9"/>
+        <v>100.14989266998194</v>
+      </c>
+      <c r="CN93" s="14">
+        <v>98.679771858134231</v>
+      </c>
       <c r="CO93" s="9"/>
       <c r="CP93" s="9"/>
       <c r="CQ93" s="9"/>
@@ -34362,7 +34418,7 @@
       <c r="EV93" s="9"/>
       <c r="EW93" s="9"/>
     </row>
-    <row r="94" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -34516,7 +34572,7 @@
       <c r="EV94" s="9"/>
       <c r="EW94" s="9"/>
     </row>
-    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>14</v>
       </c>
@@ -34788,9 +34844,11 @@
         <v>104.14873024335741</v>
       </c>
       <c r="CM95" s="14">
-        <v>106.81058226005892</v>
-      </c>
-      <c r="CN95" s="9"/>
+        <v>106.83115269450735</v>
+      </c>
+      <c r="CN95" s="14">
+        <v>107.96608487846852</v>
+      </c>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -34853,7 +34911,7 @@
       <c r="EV95" s="9"/>
       <c r="EW95" s="9"/>
     </row>
-    <row r="96" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -34945,182 +35003,184 @@
       <c r="CK96" s="12"/>
       <c r="CL96" s="12"/>
       <c r="CM96" s="12"/>
+      <c r="CN96" s="12"/>
     </row>
-    <row r="97" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="22">
+      <c r="B108" s="20">
         <v>2000</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="22">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="20">
         <v>2001</v>
       </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="22">
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="20">
         <v>2002</v>
       </c>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="22">
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="20">
         <v>2003</v>
       </c>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="22">
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="20">
         <v>2004</v>
       </c>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="22">
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="20">
         <v>2005</v>
       </c>
-      <c r="W108" s="23"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="22">
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="20">
         <v>2006</v>
       </c>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="23"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="22">
+      <c r="AA108" s="21"/>
+      <c r="AB108" s="21"/>
+      <c r="AC108" s="21"/>
+      <c r="AD108" s="20">
         <v>2007</v>
       </c>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="22">
+      <c r="AE108" s="21"/>
+      <c r="AF108" s="21"/>
+      <c r="AG108" s="21"/>
+      <c r="AH108" s="20">
         <v>2008</v>
       </c>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="22">
+      <c r="AI108" s="21"/>
+      <c r="AJ108" s="21"/>
+      <c r="AK108" s="21"/>
+      <c r="AL108" s="20">
         <v>2009</v>
       </c>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="22">
+      <c r="AM108" s="21"/>
+      <c r="AN108" s="21"/>
+      <c r="AO108" s="21"/>
+      <c r="AP108" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="23"/>
-      <c r="AS108" s="23"/>
-      <c r="AT108" s="22">
+      <c r="AQ108" s="21"/>
+      <c r="AR108" s="21"/>
+      <c r="AS108" s="21"/>
+      <c r="AT108" s="20">
         <v>2011</v>
       </c>
-      <c r="AU108" s="23"/>
-      <c r="AV108" s="23"/>
-      <c r="AW108" s="23"/>
-      <c r="AX108" s="22">
+      <c r="AU108" s="21"/>
+      <c r="AV108" s="21"/>
+      <c r="AW108" s="21"/>
+      <c r="AX108" s="20">
         <v>2012</v>
       </c>
-      <c r="AY108" s="23"/>
-      <c r="AZ108" s="23"/>
-      <c r="BA108" s="23"/>
-      <c r="BB108" s="22">
+      <c r="AY108" s="21"/>
+      <c r="AZ108" s="21"/>
+      <c r="BA108" s="21"/>
+      <c r="BB108" s="20">
         <v>2013</v>
       </c>
-      <c r="BC108" s="23"/>
-      <c r="BD108" s="23"/>
-      <c r="BE108" s="23"/>
-      <c r="BF108" s="22">
+      <c r="BC108" s="21"/>
+      <c r="BD108" s="21"/>
+      <c r="BE108" s="21"/>
+      <c r="BF108" s="20">
         <v>2014</v>
       </c>
-      <c r="BG108" s="23"/>
-      <c r="BH108" s="23"/>
-      <c r="BI108" s="23"/>
-      <c r="BJ108" s="22">
+      <c r="BG108" s="21"/>
+      <c r="BH108" s="21"/>
+      <c r="BI108" s="21"/>
+      <c r="BJ108" s="20">
         <v>2015</v>
       </c>
-      <c r="BK108" s="23"/>
-      <c r="BL108" s="23"/>
-      <c r="BM108" s="23"/>
-      <c r="BN108" s="22">
+      <c r="BK108" s="21"/>
+      <c r="BL108" s="21"/>
+      <c r="BM108" s="21"/>
+      <c r="BN108" s="20">
         <v>2016</v>
       </c>
-      <c r="BO108" s="23"/>
-      <c r="BP108" s="23"/>
-      <c r="BQ108" s="23"/>
-      <c r="BR108" s="22">
+      <c r="BO108" s="21"/>
+      <c r="BP108" s="21"/>
+      <c r="BQ108" s="21"/>
+      <c r="BR108" s="20">
         <v>2017</v>
       </c>
-      <c r="BS108" s="23"/>
-      <c r="BT108" s="23"/>
-      <c r="BU108" s="23"/>
-      <c r="BV108" s="22">
+      <c r="BS108" s="21"/>
+      <c r="BT108" s="21"/>
+      <c r="BU108" s="21"/>
+      <c r="BV108" s="20">
         <v>2018</v>
       </c>
-      <c r="BW108" s="22"/>
-      <c r="BX108" s="22"/>
-      <c r="BY108" s="22"/>
-      <c r="BZ108" s="22">
+      <c r="BW108" s="20"/>
+      <c r="BX108" s="20"/>
+      <c r="BY108" s="20"/>
+      <c r="BZ108" s="20">
         <v>2019</v>
       </c>
-      <c r="CA108" s="22"/>
-      <c r="CB108" s="22"/>
-      <c r="CC108" s="22"/>
-      <c r="CD108" s="22">
+      <c r="CA108" s="20"/>
+      <c r="CB108" s="20"/>
+      <c r="CC108" s="20"/>
+      <c r="CD108" s="20">
         <v>2020</v>
       </c>
-      <c r="CE108" s="22"/>
-      <c r="CF108" s="22"/>
-      <c r="CG108" s="22"/>
-      <c r="CH108" s="22">
+      <c r="CE108" s="20"/>
+      <c r="CF108" s="20"/>
+      <c r="CG108" s="20"/>
+      <c r="CH108" s="20">
         <v>2021</v>
       </c>
-      <c r="CI108" s="22"/>
-      <c r="CJ108" s="22"/>
-      <c r="CK108" s="22"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="20"/>
+      <c r="CJ108" s="20"/>
+      <c r="CK108" s="20"/>
+      <c r="CL108" s="20">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
+      <c r="CM108" s="20"/>
+      <c r="CN108" s="20"/>
     </row>
-    <row r="109" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>4</v>
       </c>
@@ -35394,11 +35454,14 @@
       <c r="CM109" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN109" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="110" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -35670,9 +35733,11 @@
         <v>17.947162460571331</v>
       </c>
       <c r="CM111" s="14">
-        <v>15.361073031659675</v>
-      </c>
-      <c r="CN111" s="9"/>
+        <v>15.11622509745246</v>
+      </c>
+      <c r="CN111" s="14">
+        <v>15.641157273737722</v>
+      </c>
       <c r="CO111" s="9"/>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
@@ -35735,7 +35800,7 @@
       <c r="EV111" s="9"/>
       <c r="EW111" s="9"/>
     </row>
-    <row r="112" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -36007,9 +36072,11 @@
         <v>79.097742365162588</v>
       </c>
       <c r="CM112" s="14">
-        <v>83.057248906634257</v>
-      </c>
-      <c r="CN112" s="9"/>
+        <v>83.297712011153365</v>
+      </c>
+      <c r="CN112" s="14">
+        <v>82.138393654235088</v>
+      </c>
       <c r="CO112" s="9"/>
       <c r="CP112" s="9"/>
       <c r="CQ112" s="9"/>
@@ -36072,7 +36139,7 @@
       <c r="EV112" s="9"/>
       <c r="EW112" s="9"/>
     </row>
-    <row r="113" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -36344,9 +36411,11 @@
         <v>2.9550951742660807</v>
       </c>
       <c r="CM113" s="14">
-        <v>1.5816780617060651</v>
-      </c>
-      <c r="CN113" s="9"/>
+        <v>1.5860628913941748</v>
+      </c>
+      <c r="CN113" s="14">
+        <v>2.2204490720271797</v>
+      </c>
       <c r="CO113" s="9"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
@@ -36409,7 +36478,7 @@
       <c r="EV113" s="9"/>
       <c r="EW113" s="9"/>
     </row>
-    <row r="114" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -36563,7 +36632,7 @@
       <c r="EV114" s="9"/>
       <c r="EW114" s="9"/>
     </row>
-    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>14</v>
       </c>
@@ -36837,7 +36906,9 @@
       <c r="CM115" s="14">
         <v>100</v>
       </c>
-      <c r="CN115" s="9"/>
+      <c r="CN115" s="14">
+        <v>100</v>
+      </c>
       <c r="CO115" s="9"/>
       <c r="CP115" s="9"/>
       <c r="CQ115" s="9"/>
@@ -36900,7 +36971,7 @@
       <c r="EV115" s="9"/>
       <c r="EW115" s="9"/>
     </row>
-    <row r="116" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -36992,13 +37063,14 @@
       <c r="CK116" s="12"/>
       <c r="CL116" s="12"/>
       <c r="CM116" s="12"/>
+      <c r="CN116" s="12"/>
     </row>
-    <row r="117" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -37152,7 +37224,7 @@
       <c r="EV118" s="9"/>
       <c r="EW118" s="9"/>
     </row>
-    <row r="119" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -37306,176 +37378,177 @@
       <c r="EV119" s="9"/>
       <c r="EW119" s="9"/>
     </row>
-    <row r="120" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="22">
+      <c r="B128" s="20">
         <v>2000</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="22">
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="20">
         <v>2001</v>
       </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="22">
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="20">
         <v>2002</v>
       </c>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="22">
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="20">
         <v>2003</v>
       </c>
-      <c r="O128" s="23"/>
-      <c r="P128" s="23"/>
-      <c r="Q128" s="23"/>
-      <c r="R128" s="22">
+      <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
+      <c r="Q128" s="21"/>
+      <c r="R128" s="20">
         <v>2004</v>
       </c>
-      <c r="S128" s="23"/>
-      <c r="T128" s="23"/>
-      <c r="U128" s="23"/>
-      <c r="V128" s="22">
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="21"/>
+      <c r="V128" s="20">
         <v>2005</v>
       </c>
-      <c r="W128" s="23"/>
-      <c r="X128" s="23"/>
-      <c r="Y128" s="23"/>
-      <c r="Z128" s="22">
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+      <c r="Y128" s="21"/>
+      <c r="Z128" s="20">
         <v>2006</v>
       </c>
-      <c r="AA128" s="23"/>
-      <c r="AB128" s="23"/>
-      <c r="AC128" s="23"/>
-      <c r="AD128" s="22">
+      <c r="AA128" s="21"/>
+      <c r="AB128" s="21"/>
+      <c r="AC128" s="21"/>
+      <c r="AD128" s="20">
         <v>2007</v>
       </c>
-      <c r="AE128" s="23"/>
-      <c r="AF128" s="23"/>
-      <c r="AG128" s="23"/>
-      <c r="AH128" s="22">
+      <c r="AE128" s="21"/>
+      <c r="AF128" s="21"/>
+      <c r="AG128" s="21"/>
+      <c r="AH128" s="20">
         <v>2008</v>
       </c>
-      <c r="AI128" s="23"/>
-      <c r="AJ128" s="23"/>
-      <c r="AK128" s="23"/>
-      <c r="AL128" s="22">
+      <c r="AI128" s="21"/>
+      <c r="AJ128" s="21"/>
+      <c r="AK128" s="21"/>
+      <c r="AL128" s="20">
         <v>2009</v>
       </c>
-      <c r="AM128" s="23"/>
-      <c r="AN128" s="23"/>
-      <c r="AO128" s="23"/>
-      <c r="AP128" s="22">
+      <c r="AM128" s="21"/>
+      <c r="AN128" s="21"/>
+      <c r="AO128" s="21"/>
+      <c r="AP128" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="23"/>
-      <c r="AR128" s="23"/>
-      <c r="AS128" s="23"/>
-      <c r="AT128" s="22">
+      <c r="AQ128" s="21"/>
+      <c r="AR128" s="21"/>
+      <c r="AS128" s="21"/>
+      <c r="AT128" s="20">
         <v>2011</v>
       </c>
-      <c r="AU128" s="23"/>
-      <c r="AV128" s="23"/>
-      <c r="AW128" s="23"/>
-      <c r="AX128" s="22">
+      <c r="AU128" s="21"/>
+      <c r="AV128" s="21"/>
+      <c r="AW128" s="21"/>
+      <c r="AX128" s="20">
         <v>2012</v>
       </c>
-      <c r="AY128" s="23"/>
-      <c r="AZ128" s="23"/>
-      <c r="BA128" s="23"/>
-      <c r="BB128" s="22">
+      <c r="AY128" s="21"/>
+      <c r="AZ128" s="21"/>
+      <c r="BA128" s="21"/>
+      <c r="BB128" s="20">
         <v>2013</v>
       </c>
-      <c r="BC128" s="23"/>
-      <c r="BD128" s="23"/>
-      <c r="BE128" s="23"/>
-      <c r="BF128" s="22">
+      <c r="BC128" s="21"/>
+      <c r="BD128" s="21"/>
+      <c r="BE128" s="21"/>
+      <c r="BF128" s="20">
         <v>2014</v>
       </c>
-      <c r="BG128" s="23"/>
-      <c r="BH128" s="23"/>
-      <c r="BI128" s="23"/>
-      <c r="BJ128" s="22">
+      <c r="BG128" s="21"/>
+      <c r="BH128" s="21"/>
+      <c r="BI128" s="21"/>
+      <c r="BJ128" s="20">
         <v>2015</v>
       </c>
-      <c r="BK128" s="23"/>
-      <c r="BL128" s="23"/>
-      <c r="BM128" s="23"/>
-      <c r="BN128" s="22">
+      <c r="BK128" s="21"/>
+      <c r="BL128" s="21"/>
+      <c r="BM128" s="21"/>
+      <c r="BN128" s="20">
         <v>2016</v>
       </c>
-      <c r="BO128" s="23"/>
-      <c r="BP128" s="23"/>
-      <c r="BQ128" s="23"/>
-      <c r="BR128" s="22">
+      <c r="BO128" s="21"/>
+      <c r="BP128" s="21"/>
+      <c r="BQ128" s="21"/>
+      <c r="BR128" s="20">
         <v>2017</v>
       </c>
-      <c r="BS128" s="23"/>
-      <c r="BT128" s="23"/>
-      <c r="BU128" s="23"/>
-      <c r="BV128" s="22">
+      <c r="BS128" s="21"/>
+      <c r="BT128" s="21"/>
+      <c r="BU128" s="21"/>
+      <c r="BV128" s="20">
         <v>2018</v>
       </c>
-      <c r="BW128" s="22"/>
-      <c r="BX128" s="22"/>
-      <c r="BY128" s="22"/>
-      <c r="BZ128" s="22">
+      <c r="BW128" s="20"/>
+      <c r="BX128" s="20"/>
+      <c r="BY128" s="20"/>
+      <c r="BZ128" s="20">
         <v>2019</v>
       </c>
-      <c r="CA128" s="22"/>
-      <c r="CB128" s="22"/>
-      <c r="CC128" s="22"/>
-      <c r="CD128" s="22">
+      <c r="CA128" s="20"/>
+      <c r="CB128" s="20"/>
+      <c r="CC128" s="20"/>
+      <c r="CD128" s="20">
         <v>2020</v>
       </c>
-      <c r="CE128" s="22"/>
-      <c r="CF128" s="22"/>
-      <c r="CG128" s="22"/>
-      <c r="CH128" s="22">
+      <c r="CE128" s="20"/>
+      <c r="CF128" s="20"/>
+      <c r="CG128" s="20"/>
+      <c r="CH128" s="20">
         <v>2021</v>
       </c>
-      <c r="CI128" s="22"/>
-      <c r="CJ128" s="22"/>
-      <c r="CK128" s="22"/>
-      <c r="CL128" s="22">
+      <c r="CI128" s="20"/>
+      <c r="CJ128" s="20"/>
+      <c r="CK128" s="20"/>
+      <c r="CL128" s="20">
         <v>2022</v>
       </c>
-      <c r="CM128" s="22"/>
+      <c r="CM128" s="20"/>
+      <c r="CN128" s="20"/>
     </row>
-    <row r="129" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>4</v>
       </c>
@@ -37749,11 +37822,14 @@
       <c r="CM129" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN129" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="130" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -38025,9 +38101,11 @@
         <v>16.882380937175107</v>
       </c>
       <c r="CM131" s="14">
-        <v>14.800119089677169</v>
-      </c>
-      <c r="CN131" s="9"/>
+        <v>14.564879833412977</v>
+      </c>
+      <c r="CN131" s="14">
+        <v>14.998635158245355</v>
+      </c>
       <c r="CO131" s="9"/>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -38090,7 +38168,7 @@
       <c r="EV131" s="9"/>
       <c r="EW131" s="9"/>
     </row>
-    <row r="132" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -38362,9 +38440,11 @@
         <v>80.110770520750535</v>
       </c>
       <c r="CM132" s="14">
-        <v>83.511818382897502</v>
-      </c>
-      <c r="CN132" s="9"/>
+        <v>83.743246891275874</v>
+      </c>
+      <c r="CN132" s="14">
+        <v>82.571959215204828</v>
+      </c>
       <c r="CO132" s="9"/>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
@@ -38427,7 +38507,7 @@
       <c r="EV132" s="9"/>
       <c r="EW132" s="9"/>
     </row>
-    <row r="133" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -38699,9 +38779,11 @@
         <v>3.0068485420743523</v>
       </c>
       <c r="CM133" s="14">
-        <v>1.6880625274253225</v>
-      </c>
-      <c r="CN133" s="9"/>
+        <v>1.6918732753111545</v>
+      </c>
+      <c r="CN133" s="14">
+        <v>2.429405626549813</v>
+      </c>
       <c r="CO133" s="9"/>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
@@ -38764,7 +38846,7 @@
       <c r="EV133" s="9"/>
       <c r="EW133" s="9"/>
     </row>
-    <row r="134" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -38918,7 +39000,7 @@
       <c r="EV134" s="9"/>
       <c r="EW134" s="9"/>
     </row>
-    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:153" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -39192,7 +39274,9 @@
       <c r="CM135" s="14">
         <v>100</v>
       </c>
-      <c r="CN135" s="9"/>
+      <c r="CN135" s="14">
+        <v>100</v>
+      </c>
       <c r="CO135" s="9"/>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
@@ -39255,7 +39339,7 @@
       <c r="EV135" s="9"/>
       <c r="EW135" s="9"/>
     </row>
-    <row r="136" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -39347,13 +39431,14 @@
       <c r="CK136" s="12"/>
       <c r="CL136" s="12"/>
       <c r="CM136" s="12"/>
+      <c r="CN136" s="12"/>
     </row>
-    <row r="137" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -39445,7 +39530,7 @@
       <c r="CK138" s="1"/>
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
-      <c r="CN138" s="15"/>
+      <c r="CN138" s="1"/>
       <c r="CO138" s="15"/>
       <c r="CP138" s="15"/>
       <c r="CQ138" s="15"/>
@@ -39508,7 +39593,7 @@
       <c r="EV138" s="15"/>
       <c r="EW138" s="15"/>
     </row>
-    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:153" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -39600,7 +39685,7 @@
       <c r="CK139" s="1"/>
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
-      <c r="CN139" s="15"/>
+      <c r="CN139" s="1"/>
       <c r="CO139" s="15"/>
       <c r="CP139" s="15"/>
       <c r="CQ139" s="15"/>
@@ -39664,42 +39749,106 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL29:CN29"/>
+    <mergeCell ref="CH49:CJ49"/>
+    <mergeCell ref="CL49:CM49"/>
+    <mergeCell ref="CH69:CJ69"/>
+    <mergeCell ref="CL69:CM69"/>
+    <mergeCell ref="CL88:CN88"/>
+    <mergeCell ref="CL108:CN108"/>
+    <mergeCell ref="CL128:CN128"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B29:E29"/>
@@ -39724,115 +39873,53 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
     <mergeCell ref="BF108:BI108"/>
     <mergeCell ref="BJ108:BM108"/>
     <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL29:CM29"/>
-    <mergeCell ref="CH49:CI49"/>
-    <mergeCell ref="CH69:CI69"/>
-    <mergeCell ref="CL88:CM88"/>
-    <mergeCell ref="CL108:CM108"/>
-    <mergeCell ref="CL128:CM128"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="90" man="1"/>
-    <brk id="80" max="90" man="1"/>
-    <brk id="99" max="90" man="1"/>
+    <brk id="40" max="91" man="1"/>
+    <brk id="80" max="91" man="1"/>
+    <brk id="99" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF08C4-512B-4B52-B6A7-2F9C9DD6194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27589A-F370-4828-8DB8-D80269975235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CN$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CO$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15142,7 +15142,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15851,7 +15851,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15874,7 +15874,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15903,7 +15903,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15966,7 +15966,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15995,7 +15995,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16026,7 +16026,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18420,7 +18420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18508,7 +18508,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18529,7 +18529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18586,7 +18586,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18603,7 +18603,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18644,7 +18644,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18657,7 +18657,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18704,7 +18704,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18733,7 +18733,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23150,7 +23150,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23193,7 +23193,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23595,7 +23595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23608,10 +23608,10 @@
   </sheetPr>
   <dimension ref="A1:EW139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23619,8 +23619,8 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23635,7 +23635,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23645,7 +23645,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23792,6 +23792,7 @@
       </c>
       <c r="CM9" s="20"/>
       <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24069,6 +24070,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24349,9 +24353,11 @@
         <v>138983.11386234284</v>
       </c>
       <c r="CN12" s="17">
-        <v>171914.01614653756</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>170014.87812115607</v>
+      </c>
+      <c r="CO12" s="17">
+        <v>244254.19187860197</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24688,9 +24694,11 @@
         <v>765864.18356986763</v>
       </c>
       <c r="CN13" s="17">
-        <v>902793.88448029058</v>
-      </c>
-      <c r="CO13" s="9"/>
+        <v>904696.54798689997</v>
+      </c>
+      <c r="CO13" s="17">
+        <v>920000.44568700506</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -25027,9 +25035,11 @@
         <v>14582.738614062011</v>
       </c>
       <c r="CN14" s="17">
-        <v>24405.247702609726</v>
-      </c>
-      <c r="CO14" s="9"/>
+        <v>24393.884626479779</v>
+      </c>
+      <c r="CO14" s="17">
+        <v>26008.690000626193</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -25520,9 +25530,11 @@
         <v>919430.03604627249</v>
       </c>
       <c r="CN16" s="18">
-        <v>1099113.1483294379</v>
-      </c>
-      <c r="CO16" s="9"/>
+        <v>1099105.3107345358</v>
+      </c>
+      <c r="CO16" s="18">
+        <v>1190263.3275662332</v>
+      </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
@@ -25677,6 +25689,7 @@
       <c r="CL17" s="12"/>
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -26003,7 +26016,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26013,7 +26026,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26160,6 +26173,7 @@
       </c>
       <c r="CM29" s="20"/>
       <c r="CN29" s="20"/>
+      <c r="CO29" s="20"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26437,6 +26451,9 @@
       </c>
       <c r="CN30" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO30" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26717,9 +26734,11 @@
         <v>125350.96413813224</v>
       </c>
       <c r="CN32" s="17">
-        <v>152688.66262938149</v>
-      </c>
-      <c r="CO32" s="9"/>
+        <v>150789.67679592464</v>
+      </c>
+      <c r="CO32" s="17">
+        <v>209349.10950793239</v>
+      </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
@@ -27056,9 +27075,11 @@
         <v>720726.62857110938</v>
       </c>
       <c r="CN33" s="17">
-        <v>840596.6203082446</v>
-      </c>
-      <c r="CO33" s="9"/>
+        <v>841838.43764783745</v>
+      </c>
+      <c r="CO33" s="17">
+        <v>849788.74469531933</v>
+      </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
@@ -27395,9 +27416,11 @@
         <v>14560.912872982955</v>
       </c>
       <c r="CN34" s="17">
-        <v>24731.763403036268</v>
-      </c>
-      <c r="CO34" s="9"/>
+        <v>24746.447614074787</v>
+      </c>
+      <c r="CO34" s="17">
+        <v>25863.523017486423</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
@@ -27551,7 +27574,7 @@
       <c r="CL35" s="18"/>
       <c r="CM35" s="18"/>
       <c r="CN35" s="18"/>
-      <c r="CO35" s="9"/>
+      <c r="CO35" s="18"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -27888,9 +27911,11 @@
         <v>860638.50558222458</v>
       </c>
       <c r="CN36" s="18">
-        <v>1018017.0463406624</v>
-      </c>
-      <c r="CO36" s="9"/>
+        <v>1017374.5620578369</v>
+      </c>
+      <c r="CO36" s="18">
+        <v>1085001.377220738</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
@@ -28045,6 +28070,7 @@
       <c r="CL37" s="12"/>
       <c r="CM37" s="12"/>
       <c r="CN37" s="12"/>
+      <c r="CO37" s="12"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28371,7 +28397,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28381,7 +28407,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28522,10 +28548,11 @@
       </c>
       <c r="CI49" s="20"/>
       <c r="CJ49" s="20"/>
-      <c r="CK49" s="19"/>
+      <c r="CK49" s="20"/>
       <c r="CL49" s="20"/>
       <c r="CM49" s="20"/>
       <c r="CN49" s="19"/>
+      <c r="CO49" s="19"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28792,10 +28819,13 @@
       <c r="CJ50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK50" s="5"/>
+      <c r="CK50" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL50" s="5"/>
       <c r="CM50" s="5"/>
       <c r="CN50" s="5"/>
+      <c r="CO50" s="5"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29063,13 +29093,15 @@
         <v>6.5578220492546535</v>
       </c>
       <c r="CJ52" s="14">
-        <v>6.7952228411280515</v>
-      </c>
-      <c r="CK52" s="14"/>
+        <v>5.6154535984980924</v>
+      </c>
+      <c r="CK52" s="14">
+        <v>12.05018006833896</v>
+      </c>
       <c r="CL52" s="14"/>
       <c r="CM52" s="14"/>
       <c r="CN52" s="14"/>
-      <c r="CO52" s="9"/>
+      <c r="CO52" s="14"/>
       <c r="CP52" s="9"/>
       <c r="CQ52" s="9"/>
       <c r="CR52" s="9"/>
@@ -29390,13 +29422,15 @@
         <v>15.231858555421127</v>
       </c>
       <c r="CJ53" s="14">
-        <v>14.578468208660638</v>
-      </c>
-      <c r="CK53" s="14"/>
+        <v>14.819945553436085</v>
+      </c>
+      <c r="CK53" s="14">
+        <v>16.671559618026194</v>
+      </c>
       <c r="CL53" s="14"/>
       <c r="CM53" s="14"/>
       <c r="CN53" s="14"/>
-      <c r="CO53" s="9"/>
+      <c r="CO53" s="14"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
@@ -29717,13 +29751,15 @@
         <v>31.688415508930944</v>
       </c>
       <c r="CJ54" s="14">
-        <v>39.589225492262159</v>
-      </c>
-      <c r="CK54" s="14"/>
+        <v>39.524232790056601</v>
+      </c>
+      <c r="CK54" s="14">
+        <v>31.895277495533378</v>
+      </c>
       <c r="CL54" s="14"/>
       <c r="CM54" s="14"/>
       <c r="CN54" s="14"/>
-      <c r="CO54" s="9"/>
+      <c r="CO54" s="14"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
@@ -30194,13 +30230,15 @@
         <v>14.054485961444385</v>
       </c>
       <c r="CJ56" s="14">
-        <v>13.734464947155061</v>
-      </c>
-      <c r="CK56" s="14"/>
+        <v>13.733653925410835</v>
+      </c>
+      <c r="CK56" s="14">
+        <v>15.9824464087758</v>
+      </c>
       <c r="CL56" s="14"/>
       <c r="CM56" s="14"/>
       <c r="CN56" s="14"/>
-      <c r="CO56" s="9"/>
+      <c r="CO56" s="14"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
@@ -30351,6 +30389,7 @@
       <c r="CL57" s="12"/>
       <c r="CM57" s="12"/>
       <c r="CN57" s="12"/>
+      <c r="CO57" s="12"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30669,7 +30708,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30679,7 +30718,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30820,10 +30859,11 @@
       </c>
       <c r="CI69" s="20"/>
       <c r="CJ69" s="20"/>
-      <c r="CK69" s="19"/>
+      <c r="CK69" s="20"/>
       <c r="CL69" s="20"/>
       <c r="CM69" s="20"/>
       <c r="CN69" s="19"/>
+      <c r="CO69" s="19"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31090,10 +31130,13 @@
       <c r="CJ70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK70" s="5"/>
+      <c r="CK70" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL70" s="5"/>
       <c r="CM70" s="5"/>
       <c r="CN70" s="5"/>
+      <c r="CO70" s="5"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31361,13 +31404,15 @@
         <v>2.2983662456038161</v>
       </c>
       <c r="CJ72" s="14">
-        <v>1.8944459701393868</v>
-      </c>
-      <c r="CK72" s="14"/>
+        <v>0.62718679009863365</v>
+      </c>
+      <c r="CK72" s="14">
+        <v>4.4779722321287636</v>
+      </c>
       <c r="CL72" s="14"/>
       <c r="CM72" s="14"/>
       <c r="CN72" s="14"/>
-      <c r="CO72" s="9"/>
+      <c r="CO72" s="14"/>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
@@ -31688,13 +31733,15 @@
         <v>10.749828555463893</v>
       </c>
       <c r="CJ73" s="14">
-        <v>9.8415254449040646</v>
-      </c>
-      <c r="CK73" s="14"/>
+        <v>10.003794846909031</v>
+      </c>
+      <c r="CK73" s="14">
+        <v>9.3628098242544411</v>
+      </c>
       <c r="CL73" s="14"/>
       <c r="CM73" s="14"/>
       <c r="CN73" s="14"/>
-      <c r="CO73" s="9"/>
+      <c r="CO73" s="14"/>
       <c r="CP73" s="9"/>
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
@@ -32015,13 +32062,15 @@
         <v>29.096611100081418</v>
       </c>
       <c r="CJ74" s="14">
-        <v>37.223487836025072</v>
-      </c>
-      <c r="CK74" s="14"/>
+        <v>37.304962764520411</v>
+      </c>
+      <c r="CK74" s="14">
+        <v>26.984461331989735</v>
+      </c>
       <c r="CL74" s="14"/>
       <c r="CM74" s="14"/>
       <c r="CN74" s="14"/>
-      <c r="CO74" s="9"/>
+      <c r="CO74" s="14"/>
       <c r="CP74" s="9"/>
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
@@ -32492,13 +32541,15 @@
         <v>9.6936477537920922</v>
       </c>
       <c r="CJ76" s="14">
-        <v>9.0942062292409531</v>
-      </c>
-      <c r="CK76" s="14"/>
+        <v>9.0253554048843796</v>
+      </c>
+      <c r="CK76" s="14">
+        <v>8.741533372163417</v>
+      </c>
       <c r="CL76" s="14"/>
       <c r="CM76" s="14"/>
       <c r="CN76" s="14"/>
-      <c r="CO76" s="9"/>
+      <c r="CO76" s="14"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
@@ -32649,6 +32700,7 @@
       <c r="CL77" s="12"/>
       <c r="CM77" s="12"/>
       <c r="CN77" s="12"/>
+      <c r="CO77" s="12"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -32962,7 +33014,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -32972,7 +33024,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33119,6 +33171,7 @@
       </c>
       <c r="CM88" s="20"/>
       <c r="CN88" s="20"/>
+      <c r="CO88" s="20"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33396,6 +33449,9 @@
       </c>
       <c r="CN89" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO89" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33676,9 +33732,11 @@
         <v>110.87518537886032</v>
       </c>
       <c r="CN91" s="14">
-        <v>112.59121220009729</v>
-      </c>
-      <c r="CO91" s="9"/>
+        <v>112.74968004026589</v>
+      </c>
+      <c r="CO91" s="14">
+        <v>116.67314585321749</v>
+      </c>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
@@ -34015,9 +34073,11 @@
         <v>106.26278441914192</v>
       </c>
       <c r="CN92" s="14">
-        <v>107.39918085195708</v>
-      </c>
-      <c r="CO92" s="9"/>
+        <v>107.46676648724819</v>
+      </c>
+      <c r="CO92" s="14">
+        <v>108.26225358125438</v>
+      </c>
       <c r="CP92" s="9"/>
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
@@ -34354,9 +34414,11 @@
         <v>100.14989266998194</v>
       </c>
       <c r="CN93" s="14">
-        <v>98.679771858134231</v>
-      </c>
-      <c r="CO93" s="9"/>
+        <v>98.575298591970494</v>
+      </c>
+      <c r="CO93" s="14">
+        <v>100.56128077772553</v>
+      </c>
       <c r="CP93" s="9"/>
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
@@ -34847,9 +34909,11 @@
         <v>106.83115269450735</v>
       </c>
       <c r="CN95" s="14">
-        <v>107.96608487846852</v>
-      </c>
-      <c r="CO95" s="9"/>
+        <v>108.03349638616702</v>
+      </c>
+      <c r="CO95" s="14">
+        <v>109.70154992937675</v>
+      </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
@@ -35004,6 +35068,7 @@
       <c r="CL96" s="12"/>
       <c r="CM96" s="12"/>
       <c r="CN96" s="12"/>
+      <c r="CO96" s="12"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35022,7 +35087,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35032,7 +35097,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35179,6 +35244,7 @@
       </c>
       <c r="CM108" s="20"/>
       <c r="CN108" s="20"/>
+      <c r="CO108" s="20"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35456,6 +35522,9 @@
       </c>
       <c r="CN109" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO109" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35736,9 +35805,11 @@
         <v>15.11622509745246</v>
       </c>
       <c r="CN111" s="14">
-        <v>15.641157273737722</v>
-      </c>
-      <c r="CO111" s="9"/>
+        <v>15.468479358682613</v>
+      </c>
+      <c r="CO111" s="14">
+        <v>20.521021375835861</v>
+      </c>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
@@ -36075,9 +36146,11 @@
         <v>83.297712011153365</v>
       </c>
       <c r="CN112" s="14">
-        <v>82.138393654235088</v>
-      </c>
-      <c r="CO112" s="9"/>
+        <v>82.312089583325559</v>
+      </c>
+      <c r="CO112" s="14">
+        <v>77.29385795395018</v>
+      </c>
       <c r="CP112" s="9"/>
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
@@ -36414,9 +36487,11 @@
         <v>1.5860628913941748</v>
       </c>
       <c r="CN113" s="14">
-        <v>2.2204490720271797</v>
-      </c>
-      <c r="CO113" s="9"/>
+        <v>2.2194310579918191</v>
+      </c>
+      <c r="CO113" s="14">
+        <v>2.1851206702139545</v>
+      </c>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
@@ -36909,7 +36984,9 @@
       <c r="CN115" s="14">
         <v>100</v>
       </c>
-      <c r="CO115" s="9"/>
+      <c r="CO115" s="14">
+        <v>100</v>
+      </c>
       <c r="CP115" s="9"/>
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
@@ -37064,6 +37141,7 @@
       <c r="CL116" s="12"/>
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
+      <c r="CO116" s="12"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37390,7 +37468,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37400,7 +37478,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37547,6 +37625,7 @@
       </c>
       <c r="CM128" s="20"/>
       <c r="CN128" s="20"/>
+      <c r="CO128" s="20"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37824,6 +37903,9 @@
       </c>
       <c r="CN129" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO129" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38104,9 +38186,11 @@
         <v>14.564879833412977</v>
       </c>
       <c r="CN131" s="14">
-        <v>14.998635158245355</v>
-      </c>
-      <c r="CO131" s="9"/>
+        <v>14.821451451560117</v>
+      </c>
+      <c r="CO131" s="14">
+        <v>19.294824311116184</v>
+      </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
@@ -38443,9 +38527,11 @@
         <v>83.743246891275874</v>
       </c>
       <c r="CN132" s="14">
-        <v>82.571959215204828</v>
-      </c>
-      <c r="CO132" s="9"/>
+        <v>82.746165379352149</v>
+      </c>
+      <c r="CO132" s="14">
+        <v>78.321443874299717</v>
+      </c>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
@@ -38782,9 +38868,11 @@
         <v>1.6918732753111545</v>
       </c>
       <c r="CN133" s="14">
-        <v>2.429405626549813</v>
-      </c>
-      <c r="CO133" s="9"/>
+        <v>2.4323831690877258</v>
+      </c>
+      <c r="CO133" s="14">
+        <v>2.3837318145841047</v>
+      </c>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
@@ -39277,7 +39365,9 @@
       <c r="CN135" s="14">
         <v>100</v>
       </c>
-      <c r="CO135" s="9"/>
+      <c r="CO135" s="14">
+        <v>100</v>
+      </c>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
@@ -39432,6 +39522,7 @@
       <c r="CL136" s="12"/>
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
+      <c r="CO136" s="12"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -39531,7 +39622,7 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
-      <c r="CO138" s="15"/>
+      <c r="CO138" s="1"/>
       <c r="CP138" s="15"/>
       <c r="CQ138" s="15"/>
       <c r="CR138" s="15"/>
@@ -39686,7 +39777,7 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
-      <c r="CO139" s="15"/>
+      <c r="CO139" s="1"/>
       <c r="CP139" s="15"/>
       <c r="CQ139" s="15"/>
       <c r="CR139" s="15"/>
@@ -39750,105 +39841,42 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL29:CN29"/>
-    <mergeCell ref="CH49:CJ49"/>
-    <mergeCell ref="CL49:CM49"/>
-    <mergeCell ref="CH69:CJ69"/>
-    <mergeCell ref="CL69:CM69"/>
-    <mergeCell ref="CL88:CN88"/>
-    <mergeCell ref="CL108:CN108"/>
-    <mergeCell ref="CL128:CN128"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B29:E29"/>
@@ -39873,53 +39901,116 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="CL29:CO29"/>
+    <mergeCell ref="CH49:CK49"/>
+    <mergeCell ref="CH69:CK69"/>
+    <mergeCell ref="CL88:CO88"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CL49:CM49"/>
+    <mergeCell ref="CL69:CM69"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CD9:CG9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="91" man="1"/>
-    <brk id="80" max="91" man="1"/>
-    <brk id="99" max="91" man="1"/>
+    <brk id="40" max="92" man="1"/>
+    <brk id="80" max="92" man="1"/>
+    <brk id="99" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27589A-F370-4828-8DB8-D80269975235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF723E-52FE-4A56-88DF-4B7DB7B55D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,9 +736,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23595,7 +23592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23609,9 +23606,9 @@
   <dimension ref="A1:EW139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23635,7 +23632,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23645,7 +23642,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23655,144 +23652,144 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17"/>
+      <c r="CL9" s="17">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="17"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24334,29 +24331,29 @@
       <c r="CG12" s="8">
         <v>202885.43723331287</v>
       </c>
-      <c r="CH12" s="17">
+      <c r="CH12" s="8">
         <v>125934.52691420163</v>
       </c>
-      <c r="CI12" s="17">
+      <c r="CI12" s="8">
         <v>130429.76216058555</v>
       </c>
-      <c r="CJ12" s="17">
+      <c r="CJ12" s="8">
         <v>160975.38033352135</v>
       </c>
-      <c r="CK12" s="17">
-        <v>217986.43405091568</v>
-      </c>
-      <c r="CL12" s="17">
-        <v>139742.9469087047</v>
-      </c>
-      <c r="CM12" s="17">
-        <v>138983.11386234284</v>
-      </c>
-      <c r="CN12" s="17">
-        <v>170014.87812115607</v>
-      </c>
-      <c r="CO12" s="17">
-        <v>244254.19187860197</v>
+      <c r="CK12" s="8">
+        <v>218460.87099809165</v>
+      </c>
+      <c r="CL12" s="8">
+        <v>140348.40204561496</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>138690.4582942425</v>
+      </c>
+      <c r="CN12" s="8">
+        <v>169840.95964924814</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>241632.29360239604</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24675,29 +24672,29 @@
       <c r="CG13" s="8">
         <v>720588.29363605776</v>
       </c>
-      <c r="CH13" s="17">
+      <c r="CH13" s="8">
         <v>556310.12994573393</v>
       </c>
-      <c r="CI13" s="17">
+      <c r="CI13" s="8">
         <v>664628.85626506037</v>
       </c>
-      <c r="CJ13" s="17">
+      <c r="CJ13" s="8">
         <v>787926.29941272957</v>
       </c>
-      <c r="CK13" s="17">
-        <v>788538.73960287869</v>
-      </c>
-      <c r="CL13" s="17">
-        <v>615882.96401822648</v>
-      </c>
-      <c r="CM13" s="17">
-        <v>765864.18356986763</v>
-      </c>
-      <c r="CN13" s="17">
-        <v>904696.54798689997</v>
-      </c>
-      <c r="CO13" s="17">
-        <v>920000.44568700506</v>
+      <c r="CK13" s="8">
+        <v>787589.95453127439</v>
+      </c>
+      <c r="CL13" s="8">
+        <v>615661.71914874716</v>
+      </c>
+      <c r="CM13" s="8">
+        <v>766091.80746634072</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>905030.62429906428</v>
+      </c>
+      <c r="CO13" s="8">
+        <v>922319.92134977039</v>
       </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -25016,29 +25013,29 @@
       <c r="CG14" s="8">
         <v>18700.19865871939</v>
       </c>
-      <c r="CH14" s="17">
+      <c r="CH14" s="8">
         <v>22229.866504719321</v>
       </c>
-      <c r="CI14" s="17">
+      <c r="CI14" s="8">
         <v>11073.668521034813</v>
       </c>
-      <c r="CJ14" s="17">
+      <c r="CJ14" s="8">
         <v>17483.618536133064</v>
       </c>
-      <c r="CK14" s="17">
-        <v>19719.197301440134</v>
-      </c>
-      <c r="CL14" s="17">
-        <v>23009.414939819319</v>
-      </c>
-      <c r="CM14" s="17">
-        <v>14582.738614062011</v>
-      </c>
-      <c r="CN14" s="17">
-        <v>24393.884626479779</v>
-      </c>
-      <c r="CO14" s="17">
-        <v>26008.690000626193</v>
+      <c r="CK14" s="8">
+        <v>19751.559694940119</v>
+      </c>
+      <c r="CL14" s="8">
+        <v>23095.367766268962</v>
+      </c>
+      <c r="CM14" s="8">
+        <v>14584.634370317533</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>24467.709139487404</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>25755.169536635767</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25511,29 +25508,29 @@
       <c r="CG16" s="11">
         <v>942173.92952809006</v>
       </c>
-      <c r="CH16" s="18">
+      <c r="CH16" s="11">
         <v>704474.52336465498</v>
       </c>
-      <c r="CI16" s="18">
+      <c r="CI16" s="11">
         <v>806132.28694668063</v>
       </c>
-      <c r="CJ16" s="18">
+      <c r="CJ16" s="11">
         <v>966385.29828238394</v>
       </c>
-      <c r="CK16" s="18">
-        <v>1026244.3709552345</v>
-      </c>
-      <c r="CL16" s="18">
-        <v>778635.32586675056</v>
-      </c>
-      <c r="CM16" s="18">
-        <v>919430.03604627249</v>
-      </c>
-      <c r="CN16" s="18">
-        <v>1099105.3107345358</v>
-      </c>
-      <c r="CO16" s="18">
-        <v>1190263.3275662332</v>
+      <c r="CK16" s="11">
+        <v>1025802.3852243061</v>
+      </c>
+      <c r="CL16" s="11">
+        <v>779105.48896063119</v>
+      </c>
+      <c r="CM16" s="11">
+        <v>919366.90013090079</v>
+      </c>
+      <c r="CN16" s="11">
+        <v>1099339.2930877998</v>
+      </c>
+      <c r="CO16" s="11">
+        <v>1189707.3844888022</v>
       </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -26016,7 +26013,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26026,7 +26023,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26036,144 +26033,144 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="20">
+      <c r="B29" s="17">
         <v>2000</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17">
         <v>2001</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="20">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17">
         <v>2002</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="20">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17">
         <v>2003</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="20">
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="17">
         <v>2004</v>
       </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="20">
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="17">
         <v>2005</v>
       </c>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="20">
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="17">
         <v>2006</v>
       </c>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="20">
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="17">
         <v>2007</v>
       </c>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="20">
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="17">
         <v>2008</v>
       </c>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="20">
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="17">
         <v>2009</v>
       </c>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="20">
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="20">
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="17">
         <v>2011</v>
       </c>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="20">
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="17">
         <v>2012</v>
       </c>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="20">
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="17">
         <v>2013</v>
       </c>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="20">
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="17">
         <v>2014</v>
       </c>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
-      <c r="BI29" s="21"/>
-      <c r="BJ29" s="20">
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BI29" s="18"/>
+      <c r="BJ29" s="17">
         <v>2015</v>
       </c>
-      <c r="BK29" s="21"/>
-      <c r="BL29" s="21"/>
-      <c r="BM29" s="21"/>
-      <c r="BN29" s="20">
+      <c r="BK29" s="18"/>
+      <c r="BL29" s="18"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="17">
         <v>2016</v>
       </c>
-      <c r="BO29" s="21"/>
-      <c r="BP29" s="21"/>
-      <c r="BQ29" s="21"/>
-      <c r="BR29" s="20">
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="18"/>
+      <c r="BQ29" s="18"/>
+      <c r="BR29" s="17">
         <v>2017</v>
       </c>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="21"/>
-      <c r="BU29" s="21"/>
-      <c r="BV29" s="20">
+      <c r="BS29" s="18"/>
+      <c r="BT29" s="18"/>
+      <c r="BU29" s="18"/>
+      <c r="BV29" s="17">
         <v>2018</v>
       </c>
-      <c r="BW29" s="20"/>
-      <c r="BX29" s="20"/>
-      <c r="BY29" s="20"/>
-      <c r="BZ29" s="20">
+      <c r="BW29" s="17"/>
+      <c r="BX29" s="17"/>
+      <c r="BY29" s="17"/>
+      <c r="BZ29" s="17">
         <v>2019</v>
       </c>
-      <c r="CA29" s="20"/>
-      <c r="CB29" s="20"/>
-      <c r="CC29" s="20"/>
-      <c r="CD29" s="20">
+      <c r="CA29" s="17"/>
+      <c r="CB29" s="17"/>
+      <c r="CC29" s="17"/>
+      <c r="CD29" s="17">
         <v>2020</v>
       </c>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="20">
+      <c r="CE29" s="17"/>
+      <c r="CF29" s="17"/>
+      <c r="CG29" s="17"/>
+      <c r="CH29" s="17">
         <v>2021</v>
       </c>
-      <c r="CI29" s="20"/>
-      <c r="CJ29" s="20"/>
-      <c r="CK29" s="20"/>
-      <c r="CL29" s="20">
+      <c r="CI29" s="17"/>
+      <c r="CJ29" s="17"/>
+      <c r="CK29" s="17"/>
+      <c r="CL29" s="17">
         <v>2022</v>
       </c>
-      <c r="CM29" s="20"/>
-      <c r="CN29" s="20"/>
-      <c r="CO29" s="20"/>
+      <c r="CM29" s="17"/>
+      <c r="CN29" s="17"/>
+      <c r="CO29" s="17"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26715,29 +26712,29 @@
       <c r="CG32" s="8">
         <v>194822.09031976195</v>
       </c>
-      <c r="CH32" s="17">
+      <c r="CH32" s="8">
         <v>117334.74706809164</v>
       </c>
-      <c r="CI32" s="17">
+      <c r="CI32" s="8">
         <v>122534.66867416279</v>
       </c>
-      <c r="CJ32" s="17">
+      <c r="CJ32" s="8">
         <v>149849.83840446768</v>
       </c>
-      <c r="CK32" s="17">
-        <v>200376.31381551066</v>
-      </c>
-      <c r="CL32" s="17">
-        <v>126215.82761218885</v>
-      </c>
-      <c r="CM32" s="17">
-        <v>125350.96413813224</v>
-      </c>
-      <c r="CN32" s="17">
-        <v>150789.67679592464</v>
-      </c>
-      <c r="CO32" s="17">
-        <v>209349.10950793239</v>
+      <c r="CK32" s="8">
+        <v>200812.08186680658</v>
+      </c>
+      <c r="CL32" s="8">
+        <v>126762.67468302601</v>
+      </c>
+      <c r="CM32" s="8">
+        <v>125087.01367247998</v>
+      </c>
+      <c r="CN32" s="8">
+        <v>150635.17151022534</v>
+      </c>
+      <c r="CO32" s="8">
+        <v>207103.66086608323</v>
       </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -27056,29 +27053,29 @@
       <c r="CG33" s="8">
         <v>717282.76015728002</v>
       </c>
-      <c r="CH33" s="17">
+      <c r="CH33" s="8">
         <v>559420.39392693527</v>
       </c>
-      <c r="CI33" s="17">
+      <c r="CI33" s="8">
         <v>650769.9722624555</v>
       </c>
-      <c r="CJ33" s="17">
+      <c r="CJ33" s="8">
         <v>765281.26945021667</v>
       </c>
-      <c r="CK33" s="17">
-        <v>777036.31249135442</v>
-      </c>
-      <c r="CL33" s="17">
-        <v>598923.05709449085</v>
-      </c>
-      <c r="CM33" s="17">
-        <v>720726.62857110938</v>
-      </c>
-      <c r="CN33" s="17">
-        <v>841838.43764783745</v>
-      </c>
-      <c r="CO33" s="17">
-        <v>849788.74469531933</v>
+      <c r="CK33" s="8">
+        <v>776104.75498984067</v>
+      </c>
+      <c r="CL33" s="8">
+        <v>598705.97796946391</v>
+      </c>
+      <c r="CM33" s="8">
+        <v>720940.83705220371</v>
+      </c>
+      <c r="CN33" s="8">
+        <v>842149.34253795329</v>
+      </c>
+      <c r="CO33" s="8">
+        <v>851923.69798693701</v>
       </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27397,29 +27394,29 @@
       <c r="CG34" s="8">
         <v>19200.638762867737</v>
       </c>
-      <c r="CH34" s="17">
+      <c r="CH34" s="8">
         <v>22053.277989249957</v>
       </c>
-      <c r="CI34" s="17">
+      <c r="CI34" s="8">
         <v>11279.082191936619</v>
       </c>
-      <c r="CJ34" s="17">
+      <c r="CJ34" s="8">
         <v>18022.981191521263</v>
       </c>
-      <c r="CK34" s="17">
-        <v>20367.470748935582</v>
-      </c>
-      <c r="CL34" s="17">
-        <v>22479.760328516833</v>
-      </c>
-      <c r="CM34" s="17">
-        <v>14560.912872982955</v>
-      </c>
-      <c r="CN34" s="17">
-        <v>24746.447614074787</v>
-      </c>
-      <c r="CO34" s="17">
-        <v>25863.523017486423</v>
+      <c r="CK34" s="8">
+        <v>20400.833823469795</v>
+      </c>
+      <c r="CL34" s="8">
+        <v>22563.637330458128</v>
+      </c>
+      <c r="CM34" s="8">
+        <v>14562.805321625045</v>
+      </c>
+      <c r="CN34" s="8">
+        <v>24821.355552486639</v>
+      </c>
+      <c r="CO34" s="8">
+        <v>25611.880634098241</v>
       </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27567,14 +27564,14 @@
       <c r="CE35" s="11"/>
       <c r="CF35" s="11"/>
       <c r="CG35" s="11"/>
-      <c r="CH35" s="18"/>
-      <c r="CI35" s="18"/>
-      <c r="CJ35" s="18"/>
-      <c r="CK35" s="18"/>
-      <c r="CL35" s="18"/>
-      <c r="CM35" s="18"/>
-      <c r="CN35" s="18"/>
-      <c r="CO35" s="18"/>
+      <c r="CH35" s="11"/>
+      <c r="CI35" s="11"/>
+      <c r="CJ35" s="11"/>
+      <c r="CK35" s="11"/>
+      <c r="CL35" s="11"/>
+      <c r="CM35" s="11"/>
+      <c r="CN35" s="11"/>
+      <c r="CO35" s="11"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -27892,29 +27889,29 @@
       <c r="CG36" s="11">
         <v>931305.48923990969</v>
       </c>
-      <c r="CH36" s="18">
+      <c r="CH36" s="11">
         <v>698808.41898427682</v>
       </c>
-      <c r="CI36" s="18">
+      <c r="CI36" s="11">
         <v>784583.72312855499</v>
       </c>
-      <c r="CJ36" s="18">
+      <c r="CJ36" s="11">
         <v>933154.08904620563</v>
       </c>
-      <c r="CK36" s="18">
-        <v>997780.09705580072</v>
-      </c>
-      <c r="CL36" s="18">
-        <v>747618.64503519656</v>
-      </c>
-      <c r="CM36" s="18">
-        <v>860638.50558222458</v>
-      </c>
-      <c r="CN36" s="18">
-        <v>1017374.5620578369</v>
-      </c>
-      <c r="CO36" s="18">
-        <v>1085001.377220738</v>
+      <c r="CK36" s="11">
+        <v>997317.67068011709</v>
+      </c>
+      <c r="CL36" s="11">
+        <v>748032.2899829481</v>
+      </c>
+      <c r="CM36" s="11">
+        <v>860590.65604630881</v>
+      </c>
+      <c r="CN36" s="11">
+        <v>1017605.8696006653</v>
+      </c>
+      <c r="CO36" s="11">
+        <v>1084639.2394871186</v>
       </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28397,7 +28394,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28407,7 +28404,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28417,142 +28414,142 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20" t="s">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20" t="s">
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20" t="s">
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20" t="s">
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20" t="s">
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20" t="s">
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20" t="s">
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="20" t="s">
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="20"/>
-      <c r="AO49" s="20"/>
-      <c r="AP49" s="20" t="s">
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+      <c r="AP49" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="20"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="20" t="s">
+      <c r="AQ49" s="17"/>
+      <c r="AR49" s="17"/>
+      <c r="AS49" s="17"/>
+      <c r="AT49" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="20"/>
-      <c r="AV49" s="20"/>
-      <c r="AW49" s="20"/>
-      <c r="AX49" s="20" t="s">
+      <c r="AU49" s="17"/>
+      <c r="AV49" s="17"/>
+      <c r="AW49" s="17"/>
+      <c r="AX49" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="20"/>
-      <c r="AZ49" s="20"/>
-      <c r="BA49" s="20"/>
-      <c r="BB49" s="20" t="s">
+      <c r="AY49" s="17"/>
+      <c r="AZ49" s="17"/>
+      <c r="BA49" s="17"/>
+      <c r="BB49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="20"/>
-      <c r="BD49" s="20"/>
-      <c r="BE49" s="20"/>
-      <c r="BF49" s="20" t="s">
+      <c r="BC49" s="17"/>
+      <c r="BD49" s="17"/>
+      <c r="BE49" s="17"/>
+      <c r="BF49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="20"/>
-      <c r="BH49" s="20"/>
-      <c r="BI49" s="20"/>
-      <c r="BJ49" s="20" t="s">
+      <c r="BG49" s="17"/>
+      <c r="BH49" s="17"/>
+      <c r="BI49" s="17"/>
+      <c r="BJ49" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="20"/>
-      <c r="BL49" s="20"/>
-      <c r="BM49" s="20"/>
-      <c r="BN49" s="20" t="s">
+      <c r="BK49" s="17"/>
+      <c r="BL49" s="17"/>
+      <c r="BM49" s="17"/>
+      <c r="BN49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="20"/>
-      <c r="BP49" s="20"/>
-      <c r="BQ49" s="20"/>
-      <c r="BR49" s="20" t="s">
+      <c r="BO49" s="17"/>
+      <c r="BP49" s="17"/>
+      <c r="BQ49" s="17"/>
+      <c r="BR49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="20"/>
-      <c r="BT49" s="20"/>
-      <c r="BU49" s="20"/>
-      <c r="BV49" s="20" t="s">
+      <c r="BS49" s="17"/>
+      <c r="BT49" s="17"/>
+      <c r="BU49" s="17"/>
+      <c r="BV49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="20"/>
-      <c r="BX49" s="20"/>
-      <c r="BY49" s="20"/>
-      <c r="BZ49" s="20" t="s">
+      <c r="BW49" s="17"/>
+      <c r="BX49" s="17"/>
+      <c r="BY49" s="17"/>
+      <c r="BZ49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="20"/>
-      <c r="CB49" s="20"/>
-      <c r="CC49" s="20"/>
-      <c r="CD49" s="20" t="s">
+      <c r="CA49" s="17"/>
+      <c r="CB49" s="17"/>
+      <c r="CC49" s="17"/>
+      <c r="CD49" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="20"/>
-      <c r="CF49" s="20"/>
-      <c r="CG49" s="20"/>
-      <c r="CH49" s="20" t="s">
+      <c r="CE49" s="17"/>
+      <c r="CF49" s="17"/>
+      <c r="CG49" s="17"/>
+      <c r="CH49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="20"/>
-      <c r="CJ49" s="20"/>
-      <c r="CK49" s="20"/>
-      <c r="CL49" s="20"/>
-      <c r="CM49" s="20"/>
-      <c r="CN49" s="19"/>
-      <c r="CO49" s="19"/>
+      <c r="CI49" s="17"/>
+      <c r="CJ49" s="17"/>
+      <c r="CK49" s="17"/>
+      <c r="CL49" s="17"/>
+      <c r="CM49" s="17"/>
+      <c r="CN49" s="17"/>
+      <c r="CO49" s="17"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29084,19 +29081,19 @@
         <v>4.8901593594348043</v>
       </c>
       <c r="CG52" s="14">
-        <v>7.4431152001496628</v>
+        <v>7.6769599519690672</v>
       </c>
       <c r="CH52" s="14">
-        <v>10.964761080899322</v>
+        <v>11.44553085210174</v>
       </c>
       <c r="CI52" s="14">
-        <v>6.5578220492546535</v>
+        <v>6.3334441440492384</v>
       </c>
       <c r="CJ52" s="14">
-        <v>5.6154535984980924</v>
+        <v>5.507413181666891</v>
       </c>
       <c r="CK52" s="14">
-        <v>12.05018006833896</v>
+        <v>10.606669514059931</v>
       </c>
       <c r="CL52" s="14"/>
       <c r="CM52" s="14"/>
@@ -29413,19 +29410,19 @@
         <v>8.5230101989708089</v>
       </c>
       <c r="CG53" s="14">
-        <v>9.4298570441584388</v>
+        <v>9.2981889224329706</v>
       </c>
       <c r="CH53" s="14">
-        <v>10.70856539648193</v>
+        <v>10.668795337018722</v>
       </c>
       <c r="CI53" s="14">
-        <v>15.231858555421127</v>
+        <v>15.266106827118548</v>
       </c>
       <c r="CJ53" s="14">
-        <v>14.819945553436085</v>
+        <v>14.862344990085603</v>
       </c>
       <c r="CK53" s="14">
-        <v>16.671559618026194</v>
+        <v>17.106613161245704</v>
       </c>
       <c r="CL53" s="14"/>
       <c r="CM53" s="14"/>
@@ -29742,19 +29739,19 @@
         <v>-3.6313654008466045</v>
       </c>
       <c r="CG54" s="14">
-        <v>5.4491327141362262</v>
+        <v>5.6221918034571843</v>
       </c>
       <c r="CH54" s="14">
-        <v>3.5067616574957867</v>
+        <v>3.893416370115844</v>
       </c>
       <c r="CI54" s="14">
-        <v>31.688415508930944</v>
+        <v>31.705535005075518</v>
       </c>
       <c r="CJ54" s="14">
-        <v>39.524232790056601</v>
+        <v>39.946482411066398</v>
       </c>
       <c r="CK54" s="14">
-        <v>31.895277495533378</v>
+        <v>30.39562411485727</v>
       </c>
       <c r="CL54" s="14"/>
       <c r="CM54" s="14"/>
@@ -30221,19 +30218,19 @@
         <v>7.6562603196974379</v>
       </c>
       <c r="CG56" s="14">
-        <v>8.923027775694564</v>
+        <v>8.8761165083503641</v>
       </c>
       <c r="CH56" s="14">
-        <v>10.527109220060169</v>
+        <v>10.593848765393219</v>
       </c>
       <c r="CI56" s="14">
-        <v>14.054485961444385</v>
+        <v>14.046654006764754</v>
       </c>
       <c r="CJ56" s="14">
-        <v>13.733653925410835</v>
+        <v>13.757866043877456</v>
       </c>
       <c r="CK56" s="14">
-        <v>15.9824464087758</v>
+        <v>15.978223644767198</v>
       </c>
       <c r="CL56" s="14"/>
       <c r="CM56" s="14"/>
@@ -30708,7 +30705,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30718,7 +30715,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30728,142 +30725,142 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="20" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="20" t="s">
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="20" t="s">
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="20" t="s">
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="20" t="s">
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="20" t="s">
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="20" t="s">
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="20" t="s">
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="20" t="s">
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="19"/>
+      <c r="AK69" s="19"/>
+      <c r="AL69" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="20" t="s">
+      <c r="AM69" s="19"/>
+      <c r="AN69" s="19"/>
+      <c r="AO69" s="19"/>
+      <c r="AP69" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="22"/>
-      <c r="AR69" s="22"/>
-      <c r="AS69" s="22"/>
-      <c r="AT69" s="20" t="s">
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="19"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="22"/>
-      <c r="AV69" s="22"/>
-      <c r="AW69" s="22"/>
-      <c r="AX69" s="20" t="s">
+      <c r="AU69" s="19"/>
+      <c r="AV69" s="19"/>
+      <c r="AW69" s="19"/>
+      <c r="AX69" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="22"/>
-      <c r="AZ69" s="22"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="20" t="s">
+      <c r="AY69" s="19"/>
+      <c r="AZ69" s="19"/>
+      <c r="BA69" s="19"/>
+      <c r="BB69" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="20" t="s">
+      <c r="BC69" s="19"/>
+      <c r="BD69" s="19"/>
+      <c r="BE69" s="19"/>
+      <c r="BF69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="22"/>
-      <c r="BH69" s="22"/>
-      <c r="BI69" s="22"/>
-      <c r="BJ69" s="20" t="s">
+      <c r="BG69" s="19"/>
+      <c r="BH69" s="19"/>
+      <c r="BI69" s="19"/>
+      <c r="BJ69" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="22"/>
-      <c r="BL69" s="22"/>
-      <c r="BM69" s="22"/>
-      <c r="BN69" s="20" t="s">
+      <c r="BK69" s="19"/>
+      <c r="BL69" s="19"/>
+      <c r="BM69" s="19"/>
+      <c r="BN69" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="22"/>
-      <c r="BP69" s="22"/>
-      <c r="BQ69" s="22"/>
-      <c r="BR69" s="20" t="s">
+      <c r="BO69" s="19"/>
+      <c r="BP69" s="19"/>
+      <c r="BQ69" s="19"/>
+      <c r="BR69" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="22"/>
-      <c r="BT69" s="22"/>
-      <c r="BU69" s="22"/>
-      <c r="BV69" s="20" t="s">
+      <c r="BS69" s="19"/>
+      <c r="BT69" s="19"/>
+      <c r="BU69" s="19"/>
+      <c r="BV69" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="20"/>
-      <c r="BX69" s="20"/>
-      <c r="BY69" s="20"/>
-      <c r="BZ69" s="20" t="s">
+      <c r="BW69" s="17"/>
+      <c r="BX69" s="17"/>
+      <c r="BY69" s="17"/>
+      <c r="BZ69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="20"/>
-      <c r="CB69" s="20"/>
-      <c r="CC69" s="20"/>
-      <c r="CD69" s="20" t="s">
+      <c r="CA69" s="17"/>
+      <c r="CB69" s="17"/>
+      <c r="CC69" s="17"/>
+      <c r="CD69" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="20"/>
-      <c r="CF69" s="20"/>
-      <c r="CG69" s="20"/>
-      <c r="CH69" s="20" t="s">
+      <c r="CE69" s="17"/>
+      <c r="CF69" s="17"/>
+      <c r="CG69" s="17"/>
+      <c r="CH69" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="20"/>
-      <c r="CJ69" s="20"/>
-      <c r="CK69" s="20"/>
-      <c r="CL69" s="20"/>
-      <c r="CM69" s="20"/>
-      <c r="CN69" s="19"/>
-      <c r="CO69" s="19"/>
+      <c r="CI69" s="17"/>
+      <c r="CJ69" s="17"/>
+      <c r="CK69" s="17"/>
+      <c r="CL69" s="17"/>
+      <c r="CM69" s="17"/>
+      <c r="CN69" s="17"/>
+      <c r="CO69" s="17"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31395,19 +31392,19 @@
         <v>1.4892254249739665</v>
       </c>
       <c r="CG72" s="14">
-        <v>2.85092079991162</v>
+        <v>3.0745956668533978</v>
       </c>
       <c r="CH72" s="14">
-        <v>7.5690115383666665</v>
+        <v>8.0350687673645069</v>
       </c>
       <c r="CI72" s="14">
-        <v>2.2983662456038161</v>
+        <v>2.0829574404809676</v>
       </c>
       <c r="CJ72" s="14">
-        <v>0.62718679009863365</v>
+        <v>0.52408004848021505</v>
       </c>
       <c r="CK72" s="14">
-        <v>4.4779722321287636</v>
+        <v>3.1330679612443362</v>
       </c>
       <c r="CL72" s="14"/>
       <c r="CM72" s="14"/>
@@ -31724,19 +31721,19 @@
         <v>7.8029510995980758</v>
       </c>
       <c r="CG73" s="14">
-        <v>8.3305434973750323</v>
+        <v>8.2006703771414493</v>
       </c>
       <c r="CH73" s="14">
-        <v>7.0613555738039366</v>
+        <v>7.0225512814714506</v>
       </c>
       <c r="CI73" s="14">
-        <v>10.749828555463893</v>
+        <v>10.782744714817355</v>
       </c>
       <c r="CJ73" s="14">
-        <v>10.003794846909031</v>
+        <v>10.04442107187063</v>
       </c>
       <c r="CK73" s="14">
-        <v>9.3628098242544411</v>
+        <v>9.769163570978094</v>
       </c>
       <c r="CL73" s="14"/>
       <c r="CM73" s="14"/>
@@ -32053,19 +32050,19 @@
         <v>-3.0617321224933818</v>
       </c>
       <c r="CG74" s="14">
-        <v>6.0770477507466722</v>
+        <v>6.2508079831339955</v>
       </c>
       <c r="CH74" s="14">
-        <v>1.9338727760778625</v>
+        <v>2.3142108010289775</v>
       </c>
       <c r="CI74" s="14">
-        <v>29.096611100081418</v>
+        <v>29.113389492240344</v>
       </c>
       <c r="CJ74" s="14">
-        <v>37.304962764520411</v>
+        <v>37.720587336370329</v>
       </c>
       <c r="CK74" s="14">
-        <v>26.984461331989735</v>
+        <v>25.543303061630169</v>
       </c>
       <c r="CL74" s="14"/>
       <c r="CM74" s="14"/>
@@ -32532,19 +32529,19 @@
         <v>6.5083674126682638</v>
       </c>
       <c r="CG76" s="14">
-        <v>7.1377876093208243</v>
+        <v>7.0881340444029348</v>
       </c>
       <c r="CH76" s="14">
-        <v>6.9847793364976667</v>
+        <v>7.0439722335083701</v>
       </c>
       <c r="CI76" s="14">
-        <v>9.6936477537920922</v>
+        <v>9.687549037427587</v>
       </c>
       <c r="CJ76" s="14">
-        <v>9.0253554048843796</v>
+        <v>9.0501431163184805</v>
       </c>
       <c r="CK76" s="14">
-        <v>8.741533372163417</v>
+        <v>8.7556423970160751</v>
       </c>
       <c r="CL76" s="14"/>
       <c r="CM76" s="14"/>
@@ -33014,7 +33011,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33024,7 +33021,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33034,144 +33031,144 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="20">
+      <c r="B88" s="17">
         <v>2000</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="20">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="17">
         <v>2001</v>
       </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="20">
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="17">
         <v>2002</v>
       </c>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="20">
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17">
         <v>2003</v>
       </c>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="20">
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="17">
         <v>2004</v>
       </c>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="20">
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="17">
         <v>2005</v>
       </c>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="20">
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="17">
         <v>2006</v>
       </c>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="20">
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="18"/>
+      <c r="AC88" s="18"/>
+      <c r="AD88" s="17">
         <v>2007</v>
       </c>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="20">
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18"/>
+      <c r="AG88" s="18"/>
+      <c r="AH88" s="17">
         <v>2008</v>
       </c>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="20">
+      <c r="AI88" s="18"/>
+      <c r="AJ88" s="18"/>
+      <c r="AK88" s="18"/>
+      <c r="AL88" s="17">
         <v>2009</v>
       </c>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="20">
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="18"/>
+      <c r="AO88" s="18"/>
+      <c r="AP88" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="20">
+      <c r="AQ88" s="18"/>
+      <c r="AR88" s="18"/>
+      <c r="AS88" s="18"/>
+      <c r="AT88" s="17">
         <v>2011</v>
       </c>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="20">
+      <c r="AU88" s="18"/>
+      <c r="AV88" s="18"/>
+      <c r="AW88" s="18"/>
+      <c r="AX88" s="17">
         <v>2012</v>
       </c>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="20">
+      <c r="AY88" s="18"/>
+      <c r="AZ88" s="18"/>
+      <c r="BA88" s="18"/>
+      <c r="BB88" s="17">
         <v>2013</v>
       </c>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="20">
+      <c r="BC88" s="18"/>
+      <c r="BD88" s="18"/>
+      <c r="BE88" s="18"/>
+      <c r="BF88" s="17">
         <v>2014</v>
       </c>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="20">
+      <c r="BG88" s="18"/>
+      <c r="BH88" s="18"/>
+      <c r="BI88" s="18"/>
+      <c r="BJ88" s="17">
         <v>2015</v>
       </c>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="20">
+      <c r="BK88" s="18"/>
+      <c r="BL88" s="18"/>
+      <c r="BM88" s="18"/>
+      <c r="BN88" s="17">
         <v>2016</v>
       </c>
-      <c r="BO88" s="21"/>
-      <c r="BP88" s="21"/>
-      <c r="BQ88" s="21"/>
-      <c r="BR88" s="20">
+      <c r="BO88" s="18"/>
+      <c r="BP88" s="18"/>
+      <c r="BQ88" s="18"/>
+      <c r="BR88" s="17">
         <v>2017</v>
       </c>
-      <c r="BS88" s="21"/>
-      <c r="BT88" s="21"/>
-      <c r="BU88" s="21"/>
-      <c r="BV88" s="20">
+      <c r="BS88" s="18"/>
+      <c r="BT88" s="18"/>
+      <c r="BU88" s="18"/>
+      <c r="BV88" s="17">
         <v>2018</v>
       </c>
-      <c r="BW88" s="20"/>
-      <c r="BX88" s="20"/>
-      <c r="BY88" s="20"/>
-      <c r="BZ88" s="20">
+      <c r="BW88" s="17"/>
+      <c r="BX88" s="17"/>
+      <c r="BY88" s="17"/>
+      <c r="BZ88" s="17">
         <v>2019</v>
       </c>
-      <c r="CA88" s="20"/>
-      <c r="CB88" s="20"/>
-      <c r="CC88" s="20"/>
-      <c r="CD88" s="20">
+      <c r="CA88" s="17"/>
+      <c r="CB88" s="17"/>
+      <c r="CC88" s="17"/>
+      <c r="CD88" s="17">
         <v>2020</v>
       </c>
-      <c r="CE88" s="20"/>
-      <c r="CF88" s="20"/>
-      <c r="CG88" s="20"/>
-      <c r="CH88" s="20">
+      <c r="CE88" s="17"/>
+      <c r="CF88" s="17"/>
+      <c r="CG88" s="17"/>
+      <c r="CH88" s="17">
         <v>2021</v>
       </c>
-      <c r="CI88" s="20"/>
-      <c r="CJ88" s="20"/>
-      <c r="CK88" s="20"/>
-      <c r="CL88" s="20">
+      <c r="CI88" s="17"/>
+      <c r="CJ88" s="17"/>
+      <c r="CK88" s="17"/>
+      <c r="CL88" s="17">
         <v>2022</v>
       </c>
-      <c r="CM88" s="20"/>
-      <c r="CN88" s="20"/>
-      <c r="CO88" s="20"/>
+      <c r="CM88" s="17"/>
+      <c r="CN88" s="17"/>
+      <c r="CO88" s="17"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33723,19 +33720,19 @@
         <v>107.4244604115115</v>
       </c>
       <c r="CK91" s="14">
-        <v>108.78852390288949</v>
+        <v>108.78870881035488</v>
       </c>
       <c r="CL91" s="14">
         <v>110.71745085575108</v>
       </c>
       <c r="CM91" s="14">
-        <v>110.87518537886032</v>
+        <v>110.87518537886029</v>
       </c>
       <c r="CN91" s="14">
-        <v>112.74968004026589</v>
+        <v>112.74986973259369</v>
       </c>
       <c r="CO91" s="14">
-        <v>116.67314585321749</v>
+        <v>116.67214987505199</v>
       </c>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
@@ -34064,19 +34061,19 @@
         <v>102.95904667558129</v>
       </c>
       <c r="CK92" s="14">
-        <v>101.48029466919569</v>
+        <v>101.47985171687088</v>
       </c>
       <c r="CL92" s="14">
-        <v>102.8317338467502</v>
+        <v>102.83206478692419</v>
       </c>
       <c r="CM92" s="14">
-        <v>106.26278441914192</v>
+        <v>106.26278441914197</v>
       </c>
       <c r="CN92" s="14">
-        <v>107.46676648724819</v>
+        <v>107.46676136700506</v>
       </c>
       <c r="CO92" s="14">
-        <v>108.26225358125438</v>
+        <v>108.26320755358454</v>
       </c>
       <c r="CP92" s="9"/>
       <c r="CQ92" s="9"/>
@@ -34405,19 +34402,19 @@
         <v>97.007361603185075</v>
       </c>
       <c r="CK93" s="14">
-        <v>96.817113644170433</v>
+        <v>96.817413767751347</v>
       </c>
       <c r="CL93" s="14">
-        <v>102.35613993904815</v>
+        <v>102.35658120197253</v>
       </c>
       <c r="CM93" s="14">
-        <v>100.14989266998194</v>
+        <v>100.14989590405409</v>
       </c>
       <c r="CN93" s="14">
-        <v>98.575298591970494</v>
+        <v>98.575233281472379</v>
       </c>
       <c r="CO93" s="14">
-        <v>100.56128077772553</v>
+        <v>100.55946263605009</v>
       </c>
       <c r="CP93" s="9"/>
       <c r="CQ93" s="9"/>
@@ -34900,19 +34897,19 @@
         <v>103.56117061761414</v>
       </c>
       <c r="CK95" s="14">
-        <v>102.85276024080103</v>
+        <v>102.85613254247907</v>
       </c>
       <c r="CL95" s="14">
-        <v>104.14873024335741</v>
+        <v>104.15399166503781</v>
       </c>
       <c r="CM95" s="14">
-        <v>106.83115269450735</v>
+        <v>106.82975624609026</v>
       </c>
       <c r="CN95" s="14">
-        <v>108.03349638616702</v>
+        <v>108.03193318049638</v>
       </c>
       <c r="CO95" s="14">
-        <v>109.70154992937675</v>
+        <v>109.6869208836079</v>
       </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -35087,7 +35084,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35097,7 +35094,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35107,144 +35104,144 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="20">
+      <c r="B108" s="17">
         <v>2000</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="20">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="17">
         <v>2001</v>
       </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="20">
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="17">
         <v>2002</v>
       </c>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="20">
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="17">
         <v>2003</v>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="20">
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="17">
         <v>2004</v>
       </c>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="20">
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="17">
         <v>2005</v>
       </c>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="20">
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="18"/>
+      <c r="Z108" s="17">
         <v>2006</v>
       </c>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="20">
+      <c r="AA108" s="18"/>
+      <c r="AB108" s="18"/>
+      <c r="AC108" s="18"/>
+      <c r="AD108" s="17">
         <v>2007</v>
       </c>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="20">
+      <c r="AE108" s="18"/>
+      <c r="AF108" s="18"/>
+      <c r="AG108" s="18"/>
+      <c r="AH108" s="17">
         <v>2008</v>
       </c>
-      <c r="AI108" s="21"/>
-      <c r="AJ108" s="21"/>
-      <c r="AK108" s="21"/>
-      <c r="AL108" s="20">
+      <c r="AI108" s="18"/>
+      <c r="AJ108" s="18"/>
+      <c r="AK108" s="18"/>
+      <c r="AL108" s="17">
         <v>2009</v>
       </c>
-      <c r="AM108" s="21"/>
-      <c r="AN108" s="21"/>
-      <c r="AO108" s="21"/>
-      <c r="AP108" s="20">
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="18"/>
+      <c r="AO108" s="18"/>
+      <c r="AP108" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="21"/>
-      <c r="AR108" s="21"/>
-      <c r="AS108" s="21"/>
-      <c r="AT108" s="20">
+      <c r="AQ108" s="18"/>
+      <c r="AR108" s="18"/>
+      <c r="AS108" s="18"/>
+      <c r="AT108" s="17">
         <v>2011</v>
       </c>
-      <c r="AU108" s="21"/>
-      <c r="AV108" s="21"/>
-      <c r="AW108" s="21"/>
-      <c r="AX108" s="20">
+      <c r="AU108" s="18"/>
+      <c r="AV108" s="18"/>
+      <c r="AW108" s="18"/>
+      <c r="AX108" s="17">
         <v>2012</v>
       </c>
-      <c r="AY108" s="21"/>
-      <c r="AZ108" s="21"/>
-      <c r="BA108" s="21"/>
-      <c r="BB108" s="20">
+      <c r="AY108" s="18"/>
+      <c r="AZ108" s="18"/>
+      <c r="BA108" s="18"/>
+      <c r="BB108" s="17">
         <v>2013</v>
       </c>
-      <c r="BC108" s="21"/>
-      <c r="BD108" s="21"/>
-      <c r="BE108" s="21"/>
-      <c r="BF108" s="20">
+      <c r="BC108" s="18"/>
+      <c r="BD108" s="18"/>
+      <c r="BE108" s="18"/>
+      <c r="BF108" s="17">
         <v>2014</v>
       </c>
-      <c r="BG108" s="21"/>
-      <c r="BH108" s="21"/>
-      <c r="BI108" s="21"/>
-      <c r="BJ108" s="20">
+      <c r="BG108" s="18"/>
+      <c r="BH108" s="18"/>
+      <c r="BI108" s="18"/>
+      <c r="BJ108" s="17">
         <v>2015</v>
       </c>
-      <c r="BK108" s="21"/>
-      <c r="BL108" s="21"/>
-      <c r="BM108" s="21"/>
-      <c r="BN108" s="20">
+      <c r="BK108" s="18"/>
+      <c r="BL108" s="18"/>
+      <c r="BM108" s="18"/>
+      <c r="BN108" s="17">
         <v>2016</v>
       </c>
-      <c r="BO108" s="21"/>
-      <c r="BP108" s="21"/>
-      <c r="BQ108" s="21"/>
-      <c r="BR108" s="20">
+      <c r="BO108" s="18"/>
+      <c r="BP108" s="18"/>
+      <c r="BQ108" s="18"/>
+      <c r="BR108" s="17">
         <v>2017</v>
       </c>
-      <c r="BS108" s="21"/>
-      <c r="BT108" s="21"/>
-      <c r="BU108" s="21"/>
-      <c r="BV108" s="20">
+      <c r="BS108" s="18"/>
+      <c r="BT108" s="18"/>
+      <c r="BU108" s="18"/>
+      <c r="BV108" s="17">
         <v>2018</v>
       </c>
-      <c r="BW108" s="20"/>
-      <c r="BX108" s="20"/>
-      <c r="BY108" s="20"/>
-      <c r="BZ108" s="20">
+      <c r="BW108" s="17"/>
+      <c r="BX108" s="17"/>
+      <c r="BY108" s="17"/>
+      <c r="BZ108" s="17">
         <v>2019</v>
       </c>
-      <c r="CA108" s="20"/>
-      <c r="CB108" s="20"/>
-      <c r="CC108" s="20"/>
-      <c r="CD108" s="20">
+      <c r="CA108" s="17"/>
+      <c r="CB108" s="17"/>
+      <c r="CC108" s="17"/>
+      <c r="CD108" s="17">
         <v>2020</v>
       </c>
-      <c r="CE108" s="20"/>
-      <c r="CF108" s="20"/>
-      <c r="CG108" s="20"/>
-      <c r="CH108" s="20">
+      <c r="CE108" s="17"/>
+      <c r="CF108" s="17"/>
+      <c r="CG108" s="17"/>
+      <c r="CH108" s="17">
         <v>2021</v>
       </c>
-      <c r="CI108" s="20"/>
-      <c r="CJ108" s="20"/>
-      <c r="CK108" s="20"/>
-      <c r="CL108" s="20">
+      <c r="CI108" s="17"/>
+      <c r="CJ108" s="17"/>
+      <c r="CK108" s="17"/>
+      <c r="CL108" s="17">
         <v>2022</v>
       </c>
-      <c r="CM108" s="20"/>
-      <c r="CN108" s="20"/>
-      <c r="CO108" s="20"/>
+      <c r="CM108" s="17"/>
+      <c r="CN108" s="17"/>
+      <c r="CO108" s="17"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35796,19 +35793,19 @@
         <v>16.657474055082666</v>
       </c>
       <c r="CK111" s="14">
-        <v>21.241181946558456</v>
+        <v>21.296584424525598</v>
       </c>
       <c r="CL111" s="14">
-        <v>17.947162460571331</v>
+        <v>18.014043545354468</v>
       </c>
       <c r="CM111" s="14">
-        <v>15.11622509745246</v>
+        <v>15.085430884502754</v>
       </c>
       <c r="CN111" s="14">
-        <v>15.468479358682613</v>
+        <v>15.449366789410629</v>
       </c>
       <c r="CO111" s="14">
-        <v>20.521021375835861</v>
+        <v>20.310228948122525</v>
       </c>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
@@ -36137,19 +36134,19 @@
         <v>81.533349153092402</v>
       </c>
       <c r="CK112" s="14">
-        <v>76.837326656311106</v>
+        <v>76.777941431580572</v>
       </c>
       <c r="CL112" s="14">
-        <v>79.097742365162588</v>
+        <v>79.021612332634589</v>
       </c>
       <c r="CM112" s="14">
-        <v>83.297712011153365</v>
+        <v>83.32819110164435</v>
       </c>
       <c r="CN112" s="14">
-        <v>82.312089583325559</v>
+        <v>82.324959181349229</v>
       </c>
       <c r="CO112" s="14">
-        <v>77.29385795395018</v>
+        <v>77.524938768542327</v>
       </c>
       <c r="CP112" s="9"/>
       <c r="CQ112" s="9"/>
@@ -36478,19 +36475,19 @@
         <v>1.8091767918249353</v>
       </c>
       <c r="CK113" s="14">
-        <v>1.9214913971304304</v>
+        <v>1.9254741438938225</v>
       </c>
       <c r="CL113" s="14">
-        <v>2.9550951742660807</v>
+        <v>2.9643441220109272</v>
       </c>
       <c r="CM113" s="14">
-        <v>1.5860628913941748</v>
+        <v>1.5863780138528973</v>
       </c>
       <c r="CN113" s="14">
-        <v>2.2194310579918191</v>
+        <v>2.2256740292401487</v>
       </c>
       <c r="CO113" s="14">
-        <v>2.1851206702139545</v>
+        <v>2.1648322833351448</v>
       </c>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
@@ -37468,7 +37465,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37478,7 +37475,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37488,144 +37485,144 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="20">
+      <c r="B128" s="17">
         <v>2000</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="20">
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="17">
         <v>2001</v>
       </c>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="20">
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="17">
         <v>2002</v>
       </c>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="20">
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="17">
         <v>2003</v>
       </c>
-      <c r="O128" s="21"/>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
-      <c r="R128" s="20">
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="17">
         <v>2004</v>
       </c>
-      <c r="S128" s="21"/>
-      <c r="T128" s="21"/>
-      <c r="U128" s="21"/>
-      <c r="V128" s="20">
+      <c r="S128" s="18"/>
+      <c r="T128" s="18"/>
+      <c r="U128" s="18"/>
+      <c r="V128" s="17">
         <v>2005</v>
       </c>
-      <c r="W128" s="21"/>
-      <c r="X128" s="21"/>
-      <c r="Y128" s="21"/>
-      <c r="Z128" s="20">
+      <c r="W128" s="18"/>
+      <c r="X128" s="18"/>
+      <c r="Y128" s="18"/>
+      <c r="Z128" s="17">
         <v>2006</v>
       </c>
-      <c r="AA128" s="21"/>
-      <c r="AB128" s="21"/>
-      <c r="AC128" s="21"/>
-      <c r="AD128" s="20">
+      <c r="AA128" s="18"/>
+      <c r="AB128" s="18"/>
+      <c r="AC128" s="18"/>
+      <c r="AD128" s="17">
         <v>2007</v>
       </c>
-      <c r="AE128" s="21"/>
-      <c r="AF128" s="21"/>
-      <c r="AG128" s="21"/>
-      <c r="AH128" s="20">
+      <c r="AE128" s="18"/>
+      <c r="AF128" s="18"/>
+      <c r="AG128" s="18"/>
+      <c r="AH128" s="17">
         <v>2008</v>
       </c>
-      <c r="AI128" s="21"/>
-      <c r="AJ128" s="21"/>
-      <c r="AK128" s="21"/>
-      <c r="AL128" s="20">
+      <c r="AI128" s="18"/>
+      <c r="AJ128" s="18"/>
+      <c r="AK128" s="18"/>
+      <c r="AL128" s="17">
         <v>2009</v>
       </c>
-      <c r="AM128" s="21"/>
-      <c r="AN128" s="21"/>
-      <c r="AO128" s="21"/>
-      <c r="AP128" s="20">
+      <c r="AM128" s="18"/>
+      <c r="AN128" s="18"/>
+      <c r="AO128" s="18"/>
+      <c r="AP128" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="21"/>
-      <c r="AR128" s="21"/>
-      <c r="AS128" s="21"/>
-      <c r="AT128" s="20">
+      <c r="AQ128" s="18"/>
+      <c r="AR128" s="18"/>
+      <c r="AS128" s="18"/>
+      <c r="AT128" s="17">
         <v>2011</v>
       </c>
-      <c r="AU128" s="21"/>
-      <c r="AV128" s="21"/>
-      <c r="AW128" s="21"/>
-      <c r="AX128" s="20">
+      <c r="AU128" s="18"/>
+      <c r="AV128" s="18"/>
+      <c r="AW128" s="18"/>
+      <c r="AX128" s="17">
         <v>2012</v>
       </c>
-      <c r="AY128" s="21"/>
-      <c r="AZ128" s="21"/>
-      <c r="BA128" s="21"/>
-      <c r="BB128" s="20">
+      <c r="AY128" s="18"/>
+      <c r="AZ128" s="18"/>
+      <c r="BA128" s="18"/>
+      <c r="BB128" s="17">
         <v>2013</v>
       </c>
-      <c r="BC128" s="21"/>
-      <c r="BD128" s="21"/>
-      <c r="BE128" s="21"/>
-      <c r="BF128" s="20">
+      <c r="BC128" s="18"/>
+      <c r="BD128" s="18"/>
+      <c r="BE128" s="18"/>
+      <c r="BF128" s="17">
         <v>2014</v>
       </c>
-      <c r="BG128" s="21"/>
-      <c r="BH128" s="21"/>
-      <c r="BI128" s="21"/>
-      <c r="BJ128" s="20">
+      <c r="BG128" s="18"/>
+      <c r="BH128" s="18"/>
+      <c r="BI128" s="18"/>
+      <c r="BJ128" s="17">
         <v>2015</v>
       </c>
-      <c r="BK128" s="21"/>
-      <c r="BL128" s="21"/>
-      <c r="BM128" s="21"/>
-      <c r="BN128" s="20">
+      <c r="BK128" s="18"/>
+      <c r="BL128" s="18"/>
+      <c r="BM128" s="18"/>
+      <c r="BN128" s="17">
         <v>2016</v>
       </c>
-      <c r="BO128" s="21"/>
-      <c r="BP128" s="21"/>
-      <c r="BQ128" s="21"/>
-      <c r="BR128" s="20">
+      <c r="BO128" s="18"/>
+      <c r="BP128" s="18"/>
+      <c r="BQ128" s="18"/>
+      <c r="BR128" s="17">
         <v>2017</v>
       </c>
-      <c r="BS128" s="21"/>
-      <c r="BT128" s="21"/>
-      <c r="BU128" s="21"/>
-      <c r="BV128" s="20">
+      <c r="BS128" s="18"/>
+      <c r="BT128" s="18"/>
+      <c r="BU128" s="18"/>
+      <c r="BV128" s="17">
         <v>2018</v>
       </c>
-      <c r="BW128" s="20"/>
-      <c r="BX128" s="20"/>
-      <c r="BY128" s="20"/>
-      <c r="BZ128" s="20">
+      <c r="BW128" s="17"/>
+      <c r="BX128" s="17"/>
+      <c r="BY128" s="17"/>
+      <c r="BZ128" s="17">
         <v>2019</v>
       </c>
-      <c r="CA128" s="20"/>
-      <c r="CB128" s="20"/>
-      <c r="CC128" s="20"/>
-      <c r="CD128" s="20">
+      <c r="CA128" s="17"/>
+      <c r="CB128" s="17"/>
+      <c r="CC128" s="17"/>
+      <c r="CD128" s="17">
         <v>2020</v>
       </c>
-      <c r="CE128" s="20"/>
-      <c r="CF128" s="20"/>
-      <c r="CG128" s="20"/>
-      <c r="CH128" s="20">
+      <c r="CE128" s="17"/>
+      <c r="CF128" s="17"/>
+      <c r="CG128" s="17"/>
+      <c r="CH128" s="17">
         <v>2021</v>
       </c>
-      <c r="CI128" s="20"/>
-      <c r="CJ128" s="20"/>
-      <c r="CK128" s="20"/>
-      <c r="CL128" s="20">
+      <c r="CI128" s="17"/>
+      <c r="CJ128" s="17"/>
+      <c r="CK128" s="17"/>
+      <c r="CL128" s="17">
         <v>2022</v>
       </c>
-      <c r="CM128" s="20"/>
-      <c r="CN128" s="20"/>
-      <c r="CO128" s="20"/>
+      <c r="CM128" s="17"/>
+      <c r="CN128" s="17"/>
+      <c r="CO128" s="17"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38177,19 +38174,19 @@
         <v>16.058423808401464</v>
       </c>
       <c r="CK131" s="14">
-        <v>20.082211942969298</v>
+        <v>20.135217470864976</v>
       </c>
       <c r="CL131" s="14">
-        <v>16.882380937175107</v>
+        <v>16.94615010348225</v>
       </c>
       <c r="CM131" s="14">
-        <v>14.564879833412977</v>
+        <v>14.535018802917261</v>
       </c>
       <c r="CN131" s="14">
-        <v>14.821451451560117</v>
+        <v>14.80289923733817</v>
       </c>
       <c r="CO131" s="14">
-        <v>19.294824311116184</v>
+        <v>19.094243811796265</v>
       </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -38518,19 +38515,19 @@
         <v>82.010171571173757</v>
       </c>
       <c r="CK132" s="14">
-        <v>77.876509541951577</v>
+        <v>77.819212253662258</v>
       </c>
       <c r="CL132" s="14">
-        <v>80.110770520750535</v>
+        <v>80.037451054835046</v>
       </c>
       <c r="CM132" s="14">
-        <v>83.743246891275874</v>
+        <v>83.772793951112746</v>
       </c>
       <c r="CN132" s="14">
-        <v>82.746165379352149</v>
+        <v>82.757909294335576</v>
       </c>
       <c r="CO132" s="14">
-        <v>78.321443874299717</v>
+        <v>78.544429057331243</v>
       </c>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
@@ -38859,19 +38856,19 @@
         <v>1.9314046204247888</v>
       </c>
       <c r="CK133" s="14">
-        <v>2.0412785150791133</v>
+        <v>2.0455702754727612</v>
       </c>
       <c r="CL133" s="14">
-        <v>3.0068485420743523</v>
+        <v>3.0163988416826872</v>
       </c>
       <c r="CM133" s="14">
-        <v>1.6918732753111545</v>
+        <v>1.6921872459699832</v>
       </c>
       <c r="CN133" s="14">
-        <v>2.4323831690877258</v>
+        <v>2.4391914683262566</v>
       </c>
       <c r="CO133" s="14">
-        <v>2.3837318145841047</v>
+        <v>2.3613271308724779</v>
       </c>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
@@ -39841,12 +39838,6 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR69:BU69"/>
@@ -39855,7 +39846,13 @@
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ49:CC49"/>
     <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
     <mergeCell ref="Z88:AC88"/>
     <mergeCell ref="AD88:AG88"/>
     <mergeCell ref="AH88:AK88"/>
@@ -39864,14 +39861,12 @@
     <mergeCell ref="AT88:AW88"/>
     <mergeCell ref="AX88:BA88"/>
     <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
     <mergeCell ref="BF108:BI108"/>
@@ -39895,7 +39890,7 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V88:Y88"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -39906,9 +39901,6 @@
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="N69:Q69"/>
     <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
@@ -39919,6 +39911,7 @@
     <mergeCell ref="AH69:AK69"/>
     <mergeCell ref="AX69:BA69"/>
     <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BF29:BI29"/>
     <mergeCell ref="BJ29:BM29"/>
     <mergeCell ref="BN29:BQ29"/>
@@ -39935,6 +39928,9 @@
     <mergeCell ref="AP49:AS49"/>
     <mergeCell ref="AT49:AW49"/>
     <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
     <mergeCell ref="B88:E88"/>
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="J88:M88"/>
@@ -39981,6 +39977,7 @@
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
     <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
@@ -39992,10 +39989,10 @@
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CL49:CO49"/>
+    <mergeCell ref="CL69:CO69"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL49:CM49"/>
-    <mergeCell ref="CL69:CM69"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF723E-52FE-4A56-88DF-4B7DB7B55D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04761F79-461C-4F21-A375-6A94CA1779A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CO$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CP$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,6 +739,11 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23608,7 +23616,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23616,8 +23624,8 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="93" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="94" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23632,7 +23640,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23642,7 +23650,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23652,144 +23660,147 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="17">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="17"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="17"/>
-      <c r="CJ9" s="17"/>
-      <c r="CK9" s="17"/>
-      <c r="CL9" s="17">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="17"/>
-      <c r="CN9" s="17"/>
-      <c r="CO9" s="17"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24070,6 +24081,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24319,43 +24333,45 @@
       <c r="CC12" s="8">
         <v>211939.34770343461</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="18">
         <v>134428.00292712345</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="18">
         <v>144689.96158012253</v>
       </c>
-      <c r="CF12" s="8">
+      <c r="CF12" s="18">
         <v>153470.43165593373</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="18">
         <v>202885.43723331287</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="18">
         <v>125934.52691420163</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="18">
         <v>130429.76216058555</v>
       </c>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="18">
         <v>160975.38033352135</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CK12" s="18">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="18">
         <v>140348.40204561496</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="18">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="18">
         <v>169840.95964924814</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="18">
         <v>241632.29360239604</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="18">
+        <v>151187.60370576824</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24660,43 +24676,45 @@
       <c r="CC13" s="8">
         <v>745064.33817422262</v>
       </c>
-      <c r="CD13" s="8">
+      <c r="CD13" s="18">
         <v>569569.38500676304</v>
       </c>
-      <c r="CE13" s="8">
+      <c r="CE13" s="18">
         <v>602323.12720453925</v>
       </c>
-      <c r="CF13" s="8">
+      <c r="CF13" s="18">
         <v>726045.37781260512</v>
       </c>
-      <c r="CG13" s="8">
+      <c r="CG13" s="18">
         <v>720588.29363605776</v>
       </c>
-      <c r="CH13" s="8">
+      <c r="CH13" s="18">
         <v>556310.12994573393</v>
       </c>
-      <c r="CI13" s="8">
+      <c r="CI13" s="18">
         <v>664628.85626506037</v>
       </c>
-      <c r="CJ13" s="8">
+      <c r="CJ13" s="18">
         <v>787926.29941272957</v>
       </c>
-      <c r="CK13" s="8">
+      <c r="CK13" s="18">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="18">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="18">
         <v>766091.80746634072</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="18">
         <v>905030.62429906428</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="18">
         <v>922319.92134977039</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="18">
+        <v>713403.27815265302</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -25001,43 +25019,45 @@
       <c r="CC14" s="8">
         <v>27803.896591451896</v>
       </c>
-      <c r="CD14" s="8">
+      <c r="CD14" s="18">
         <v>21217.279343218623</v>
       </c>
-      <c r="CE14" s="8">
+      <c r="CE14" s="18">
         <v>5310.7490947859096</v>
       </c>
-      <c r="CF14" s="8">
+      <c r="CF14" s="18">
         <v>18142.436705528107</v>
       </c>
-      <c r="CG14" s="8">
+      <c r="CG14" s="18">
         <v>18700.19865871939</v>
       </c>
-      <c r="CH14" s="8">
+      <c r="CH14" s="18">
         <v>22229.866504719321</v>
       </c>
-      <c r="CI14" s="8">
+      <c r="CI14" s="18">
         <v>11073.668521034813</v>
       </c>
-      <c r="CJ14" s="8">
+      <c r="CJ14" s="18">
         <v>17483.618536133064</v>
       </c>
-      <c r="CK14" s="8">
+      <c r="CK14" s="18">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="18">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="18">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="18">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="18">
         <v>25755.169536635767</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="18">
+        <v>26732.173317138251</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -25496,43 +25516,45 @@
       <c r="CC16" s="11">
         <v>984807.58246910921</v>
       </c>
-      <c r="CD16" s="11">
+      <c r="CD16" s="19">
         <v>725214.66727710515</v>
       </c>
-      <c r="CE16" s="11">
+      <c r="CE16" s="19">
         <v>752323.83787944773</v>
       </c>
-      <c r="CF16" s="11">
+      <c r="CF16" s="19">
         <v>897658.24617406691</v>
       </c>
-      <c r="CG16" s="11">
+      <c r="CG16" s="19">
         <v>942173.92952809006</v>
       </c>
-      <c r="CH16" s="11">
+      <c r="CH16" s="19">
         <v>704474.52336465498</v>
       </c>
-      <c r="CI16" s="11">
+      <c r="CI16" s="19">
         <v>806132.28694668063</v>
       </c>
-      <c r="CJ16" s="11">
+      <c r="CJ16" s="19">
         <v>966385.29828238394</v>
       </c>
-      <c r="CK16" s="11">
+      <c r="CK16" s="19">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="11">
+      <c r="CL16" s="19">
         <v>779105.48896063119</v>
       </c>
-      <c r="CM16" s="11">
+      <c r="CM16" s="19">
         <v>919366.90013090079</v>
       </c>
-      <c r="CN16" s="11">
+      <c r="CN16" s="19">
         <v>1099339.2930877998</v>
       </c>
-      <c r="CO16" s="11">
+      <c r="CO16" s="19">
         <v>1189707.3844888022</v>
       </c>
-      <c r="CP16" s="9"/>
+      <c r="CP16" s="19">
+        <v>891323.05517555948</v>
+      </c>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
@@ -25687,6 +25709,7 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -26013,7 +26036,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26023,7 +26046,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26033,144 +26056,147 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="17">
+      <c r="B29" s="20">
         <v>2000</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20">
         <v>2001</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="17">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="20">
         <v>2002</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17">
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20">
         <v>2003</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="17">
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="20">
         <v>2004</v>
       </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="17">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="20">
         <v>2005</v>
       </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="17">
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="20">
         <v>2006</v>
       </c>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="17">
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="20">
         <v>2007</v>
       </c>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="17">
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="20">
         <v>2008</v>
       </c>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="17">
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="20">
         <v>2009</v>
       </c>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="17">
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-      <c r="AS29" s="18"/>
-      <c r="AT29" s="17">
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="20">
         <v>2011</v>
       </c>
-      <c r="AU29" s="18"/>
-      <c r="AV29" s="18"/>
-      <c r="AW29" s="18"/>
-      <c r="AX29" s="17">
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="20">
         <v>2012</v>
       </c>
-      <c r="AY29" s="18"/>
-      <c r="AZ29" s="18"/>
-      <c r="BA29" s="18"/>
-      <c r="BB29" s="17">
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="20">
         <v>2013</v>
       </c>
-      <c r="BC29" s="18"/>
-      <c r="BD29" s="18"/>
-      <c r="BE29" s="18"/>
-      <c r="BF29" s="17">
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="20">
         <v>2014</v>
       </c>
-      <c r="BG29" s="18"/>
-      <c r="BH29" s="18"/>
-      <c r="BI29" s="18"/>
-      <c r="BJ29" s="17">
+      <c r="BG29" s="21"/>
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="20">
         <v>2015</v>
       </c>
-      <c r="BK29" s="18"/>
-      <c r="BL29" s="18"/>
-      <c r="BM29" s="18"/>
-      <c r="BN29" s="17">
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="21"/>
+      <c r="BM29" s="21"/>
+      <c r="BN29" s="20">
         <v>2016</v>
       </c>
-      <c r="BO29" s="18"/>
-      <c r="BP29" s="18"/>
-      <c r="BQ29" s="18"/>
-      <c r="BR29" s="17">
+      <c r="BO29" s="21"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="21"/>
+      <c r="BR29" s="20">
         <v>2017</v>
       </c>
-      <c r="BS29" s="18"/>
-      <c r="BT29" s="18"/>
-      <c r="BU29" s="18"/>
-      <c r="BV29" s="17">
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="20">
         <v>2018</v>
       </c>
-      <c r="BW29" s="17"/>
-      <c r="BX29" s="17"/>
-      <c r="BY29" s="17"/>
-      <c r="BZ29" s="17">
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="20">
         <v>2019</v>
       </c>
-      <c r="CA29" s="17"/>
-      <c r="CB29" s="17"/>
-      <c r="CC29" s="17"/>
-      <c r="CD29" s="17">
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20">
         <v>2020</v>
       </c>
-      <c r="CE29" s="17"/>
-      <c r="CF29" s="17"/>
-      <c r="CG29" s="17"/>
-      <c r="CH29" s="17">
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="20"/>
+      <c r="CH29" s="20">
         <v>2021</v>
       </c>
-      <c r="CI29" s="17"/>
-      <c r="CJ29" s="17"/>
-      <c r="CK29" s="17"/>
-      <c r="CL29" s="17">
+      <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
+      <c r="CK29" s="20"/>
+      <c r="CL29" s="20">
         <v>2022</v>
       </c>
-      <c r="CM29" s="17"/>
-      <c r="CN29" s="17"/>
-      <c r="CO29" s="17"/>
+      <c r="CM29" s="20"/>
+      <c r="CN29" s="20"/>
+      <c r="CO29" s="20"/>
+      <c r="CP29" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26451,6 +26477,9 @@
       </c>
       <c r="CO30" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP30" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26700,43 +26729,45 @@
       <c r="CC32" s="8">
         <v>209530.66714622904</v>
       </c>
-      <c r="CD32" s="8">
+      <c r="CD32" s="18">
         <v>128853.38291035185</v>
       </c>
-      <c r="CE32" s="8">
+      <c r="CE32" s="18">
         <v>138974.71274836591</v>
       </c>
-      <c r="CF32" s="8">
+      <c r="CF32" s="18">
         <v>147650.98243383912</v>
       </c>
-      <c r="CG32" s="8">
+      <c r="CG32" s="18">
         <v>194822.09031976195</v>
       </c>
-      <c r="CH32" s="8">
+      <c r="CH32" s="18">
         <v>117334.74706809164</v>
       </c>
-      <c r="CI32" s="8">
+      <c r="CI32" s="18">
         <v>122534.66867416279</v>
       </c>
-      <c r="CJ32" s="8">
+      <c r="CJ32" s="18">
         <v>149849.83840446768</v>
       </c>
-      <c r="CK32" s="8">
+      <c r="CK32" s="18">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="8">
+      <c r="CL32" s="18">
         <v>126762.67468302601</v>
       </c>
-      <c r="CM32" s="8">
+      <c r="CM32" s="18">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="8">
+      <c r="CN32" s="18">
         <v>150635.17151022534</v>
       </c>
-      <c r="CO32" s="8">
+      <c r="CO32" s="18">
         <v>207103.66086608323</v>
       </c>
-      <c r="CP32" s="9"/>
+      <c r="CP32" s="18">
+        <v>129189.96707612173</v>
+      </c>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
@@ -27041,43 +27072,45 @@
       <c r="CC33" s="8">
         <v>735663.52985589486</v>
       </c>
-      <c r="CD33" s="8">
+      <c r="CD33" s="18">
         <v>573543.42270822532</v>
       </c>
-      <c r="CE33" s="8">
+      <c r="CE33" s="18">
         <v>600227.80201786652</v>
       </c>
-      <c r="CF33" s="8">
+      <c r="CF33" s="18">
         <v>709888.97951706429</v>
       </c>
-      <c r="CG33" s="8">
+      <c r="CG33" s="18">
         <v>717282.76015728002</v>
       </c>
-      <c r="CH33" s="8">
+      <c r="CH33" s="18">
         <v>559420.39392693527</v>
       </c>
-      <c r="CI33" s="8">
+      <c r="CI33" s="18">
         <v>650769.9722624555</v>
       </c>
-      <c r="CJ33" s="8">
+      <c r="CJ33" s="18">
         <v>765281.26945021667</v>
       </c>
-      <c r="CK33" s="8">
+      <c r="CK33" s="18">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="18">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="18">
         <v>720940.83705220371</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="18">
         <v>842149.34253795329</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="18">
         <v>851923.69798693701</v>
       </c>
-      <c r="CP33" s="9"/>
+      <c r="CP33" s="18">
+        <v>646080.8196443771</v>
+      </c>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
@@ -27382,43 +27415,45 @@
       <c r="CC34" s="8">
         <v>28683.521697405748</v>
       </c>
-      <c r="CD34" s="8">
+      <c r="CD34" s="18">
         <v>21113.652005447329</v>
       </c>
-      <c r="CE34" s="8">
+      <c r="CE34" s="18">
         <v>5386.1641074084</v>
       </c>
-      <c r="CF34" s="8">
+      <c r="CF34" s="18">
         <v>18592.225326633139</v>
       </c>
-      <c r="CG34" s="8">
+      <c r="CG34" s="18">
         <v>19200.638762867737</v>
       </c>
-      <c r="CH34" s="8">
+      <c r="CH34" s="18">
         <v>22053.277989249957</v>
       </c>
-      <c r="CI34" s="8">
+      <c r="CI34" s="18">
         <v>11279.082191936619</v>
       </c>
-      <c r="CJ34" s="8">
+      <c r="CJ34" s="18">
         <v>18022.981191521263</v>
       </c>
-      <c r="CK34" s="8">
+      <c r="CK34" s="18">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="18">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="8">
+      <c r="CM34" s="18">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="8">
+      <c r="CN34" s="18">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="8">
+      <c r="CO34" s="18">
         <v>25611.880634098241</v>
       </c>
-      <c r="CP34" s="9"/>
+      <c r="CP34" s="18">
+        <v>25446.043132219995</v>
+      </c>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
@@ -27560,19 +27595,19 @@
       <c r="CA35" s="11"/>
       <c r="CB35" s="11"/>
       <c r="CC35" s="11"/>
-      <c r="CD35" s="11"/>
-      <c r="CE35" s="11"/>
-      <c r="CF35" s="11"/>
-      <c r="CG35" s="11"/>
-      <c r="CH35" s="11"/>
-      <c r="CI35" s="11"/>
-      <c r="CJ35" s="11"/>
-      <c r="CK35" s="11"/>
-      <c r="CL35" s="11"/>
-      <c r="CM35" s="11"/>
-      <c r="CN35" s="11"/>
-      <c r="CO35" s="11"/>
-      <c r="CP35" s="9"/>
+      <c r="CD35" s="19"/>
+      <c r="CE35" s="19"/>
+      <c r="CF35" s="19"/>
+      <c r="CG35" s="19"/>
+      <c r="CH35" s="19"/>
+      <c r="CI35" s="19"/>
+      <c r="CJ35" s="19"/>
+      <c r="CK35" s="19"/>
+      <c r="CL35" s="19"/>
+      <c r="CM35" s="19"/>
+      <c r="CN35" s="19"/>
+      <c r="CO35" s="19"/>
+      <c r="CP35" s="19"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
@@ -27877,43 +27912,45 @@
       <c r="CC36" s="11">
         <v>973877.71869952965</v>
       </c>
-      <c r="CD36" s="11">
+      <c r="CD36" s="19">
         <v>723510.45762402448</v>
       </c>
-      <c r="CE36" s="11">
+      <c r="CE36" s="19">
         <v>744588.67887364083</v>
       </c>
-      <c r="CF36" s="11">
+      <c r="CF36" s="19">
         <v>876132.18727753661</v>
       </c>
-      <c r="CG36" s="11">
+      <c r="CG36" s="19">
         <v>931305.48923990969</v>
       </c>
-      <c r="CH36" s="11">
+      <c r="CH36" s="19">
         <v>698808.41898427682</v>
       </c>
-      <c r="CI36" s="11">
+      <c r="CI36" s="19">
         <v>784583.72312855499</v>
       </c>
-      <c r="CJ36" s="11">
+      <c r="CJ36" s="19">
         <v>933154.08904620563</v>
       </c>
-      <c r="CK36" s="11">
+      <c r="CK36" s="19">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="11">
+      <c r="CL36" s="19">
         <v>748032.2899829481</v>
       </c>
-      <c r="CM36" s="11">
+      <c r="CM36" s="19">
         <v>860590.65604630881</v>
       </c>
-      <c r="CN36" s="11">
+      <c r="CN36" s="19">
         <v>1017605.8696006653</v>
       </c>
-      <c r="CO36" s="11">
+      <c r="CO36" s="19">
         <v>1084639.2394871186</v>
       </c>
-      <c r="CP36" s="9"/>
+      <c r="CP36" s="19">
+        <v>800716.82985271886</v>
+      </c>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
@@ -28068,6 +28105,7 @@
       <c r="CM37" s="12"/>
       <c r="CN37" s="12"/>
       <c r="CO37" s="12"/>
+      <c r="CP37" s="12"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28394,7 +28432,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28404,7 +28442,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28414,142 +28452,145 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17" t="s">
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17" t="s">
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17" t="s">
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17" t="s">
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17" t="s">
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
-      <c r="AH49" s="17" t="s">
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
-      <c r="AK49" s="17"/>
-      <c r="AL49" s="17" t="s">
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="17"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="17" t="s">
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="17"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="17" t="s">
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="17" t="s">
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="17"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="17" t="s">
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="17"/>
-      <c r="BD49" s="17"/>
-      <c r="BE49" s="17"/>
-      <c r="BF49" s="17" t="s">
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="17"/>
-      <c r="BH49" s="17"/>
-      <c r="BI49" s="17"/>
-      <c r="BJ49" s="17" t="s">
+      <c r="BG49" s="20"/>
+      <c r="BH49" s="20"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="17"/>
-      <c r="BL49" s="17"/>
-      <c r="BM49" s="17"/>
-      <c r="BN49" s="17" t="s">
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="20"/>
+      <c r="BM49" s="20"/>
+      <c r="BN49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="17"/>
-      <c r="BP49" s="17"/>
-      <c r="BQ49" s="17"/>
-      <c r="BR49" s="17" t="s">
+      <c r="BO49" s="20"/>
+      <c r="BP49" s="20"/>
+      <c r="BQ49" s="20"/>
+      <c r="BR49" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="17"/>
-      <c r="BT49" s="17"/>
-      <c r="BU49" s="17"/>
-      <c r="BV49" s="17" t="s">
+      <c r="BS49" s="20"/>
+      <c r="BT49" s="20"/>
+      <c r="BU49" s="20"/>
+      <c r="BV49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="17"/>
-      <c r="BX49" s="17"/>
-      <c r="BY49" s="17"/>
-      <c r="BZ49" s="17" t="s">
+      <c r="BW49" s="20"/>
+      <c r="BX49" s="20"/>
+      <c r="BY49" s="20"/>
+      <c r="BZ49" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="17"/>
-      <c r="CB49" s="17"/>
-      <c r="CC49" s="17"/>
-      <c r="CD49" s="17" t="s">
+      <c r="CA49" s="20"/>
+      <c r="CB49" s="20"/>
+      <c r="CC49" s="20"/>
+      <c r="CD49" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="17"/>
-      <c r="CF49" s="17"/>
-      <c r="CG49" s="17"/>
-      <c r="CH49" s="17" t="s">
+      <c r="CE49" s="20"/>
+      <c r="CF49" s="20"/>
+      <c r="CG49" s="20"/>
+      <c r="CH49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="17"/>
-      <c r="CJ49" s="17"/>
-      <c r="CK49" s="17"/>
-      <c r="CL49" s="17"/>
+      <c r="CI49" s="20"/>
+      <c r="CJ49" s="20"/>
+      <c r="CK49" s="20"/>
+      <c r="CL49" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="CM49" s="17"/>
       <c r="CN49" s="17"/>
       <c r="CO49" s="17"/>
+      <c r="CP49" s="17"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28819,10 +28860,13 @@
       <c r="CK50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="5"/>
+      <c r="CL50" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM50" s="5"/>
       <c r="CN50" s="5"/>
       <c r="CO50" s="5"/>
+      <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29095,11 +29139,13 @@
       <c r="CK52" s="14">
         <v>10.606669514059931</v>
       </c>
-      <c r="CL52" s="14"/>
+      <c r="CL52" s="14">
+        <v>7.7230673824347491</v>
+      </c>
       <c r="CM52" s="14"/>
       <c r="CN52" s="14"/>
       <c r="CO52" s="14"/>
-      <c r="CP52" s="9"/>
+      <c r="CP52" s="14"/>
       <c r="CQ52" s="9"/>
       <c r="CR52" s="9"/>
       <c r="CS52" s="9"/>
@@ -29424,11 +29470,13 @@
       <c r="CK53" s="14">
         <v>17.106613161245704</v>
       </c>
-      <c r="CL53" s="14"/>
+      <c r="CL53" s="14">
+        <v>15.87585454217448</v>
+      </c>
       <c r="CM53" s="14"/>
       <c r="CN53" s="14"/>
       <c r="CO53" s="14"/>
-      <c r="CP53" s="9"/>
+      <c r="CP53" s="14"/>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
@@ -29753,11 +29801,13 @@
       <c r="CK54" s="14">
         <v>30.39562411485727</v>
       </c>
-      <c r="CL54" s="14"/>
+      <c r="CL54" s="14">
+        <v>15.746904693939882</v>
+      </c>
       <c r="CM54" s="14"/>
       <c r="CN54" s="14"/>
       <c r="CO54" s="14"/>
-      <c r="CP54" s="9"/>
+      <c r="CP54" s="14"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
@@ -30232,11 +30282,13 @@
       <c r="CK56" s="14">
         <v>15.978223644767198</v>
       </c>
-      <c r="CL56" s="14"/>
+      <c r="CL56" s="14">
+        <v>14.403385395812379</v>
+      </c>
       <c r="CM56" s="14"/>
       <c r="CN56" s="14"/>
       <c r="CO56" s="14"/>
-      <c r="CP56" s="9"/>
+      <c r="CP56" s="14"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
@@ -30387,6 +30439,7 @@
       <c r="CM57" s="12"/>
       <c r="CN57" s="12"/>
       <c r="CO57" s="12"/>
+      <c r="CP57" s="12"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30705,7 +30758,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30715,7 +30768,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30725,142 +30778,145 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="17" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="17" t="s">
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="17" t="s">
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="17" t="s">
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="17" t="s">
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="17" t="s">
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="17" t="s">
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="17" t="s">
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="19"/>
-      <c r="AJ69" s="19"/>
-      <c r="AK69" s="19"/>
-      <c r="AL69" s="17" t="s">
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="19"/>
-      <c r="AN69" s="19"/>
-      <c r="AO69" s="19"/>
-      <c r="AP69" s="17" t="s">
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="19"/>
-      <c r="AR69" s="19"/>
-      <c r="AS69" s="19"/>
-      <c r="AT69" s="17" t="s">
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="19"/>
-      <c r="AV69" s="19"/>
-      <c r="AW69" s="19"/>
-      <c r="AX69" s="17" t="s">
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="19"/>
-      <c r="AZ69" s="19"/>
-      <c r="BA69" s="19"/>
-      <c r="BB69" s="17" t="s">
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="19"/>
-      <c r="BD69" s="19"/>
-      <c r="BE69" s="19"/>
-      <c r="BF69" s="17" t="s">
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="19"/>
-      <c r="BH69" s="19"/>
-      <c r="BI69" s="19"/>
-      <c r="BJ69" s="17" t="s">
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="19"/>
-      <c r="BL69" s="19"/>
-      <c r="BM69" s="19"/>
-      <c r="BN69" s="17" t="s">
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="19"/>
-      <c r="BP69" s="19"/>
-      <c r="BQ69" s="19"/>
-      <c r="BR69" s="17" t="s">
+      <c r="BO69" s="22"/>
+      <c r="BP69" s="22"/>
+      <c r="BQ69" s="22"/>
+      <c r="BR69" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="19"/>
-      <c r="BT69" s="19"/>
-      <c r="BU69" s="19"/>
-      <c r="BV69" s="17" t="s">
+      <c r="BS69" s="22"/>
+      <c r="BT69" s="22"/>
+      <c r="BU69" s="22"/>
+      <c r="BV69" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="17"/>
-      <c r="BX69" s="17"/>
-      <c r="BY69" s="17"/>
-      <c r="BZ69" s="17" t="s">
+      <c r="BW69" s="20"/>
+      <c r="BX69" s="20"/>
+      <c r="BY69" s="20"/>
+      <c r="BZ69" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="17"/>
-      <c r="CB69" s="17"/>
-      <c r="CC69" s="17"/>
-      <c r="CD69" s="17" t="s">
+      <c r="CA69" s="20"/>
+      <c r="CB69" s="20"/>
+      <c r="CC69" s="20"/>
+      <c r="CD69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="17"/>
-      <c r="CF69" s="17"/>
-      <c r="CG69" s="17"/>
-      <c r="CH69" s="17" t="s">
+      <c r="CE69" s="20"/>
+      <c r="CF69" s="20"/>
+      <c r="CG69" s="20"/>
+      <c r="CH69" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="17"/>
-      <c r="CJ69" s="17"/>
-      <c r="CK69" s="17"/>
-      <c r="CL69" s="17"/>
+      <c r="CI69" s="20"/>
+      <c r="CJ69" s="20"/>
+      <c r="CK69" s="20"/>
+      <c r="CL69" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="CM69" s="17"/>
       <c r="CN69" s="17"/>
       <c r="CO69" s="17"/>
+      <c r="CP69" s="17"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31130,10 +31186,13 @@
       <c r="CK70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="5"/>
+      <c r="CL70" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM70" s="5"/>
       <c r="CN70" s="5"/>
       <c r="CO70" s="5"/>
+      <c r="CP70" s="5"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31406,11 +31465,13 @@
       <c r="CK72" s="14">
         <v>3.1330679612443362</v>
       </c>
-      <c r="CL72" s="14"/>
+      <c r="CL72" s="14">
+        <v>1.9148321058744244</v>
+      </c>
       <c r="CM72" s="14"/>
       <c r="CN72" s="14"/>
       <c r="CO72" s="14"/>
-      <c r="CP72" s="9"/>
+      <c r="CP72" s="14"/>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
@@ -31735,11 +31796,13 @@
       <c r="CK73" s="14">
         <v>9.769163570978094</v>
       </c>
-      <c r="CL73" s="14"/>
+      <c r="CL73" s="14">
+        <v>7.9128726650745875</v>
+      </c>
       <c r="CM73" s="14"/>
       <c r="CN73" s="14"/>
       <c r="CO73" s="14"/>
-      <c r="CP73" s="9"/>
+      <c r="CP73" s="14"/>
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
       <c r="CS73" s="9"/>
@@ -32064,11 +32127,13 @@
       <c r="CK74" s="14">
         <v>25.543303061630169</v>
       </c>
-      <c r="CL74" s="14"/>
+      <c r="CL74" s="14">
+        <v>12.774561829492683</v>
+      </c>
       <c r="CM74" s="14"/>
       <c r="CN74" s="14"/>
       <c r="CO74" s="14"/>
-      <c r="CP74" s="9"/>
+      <c r="CP74" s="14"/>
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
       <c r="CS74" s="9"/>
@@ -32543,11 +32608,13 @@
       <c r="CK76" s="14">
         <v>8.7556423970160751</v>
       </c>
-      <c r="CL76" s="14"/>
+      <c r="CL76" s="14">
+        <v>7.0430836442864972</v>
+      </c>
       <c r="CM76" s="14"/>
       <c r="CN76" s="14"/>
       <c r="CO76" s="14"/>
-      <c r="CP76" s="9"/>
+      <c r="CP76" s="14"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
@@ -32698,6 +32765,7 @@
       <c r="CM77" s="12"/>
       <c r="CN77" s="12"/>
       <c r="CO77" s="12"/>
+      <c r="CP77" s="12"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -33011,7 +33079,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33021,7 +33089,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33031,144 +33099,147 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="17">
+      <c r="B88" s="20">
         <v>2000</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="17">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="20">
         <v>2001</v>
       </c>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="17">
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="20">
         <v>2002</v>
       </c>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17">
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="20">
         <v>2003</v>
       </c>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="17">
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="20">
         <v>2004</v>
       </c>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="17">
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="20">
         <v>2005</v>
       </c>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="17">
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="20">
         <v>2006</v>
       </c>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="17">
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="20">
         <v>2007</v>
       </c>
-      <c r="AE88" s="18"/>
-      <c r="AF88" s="18"/>
-      <c r="AG88" s="18"/>
-      <c r="AH88" s="17">
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="20">
         <v>2008</v>
       </c>
-      <c r="AI88" s="18"/>
-      <c r="AJ88" s="18"/>
-      <c r="AK88" s="18"/>
-      <c r="AL88" s="17">
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="20">
         <v>2009</v>
       </c>
-      <c r="AM88" s="18"/>
-      <c r="AN88" s="18"/>
-      <c r="AO88" s="18"/>
-      <c r="AP88" s="17">
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="18"/>
-      <c r="AR88" s="18"/>
-      <c r="AS88" s="18"/>
-      <c r="AT88" s="17">
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="20">
         <v>2011</v>
       </c>
-      <c r="AU88" s="18"/>
-      <c r="AV88" s="18"/>
-      <c r="AW88" s="18"/>
-      <c r="AX88" s="17">
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="20">
         <v>2012</v>
       </c>
-      <c r="AY88" s="18"/>
-      <c r="AZ88" s="18"/>
-      <c r="BA88" s="18"/>
-      <c r="BB88" s="17">
+      <c r="AY88" s="21"/>
+      <c r="AZ88" s="21"/>
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="20">
         <v>2013</v>
       </c>
-      <c r="BC88" s="18"/>
-      <c r="BD88" s="18"/>
-      <c r="BE88" s="18"/>
-      <c r="BF88" s="17">
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="21"/>
+      <c r="BE88" s="21"/>
+      <c r="BF88" s="20">
         <v>2014</v>
       </c>
-      <c r="BG88" s="18"/>
-      <c r="BH88" s="18"/>
-      <c r="BI88" s="18"/>
-      <c r="BJ88" s="17">
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="21"/>
+      <c r="BJ88" s="20">
         <v>2015</v>
       </c>
-      <c r="BK88" s="18"/>
-      <c r="BL88" s="18"/>
-      <c r="BM88" s="18"/>
-      <c r="BN88" s="17">
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="21"/>
+      <c r="BM88" s="21"/>
+      <c r="BN88" s="20">
         <v>2016</v>
       </c>
-      <c r="BO88" s="18"/>
-      <c r="BP88" s="18"/>
-      <c r="BQ88" s="18"/>
-      <c r="BR88" s="17">
+      <c r="BO88" s="21"/>
+      <c r="BP88" s="21"/>
+      <c r="BQ88" s="21"/>
+      <c r="BR88" s="20">
         <v>2017</v>
       </c>
-      <c r="BS88" s="18"/>
-      <c r="BT88" s="18"/>
-      <c r="BU88" s="18"/>
-      <c r="BV88" s="17">
+      <c r="BS88" s="21"/>
+      <c r="BT88" s="21"/>
+      <c r="BU88" s="21"/>
+      <c r="BV88" s="20">
         <v>2018</v>
       </c>
-      <c r="BW88" s="17"/>
-      <c r="BX88" s="17"/>
-      <c r="BY88" s="17"/>
-      <c r="BZ88" s="17">
+      <c r="BW88" s="20"/>
+      <c r="BX88" s="20"/>
+      <c r="BY88" s="20"/>
+      <c r="BZ88" s="20">
         <v>2019</v>
       </c>
-      <c r="CA88" s="17"/>
-      <c r="CB88" s="17"/>
-      <c r="CC88" s="17"/>
-      <c r="CD88" s="17">
+      <c r="CA88" s="20"/>
+      <c r="CB88" s="20"/>
+      <c r="CC88" s="20"/>
+      <c r="CD88" s="20">
         <v>2020</v>
       </c>
-      <c r="CE88" s="17"/>
-      <c r="CF88" s="17"/>
-      <c r="CG88" s="17"/>
-      <c r="CH88" s="17">
+      <c r="CE88" s="20"/>
+      <c r="CF88" s="20"/>
+      <c r="CG88" s="20"/>
+      <c r="CH88" s="20">
         <v>2021</v>
       </c>
-      <c r="CI88" s="17"/>
-      <c r="CJ88" s="17"/>
-      <c r="CK88" s="17"/>
-      <c r="CL88" s="17">
+      <c r="CI88" s="20"/>
+      <c r="CJ88" s="20"/>
+      <c r="CK88" s="20"/>
+      <c r="CL88" s="20">
         <v>2022</v>
       </c>
-      <c r="CM88" s="17"/>
-      <c r="CN88" s="17"/>
-      <c r="CO88" s="17"/>
+      <c r="CM88" s="20"/>
+      <c r="CN88" s="20"/>
+      <c r="CO88" s="20"/>
+      <c r="CP88" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33449,6 +33520,9 @@
       </c>
       <c r="CO89" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP89" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33734,7 +33808,9 @@
       <c r="CO91" s="14">
         <v>116.67214987505199</v>
       </c>
-      <c r="CP91" s="9"/>
+      <c r="CP91" s="14">
+        <v>117.02735678900282</v>
+      </c>
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
       <c r="CS91" s="9"/>
@@ -34075,7 +34151,9 @@
       <c r="CO92" s="14">
         <v>108.26320755358454</v>
       </c>
-      <c r="CP92" s="9"/>
+      <c r="CP92" s="14">
+        <v>110.42012956603979</v>
+      </c>
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
       <c r="CS92" s="9"/>
@@ -34416,7 +34494,9 @@
       <c r="CO93" s="14">
         <v>100.55946263605009</v>
       </c>
-      <c r="CP93" s="9"/>
+      <c r="CP93" s="14">
+        <v>105.05434254840881</v>
+      </c>
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
       <c r="CS93" s="9"/>
@@ -34911,7 +34991,9 @@
       <c r="CO95" s="14">
         <v>109.6869208836079</v>
       </c>
-      <c r="CP95" s="9"/>
+      <c r="CP95" s="14">
+        <v>111.31563893062</v>
+      </c>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
@@ -35066,6 +35148,7 @@
       <c r="CM96" s="12"/>
       <c r="CN96" s="12"/>
       <c r="CO96" s="12"/>
+      <c r="CP96" s="12"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35084,7 +35167,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35094,7 +35177,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35104,144 +35187,147 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="17">
+      <c r="B108" s="20">
         <v>2000</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="17">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="20">
         <v>2001</v>
       </c>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="17">
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="20">
         <v>2002</v>
       </c>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="17">
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="20">
         <v>2003</v>
       </c>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="17">
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="20">
         <v>2004</v>
       </c>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="17">
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="20">
         <v>2005</v>
       </c>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="17">
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="20">
         <v>2006</v>
       </c>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="17">
+      <c r="AA108" s="21"/>
+      <c r="AB108" s="21"/>
+      <c r="AC108" s="21"/>
+      <c r="AD108" s="20">
         <v>2007</v>
       </c>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="17">
+      <c r="AE108" s="21"/>
+      <c r="AF108" s="21"/>
+      <c r="AG108" s="21"/>
+      <c r="AH108" s="20">
         <v>2008</v>
       </c>
-      <c r="AI108" s="18"/>
-      <c r="AJ108" s="18"/>
-      <c r="AK108" s="18"/>
-      <c r="AL108" s="17">
+      <c r="AI108" s="21"/>
+      <c r="AJ108" s="21"/>
+      <c r="AK108" s="21"/>
+      <c r="AL108" s="20">
         <v>2009</v>
       </c>
-      <c r="AM108" s="18"/>
-      <c r="AN108" s="18"/>
-      <c r="AO108" s="18"/>
-      <c r="AP108" s="17">
+      <c r="AM108" s="21"/>
+      <c r="AN108" s="21"/>
+      <c r="AO108" s="21"/>
+      <c r="AP108" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="18"/>
-      <c r="AR108" s="18"/>
-      <c r="AS108" s="18"/>
-      <c r="AT108" s="17">
+      <c r="AQ108" s="21"/>
+      <c r="AR108" s="21"/>
+      <c r="AS108" s="21"/>
+      <c r="AT108" s="20">
         <v>2011</v>
       </c>
-      <c r="AU108" s="18"/>
-      <c r="AV108" s="18"/>
-      <c r="AW108" s="18"/>
-      <c r="AX108" s="17">
+      <c r="AU108" s="21"/>
+      <c r="AV108" s="21"/>
+      <c r="AW108" s="21"/>
+      <c r="AX108" s="20">
         <v>2012</v>
       </c>
-      <c r="AY108" s="18"/>
-      <c r="AZ108" s="18"/>
-      <c r="BA108" s="18"/>
-      <c r="BB108" s="17">
+      <c r="AY108" s="21"/>
+      <c r="AZ108" s="21"/>
+      <c r="BA108" s="21"/>
+      <c r="BB108" s="20">
         <v>2013</v>
       </c>
-      <c r="BC108" s="18"/>
-      <c r="BD108" s="18"/>
-      <c r="BE108" s="18"/>
-      <c r="BF108" s="17">
+      <c r="BC108" s="21"/>
+      <c r="BD108" s="21"/>
+      <c r="BE108" s="21"/>
+      <c r="BF108" s="20">
         <v>2014</v>
       </c>
-      <c r="BG108" s="18"/>
-      <c r="BH108" s="18"/>
-      <c r="BI108" s="18"/>
-      <c r="BJ108" s="17">
+      <c r="BG108" s="21"/>
+      <c r="BH108" s="21"/>
+      <c r="BI108" s="21"/>
+      <c r="BJ108" s="20">
         <v>2015</v>
       </c>
-      <c r="BK108" s="18"/>
-      <c r="BL108" s="18"/>
-      <c r="BM108" s="18"/>
-      <c r="BN108" s="17">
+      <c r="BK108" s="21"/>
+      <c r="BL108" s="21"/>
+      <c r="BM108" s="21"/>
+      <c r="BN108" s="20">
         <v>2016</v>
       </c>
-      <c r="BO108" s="18"/>
-      <c r="BP108" s="18"/>
-      <c r="BQ108" s="18"/>
-      <c r="BR108" s="17">
+      <c r="BO108" s="21"/>
+      <c r="BP108" s="21"/>
+      <c r="BQ108" s="21"/>
+      <c r="BR108" s="20">
         <v>2017</v>
       </c>
-      <c r="BS108" s="18"/>
-      <c r="BT108" s="18"/>
-      <c r="BU108" s="18"/>
-      <c r="BV108" s="17">
+      <c r="BS108" s="21"/>
+      <c r="BT108" s="21"/>
+      <c r="BU108" s="21"/>
+      <c r="BV108" s="20">
         <v>2018</v>
       </c>
-      <c r="BW108" s="17"/>
-      <c r="BX108" s="17"/>
-      <c r="BY108" s="17"/>
-      <c r="BZ108" s="17">
+      <c r="BW108" s="20"/>
+      <c r="BX108" s="20"/>
+      <c r="BY108" s="20"/>
+      <c r="BZ108" s="20">
         <v>2019</v>
       </c>
-      <c r="CA108" s="17"/>
-      <c r="CB108" s="17"/>
-      <c r="CC108" s="17"/>
-      <c r="CD108" s="17">
+      <c r="CA108" s="20"/>
+      <c r="CB108" s="20"/>
+      <c r="CC108" s="20"/>
+      <c r="CD108" s="20">
         <v>2020</v>
       </c>
-      <c r="CE108" s="17"/>
-      <c r="CF108" s="17"/>
-      <c r="CG108" s="17"/>
-      <c r="CH108" s="17">
+      <c r="CE108" s="20"/>
+      <c r="CF108" s="20"/>
+      <c r="CG108" s="20"/>
+      <c r="CH108" s="20">
         <v>2021</v>
       </c>
-      <c r="CI108" s="17"/>
-      <c r="CJ108" s="17"/>
-      <c r="CK108" s="17"/>
-      <c r="CL108" s="17">
+      <c r="CI108" s="20"/>
+      <c r="CJ108" s="20"/>
+      <c r="CK108" s="20"/>
+      <c r="CL108" s="20">
         <v>2022</v>
       </c>
-      <c r="CM108" s="17"/>
-      <c r="CN108" s="17"/>
-      <c r="CO108" s="17"/>
+      <c r="CM108" s="20"/>
+      <c r="CN108" s="20"/>
+      <c r="CO108" s="20"/>
+      <c r="CP108" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35522,6 +35608,9 @@
       </c>
       <c r="CO109" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP109" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35807,7 +35896,9 @@
       <c r="CO111" s="14">
         <v>20.310228948122525</v>
       </c>
-      <c r="CP111" s="9"/>
+      <c r="CP111" s="14">
+        <v>16.962155621116473</v>
+      </c>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
@@ -36148,7 +36239,9 @@
       <c r="CO112" s="14">
         <v>77.524938768542327</v>
       </c>
-      <c r="CP112" s="9"/>
+      <c r="CP112" s="14">
+        <v>80.038687882042666</v>
+      </c>
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
       <c r="CS112" s="9"/>
@@ -36489,7 +36582,9 @@
       <c r="CO113" s="14">
         <v>2.1648322833351448</v>
       </c>
-      <c r="CP113" s="9"/>
+      <c r="CP113" s="14">
+        <v>2.9991564968408619</v>
+      </c>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
@@ -36984,7 +37079,9 @@
       <c r="CO115" s="14">
         <v>100</v>
       </c>
-      <c r="CP115" s="9"/>
+      <c r="CP115" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
       <c r="CS115" s="9"/>
@@ -37139,6 +37236,7 @@
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
       <c r="CO116" s="12"/>
+      <c r="CP116" s="12"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37465,7 +37563,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37475,7 +37573,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37485,144 +37583,147 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="17">
+      <c r="B128" s="20">
         <v>2000</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="17">
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="20">
         <v>2001</v>
       </c>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="17">
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="20">
         <v>2002</v>
       </c>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="17">
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="20">
         <v>2003</v>
       </c>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="17">
+      <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
+      <c r="Q128" s="21"/>
+      <c r="R128" s="20">
         <v>2004</v>
       </c>
-      <c r="S128" s="18"/>
-      <c r="T128" s="18"/>
-      <c r="U128" s="18"/>
-      <c r="V128" s="17">
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="21"/>
+      <c r="V128" s="20">
         <v>2005</v>
       </c>
-      <c r="W128" s="18"/>
-      <c r="X128" s="18"/>
-      <c r="Y128" s="18"/>
-      <c r="Z128" s="17">
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+      <c r="Y128" s="21"/>
+      <c r="Z128" s="20">
         <v>2006</v>
       </c>
-      <c r="AA128" s="18"/>
-      <c r="AB128" s="18"/>
-      <c r="AC128" s="18"/>
-      <c r="AD128" s="17">
+      <c r="AA128" s="21"/>
+      <c r="AB128" s="21"/>
+      <c r="AC128" s="21"/>
+      <c r="AD128" s="20">
         <v>2007</v>
       </c>
-      <c r="AE128" s="18"/>
-      <c r="AF128" s="18"/>
-      <c r="AG128" s="18"/>
-      <c r="AH128" s="17">
+      <c r="AE128" s="21"/>
+      <c r="AF128" s="21"/>
+      <c r="AG128" s="21"/>
+      <c r="AH128" s="20">
         <v>2008</v>
       </c>
-      <c r="AI128" s="18"/>
-      <c r="AJ128" s="18"/>
-      <c r="AK128" s="18"/>
-      <c r="AL128" s="17">
+      <c r="AI128" s="21"/>
+      <c r="AJ128" s="21"/>
+      <c r="AK128" s="21"/>
+      <c r="AL128" s="20">
         <v>2009</v>
       </c>
-      <c r="AM128" s="18"/>
-      <c r="AN128" s="18"/>
-      <c r="AO128" s="18"/>
-      <c r="AP128" s="17">
+      <c r="AM128" s="21"/>
+      <c r="AN128" s="21"/>
+      <c r="AO128" s="21"/>
+      <c r="AP128" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="18"/>
-      <c r="AR128" s="18"/>
-      <c r="AS128" s="18"/>
-      <c r="AT128" s="17">
+      <c r="AQ128" s="21"/>
+      <c r="AR128" s="21"/>
+      <c r="AS128" s="21"/>
+      <c r="AT128" s="20">
         <v>2011</v>
       </c>
-      <c r="AU128" s="18"/>
-      <c r="AV128" s="18"/>
-      <c r="AW128" s="18"/>
-      <c r="AX128" s="17">
+      <c r="AU128" s="21"/>
+      <c r="AV128" s="21"/>
+      <c r="AW128" s="21"/>
+      <c r="AX128" s="20">
         <v>2012</v>
       </c>
-      <c r="AY128" s="18"/>
-      <c r="AZ128" s="18"/>
-      <c r="BA128" s="18"/>
-      <c r="BB128" s="17">
+      <c r="AY128" s="21"/>
+      <c r="AZ128" s="21"/>
+      <c r="BA128" s="21"/>
+      <c r="BB128" s="20">
         <v>2013</v>
       </c>
-      <c r="BC128" s="18"/>
-      <c r="BD128" s="18"/>
-      <c r="BE128" s="18"/>
-      <c r="BF128" s="17">
+      <c r="BC128" s="21"/>
+      <c r="BD128" s="21"/>
+      <c r="BE128" s="21"/>
+      <c r="BF128" s="20">
         <v>2014</v>
       </c>
-      <c r="BG128" s="18"/>
-      <c r="BH128" s="18"/>
-      <c r="BI128" s="18"/>
-      <c r="BJ128" s="17">
+      <c r="BG128" s="21"/>
+      <c r="BH128" s="21"/>
+      <c r="BI128" s="21"/>
+      <c r="BJ128" s="20">
         <v>2015</v>
       </c>
-      <c r="BK128" s="18"/>
-      <c r="BL128" s="18"/>
-      <c r="BM128" s="18"/>
-      <c r="BN128" s="17">
+      <c r="BK128" s="21"/>
+      <c r="BL128" s="21"/>
+      <c r="BM128" s="21"/>
+      <c r="BN128" s="20">
         <v>2016</v>
       </c>
-      <c r="BO128" s="18"/>
-      <c r="BP128" s="18"/>
-      <c r="BQ128" s="18"/>
-      <c r="BR128" s="17">
+      <c r="BO128" s="21"/>
+      <c r="BP128" s="21"/>
+      <c r="BQ128" s="21"/>
+      <c r="BR128" s="20">
         <v>2017</v>
       </c>
-      <c r="BS128" s="18"/>
-      <c r="BT128" s="18"/>
-      <c r="BU128" s="18"/>
-      <c r="BV128" s="17">
+      <c r="BS128" s="21"/>
+      <c r="BT128" s="21"/>
+      <c r="BU128" s="21"/>
+      <c r="BV128" s="20">
         <v>2018</v>
       </c>
-      <c r="BW128" s="17"/>
-      <c r="BX128" s="17"/>
-      <c r="BY128" s="17"/>
-      <c r="BZ128" s="17">
+      <c r="BW128" s="20"/>
+      <c r="BX128" s="20"/>
+      <c r="BY128" s="20"/>
+      <c r="BZ128" s="20">
         <v>2019</v>
       </c>
-      <c r="CA128" s="17"/>
-      <c r="CB128" s="17"/>
-      <c r="CC128" s="17"/>
-      <c r="CD128" s="17">
+      <c r="CA128" s="20"/>
+      <c r="CB128" s="20"/>
+      <c r="CC128" s="20"/>
+      <c r="CD128" s="20">
         <v>2020</v>
       </c>
-      <c r="CE128" s="17"/>
-      <c r="CF128" s="17"/>
-      <c r="CG128" s="17"/>
-      <c r="CH128" s="17">
+      <c r="CE128" s="20"/>
+      <c r="CF128" s="20"/>
+      <c r="CG128" s="20"/>
+      <c r="CH128" s="20">
         <v>2021</v>
       </c>
-      <c r="CI128" s="17"/>
-      <c r="CJ128" s="17"/>
-      <c r="CK128" s="17"/>
-      <c r="CL128" s="17">
+      <c r="CI128" s="20"/>
+      <c r="CJ128" s="20"/>
+      <c r="CK128" s="20"/>
+      <c r="CL128" s="20">
         <v>2022</v>
       </c>
-      <c r="CM128" s="17"/>
-      <c r="CN128" s="17"/>
-      <c r="CO128" s="17"/>
+      <c r="CM128" s="20"/>
+      <c r="CN128" s="20"/>
+      <c r="CO128" s="20"/>
+      <c r="CP128" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37903,6 +38004,9 @@
       </c>
       <c r="CO129" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP129" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38188,7 +38292,9 @@
       <c r="CO131" s="14">
         <v>19.094243811796265</v>
       </c>
-      <c r="CP131" s="9"/>
+      <c r="CP131" s="14">
+        <v>16.134288959541976</v>
+      </c>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
@@ -38529,7 +38635,9 @@
       <c r="CO132" s="14">
         <v>78.544429057331243</v>
       </c>
-      <c r="CP132" s="9"/>
+      <c r="CP132" s="14">
+        <v>80.687803172966284</v>
+      </c>
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
       <c r="CS132" s="9"/>
@@ -38870,7 +38978,9 @@
       <c r="CO133" s="14">
         <v>2.3613271308724779</v>
       </c>
-      <c r="CP133" s="9"/>
+      <c r="CP133" s="14">
+        <v>3.1779078674917387</v>
+      </c>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
@@ -39365,7 +39475,9 @@
       <c r="CO135" s="14">
         <v>100</v>
       </c>
-      <c r="CP135" s="9"/>
+      <c r="CP135" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
@@ -39520,6 +39632,7 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
+      <c r="CP136" s="12"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -39620,7 +39733,7 @@
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
-      <c r="CP138" s="15"/>
+      <c r="CP138" s="1"/>
       <c r="CQ138" s="15"/>
       <c r="CR138" s="15"/>
       <c r="CS138" s="15"/>
@@ -39775,7 +39888,7 @@
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
-      <c r="CP139" s="15"/>
+      <c r="CP139" s="1"/>
       <c r="CQ139" s="15"/>
       <c r="CR139" s="15"/>
       <c r="CS139" s="15"/>
@@ -39837,7 +39950,7 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR69:BU69"/>
@@ -39867,6 +39980,11 @@
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
     <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BN29:BQ29"/>
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
     <mergeCell ref="BF108:BI108"/>
@@ -39901,10 +40019,11 @@
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="N69:Q69"/>
     <mergeCell ref="R69:U69"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
     <mergeCell ref="V69:Y69"/>
     <mergeCell ref="Z69:AC69"/>
     <mergeCell ref="AD69:AG69"/>
@@ -39914,12 +40033,6 @@
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BF29:BI29"/>
     <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
     <mergeCell ref="V49:Y49"/>
     <mergeCell ref="Z49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
@@ -39978,6 +40091,14 @@
     <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="BJ88:BM88"/>
     <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
@@ -39989,25 +40110,15 @@
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CL49:CO49"/>
-    <mergeCell ref="CL69:CO69"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CD9:CG9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="92" man="1"/>
-    <brk id="80" max="92" man="1"/>
-    <brk id="99" max="92" man="1"/>
+    <brk id="40" max="93" man="1"/>
+    <brk id="80" max="93" man="1"/>
+    <brk id="99" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04761F79-461C-4F21-A375-6A94CA1779A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D7F7D-F353-4EBE-BA44-656AC93848DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1170" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CP$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CQ$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,18 +739,15 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23613,10 +23610,10 @@
   </sheetPr>
   <dimension ref="A1:EW139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23624,8 +23621,8 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="94" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="95" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23660,147 +23657,148 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
-      <c r="CP9" s="17">
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
+      <c r="CP9" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="20"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24084,6 +24082,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24333,46 +24334,48 @@
       <c r="CC12" s="8">
         <v>211939.34770343461</v>
       </c>
-      <c r="CD12" s="18">
+      <c r="CD12" s="17">
         <v>134428.00292712345</v>
       </c>
-      <c r="CE12" s="18">
+      <c r="CE12" s="17">
         <v>144689.96158012253</v>
       </c>
-      <c r="CF12" s="18">
+      <c r="CF12" s="17">
         <v>153470.43165593373</v>
       </c>
-      <c r="CG12" s="18">
+      <c r="CG12" s="17">
         <v>202885.43723331287</v>
       </c>
-      <c r="CH12" s="18">
+      <c r="CH12" s="17">
         <v>125934.52691420163</v>
       </c>
-      <c r="CI12" s="18">
+      <c r="CI12" s="17">
         <v>130429.76216058555</v>
       </c>
-      <c r="CJ12" s="18">
+      <c r="CJ12" s="17">
         <v>160975.38033352135</v>
       </c>
-      <c r="CK12" s="18">
+      <c r="CK12" s="17">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="17">
         <v>140348.40204561496</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="17">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="18">
+      <c r="CN12" s="17">
         <v>169840.95964924814</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="17">
         <v>241632.29360239604</v>
       </c>
-      <c r="CP12" s="18">
-        <v>151187.60370576824</v>
-      </c>
-      <c r="CQ12" s="9"/>
+      <c r="CP12" s="17">
+        <v>150620.61211146932</v>
+      </c>
+      <c r="CQ12" s="17">
+        <v>148193.2591685651</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24676,46 +24679,48 @@
       <c r="CC13" s="8">
         <v>745064.33817422262</v>
       </c>
-      <c r="CD13" s="18">
+      <c r="CD13" s="17">
         <v>569569.38500676304</v>
       </c>
-      <c r="CE13" s="18">
+      <c r="CE13" s="17">
         <v>602323.12720453925</v>
       </c>
-      <c r="CF13" s="18">
+      <c r="CF13" s="17">
         <v>726045.37781260512</v>
       </c>
-      <c r="CG13" s="18">
+      <c r="CG13" s="17">
         <v>720588.29363605776</v>
       </c>
-      <c r="CH13" s="18">
+      <c r="CH13" s="17">
         <v>556310.12994573393</v>
       </c>
-      <c r="CI13" s="18">
+      <c r="CI13" s="17">
         <v>664628.85626506037</v>
       </c>
-      <c r="CJ13" s="18">
+      <c r="CJ13" s="17">
         <v>787926.29941272957</v>
       </c>
-      <c r="CK13" s="18">
+      <c r="CK13" s="17">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="17">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="17">
         <v>766091.80746634072</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="17">
         <v>905030.62429906428</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="17">
         <v>922319.92134977039</v>
       </c>
-      <c r="CP13" s="18">
-        <v>713403.27815265302</v>
-      </c>
-      <c r="CQ13" s="9"/>
+      <c r="CP13" s="17">
+        <v>711549.25857980223</v>
+      </c>
+      <c r="CQ13" s="17">
+        <v>855840.11404161714</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -25019,46 +25024,48 @@
       <c r="CC14" s="8">
         <v>27803.896591451896</v>
       </c>
-      <c r="CD14" s="18">
+      <c r="CD14" s="17">
         <v>21217.279343218623</v>
       </c>
-      <c r="CE14" s="18">
+      <c r="CE14" s="17">
         <v>5310.7490947859096</v>
       </c>
-      <c r="CF14" s="18">
+      <c r="CF14" s="17">
         <v>18142.436705528107</v>
       </c>
-      <c r="CG14" s="18">
+      <c r="CG14" s="17">
         <v>18700.19865871939</v>
       </c>
-      <c r="CH14" s="18">
+      <c r="CH14" s="17">
         <v>22229.866504719321</v>
       </c>
-      <c r="CI14" s="18">
+      <c r="CI14" s="17">
         <v>11073.668521034813</v>
       </c>
-      <c r="CJ14" s="18">
+      <c r="CJ14" s="17">
         <v>17483.618536133064</v>
       </c>
-      <c r="CK14" s="18">
+      <c r="CK14" s="17">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="18">
+      <c r="CL14" s="17">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="18">
+      <c r="CM14" s="17">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="18">
+      <c r="CN14" s="17">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="18">
+      <c r="CO14" s="17">
         <v>25755.169536635767</v>
       </c>
-      <c r="CP14" s="18">
-        <v>26732.173317138251</v>
-      </c>
-      <c r="CQ14" s="9"/>
+      <c r="CP14" s="17">
+        <v>26519.662828424505</v>
+      </c>
+      <c r="CQ14" s="17">
+        <v>17165.534296750127</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -25516,46 +25523,48 @@
       <c r="CC16" s="11">
         <v>984807.58246910921</v>
       </c>
-      <c r="CD16" s="19">
+      <c r="CD16" s="18">
         <v>725214.66727710515</v>
       </c>
-      <c r="CE16" s="19">
+      <c r="CE16" s="18">
         <v>752323.83787944773</v>
       </c>
-      <c r="CF16" s="19">
+      <c r="CF16" s="18">
         <v>897658.24617406691</v>
       </c>
-      <c r="CG16" s="19">
+      <c r="CG16" s="18">
         <v>942173.92952809006</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="18">
         <v>704474.52336465498</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="18">
         <v>806132.28694668063</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="18">
         <v>966385.29828238394</v>
       </c>
-      <c r="CK16" s="19">
+      <c r="CK16" s="18">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="18">
         <v>779105.48896063119</v>
       </c>
-      <c r="CM16" s="19">
+      <c r="CM16" s="18">
         <v>919366.90013090079</v>
       </c>
-      <c r="CN16" s="19">
+      <c r="CN16" s="18">
         <v>1099339.2930877998</v>
       </c>
-      <c r="CO16" s="19">
+      <c r="CO16" s="18">
         <v>1189707.3844888022</v>
       </c>
-      <c r="CP16" s="19">
-        <v>891323.05517555948</v>
-      </c>
-      <c r="CQ16" s="9"/>
+      <c r="CP16" s="18">
+        <v>888689.53351969598</v>
+      </c>
+      <c r="CQ16" s="18">
+        <v>1021198.9075069323</v>
+      </c>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
@@ -25710,6 +25719,7 @@
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
       <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -26056,147 +26066,148 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>2000</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>2001</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <v>2002</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="20">
+      <c r="N29" s="19">
         <v>2003</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="20">
+      <c r="R29" s="19">
         <v>2004</v>
       </c>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
-      <c r="V29" s="20">
+      <c r="V29" s="19">
         <v>2005</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
-      <c r="Z29" s="20">
+      <c r="Z29" s="19">
         <v>2006</v>
       </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
-      <c r="AD29" s="20">
+      <c r="AD29" s="19">
         <v>2007</v>
       </c>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
-      <c r="AH29" s="20">
+      <c r="AH29" s="19">
         <v>2008</v>
       </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
-      <c r="AL29" s="20">
+      <c r="AL29" s="19">
         <v>2009</v>
       </c>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
       <c r="AO29" s="21"/>
-      <c r="AP29" s="20">
+      <c r="AP29" s="19">
         <v>2010</v>
       </c>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
-      <c r="AT29" s="20">
+      <c r="AT29" s="19">
         <v>2011</v>
       </c>
       <c r="AU29" s="21"/>
       <c r="AV29" s="21"/>
       <c r="AW29" s="21"/>
-      <c r="AX29" s="20">
+      <c r="AX29" s="19">
         <v>2012</v>
       </c>
       <c r="AY29" s="21"/>
       <c r="AZ29" s="21"/>
       <c r="BA29" s="21"/>
-      <c r="BB29" s="20">
+      <c r="BB29" s="19">
         <v>2013</v>
       </c>
       <c r="BC29" s="21"/>
       <c r="BD29" s="21"/>
       <c r="BE29" s="21"/>
-      <c r="BF29" s="20">
+      <c r="BF29" s="19">
         <v>2014</v>
       </c>
       <c r="BG29" s="21"/>
       <c r="BH29" s="21"/>
       <c r="BI29" s="21"/>
-      <c r="BJ29" s="20">
+      <c r="BJ29" s="19">
         <v>2015</v>
       </c>
       <c r="BK29" s="21"/>
       <c r="BL29" s="21"/>
       <c r="BM29" s="21"/>
-      <c r="BN29" s="20">
+      <c r="BN29" s="19">
         <v>2016</v>
       </c>
       <c r="BO29" s="21"/>
       <c r="BP29" s="21"/>
       <c r="BQ29" s="21"/>
-      <c r="BR29" s="20">
+      <c r="BR29" s="19">
         <v>2017</v>
       </c>
       <c r="BS29" s="21"/>
       <c r="BT29" s="21"/>
       <c r="BU29" s="21"/>
-      <c r="BV29" s="20">
+      <c r="BV29" s="19">
         <v>2018</v>
       </c>
-      <c r="BW29" s="20"/>
-      <c r="BX29" s="20"/>
-      <c r="BY29" s="20"/>
-      <c r="BZ29" s="20">
+      <c r="BW29" s="19"/>
+      <c r="BX29" s="19"/>
+      <c r="BY29" s="19"/>
+      <c r="BZ29" s="19">
         <v>2019</v>
       </c>
-      <c r="CA29" s="20"/>
-      <c r="CB29" s="20"/>
-      <c r="CC29" s="20"/>
-      <c r="CD29" s="20">
+      <c r="CA29" s="19"/>
+      <c r="CB29" s="19"/>
+      <c r="CC29" s="19"/>
+      <c r="CD29" s="19">
         <v>2020</v>
       </c>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="20">
+      <c r="CE29" s="19"/>
+      <c r="CF29" s="19"/>
+      <c r="CG29" s="19"/>
+      <c r="CH29" s="19">
         <v>2021</v>
       </c>
-      <c r="CI29" s="20"/>
-      <c r="CJ29" s="20"/>
-      <c r="CK29" s="20"/>
-      <c r="CL29" s="20">
+      <c r="CI29" s="19"/>
+      <c r="CJ29" s="19"/>
+      <c r="CK29" s="19"/>
+      <c r="CL29" s="19">
         <v>2022</v>
       </c>
-      <c r="CM29" s="20"/>
-      <c r="CN29" s="20"/>
-      <c r="CO29" s="20"/>
-      <c r="CP29" s="17">
+      <c r="CM29" s="19"/>
+      <c r="CN29" s="19"/>
+      <c r="CO29" s="19"/>
+      <c r="CP29" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ29" s="20"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26480,6 +26491,9 @@
       </c>
       <c r="CP30" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ30" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26729,46 +26743,48 @@
       <c r="CC32" s="8">
         <v>209530.66714622904</v>
       </c>
-      <c r="CD32" s="18">
+      <c r="CD32" s="17">
         <v>128853.38291035185</v>
       </c>
-      <c r="CE32" s="18">
+      <c r="CE32" s="17">
         <v>138974.71274836591</v>
       </c>
-      <c r="CF32" s="18">
+      <c r="CF32" s="17">
         <v>147650.98243383912</v>
       </c>
-      <c r="CG32" s="18">
+      <c r="CG32" s="17">
         <v>194822.09031976195</v>
       </c>
-      <c r="CH32" s="18">
+      <c r="CH32" s="17">
         <v>117334.74706809164</v>
       </c>
-      <c r="CI32" s="18">
+      <c r="CI32" s="17">
         <v>122534.66867416279</v>
       </c>
-      <c r="CJ32" s="18">
+      <c r="CJ32" s="17">
         <v>149849.83840446768</v>
       </c>
-      <c r="CK32" s="18">
+      <c r="CK32" s="17">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="18">
+      <c r="CL32" s="17">
         <v>126762.67468302601</v>
       </c>
-      <c r="CM32" s="18">
+      <c r="CM32" s="17">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="18">
+      <c r="CN32" s="17">
         <v>150635.17151022534</v>
       </c>
-      <c r="CO32" s="18">
+      <c r="CO32" s="17">
         <v>207103.66086608323</v>
       </c>
-      <c r="CP32" s="18">
-        <v>129189.96707612173</v>
-      </c>
-      <c r="CQ32" s="9"/>
+      <c r="CP32" s="17">
+        <v>128252.22203265468</v>
+      </c>
+      <c r="CQ32" s="17">
+        <v>128219.08266051438</v>
+      </c>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
@@ -27072,46 +27088,48 @@
       <c r="CC33" s="8">
         <v>735663.52985589486</v>
       </c>
-      <c r="CD33" s="18">
+      <c r="CD33" s="17">
         <v>573543.42270822532</v>
       </c>
-      <c r="CE33" s="18">
+      <c r="CE33" s="17">
         <v>600227.80201786652</v>
       </c>
-      <c r="CF33" s="18">
+      <c r="CF33" s="17">
         <v>709888.97951706429</v>
       </c>
-      <c r="CG33" s="18">
+      <c r="CG33" s="17">
         <v>717282.76015728002</v>
       </c>
-      <c r="CH33" s="18">
+      <c r="CH33" s="17">
         <v>559420.39392693527</v>
       </c>
-      <c r="CI33" s="18">
+      <c r="CI33" s="17">
         <v>650769.9722624555</v>
       </c>
-      <c r="CJ33" s="18">
+      <c r="CJ33" s="17">
         <v>765281.26945021667</v>
       </c>
-      <c r="CK33" s="18">
+      <c r="CK33" s="17">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="18">
+      <c r="CL33" s="17">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="18">
+      <c r="CM33" s="17">
         <v>720940.83705220371</v>
       </c>
-      <c r="CN33" s="18">
+      <c r="CN33" s="17">
         <v>842149.34253795329</v>
       </c>
-      <c r="CO33" s="18">
+      <c r="CO33" s="17">
         <v>851923.69798693701</v>
       </c>
-      <c r="CP33" s="18">
-        <v>646080.8196443771</v>
-      </c>
-      <c r="CQ33" s="9"/>
+      <c r="CP33" s="17">
+        <v>645710.09550988954</v>
+      </c>
+      <c r="CQ33" s="17">
+        <v>760905.90046929405</v>
+      </c>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
@@ -27415,46 +27433,48 @@
       <c r="CC34" s="8">
         <v>28683.521697405748</v>
       </c>
-      <c r="CD34" s="18">
+      <c r="CD34" s="17">
         <v>21113.652005447329</v>
       </c>
-      <c r="CE34" s="18">
+      <c r="CE34" s="17">
         <v>5386.1641074084</v>
       </c>
-      <c r="CF34" s="18">
+      <c r="CF34" s="17">
         <v>18592.225326633139</v>
       </c>
-      <c r="CG34" s="18">
+      <c r="CG34" s="17">
         <v>19200.638762867737</v>
       </c>
-      <c r="CH34" s="18">
+      <c r="CH34" s="17">
         <v>22053.277989249957</v>
       </c>
-      <c r="CI34" s="18">
+      <c r="CI34" s="17">
         <v>11279.082191936619</v>
       </c>
-      <c r="CJ34" s="18">
+      <c r="CJ34" s="17">
         <v>18022.981191521263</v>
       </c>
-      <c r="CK34" s="18">
+      <c r="CK34" s="17">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="18">
+      <c r="CL34" s="17">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="18">
+      <c r="CM34" s="17">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="18">
+      <c r="CN34" s="17">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="18">
+      <c r="CO34" s="17">
         <v>25611.880634098241</v>
       </c>
-      <c r="CP34" s="18">
-        <v>25446.043132219995</v>
-      </c>
-      <c r="CQ34" s="9"/>
+      <c r="CP34" s="17">
+        <v>25230.57743629234</v>
+      </c>
+      <c r="CQ34" s="17">
+        <v>16810.488863088736</v>
+      </c>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
@@ -27595,20 +27615,20 @@
       <c r="CA35" s="11"/>
       <c r="CB35" s="11"/>
       <c r="CC35" s="11"/>
-      <c r="CD35" s="19"/>
-      <c r="CE35" s="19"/>
-      <c r="CF35" s="19"/>
-      <c r="CG35" s="19"/>
-      <c r="CH35" s="19"/>
-      <c r="CI35" s="19"/>
-      <c r="CJ35" s="19"/>
-      <c r="CK35" s="19"/>
-      <c r="CL35" s="19"/>
-      <c r="CM35" s="19"/>
-      <c r="CN35" s="19"/>
-      <c r="CO35" s="19"/>
-      <c r="CP35" s="19"/>
-      <c r="CQ35" s="9"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
+      <c r="CF35" s="18"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="18"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
+      <c r="CO35" s="18"/>
+      <c r="CP35" s="18"/>
+      <c r="CQ35" s="18"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
@@ -27912,46 +27932,48 @@
       <c r="CC36" s="11">
         <v>973877.71869952965</v>
       </c>
-      <c r="CD36" s="19">
+      <c r="CD36" s="18">
         <v>723510.45762402448</v>
       </c>
-      <c r="CE36" s="19">
+      <c r="CE36" s="18">
         <v>744588.67887364083</v>
       </c>
-      <c r="CF36" s="19">
+      <c r="CF36" s="18">
         <v>876132.18727753661</v>
       </c>
-      <c r="CG36" s="19">
+      <c r="CG36" s="18">
         <v>931305.48923990969</v>
       </c>
-      <c r="CH36" s="19">
+      <c r="CH36" s="18">
         <v>698808.41898427682</v>
       </c>
-      <c r="CI36" s="19">
+      <c r="CI36" s="18">
         <v>784583.72312855499</v>
       </c>
-      <c r="CJ36" s="19">
+      <c r="CJ36" s="18">
         <v>933154.08904620563</v>
       </c>
-      <c r="CK36" s="19">
+      <c r="CK36" s="18">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="18">
         <v>748032.2899829481</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="18">
         <v>860590.65604630881</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="18">
         <v>1017605.8696006653</v>
       </c>
-      <c r="CO36" s="19">
+      <c r="CO36" s="18">
         <v>1084639.2394871186</v>
       </c>
-      <c r="CP36" s="19">
-        <v>800716.82985271886</v>
-      </c>
-      <c r="CQ36" s="9"/>
+      <c r="CP36" s="18">
+        <v>799192.89497883653</v>
+      </c>
+      <c r="CQ36" s="18">
+        <v>905935.47199289722</v>
+      </c>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
@@ -28106,6 +28128,7 @@
       <c r="CN37" s="12"/>
       <c r="CO37" s="12"/>
       <c r="CP37" s="12"/>
+      <c r="CQ37" s="12"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28452,145 +28475,146 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20" t="s">
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20" t="s">
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20" t="s">
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20" t="s">
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20" t="s">
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20" t="s">
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20" t="s">
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="20" t="s">
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="20"/>
-      <c r="AO49" s="20"/>
-      <c r="AP49" s="20" t="s">
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="20"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="20" t="s">
+      <c r="AQ49" s="19"/>
+      <c r="AR49" s="19"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="20"/>
-      <c r="AV49" s="20"/>
-      <c r="AW49" s="20"/>
-      <c r="AX49" s="20" t="s">
+      <c r="AU49" s="19"/>
+      <c r="AV49" s="19"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="20"/>
-      <c r="AZ49" s="20"/>
-      <c r="BA49" s="20"/>
-      <c r="BB49" s="20" t="s">
+      <c r="AY49" s="19"/>
+      <c r="AZ49" s="19"/>
+      <c r="BA49" s="19"/>
+      <c r="BB49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="20"/>
-      <c r="BD49" s="20"/>
-      <c r="BE49" s="20"/>
-      <c r="BF49" s="20" t="s">
+      <c r="BC49" s="19"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="19"/>
+      <c r="BF49" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="20"/>
-      <c r="BH49" s="20"/>
-      <c r="BI49" s="20"/>
-      <c r="BJ49" s="20" t="s">
+      <c r="BG49" s="19"/>
+      <c r="BH49" s="19"/>
+      <c r="BI49" s="19"/>
+      <c r="BJ49" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="20"/>
-      <c r="BL49" s="20"/>
-      <c r="BM49" s="20"/>
-      <c r="BN49" s="20" t="s">
+      <c r="BK49" s="19"/>
+      <c r="BL49" s="19"/>
+      <c r="BM49" s="19"/>
+      <c r="BN49" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="20"/>
-      <c r="BP49" s="20"/>
-      <c r="BQ49" s="20"/>
-      <c r="BR49" s="20" t="s">
+      <c r="BO49" s="19"/>
+      <c r="BP49" s="19"/>
+      <c r="BQ49" s="19"/>
+      <c r="BR49" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="20"/>
-      <c r="BT49" s="20"/>
-      <c r="BU49" s="20"/>
-      <c r="BV49" s="20" t="s">
+      <c r="BS49" s="19"/>
+      <c r="BT49" s="19"/>
+      <c r="BU49" s="19"/>
+      <c r="BV49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="20"/>
-      <c r="BX49" s="20"/>
-      <c r="BY49" s="20"/>
-      <c r="BZ49" s="20" t="s">
+      <c r="BW49" s="19"/>
+      <c r="BX49" s="19"/>
+      <c r="BY49" s="19"/>
+      <c r="BZ49" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="20"/>
-      <c r="CB49" s="20"/>
-      <c r="CC49" s="20"/>
-      <c r="CD49" s="20" t="s">
+      <c r="CA49" s="19"/>
+      <c r="CB49" s="19"/>
+      <c r="CC49" s="19"/>
+      <c r="CD49" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="20"/>
-      <c r="CF49" s="20"/>
-      <c r="CG49" s="20"/>
-      <c r="CH49" s="20" t="s">
+      <c r="CE49" s="19"/>
+      <c r="CF49" s="19"/>
+      <c r="CG49" s="19"/>
+      <c r="CH49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="20"/>
-      <c r="CJ49" s="20"/>
-      <c r="CK49" s="20"/>
-      <c r="CL49" s="17" t="s">
+      <c r="CI49" s="19"/>
+      <c r="CJ49" s="19"/>
+      <c r="CK49" s="19"/>
+      <c r="CL49" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="17"/>
-      <c r="CN49" s="17"/>
-      <c r="CO49" s="17"/>
-      <c r="CP49" s="17"/>
+      <c r="CM49" s="19"/>
+      <c r="CN49" s="19"/>
+      <c r="CO49" s="19"/>
+      <c r="CP49" s="19"/>
+      <c r="CQ49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28863,10 +28887,13 @@
       <c r="CL50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="5"/>
+      <c r="CM50" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN50" s="5"/>
       <c r="CO50" s="5"/>
       <c r="CP50" s="5"/>
+      <c r="CQ50" s="5"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29140,13 +29167,15 @@
         <v>10.606669514059931</v>
       </c>
       <c r="CL52" s="14">
-        <v>7.7230673824347491</v>
-      </c>
-      <c r="CM52" s="14"/>
+        <v>7.3190787469854968</v>
+      </c>
+      <c r="CM52" s="14">
+        <v>6.8518058063963281</v>
+      </c>
       <c r="CN52" s="14"/>
       <c r="CO52" s="14"/>
       <c r="CP52" s="14"/>
-      <c r="CQ52" s="9"/>
+      <c r="CQ52" s="14"/>
       <c r="CR52" s="9"/>
       <c r="CS52" s="9"/>
       <c r="CT52" s="9"/>
@@ -29471,13 +29500,15 @@
         <v>17.106613161245704</v>
       </c>
       <c r="CL53" s="14">
-        <v>15.87585454217448</v>
-      </c>
-      <c r="CM53" s="14"/>
+        <v>15.574711964166823</v>
+      </c>
+      <c r="CM53" s="14">
+        <v>11.715085019913829</v>
+      </c>
       <c r="CN53" s="14"/>
       <c r="CO53" s="14"/>
       <c r="CP53" s="14"/>
-      <c r="CQ53" s="9"/>
+      <c r="CQ53" s="14"/>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
@@ -29802,13 +29833,15 @@
         <v>30.39562411485727</v>
       </c>
       <c r="CL54" s="14">
-        <v>15.746904693939882</v>
-      </c>
-      <c r="CM54" s="14"/>
+        <v>14.826761352364187</v>
+      </c>
+      <c r="CM54" s="14">
+        <v>17.696020763367287</v>
+      </c>
       <c r="CN54" s="14"/>
       <c r="CO54" s="14"/>
       <c r="CP54" s="14"/>
-      <c r="CQ54" s="9"/>
+      <c r="CQ54" s="14"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
@@ -30283,13 +30316,15 @@
         <v>15.978223644767198</v>
       </c>
       <c r="CL56" s="14">
-        <v>14.403385395812379</v>
-      </c>
-      <c r="CM56" s="14"/>
+        <v>14.065366771482488</v>
+      </c>
+      <c r="CM56" s="14">
+        <v>11.076318645095057</v>
+      </c>
       <c r="CN56" s="14"/>
       <c r="CO56" s="14"/>
       <c r="CP56" s="14"/>
-      <c r="CQ56" s="9"/>
+      <c r="CQ56" s="14"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
@@ -30440,6 +30475,7 @@
       <c r="CN57" s="12"/>
       <c r="CO57" s="12"/>
       <c r="CP57" s="12"/>
+      <c r="CQ57" s="12"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30778,145 +30814,146 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="20" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="20" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="20" t="s">
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="20" t="s">
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="20" t="s">
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="20" t="s">
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="20" t="s">
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="20" t="s">
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="20" t="s">
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="20" t="s">
+      <c r="AM69" s="20"/>
+      <c r="AN69" s="20"/>
+      <c r="AO69" s="20"/>
+      <c r="AP69" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="22"/>
-      <c r="AR69" s="22"/>
-      <c r="AS69" s="22"/>
-      <c r="AT69" s="20" t="s">
+      <c r="AQ69" s="20"/>
+      <c r="AR69" s="20"/>
+      <c r="AS69" s="20"/>
+      <c r="AT69" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="22"/>
-      <c r="AV69" s="22"/>
-      <c r="AW69" s="22"/>
-      <c r="AX69" s="20" t="s">
+      <c r="AU69" s="20"/>
+      <c r="AV69" s="20"/>
+      <c r="AW69" s="20"/>
+      <c r="AX69" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="22"/>
-      <c r="AZ69" s="22"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="20" t="s">
+      <c r="AY69" s="20"/>
+      <c r="AZ69" s="20"/>
+      <c r="BA69" s="20"/>
+      <c r="BB69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="20" t="s">
+      <c r="BC69" s="20"/>
+      <c r="BD69" s="20"/>
+      <c r="BE69" s="20"/>
+      <c r="BF69" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="22"/>
-      <c r="BH69" s="22"/>
-      <c r="BI69" s="22"/>
-      <c r="BJ69" s="20" t="s">
+      <c r="BG69" s="20"/>
+      <c r="BH69" s="20"/>
+      <c r="BI69" s="20"/>
+      <c r="BJ69" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="22"/>
-      <c r="BL69" s="22"/>
-      <c r="BM69" s="22"/>
-      <c r="BN69" s="20" t="s">
+      <c r="BK69" s="20"/>
+      <c r="BL69" s="20"/>
+      <c r="BM69" s="20"/>
+      <c r="BN69" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="22"/>
-      <c r="BP69" s="22"/>
-      <c r="BQ69" s="22"/>
-      <c r="BR69" s="20" t="s">
+      <c r="BO69" s="20"/>
+      <c r="BP69" s="20"/>
+      <c r="BQ69" s="20"/>
+      <c r="BR69" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="22"/>
-      <c r="BT69" s="22"/>
-      <c r="BU69" s="22"/>
-      <c r="BV69" s="20" t="s">
+      <c r="BS69" s="20"/>
+      <c r="BT69" s="20"/>
+      <c r="BU69" s="20"/>
+      <c r="BV69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="20"/>
-      <c r="BX69" s="20"/>
-      <c r="BY69" s="20"/>
-      <c r="BZ69" s="20" t="s">
+      <c r="BW69" s="19"/>
+      <c r="BX69" s="19"/>
+      <c r="BY69" s="19"/>
+      <c r="BZ69" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="20"/>
-      <c r="CB69" s="20"/>
-      <c r="CC69" s="20"/>
-      <c r="CD69" s="20" t="s">
+      <c r="CA69" s="19"/>
+      <c r="CB69" s="19"/>
+      <c r="CC69" s="19"/>
+      <c r="CD69" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="20"/>
-      <c r="CF69" s="20"/>
-      <c r="CG69" s="20"/>
-      <c r="CH69" s="20" t="s">
+      <c r="CE69" s="19"/>
+      <c r="CF69" s="19"/>
+      <c r="CG69" s="19"/>
+      <c r="CH69" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="20"/>
-      <c r="CJ69" s="20"/>
-      <c r="CK69" s="20"/>
-      <c r="CL69" s="17" t="s">
+      <c r="CI69" s="19"/>
+      <c r="CJ69" s="19"/>
+      <c r="CK69" s="19"/>
+      <c r="CL69" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="17"/>
-      <c r="CN69" s="17"/>
-      <c r="CO69" s="17"/>
-      <c r="CP69" s="17"/>
+      <c r="CM69" s="19"/>
+      <c r="CN69" s="19"/>
+      <c r="CO69" s="19"/>
+      <c r="CP69" s="19"/>
+      <c r="CQ69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31189,10 +31226,13 @@
       <c r="CL70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="5"/>
+      <c r="CM70" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN70" s="5"/>
       <c r="CO70" s="5"/>
       <c r="CP70" s="5"/>
+      <c r="CQ70" s="5"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31466,13 +31506,15 @@
         <v>3.1330679612443362</v>
       </c>
       <c r="CL72" s="14">
-        <v>1.9148321058744244</v>
-      </c>
-      <c r="CM72" s="14"/>
+        <v>1.1750677818634898</v>
+      </c>
+      <c r="CM72" s="14">
+        <v>2.5039121936632114</v>
+      </c>
       <c r="CN72" s="14"/>
       <c r="CO72" s="14"/>
       <c r="CP72" s="14"/>
-      <c r="CQ72" s="9"/>
+      <c r="CQ72" s="14"/>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
@@ -31797,13 +31839,15 @@
         <v>9.769163570978094</v>
       </c>
       <c r="CL73" s="14">
-        <v>7.9128726650745875</v>
-      </c>
-      <c r="CM73" s="14"/>
+        <v>7.8509517643104374</v>
+      </c>
+      <c r="CM73" s="14">
+        <v>5.5434595133354208</v>
+      </c>
       <c r="CN73" s="14"/>
       <c r="CO73" s="14"/>
       <c r="CP73" s="14"/>
-      <c r="CQ73" s="9"/>
+      <c r="CQ73" s="14"/>
       <c r="CR73" s="9"/>
       <c r="CS73" s="9"/>
       <c r="CT73" s="9"/>
@@ -32128,13 +32172,15 @@
         <v>25.543303061630169</v>
       </c>
       <c r="CL74" s="14">
-        <v>12.774561829492683</v>
-      </c>
-      <c r="CM74" s="14"/>
+        <v>11.819637351794213</v>
+      </c>
+      <c r="CM74" s="14">
+        <v>15.434413163005019</v>
+      </c>
       <c r="CN74" s="14"/>
       <c r="CO74" s="14"/>
       <c r="CP74" s="14"/>
-      <c r="CQ74" s="9"/>
+      <c r="CQ74" s="14"/>
       <c r="CR74" s="9"/>
       <c r="CS74" s="9"/>
       <c r="CT74" s="9"/>
@@ -32609,13 +32655,15 @@
         <v>8.7556423970160751</v>
       </c>
       <c r="CL76" s="14">
-        <v>7.0430836442864972</v>
-      </c>
-      <c r="CM76" s="14"/>
+        <v>6.8393578300015179</v>
+      </c>
+      <c r="CM76" s="14">
+        <v>5.269034195061991</v>
+      </c>
       <c r="CN76" s="14"/>
       <c r="CO76" s="14"/>
       <c r="CP76" s="14"/>
-      <c r="CQ76" s="9"/>
+      <c r="CQ76" s="14"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
@@ -32766,6 +32814,7 @@
       <c r="CN77" s="12"/>
       <c r="CO77" s="12"/>
       <c r="CP77" s="12"/>
+      <c r="CQ77" s="12"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -33099,147 +33148,148 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="20">
+      <c r="B88" s="19">
         <v>2000</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
-      <c r="F88" s="20">
+      <c r="F88" s="19">
         <v>2001</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
-      <c r="J88" s="20">
+      <c r="J88" s="19">
         <v>2002</v>
       </c>
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
-      <c r="N88" s="20">
+      <c r="N88" s="19">
         <v>2003</v>
       </c>
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
-      <c r="R88" s="20">
+      <c r="R88" s="19">
         <v>2004</v>
       </c>
       <c r="S88" s="21"/>
       <c r="T88" s="21"/>
       <c r="U88" s="21"/>
-      <c r="V88" s="20">
+      <c r="V88" s="19">
         <v>2005</v>
       </c>
       <c r="W88" s="21"/>
       <c r="X88" s="21"/>
       <c r="Y88" s="21"/>
-      <c r="Z88" s="20">
+      <c r="Z88" s="19">
         <v>2006</v>
       </c>
       <c r="AA88" s="21"/>
       <c r="AB88" s="21"/>
       <c r="AC88" s="21"/>
-      <c r="AD88" s="20">
+      <c r="AD88" s="19">
         <v>2007</v>
       </c>
       <c r="AE88" s="21"/>
       <c r="AF88" s="21"/>
       <c r="AG88" s="21"/>
-      <c r="AH88" s="20">
+      <c r="AH88" s="19">
         <v>2008</v>
       </c>
       <c r="AI88" s="21"/>
       <c r="AJ88" s="21"/>
       <c r="AK88" s="21"/>
-      <c r="AL88" s="20">
+      <c r="AL88" s="19">
         <v>2009</v>
       </c>
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
       <c r="AO88" s="21"/>
-      <c r="AP88" s="20">
+      <c r="AP88" s="19">
         <v>2010</v>
       </c>
       <c r="AQ88" s="21"/>
       <c r="AR88" s="21"/>
       <c r="AS88" s="21"/>
-      <c r="AT88" s="20">
+      <c r="AT88" s="19">
         <v>2011</v>
       </c>
       <c r="AU88" s="21"/>
       <c r="AV88" s="21"/>
       <c r="AW88" s="21"/>
-      <c r="AX88" s="20">
+      <c r="AX88" s="19">
         <v>2012</v>
       </c>
       <c r="AY88" s="21"/>
       <c r="AZ88" s="21"/>
       <c r="BA88" s="21"/>
-      <c r="BB88" s="20">
+      <c r="BB88" s="19">
         <v>2013</v>
       </c>
       <c r="BC88" s="21"/>
       <c r="BD88" s="21"/>
       <c r="BE88" s="21"/>
-      <c r="BF88" s="20">
+      <c r="BF88" s="19">
         <v>2014</v>
       </c>
       <c r="BG88" s="21"/>
       <c r="BH88" s="21"/>
       <c r="BI88" s="21"/>
-      <c r="BJ88" s="20">
+      <c r="BJ88" s="19">
         <v>2015</v>
       </c>
       <c r="BK88" s="21"/>
       <c r="BL88" s="21"/>
       <c r="BM88" s="21"/>
-      <c r="BN88" s="20">
+      <c r="BN88" s="19">
         <v>2016</v>
       </c>
       <c r="BO88" s="21"/>
       <c r="BP88" s="21"/>
       <c r="BQ88" s="21"/>
-      <c r="BR88" s="20">
+      <c r="BR88" s="19">
         <v>2017</v>
       </c>
       <c r="BS88" s="21"/>
       <c r="BT88" s="21"/>
       <c r="BU88" s="21"/>
-      <c r="BV88" s="20">
+      <c r="BV88" s="19">
         <v>2018</v>
       </c>
-      <c r="BW88" s="20"/>
-      <c r="BX88" s="20"/>
-      <c r="BY88" s="20"/>
-      <c r="BZ88" s="20">
+      <c r="BW88" s="19"/>
+      <c r="BX88" s="19"/>
+      <c r="BY88" s="19"/>
+      <c r="BZ88" s="19">
         <v>2019</v>
       </c>
-      <c r="CA88" s="20"/>
-      <c r="CB88" s="20"/>
-      <c r="CC88" s="20"/>
-      <c r="CD88" s="20">
+      <c r="CA88" s="19"/>
+      <c r="CB88" s="19"/>
+      <c r="CC88" s="19"/>
+      <c r="CD88" s="19">
         <v>2020</v>
       </c>
-      <c r="CE88" s="20"/>
-      <c r="CF88" s="20"/>
-      <c r="CG88" s="20"/>
-      <c r="CH88" s="20">
+      <c r="CE88" s="19"/>
+      <c r="CF88" s="19"/>
+      <c r="CG88" s="19"/>
+      <c r="CH88" s="19">
         <v>2021</v>
       </c>
-      <c r="CI88" s="20"/>
-      <c r="CJ88" s="20"/>
-      <c r="CK88" s="20"/>
-      <c r="CL88" s="20">
+      <c r="CI88" s="19"/>
+      <c r="CJ88" s="19"/>
+      <c r="CK88" s="19"/>
+      <c r="CL88" s="19">
         <v>2022</v>
       </c>
-      <c r="CM88" s="20"/>
-      <c r="CN88" s="20"/>
-      <c r="CO88" s="20"/>
-      <c r="CP88" s="17">
+      <c r="CM88" s="19"/>
+      <c r="CN88" s="19"/>
+      <c r="CO88" s="19"/>
+      <c r="CP88" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ88" s="20"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33523,6 +33573,9 @@
       </c>
       <c r="CP89" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ89" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33809,9 +33862,11 @@
         <v>116.67214987505199</v>
       </c>
       <c r="CP91" s="14">
-        <v>117.02735678900282</v>
-      </c>
-      <c r="CQ91" s="9"/>
+        <v>117.44093764950081</v>
+      </c>
+      <c r="CQ91" s="14">
+        <v>115.57816207509168</v>
+      </c>
       <c r="CR91" s="9"/>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
@@ -34152,9 +34207,11 @@
         <v>108.26320755358454</v>
       </c>
       <c r="CP92" s="14">
-        <v>110.42012956603979</v>
-      </c>
-      <c r="CQ92" s="9"/>
+        <v>110.19639673093889</v>
+      </c>
+      <c r="CQ92" s="14">
+        <v>112.47647225678914</v>
+      </c>
       <c r="CR92" s="9"/>
       <c r="CS92" s="9"/>
       <c r="CT92" s="9"/>
@@ -34495,9 +34552,11 @@
         <v>100.55946263605009</v>
       </c>
       <c r="CP93" s="14">
-        <v>105.05434254840881</v>
-      </c>
-      <c r="CQ93" s="9"/>
+        <v>105.10921874613108</v>
+      </c>
+      <c r="CQ93" s="14">
+        <v>102.11204704725141</v>
+      </c>
       <c r="CR93" s="9"/>
       <c r="CS93" s="9"/>
       <c r="CT93" s="9"/>
@@ -34992,9 +35051,11 @@
         <v>109.6869208836079</v>
       </c>
       <c r="CP95" s="14">
-        <v>111.31563893062</v>
-      </c>
-      <c r="CQ95" s="9"/>
+        <v>111.19837765114633</v>
+      </c>
+      <c r="CQ95" s="14">
+        <v>112.72313968018892</v>
+      </c>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
@@ -35149,6 +35210,7 @@
       <c r="CN96" s="12"/>
       <c r="CO96" s="12"/>
       <c r="CP96" s="12"/>
+      <c r="CQ96" s="12"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35187,147 +35249,148 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="20">
+      <c r="B108" s="19">
         <v>2000</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
-      <c r="F108" s="20">
+      <c r="F108" s="19">
         <v>2001</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
-      <c r="J108" s="20">
+      <c r="J108" s="19">
         <v>2002</v>
       </c>
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
-      <c r="N108" s="20">
+      <c r="N108" s="19">
         <v>2003</v>
       </c>
       <c r="O108" s="21"/>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
-      <c r="R108" s="20">
+      <c r="R108" s="19">
         <v>2004</v>
       </c>
       <c r="S108" s="21"/>
       <c r="T108" s="21"/>
       <c r="U108" s="21"/>
-      <c r="V108" s="20">
+      <c r="V108" s="19">
         <v>2005</v>
       </c>
       <c r="W108" s="21"/>
       <c r="X108" s="21"/>
       <c r="Y108" s="21"/>
-      <c r="Z108" s="20">
+      <c r="Z108" s="19">
         <v>2006</v>
       </c>
       <c r="AA108" s="21"/>
       <c r="AB108" s="21"/>
       <c r="AC108" s="21"/>
-      <c r="AD108" s="20">
+      <c r="AD108" s="19">
         <v>2007</v>
       </c>
       <c r="AE108" s="21"/>
       <c r="AF108" s="21"/>
       <c r="AG108" s="21"/>
-      <c r="AH108" s="20">
+      <c r="AH108" s="19">
         <v>2008</v>
       </c>
       <c r="AI108" s="21"/>
       <c r="AJ108" s="21"/>
       <c r="AK108" s="21"/>
-      <c r="AL108" s="20">
+      <c r="AL108" s="19">
         <v>2009</v>
       </c>
       <c r="AM108" s="21"/>
       <c r="AN108" s="21"/>
       <c r="AO108" s="21"/>
-      <c r="AP108" s="20">
+      <c r="AP108" s="19">
         <v>2010</v>
       </c>
       <c r="AQ108" s="21"/>
       <c r="AR108" s="21"/>
       <c r="AS108" s="21"/>
-      <c r="AT108" s="20">
+      <c r="AT108" s="19">
         <v>2011</v>
       </c>
       <c r="AU108" s="21"/>
       <c r="AV108" s="21"/>
       <c r="AW108" s="21"/>
-      <c r="AX108" s="20">
+      <c r="AX108" s="19">
         <v>2012</v>
       </c>
       <c r="AY108" s="21"/>
       <c r="AZ108" s="21"/>
       <c r="BA108" s="21"/>
-      <c r="BB108" s="20">
+      <c r="BB108" s="19">
         <v>2013</v>
       </c>
       <c r="BC108" s="21"/>
       <c r="BD108" s="21"/>
       <c r="BE108" s="21"/>
-      <c r="BF108" s="20">
+      <c r="BF108" s="19">
         <v>2014</v>
       </c>
       <c r="BG108" s="21"/>
       <c r="BH108" s="21"/>
       <c r="BI108" s="21"/>
-      <c r="BJ108" s="20">
+      <c r="BJ108" s="19">
         <v>2015</v>
       </c>
       <c r="BK108" s="21"/>
       <c r="BL108" s="21"/>
       <c r="BM108" s="21"/>
-      <c r="BN108" s="20">
+      <c r="BN108" s="19">
         <v>2016</v>
       </c>
       <c r="BO108" s="21"/>
       <c r="BP108" s="21"/>
       <c r="BQ108" s="21"/>
-      <c r="BR108" s="20">
+      <c r="BR108" s="19">
         <v>2017</v>
       </c>
       <c r="BS108" s="21"/>
       <c r="BT108" s="21"/>
       <c r="BU108" s="21"/>
-      <c r="BV108" s="20">
+      <c r="BV108" s="19">
         <v>2018</v>
       </c>
-      <c r="BW108" s="20"/>
-      <c r="BX108" s="20"/>
-      <c r="BY108" s="20"/>
-      <c r="BZ108" s="20">
+      <c r="BW108" s="19"/>
+      <c r="BX108" s="19"/>
+      <c r="BY108" s="19"/>
+      <c r="BZ108" s="19">
         <v>2019</v>
       </c>
-      <c r="CA108" s="20"/>
-      <c r="CB108" s="20"/>
-      <c r="CC108" s="20"/>
-      <c r="CD108" s="20">
+      <c r="CA108" s="19"/>
+      <c r="CB108" s="19"/>
+      <c r="CC108" s="19"/>
+      <c r="CD108" s="19">
         <v>2020</v>
       </c>
-      <c r="CE108" s="20"/>
-      <c r="CF108" s="20"/>
-      <c r="CG108" s="20"/>
-      <c r="CH108" s="20">
+      <c r="CE108" s="19"/>
+      <c r="CF108" s="19"/>
+      <c r="CG108" s="19"/>
+      <c r="CH108" s="19">
         <v>2021</v>
       </c>
-      <c r="CI108" s="20"/>
-      <c r="CJ108" s="20"/>
-      <c r="CK108" s="20"/>
-      <c r="CL108" s="20">
+      <c r="CI108" s="19"/>
+      <c r="CJ108" s="19"/>
+      <c r="CK108" s="19"/>
+      <c r="CL108" s="19">
         <v>2022</v>
       </c>
-      <c r="CM108" s="20"/>
-      <c r="CN108" s="20"/>
-      <c r="CO108" s="20"/>
-      <c r="CP108" s="17">
+      <c r="CM108" s="19"/>
+      <c r="CN108" s="19"/>
+      <c r="CO108" s="19"/>
+      <c r="CP108" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ108" s="20"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35611,6 +35674,9 @@
       </c>
       <c r="CP109" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ109" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35897,9 +35963,11 @@
         <v>20.310228948122525</v>
       </c>
       <c r="CP111" s="14">
-        <v>16.962155621116473</v>
-      </c>
-      <c r="CQ111" s="9"/>
+        <v>16.948620010739795</v>
+      </c>
+      <c r="CQ111" s="14">
+        <v>14.511693860929745</v>
+      </c>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
@@ -36240,9 +36308,11 @@
         <v>77.524938768542327</v>
       </c>
       <c r="CP112" s="14">
-        <v>80.038687882042666</v>
-      </c>
-      <c r="CQ112" s="9"/>
+        <v>80.067248655633264</v>
+      </c>
+      <c r="CQ112" s="14">
+        <v>83.807386372062624</v>
+      </c>
       <c r="CR112" s="9"/>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
@@ -36583,9 +36653,11 @@
         <v>2.1648322833351448</v>
       </c>
       <c r="CP113" s="14">
-        <v>2.9991564968408619</v>
-      </c>
-      <c r="CQ113" s="9"/>
+        <v>2.984131333626959</v>
+      </c>
+      <c r="CQ113" s="14">
+        <v>1.6809197670076437</v>
+      </c>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
@@ -37082,7 +37154,9 @@
       <c r="CP115" s="14">
         <v>100</v>
       </c>
-      <c r="CQ115" s="9"/>
+      <c r="CQ115" s="14">
+        <v>100</v>
+      </c>
       <c r="CR115" s="9"/>
       <c r="CS115" s="9"/>
       <c r="CT115" s="9"/>
@@ -37237,6 +37311,7 @@
       <c r="CN116" s="12"/>
       <c r="CO116" s="12"/>
       <c r="CP116" s="12"/>
+      <c r="CQ116" s="12"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37583,147 +37658,148 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="20">
+      <c r="B128" s="19">
         <v>2000</v>
       </c>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
-      <c r="F128" s="20">
+      <c r="F128" s="19">
         <v>2001</v>
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
-      <c r="J128" s="20">
+      <c r="J128" s="19">
         <v>2002</v>
       </c>
       <c r="K128" s="21"/>
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
-      <c r="N128" s="20">
+      <c r="N128" s="19">
         <v>2003</v>
       </c>
       <c r="O128" s="21"/>
       <c r="P128" s="21"/>
       <c r="Q128" s="21"/>
-      <c r="R128" s="20">
+      <c r="R128" s="19">
         <v>2004</v>
       </c>
       <c r="S128" s="21"/>
       <c r="T128" s="21"/>
       <c r="U128" s="21"/>
-      <c r="V128" s="20">
+      <c r="V128" s="19">
         <v>2005</v>
       </c>
       <c r="W128" s="21"/>
       <c r="X128" s="21"/>
       <c r="Y128" s="21"/>
-      <c r="Z128" s="20">
+      <c r="Z128" s="19">
         <v>2006</v>
       </c>
       <c r="AA128" s="21"/>
       <c r="AB128" s="21"/>
       <c r="AC128" s="21"/>
-      <c r="AD128" s="20">
+      <c r="AD128" s="19">
         <v>2007</v>
       </c>
       <c r="AE128" s="21"/>
       <c r="AF128" s="21"/>
       <c r="AG128" s="21"/>
-      <c r="AH128" s="20">
+      <c r="AH128" s="19">
         <v>2008</v>
       </c>
       <c r="AI128" s="21"/>
       <c r="AJ128" s="21"/>
       <c r="AK128" s="21"/>
-      <c r="AL128" s="20">
+      <c r="AL128" s="19">
         <v>2009</v>
       </c>
       <c r="AM128" s="21"/>
       <c r="AN128" s="21"/>
       <c r="AO128" s="21"/>
-      <c r="AP128" s="20">
+      <c r="AP128" s="19">
         <v>2010</v>
       </c>
       <c r="AQ128" s="21"/>
       <c r="AR128" s="21"/>
       <c r="AS128" s="21"/>
-      <c r="AT128" s="20">
+      <c r="AT128" s="19">
         <v>2011</v>
       </c>
       <c r="AU128" s="21"/>
       <c r="AV128" s="21"/>
       <c r="AW128" s="21"/>
-      <c r="AX128" s="20">
+      <c r="AX128" s="19">
         <v>2012</v>
       </c>
       <c r="AY128" s="21"/>
       <c r="AZ128" s="21"/>
       <c r="BA128" s="21"/>
-      <c r="BB128" s="20">
+      <c r="BB128" s="19">
         <v>2013</v>
       </c>
       <c r="BC128" s="21"/>
       <c r="BD128" s="21"/>
       <c r="BE128" s="21"/>
-      <c r="BF128" s="20">
+      <c r="BF128" s="19">
         <v>2014</v>
       </c>
       <c r="BG128" s="21"/>
       <c r="BH128" s="21"/>
       <c r="BI128" s="21"/>
-      <c r="BJ128" s="20">
+      <c r="BJ128" s="19">
         <v>2015</v>
       </c>
       <c r="BK128" s="21"/>
       <c r="BL128" s="21"/>
       <c r="BM128" s="21"/>
-      <c r="BN128" s="20">
+      <c r="BN128" s="19">
         <v>2016</v>
       </c>
       <c r="BO128" s="21"/>
       <c r="BP128" s="21"/>
       <c r="BQ128" s="21"/>
-      <c r="BR128" s="20">
+      <c r="BR128" s="19">
         <v>2017</v>
       </c>
       <c r="BS128" s="21"/>
       <c r="BT128" s="21"/>
       <c r="BU128" s="21"/>
-      <c r="BV128" s="20">
+      <c r="BV128" s="19">
         <v>2018</v>
       </c>
-      <c r="BW128" s="20"/>
-      <c r="BX128" s="20"/>
-      <c r="BY128" s="20"/>
-      <c r="BZ128" s="20">
+      <c r="BW128" s="19"/>
+      <c r="BX128" s="19"/>
+      <c r="BY128" s="19"/>
+      <c r="BZ128" s="19">
         <v>2019</v>
       </c>
-      <c r="CA128" s="20"/>
-      <c r="CB128" s="20"/>
-      <c r="CC128" s="20"/>
-      <c r="CD128" s="20">
+      <c r="CA128" s="19"/>
+      <c r="CB128" s="19"/>
+      <c r="CC128" s="19"/>
+      <c r="CD128" s="19">
         <v>2020</v>
       </c>
-      <c r="CE128" s="20"/>
-      <c r="CF128" s="20"/>
-      <c r="CG128" s="20"/>
-      <c r="CH128" s="20">
+      <c r="CE128" s="19"/>
+      <c r="CF128" s="19"/>
+      <c r="CG128" s="19"/>
+      <c r="CH128" s="19">
         <v>2021</v>
       </c>
-      <c r="CI128" s="20"/>
-      <c r="CJ128" s="20"/>
-      <c r="CK128" s="20"/>
-      <c r="CL128" s="20">
+      <c r="CI128" s="19"/>
+      <c r="CJ128" s="19"/>
+      <c r="CK128" s="19"/>
+      <c r="CL128" s="19">
         <v>2022</v>
       </c>
-      <c r="CM128" s="20"/>
-      <c r="CN128" s="20"/>
-      <c r="CO128" s="20"/>
-      <c r="CP128" s="17">
+      <c r="CM128" s="19"/>
+      <c r="CN128" s="19"/>
+      <c r="CO128" s="19"/>
+      <c r="CP128" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ128" s="20"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38007,6 +38083,9 @@
       </c>
       <c r="CP129" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ129" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38293,9 +38372,11 @@
         <v>19.094243811796265</v>
       </c>
       <c r="CP131" s="14">
-        <v>16.134288959541976</v>
-      </c>
-      <c r="CQ131" s="9"/>
+        <v>16.047717996298118</v>
+      </c>
+      <c r="CQ131" s="14">
+        <v>14.153224663833413</v>
+      </c>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
@@ -38636,9 +38717,11 @@
         <v>78.544429057331243</v>
       </c>
       <c r="CP132" s="14">
-        <v>80.687803172966284</v>
-      </c>
-      <c r="CQ132" s="9"/>
+        <v>80.795274778686391</v>
+      </c>
+      <c r="CQ132" s="14">
+        <v>83.99118082830293</v>
+      </c>
       <c r="CR132" s="9"/>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
@@ -38979,9 +39062,11 @@
         <v>2.3613271308724779</v>
       </c>
       <c r="CP133" s="14">
-        <v>3.1779078674917387</v>
-      </c>
-      <c r="CQ133" s="9"/>
+        <v>3.1570072250154917</v>
+      </c>
+      <c r="CQ133" s="14">
+        <v>1.8555945078636389</v>
+      </c>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
@@ -39478,7 +39563,9 @@
       <c r="CP135" s="14">
         <v>100</v>
       </c>
-      <c r="CQ135" s="9"/>
+      <c r="CQ135" s="14">
+        <v>100</v>
+      </c>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
@@ -39633,6 +39720,7 @@
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
       <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -39734,7 +39822,7 @@
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
       <c r="CP138" s="1"/>
-      <c r="CQ138" s="15"/>
+      <c r="CQ138" s="1"/>
       <c r="CR138" s="15"/>
       <c r="CS138" s="15"/>
       <c r="CT138" s="15"/>
@@ -39889,7 +39977,7 @@
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
       <c r="CP139" s="1"/>
-      <c r="CQ139" s="15"/>
+      <c r="CQ139" s="1"/>
       <c r="CR139" s="15"/>
       <c r="CS139" s="15"/>
       <c r="CT139" s="15"/>
@@ -39950,41 +40038,117 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BN29:BQ29"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP29:CQ29"/>
+    <mergeCell ref="CP88:CQ88"/>
+    <mergeCell ref="CP108:CQ108"/>
+    <mergeCell ref="CP128:CQ128"/>
+    <mergeCell ref="CL49:CO49"/>
+    <mergeCell ref="CP49:CQ49"/>
+    <mergeCell ref="CL69:CO69"/>
+    <mergeCell ref="CP69:CQ69"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="CL29:CO29"/>
+    <mergeCell ref="CH49:CK49"/>
+    <mergeCell ref="CH69:CK69"/>
+    <mergeCell ref="CL88:CO88"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
     <mergeCell ref="BF108:BI108"/>
@@ -40009,116 +40173,49 @@
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CL29:CO29"/>
-    <mergeCell ref="CH49:CK49"/>
-    <mergeCell ref="CH69:CK69"/>
-    <mergeCell ref="CL88:CO88"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="93" man="1"/>
-    <brk id="80" max="93" man="1"/>
-    <brk id="99" max="93" man="1"/>
+    <brk id="40" max="94" man="1"/>
+    <brk id="80" max="94" man="1"/>
+    <brk id="99" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D7F7D-F353-4EBE-BA44-656AC93848DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BB7CE-F0AD-46EE-B3C2-EF5991AC6D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1170" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CQ$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CR$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +741,22 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23613,7 +23629,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="topRight" activeCell="CQ5" sqref="CQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23621,8 +23637,9 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="95" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="89" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="8.77734375" style="20" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23657,148 +23674,149 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="20"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24068,23 +24086,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24358,25 +24379,27 @@
       <c r="CK12" s="17">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="17">
+      <c r="CL12" s="22">
         <v>140348.40204561496</v>
       </c>
-      <c r="CM12" s="17">
+      <c r="CM12" s="22">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="17">
+      <c r="CN12" s="22">
         <v>169840.95964924814</v>
       </c>
-      <c r="CO12" s="17">
+      <c r="CO12" s="22">
         <v>241632.29360239604</v>
       </c>
-      <c r="CP12" s="17">
+      <c r="CP12" s="22">
         <v>150620.61211146932</v>
       </c>
-      <c r="CQ12" s="17">
-        <v>148193.2591685651</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="22">
+        <v>147622.9109382905</v>
+      </c>
+      <c r="CR12" s="22">
+        <v>182650.72493941872</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24703,25 +24726,27 @@
       <c r="CK13" s="17">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="17">
+      <c r="CL13" s="22">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="17">
+      <c r="CM13" s="22">
         <v>766091.80746634072</v>
       </c>
-      <c r="CN13" s="17">
+      <c r="CN13" s="22">
         <v>905030.62429906428</v>
       </c>
-      <c r="CO13" s="17">
+      <c r="CO13" s="22">
         <v>922319.92134977039</v>
       </c>
-      <c r="CP13" s="17">
+      <c r="CP13" s="22">
         <v>711549.25857980223</v>
       </c>
-      <c r="CQ13" s="17">
-        <v>855840.11404161714</v>
-      </c>
-      <c r="CR13" s="9"/>
+      <c r="CQ13" s="22">
+        <v>855626.56791905919</v>
+      </c>
+      <c r="CR13" s="22">
+        <v>1000392.3997216865</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -25048,25 +25073,27 @@
       <c r="CK14" s="17">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="17">
+      <c r="CL14" s="22">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="17">
+      <c r="CM14" s="22">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="17">
+      <c r="CN14" s="22">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="17">
+      <c r="CO14" s="22">
         <v>25755.169536635767</v>
       </c>
-      <c r="CP14" s="17">
+      <c r="CP14" s="22">
         <v>26519.662828424505</v>
       </c>
-      <c r="CQ14" s="17">
-        <v>17165.534296750127</v>
-      </c>
-      <c r="CR14" s="9"/>
+      <c r="CQ14" s="22">
+        <v>16929.214307323382</v>
+      </c>
+      <c r="CR14" s="22">
+        <v>28413.183626004629</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25214,13 +25241,13 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="9"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
+      <c r="CL15" s="23"/>
+      <c r="CM15" s="23"/>
+      <c r="CN15" s="23"/>
+      <c r="CO15" s="23"/>
+      <c r="CP15" s="23"/>
+      <c r="CQ15" s="23"/>
+      <c r="CR15" s="23"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25547,25 +25574,27 @@
       <c r="CK16" s="18">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="18">
+      <c r="CL16" s="24">
         <v>779105.48896063119</v>
       </c>
-      <c r="CM16" s="18">
+      <c r="CM16" s="24">
         <v>919366.90013090079</v>
       </c>
-      <c r="CN16" s="18">
+      <c r="CN16" s="24">
         <v>1099339.2930877998</v>
       </c>
-      <c r="CO16" s="18">
+      <c r="CO16" s="24">
         <v>1189707.3844888022</v>
       </c>
-      <c r="CP16" s="18">
+      <c r="CP16" s="24">
         <v>888689.53351969598</v>
       </c>
-      <c r="CQ16" s="18">
-        <v>1021198.9075069323</v>
-      </c>
-      <c r="CR16" s="9"/>
+      <c r="CQ16" s="24">
+        <v>1020178.6931646731</v>
+      </c>
+      <c r="CR16" s="24">
+        <v>1211456.3082871099</v>
+      </c>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -25714,12 +25743,13 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="12"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
+      <c r="CL17" s="25"/>
+      <c r="CM17" s="25"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
+      <c r="CP17" s="25"/>
+      <c r="CQ17" s="25"/>
+      <c r="CR17" s="25"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25815,13 +25845,13 @@
       <c r="CI19" s="9"/>
       <c r="CJ19" s="9"/>
       <c r="CK19" s="9"/>
-      <c r="CL19" s="9"/>
-      <c r="CM19" s="9"/>
-      <c r="CN19" s="9"/>
-      <c r="CO19" s="9"/>
-      <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
-      <c r="CR19" s="9"/>
+      <c r="CL19" s="23"/>
+      <c r="CM19" s="23"/>
+      <c r="CN19" s="23"/>
+      <c r="CO19" s="23"/>
+      <c r="CP19" s="23"/>
+      <c r="CQ19" s="23"/>
+      <c r="CR19" s="23"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -25969,13 +25999,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
+      <c r="CL20" s="23"/>
+      <c r="CM20" s="23"/>
+      <c r="CN20" s="23"/>
+      <c r="CO20" s="23"/>
+      <c r="CP20" s="23"/>
+      <c r="CQ20" s="23"/>
+      <c r="CR20" s="23"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26066,148 +26096,149 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="19">
+      <c r="B29" s="29">
         <v>2000</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="29">
         <v>2001</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="19">
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="29">
         <v>2002</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="19">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="29">
         <v>2003</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="19">
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="29">
         <v>2004</v>
       </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="19">
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="29">
         <v>2005</v>
       </c>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="19">
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="29">
         <v>2006</v>
       </c>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="19">
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="29">
         <v>2007</v>
       </c>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="19">
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="29">
         <v>2008</v>
       </c>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="19">
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="29">
         <v>2009</v>
       </c>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="19">
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="19">
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="29">
         <v>2011</v>
       </c>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="19">
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="29">
         <v>2012</v>
       </c>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="19">
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="29">
         <v>2013</v>
       </c>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="19">
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="29">
         <v>2014</v>
       </c>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
-      <c r="BI29" s="21"/>
-      <c r="BJ29" s="19">
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="29">
         <v>2015</v>
       </c>
-      <c r="BK29" s="21"/>
-      <c r="BL29" s="21"/>
-      <c r="BM29" s="21"/>
-      <c r="BN29" s="19">
+      <c r="BK29" s="31"/>
+      <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BN29" s="29">
         <v>2016</v>
       </c>
-      <c r="BO29" s="21"/>
-      <c r="BP29" s="21"/>
-      <c r="BQ29" s="21"/>
-      <c r="BR29" s="19">
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="29">
         <v>2017</v>
       </c>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="21"/>
-      <c r="BU29" s="21"/>
-      <c r="BV29" s="19">
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="31"/>
+      <c r="BU29" s="31"/>
+      <c r="BV29" s="29">
         <v>2018</v>
       </c>
-      <c r="BW29" s="19"/>
-      <c r="BX29" s="19"/>
-      <c r="BY29" s="19"/>
-      <c r="BZ29" s="19">
+      <c r="BW29" s="29"/>
+      <c r="BX29" s="29"/>
+      <c r="BY29" s="29"/>
+      <c r="BZ29" s="29">
         <v>2019</v>
       </c>
-      <c r="CA29" s="19"/>
-      <c r="CB29" s="19"/>
-      <c r="CC29" s="19"/>
-      <c r="CD29" s="19">
+      <c r="CA29" s="29"/>
+      <c r="CB29" s="29"/>
+      <c r="CC29" s="29"/>
+      <c r="CD29" s="29">
         <v>2020</v>
       </c>
-      <c r="CE29" s="19"/>
-      <c r="CF29" s="19"/>
-      <c r="CG29" s="19"/>
-      <c r="CH29" s="19">
+      <c r="CE29" s="29"/>
+      <c r="CF29" s="29"/>
+      <c r="CG29" s="29"/>
+      <c r="CH29" s="29">
         <v>2021</v>
       </c>
-      <c r="CI29" s="19"/>
-      <c r="CJ29" s="19"/>
-      <c r="CK29" s="19"/>
-      <c r="CL29" s="19">
+      <c r="CI29" s="29"/>
+      <c r="CJ29" s="29"/>
+      <c r="CK29" s="29"/>
+      <c r="CL29" s="30">
         <v>2022</v>
       </c>
-      <c r="CM29" s="19"/>
-      <c r="CN29" s="19"/>
-      <c r="CO29" s="19"/>
-      <c r="CP29" s="19">
+      <c r="CM29" s="30"/>
+      <c r="CN29" s="30"/>
+      <c r="CO29" s="30"/>
+      <c r="CP29" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="20"/>
+      <c r="CQ29" s="30"/>
+      <c r="CR29" s="30"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26477,23 +26508,26 @@
       <c r="CK30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="6" t="s">
+      <c r="CL30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="6" t="s">
+      <c r="CM30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="6" t="s">
+      <c r="CN30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="6" t="s">
+      <c r="CO30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="6" t="s">
+      <c r="CP30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="6" t="s">
+      <c r="CQ30" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR30" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26767,25 +26801,27 @@
       <c r="CK32" s="17">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="17">
+      <c r="CL32" s="22">
         <v>126762.67468302601</v>
       </c>
-      <c r="CM32" s="17">
+      <c r="CM32" s="22">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="17">
+      <c r="CN32" s="22">
         <v>150635.17151022534</v>
       </c>
-      <c r="CO32" s="17">
+      <c r="CO32" s="22">
         <v>207103.66086608323</v>
       </c>
-      <c r="CP32" s="17">
+      <c r="CP32" s="22">
         <v>128252.22203265468</v>
       </c>
-      <c r="CQ32" s="17">
-        <v>128219.08266051438</v>
-      </c>
-      <c r="CR32" s="9"/>
+      <c r="CQ32" s="22">
+        <v>127704.65026908406</v>
+      </c>
+      <c r="CR32" s="22">
+        <v>153767.44002501102</v>
+      </c>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
@@ -27112,25 +27148,27 @@
       <c r="CK33" s="17">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="17">
+      <c r="CL33" s="22">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="17">
+      <c r="CM33" s="22">
         <v>720940.83705220371</v>
       </c>
-      <c r="CN33" s="17">
+      <c r="CN33" s="22">
         <v>842149.34253795329</v>
       </c>
-      <c r="CO33" s="17">
+      <c r="CO33" s="22">
         <v>851923.69798693701</v>
       </c>
-      <c r="CP33" s="17">
+      <c r="CP33" s="22">
         <v>645710.09550988954</v>
       </c>
-      <c r="CQ33" s="17">
-        <v>760905.90046929405</v>
-      </c>
-      <c r="CR33" s="9"/>
+      <c r="CQ33" s="22">
+        <v>760963.12642496848</v>
+      </c>
+      <c r="CR33" s="22">
+        <v>886637.59701774665</v>
+      </c>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -27457,25 +27495,27 @@
       <c r="CK34" s="17">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="17">
+      <c r="CL34" s="22">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="17">
+      <c r="CM34" s="22">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="17">
+      <c r="CN34" s="22">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="17">
+      <c r="CO34" s="22">
         <v>25611.880634098241</v>
       </c>
-      <c r="CP34" s="17">
+      <c r="CP34" s="22">
         <v>25230.57743629234</v>
       </c>
-      <c r="CQ34" s="17">
-        <v>16810.488863088736</v>
-      </c>
-      <c r="CR34" s="9"/>
+      <c r="CQ34" s="22">
+        <v>16574.439751923404</v>
+      </c>
+      <c r="CR34" s="22">
+        <v>28031.609743080902</v>
+      </c>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
@@ -27623,13 +27663,13 @@
       <c r="CI35" s="18"/>
       <c r="CJ35" s="18"/>
       <c r="CK35" s="18"/>
-      <c r="CL35" s="18"/>
-      <c r="CM35" s="18"/>
-      <c r="CN35" s="18"/>
-      <c r="CO35" s="18"/>
-      <c r="CP35" s="18"/>
-      <c r="CQ35" s="18"/>
-      <c r="CR35" s="9"/>
+      <c r="CL35" s="24"/>
+      <c r="CM35" s="24"/>
+      <c r="CN35" s="24"/>
+      <c r="CO35" s="24"/>
+      <c r="CP35" s="24"/>
+      <c r="CQ35" s="24"/>
+      <c r="CR35" s="24"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
@@ -27956,25 +27996,27 @@
       <c r="CK36" s="18">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="18">
+      <c r="CL36" s="24">
         <v>748032.2899829481</v>
       </c>
-      <c r="CM36" s="18">
+      <c r="CM36" s="24">
         <v>860590.65604630881</v>
       </c>
-      <c r="CN36" s="18">
+      <c r="CN36" s="24">
         <v>1017605.8696006653</v>
       </c>
-      <c r="CO36" s="18">
+      <c r="CO36" s="24">
         <v>1084639.2394871186</v>
       </c>
-      <c r="CP36" s="18">
+      <c r="CP36" s="24">
         <v>799192.89497883653</v>
       </c>
-      <c r="CQ36" s="18">
-        <v>905935.47199289722</v>
-      </c>
-      <c r="CR36" s="9"/>
+      <c r="CQ36" s="24">
+        <v>905242.21644597594</v>
+      </c>
+      <c r="CR36" s="24">
+        <v>1068436.6467858385</v>
+      </c>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -28123,12 +28165,13 @@
       <c r="CI37" s="12"/>
       <c r="CJ37" s="12"/>
       <c r="CK37" s="12"/>
-      <c r="CL37" s="12"/>
-      <c r="CM37" s="12"/>
-      <c r="CN37" s="12"/>
-      <c r="CO37" s="12"/>
-      <c r="CP37" s="12"/>
-      <c r="CQ37" s="12"/>
+      <c r="CL37" s="25"/>
+      <c r="CM37" s="25"/>
+      <c r="CN37" s="25"/>
+      <c r="CO37" s="25"/>
+      <c r="CP37" s="25"/>
+      <c r="CQ37" s="25"/>
+      <c r="CR37" s="25"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28224,13 +28267,13 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="9"/>
-      <c r="CM39" s="9"/>
-      <c r="CN39" s="9"/>
-      <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
+      <c r="CL39" s="23"/>
+      <c r="CM39" s="23"/>
+      <c r="CN39" s="23"/>
+      <c r="CO39" s="23"/>
+      <c r="CP39" s="23"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="23"/>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
@@ -28378,13 +28421,13 @@
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
-      <c r="CL40" s="9"/>
-      <c r="CM40" s="9"/>
-      <c r="CN40" s="9"/>
-      <c r="CO40" s="9"/>
-      <c r="CP40" s="9"/>
-      <c r="CQ40" s="9"/>
-      <c r="CR40" s="9"/>
+      <c r="CL40" s="23"/>
+      <c r="CM40" s="23"/>
+      <c r="CN40" s="23"/>
+      <c r="CO40" s="23"/>
+      <c r="CP40" s="23"/>
+      <c r="CQ40" s="23"/>
+      <c r="CR40" s="23"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -28475,146 +28518,147 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19" t="s">
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19" t="s">
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19" t="s">
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19" t="s">
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19" t="s">
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19" t="s">
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19" t="s">
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="19"/>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="19" t="s">
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="19"/>
-      <c r="AR49" s="19"/>
-      <c r="AS49" s="19"/>
-      <c r="AT49" s="19" t="s">
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="19"/>
-      <c r="AV49" s="19"/>
-      <c r="AW49" s="19"/>
-      <c r="AX49" s="19" t="s">
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="29"/>
+      <c r="AW49" s="29"/>
+      <c r="AX49" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="19"/>
-      <c r="AZ49" s="19"/>
-      <c r="BA49" s="19"/>
-      <c r="BB49" s="19" t="s">
+      <c r="AY49" s="29"/>
+      <c r="AZ49" s="29"/>
+      <c r="BA49" s="29"/>
+      <c r="BB49" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="19"/>
-      <c r="BD49" s="19"/>
-      <c r="BE49" s="19"/>
-      <c r="BF49" s="19" t="s">
+      <c r="BC49" s="29"/>
+      <c r="BD49" s="29"/>
+      <c r="BE49" s="29"/>
+      <c r="BF49" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="19"/>
-      <c r="BH49" s="19"/>
-      <c r="BI49" s="19"/>
-      <c r="BJ49" s="19" t="s">
+      <c r="BG49" s="29"/>
+      <c r="BH49" s="29"/>
+      <c r="BI49" s="29"/>
+      <c r="BJ49" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="19"/>
-      <c r="BL49" s="19"/>
-      <c r="BM49" s="19"/>
-      <c r="BN49" s="19" t="s">
+      <c r="BK49" s="29"/>
+      <c r="BL49" s="29"/>
+      <c r="BM49" s="29"/>
+      <c r="BN49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="19"/>
-      <c r="BP49" s="19"/>
-      <c r="BQ49" s="19"/>
-      <c r="BR49" s="19" t="s">
+      <c r="BO49" s="29"/>
+      <c r="BP49" s="29"/>
+      <c r="BQ49" s="29"/>
+      <c r="BR49" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="19"/>
-      <c r="BT49" s="19"/>
-      <c r="BU49" s="19"/>
-      <c r="BV49" s="19" t="s">
+      <c r="BS49" s="29"/>
+      <c r="BT49" s="29"/>
+      <c r="BU49" s="29"/>
+      <c r="BV49" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="19"/>
-      <c r="BX49" s="19"/>
-      <c r="BY49" s="19"/>
-      <c r="BZ49" s="19" t="s">
+      <c r="BW49" s="29"/>
+      <c r="BX49" s="29"/>
+      <c r="BY49" s="29"/>
+      <c r="BZ49" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="19"/>
-      <c r="CB49" s="19"/>
-      <c r="CC49" s="19"/>
-      <c r="CD49" s="19" t="s">
+      <c r="CA49" s="29"/>
+      <c r="CB49" s="29"/>
+      <c r="CC49" s="29"/>
+      <c r="CD49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="19"/>
-      <c r="CF49" s="19"/>
-      <c r="CG49" s="19"/>
-      <c r="CH49" s="19" t="s">
+      <c r="CE49" s="29"/>
+      <c r="CF49" s="29"/>
+      <c r="CG49" s="29"/>
+      <c r="CH49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="19"/>
-      <c r="CJ49" s="19"/>
-      <c r="CK49" s="19"/>
-      <c r="CL49" s="19" t="s">
+      <c r="CI49" s="29"/>
+      <c r="CJ49" s="29"/>
+      <c r="CK49" s="29"/>
+      <c r="CL49" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="19"/>
-      <c r="CN49" s="19"/>
-      <c r="CO49" s="19"/>
+      <c r="CM49" s="30"/>
+      <c r="CN49" s="30"/>
+      <c r="CO49" s="26"/>
       <c r="CP49" s="19"/>
-      <c r="CQ49" s="20"/>
+      <c r="CQ49" s="19"/>
+      <c r="CR49" s="19"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28884,16 +28928,19 @@
       <c r="CK50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="5" t="s">
+      <c r="CL50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="5" t="s">
+      <c r="CM50" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="5"/>
-      <c r="CO50" s="5"/>
-      <c r="CP50" s="5"/>
-      <c r="CQ50" s="5"/>
+      <c r="CN50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO50" s="27"/>
+      <c r="CP50" s="27"/>
+      <c r="CQ50" s="27"/>
+      <c r="CR50" s="27"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29166,17 +29213,19 @@
       <c r="CK52" s="14">
         <v>10.606669514059931</v>
       </c>
-      <c r="CL52" s="14">
+      <c r="CL52" s="28">
         <v>7.3190787469854968</v>
       </c>
-      <c r="CM52" s="14">
-        <v>6.8518058063963281</v>
-      </c>
-      <c r="CN52" s="14"/>
-      <c r="CO52" s="14"/>
-      <c r="CP52" s="14"/>
-      <c r="CQ52" s="14"/>
-      <c r="CR52" s="9"/>
+      <c r="CM52" s="28">
+        <v>6.4405675443779415</v>
+      </c>
+      <c r="CN52" s="28">
+        <v>7.5422120297865973</v>
+      </c>
+      <c r="CO52" s="28"/>
+      <c r="CP52" s="28"/>
+      <c r="CQ52" s="28"/>
+      <c r="CR52" s="28"/>
       <c r="CS52" s="9"/>
       <c r="CT52" s="9"/>
       <c r="CU52" s="9"/>
@@ -29499,17 +29548,19 @@
       <c r="CK53" s="14">
         <v>17.106613161245704</v>
       </c>
-      <c r="CL53" s="14">
+      <c r="CL53" s="28">
         <v>15.574711964166823</v>
       </c>
-      <c r="CM53" s="14">
-        <v>11.715085019913829</v>
-      </c>
-      <c r="CN53" s="14"/>
-      <c r="CO53" s="14"/>
-      <c r="CP53" s="14"/>
-      <c r="CQ53" s="14"/>
-      <c r="CR53" s="9"/>
+      <c r="CM53" s="28">
+        <v>11.687210276903045</v>
+      </c>
+      <c r="CN53" s="28">
+        <v>10.536856197156737</v>
+      </c>
+      <c r="CO53" s="28"/>
+      <c r="CP53" s="28"/>
+      <c r="CQ53" s="28"/>
+      <c r="CR53" s="28"/>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
@@ -29832,17 +29883,19 @@
       <c r="CK54" s="14">
         <v>30.39562411485727</v>
       </c>
-      <c r="CL54" s="14">
+      <c r="CL54" s="28">
         <v>14.826761352364187</v>
       </c>
-      <c r="CM54" s="14">
-        <v>17.696020763367287</v>
-      </c>
-      <c r="CN54" s="14"/>
-      <c r="CO54" s="14"/>
-      <c r="CP54" s="14"/>
-      <c r="CQ54" s="14"/>
-      <c r="CR54" s="9"/>
+      <c r="CM54" s="28">
+        <v>16.075685392412083</v>
+      </c>
+      <c r="CN54" s="28">
+        <v>16.125230457925426</v>
+      </c>
+      <c r="CO54" s="28"/>
+      <c r="CP54" s="28"/>
+      <c r="CQ54" s="28"/>
+      <c r="CR54" s="28"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
@@ -29986,13 +30039,13 @@
       <c r="CI55" s="9"/>
       <c r="CJ55" s="9"/>
       <c r="CK55" s="9"/>
-      <c r="CL55" s="9"/>
-      <c r="CM55" s="9"/>
-      <c r="CN55" s="9"/>
-      <c r="CO55" s="9"/>
-      <c r="CP55" s="9"/>
-      <c r="CQ55" s="9"/>
-      <c r="CR55" s="9"/>
+      <c r="CL55" s="23"/>
+      <c r="CM55" s="23"/>
+      <c r="CN55" s="23"/>
+      <c r="CO55" s="23"/>
+      <c r="CP55" s="23"/>
+      <c r="CQ55" s="23"/>
+      <c r="CR55" s="23"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
@@ -30315,17 +30368,19 @@
       <c r="CK56" s="14">
         <v>15.978223644767198</v>
       </c>
-      <c r="CL56" s="14">
+      <c r="CL56" s="28">
         <v>14.065366771482488</v>
       </c>
-      <c r="CM56" s="14">
-        <v>11.076318645095057</v>
-      </c>
-      <c r="CN56" s="14"/>
-      <c r="CO56" s="14"/>
-      <c r="CP56" s="14"/>
-      <c r="CQ56" s="14"/>
-      <c r="CR56" s="9"/>
+      <c r="CM56" s="28">
+        <v>10.965349418107024</v>
+      </c>
+      <c r="CN56" s="28">
+        <v>10.198581630280714</v>
+      </c>
+      <c r="CO56" s="28"/>
+      <c r="CP56" s="28"/>
+      <c r="CQ56" s="28"/>
+      <c r="CR56" s="28"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -30470,12 +30525,13 @@
       <c r="CI57" s="12"/>
       <c r="CJ57" s="12"/>
       <c r="CK57" s="12"/>
-      <c r="CL57" s="12"/>
-      <c r="CM57" s="12"/>
-      <c r="CN57" s="12"/>
-      <c r="CO57" s="12"/>
-      <c r="CP57" s="12"/>
-      <c r="CQ57" s="12"/>
+      <c r="CL57" s="25"/>
+      <c r="CM57" s="25"/>
+      <c r="CN57" s="25"/>
+      <c r="CO57" s="25"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30571,13 +30627,13 @@
       <c r="CI59" s="9"/>
       <c r="CJ59" s="9"/>
       <c r="CK59" s="9"/>
-      <c r="CL59" s="9"/>
-      <c r="CM59" s="9"/>
-      <c r="CN59" s="9"/>
-      <c r="CO59" s="9"/>
-      <c r="CP59" s="9"/>
-      <c r="CQ59" s="9"/>
-      <c r="CR59" s="9"/>
+      <c r="CL59" s="23"/>
+      <c r="CM59" s="23"/>
+      <c r="CN59" s="23"/>
+      <c r="CO59" s="23"/>
+      <c r="CP59" s="23"/>
+      <c r="CQ59" s="23"/>
+      <c r="CR59" s="23"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -30721,13 +30777,13 @@
       <c r="CI60" s="9"/>
       <c r="CJ60" s="9"/>
       <c r="CK60" s="9"/>
-      <c r="CL60" s="9"/>
-      <c r="CM60" s="9"/>
-      <c r="CN60" s="9"/>
-      <c r="CO60" s="9"/>
-      <c r="CP60" s="9"/>
-      <c r="CQ60" s="9"/>
-      <c r="CR60" s="9"/>
+      <c r="CL60" s="23"/>
+      <c r="CM60" s="23"/>
+      <c r="CN60" s="23"/>
+      <c r="CO60" s="23"/>
+      <c r="CP60" s="23"/>
+      <c r="CQ60" s="23"/>
+      <c r="CR60" s="23"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
@@ -30814,146 +30870,147 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="19" t="s">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="19" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="19" t="s">
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="19" t="s">
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="19" t="s">
+      <c r="S69" s="30"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="19" t="s">
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="20"/>
-      <c r="AC69" s="20"/>
-      <c r="AD69" s="19" t="s">
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="20"/>
-      <c r="AF69" s="20"/>
-      <c r="AG69" s="20"/>
-      <c r="AH69" s="19" t="s">
+      <c r="AE69" s="30"/>
+      <c r="AF69" s="30"/>
+      <c r="AG69" s="30"/>
+      <c r="AH69" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="20"/>
-      <c r="AJ69" s="20"/>
-      <c r="AK69" s="20"/>
-      <c r="AL69" s="19" t="s">
+      <c r="AI69" s="30"/>
+      <c r="AJ69" s="30"/>
+      <c r="AK69" s="30"/>
+      <c r="AL69" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="20"/>
-      <c r="AO69" s="20"/>
-      <c r="AP69" s="19" t="s">
+      <c r="AM69" s="30"/>
+      <c r="AN69" s="30"/>
+      <c r="AO69" s="30"/>
+      <c r="AP69" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="20"/>
-      <c r="AR69" s="20"/>
-      <c r="AS69" s="20"/>
-      <c r="AT69" s="19" t="s">
+      <c r="AQ69" s="30"/>
+      <c r="AR69" s="30"/>
+      <c r="AS69" s="30"/>
+      <c r="AT69" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="20"/>
-      <c r="AV69" s="20"/>
-      <c r="AW69" s="20"/>
-      <c r="AX69" s="19" t="s">
+      <c r="AU69" s="30"/>
+      <c r="AV69" s="30"/>
+      <c r="AW69" s="30"/>
+      <c r="AX69" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="20"/>
-      <c r="AZ69" s="20"/>
-      <c r="BA69" s="20"/>
-      <c r="BB69" s="19" t="s">
+      <c r="AY69" s="30"/>
+      <c r="AZ69" s="30"/>
+      <c r="BA69" s="30"/>
+      <c r="BB69" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="20"/>
-      <c r="BD69" s="20"/>
-      <c r="BE69" s="20"/>
-      <c r="BF69" s="19" t="s">
+      <c r="BC69" s="30"/>
+      <c r="BD69" s="30"/>
+      <c r="BE69" s="30"/>
+      <c r="BF69" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="20"/>
-      <c r="BH69" s="20"/>
-      <c r="BI69" s="20"/>
-      <c r="BJ69" s="19" t="s">
+      <c r="BG69" s="30"/>
+      <c r="BH69" s="30"/>
+      <c r="BI69" s="30"/>
+      <c r="BJ69" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="20"/>
-      <c r="BL69" s="20"/>
-      <c r="BM69" s="20"/>
-      <c r="BN69" s="19" t="s">
+      <c r="BK69" s="30"/>
+      <c r="BL69" s="30"/>
+      <c r="BM69" s="30"/>
+      <c r="BN69" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="20"/>
-      <c r="BP69" s="20"/>
-      <c r="BQ69" s="20"/>
-      <c r="BR69" s="19" t="s">
+      <c r="BO69" s="30"/>
+      <c r="BP69" s="30"/>
+      <c r="BQ69" s="30"/>
+      <c r="BR69" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="20"/>
-      <c r="BT69" s="20"/>
-      <c r="BU69" s="20"/>
-      <c r="BV69" s="19" t="s">
+      <c r="BS69" s="30"/>
+      <c r="BT69" s="30"/>
+      <c r="BU69" s="30"/>
+      <c r="BV69" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="19"/>
-      <c r="BX69" s="19"/>
-      <c r="BY69" s="19"/>
-      <c r="BZ69" s="19" t="s">
+      <c r="BW69" s="29"/>
+      <c r="BX69" s="29"/>
+      <c r="BY69" s="29"/>
+      <c r="BZ69" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="19"/>
-      <c r="CB69" s="19"/>
-      <c r="CC69" s="19"/>
-      <c r="CD69" s="19" t="s">
+      <c r="CA69" s="29"/>
+      <c r="CB69" s="29"/>
+      <c r="CC69" s="29"/>
+      <c r="CD69" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="19"/>
-      <c r="CF69" s="19"/>
-      <c r="CG69" s="19"/>
-      <c r="CH69" s="19" t="s">
+      <c r="CE69" s="29"/>
+      <c r="CF69" s="29"/>
+      <c r="CG69" s="29"/>
+      <c r="CH69" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="19"/>
-      <c r="CJ69" s="19"/>
-      <c r="CK69" s="19"/>
-      <c r="CL69" s="19" t="s">
+      <c r="CI69" s="29"/>
+      <c r="CJ69" s="29"/>
+      <c r="CK69" s="29"/>
+      <c r="CL69" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="19"/>
-      <c r="CN69" s="19"/>
-      <c r="CO69" s="19"/>
+      <c r="CM69" s="30"/>
+      <c r="CN69" s="30"/>
+      <c r="CO69" s="26"/>
       <c r="CP69" s="19"/>
-      <c r="CQ69" s="20"/>
+      <c r="CQ69" s="19"/>
+      <c r="CR69" s="19"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31223,16 +31280,19 @@
       <c r="CK70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="5" t="s">
+      <c r="CL70" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="5" t="s">
+      <c r="CM70" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="5"/>
-      <c r="CO70" s="5"/>
-      <c r="CP70" s="5"/>
-      <c r="CQ70" s="5"/>
+      <c r="CN70" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO70" s="27"/>
+      <c r="CP70" s="27"/>
+      <c r="CQ70" s="27"/>
+      <c r="CR70" s="27"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31505,17 +31565,19 @@
       <c r="CK72" s="14">
         <v>3.1330679612443362</v>
       </c>
-      <c r="CL72" s="14">
+      <c r="CL72" s="28">
         <v>1.1750677818634898</v>
       </c>
-      <c r="CM72" s="14">
-        <v>2.5039121936632114</v>
-      </c>
-      <c r="CN72" s="14"/>
-      <c r="CO72" s="14"/>
-      <c r="CP72" s="14"/>
-      <c r="CQ72" s="14"/>
-      <c r="CR72" s="9"/>
+      <c r="CM72" s="28">
+        <v>2.09265256220597</v>
+      </c>
+      <c r="CN72" s="28">
+        <v>2.079373949246019</v>
+      </c>
+      <c r="CO72" s="28"/>
+      <c r="CP72" s="28"/>
+      <c r="CQ72" s="28"/>
+      <c r="CR72" s="28"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
@@ -31838,17 +31900,19 @@
       <c r="CK73" s="14">
         <v>9.769163570978094</v>
       </c>
-      <c r="CL73" s="14">
+      <c r="CL73" s="28">
         <v>7.8509517643104374</v>
       </c>
-      <c r="CM73" s="14">
-        <v>5.5434595133354208</v>
-      </c>
-      <c r="CN73" s="14"/>
-      <c r="CO73" s="14"/>
-      <c r="CP73" s="14"/>
-      <c r="CQ73" s="14"/>
-      <c r="CR73" s="9"/>
+      <c r="CM73" s="28">
+        <v>5.5513971904280766</v>
+      </c>
+      <c r="CN73" s="28">
+        <v>5.2827037002392956</v>
+      </c>
+      <c r="CO73" s="28"/>
+      <c r="CP73" s="28"/>
+      <c r="CQ73" s="28"/>
+      <c r="CR73" s="28"/>
       <c r="CS73" s="9"/>
       <c r="CT73" s="9"/>
       <c r="CU73" s="9"/>
@@ -32171,17 +32235,19 @@
       <c r="CK74" s="14">
         <v>25.543303061630169</v>
       </c>
-      <c r="CL74" s="14">
+      <c r="CL74" s="28">
         <v>11.819637351794213</v>
       </c>
-      <c r="CM74" s="14">
-        <v>15.434413163005019</v>
-      </c>
-      <c r="CN74" s="14"/>
-      <c r="CO74" s="14"/>
-      <c r="CP74" s="14"/>
-      <c r="CQ74" s="14"/>
-      <c r="CR74" s="9"/>
+      <c r="CM74" s="28">
+        <v>13.813509044930953</v>
+      </c>
+      <c r="CN74" s="28">
+        <v>12.933436225132596</v>
+      </c>
+      <c r="CO74" s="28"/>
+      <c r="CP74" s="28"/>
+      <c r="CQ74" s="28"/>
+      <c r="CR74" s="28"/>
       <c r="CS74" s="9"/>
       <c r="CT74" s="9"/>
       <c r="CU74" s="9"/>
@@ -32325,13 +32391,13 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
-      <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
+      <c r="CL75" s="23"/>
+      <c r="CM75" s="23"/>
+      <c r="CN75" s="23"/>
+      <c r="CO75" s="23"/>
+      <c r="CP75" s="23"/>
+      <c r="CQ75" s="23"/>
+      <c r="CR75" s="23"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32654,17 +32720,19 @@
       <c r="CK76" s="14">
         <v>8.7556423970160751</v>
       </c>
-      <c r="CL76" s="14">
+      <c r="CL76" s="28">
         <v>6.8393578300015179</v>
       </c>
-      <c r="CM76" s="14">
-        <v>5.269034195061991</v>
-      </c>
-      <c r="CN76" s="14"/>
-      <c r="CO76" s="14"/>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="9"/>
+      <c r="CM76" s="28">
+        <v>5.1884784114207889</v>
+      </c>
+      <c r="CN76" s="28">
+        <v>4.995134039971731</v>
+      </c>
+      <c r="CO76" s="28"/>
+      <c r="CP76" s="28"/>
+      <c r="CQ76" s="28"/>
+      <c r="CR76" s="28"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -32809,12 +32877,13 @@
       <c r="CI77" s="12"/>
       <c r="CJ77" s="12"/>
       <c r="CK77" s="12"/>
-      <c r="CL77" s="12"/>
-      <c r="CM77" s="12"/>
-      <c r="CN77" s="12"/>
-      <c r="CO77" s="12"/>
-      <c r="CP77" s="12"/>
-      <c r="CQ77" s="12"/>
+      <c r="CL77" s="25"/>
+      <c r="CM77" s="25"/>
+      <c r="CN77" s="25"/>
+      <c r="CO77" s="25"/>
+      <c r="CP77" s="25"/>
+      <c r="CQ77" s="25"/>
+      <c r="CR77" s="25"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -32910,13 +32979,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
+      <c r="CL79" s="23"/>
+      <c r="CM79" s="23"/>
+      <c r="CN79" s="23"/>
+      <c r="CO79" s="23"/>
+      <c r="CP79" s="23"/>
+      <c r="CQ79" s="23"/>
+      <c r="CR79" s="23"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -33060,13 +33129,13 @@
       <c r="CI80" s="9"/>
       <c r="CJ80" s="9"/>
       <c r="CK80" s="9"/>
-      <c r="CL80" s="9"/>
-      <c r="CM80" s="9"/>
-      <c r="CN80" s="9"/>
-      <c r="CO80" s="9"/>
-      <c r="CP80" s="9"/>
-      <c r="CQ80" s="9"/>
-      <c r="CR80" s="9"/>
+      <c r="CL80" s="23"/>
+      <c r="CM80" s="23"/>
+      <c r="CN80" s="23"/>
+      <c r="CO80" s="23"/>
+      <c r="CP80" s="23"/>
+      <c r="CQ80" s="23"/>
+      <c r="CR80" s="23"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
@@ -33148,148 +33217,149 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="19">
+      <c r="B88" s="29">
         <v>2000</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="19">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="29">
         <v>2001</v>
       </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="19">
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="29">
         <v>2002</v>
       </c>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="19">
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="29">
         <v>2003</v>
       </c>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="19">
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="29">
         <v>2004</v>
       </c>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="19">
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+      <c r="U88" s="31"/>
+      <c r="V88" s="29">
         <v>2005</v>
       </c>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="19">
+      <c r="W88" s="31"/>
+      <c r="X88" s="31"/>
+      <c r="Y88" s="31"/>
+      <c r="Z88" s="29">
         <v>2006</v>
       </c>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="19">
+      <c r="AA88" s="31"/>
+      <c r="AB88" s="31"/>
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="29">
         <v>2007</v>
       </c>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="19">
+      <c r="AE88" s="31"/>
+      <c r="AF88" s="31"/>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="29">
         <v>2008</v>
       </c>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="19">
+      <c r="AI88" s="31"/>
+      <c r="AJ88" s="31"/>
+      <c r="AK88" s="31"/>
+      <c r="AL88" s="29">
         <v>2009</v>
       </c>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="19">
+      <c r="AM88" s="31"/>
+      <c r="AN88" s="31"/>
+      <c r="AO88" s="31"/>
+      <c r="AP88" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="19">
+      <c r="AQ88" s="31"/>
+      <c r="AR88" s="31"/>
+      <c r="AS88" s="31"/>
+      <c r="AT88" s="29">
         <v>2011</v>
       </c>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="19">
+      <c r="AU88" s="31"/>
+      <c r="AV88" s="31"/>
+      <c r="AW88" s="31"/>
+      <c r="AX88" s="29">
         <v>2012</v>
       </c>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="19">
+      <c r="AY88" s="31"/>
+      <c r="AZ88" s="31"/>
+      <c r="BA88" s="31"/>
+      <c r="BB88" s="29">
         <v>2013</v>
       </c>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="19">
+      <c r="BC88" s="31"/>
+      <c r="BD88" s="31"/>
+      <c r="BE88" s="31"/>
+      <c r="BF88" s="29">
         <v>2014</v>
       </c>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="19">
+      <c r="BG88" s="31"/>
+      <c r="BH88" s="31"/>
+      <c r="BI88" s="31"/>
+      <c r="BJ88" s="29">
         <v>2015</v>
       </c>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="19">
+      <c r="BK88" s="31"/>
+      <c r="BL88" s="31"/>
+      <c r="BM88" s="31"/>
+      <c r="BN88" s="29">
         <v>2016</v>
       </c>
-      <c r="BO88" s="21"/>
-      <c r="BP88" s="21"/>
-      <c r="BQ88" s="21"/>
-      <c r="BR88" s="19">
+      <c r="BO88" s="31"/>
+      <c r="BP88" s="31"/>
+      <c r="BQ88" s="31"/>
+      <c r="BR88" s="29">
         <v>2017</v>
       </c>
-      <c r="BS88" s="21"/>
-      <c r="BT88" s="21"/>
-      <c r="BU88" s="21"/>
-      <c r="BV88" s="19">
+      <c r="BS88" s="31"/>
+      <c r="BT88" s="31"/>
+      <c r="BU88" s="31"/>
+      <c r="BV88" s="29">
         <v>2018</v>
       </c>
-      <c r="BW88" s="19"/>
-      <c r="BX88" s="19"/>
-      <c r="BY88" s="19"/>
-      <c r="BZ88" s="19">
+      <c r="BW88" s="29"/>
+      <c r="BX88" s="29"/>
+      <c r="BY88" s="29"/>
+      <c r="BZ88" s="29">
         <v>2019</v>
       </c>
-      <c r="CA88" s="19"/>
-      <c r="CB88" s="19"/>
-      <c r="CC88" s="19"/>
-      <c r="CD88" s="19">
+      <c r="CA88" s="29"/>
+      <c r="CB88" s="29"/>
+      <c r="CC88" s="29"/>
+      <c r="CD88" s="29">
         <v>2020</v>
       </c>
-      <c r="CE88" s="19"/>
-      <c r="CF88" s="19"/>
-      <c r="CG88" s="19"/>
-      <c r="CH88" s="19">
+      <c r="CE88" s="29"/>
+      <c r="CF88" s="29"/>
+      <c r="CG88" s="29"/>
+      <c r="CH88" s="29">
         <v>2021</v>
       </c>
-      <c r="CI88" s="19"/>
-      <c r="CJ88" s="19"/>
-      <c r="CK88" s="19"/>
-      <c r="CL88" s="19">
+      <c r="CI88" s="29"/>
+      <c r="CJ88" s="29"/>
+      <c r="CK88" s="29"/>
+      <c r="CL88" s="30">
         <v>2022</v>
       </c>
-      <c r="CM88" s="19"/>
-      <c r="CN88" s="19"/>
-      <c r="CO88" s="19"/>
-      <c r="CP88" s="19">
+      <c r="CM88" s="30"/>
+      <c r="CN88" s="30"/>
+      <c r="CO88" s="30"/>
+      <c r="CP88" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="20"/>
+      <c r="CQ88" s="30"/>
+      <c r="CR88" s="30"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33559,23 +33629,26 @@
       <c r="CK89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="6" t="s">
+      <c r="CL89" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="6" t="s">
+      <c r="CM89" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="6" t="s">
+      <c r="CN89" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="6" t="s">
+      <c r="CO89" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="6" t="s">
+      <c r="CP89" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="6" t="s">
+      <c r="CQ89" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR89" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33849,25 +33922,27 @@
       <c r="CK91" s="14">
         <v>108.78870881035488</v>
       </c>
-      <c r="CL91" s="14">
+      <c r="CL91" s="28">
         <v>110.71745085575108</v>
       </c>
-      <c r="CM91" s="14">
+      <c r="CM91" s="28">
         <v>110.87518537886029</v>
       </c>
-      <c r="CN91" s="14">
+      <c r="CN91" s="28">
         <v>112.74986973259369</v>
       </c>
-      <c r="CO91" s="14">
+      <c r="CO91" s="28">
         <v>116.67214987505199</v>
       </c>
-      <c r="CP91" s="14">
+      <c r="CP91" s="28">
         <v>117.44093764950081</v>
       </c>
-      <c r="CQ91" s="14">
-        <v>115.57816207509168</v>
-      </c>
-      <c r="CR91" s="9"/>
+      <c r="CQ91" s="28">
+        <v>115.5971302746118</v>
+      </c>
+      <c r="CR91" s="28">
+        <v>118.78374570696482</v>
+      </c>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
@@ -34194,25 +34269,27 @@
       <c r="CK92" s="14">
         <v>101.47985171687088</v>
       </c>
-      <c r="CL92" s="14">
+      <c r="CL92" s="28">
         <v>102.83206478692419</v>
       </c>
-      <c r="CM92" s="14">
+      <c r="CM92" s="28">
         <v>106.26278441914197</v>
       </c>
-      <c r="CN92" s="14">
+      <c r="CN92" s="28">
         <v>107.46676136700506</v>
       </c>
-      <c r="CO92" s="14">
+      <c r="CO92" s="28">
         <v>108.26320755358454</v>
       </c>
-      <c r="CP92" s="14">
+      <c r="CP92" s="28">
         <v>110.19639673093889</v>
       </c>
-      <c r="CQ92" s="14">
-        <v>112.47647225678914</v>
-      </c>
-      <c r="CR92" s="9"/>
+      <c r="CQ92" s="28">
+        <v>112.43995118907047</v>
+      </c>
+      <c r="CR92" s="28">
+        <v>112.82990965943247</v>
+      </c>
       <c r="CS92" s="9"/>
       <c r="CT92" s="9"/>
       <c r="CU92" s="9"/>
@@ -34539,25 +34616,27 @@
       <c r="CK93" s="14">
         <v>96.817413767751347</v>
       </c>
-      <c r="CL93" s="14">
+      <c r="CL93" s="28">
         <v>102.35658120197253</v>
       </c>
-      <c r="CM93" s="14">
+      <c r="CM93" s="28">
         <v>100.14989590405409</v>
       </c>
-      <c r="CN93" s="14">
+      <c r="CN93" s="28">
         <v>98.575233281472379</v>
       </c>
-      <c r="CO93" s="14">
+      <c r="CO93" s="28">
         <v>100.55946263605009</v>
       </c>
-      <c r="CP93" s="14">
+      <c r="CP93" s="28">
         <v>105.10921874613108</v>
       </c>
-      <c r="CQ93" s="14">
-        <v>102.11204704725141</v>
-      </c>
-      <c r="CR93" s="9"/>
+      <c r="CQ93" s="28">
+        <v>102.14049199074017</v>
+      </c>
+      <c r="CR93" s="28">
+        <v>101.36122715185101</v>
+      </c>
       <c r="CS93" s="9"/>
       <c r="CT93" s="9"/>
       <c r="CU93" s="9"/>
@@ -34705,13 +34784,13 @@
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
       <c r="CK94" s="9"/>
-      <c r="CL94" s="9"/>
-      <c r="CM94" s="9"/>
-      <c r="CN94" s="9"/>
-      <c r="CO94" s="9"/>
-      <c r="CP94" s="9"/>
-      <c r="CQ94" s="9"/>
-      <c r="CR94" s="9"/>
+      <c r="CL94" s="23"/>
+      <c r="CM94" s="23"/>
+      <c r="CN94" s="23"/>
+      <c r="CO94" s="23"/>
+      <c r="CP94" s="23"/>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
       <c r="CS94" s="9"/>
       <c r="CT94" s="9"/>
       <c r="CU94" s="9"/>
@@ -35038,25 +35117,27 @@
       <c r="CK95" s="14">
         <v>102.85613254247907</v>
       </c>
-      <c r="CL95" s="14">
+      <c r="CL95" s="28">
         <v>104.15399166503781</v>
       </c>
-      <c r="CM95" s="14">
+      <c r="CM95" s="28">
         <v>106.82975624609026</v>
       </c>
-      <c r="CN95" s="14">
+      <c r="CN95" s="28">
         <v>108.03193318049638</v>
       </c>
-      <c r="CO95" s="14">
+      <c r="CO95" s="28">
         <v>109.6869208836079</v>
       </c>
-      <c r="CP95" s="14">
+      <c r="CP95" s="28">
         <v>111.19837765114633</v>
       </c>
-      <c r="CQ95" s="14">
-        <v>112.72313968018892</v>
-      </c>
-      <c r="CR95" s="9"/>
+      <c r="CQ95" s="28">
+        <v>112.69676497964747</v>
+      </c>
+      <c r="CR95" s="28">
+        <v>113.3858813184212</v>
+      </c>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -35205,12 +35286,13 @@
       <c r="CI96" s="12"/>
       <c r="CJ96" s="12"/>
       <c r="CK96" s="12"/>
-      <c r="CL96" s="12"/>
-      <c r="CM96" s="12"/>
-      <c r="CN96" s="12"/>
-      <c r="CO96" s="12"/>
-      <c r="CP96" s="12"/>
-      <c r="CQ96" s="12"/>
+      <c r="CL96" s="25"/>
+      <c r="CM96" s="25"/>
+      <c r="CN96" s="25"/>
+      <c r="CO96" s="25"/>
+      <c r="CP96" s="25"/>
+      <c r="CQ96" s="25"/>
+      <c r="CR96" s="25"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35249,148 +35331,149 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="19">
+      <c r="B108" s="29">
         <v>2000</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="19">
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="29">
         <v>2001</v>
       </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="19">
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="29">
         <v>2002</v>
       </c>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="19">
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="29">
         <v>2003</v>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="19">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="29">
         <v>2004</v>
       </c>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="19">
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="29">
         <v>2005</v>
       </c>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="19">
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="29">
         <v>2006</v>
       </c>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="19">
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="29">
         <v>2007</v>
       </c>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="19">
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="29">
         <v>2008</v>
       </c>
-      <c r="AI108" s="21"/>
-      <c r="AJ108" s="21"/>
-      <c r="AK108" s="21"/>
-      <c r="AL108" s="19">
+      <c r="AI108" s="31"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="31"/>
+      <c r="AL108" s="29">
         <v>2009</v>
       </c>
-      <c r="AM108" s="21"/>
-      <c r="AN108" s="21"/>
-      <c r="AO108" s="21"/>
-      <c r="AP108" s="19">
+      <c r="AM108" s="31"/>
+      <c r="AN108" s="31"/>
+      <c r="AO108" s="31"/>
+      <c r="AP108" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="21"/>
-      <c r="AR108" s="21"/>
-      <c r="AS108" s="21"/>
-      <c r="AT108" s="19">
+      <c r="AQ108" s="31"/>
+      <c r="AR108" s="31"/>
+      <c r="AS108" s="31"/>
+      <c r="AT108" s="29">
         <v>2011</v>
       </c>
-      <c r="AU108" s="21"/>
-      <c r="AV108" s="21"/>
-      <c r="AW108" s="21"/>
-      <c r="AX108" s="19">
+      <c r="AU108" s="31"/>
+      <c r="AV108" s="31"/>
+      <c r="AW108" s="31"/>
+      <c r="AX108" s="29">
         <v>2012</v>
       </c>
-      <c r="AY108" s="21"/>
-      <c r="AZ108" s="21"/>
-      <c r="BA108" s="21"/>
-      <c r="BB108" s="19">
+      <c r="AY108" s="31"/>
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+      <c r="BB108" s="29">
         <v>2013</v>
       </c>
-      <c r="BC108" s="21"/>
-      <c r="BD108" s="21"/>
-      <c r="BE108" s="21"/>
-      <c r="BF108" s="19">
+      <c r="BC108" s="31"/>
+      <c r="BD108" s="31"/>
+      <c r="BE108" s="31"/>
+      <c r="BF108" s="29">
         <v>2014</v>
       </c>
-      <c r="BG108" s="21"/>
-      <c r="BH108" s="21"/>
-      <c r="BI108" s="21"/>
-      <c r="BJ108" s="19">
+      <c r="BG108" s="31"/>
+      <c r="BH108" s="31"/>
+      <c r="BI108" s="31"/>
+      <c r="BJ108" s="29">
         <v>2015</v>
       </c>
-      <c r="BK108" s="21"/>
-      <c r="BL108" s="21"/>
-      <c r="BM108" s="21"/>
-      <c r="BN108" s="19">
+      <c r="BK108" s="31"/>
+      <c r="BL108" s="31"/>
+      <c r="BM108" s="31"/>
+      <c r="BN108" s="29">
         <v>2016</v>
       </c>
-      <c r="BO108" s="21"/>
-      <c r="BP108" s="21"/>
-      <c r="BQ108" s="21"/>
-      <c r="BR108" s="19">
+      <c r="BO108" s="31"/>
+      <c r="BP108" s="31"/>
+      <c r="BQ108" s="31"/>
+      <c r="BR108" s="29">
         <v>2017</v>
       </c>
-      <c r="BS108" s="21"/>
-      <c r="BT108" s="21"/>
-      <c r="BU108" s="21"/>
-      <c r="BV108" s="19">
+      <c r="BS108" s="31"/>
+      <c r="BT108" s="31"/>
+      <c r="BU108" s="31"/>
+      <c r="BV108" s="29">
         <v>2018</v>
       </c>
-      <c r="BW108" s="19"/>
-      <c r="BX108" s="19"/>
-      <c r="BY108" s="19"/>
-      <c r="BZ108" s="19">
+      <c r="BW108" s="29"/>
+      <c r="BX108" s="29"/>
+      <c r="BY108" s="29"/>
+      <c r="BZ108" s="29">
         <v>2019</v>
       </c>
-      <c r="CA108" s="19"/>
-      <c r="CB108" s="19"/>
-      <c r="CC108" s="19"/>
-      <c r="CD108" s="19">
+      <c r="CA108" s="29"/>
+      <c r="CB108" s="29"/>
+      <c r="CC108" s="29"/>
+      <c r="CD108" s="29">
         <v>2020</v>
       </c>
-      <c r="CE108" s="19"/>
-      <c r="CF108" s="19"/>
-      <c r="CG108" s="19"/>
-      <c r="CH108" s="19">
+      <c r="CE108" s="29"/>
+      <c r="CF108" s="29"/>
+      <c r="CG108" s="29"/>
+      <c r="CH108" s="29">
         <v>2021</v>
       </c>
-      <c r="CI108" s="19"/>
-      <c r="CJ108" s="19"/>
-      <c r="CK108" s="19"/>
-      <c r="CL108" s="19">
+      <c r="CI108" s="29"/>
+      <c r="CJ108" s="29"/>
+      <c r="CK108" s="29"/>
+      <c r="CL108" s="30">
         <v>2022</v>
       </c>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
-      <c r="CP108" s="19">
+      <c r="CM108" s="30"/>
+      <c r="CN108" s="30"/>
+      <c r="CO108" s="30"/>
+      <c r="CP108" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="20"/>
+      <c r="CQ108" s="30"/>
+      <c r="CR108" s="30"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35660,23 +35743,26 @@
       <c r="CK109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="6" t="s">
+      <c r="CL109" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="6" t="s">
+      <c r="CM109" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="6" t="s">
+      <c r="CN109" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="6" t="s">
+      <c r="CO109" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="6" t="s">
+      <c r="CP109" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="6" t="s">
+      <c r="CQ109" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR109" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35950,25 +36036,27 @@
       <c r="CK111" s="14">
         <v>21.296584424525598</v>
       </c>
-      <c r="CL111" s="14">
+      <c r="CL111" s="28">
         <v>18.014043545354468</v>
       </c>
-      <c r="CM111" s="14">
+      <c r="CM111" s="28">
         <v>15.085430884502754</v>
       </c>
-      <c r="CN111" s="14">
+      <c r="CN111" s="28">
         <v>15.449366789410629</v>
       </c>
-      <c r="CO111" s="14">
+      <c r="CO111" s="28">
         <v>20.310228948122525</v>
       </c>
-      <c r="CP111" s="14">
+      <c r="CP111" s="28">
         <v>16.948620010739795</v>
       </c>
-      <c r="CQ111" s="14">
-        <v>14.511693860929745</v>
-      </c>
-      <c r="CR111" s="9"/>
+      <c r="CQ111" s="28">
+        <v>14.470299362982464</v>
+      </c>
+      <c r="CR111" s="28">
+        <v>15.076955205893508</v>
+      </c>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
@@ -36295,25 +36383,27 @@
       <c r="CK112" s="14">
         <v>76.777941431580572</v>
       </c>
-      <c r="CL112" s="14">
+      <c r="CL112" s="28">
         <v>79.021612332634589</v>
       </c>
-      <c r="CM112" s="14">
+      <c r="CM112" s="28">
         <v>83.32819110164435</v>
       </c>
-      <c r="CN112" s="14">
+      <c r="CN112" s="28">
         <v>82.324959181349229</v>
       </c>
-      <c r="CO112" s="14">
+      <c r="CO112" s="28">
         <v>77.524938768542327</v>
       </c>
-      <c r="CP112" s="14">
+      <c r="CP112" s="28">
         <v>80.067248655633264</v>
       </c>
-      <c r="CQ112" s="14">
-        <v>83.807386372062624</v>
-      </c>
-      <c r="CR112" s="9"/>
+      <c r="CQ112" s="28">
+        <v>83.870264459732979</v>
+      </c>
+      <c r="CR112" s="28">
+        <v>82.577670600118552</v>
+      </c>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
@@ -36640,25 +36730,27 @@
       <c r="CK113" s="14">
         <v>1.9254741438938225</v>
       </c>
-      <c r="CL113" s="14">
+      <c r="CL113" s="28">
         <v>2.9643441220109272</v>
       </c>
-      <c r="CM113" s="14">
+      <c r="CM113" s="28">
         <v>1.5863780138528973</v>
       </c>
-      <c r="CN113" s="14">
+      <c r="CN113" s="28">
         <v>2.2256740292401487</v>
       </c>
-      <c r="CO113" s="14">
+      <c r="CO113" s="28">
         <v>2.1648322833351448</v>
       </c>
-      <c r="CP113" s="14">
+      <c r="CP113" s="28">
         <v>2.984131333626959</v>
       </c>
-      <c r="CQ113" s="14">
-        <v>1.6809197670076437</v>
-      </c>
-      <c r="CR113" s="9"/>
+      <c r="CQ113" s="28">
+        <v>1.6594361772845554</v>
+      </c>
+      <c r="CR113" s="28">
+        <v>2.3453741939879209</v>
+      </c>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
@@ -36806,13 +36898,13 @@
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
       <c r="CK114" s="9"/>
-      <c r="CL114" s="9"/>
-      <c r="CM114" s="9"/>
-      <c r="CN114" s="9"/>
-      <c r="CO114" s="9"/>
-      <c r="CP114" s="9"/>
-      <c r="CQ114" s="9"/>
-      <c r="CR114" s="9"/>
+      <c r="CL114" s="23"/>
+      <c r="CM114" s="23"/>
+      <c r="CN114" s="23"/>
+      <c r="CO114" s="23"/>
+      <c r="CP114" s="23"/>
+      <c r="CQ114" s="23"/>
+      <c r="CR114" s="23"/>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
@@ -37139,25 +37231,27 @@
       <c r="CK115" s="14">
         <v>100</v>
       </c>
-      <c r="CL115" s="14">
+      <c r="CL115" s="28">
         <v>100</v>
       </c>
-      <c r="CM115" s="14">
+      <c r="CM115" s="28">
         <v>100</v>
       </c>
-      <c r="CN115" s="14">
+      <c r="CN115" s="28">
         <v>100</v>
       </c>
-      <c r="CO115" s="14">
+      <c r="CO115" s="28">
         <v>100</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="28">
         <v>100</v>
       </c>
-      <c r="CQ115" s="14">
+      <c r="CQ115" s="28">
         <v>100</v>
       </c>
-      <c r="CR115" s="9"/>
+      <c r="CR115" s="28">
+        <v>100</v>
+      </c>
       <c r="CS115" s="9"/>
       <c r="CT115" s="9"/>
       <c r="CU115" s="9"/>
@@ -37306,12 +37400,13 @@
       <c r="CI116" s="12"/>
       <c r="CJ116" s="12"/>
       <c r="CK116" s="12"/>
-      <c r="CL116" s="12"/>
-      <c r="CM116" s="12"/>
-      <c r="CN116" s="12"/>
-      <c r="CO116" s="12"/>
-      <c r="CP116" s="12"/>
-      <c r="CQ116" s="12"/>
+      <c r="CL116" s="25"/>
+      <c r="CM116" s="25"/>
+      <c r="CN116" s="25"/>
+      <c r="CO116" s="25"/>
+      <c r="CP116" s="25"/>
+      <c r="CQ116" s="25"/>
+      <c r="CR116" s="25"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37407,13 +37502,13 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
       <c r="CK118" s="9"/>
-      <c r="CL118" s="9"/>
-      <c r="CM118" s="9"/>
-      <c r="CN118" s="9"/>
-      <c r="CO118" s="9"/>
-      <c r="CP118" s="9"/>
-      <c r="CQ118" s="9"/>
-      <c r="CR118" s="9"/>
+      <c r="CL118" s="23"/>
+      <c r="CM118" s="23"/>
+      <c r="CN118" s="23"/>
+      <c r="CO118" s="23"/>
+      <c r="CP118" s="23"/>
+      <c r="CQ118" s="23"/>
+      <c r="CR118" s="23"/>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
@@ -37561,13 +37656,13 @@
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
       <c r="CK119" s="9"/>
-      <c r="CL119" s="9"/>
-      <c r="CM119" s="9"/>
-      <c r="CN119" s="9"/>
-      <c r="CO119" s="9"/>
-      <c r="CP119" s="9"/>
-      <c r="CQ119" s="9"/>
-      <c r="CR119" s="9"/>
+      <c r="CL119" s="23"/>
+      <c r="CM119" s="23"/>
+      <c r="CN119" s="23"/>
+      <c r="CO119" s="23"/>
+      <c r="CP119" s="23"/>
+      <c r="CQ119" s="23"/>
+      <c r="CR119" s="23"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
@@ -37658,148 +37753,149 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="19">
+      <c r="B128" s="29">
         <v>2000</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="19">
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="29">
         <v>2001</v>
       </c>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="19">
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="29">
         <v>2002</v>
       </c>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="19">
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="29">
         <v>2003</v>
       </c>
-      <c r="O128" s="21"/>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
-      <c r="R128" s="19">
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="29">
         <v>2004</v>
       </c>
-      <c r="S128" s="21"/>
-      <c r="T128" s="21"/>
-      <c r="U128" s="21"/>
-      <c r="V128" s="19">
+      <c r="S128" s="31"/>
+      <c r="T128" s="31"/>
+      <c r="U128" s="31"/>
+      <c r="V128" s="29">
         <v>2005</v>
       </c>
-      <c r="W128" s="21"/>
-      <c r="X128" s="21"/>
-      <c r="Y128" s="21"/>
-      <c r="Z128" s="19">
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="29">
         <v>2006</v>
       </c>
-      <c r="AA128" s="21"/>
-      <c r="AB128" s="21"/>
-      <c r="AC128" s="21"/>
-      <c r="AD128" s="19">
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="29">
         <v>2007</v>
       </c>
-      <c r="AE128" s="21"/>
-      <c r="AF128" s="21"/>
-      <c r="AG128" s="21"/>
-      <c r="AH128" s="19">
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
+      <c r="AG128" s="31"/>
+      <c r="AH128" s="29">
         <v>2008</v>
       </c>
-      <c r="AI128" s="21"/>
-      <c r="AJ128" s="21"/>
-      <c r="AK128" s="21"/>
-      <c r="AL128" s="19">
+      <c r="AI128" s="31"/>
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="29">
         <v>2009</v>
       </c>
-      <c r="AM128" s="21"/>
-      <c r="AN128" s="21"/>
-      <c r="AO128" s="21"/>
-      <c r="AP128" s="19">
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="21"/>
-      <c r="AR128" s="21"/>
-      <c r="AS128" s="21"/>
-      <c r="AT128" s="19">
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="29">
         <v>2011</v>
       </c>
-      <c r="AU128" s="21"/>
-      <c r="AV128" s="21"/>
-      <c r="AW128" s="21"/>
-      <c r="AX128" s="19">
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="29">
         <v>2012</v>
       </c>
-      <c r="AY128" s="21"/>
-      <c r="AZ128" s="21"/>
-      <c r="BA128" s="21"/>
-      <c r="BB128" s="19">
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="29">
         <v>2013</v>
       </c>
-      <c r="BC128" s="21"/>
-      <c r="BD128" s="21"/>
-      <c r="BE128" s="21"/>
-      <c r="BF128" s="19">
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="29">
         <v>2014</v>
       </c>
-      <c r="BG128" s="21"/>
-      <c r="BH128" s="21"/>
-      <c r="BI128" s="21"/>
-      <c r="BJ128" s="19">
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="29">
         <v>2015</v>
       </c>
-      <c r="BK128" s="21"/>
-      <c r="BL128" s="21"/>
-      <c r="BM128" s="21"/>
-      <c r="BN128" s="19">
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="29">
         <v>2016</v>
       </c>
-      <c r="BO128" s="21"/>
-      <c r="BP128" s="21"/>
-      <c r="BQ128" s="21"/>
-      <c r="BR128" s="19">
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="29">
         <v>2017</v>
       </c>
-      <c r="BS128" s="21"/>
-      <c r="BT128" s="21"/>
-      <c r="BU128" s="21"/>
-      <c r="BV128" s="19">
+      <c r="BS128" s="31"/>
+      <c r="BT128" s="31"/>
+      <c r="BU128" s="31"/>
+      <c r="BV128" s="29">
         <v>2018</v>
       </c>
-      <c r="BW128" s="19"/>
-      <c r="BX128" s="19"/>
-      <c r="BY128" s="19"/>
-      <c r="BZ128" s="19">
+      <c r="BW128" s="29"/>
+      <c r="BX128" s="29"/>
+      <c r="BY128" s="29"/>
+      <c r="BZ128" s="29">
         <v>2019</v>
       </c>
-      <c r="CA128" s="19"/>
-      <c r="CB128" s="19"/>
-      <c r="CC128" s="19"/>
-      <c r="CD128" s="19">
+      <c r="CA128" s="29"/>
+      <c r="CB128" s="29"/>
+      <c r="CC128" s="29"/>
+      <c r="CD128" s="29">
         <v>2020</v>
       </c>
-      <c r="CE128" s="19"/>
-      <c r="CF128" s="19"/>
-      <c r="CG128" s="19"/>
-      <c r="CH128" s="19">
+      <c r="CE128" s="29"/>
+      <c r="CF128" s="29"/>
+      <c r="CG128" s="29"/>
+      <c r="CH128" s="29">
         <v>2021</v>
       </c>
-      <c r="CI128" s="19"/>
-      <c r="CJ128" s="19"/>
-      <c r="CK128" s="19"/>
-      <c r="CL128" s="19">
+      <c r="CI128" s="29"/>
+      <c r="CJ128" s="29"/>
+      <c r="CK128" s="29"/>
+      <c r="CL128" s="30">
         <v>2022</v>
       </c>
-      <c r="CM128" s="19"/>
-      <c r="CN128" s="19"/>
-      <c r="CO128" s="19"/>
-      <c r="CP128" s="19">
+      <c r="CM128" s="30"/>
+      <c r="CN128" s="30"/>
+      <c r="CO128" s="30"/>
+      <c r="CP128" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="20"/>
+      <c r="CQ128" s="30"/>
+      <c r="CR128" s="30"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38069,23 +38165,26 @@
       <c r="CK129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="6" t="s">
+      <c r="CL129" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="6" t="s">
+      <c r="CM129" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="6" t="s">
+      <c r="CN129" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="6" t="s">
+      <c r="CO129" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR129" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38359,25 +38458,27 @@
       <c r="CK131" s="14">
         <v>20.135217470864976</v>
       </c>
-      <c r="CL131" s="14">
+      <c r="CL131" s="28">
         <v>16.94615010348225</v>
       </c>
-      <c r="CM131" s="14">
+      <c r="CM131" s="28">
         <v>14.535018802917261</v>
       </c>
-      <c r="CN131" s="14">
+      <c r="CN131" s="28">
         <v>14.80289923733817</v>
       </c>
-      <c r="CO131" s="14">
+      <c r="CO131" s="28">
         <v>19.094243811796265</v>
       </c>
-      <c r="CP131" s="14">
+      <c r="CP131" s="28">
         <v>16.047717996298118</v>
       </c>
-      <c r="CQ131" s="14">
-        <v>14.153224663833413</v>
-      </c>
-      <c r="CR131" s="9"/>
+      <c r="CQ131" s="28">
+        <v>14.107235383968128</v>
+      </c>
+      <c r="CR131" s="28">
+        <v>14.39181635032711</v>
+      </c>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
@@ -38704,25 +38805,27 @@
       <c r="CK132" s="14">
         <v>77.819212253662258</v>
       </c>
-      <c r="CL132" s="14">
+      <c r="CL132" s="28">
         <v>80.037451054835046</v>
       </c>
-      <c r="CM132" s="14">
+      <c r="CM132" s="28">
         <v>83.772793951112746</v>
       </c>
-      <c r="CN132" s="14">
+      <c r="CN132" s="28">
         <v>82.757909294335576</v>
       </c>
-      <c r="CO132" s="14">
+      <c r="CO132" s="28">
         <v>78.544429057331243</v>
       </c>
-      <c r="CP132" s="14">
+      <c r="CP132" s="28">
         <v>80.795274778686391</v>
       </c>
-      <c r="CQ132" s="14">
-        <v>83.99118082830293</v>
-      </c>
-      <c r="CR132" s="9"/>
+      <c r="CQ132" s="28">
+        <v>84.061824846453362</v>
+      </c>
+      <c r="CR132" s="28">
+        <v>82.984573740053264</v>
+      </c>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
@@ -39049,25 +39152,27 @@
       <c r="CK133" s="14">
         <v>2.0455702754727612</v>
       </c>
-      <c r="CL133" s="14">
+      <c r="CL133" s="28">
         <v>3.0163988416826872</v>
       </c>
-      <c r="CM133" s="14">
+      <c r="CM133" s="28">
         <v>1.6921872459699832</v>
       </c>
-      <c r="CN133" s="14">
+      <c r="CN133" s="28">
         <v>2.4391914683262566</v>
       </c>
-      <c r="CO133" s="14">
+      <c r="CO133" s="28">
         <v>2.3613271308724779</v>
       </c>
-      <c r="CP133" s="14">
+      <c r="CP133" s="28">
         <v>3.1570072250154917</v>
       </c>
-      <c r="CQ133" s="14">
-        <v>1.8555945078636389</v>
-      </c>
-      <c r="CR133" s="9"/>
+      <c r="CQ133" s="28">
+        <v>1.8309397695785161</v>
+      </c>
+      <c r="CR133" s="28">
+        <v>2.6236099096196264</v>
+      </c>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
@@ -39215,13 +39320,13 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="9"/>
-      <c r="CM134" s="9"/>
-      <c r="CN134" s="9"/>
-      <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
+      <c r="CL134" s="23"/>
+      <c r="CM134" s="23"/>
+      <c r="CN134" s="23"/>
+      <c r="CO134" s="23"/>
+      <c r="CP134" s="23"/>
+      <c r="CQ134" s="23"/>
+      <c r="CR134" s="23"/>
       <c r="CS134" s="9"/>
       <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
@@ -39548,25 +39653,27 @@
       <c r="CK135" s="14">
         <v>100</v>
       </c>
-      <c r="CL135" s="14">
+      <c r="CL135" s="28">
         <v>100</v>
       </c>
-      <c r="CM135" s="14">
+      <c r="CM135" s="28">
         <v>100</v>
       </c>
-      <c r="CN135" s="14">
+      <c r="CN135" s="28">
         <v>100</v>
       </c>
-      <c r="CO135" s="14">
+      <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="14">
+      <c r="CP135" s="28">
         <v>100</v>
       </c>
-      <c r="CQ135" s="14">
+      <c r="CQ135" s="28">
         <v>100</v>
       </c>
-      <c r="CR135" s="9"/>
+      <c r="CR135" s="28">
+        <v>100</v>
+      </c>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
@@ -39715,12 +39822,13 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="12"/>
-      <c r="CM136" s="12"/>
-      <c r="CN136" s="12"/>
-      <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
+      <c r="CL136" s="25"/>
+      <c r="CM136" s="25"/>
+      <c r="CN136" s="25"/>
+      <c r="CO136" s="25"/>
+      <c r="CP136" s="25"/>
+      <c r="CQ136" s="25"/>
+      <c r="CR136" s="25"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -39817,13 +39925,13 @@
       <c r="CI138" s="1"/>
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-      <c r="CM138" s="1"/>
-      <c r="CN138" s="1"/>
-      <c r="CO138" s="1"/>
-      <c r="CP138" s="1"/>
-      <c r="CQ138" s="1"/>
-      <c r="CR138" s="15"/>
+      <c r="CL138" s="20"/>
+      <c r="CM138" s="20"/>
+      <c r="CN138" s="20"/>
+      <c r="CO138" s="20"/>
+      <c r="CP138" s="20"/>
+      <c r="CQ138" s="20"/>
+      <c r="CR138" s="20"/>
       <c r="CS138" s="15"/>
       <c r="CT138" s="15"/>
       <c r="CU138" s="15"/>
@@ -39972,13 +40080,13 @@
       <c r="CI139" s="1"/>
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-      <c r="CM139" s="1"/>
-      <c r="CN139" s="1"/>
-      <c r="CO139" s="1"/>
-      <c r="CP139" s="1"/>
-      <c r="CQ139" s="1"/>
-      <c r="CR139" s="15"/>
+      <c r="CL139" s="20"/>
+      <c r="CM139" s="20"/>
+      <c r="CN139" s="20"/>
+      <c r="CO139" s="20"/>
+      <c r="CP139" s="20"/>
+      <c r="CQ139" s="20"/>
+      <c r="CR139" s="20"/>
       <c r="CS139" s="15"/>
       <c r="CT139" s="15"/>
       <c r="CU139" s="15"/>
@@ -40038,16 +40146,12 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP29:CQ29"/>
-    <mergeCell ref="CP88:CQ88"/>
-    <mergeCell ref="CP108:CQ108"/>
-    <mergeCell ref="CP128:CQ128"/>
-    <mergeCell ref="CL49:CO49"/>
-    <mergeCell ref="CP49:CQ49"/>
-    <mergeCell ref="CL69:CO69"/>
-    <mergeCell ref="CP69:CQ69"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP29:CR29"/>
+    <mergeCell ref="CP88:CR88"/>
+    <mergeCell ref="CP108:CR108"/>
+    <mergeCell ref="CP128:CR128"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="CL9:CO9"/>
@@ -40067,6 +40171,8 @@
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CL49:CN49"/>
+    <mergeCell ref="CL69:CN69"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="AT128:AW128"/>
@@ -40210,12 +40316,15 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="94" man="1"/>
-    <brk id="80" max="94" man="1"/>
-    <brk id="99" max="94" man="1"/>
+    <brk id="40" max="95" man="1"/>
+    <brk id="80" max="95" man="1"/>
+    <brk id="99" max="95" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="69" max="138" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BB7CE-F0AD-46EE-B3C2-EF5991AC6D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC924F-CDCF-4E88-9A7B-90795B96524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CR$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CS$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,22 +741,14 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23325,9 +23317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23365,7 +23357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23471,7 +23463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23613,7 +23605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23629,7 +23621,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ5" sqref="CQ5"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23637,9 +23629,8 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="89" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="8.77734375" style="20" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="97" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23654,7 +23645,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23664,7 +23655,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23674,149 +23665,150 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24086,26 +24078,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="21" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="21" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="21" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="21" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="21" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="21" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="21" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24379,28 +24374,30 @@
       <c r="CK12" s="17">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="19">
         <v>140348.40204561496</v>
       </c>
-      <c r="CM12" s="22">
+      <c r="CM12" s="19">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="22">
+      <c r="CN12" s="19">
         <v>169840.95964924814</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="19">
         <v>241632.29360239604</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="19">
         <v>150620.61211146932</v>
       </c>
-      <c r="CQ12" s="22">
+      <c r="CQ12" s="19">
         <v>147622.9109382905</v>
       </c>
-      <c r="CR12" s="22">
-        <v>182650.72493941872</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="19">
+        <v>182056.50978914634</v>
+      </c>
+      <c r="CS12" s="19">
+        <v>258551.76598411403</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24726,28 +24723,30 @@
       <c r="CK13" s="17">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="22">
+      <c r="CL13" s="19">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="22">
+      <c r="CM13" s="19">
         <v>766091.80746634072</v>
       </c>
-      <c r="CN13" s="22">
+      <c r="CN13" s="19">
         <v>905030.62429906428</v>
       </c>
-      <c r="CO13" s="22">
+      <c r="CO13" s="19">
         <v>922319.92134977039</v>
       </c>
-      <c r="CP13" s="22">
+      <c r="CP13" s="19">
         <v>711549.25857980223</v>
       </c>
-      <c r="CQ13" s="22">
+      <c r="CQ13" s="19">
         <v>855626.56791905919</v>
       </c>
-      <c r="CR13" s="22">
-        <v>1000392.3997216865</v>
-      </c>
-      <c r="CS13" s="9"/>
+      <c r="CR13" s="19">
+        <v>1000697.2553548923</v>
+      </c>
+      <c r="CS13" s="19">
+        <v>1027593.4953589385</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -25073,28 +25072,30 @@
       <c r="CK14" s="17">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="22">
+      <c r="CL14" s="19">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="22">
+      <c r="CM14" s="19">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="22">
+      <c r="CN14" s="19">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="22">
+      <c r="CO14" s="19">
         <v>25755.169536635767</v>
       </c>
-      <c r="CP14" s="22">
+      <c r="CP14" s="19">
         <v>26519.662828424505</v>
       </c>
-      <c r="CQ14" s="22">
+      <c r="CQ14" s="19">
         <v>16929.214307323382</v>
       </c>
-      <c r="CR14" s="22">
-        <v>28413.183626004629</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="19">
+        <v>28433.168796216156</v>
+      </c>
+      <c r="CS14" s="19">
+        <v>29819.291629677631</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -25241,13 +25242,13 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="23"/>
-      <c r="CM15" s="23"/>
-      <c r="CN15" s="23"/>
-      <c r="CO15" s="23"/>
-      <c r="CP15" s="23"/>
-      <c r="CQ15" s="23"/>
-      <c r="CR15" s="23"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+      <c r="CO15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25574,28 +25575,30 @@
       <c r="CK16" s="18">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="24">
+      <c r="CL16" s="20">
         <v>779105.48896063119</v>
       </c>
-      <c r="CM16" s="24">
+      <c r="CM16" s="20">
         <v>919366.90013090079</v>
       </c>
-      <c r="CN16" s="24">
+      <c r="CN16" s="20">
         <v>1099339.2930877998</v>
       </c>
-      <c r="CO16" s="24">
+      <c r="CO16" s="20">
         <v>1189707.3844888022</v>
       </c>
-      <c r="CP16" s="24">
+      <c r="CP16" s="20">
         <v>888689.53351969598</v>
       </c>
-      <c r="CQ16" s="24">
+      <c r="CQ16" s="20">
         <v>1020178.6931646731</v>
       </c>
-      <c r="CR16" s="24">
-        <v>1211456.3082871099</v>
-      </c>
-      <c r="CS16" s="9"/>
+      <c r="CR16" s="20">
+        <v>1211186.9339402549</v>
+      </c>
+      <c r="CS16" s="20">
+        <v>1315964.5529727302</v>
+      </c>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
@@ -25743,13 +25746,14 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="25"/>
-      <c r="CM17" s="25"/>
-      <c r="CN17" s="25"/>
-      <c r="CO17" s="25"/>
-      <c r="CP17" s="25"/>
-      <c r="CQ17" s="25"/>
-      <c r="CR17" s="25"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25845,13 +25849,13 @@
       <c r="CI19" s="9"/>
       <c r="CJ19" s="9"/>
       <c r="CK19" s="9"/>
-      <c r="CL19" s="23"/>
-      <c r="CM19" s="23"/>
-      <c r="CN19" s="23"/>
-      <c r="CO19" s="23"/>
-      <c r="CP19" s="23"/>
-      <c r="CQ19" s="23"/>
-      <c r="CR19" s="23"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="9"/>
+      <c r="CO19" s="9"/>
+      <c r="CP19" s="9"/>
+      <c r="CQ19" s="9"/>
+      <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -25999,13 +26003,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="23"/>
-      <c r="CM20" s="23"/>
-      <c r="CN20" s="23"/>
-      <c r="CO20" s="23"/>
-      <c r="CP20" s="23"/>
-      <c r="CQ20" s="23"/>
-      <c r="CR20" s="23"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26076,7 +26080,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26086,7 +26090,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26096,149 +26100,150 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="29">
+      <c r="B29" s="23">
         <v>2000</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="29">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23">
         <v>2001</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="29">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="23">
         <v>2002</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="29">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="23">
         <v>2003</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="29">
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="23">
         <v>2004</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="29">
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="23">
         <v>2005</v>
       </c>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="29">
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="23">
         <v>2006</v>
       </c>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="29">
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="23">
         <v>2007</v>
       </c>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="29">
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="23">
         <v>2008</v>
       </c>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="29">
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="23">
         <v>2009</v>
       </c>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="29">
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="29">
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="23">
         <v>2011</v>
       </c>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="29">
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="23">
         <v>2012</v>
       </c>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="29">
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="23">
         <v>2013</v>
       </c>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="29">
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="23">
         <v>2014</v>
       </c>
-      <c r="BG29" s="31"/>
-      <c r="BH29" s="31"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="29">
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="23">
         <v>2015</v>
       </c>
-      <c r="BK29" s="31"/>
-      <c r="BL29" s="31"/>
-      <c r="BM29" s="31"/>
-      <c r="BN29" s="29">
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="23">
         <v>2016</v>
       </c>
-      <c r="BO29" s="31"/>
-      <c r="BP29" s="31"/>
-      <c r="BQ29" s="31"/>
-      <c r="BR29" s="29">
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="23">
         <v>2017</v>
       </c>
-      <c r="BS29" s="31"/>
-      <c r="BT29" s="31"/>
-      <c r="BU29" s="31"/>
-      <c r="BV29" s="29">
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
+      <c r="BU29" s="25"/>
+      <c r="BV29" s="23">
         <v>2018</v>
       </c>
-      <c r="BW29" s="29"/>
-      <c r="BX29" s="29"/>
-      <c r="BY29" s="29"/>
-      <c r="BZ29" s="29">
+      <c r="BW29" s="23"/>
+      <c r="BX29" s="23"/>
+      <c r="BY29" s="23"/>
+      <c r="BZ29" s="23">
         <v>2019</v>
       </c>
-      <c r="CA29" s="29"/>
-      <c r="CB29" s="29"/>
-      <c r="CC29" s="29"/>
-      <c r="CD29" s="29">
+      <c r="CA29" s="23"/>
+      <c r="CB29" s="23"/>
+      <c r="CC29" s="23"/>
+      <c r="CD29" s="23">
         <v>2020</v>
       </c>
-      <c r="CE29" s="29"/>
-      <c r="CF29" s="29"/>
-      <c r="CG29" s="29"/>
-      <c r="CH29" s="29">
+      <c r="CE29" s="23"/>
+      <c r="CF29" s="23"/>
+      <c r="CG29" s="23"/>
+      <c r="CH29" s="23">
         <v>2021</v>
       </c>
-      <c r="CI29" s="29"/>
-      <c r="CJ29" s="29"/>
-      <c r="CK29" s="29"/>
-      <c r="CL29" s="30">
+      <c r="CI29" s="23"/>
+      <c r="CJ29" s="23"/>
+      <c r="CK29" s="23"/>
+      <c r="CL29" s="22">
         <v>2022</v>
       </c>
-      <c r="CM29" s="30"/>
-      <c r="CN29" s="30"/>
-      <c r="CO29" s="30"/>
-      <c r="CP29" s="30">
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
+      <c r="CP29" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="30"/>
-      <c r="CR29" s="30"/>
+      <c r="CQ29" s="22"/>
+      <c r="CR29" s="22"/>
+      <c r="CS29" s="22"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26508,26 +26513,29 @@
       <c r="CK30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="21" t="s">
+      <c r="CL30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="21" t="s">
+      <c r="CM30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="21" t="s">
+      <c r="CN30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="21" t="s">
+      <c r="CO30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="21" t="s">
+      <c r="CP30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="21" t="s">
+      <c r="CQ30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="21" t="s">
+      <c r="CR30" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS30" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26801,28 +26809,30 @@
       <c r="CK32" s="17">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="22">
+      <c r="CL32" s="19">
         <v>126762.67468302601</v>
       </c>
-      <c r="CM32" s="22">
+      <c r="CM32" s="19">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="22">
+      <c r="CN32" s="19">
         <v>150635.17151022534</v>
       </c>
-      <c r="CO32" s="22">
+      <c r="CO32" s="19">
         <v>207103.66086608323</v>
       </c>
-      <c r="CP32" s="22">
+      <c r="CP32" s="19">
         <v>128252.22203265468</v>
       </c>
-      <c r="CQ32" s="22">
+      <c r="CQ32" s="19">
         <v>127704.65026908406</v>
       </c>
-      <c r="CR32" s="22">
-        <v>153767.44002501102</v>
-      </c>
-      <c r="CS32" s="9"/>
+      <c r="CR32" s="19">
+        <v>153494.26674380642</v>
+      </c>
+      <c r="CS32" s="19">
+        <v>211911.69426387717</v>
+      </c>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
       <c r="CV32" s="9"/>
@@ -27148,28 +27158,30 @@
       <c r="CK33" s="17">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="22">
+      <c r="CL33" s="19">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="22">
+      <c r="CM33" s="19">
         <v>720940.83705220371</v>
       </c>
-      <c r="CN33" s="22">
+      <c r="CN33" s="19">
         <v>842149.34253795329</v>
       </c>
-      <c r="CO33" s="22">
+      <c r="CO33" s="19">
         <v>851923.69798693701</v>
       </c>
-      <c r="CP33" s="22">
+      <c r="CP33" s="19">
         <v>645710.09550988954</v>
       </c>
-      <c r="CQ33" s="22">
+      <c r="CQ33" s="19">
         <v>760963.12642496848</v>
       </c>
-      <c r="CR33" s="22">
-        <v>886637.59701774665</v>
-      </c>
-      <c r="CS33" s="9"/>
+      <c r="CR33" s="19">
+        <v>886381.3413001697</v>
+      </c>
+      <c r="CS33" s="19">
+        <v>900361.15860398917</v>
+      </c>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
@@ -27495,28 +27507,30 @@
       <c r="CK34" s="17">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="22">
+      <c r="CL34" s="19">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="22">
+      <c r="CM34" s="19">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="22">
+      <c r="CN34" s="19">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="22">
+      <c r="CO34" s="19">
         <v>25611.880634098241</v>
       </c>
-      <c r="CP34" s="22">
+      <c r="CP34" s="19">
         <v>25230.57743629234</v>
       </c>
-      <c r="CQ34" s="22">
+      <c r="CQ34" s="19">
         <v>16574.439751923404</v>
       </c>
-      <c r="CR34" s="22">
-        <v>28031.609743080902</v>
-      </c>
-      <c r="CS34" s="9"/>
+      <c r="CR34" s="19">
+        <v>28050.327309010841</v>
+      </c>
+      <c r="CS34" s="19">
+        <v>29026.973628926022</v>
+      </c>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
@@ -27663,14 +27677,14 @@
       <c r="CI35" s="18"/>
       <c r="CJ35" s="18"/>
       <c r="CK35" s="18"/>
-      <c r="CL35" s="24"/>
-      <c r="CM35" s="24"/>
-      <c r="CN35" s="24"/>
-      <c r="CO35" s="24"/>
-      <c r="CP35" s="24"/>
-      <c r="CQ35" s="24"/>
-      <c r="CR35" s="24"/>
-      <c r="CS35" s="9"/>
+      <c r="CL35" s="20"/>
+      <c r="CM35" s="20"/>
+      <c r="CN35" s="20"/>
+      <c r="CO35" s="20"/>
+      <c r="CP35" s="20"/>
+      <c r="CQ35" s="20"/>
+      <c r="CR35" s="20"/>
+      <c r="CS35" s="20"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
@@ -27996,28 +28010,30 @@
       <c r="CK36" s="18">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="24">
+      <c r="CL36" s="20">
         <v>748032.2899829481</v>
       </c>
-      <c r="CM36" s="24">
+      <c r="CM36" s="20">
         <v>860590.65604630881</v>
       </c>
-      <c r="CN36" s="24">
+      <c r="CN36" s="20">
         <v>1017605.8696006653</v>
       </c>
-      <c r="CO36" s="24">
+      <c r="CO36" s="20">
         <v>1084639.2394871186</v>
       </c>
-      <c r="CP36" s="24">
+      <c r="CP36" s="20">
         <v>799192.89497883653</v>
       </c>
-      <c r="CQ36" s="24">
+      <c r="CQ36" s="20">
         <v>905242.21644597594</v>
       </c>
-      <c r="CR36" s="24">
-        <v>1068436.6467858385</v>
-      </c>
-      <c r="CS36" s="9"/>
+      <c r="CR36" s="20">
+        <v>1067925.9353529869</v>
+      </c>
+      <c r="CS36" s="20">
+        <v>1141299.8264967925</v>
+      </c>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
@@ -28165,13 +28181,14 @@
       <c r="CI37" s="12"/>
       <c r="CJ37" s="12"/>
       <c r="CK37" s="12"/>
-      <c r="CL37" s="25"/>
-      <c r="CM37" s="25"/>
-      <c r="CN37" s="25"/>
-      <c r="CO37" s="25"/>
-      <c r="CP37" s="25"/>
-      <c r="CQ37" s="25"/>
-      <c r="CR37" s="25"/>
+      <c r="CL37" s="12"/>
+      <c r="CM37" s="12"/>
+      <c r="CN37" s="12"/>
+      <c r="CO37" s="12"/>
+      <c r="CP37" s="12"/>
+      <c r="CQ37" s="12"/>
+      <c r="CR37" s="12"/>
+      <c r="CS37" s="12"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28267,13 +28284,13 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="23"/>
-      <c r="CM39" s="23"/>
-      <c r="CN39" s="23"/>
-      <c r="CO39" s="23"/>
-      <c r="CP39" s="23"/>
-      <c r="CQ39" s="23"/>
-      <c r="CR39" s="23"/>
+      <c r="CL39" s="9"/>
+      <c r="CM39" s="9"/>
+      <c r="CN39" s="9"/>
+      <c r="CO39" s="9"/>
+      <c r="CP39" s="9"/>
+      <c r="CQ39" s="9"/>
+      <c r="CR39" s="9"/>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
@@ -28421,13 +28438,13 @@
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
-      <c r="CL40" s="23"/>
-      <c r="CM40" s="23"/>
-      <c r="CN40" s="23"/>
-      <c r="CO40" s="23"/>
-      <c r="CP40" s="23"/>
-      <c r="CQ40" s="23"/>
-      <c r="CR40" s="23"/>
+      <c r="CL40" s="9"/>
+      <c r="CM40" s="9"/>
+      <c r="CN40" s="9"/>
+      <c r="CO40" s="9"/>
+      <c r="CP40" s="9"/>
+      <c r="CQ40" s="9"/>
+      <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -28498,7 +28515,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28508,7 +28525,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28518,147 +28535,148 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29" t="s">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29" t="s">
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29" t="s">
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29" t="s">
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29" t="s">
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="29"/>
-      <c r="AL49" s="29" t="s">
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="29"/>
-      <c r="AN49" s="29"/>
-      <c r="AO49" s="29"/>
-      <c r="AP49" s="29" t="s">
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="29"/>
-      <c r="AR49" s="29"/>
-      <c r="AS49" s="29"/>
-      <c r="AT49" s="29" t="s">
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="29"/>
-      <c r="AV49" s="29"/>
-      <c r="AW49" s="29"/>
-      <c r="AX49" s="29" t="s">
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+      <c r="AX49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="29"/>
-      <c r="AZ49" s="29"/>
-      <c r="BA49" s="29"/>
-      <c r="BB49" s="29" t="s">
+      <c r="AY49" s="23"/>
+      <c r="AZ49" s="23"/>
+      <c r="BA49" s="23"/>
+      <c r="BB49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="29"/>
-      <c r="BD49" s="29"/>
-      <c r="BE49" s="29"/>
-      <c r="BF49" s="29" t="s">
+      <c r="BC49" s="23"/>
+      <c r="BD49" s="23"/>
+      <c r="BE49" s="23"/>
+      <c r="BF49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="29"/>
-      <c r="BH49" s="29"/>
-      <c r="BI49" s="29"/>
-      <c r="BJ49" s="29" t="s">
+      <c r="BG49" s="23"/>
+      <c r="BH49" s="23"/>
+      <c r="BI49" s="23"/>
+      <c r="BJ49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="29"/>
-      <c r="BL49" s="29"/>
-      <c r="BM49" s="29"/>
-      <c r="BN49" s="29" t="s">
+      <c r="BK49" s="23"/>
+      <c r="BL49" s="23"/>
+      <c r="BM49" s="23"/>
+      <c r="BN49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="29"/>
-      <c r="BP49" s="29"/>
-      <c r="BQ49" s="29"/>
-      <c r="BR49" s="29" t="s">
+      <c r="BO49" s="23"/>
+      <c r="BP49" s="23"/>
+      <c r="BQ49" s="23"/>
+      <c r="BR49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="29"/>
-      <c r="BT49" s="29"/>
-      <c r="BU49" s="29"/>
-      <c r="BV49" s="29" t="s">
+      <c r="BS49" s="23"/>
+      <c r="BT49" s="23"/>
+      <c r="BU49" s="23"/>
+      <c r="BV49" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="29"/>
-      <c r="BX49" s="29"/>
-      <c r="BY49" s="29"/>
-      <c r="BZ49" s="29" t="s">
+      <c r="BW49" s="23"/>
+      <c r="BX49" s="23"/>
+      <c r="BY49" s="23"/>
+      <c r="BZ49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="29"/>
-      <c r="CB49" s="29"/>
-      <c r="CC49" s="29"/>
-      <c r="CD49" s="29" t="s">
+      <c r="CA49" s="23"/>
+      <c r="CB49" s="23"/>
+      <c r="CC49" s="23"/>
+      <c r="CD49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="29"/>
-      <c r="CF49" s="29"/>
-      <c r="CG49" s="29"/>
-      <c r="CH49" s="29" t="s">
+      <c r="CE49" s="23"/>
+      <c r="CF49" s="23"/>
+      <c r="CG49" s="23"/>
+      <c r="CH49" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="29"/>
-      <c r="CJ49" s="29"/>
-      <c r="CK49" s="29"/>
-      <c r="CL49" s="30" t="s">
+      <c r="CI49" s="23"/>
+      <c r="CJ49" s="23"/>
+      <c r="CK49" s="23"/>
+      <c r="CL49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="30"/>
-      <c r="CN49" s="30"/>
-      <c r="CO49" s="26"/>
-      <c r="CP49" s="19"/>
-      <c r="CQ49" s="19"/>
-      <c r="CR49" s="19"/>
+      <c r="CM49" s="22"/>
+      <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
+      <c r="CP49" s="21"/>
+      <c r="CQ49" s="21"/>
+      <c r="CR49" s="21"/>
+      <c r="CS49" s="21"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28928,19 +28946,22 @@
       <c r="CK50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="27" t="s">
+      <c r="CL50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="27" t="s">
+      <c r="CM50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="27" t="s">
+      <c r="CN50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO50" s="27"/>
-      <c r="CP50" s="27"/>
-      <c r="CQ50" s="27"/>
-      <c r="CR50" s="27"/>
+      <c r="CO50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP50" s="5"/>
+      <c r="CQ50" s="5"/>
+      <c r="CR50" s="5"/>
+      <c r="CS50" s="5"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29213,20 +29234,22 @@
       <c r="CK52" s="14">
         <v>10.606669514059931</v>
       </c>
-      <c r="CL52" s="28">
+      <c r="CL52" s="14">
         <v>7.3190787469854968</v>
       </c>
-      <c r="CM52" s="28">
+      <c r="CM52" s="14">
         <v>6.4405675443779415</v>
       </c>
-      <c r="CN52" s="28">
-        <v>7.5422120297865973</v>
-      </c>
-      <c r="CO52" s="28"/>
-      <c r="CP52" s="28"/>
-      <c r="CQ52" s="28"/>
-      <c r="CR52" s="28"/>
-      <c r="CS52" s="9"/>
+      <c r="CN52" s="14">
+        <v>7.1923463957843268</v>
+      </c>
+      <c r="CO52" s="14">
+        <v>7.0021569259110805</v>
+      </c>
+      <c r="CP52" s="14"/>
+      <c r="CQ52" s="14"/>
+      <c r="CR52" s="14"/>
+      <c r="CS52" s="14"/>
       <c r="CT52" s="9"/>
       <c r="CU52" s="9"/>
       <c r="CV52" s="9"/>
@@ -29548,20 +29571,22 @@
       <c r="CK53" s="14">
         <v>17.106613161245704</v>
       </c>
-      <c r="CL53" s="28">
+      <c r="CL53" s="14">
         <v>15.574711964166823</v>
       </c>
-      <c r="CM53" s="28">
+      <c r="CM53" s="14">
         <v>11.687210276903045</v>
       </c>
-      <c r="CN53" s="28">
-        <v>10.536856197156737</v>
-      </c>
-      <c r="CO53" s="28"/>
-      <c r="CP53" s="28"/>
-      <c r="CQ53" s="28"/>
-      <c r="CR53" s="28"/>
-      <c r="CS53" s="9"/>
+      <c r="CN53" s="14">
+        <v>10.570540762631168</v>
+      </c>
+      <c r="CO53" s="14">
+        <v>11.41399763491016</v>
+      </c>
+      <c r="CP53" s="14"/>
+      <c r="CQ53" s="14"/>
+      <c r="CR53" s="14"/>
+      <c r="CS53" s="14"/>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
       <c r="CV53" s="9"/>
@@ -29883,20 +29908,22 @@
       <c r="CK54" s="14">
         <v>30.39562411485727</v>
       </c>
-      <c r="CL54" s="28">
+      <c r="CL54" s="14">
         <v>14.826761352364187</v>
       </c>
-      <c r="CM54" s="28">
+      <c r="CM54" s="14">
         <v>16.075685392412083</v>
       </c>
-      <c r="CN54" s="28">
-        <v>16.125230457925426</v>
-      </c>
-      <c r="CO54" s="28"/>
-      <c r="CP54" s="28"/>
-      <c r="CQ54" s="28"/>
-      <c r="CR54" s="28"/>
-      <c r="CS54" s="9"/>
+      <c r="CN54" s="14">
+        <v>16.206910234718563</v>
+      </c>
+      <c r="CO54" s="14">
+        <v>15.779830481258529</v>
+      </c>
+      <c r="CP54" s="14"/>
+      <c r="CQ54" s="14"/>
+      <c r="CR54" s="14"/>
+      <c r="CS54" s="14"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
@@ -30039,13 +30066,13 @@
       <c r="CI55" s="9"/>
       <c r="CJ55" s="9"/>
       <c r="CK55" s="9"/>
-      <c r="CL55" s="23"/>
-      <c r="CM55" s="23"/>
-      <c r="CN55" s="23"/>
-      <c r="CO55" s="23"/>
-      <c r="CP55" s="23"/>
-      <c r="CQ55" s="23"/>
-      <c r="CR55" s="23"/>
+      <c r="CL55" s="9"/>
+      <c r="CM55" s="9"/>
+      <c r="CN55" s="9"/>
+      <c r="CO55" s="9"/>
+      <c r="CP55" s="9"/>
+      <c r="CQ55" s="9"/>
+      <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
@@ -30368,20 +30395,22 @@
       <c r="CK56" s="14">
         <v>15.978223644767198</v>
       </c>
-      <c r="CL56" s="28">
+      <c r="CL56" s="14">
         <v>14.065366771482488</v>
       </c>
-      <c r="CM56" s="28">
+      <c r="CM56" s="14">
         <v>10.965349418107024</v>
       </c>
-      <c r="CN56" s="28">
-        <v>10.198581630280714</v>
-      </c>
-      <c r="CO56" s="28"/>
-      <c r="CP56" s="28"/>
-      <c r="CQ56" s="28"/>
-      <c r="CR56" s="28"/>
-      <c r="CS56" s="9"/>
+      <c r="CN56" s="14">
+        <v>10.174078335570073</v>
+      </c>
+      <c r="CO56" s="14">
+        <v>10.612455644980187</v>
+      </c>
+      <c r="CP56" s="14"/>
+      <c r="CQ56" s="14"/>
+      <c r="CR56" s="14"/>
+      <c r="CS56" s="14"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
@@ -30525,13 +30554,14 @@
       <c r="CI57" s="12"/>
       <c r="CJ57" s="12"/>
       <c r="CK57" s="12"/>
-      <c r="CL57" s="25"/>
-      <c r="CM57" s="25"/>
-      <c r="CN57" s="25"/>
-      <c r="CO57" s="25"/>
-      <c r="CP57" s="25"/>
-      <c r="CQ57" s="25"/>
-      <c r="CR57" s="25"/>
+      <c r="CL57" s="12"/>
+      <c r="CM57" s="12"/>
+      <c r="CN57" s="12"/>
+      <c r="CO57" s="12"/>
+      <c r="CP57" s="12"/>
+      <c r="CQ57" s="12"/>
+      <c r="CR57" s="12"/>
+      <c r="CS57" s="12"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30627,13 +30657,13 @@
       <c r="CI59" s="9"/>
       <c r="CJ59" s="9"/>
       <c r="CK59" s="9"/>
-      <c r="CL59" s="23"/>
-      <c r="CM59" s="23"/>
-      <c r="CN59" s="23"/>
-      <c r="CO59" s="23"/>
-      <c r="CP59" s="23"/>
-      <c r="CQ59" s="23"/>
-      <c r="CR59" s="23"/>
+      <c r="CL59" s="9"/>
+      <c r="CM59" s="9"/>
+      <c r="CN59" s="9"/>
+      <c r="CO59" s="9"/>
+      <c r="CP59" s="9"/>
+      <c r="CQ59" s="9"/>
+      <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -30777,13 +30807,13 @@
       <c r="CI60" s="9"/>
       <c r="CJ60" s="9"/>
       <c r="CK60" s="9"/>
-      <c r="CL60" s="23"/>
-      <c r="CM60" s="23"/>
-      <c r="CN60" s="23"/>
-      <c r="CO60" s="23"/>
-      <c r="CP60" s="23"/>
-      <c r="CQ60" s="23"/>
-      <c r="CR60" s="23"/>
+      <c r="CL60" s="9"/>
+      <c r="CM60" s="9"/>
+      <c r="CN60" s="9"/>
+      <c r="CO60" s="9"/>
+      <c r="CP60" s="9"/>
+      <c r="CQ60" s="9"/>
+      <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
@@ -30850,7 +30880,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30860,7 +30890,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30870,147 +30900,148 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29" t="s">
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="29" t="s">
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="29" t="s">
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="29" t="s">
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="29" t="s">
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="29" t="s">
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
-      <c r="AH69" s="29" t="s">
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="30"/>
-      <c r="AK69" s="30"/>
-      <c r="AL69" s="29" t="s">
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="30"/>
-      <c r="AN69" s="30"/>
-      <c r="AO69" s="30"/>
-      <c r="AP69" s="29" t="s">
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="30"/>
-      <c r="AR69" s="30"/>
-      <c r="AS69" s="30"/>
-      <c r="AT69" s="29" t="s">
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="30"/>
-      <c r="AV69" s="30"/>
-      <c r="AW69" s="30"/>
-      <c r="AX69" s="29" t="s">
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="30"/>
-      <c r="AZ69" s="30"/>
-      <c r="BA69" s="30"/>
-      <c r="BB69" s="29" t="s">
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="30"/>
-      <c r="BD69" s="30"/>
-      <c r="BE69" s="30"/>
-      <c r="BF69" s="29" t="s">
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="30"/>
-      <c r="BH69" s="30"/>
-      <c r="BI69" s="30"/>
-      <c r="BJ69" s="29" t="s">
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="30"/>
-      <c r="BL69" s="30"/>
-      <c r="BM69" s="30"/>
-      <c r="BN69" s="29" t="s">
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="30"/>
-      <c r="BP69" s="30"/>
-      <c r="BQ69" s="30"/>
-      <c r="BR69" s="29" t="s">
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
+      <c r="BR69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="30"/>
-      <c r="BT69" s="30"/>
-      <c r="BU69" s="30"/>
-      <c r="BV69" s="29" t="s">
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="24"/>
+      <c r="BU69" s="24"/>
+      <c r="BV69" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="29"/>
-      <c r="BX69" s="29"/>
-      <c r="BY69" s="29"/>
-      <c r="BZ69" s="29" t="s">
+      <c r="BW69" s="23"/>
+      <c r="BX69" s="23"/>
+      <c r="BY69" s="23"/>
+      <c r="BZ69" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="29"/>
-      <c r="CB69" s="29"/>
-      <c r="CC69" s="29"/>
-      <c r="CD69" s="29" t="s">
+      <c r="CA69" s="23"/>
+      <c r="CB69" s="23"/>
+      <c r="CC69" s="23"/>
+      <c r="CD69" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="29"/>
-      <c r="CF69" s="29"/>
-      <c r="CG69" s="29"/>
-      <c r="CH69" s="29" t="s">
+      <c r="CE69" s="23"/>
+      <c r="CF69" s="23"/>
+      <c r="CG69" s="23"/>
+      <c r="CH69" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="29"/>
-      <c r="CJ69" s="29"/>
-      <c r="CK69" s="29"/>
-      <c r="CL69" s="30" t="s">
+      <c r="CI69" s="23"/>
+      <c r="CJ69" s="23"/>
+      <c r="CK69" s="23"/>
+      <c r="CL69" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="30"/>
-      <c r="CN69" s="30"/>
-      <c r="CO69" s="26"/>
-      <c r="CP69" s="19"/>
-      <c r="CQ69" s="19"/>
-      <c r="CR69" s="19"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="21"/>
+      <c r="CQ69" s="21"/>
+      <c r="CR69" s="21"/>
+      <c r="CS69" s="21"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31280,19 +31311,22 @@
       <c r="CK70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="27" t="s">
+      <c r="CL70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="27" t="s">
+      <c r="CM70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="27" t="s">
+      <c r="CN70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO70" s="27"/>
-      <c r="CP70" s="27"/>
-      <c r="CQ70" s="27"/>
-      <c r="CR70" s="27"/>
+      <c r="CO70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP70" s="5"/>
+      <c r="CQ70" s="5"/>
+      <c r="CR70" s="5"/>
+      <c r="CS70" s="5"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31565,20 +31599,22 @@
       <c r="CK72" s="14">
         <v>3.1330679612443362</v>
       </c>
-      <c r="CL72" s="28">
+      <c r="CL72" s="14">
         <v>1.1750677818634898</v>
       </c>
-      <c r="CM72" s="28">
+      <c r="CM72" s="14">
         <v>2.09265256220597</v>
       </c>
-      <c r="CN72" s="28">
-        <v>2.079373949246019</v>
-      </c>
-      <c r="CO72" s="28"/>
-      <c r="CP72" s="28"/>
-      <c r="CQ72" s="28"/>
-      <c r="CR72" s="28"/>
-      <c r="CS72" s="9"/>
+      <c r="CN72" s="14">
+        <v>1.8980263406723736</v>
+      </c>
+      <c r="CO72" s="14">
+        <v>2.3215588646223324</v>
+      </c>
+      <c r="CP72" s="14"/>
+      <c r="CQ72" s="14"/>
+      <c r="CR72" s="14"/>
+      <c r="CS72" s="14"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
@@ -31900,20 +31936,22 @@
       <c r="CK73" s="14">
         <v>9.769163570978094</v>
       </c>
-      <c r="CL73" s="28">
+      <c r="CL73" s="14">
         <v>7.8509517643104374</v>
       </c>
-      <c r="CM73" s="28">
+      <c r="CM73" s="14">
         <v>5.5513971904280766</v>
       </c>
-      <c r="CN73" s="28">
-        <v>5.2827037002392956</v>
-      </c>
-      <c r="CO73" s="28"/>
-      <c r="CP73" s="28"/>
-      <c r="CQ73" s="28"/>
-      <c r="CR73" s="28"/>
-      <c r="CS73" s="9"/>
+      <c r="CN73" s="14">
+        <v>5.2522749265487789</v>
+      </c>
+      <c r="CO73" s="14">
+        <v>5.6856571464684009</v>
+      </c>
+      <c r="CP73" s="14"/>
+      <c r="CQ73" s="14"/>
+      <c r="CR73" s="14"/>
+      <c r="CS73" s="14"/>
       <c r="CT73" s="9"/>
       <c r="CU73" s="9"/>
       <c r="CV73" s="9"/>
@@ -32235,20 +32273,22 @@
       <c r="CK74" s="14">
         <v>25.543303061630169</v>
       </c>
-      <c r="CL74" s="28">
+      <c r="CL74" s="14">
         <v>11.819637351794213</v>
       </c>
-      <c r="CM74" s="28">
+      <c r="CM74" s="14">
         <v>13.813509044930953</v>
       </c>
-      <c r="CN74" s="28">
-        <v>12.933436225132596</v>
-      </c>
-      <c r="CO74" s="28"/>
-      <c r="CP74" s="28"/>
-      <c r="CQ74" s="28"/>
-      <c r="CR74" s="28"/>
-      <c r="CS74" s="9"/>
+      <c r="CN74" s="14">
+        <v>13.008845345679433</v>
+      </c>
+      <c r="CO74" s="14">
+        <v>13.334018862641102</v>
+      </c>
+      <c r="CP74" s="14"/>
+      <c r="CQ74" s="14"/>
+      <c r="CR74" s="14"/>
+      <c r="CS74" s="14"/>
       <c r="CT74" s="9"/>
       <c r="CU74" s="9"/>
       <c r="CV74" s="9"/>
@@ -32391,13 +32431,13 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="23"/>
-      <c r="CM75" s="23"/>
-      <c r="CN75" s="23"/>
-      <c r="CO75" s="23"/>
-      <c r="CP75" s="23"/>
-      <c r="CQ75" s="23"/>
-      <c r="CR75" s="23"/>
+      <c r="CL75" s="9"/>
+      <c r="CM75" s="9"/>
+      <c r="CN75" s="9"/>
+      <c r="CO75" s="9"/>
+      <c r="CP75" s="9"/>
+      <c r="CQ75" s="9"/>
+      <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32720,20 +32760,22 @@
       <c r="CK76" s="14">
         <v>8.7556423970160751</v>
       </c>
-      <c r="CL76" s="28">
+      <c r="CL76" s="14">
         <v>6.8393578300015179</v>
       </c>
-      <c r="CM76" s="28">
+      <c r="CM76" s="14">
         <v>5.1884784114207889</v>
       </c>
-      <c r="CN76" s="28">
-        <v>4.995134039971731</v>
-      </c>
-      <c r="CO76" s="28"/>
-      <c r="CP76" s="28"/>
-      <c r="CQ76" s="28"/>
-      <c r="CR76" s="28"/>
-      <c r="CS76" s="9"/>
+      <c r="CN76" s="14">
+        <v>4.944946492109807</v>
+      </c>
+      <c r="CO76" s="14">
+        <v>5.2239108587355219</v>
+      </c>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="14"/>
+      <c r="CR76" s="14"/>
+      <c r="CS76" s="14"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
@@ -32877,13 +32919,14 @@
       <c r="CI77" s="12"/>
       <c r="CJ77" s="12"/>
       <c r="CK77" s="12"/>
-      <c r="CL77" s="25"/>
-      <c r="CM77" s="25"/>
-      <c r="CN77" s="25"/>
-      <c r="CO77" s="25"/>
-      <c r="CP77" s="25"/>
-      <c r="CQ77" s="25"/>
-      <c r="CR77" s="25"/>
+      <c r="CL77" s="12"/>
+      <c r="CM77" s="12"/>
+      <c r="CN77" s="12"/>
+      <c r="CO77" s="12"/>
+      <c r="CP77" s="12"/>
+      <c r="CQ77" s="12"/>
+      <c r="CR77" s="12"/>
+      <c r="CS77" s="12"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -32979,13 +33022,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="23"/>
-      <c r="CM79" s="23"/>
-      <c r="CN79" s="23"/>
-      <c r="CO79" s="23"/>
-      <c r="CP79" s="23"/>
-      <c r="CQ79" s="23"/>
-      <c r="CR79" s="23"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
+      <c r="CN79" s="9"/>
+      <c r="CO79" s="9"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -33129,13 +33172,13 @@
       <c r="CI80" s="9"/>
       <c r="CJ80" s="9"/>
       <c r="CK80" s="9"/>
-      <c r="CL80" s="23"/>
-      <c r="CM80" s="23"/>
-      <c r="CN80" s="23"/>
-      <c r="CO80" s="23"/>
-      <c r="CP80" s="23"/>
-      <c r="CQ80" s="23"/>
-      <c r="CR80" s="23"/>
+      <c r="CL80" s="9"/>
+      <c r="CM80" s="9"/>
+      <c r="CN80" s="9"/>
+      <c r="CO80" s="9"/>
+      <c r="CP80" s="9"/>
+      <c r="CQ80" s="9"/>
+      <c r="CR80" s="9"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
@@ -33197,7 +33240,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33207,7 +33250,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33217,149 +33260,150 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="29">
+      <c r="B88" s="23">
         <v>2000</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="29">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="23">
         <v>2001</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="29">
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="23">
         <v>2002</v>
       </c>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="29">
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="23">
         <v>2003</v>
       </c>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="29">
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="23">
         <v>2004</v>
       </c>
-      <c r="S88" s="31"/>
-      <c r="T88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="V88" s="29">
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="23">
         <v>2005</v>
       </c>
-      <c r="W88" s="31"/>
-      <c r="X88" s="31"/>
-      <c r="Y88" s="31"/>
-      <c r="Z88" s="29">
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="23">
         <v>2006</v>
       </c>
-      <c r="AA88" s="31"/>
-      <c r="AB88" s="31"/>
-      <c r="AC88" s="31"/>
-      <c r="AD88" s="29">
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="25"/>
+      <c r="AD88" s="23">
         <v>2007</v>
       </c>
-      <c r="AE88" s="31"/>
-      <c r="AF88" s="31"/>
-      <c r="AG88" s="31"/>
-      <c r="AH88" s="29">
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="25"/>
+      <c r="AH88" s="23">
         <v>2008</v>
       </c>
-      <c r="AI88" s="31"/>
-      <c r="AJ88" s="31"/>
-      <c r="AK88" s="31"/>
-      <c r="AL88" s="29">
+      <c r="AI88" s="25"/>
+      <c r="AJ88" s="25"/>
+      <c r="AK88" s="25"/>
+      <c r="AL88" s="23">
         <v>2009</v>
       </c>
-      <c r="AM88" s="31"/>
-      <c r="AN88" s="31"/>
-      <c r="AO88" s="31"/>
-      <c r="AP88" s="29">
+      <c r="AM88" s="25"/>
+      <c r="AN88" s="25"/>
+      <c r="AO88" s="25"/>
+      <c r="AP88" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="31"/>
-      <c r="AR88" s="31"/>
-      <c r="AS88" s="31"/>
-      <c r="AT88" s="29">
+      <c r="AQ88" s="25"/>
+      <c r="AR88" s="25"/>
+      <c r="AS88" s="25"/>
+      <c r="AT88" s="23">
         <v>2011</v>
       </c>
-      <c r="AU88" s="31"/>
-      <c r="AV88" s="31"/>
-      <c r="AW88" s="31"/>
-      <c r="AX88" s="29">
+      <c r="AU88" s="25"/>
+      <c r="AV88" s="25"/>
+      <c r="AW88" s="25"/>
+      <c r="AX88" s="23">
         <v>2012</v>
       </c>
-      <c r="AY88" s="31"/>
-      <c r="AZ88" s="31"/>
-      <c r="BA88" s="31"/>
-      <c r="BB88" s="29">
+      <c r="AY88" s="25"/>
+      <c r="AZ88" s="25"/>
+      <c r="BA88" s="25"/>
+      <c r="BB88" s="23">
         <v>2013</v>
       </c>
-      <c r="BC88" s="31"/>
-      <c r="BD88" s="31"/>
-      <c r="BE88" s="31"/>
-      <c r="BF88" s="29">
+      <c r="BC88" s="25"/>
+      <c r="BD88" s="25"/>
+      <c r="BE88" s="25"/>
+      <c r="BF88" s="23">
         <v>2014</v>
       </c>
-      <c r="BG88" s="31"/>
-      <c r="BH88" s="31"/>
-      <c r="BI88" s="31"/>
-      <c r="BJ88" s="29">
+      <c r="BG88" s="25"/>
+      <c r="BH88" s="25"/>
+      <c r="BI88" s="25"/>
+      <c r="BJ88" s="23">
         <v>2015</v>
       </c>
-      <c r="BK88" s="31"/>
-      <c r="BL88" s="31"/>
-      <c r="BM88" s="31"/>
-      <c r="BN88" s="29">
+      <c r="BK88" s="25"/>
+      <c r="BL88" s="25"/>
+      <c r="BM88" s="25"/>
+      <c r="BN88" s="23">
         <v>2016</v>
       </c>
-      <c r="BO88" s="31"/>
-      <c r="BP88" s="31"/>
-      <c r="BQ88" s="31"/>
-      <c r="BR88" s="29">
+      <c r="BO88" s="25"/>
+      <c r="BP88" s="25"/>
+      <c r="BQ88" s="25"/>
+      <c r="BR88" s="23">
         <v>2017</v>
       </c>
-      <c r="BS88" s="31"/>
-      <c r="BT88" s="31"/>
-      <c r="BU88" s="31"/>
-      <c r="BV88" s="29">
+      <c r="BS88" s="25"/>
+      <c r="BT88" s="25"/>
+      <c r="BU88" s="25"/>
+      <c r="BV88" s="23">
         <v>2018</v>
       </c>
-      <c r="BW88" s="29"/>
-      <c r="BX88" s="29"/>
-      <c r="BY88" s="29"/>
-      <c r="BZ88" s="29">
+      <c r="BW88" s="23"/>
+      <c r="BX88" s="23"/>
+      <c r="BY88" s="23"/>
+      <c r="BZ88" s="23">
         <v>2019</v>
       </c>
-      <c r="CA88" s="29"/>
-      <c r="CB88" s="29"/>
-      <c r="CC88" s="29"/>
-      <c r="CD88" s="29">
+      <c r="CA88" s="23"/>
+      <c r="CB88" s="23"/>
+      <c r="CC88" s="23"/>
+      <c r="CD88" s="23">
         <v>2020</v>
       </c>
-      <c r="CE88" s="29"/>
-      <c r="CF88" s="29"/>
-      <c r="CG88" s="29"/>
-      <c r="CH88" s="29">
+      <c r="CE88" s="23"/>
+      <c r="CF88" s="23"/>
+      <c r="CG88" s="23"/>
+      <c r="CH88" s="23">
         <v>2021</v>
       </c>
-      <c r="CI88" s="29"/>
-      <c r="CJ88" s="29"/>
-      <c r="CK88" s="29"/>
-      <c r="CL88" s="30">
+      <c r="CI88" s="23"/>
+      <c r="CJ88" s="23"/>
+      <c r="CK88" s="23"/>
+      <c r="CL88" s="22">
         <v>2022</v>
       </c>
-      <c r="CM88" s="30"/>
-      <c r="CN88" s="30"/>
-      <c r="CO88" s="30"/>
-      <c r="CP88" s="30">
+      <c r="CM88" s="22"/>
+      <c r="CN88" s="22"/>
+      <c r="CO88" s="22"/>
+      <c r="CP88" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="30"/>
-      <c r="CR88" s="30"/>
+      <c r="CQ88" s="22"/>
+      <c r="CR88" s="22"/>
+      <c r="CS88" s="22"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33629,26 +33673,29 @@
       <c r="CK89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="21" t="s">
+      <c r="CL89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="21" t="s">
+      <c r="CM89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="21" t="s">
+      <c r="CN89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="21" t="s">
+      <c r="CO89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="21" t="s">
+      <c r="CP89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="21" t="s">
+      <c r="CQ89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="21" t="s">
+      <c r="CR89" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS89" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33922,28 +33969,30 @@
       <c r="CK91" s="14">
         <v>108.78870881035488</v>
       </c>
-      <c r="CL91" s="28">
+      <c r="CL91" s="14">
         <v>110.71745085575108</v>
       </c>
-      <c r="CM91" s="28">
+      <c r="CM91" s="14">
         <v>110.87518537886029</v>
       </c>
-      <c r="CN91" s="28">
+      <c r="CN91" s="14">
         <v>112.74986973259369</v>
       </c>
-      <c r="CO91" s="28">
+      <c r="CO91" s="14">
         <v>116.67214987505199</v>
       </c>
-      <c r="CP91" s="28">
+      <c r="CP91" s="14">
         <v>117.44093764950081</v>
       </c>
-      <c r="CQ91" s="28">
+      <c r="CQ91" s="14">
         <v>115.5971302746118</v>
       </c>
-      <c r="CR91" s="28">
-        <v>118.78374570696482</v>
-      </c>
-      <c r="CS91" s="9"/>
+      <c r="CR91" s="14">
+        <v>118.60801947281358</v>
+      </c>
+      <c r="CS91" s="14">
+        <v>122.0092014658519</v>
+      </c>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
@@ -34269,28 +34318,30 @@
       <c r="CK92" s="14">
         <v>101.47985171687088</v>
       </c>
-      <c r="CL92" s="28">
+      <c r="CL92" s="14">
         <v>102.83206478692419</v>
       </c>
-      <c r="CM92" s="28">
+      <c r="CM92" s="14">
         <v>106.26278441914197</v>
       </c>
-      <c r="CN92" s="28">
+      <c r="CN92" s="14">
         <v>107.46676136700506</v>
       </c>
-      <c r="CO92" s="28">
+      <c r="CO92" s="14">
         <v>108.26320755358454</v>
       </c>
-      <c r="CP92" s="28">
+      <c r="CP92" s="14">
         <v>110.19639673093889</v>
       </c>
-      <c r="CQ92" s="28">
+      <c r="CQ92" s="14">
         <v>112.43995118907047</v>
       </c>
-      <c r="CR92" s="28">
-        <v>112.82990965943247</v>
-      </c>
-      <c r="CS92" s="9"/>
+      <c r="CR92" s="14">
+        <v>112.89692243375077</v>
+      </c>
+      <c r="CS92" s="14">
+        <v>114.13125561216158</v>
+      </c>
       <c r="CT92" s="9"/>
       <c r="CU92" s="9"/>
       <c r="CV92" s="9"/>
@@ -34616,28 +34667,30 @@
       <c r="CK93" s="14">
         <v>96.817413767751347</v>
       </c>
-      <c r="CL93" s="28">
+      <c r="CL93" s="14">
         <v>102.35658120197253</v>
       </c>
-      <c r="CM93" s="28">
+      <c r="CM93" s="14">
         <v>100.14989590405409</v>
       </c>
-      <c r="CN93" s="28">
+      <c r="CN93" s="14">
         <v>98.575233281472379</v>
       </c>
-      <c r="CO93" s="28">
+      <c r="CO93" s="14">
         <v>100.55946263605009</v>
       </c>
-      <c r="CP93" s="28">
+      <c r="CP93" s="14">
         <v>105.10921874613108</v>
       </c>
-      <c r="CQ93" s="28">
+      <c r="CQ93" s="14">
         <v>102.14049199074017</v>
       </c>
-      <c r="CR93" s="28">
-        <v>101.36122715185101</v>
-      </c>
-      <c r="CS93" s="9"/>
+      <c r="CR93" s="14">
+        <v>101.36483786084854</v>
+      </c>
+      <c r="CS93" s="14">
+        <v>102.72959217478342</v>
+      </c>
       <c r="CT93" s="9"/>
       <c r="CU93" s="9"/>
       <c r="CV93" s="9"/>
@@ -34784,13 +34837,13 @@
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
       <c r="CK94" s="9"/>
-      <c r="CL94" s="23"/>
-      <c r="CM94" s="23"/>
-      <c r="CN94" s="23"/>
-      <c r="CO94" s="23"/>
-      <c r="CP94" s="23"/>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="23"/>
+      <c r="CL94" s="9"/>
+      <c r="CM94" s="9"/>
+      <c r="CN94" s="9"/>
+      <c r="CO94" s="9"/>
+      <c r="CP94" s="9"/>
+      <c r="CQ94" s="9"/>
+      <c r="CR94" s="9"/>
       <c r="CS94" s="9"/>
       <c r="CT94" s="9"/>
       <c r="CU94" s="9"/>
@@ -35117,28 +35170,30 @@
       <c r="CK95" s="14">
         <v>102.85613254247907</v>
       </c>
-      <c r="CL95" s="28">
+      <c r="CL95" s="14">
         <v>104.15399166503781</v>
       </c>
-      <c r="CM95" s="28">
+      <c r="CM95" s="14">
         <v>106.82975624609026</v>
       </c>
-      <c r="CN95" s="28">
+      <c r="CN95" s="14">
         <v>108.03193318049638</v>
       </c>
-      <c r="CO95" s="28">
+      <c r="CO95" s="14">
         <v>109.6869208836079</v>
       </c>
-      <c r="CP95" s="28">
+      <c r="CP95" s="14">
         <v>111.19837765114633</v>
       </c>
-      <c r="CQ95" s="28">
+      <c r="CQ95" s="14">
         <v>112.69676497964747</v>
       </c>
-      <c r="CR95" s="28">
-        <v>113.3858813184212</v>
-      </c>
-      <c r="CS95" s="9"/>
+      <c r="CR95" s="14">
+        <v>113.41488148613182</v>
+      </c>
+      <c r="CS95" s="14">
+        <v>115.3040176140278</v>
+      </c>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
@@ -35286,13 +35341,14 @@
       <c r="CI96" s="12"/>
       <c r="CJ96" s="12"/>
       <c r="CK96" s="12"/>
-      <c r="CL96" s="25"/>
-      <c r="CM96" s="25"/>
-      <c r="CN96" s="25"/>
-      <c r="CO96" s="25"/>
-      <c r="CP96" s="25"/>
-      <c r="CQ96" s="25"/>
-      <c r="CR96" s="25"/>
+      <c r="CL96" s="12"/>
+      <c r="CM96" s="12"/>
+      <c r="CN96" s="12"/>
+      <c r="CO96" s="12"/>
+      <c r="CP96" s="12"/>
+      <c r="CQ96" s="12"/>
+      <c r="CR96" s="12"/>
+      <c r="CS96" s="12"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35311,7 +35367,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35321,7 +35377,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35331,149 +35387,150 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="29">
+      <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="29">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="29">
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="29">
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="29">
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="29">
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="31"/>
-      <c r="Z108" s="29">
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="25"/>
+      <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="31"/>
-      <c r="AB108" s="31"/>
-      <c r="AC108" s="31"/>
-      <c r="AD108" s="29">
+      <c r="AA108" s="25"/>
+      <c r="AB108" s="25"/>
+      <c r="AC108" s="25"/>
+      <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="31"/>
-      <c r="AF108" s="31"/>
-      <c r="AG108" s="31"/>
-      <c r="AH108" s="29">
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="31"/>
-      <c r="AJ108" s="31"/>
-      <c r="AK108" s="31"/>
-      <c r="AL108" s="29">
+      <c r="AI108" s="25"/>
+      <c r="AJ108" s="25"/>
+      <c r="AK108" s="25"/>
+      <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="31"/>
-      <c r="AN108" s="31"/>
-      <c r="AO108" s="31"/>
-      <c r="AP108" s="29">
+      <c r="AM108" s="25"/>
+      <c r="AN108" s="25"/>
+      <c r="AO108" s="25"/>
+      <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="31"/>
-      <c r="AR108" s="31"/>
-      <c r="AS108" s="31"/>
-      <c r="AT108" s="29">
+      <c r="AQ108" s="25"/>
+      <c r="AR108" s="25"/>
+      <c r="AS108" s="25"/>
+      <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="31"/>
-      <c r="AV108" s="31"/>
-      <c r="AW108" s="31"/>
-      <c r="AX108" s="29">
+      <c r="AU108" s="25"/>
+      <c r="AV108" s="25"/>
+      <c r="AW108" s="25"/>
+      <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="31"/>
-      <c r="AZ108" s="31"/>
-      <c r="BA108" s="31"/>
-      <c r="BB108" s="29">
+      <c r="AY108" s="25"/>
+      <c r="AZ108" s="25"/>
+      <c r="BA108" s="25"/>
+      <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="31"/>
-      <c r="BD108" s="31"/>
-      <c r="BE108" s="31"/>
-      <c r="BF108" s="29">
+      <c r="BC108" s="25"/>
+      <c r="BD108" s="25"/>
+      <c r="BE108" s="25"/>
+      <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="31"/>
-      <c r="BH108" s="31"/>
-      <c r="BI108" s="31"/>
-      <c r="BJ108" s="29">
+      <c r="BG108" s="25"/>
+      <c r="BH108" s="25"/>
+      <c r="BI108" s="25"/>
+      <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="31"/>
-      <c r="BL108" s="31"/>
-      <c r="BM108" s="31"/>
-      <c r="BN108" s="29">
+      <c r="BK108" s="25"/>
+      <c r="BL108" s="25"/>
+      <c r="BM108" s="25"/>
+      <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="31"/>
-      <c r="BP108" s="31"/>
-      <c r="BQ108" s="31"/>
-      <c r="BR108" s="29">
+      <c r="BO108" s="25"/>
+      <c r="BP108" s="25"/>
+      <c r="BQ108" s="25"/>
+      <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="31"/>
-      <c r="BT108" s="31"/>
-      <c r="BU108" s="31"/>
-      <c r="BV108" s="29">
+      <c r="BS108" s="25"/>
+      <c r="BT108" s="25"/>
+      <c r="BU108" s="25"/>
+      <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="29"/>
-      <c r="BX108" s="29"/>
-      <c r="BY108" s="29"/>
-      <c r="BZ108" s="29">
+      <c r="BW108" s="23"/>
+      <c r="BX108" s="23"/>
+      <c r="BY108" s="23"/>
+      <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="29"/>
-      <c r="CB108" s="29"/>
-      <c r="CC108" s="29"/>
-      <c r="CD108" s="29">
+      <c r="CA108" s="23"/>
+      <c r="CB108" s="23"/>
+      <c r="CC108" s="23"/>
+      <c r="CD108" s="23">
         <v>2020</v>
       </c>
-      <c r="CE108" s="29"/>
-      <c r="CF108" s="29"/>
-      <c r="CG108" s="29"/>
-      <c r="CH108" s="29">
+      <c r="CE108" s="23"/>
+      <c r="CF108" s="23"/>
+      <c r="CG108" s="23"/>
+      <c r="CH108" s="23">
         <v>2021</v>
       </c>
-      <c r="CI108" s="29"/>
-      <c r="CJ108" s="29"/>
-      <c r="CK108" s="29"/>
-      <c r="CL108" s="30">
+      <c r="CI108" s="23"/>
+      <c r="CJ108" s="23"/>
+      <c r="CK108" s="23"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="30"/>
-      <c r="CN108" s="30"/>
-      <c r="CO108" s="30"/>
-      <c r="CP108" s="30">
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="30"/>
-      <c r="CR108" s="30"/>
+      <c r="CQ108" s="22"/>
+      <c r="CR108" s="22"/>
+      <c r="CS108" s="22"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35743,26 +35800,29 @@
       <c r="CK109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="21" t="s">
+      <c r="CL109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="21" t="s">
+      <c r="CM109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="21" t="s">
+      <c r="CN109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="21" t="s">
+      <c r="CO109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="21" t="s">
+      <c r="CP109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="21" t="s">
+      <c r="CQ109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="21" t="s">
+      <c r="CR109" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS109" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36036,28 +36096,30 @@
       <c r="CK111" s="14">
         <v>21.296584424525598</v>
       </c>
-      <c r="CL111" s="28">
+      <c r="CL111" s="14">
         <v>18.014043545354468</v>
       </c>
-      <c r="CM111" s="28">
+      <c r="CM111" s="14">
         <v>15.085430884502754</v>
       </c>
-      <c r="CN111" s="28">
+      <c r="CN111" s="14">
         <v>15.449366789410629</v>
       </c>
-      <c r="CO111" s="28">
+      <c r="CO111" s="14">
         <v>20.310228948122525</v>
       </c>
-      <c r="CP111" s="28">
+      <c r="CP111" s="14">
         <v>16.948620010739795</v>
       </c>
-      <c r="CQ111" s="28">
+      <c r="CQ111" s="14">
         <v>14.470299362982464</v>
       </c>
-      <c r="CR111" s="28">
-        <v>15.076955205893508</v>
-      </c>
-      <c r="CS111" s="9"/>
+      <c r="CR111" s="14">
+        <v>15.031247835284752</v>
+      </c>
+      <c r="CS111" s="14">
+        <v>19.647319937307749</v>
+      </c>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
       <c r="CV111" s="9"/>
@@ -36383,28 +36445,30 @@
       <c r="CK112" s="14">
         <v>76.777941431580572</v>
       </c>
-      <c r="CL112" s="28">
+      <c r="CL112" s="14">
         <v>79.021612332634589</v>
       </c>
-      <c r="CM112" s="28">
+      <c r="CM112" s="14">
         <v>83.32819110164435</v>
       </c>
-      <c r="CN112" s="28">
+      <c r="CN112" s="14">
         <v>82.324959181349229</v>
       </c>
-      <c r="CO112" s="28">
+      <c r="CO112" s="14">
         <v>77.524938768542327</v>
       </c>
-      <c r="CP112" s="28">
+      <c r="CP112" s="14">
         <v>80.067248655633264</v>
       </c>
-      <c r="CQ112" s="28">
+      <c r="CQ112" s="14">
         <v>83.870264459732979</v>
       </c>
-      <c r="CR112" s="28">
-        <v>82.577670600118552</v>
-      </c>
-      <c r="CS112" s="9"/>
+      <c r="CR112" s="14">
+        <v>82.621206298800317</v>
+      </c>
+      <c r="CS112" s="14">
+        <v>78.086715408681101</v>
+      </c>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
       <c r="CV112" s="9"/>
@@ -36730,28 +36794,30 @@
       <c r="CK113" s="14">
         <v>1.9254741438938225</v>
       </c>
-      <c r="CL113" s="28">
+      <c r="CL113" s="14">
         <v>2.9643441220109272</v>
       </c>
-      <c r="CM113" s="28">
+      <c r="CM113" s="14">
         <v>1.5863780138528973</v>
       </c>
-      <c r="CN113" s="28">
+      <c r="CN113" s="14">
         <v>2.2256740292401487</v>
       </c>
-      <c r="CO113" s="28">
+      <c r="CO113" s="14">
         <v>2.1648322833351448</v>
       </c>
-      <c r="CP113" s="28">
+      <c r="CP113" s="14">
         <v>2.984131333626959</v>
       </c>
-      <c r="CQ113" s="28">
+      <c r="CQ113" s="14">
         <v>1.6594361772845554</v>
       </c>
-      <c r="CR113" s="28">
-        <v>2.3453741939879209</v>
-      </c>
-      <c r="CS113" s="9"/>
+      <c r="CR113" s="14">
+        <v>2.3475458659149226</v>
+      </c>
+      <c r="CS113" s="14">
+        <v>2.2659646540111296</v>
+      </c>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
@@ -36898,13 +36964,13 @@
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
       <c r="CK114" s="9"/>
-      <c r="CL114" s="23"/>
-      <c r="CM114" s="23"/>
-      <c r="CN114" s="23"/>
-      <c r="CO114" s="23"/>
-      <c r="CP114" s="23"/>
-      <c r="CQ114" s="23"/>
-      <c r="CR114" s="23"/>
+      <c r="CL114" s="9"/>
+      <c r="CM114" s="9"/>
+      <c r="CN114" s="9"/>
+      <c r="CO114" s="9"/>
+      <c r="CP114" s="9"/>
+      <c r="CQ114" s="9"/>
+      <c r="CR114" s="9"/>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
@@ -37231,28 +37297,30 @@
       <c r="CK115" s="14">
         <v>100</v>
       </c>
-      <c r="CL115" s="28">
+      <c r="CL115" s="14">
         <v>100</v>
       </c>
-      <c r="CM115" s="28">
+      <c r="CM115" s="14">
         <v>100</v>
       </c>
-      <c r="CN115" s="28">
+      <c r="CN115" s="14">
         <v>100</v>
       </c>
-      <c r="CO115" s="28">
+      <c r="CO115" s="14">
         <v>100</v>
       </c>
-      <c r="CP115" s="28">
+      <c r="CP115" s="14">
         <v>100</v>
       </c>
-      <c r="CQ115" s="28">
+      <c r="CQ115" s="14">
         <v>100</v>
       </c>
-      <c r="CR115" s="28">
+      <c r="CR115" s="14">
         <v>100</v>
       </c>
-      <c r="CS115" s="9"/>
+      <c r="CS115" s="14">
+        <v>100</v>
+      </c>
       <c r="CT115" s="9"/>
       <c r="CU115" s="9"/>
       <c r="CV115" s="9"/>
@@ -37400,13 +37468,14 @@
       <c r="CI116" s="12"/>
       <c r="CJ116" s="12"/>
       <c r="CK116" s="12"/>
-      <c r="CL116" s="25"/>
-      <c r="CM116" s="25"/>
-      <c r="CN116" s="25"/>
-      <c r="CO116" s="25"/>
-      <c r="CP116" s="25"/>
-      <c r="CQ116" s="25"/>
-      <c r="CR116" s="25"/>
+      <c r="CL116" s="12"/>
+      <c r="CM116" s="12"/>
+      <c r="CN116" s="12"/>
+      <c r="CO116" s="12"/>
+      <c r="CP116" s="12"/>
+      <c r="CQ116" s="12"/>
+      <c r="CR116" s="12"/>
+      <c r="CS116" s="12"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37502,13 +37571,13 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
       <c r="CK118" s="9"/>
-      <c r="CL118" s="23"/>
-      <c r="CM118" s="23"/>
-      <c r="CN118" s="23"/>
-      <c r="CO118" s="23"/>
-      <c r="CP118" s="23"/>
-      <c r="CQ118" s="23"/>
-      <c r="CR118" s="23"/>
+      <c r="CL118" s="9"/>
+      <c r="CM118" s="9"/>
+      <c r="CN118" s="9"/>
+      <c r="CO118" s="9"/>
+      <c r="CP118" s="9"/>
+      <c r="CQ118" s="9"/>
+      <c r="CR118" s="9"/>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
@@ -37656,13 +37725,13 @@
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
       <c r="CK119" s="9"/>
-      <c r="CL119" s="23"/>
-      <c r="CM119" s="23"/>
-      <c r="CN119" s="23"/>
-      <c r="CO119" s="23"/>
-      <c r="CP119" s="23"/>
-      <c r="CQ119" s="23"/>
-      <c r="CR119" s="23"/>
+      <c r="CL119" s="9"/>
+      <c r="CM119" s="9"/>
+      <c r="CN119" s="9"/>
+      <c r="CO119" s="9"/>
+      <c r="CP119" s="9"/>
+      <c r="CQ119" s="9"/>
+      <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
@@ -37733,7 +37802,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37743,7 +37812,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37753,149 +37822,150 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="29">
+      <c r="B128" s="23">
         <v>2000</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="29">
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="23">
         <v>2001</v>
       </c>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="29">
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="23">
         <v>2002</v>
       </c>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="29">
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="23">
         <v>2003</v>
       </c>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="29">
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="23">
         <v>2004</v>
       </c>
-      <c r="S128" s="31"/>
-      <c r="T128" s="31"/>
-      <c r="U128" s="31"/>
-      <c r="V128" s="29">
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="23">
         <v>2005</v>
       </c>
-      <c r="W128" s="31"/>
-      <c r="X128" s="31"/>
-      <c r="Y128" s="31"/>
-      <c r="Z128" s="29">
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="23">
         <v>2006</v>
       </c>
-      <c r="AA128" s="31"/>
-      <c r="AB128" s="31"/>
-      <c r="AC128" s="31"/>
-      <c r="AD128" s="29">
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="25"/>
+      <c r="AC128" s="25"/>
+      <c r="AD128" s="23">
         <v>2007</v>
       </c>
-      <c r="AE128" s="31"/>
-      <c r="AF128" s="31"/>
-      <c r="AG128" s="31"/>
-      <c r="AH128" s="29">
+      <c r="AE128" s="25"/>
+      <c r="AF128" s="25"/>
+      <c r="AG128" s="25"/>
+      <c r="AH128" s="23">
         <v>2008</v>
       </c>
-      <c r="AI128" s="31"/>
-      <c r="AJ128" s="31"/>
-      <c r="AK128" s="31"/>
-      <c r="AL128" s="29">
+      <c r="AI128" s="25"/>
+      <c r="AJ128" s="25"/>
+      <c r="AK128" s="25"/>
+      <c r="AL128" s="23">
         <v>2009</v>
       </c>
-      <c r="AM128" s="31"/>
-      <c r="AN128" s="31"/>
-      <c r="AO128" s="31"/>
-      <c r="AP128" s="29">
+      <c r="AM128" s="25"/>
+      <c r="AN128" s="25"/>
+      <c r="AO128" s="25"/>
+      <c r="AP128" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="31"/>
-      <c r="AR128" s="31"/>
-      <c r="AS128" s="31"/>
-      <c r="AT128" s="29">
+      <c r="AQ128" s="25"/>
+      <c r="AR128" s="25"/>
+      <c r="AS128" s="25"/>
+      <c r="AT128" s="23">
         <v>2011</v>
       </c>
-      <c r="AU128" s="31"/>
-      <c r="AV128" s="31"/>
-      <c r="AW128" s="31"/>
-      <c r="AX128" s="29">
+      <c r="AU128" s="25"/>
+      <c r="AV128" s="25"/>
+      <c r="AW128" s="25"/>
+      <c r="AX128" s="23">
         <v>2012</v>
       </c>
-      <c r="AY128" s="31"/>
-      <c r="AZ128" s="31"/>
-      <c r="BA128" s="31"/>
-      <c r="BB128" s="29">
+      <c r="AY128" s="25"/>
+      <c r="AZ128" s="25"/>
+      <c r="BA128" s="25"/>
+      <c r="BB128" s="23">
         <v>2013</v>
       </c>
-      <c r="BC128" s="31"/>
-      <c r="BD128" s="31"/>
-      <c r="BE128" s="31"/>
-      <c r="BF128" s="29">
+      <c r="BC128" s="25"/>
+      <c r="BD128" s="25"/>
+      <c r="BE128" s="25"/>
+      <c r="BF128" s="23">
         <v>2014</v>
       </c>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="31"/>
-      <c r="BI128" s="31"/>
-      <c r="BJ128" s="29">
+      <c r="BG128" s="25"/>
+      <c r="BH128" s="25"/>
+      <c r="BI128" s="25"/>
+      <c r="BJ128" s="23">
         <v>2015</v>
       </c>
-      <c r="BK128" s="31"/>
-      <c r="BL128" s="31"/>
-      <c r="BM128" s="31"/>
-      <c r="BN128" s="29">
+      <c r="BK128" s="25"/>
+      <c r="BL128" s="25"/>
+      <c r="BM128" s="25"/>
+      <c r="BN128" s="23">
         <v>2016</v>
       </c>
-      <c r="BO128" s="31"/>
-      <c r="BP128" s="31"/>
-      <c r="BQ128" s="31"/>
-      <c r="BR128" s="29">
+      <c r="BO128" s="25"/>
+      <c r="BP128" s="25"/>
+      <c r="BQ128" s="25"/>
+      <c r="BR128" s="23">
         <v>2017</v>
       </c>
-      <c r="BS128" s="31"/>
-      <c r="BT128" s="31"/>
-      <c r="BU128" s="31"/>
-      <c r="BV128" s="29">
+      <c r="BS128" s="25"/>
+      <c r="BT128" s="25"/>
+      <c r="BU128" s="25"/>
+      <c r="BV128" s="23">
         <v>2018</v>
       </c>
-      <c r="BW128" s="29"/>
-      <c r="BX128" s="29"/>
-      <c r="BY128" s="29"/>
-      <c r="BZ128" s="29">
+      <c r="BW128" s="23"/>
+      <c r="BX128" s="23"/>
+      <c r="BY128" s="23"/>
+      <c r="BZ128" s="23">
         <v>2019</v>
       </c>
-      <c r="CA128" s="29"/>
-      <c r="CB128" s="29"/>
-      <c r="CC128" s="29"/>
-      <c r="CD128" s="29">
+      <c r="CA128" s="23"/>
+      <c r="CB128" s="23"/>
+      <c r="CC128" s="23"/>
+      <c r="CD128" s="23">
         <v>2020</v>
       </c>
-      <c r="CE128" s="29"/>
-      <c r="CF128" s="29"/>
-      <c r="CG128" s="29"/>
-      <c r="CH128" s="29">
+      <c r="CE128" s="23"/>
+      <c r="CF128" s="23"/>
+      <c r="CG128" s="23"/>
+      <c r="CH128" s="23">
         <v>2021</v>
       </c>
-      <c r="CI128" s="29"/>
-      <c r="CJ128" s="29"/>
-      <c r="CK128" s="29"/>
-      <c r="CL128" s="30">
+      <c r="CI128" s="23"/>
+      <c r="CJ128" s="23"/>
+      <c r="CK128" s="23"/>
+      <c r="CL128" s="22">
         <v>2022</v>
       </c>
-      <c r="CM128" s="30"/>
-      <c r="CN128" s="30"/>
-      <c r="CO128" s="30"/>
-      <c r="CP128" s="30">
+      <c r="CM128" s="22"/>
+      <c r="CN128" s="22"/>
+      <c r="CO128" s="22"/>
+      <c r="CP128" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="30"/>
-      <c r="CR128" s="30"/>
+      <c r="CQ128" s="22"/>
+      <c r="CR128" s="22"/>
+      <c r="CS128" s="22"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38165,26 +38235,29 @@
       <c r="CK129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="21" t="s">
+      <c r="CL129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="21" t="s">
+      <c r="CM129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="21" t="s">
+      <c r="CN129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="21" t="s">
+      <c r="CO129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="21" t="s">
+      <c r="CP129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="21" t="s">
+      <c r="CQ129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="21" t="s">
+      <c r="CR129" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS129" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38458,28 +38531,30 @@
       <c r="CK131" s="14">
         <v>20.135217470864976</v>
       </c>
-      <c r="CL131" s="28">
+      <c r="CL131" s="14">
         <v>16.94615010348225</v>
       </c>
-      <c r="CM131" s="28">
+      <c r="CM131" s="14">
         <v>14.535018802917261</v>
       </c>
-      <c r="CN131" s="28">
+      <c r="CN131" s="14">
         <v>14.80289923733817</v>
       </c>
-      <c r="CO131" s="28">
+      <c r="CO131" s="14">
         <v>19.094243811796265</v>
       </c>
-      <c r="CP131" s="28">
+      <c r="CP131" s="14">
         <v>16.047717996298118</v>
       </c>
-      <c r="CQ131" s="28">
+      <c r="CQ131" s="14">
         <v>14.107235383968128</v>
       </c>
-      <c r="CR131" s="28">
-        <v>14.39181635032711</v>
-      </c>
-      <c r="CS131" s="9"/>
+      <c r="CR131" s="14">
+        <v>14.373119114582716</v>
+      </c>
+      <c r="CS131" s="14">
+        <v>18.567574387033584</v>
+      </c>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
@@ -38805,28 +38880,30 @@
       <c r="CK132" s="14">
         <v>77.819212253662258</v>
       </c>
-      <c r="CL132" s="28">
+      <c r="CL132" s="14">
         <v>80.037451054835046</v>
       </c>
-      <c r="CM132" s="28">
+      <c r="CM132" s="14">
         <v>83.772793951112746</v>
       </c>
-      <c r="CN132" s="28">
+      <c r="CN132" s="14">
         <v>82.757909294335576</v>
       </c>
-      <c r="CO132" s="28">
+      <c r="CO132" s="14">
         <v>78.544429057331243</v>
       </c>
-      <c r="CP132" s="28">
+      <c r="CP132" s="14">
         <v>80.795274778686391</v>
       </c>
-      <c r="CQ132" s="28">
+      <c r="CQ132" s="14">
         <v>84.061824846453362</v>
       </c>
-      <c r="CR132" s="28">
-        <v>82.984573740053264</v>
-      </c>
-      <c r="CS132" s="9"/>
+      <c r="CR132" s="14">
+        <v>83.000263591050398</v>
+      </c>
+      <c r="CS132" s="14">
+        <v>78.889099752835151</v>
+      </c>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
@@ -39152,28 +39229,30 @@
       <c r="CK133" s="14">
         <v>2.0455702754727612</v>
       </c>
-      <c r="CL133" s="28">
+      <c r="CL133" s="14">
         <v>3.0163988416826872</v>
       </c>
-      <c r="CM133" s="28">
+      <c r="CM133" s="14">
         <v>1.6921872459699832</v>
       </c>
-      <c r="CN133" s="28">
+      <c r="CN133" s="14">
         <v>2.4391914683262566</v>
       </c>
-      <c r="CO133" s="28">
+      <c r="CO133" s="14">
         <v>2.3613271308724779</v>
       </c>
-      <c r="CP133" s="28">
+      <c r="CP133" s="14">
         <v>3.1570072250154917</v>
       </c>
-      <c r="CQ133" s="28">
+      <c r="CQ133" s="14">
         <v>1.8309397695785161</v>
       </c>
-      <c r="CR133" s="28">
-        <v>2.6236099096196264</v>
-      </c>
-      <c r="CS133" s="9"/>
+      <c r="CR133" s="14">
+        <v>2.626617294366882</v>
+      </c>
+      <c r="CS133" s="14">
+        <v>2.5433258601312509</v>
+      </c>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
@@ -39320,13 +39399,13 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="23"/>
-      <c r="CM134" s="23"/>
-      <c r="CN134" s="23"/>
-      <c r="CO134" s="23"/>
-      <c r="CP134" s="23"/>
-      <c r="CQ134" s="23"/>
-      <c r="CR134" s="23"/>
+      <c r="CL134" s="9"/>
+      <c r="CM134" s="9"/>
+      <c r="CN134" s="9"/>
+      <c r="CO134" s="9"/>
+      <c r="CP134" s="9"/>
+      <c r="CQ134" s="9"/>
+      <c r="CR134" s="9"/>
       <c r="CS134" s="9"/>
       <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
@@ -39653,28 +39732,30 @@
       <c r="CK135" s="14">
         <v>100</v>
       </c>
-      <c r="CL135" s="28">
+      <c r="CL135" s="14">
         <v>100</v>
       </c>
-      <c r="CM135" s="28">
+      <c r="CM135" s="14">
         <v>100</v>
       </c>
-      <c r="CN135" s="28">
+      <c r="CN135" s="14">
         <v>100</v>
       </c>
-      <c r="CO135" s="28">
+      <c r="CO135" s="14">
         <v>100</v>
       </c>
-      <c r="CP135" s="28">
+      <c r="CP135" s="14">
         <v>100</v>
       </c>
-      <c r="CQ135" s="28">
+      <c r="CQ135" s="14">
         <v>100</v>
       </c>
-      <c r="CR135" s="28">
+      <c r="CR135" s="14">
         <v>100</v>
       </c>
-      <c r="CS135" s="9"/>
+      <c r="CS135" s="14">
+        <v>100</v>
+      </c>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
       <c r="CV135" s="9"/>
@@ -39822,13 +39903,14 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="25"/>
-      <c r="CM136" s="25"/>
-      <c r="CN136" s="25"/>
-      <c r="CO136" s="25"/>
-      <c r="CP136" s="25"/>
-      <c r="CQ136" s="25"/>
-      <c r="CR136" s="25"/>
+      <c r="CL136" s="12"/>
+      <c r="CM136" s="12"/>
+      <c r="CN136" s="12"/>
+      <c r="CO136" s="12"/>
+      <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
+      <c r="CR136" s="12"/>
+      <c r="CS136" s="12"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -39925,14 +40007,14 @@
       <c r="CI138" s="1"/>
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
-      <c r="CL138" s="20"/>
-      <c r="CM138" s="20"/>
-      <c r="CN138" s="20"/>
-      <c r="CO138" s="20"/>
-      <c r="CP138" s="20"/>
-      <c r="CQ138" s="20"/>
-      <c r="CR138" s="20"/>
-      <c r="CS138" s="15"/>
+      <c r="CL138" s="1"/>
+      <c r="CM138" s="1"/>
+      <c r="CN138" s="1"/>
+      <c r="CO138" s="1"/>
+      <c r="CP138" s="1"/>
+      <c r="CQ138" s="1"/>
+      <c r="CR138" s="1"/>
+      <c r="CS138" s="1"/>
       <c r="CT138" s="15"/>
       <c r="CU138" s="15"/>
       <c r="CV138" s="15"/>
@@ -40080,14 +40162,14 @@
       <c r="CI139" s="1"/>
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
-      <c r="CL139" s="20"/>
-      <c r="CM139" s="20"/>
-      <c r="CN139" s="20"/>
-      <c r="CO139" s="20"/>
-      <c r="CP139" s="20"/>
-      <c r="CQ139" s="20"/>
-      <c r="CR139" s="20"/>
-      <c r="CS139" s="15"/>
+      <c r="CL139" s="1"/>
+      <c r="CM139" s="1"/>
+      <c r="CN139" s="1"/>
+      <c r="CO139" s="1"/>
+      <c r="CP139" s="1"/>
+      <c r="CQ139" s="1"/>
+      <c r="CR139" s="1"/>
+      <c r="CS139" s="1"/>
       <c r="CT139" s="15"/>
       <c r="CU139" s="15"/>
       <c r="CV139" s="15"/>
@@ -40146,15 +40228,9 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP29:CR29"/>
-    <mergeCell ref="CP88:CR88"/>
-    <mergeCell ref="CP108:CR108"/>
-    <mergeCell ref="CP128:CR128"/>
+  <mergeCells count="154">
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CH88:CK88"/>
@@ -40163,16 +40239,10 @@
     <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CL29:CO29"/>
     <mergeCell ref="CH49:CK49"/>
     <mergeCell ref="CH69:CK69"/>
-    <mergeCell ref="CL88:CO88"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CL49:CN49"/>
-    <mergeCell ref="CL69:CN69"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="AT128:AW128"/>
@@ -40195,8 +40265,15 @@
     <mergeCell ref="AX108:BA108"/>
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
     <mergeCell ref="V108:Y108"/>
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
@@ -40210,15 +40287,6 @@
     <mergeCell ref="Z128:AC128"/>
     <mergeCell ref="AD128:AG128"/>
     <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
     <mergeCell ref="R88:U88"/>
     <mergeCell ref="V69:Y69"/>
     <mergeCell ref="Z69:AC69"/>
@@ -40228,8 +40296,14 @@
     <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="Z49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="AH49:AK49"/>
@@ -40239,7 +40313,14 @@
     <mergeCell ref="AX49:BA49"/>
     <mergeCell ref="AT29:AW29"/>
     <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="V88:Y88"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -40255,13 +40336,7 @@
     <mergeCell ref="J49:M49"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="V49:Y49"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:M29"/>
@@ -40271,33 +40346,22 @@
     <mergeCell ref="Z29:AC29"/>
     <mergeCell ref="AD29:AG29"/>
     <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR69:BU69"/>
@@ -40313,15 +40377,21 @@
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BR88:BU88"/>
     <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="95" man="1"/>
-    <brk id="80" max="95" man="1"/>
-    <brk id="99" max="95" man="1"/>
+    <brk id="40" max="96" man="1"/>
+    <brk id="80" max="96" man="1"/>
+    <brk id="99" max="96" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC924F-CDCF-4E88-9A7B-90795B96524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515F7E1-F10D-4726-8C33-D59B237169B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CS$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CT$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,14 +744,27 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23619,9 +23635,9 @@
   <dimension ref="A1:EW139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX18" sqref="CX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23629,8 +23645,10 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="97" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.109375" style="1" customWidth="1"/>
+    <col min="94" max="98" width="11.109375" style="21" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23645,7 +23663,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23655,7 +23673,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23665,150 +23683,153 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="23">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
       <c r="CP9" s="22">
         <v>2023</v>
       </c>
       <c r="CQ9" s="22"/>
       <c r="CR9" s="22"/>
       <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24090,17 +24111,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24374,31 +24398,33 @@
       <c r="CK12" s="17">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="19">
-        <v>140348.40204561496</v>
-      </c>
-      <c r="CM12" s="19">
+      <c r="CL12" s="17">
+        <v>140563.01910051252</v>
+      </c>
+      <c r="CM12" s="17">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="19">
-        <v>169840.95964924814</v>
-      </c>
-      <c r="CO12" s="19">
-        <v>241632.29360239604</v>
-      </c>
-      <c r="CP12" s="19">
-        <v>150620.61211146932</v>
-      </c>
-      <c r="CQ12" s="19">
-        <v>147622.9109382905</v>
-      </c>
-      <c r="CR12" s="19">
-        <v>182056.50978914634</v>
-      </c>
-      <c r="CS12" s="19">
-        <v>258551.76598411403</v>
-      </c>
-      <c r="CT12" s="9"/>
+      <c r="CN12" s="17">
+        <v>171443.26743782181</v>
+      </c>
+      <c r="CO12" s="17">
+        <v>241872.07257785328</v>
+      </c>
+      <c r="CP12" s="24">
+        <v>150250.70697449305</v>
+      </c>
+      <c r="CQ12" s="24">
+        <v>147748.40722495565</v>
+      </c>
+      <c r="CR12" s="24">
+        <v>183900.22750240038</v>
+      </c>
+      <c r="CS12" s="24">
+        <v>258557.47435867222</v>
+      </c>
+      <c r="CT12" s="24">
+        <v>158786.46532802339</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24723,31 +24749,33 @@
       <c r="CK13" s="17">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="17">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="19">
-        <v>766091.80746634072</v>
-      </c>
-      <c r="CN13" s="19">
-        <v>905030.62429906428</v>
-      </c>
-      <c r="CO13" s="19">
-        <v>922319.92134977039</v>
-      </c>
-      <c r="CP13" s="19">
-        <v>711549.25857980223</v>
-      </c>
-      <c r="CQ13" s="19">
-        <v>855626.56791905919</v>
-      </c>
-      <c r="CR13" s="19">
-        <v>1000697.2553548923</v>
-      </c>
-      <c r="CS13" s="19">
-        <v>1027593.4953589385</v>
-      </c>
-      <c r="CT13" s="9"/>
+      <c r="CM13" s="17">
+        <v>765800.70951643935</v>
+      </c>
+      <c r="CN13" s="17">
+        <v>903145.8385736302</v>
+      </c>
+      <c r="CO13" s="17">
+        <v>922692.50406086107</v>
+      </c>
+      <c r="CP13" s="24">
+        <v>714777.15660899249</v>
+      </c>
+      <c r="CQ13" s="24">
+        <v>857391.18231218599</v>
+      </c>
+      <c r="CR13" s="24">
+        <v>999214.36233087827</v>
+      </c>
+      <c r="CS13" s="24">
+        <v>1029851.7128424793</v>
+      </c>
+      <c r="CT13" s="24">
+        <v>804153.67517816415</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -25072,31 +25100,33 @@
       <c r="CK14" s="17">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="17">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="17">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="17">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="19">
-        <v>25755.169536635767</v>
-      </c>
-      <c r="CP14" s="19">
-        <v>26519.662828424505</v>
-      </c>
-      <c r="CQ14" s="19">
-        <v>16929.214307323382</v>
-      </c>
-      <c r="CR14" s="19">
-        <v>28433.168796216156</v>
-      </c>
-      <c r="CS14" s="19">
-        <v>29819.291629677631</v>
-      </c>
-      <c r="CT14" s="9"/>
+      <c r="CO14" s="17">
+        <v>25532.406727876172</v>
+      </c>
+      <c r="CP14" s="24">
+        <v>26658.112696118777</v>
+      </c>
+      <c r="CQ14" s="24">
+        <v>17045.978711208467</v>
+      </c>
+      <c r="CR14" s="24">
+        <v>28723.185133525789</v>
+      </c>
+      <c r="CS14" s="24">
+        <v>29906.940333057668</v>
+      </c>
+      <c r="CT14" s="24">
+        <v>28844.542976092369</v>
+      </c>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25246,11 +25276,11 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
+      <c r="CP15" s="25"/>
+      <c r="CQ15" s="25"/>
+      <c r="CR15" s="25"/>
+      <c r="CS15" s="25"/>
+      <c r="CT15" s="25"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25575,31 +25605,33 @@
       <c r="CK16" s="18">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="20">
-        <v>779105.48896063119</v>
-      </c>
-      <c r="CM16" s="20">
-        <v>919366.90013090079</v>
-      </c>
-      <c r="CN16" s="20">
-        <v>1099339.2930877998</v>
-      </c>
-      <c r="CO16" s="20">
-        <v>1189707.3844888022</v>
-      </c>
-      <c r="CP16" s="20">
-        <v>888689.53351969598</v>
-      </c>
-      <c r="CQ16" s="20">
-        <v>1020178.6931646731</v>
-      </c>
-      <c r="CR16" s="20">
-        <v>1211186.9339402549</v>
-      </c>
-      <c r="CS16" s="20">
-        <v>1315964.5529727302</v>
-      </c>
-      <c r="CT16" s="9"/>
+      <c r="CL16" s="18">
+        <v>779320.10601552867</v>
+      </c>
+      <c r="CM16" s="18">
+        <v>919075.80218099942</v>
+      </c>
+      <c r="CN16" s="18">
+        <v>1099056.8151509394</v>
+      </c>
+      <c r="CO16" s="18">
+        <v>1190096.9833665907</v>
+      </c>
+      <c r="CP16" s="26">
+        <v>891685.97627960437</v>
+      </c>
+      <c r="CQ16" s="26">
+        <v>1022185.5682483501</v>
+      </c>
+      <c r="CR16" s="26">
+        <v>1211837.7749668045</v>
+      </c>
+      <c r="CS16" s="26">
+        <v>1318316.1275342093</v>
+      </c>
+      <c r="CT16" s="26">
+        <v>991784.68348227988</v>
+      </c>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -25750,10 +25782,11 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="27"/>
+      <c r="CT17" s="27"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25853,11 +25886,11 @@
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
-      <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
-      <c r="CR19" s="9"/>
-      <c r="CS19" s="9"/>
-      <c r="CT19" s="9"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
@@ -26007,11 +26040,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
+      <c r="CP20" s="25"/>
+      <c r="CQ20" s="25"/>
+      <c r="CR20" s="25"/>
+      <c r="CS20" s="25"/>
+      <c r="CT20" s="25"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26080,7 +26113,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26090,7 +26123,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26100,150 +26133,153 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="23">
+      <c r="B29" s="30">
         <v>2000</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30">
         <v>2001</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23">
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="30">
         <v>2002</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="23">
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="30">
         <v>2003</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="23">
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="30">
         <v>2004</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="23">
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="30">
         <v>2005</v>
       </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="23">
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="30">
         <v>2006</v>
       </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="23">
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="30">
         <v>2007</v>
       </c>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="23">
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="30">
         <v>2008</v>
       </c>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="23">
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="30">
         <v>2009</v>
       </c>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="23">
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="23">
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="30">
         <v>2011</v>
       </c>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="23">
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="30">
         <v>2012</v>
       </c>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="23">
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="30">
         <v>2013</v>
       </c>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="23">
+      <c r="BC29" s="32"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="32"/>
+      <c r="BF29" s="30">
         <v>2014</v>
       </c>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="23">
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="32"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="30">
         <v>2015</v>
       </c>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="23">
+      <c r="BK29" s="32"/>
+      <c r="BL29" s="32"/>
+      <c r="BM29" s="32"/>
+      <c r="BN29" s="30">
         <v>2016</v>
       </c>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="23">
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="30">
         <v>2017</v>
       </c>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="23">
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="32"/>
+      <c r="BU29" s="32"/>
+      <c r="BV29" s="30">
         <v>2018</v>
       </c>
-      <c r="BW29" s="23"/>
-      <c r="BX29" s="23"/>
-      <c r="BY29" s="23"/>
-      <c r="BZ29" s="23">
+      <c r="BW29" s="30"/>
+      <c r="BX29" s="30"/>
+      <c r="BY29" s="30"/>
+      <c r="BZ29" s="30">
         <v>2019</v>
       </c>
-      <c r="CA29" s="23"/>
-      <c r="CB29" s="23"/>
-      <c r="CC29" s="23"/>
-      <c r="CD29" s="23">
+      <c r="CA29" s="30"/>
+      <c r="CB29" s="30"/>
+      <c r="CC29" s="30"/>
+      <c r="CD29" s="30">
         <v>2020</v>
       </c>
-      <c r="CE29" s="23"/>
-      <c r="CF29" s="23"/>
-      <c r="CG29" s="23"/>
-      <c r="CH29" s="23">
+      <c r="CE29" s="30"/>
+      <c r="CF29" s="30"/>
+      <c r="CG29" s="30"/>
+      <c r="CH29" s="19">
         <v>2021</v>
       </c>
-      <c r="CI29" s="23"/>
-      <c r="CJ29" s="23"/>
-      <c r="CK29" s="23"/>
-      <c r="CL29" s="22">
+      <c r="CI29" s="19"/>
+      <c r="CJ29" s="19"/>
+      <c r="CK29" s="19"/>
+      <c r="CL29" s="19">
         <v>2022</v>
       </c>
-      <c r="CM29" s="22"/>
-      <c r="CN29" s="22"/>
-      <c r="CO29" s="22"/>
+      <c r="CM29" s="19"/>
+      <c r="CN29" s="19"/>
+      <c r="CO29" s="19"/>
       <c r="CP29" s="22">
         <v>2023</v>
       </c>
       <c r="CQ29" s="22"/>
       <c r="CR29" s="22"/>
       <c r="CS29" s="22"/>
+      <c r="CT29" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26525,17 +26561,20 @@
       <c r="CO30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="6" t="s">
+      <c r="CP30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="6" t="s">
+      <c r="CQ30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="6" t="s">
+      <c r="CR30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="6" t="s">
+      <c r="CS30" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT30" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26809,31 +26848,33 @@
       <c r="CK32" s="17">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="19">
-        <v>126762.67468302601</v>
-      </c>
-      <c r="CM32" s="19">
+      <c r="CL32" s="17">
+        <v>126956.51680388296</v>
+      </c>
+      <c r="CM32" s="17">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="19">
-        <v>150635.17151022534</v>
-      </c>
-      <c r="CO32" s="19">
-        <v>207103.66086608323</v>
-      </c>
-      <c r="CP32" s="19">
-        <v>128252.22203265468</v>
-      </c>
-      <c r="CQ32" s="19">
-        <v>127704.65026908406</v>
-      </c>
-      <c r="CR32" s="19">
-        <v>153494.26674380642</v>
-      </c>
-      <c r="CS32" s="19">
-        <v>211911.69426387717</v>
-      </c>
-      <c r="CT32" s="9"/>
+      <c r="CN32" s="17">
+        <v>152058.62604166003</v>
+      </c>
+      <c r="CO32" s="17">
+        <v>207309.0126037194</v>
+      </c>
+      <c r="CP32" s="24">
+        <v>127819.28252921287</v>
+      </c>
+      <c r="CQ32" s="24">
+        <v>127533.84187690236</v>
+      </c>
+      <c r="CR32" s="24">
+        <v>155051.27832542319</v>
+      </c>
+      <c r="CS32" s="24">
+        <v>212103.88903438437</v>
+      </c>
+      <c r="CT32" s="24">
+        <v>130738.29705762934</v>
+      </c>
       <c r="CU32" s="9"/>
       <c r="CV32" s="9"/>
       <c r="CW32" s="9"/>
@@ -27158,31 +27199,33 @@
       <c r="CK33" s="17">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="19">
+      <c r="CL33" s="17">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="19">
-        <v>720940.83705220371</v>
-      </c>
-      <c r="CN33" s="19">
-        <v>842149.34253795329</v>
-      </c>
-      <c r="CO33" s="19">
-        <v>851923.69798693701</v>
-      </c>
-      <c r="CP33" s="19">
-        <v>645710.09550988954</v>
-      </c>
-      <c r="CQ33" s="19">
-        <v>760963.12642496848</v>
-      </c>
-      <c r="CR33" s="19">
-        <v>886381.3413001697</v>
-      </c>
-      <c r="CS33" s="19">
-        <v>900361.15860398917</v>
-      </c>
-      <c r="CT33" s="9"/>
+      <c r="CM33" s="17">
+        <v>720666.8954728517</v>
+      </c>
+      <c r="CN33" s="17">
+        <v>840395.28527297196</v>
+      </c>
+      <c r="CO33" s="17">
+        <v>852266.64044510224</v>
+      </c>
+      <c r="CP33" s="24">
+        <v>646200.69421327859</v>
+      </c>
+      <c r="CQ33" s="24">
+        <v>760579.10128915042</v>
+      </c>
+      <c r="CR33" s="24">
+        <v>884246.95991013397</v>
+      </c>
+      <c r="CS33" s="24">
+        <v>900582.21093529137</v>
+      </c>
+      <c r="CT33" s="24">
+        <v>693224.03769978788</v>
+      </c>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
@@ -27507,31 +27550,33 @@
       <c r="CK34" s="17">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="17">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="19">
+      <c r="CM34" s="17">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="19">
+      <c r="CN34" s="17">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="19">
-        <v>25611.880634098241</v>
-      </c>
-      <c r="CP34" s="19">
-        <v>25230.57743629234</v>
-      </c>
-      <c r="CQ34" s="19">
-        <v>16574.439751923404</v>
-      </c>
-      <c r="CR34" s="19">
-        <v>28050.327309010841</v>
-      </c>
-      <c r="CS34" s="19">
-        <v>29026.973628926022</v>
-      </c>
-      <c r="CT34" s="9"/>
+      <c r="CO34" s="17">
+        <v>25390.768053109023</v>
+      </c>
+      <c r="CP34" s="24">
+        <v>25280.980337571847</v>
+      </c>
+      <c r="CQ34" s="24">
+        <v>16626.604571579948</v>
+      </c>
+      <c r="CR34" s="24">
+        <v>28336.094386085762</v>
+      </c>
+      <c r="CS34" s="24">
+        <v>29058.885599308971</v>
+      </c>
+      <c r="CT34" s="24">
+        <v>26875.193886022505</v>
+      </c>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
@@ -27677,15 +27722,15 @@
       <c r="CI35" s="18"/>
       <c r="CJ35" s="18"/>
       <c r="CK35" s="18"/>
-      <c r="CL35" s="20"/>
-      <c r="CM35" s="20"/>
-      <c r="CN35" s="20"/>
-      <c r="CO35" s="20"/>
-      <c r="CP35" s="20"/>
-      <c r="CQ35" s="20"/>
-      <c r="CR35" s="20"/>
-      <c r="CS35" s="20"/>
-      <c r="CT35" s="9"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
+      <c r="CO35" s="18"/>
+      <c r="CP35" s="26"/>
+      <c r="CQ35" s="26"/>
+      <c r="CR35" s="26"/>
+      <c r="CS35" s="26"/>
+      <c r="CT35" s="26"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
@@ -28010,31 +28055,33 @@
       <c r="CK36" s="18">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="20">
-        <v>748032.2899829481</v>
-      </c>
-      <c r="CM36" s="20">
-        <v>860590.65604630881</v>
-      </c>
-      <c r="CN36" s="20">
-        <v>1017605.8696006653</v>
-      </c>
-      <c r="CO36" s="20">
-        <v>1084639.2394871186</v>
-      </c>
-      <c r="CP36" s="20">
-        <v>799192.89497883653</v>
-      </c>
-      <c r="CQ36" s="20">
-        <v>905242.21644597594</v>
-      </c>
-      <c r="CR36" s="20">
-        <v>1067925.9353529869</v>
-      </c>
-      <c r="CS36" s="20">
-        <v>1141299.8264967925</v>
-      </c>
-      <c r="CT36" s="9"/>
+      <c r="CL36" s="18">
+        <v>748226.13210380508</v>
+      </c>
+      <c r="CM36" s="18">
+        <v>860316.71446695679</v>
+      </c>
+      <c r="CN36" s="18">
+        <v>1017275.2668671187</v>
+      </c>
+      <c r="CO36" s="18">
+        <v>1084966.4211019308</v>
+      </c>
+      <c r="CP36" s="26">
+        <v>799300.95708006329</v>
+      </c>
+      <c r="CQ36" s="26">
+        <v>904739.54773763276</v>
+      </c>
+      <c r="CR36" s="26">
+        <v>1067634.3326216431</v>
+      </c>
+      <c r="CS36" s="26">
+        <v>1141744.9855689846</v>
+      </c>
+      <c r="CT36" s="26">
+        <v>850837.52864343976</v>
+      </c>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -28185,10 +28232,11 @@
       <c r="CM37" s="12"/>
       <c r="CN37" s="12"/>
       <c r="CO37" s="12"/>
-      <c r="CP37" s="12"/>
-      <c r="CQ37" s="12"/>
-      <c r="CR37" s="12"/>
-      <c r="CS37" s="12"/>
+      <c r="CP37" s="27"/>
+      <c r="CQ37" s="27"/>
+      <c r="CR37" s="27"/>
+      <c r="CS37" s="27"/>
+      <c r="CT37" s="27"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28288,11 +28336,11 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
-      <c r="CS39" s="9"/>
-      <c r="CT39" s="9"/>
+      <c r="CP39" s="25"/>
+      <c r="CQ39" s="25"/>
+      <c r="CR39" s="25"/>
+      <c r="CS39" s="25"/>
+      <c r="CT39" s="25"/>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
@@ -28442,11 +28490,11 @@
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
-      <c r="CP40" s="9"/>
-      <c r="CQ40" s="9"/>
-      <c r="CR40" s="9"/>
-      <c r="CS40" s="9"/>
-      <c r="CT40" s="9"/>
+      <c r="CP40" s="25"/>
+      <c r="CQ40" s="25"/>
+      <c r="CR40" s="25"/>
+      <c r="CS40" s="25"/>
+      <c r="CT40" s="25"/>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
@@ -28515,7 +28563,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28525,7 +28573,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28535,148 +28583,151 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23" t="s">
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23" t="s">
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23" t="s">
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23" t="s">
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="23"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23" t="s">
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23" t="s">
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23" t="s">
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="23"/>
-      <c r="AR49" s="23"/>
-      <c r="AS49" s="23"/>
-      <c r="AT49" s="23" t="s">
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="23"/>
-      <c r="AV49" s="23"/>
-      <c r="AW49" s="23"/>
-      <c r="AX49" s="23" t="s">
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="23"/>
-      <c r="AZ49" s="23"/>
-      <c r="BA49" s="23"/>
-      <c r="BB49" s="23" t="s">
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="30"/>
+      <c r="BB49" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="23"/>
-      <c r="BD49" s="23"/>
-      <c r="BE49" s="23"/>
-      <c r="BF49" s="23" t="s">
+      <c r="BC49" s="30"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="30"/>
+      <c r="BF49" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="23"/>
-      <c r="BH49" s="23"/>
-      <c r="BI49" s="23"/>
-      <c r="BJ49" s="23" t="s">
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="23"/>
-      <c r="BL49" s="23"/>
-      <c r="BM49" s="23"/>
-      <c r="BN49" s="23" t="s">
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+      <c r="BM49" s="30"/>
+      <c r="BN49" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="23"/>
-      <c r="BP49" s="23"/>
-      <c r="BQ49" s="23"/>
-      <c r="BR49" s="23" t="s">
+      <c r="BO49" s="30"/>
+      <c r="BP49" s="30"/>
+      <c r="BQ49" s="30"/>
+      <c r="BR49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="23"/>
-      <c r="BT49" s="23"/>
-      <c r="BU49" s="23"/>
-      <c r="BV49" s="23" t="s">
+      <c r="BS49" s="30"/>
+      <c r="BT49" s="30"/>
+      <c r="BU49" s="30"/>
+      <c r="BV49" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="23"/>
-      <c r="BX49" s="23"/>
-      <c r="BY49" s="23"/>
-      <c r="BZ49" s="23" t="s">
+      <c r="BW49" s="30"/>
+      <c r="BX49" s="30"/>
+      <c r="BY49" s="30"/>
+      <c r="BZ49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="23"/>
-      <c r="CB49" s="23"/>
-      <c r="CC49" s="23"/>
-      <c r="CD49" s="23" t="s">
+      <c r="CA49" s="30"/>
+      <c r="CB49" s="30"/>
+      <c r="CC49" s="30"/>
+      <c r="CD49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="23"/>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="23"/>
-      <c r="CH49" s="23" t="s">
+      <c r="CE49" s="30"/>
+      <c r="CF49" s="30"/>
+      <c r="CG49" s="30"/>
+      <c r="CH49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="23"/>
-      <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
-      <c r="CL49" s="22" t="s">
+      <c r="CI49" s="19"/>
+      <c r="CJ49" s="19"/>
+      <c r="CK49" s="19"/>
+      <c r="CL49" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="22"/>
-      <c r="CN49" s="22"/>
-      <c r="CO49" s="22"/>
-      <c r="CP49" s="21"/>
-      <c r="CQ49" s="21"/>
-      <c r="CR49" s="21"/>
-      <c r="CS49" s="21"/>
+      <c r="CM49" s="19"/>
+      <c r="CN49" s="19"/>
+      <c r="CO49" s="19"/>
+      <c r="CP49" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ49" s="20"/>
+      <c r="CR49" s="20"/>
+      <c r="CS49" s="20"/>
+      <c r="CT49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -28958,10 +29009,13 @@
       <c r="CO50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="5"/>
-      <c r="CQ50" s="5"/>
-      <c r="CR50" s="5"/>
-      <c r="CS50" s="5"/>
+      <c r="CP50" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ50" s="28"/>
+      <c r="CR50" s="28"/>
+      <c r="CS50" s="28"/>
+      <c r="CT50" s="28"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29223,34 +29277,36 @@
         <v>7.6769599519690672</v>
       </c>
       <c r="CH52" s="14">
-        <v>11.44553085210174</v>
+        <v>11.615950402765392</v>
       </c>
       <c r="CI52" s="14">
         <v>6.3334441440492384</v>
       </c>
       <c r="CJ52" s="14">
-        <v>5.507413181666891</v>
+        <v>6.5027876204499506</v>
       </c>
       <c r="CK52" s="14">
-        <v>10.606669514059931</v>
+        <v>10.71642783112685</v>
       </c>
       <c r="CL52" s="14">
-        <v>7.3190787469854968</v>
+        <v>6.8920601848009113</v>
       </c>
       <c r="CM52" s="14">
-        <v>6.4405675443779415</v>
+        <v>6.5310541490143521</v>
       </c>
       <c r="CN52" s="14">
-        <v>7.1923463957843268</v>
+        <v>7.2659371527064422</v>
       </c>
       <c r="CO52" s="14">
-        <v>7.0021569259110805</v>
-      </c>
-      <c r="CP52" s="14"/>
-      <c r="CQ52" s="14"/>
-      <c r="CR52" s="14"/>
-      <c r="CS52" s="14"/>
-      <c r="CT52" s="9"/>
+        <v>6.8984408174896998</v>
+      </c>
+      <c r="CP52" s="29">
+        <v>5.6810104427524664</v>
+      </c>
+      <c r="CQ52" s="29"/>
+      <c r="CR52" s="29"/>
+      <c r="CS52" s="29"/>
+      <c r="CT52" s="29"/>
       <c r="CU52" s="9"/>
       <c r="CV52" s="9"/>
       <c r="CW52" s="9"/>
@@ -29563,31 +29619,33 @@
         <v>10.668795337018722</v>
       </c>
       <c r="CI53" s="14">
-        <v>15.266106827118548</v>
+        <v>15.222308254854156</v>
       </c>
       <c r="CJ53" s="14">
-        <v>14.862344990085603</v>
+        <v>14.623136611479779</v>
       </c>
       <c r="CK53" s="14">
-        <v>17.106613161245704</v>
+        <v>17.153919847795862</v>
       </c>
       <c r="CL53" s="14">
-        <v>15.574711964166823</v>
+        <v>16.099009306163879</v>
       </c>
       <c r="CM53" s="14">
-        <v>11.687210276903045</v>
+        <v>11.96009244410088</v>
       </c>
       <c r="CN53" s="14">
-        <v>10.570540762631168</v>
+        <v>10.637099752236296</v>
       </c>
       <c r="CO53" s="14">
-        <v>11.41399763491016</v>
-      </c>
-      <c r="CP53" s="14"/>
-      <c r="CQ53" s="14"/>
-      <c r="CR53" s="14"/>
-      <c r="CS53" s="14"/>
-      <c r="CT53" s="9"/>
+        <v>11.613750876917265</v>
+      </c>
+      <c r="CP53" s="29">
+        <v>12.504109531589805</v>
+      </c>
+      <c r="CQ53" s="29"/>
+      <c r="CR53" s="29"/>
+      <c r="CS53" s="29"/>
+      <c r="CT53" s="29"/>
       <c r="CU53" s="9"/>
       <c r="CV53" s="9"/>
       <c r="CW53" s="9"/>
@@ -29906,25 +29964,27 @@
         <v>39.946482411066398</v>
       </c>
       <c r="CK54" s="14">
-        <v>30.39562411485727</v>
+        <v>29.267800225503066</v>
       </c>
       <c r="CL54" s="14">
-        <v>14.826761352364187</v>
+        <v>15.426231640499097</v>
       </c>
       <c r="CM54" s="14">
-        <v>16.075685392412083</v>
+        <v>16.876284165890581</v>
       </c>
       <c r="CN54" s="14">
-        <v>16.206910234718563</v>
+        <v>17.392212608783424</v>
       </c>
       <c r="CO54" s="14">
-        <v>15.779830481258529</v>
-      </c>
-      <c r="CP54" s="14"/>
-      <c r="CQ54" s="14"/>
-      <c r="CR54" s="14"/>
-      <c r="CS54" s="14"/>
-      <c r="CT54" s="9"/>
+        <v>17.13325990692995</v>
+      </c>
+      <c r="CP54" s="29">
+        <v>8.2017444554202115</v>
+      </c>
+      <c r="CQ54" s="29"/>
+      <c r="CR54" s="29"/>
+      <c r="CS54" s="29"/>
+      <c r="CT54" s="29"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
@@ -30070,11 +30130,11 @@
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
-      <c r="CP55" s="9"/>
-      <c r="CQ55" s="9"/>
-      <c r="CR55" s="9"/>
-      <c r="CS55" s="9"/>
-      <c r="CT55" s="9"/>
+      <c r="CP55" s="25"/>
+      <c r="CQ55" s="25"/>
+      <c r="CR55" s="25"/>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
@@ -30384,34 +30444,36 @@
         <v>8.8761165083503641</v>
       </c>
       <c r="CH56" s="14">
-        <v>10.593848765393219</v>
+        <v>10.624313608021225</v>
       </c>
       <c r="CI56" s="14">
-        <v>14.046654006764754</v>
+        <v>14.010543562534309</v>
       </c>
       <c r="CJ56" s="14">
-        <v>13.757866043877456</v>
+        <v>13.728635680236522</v>
       </c>
       <c r="CK56" s="14">
-        <v>15.978223644767198</v>
+        <v>16.016203560138848</v>
       </c>
       <c r="CL56" s="14">
-        <v>14.065366771482488</v>
+        <v>14.418448773068945</v>
       </c>
       <c r="CM56" s="14">
-        <v>10.965349418107024</v>
+        <v>11.218853311409944</v>
       </c>
       <c r="CN56" s="14">
-        <v>10.174078335570073</v>
+        <v>10.261613254304464</v>
       </c>
       <c r="CO56" s="14">
-        <v>10.612455644980187</v>
-      </c>
-      <c r="CP56" s="14"/>
-      <c r="CQ56" s="14"/>
-      <c r="CR56" s="14"/>
-      <c r="CS56" s="14"/>
-      <c r="CT56" s="9"/>
+        <v>10.773839944111742</v>
+      </c>
+      <c r="CP56" s="29">
+        <v>11.225780136222284</v>
+      </c>
+      <c r="CQ56" s="29"/>
+      <c r="CR56" s="29"/>
+      <c r="CS56" s="29"/>
+      <c r="CT56" s="29"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
@@ -30558,10 +30620,11 @@
       <c r="CM57" s="12"/>
       <c r="CN57" s="12"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="12"/>
-      <c r="CQ57" s="12"/>
-      <c r="CR57" s="12"/>
-      <c r="CS57" s="12"/>
+      <c r="CP57" s="27"/>
+      <c r="CQ57" s="27"/>
+      <c r="CR57" s="27"/>
+      <c r="CS57" s="27"/>
+      <c r="CT57" s="27"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30661,11 +30724,11 @@
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
-      <c r="CP59" s="9"/>
-      <c r="CQ59" s="9"/>
-      <c r="CR59" s="9"/>
-      <c r="CS59" s="9"/>
-      <c r="CT59" s="9"/>
+      <c r="CP59" s="25"/>
+      <c r="CQ59" s="25"/>
+      <c r="CR59" s="25"/>
+      <c r="CS59" s="25"/>
+      <c r="CT59" s="25"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
@@ -30811,11 +30874,11 @@
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
-      <c r="CP60" s="9"/>
-      <c r="CQ60" s="9"/>
-      <c r="CR60" s="9"/>
-      <c r="CS60" s="9"/>
-      <c r="CT60" s="9"/>
+      <c r="CP60" s="25"/>
+      <c r="CQ60" s="25"/>
+      <c r="CR60" s="25"/>
+      <c r="CS60" s="25"/>
+      <c r="CT60" s="25"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
@@ -30880,7 +30943,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30890,7 +30953,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30900,148 +30963,151 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="23" t="s">
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23" t="s">
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="23" t="s">
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="23" t="s">
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="23" t="s">
+      <c r="W69" s="31"/>
+      <c r="X69" s="31"/>
+      <c r="Y69" s="31"/>
+      <c r="Z69" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="23" t="s">
+      <c r="AA69" s="31"/>
+      <c r="AB69" s="31"/>
+      <c r="AC69" s="31"/>
+      <c r="AD69" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="23" t="s">
+      <c r="AE69" s="31"/>
+      <c r="AF69" s="31"/>
+      <c r="AG69" s="31"/>
+      <c r="AH69" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="23" t="s">
+      <c r="AI69" s="31"/>
+      <c r="AJ69" s="31"/>
+      <c r="AK69" s="31"/>
+      <c r="AL69" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="23" t="s">
+      <c r="AM69" s="31"/>
+      <c r="AN69" s="31"/>
+      <c r="AO69" s="31"/>
+      <c r="AP69" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="24"/>
-      <c r="AS69" s="24"/>
-      <c r="AT69" s="23" t="s">
+      <c r="AQ69" s="31"/>
+      <c r="AR69" s="31"/>
+      <c r="AS69" s="31"/>
+      <c r="AT69" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="24"/>
-      <c r="AV69" s="24"/>
-      <c r="AW69" s="24"/>
-      <c r="AX69" s="23" t="s">
+      <c r="AU69" s="31"/>
+      <c r="AV69" s="31"/>
+      <c r="AW69" s="31"/>
+      <c r="AX69" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="24"/>
-      <c r="AZ69" s="24"/>
-      <c r="BA69" s="24"/>
-      <c r="BB69" s="23" t="s">
+      <c r="AY69" s="31"/>
+      <c r="AZ69" s="31"/>
+      <c r="BA69" s="31"/>
+      <c r="BB69" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="24"/>
-      <c r="BD69" s="24"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="23" t="s">
+      <c r="BC69" s="31"/>
+      <c r="BD69" s="31"/>
+      <c r="BE69" s="31"/>
+      <c r="BF69" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="24"/>
-      <c r="BH69" s="24"/>
-      <c r="BI69" s="24"/>
-      <c r="BJ69" s="23" t="s">
+      <c r="BG69" s="31"/>
+      <c r="BH69" s="31"/>
+      <c r="BI69" s="31"/>
+      <c r="BJ69" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="23" t="s">
+      <c r="BK69" s="31"/>
+      <c r="BL69" s="31"/>
+      <c r="BM69" s="31"/>
+      <c r="BN69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="23" t="s">
+      <c r="BO69" s="31"/>
+      <c r="BP69" s="31"/>
+      <c r="BQ69" s="31"/>
+      <c r="BR69" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="23" t="s">
+      <c r="BS69" s="31"/>
+      <c r="BT69" s="31"/>
+      <c r="BU69" s="31"/>
+      <c r="BV69" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="23"/>
-      <c r="BX69" s="23"/>
-      <c r="BY69" s="23"/>
-      <c r="BZ69" s="23" t="s">
+      <c r="BW69" s="30"/>
+      <c r="BX69" s="30"/>
+      <c r="BY69" s="30"/>
+      <c r="BZ69" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="23"/>
-      <c r="CB69" s="23"/>
-      <c r="CC69" s="23"/>
-      <c r="CD69" s="23" t="s">
+      <c r="CA69" s="30"/>
+      <c r="CB69" s="30"/>
+      <c r="CC69" s="30"/>
+      <c r="CD69" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="23"/>
-      <c r="CF69" s="23"/>
-      <c r="CG69" s="23"/>
-      <c r="CH69" s="23" t="s">
+      <c r="CE69" s="30"/>
+      <c r="CF69" s="30"/>
+      <c r="CG69" s="30"/>
+      <c r="CH69" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="23"/>
-      <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
-      <c r="CL69" s="22" t="s">
+      <c r="CI69" s="19"/>
+      <c r="CJ69" s="19"/>
+      <c r="CK69" s="19"/>
+      <c r="CL69" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="22"/>
-      <c r="CN69" s="22"/>
-      <c r="CO69" s="22"/>
-      <c r="CP69" s="21"/>
-      <c r="CQ69" s="21"/>
-      <c r="CR69" s="21"/>
-      <c r="CS69" s="21"/>
+      <c r="CM69" s="19"/>
+      <c r="CN69" s="19"/>
+      <c r="CO69" s="19"/>
+      <c r="CP69" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ69" s="20"/>
+      <c r="CR69" s="20"/>
+      <c r="CS69" s="20"/>
+      <c r="CT69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31323,10 +31389,13 @@
       <c r="CO70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="5"/>
-      <c r="CQ70" s="5"/>
-      <c r="CR70" s="5"/>
-      <c r="CS70" s="5"/>
+      <c r="CP70" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ70" s="28"/>
+      <c r="CR70" s="28"/>
+      <c r="CS70" s="28"/>
+      <c r="CT70" s="28"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31588,34 +31657,36 @@
         <v>3.0745956668533978</v>
       </c>
       <c r="CH72" s="14">
-        <v>8.0350687673645069</v>
+        <v>8.2002731298407241</v>
       </c>
       <c r="CI72" s="14">
         <v>2.0829574404809676</v>
       </c>
       <c r="CJ72" s="14">
-        <v>0.52408004848021505</v>
+        <v>1.4740006800878263</v>
       </c>
       <c r="CK72" s="14">
-        <v>3.1330679612443362</v>
+        <v>3.2353286099698266</v>
       </c>
       <c r="CL72" s="14">
-        <v>1.1750677818634898</v>
+        <v>0.67957576897188687</v>
       </c>
       <c r="CM72" s="14">
-        <v>2.09265256220597</v>
+        <v>1.9561009033511709</v>
       </c>
       <c r="CN72" s="14">
-        <v>1.8980263406723736</v>
+        <v>1.9680910985893263</v>
       </c>
       <c r="CO72" s="14">
-        <v>2.3215588646223324</v>
-      </c>
-      <c r="CP72" s="14"/>
-      <c r="CQ72" s="14"/>
-      <c r="CR72" s="14"/>
-      <c r="CS72" s="14"/>
-      <c r="CT72" s="9"/>
+        <v>2.3129126758374809</v>
+      </c>
+      <c r="CP72" s="29">
+        <v>2.2837043602942515</v>
+      </c>
+      <c r="CQ72" s="29"/>
+      <c r="CR72" s="29"/>
+      <c r="CS72" s="29"/>
+      <c r="CT72" s="29"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
@@ -31928,31 +31999,33 @@
         <v>7.0225512814714506</v>
       </c>
       <c r="CI73" s="14">
-        <v>10.782744714817355</v>
+        <v>10.740649721036405</v>
       </c>
       <c r="CJ73" s="14">
-        <v>10.04442107187063</v>
+        <v>9.8152168125998429</v>
       </c>
       <c r="CK73" s="14">
-        <v>9.769163570978094</v>
+        <v>9.8133512216734857</v>
       </c>
       <c r="CL73" s="14">
-        <v>7.8509517643104374</v>
+        <v>7.9328949420039123</v>
       </c>
       <c r="CM73" s="14">
-        <v>5.5513971904280766</v>
+        <v>5.5382321662092124</v>
       </c>
       <c r="CN73" s="14">
-        <v>5.2522749265487789</v>
+        <v>5.2179819908102445</v>
       </c>
       <c r="CO73" s="14">
-        <v>5.6856571464684009</v>
-      </c>
-      <c r="CP73" s="14"/>
-      <c r="CQ73" s="14"/>
-      <c r="CR73" s="14"/>
-      <c r="CS73" s="14"/>
-      <c r="CT73" s="9"/>
+        <v>5.6690674253020177</v>
+      </c>
+      <c r="CP73" s="29">
+        <v>7.2768946099258187</v>
+      </c>
+      <c r="CQ73" s="29"/>
+      <c r="CR73" s="29"/>
+      <c r="CS73" s="29"/>
+      <c r="CT73" s="29"/>
       <c r="CU73" s="9"/>
       <c r="CV73" s="9"/>
       <c r="CW73" s="9"/>
@@ -32271,25 +32344,27 @@
         <v>37.720587336370329</v>
       </c>
       <c r="CK74" s="14">
-        <v>25.543303061630169</v>
+        <v>24.459462161289906</v>
       </c>
       <c r="CL74" s="14">
-        <v>11.819637351794213</v>
+        <v>12.043018451841732</v>
       </c>
       <c r="CM74" s="14">
-        <v>13.813509044930953</v>
+        <v>14.171714888547356</v>
       </c>
       <c r="CN74" s="14">
-        <v>13.008845345679433</v>
+        <v>14.160140553834538</v>
       </c>
       <c r="CO74" s="14">
-        <v>13.334018862641102</v>
-      </c>
-      <c r="CP74" s="14"/>
-      <c r="CQ74" s="14"/>
-      <c r="CR74" s="14"/>
-      <c r="CS74" s="14"/>
-      <c r="CT74" s="9"/>
+        <v>14.446658480466084</v>
+      </c>
+      <c r="CP74" s="29">
+        <v>6.3059799389242386</v>
+      </c>
+      <c r="CQ74" s="29"/>
+      <c r="CR74" s="29"/>
+      <c r="CS74" s="29"/>
+      <c r="CT74" s="29"/>
       <c r="CU74" s="9"/>
       <c r="CV74" s="9"/>
       <c r="CW74" s="9"/>
@@ -32435,11 +32510,11 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
-      <c r="CS75" s="9"/>
-      <c r="CT75" s="9"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -32749,34 +32824,36 @@
         <v>7.0881340444029348</v>
       </c>
       <c r="CH76" s="14">
-        <v>7.0439722335083701</v>
+        <v>7.0717111839260838</v>
       </c>
       <c r="CI76" s="14">
-        <v>9.687549037427587</v>
+        <v>9.6526335056268806</v>
       </c>
       <c r="CJ76" s="14">
-        <v>9.0501431163184805</v>
+        <v>9.0147145909090796</v>
       </c>
       <c r="CK76" s="14">
-        <v>8.7556423970160751</v>
+        <v>8.788448555417844</v>
       </c>
       <c r="CL76" s="14">
-        <v>6.8393578300015179</v>
+        <v>6.8261215139131792</v>
       </c>
       <c r="CM76" s="14">
-        <v>5.1884784114207889</v>
+        <v>5.1635441371379045</v>
       </c>
       <c r="CN76" s="14">
-        <v>4.944946492109807</v>
+        <v>4.9503873135158472</v>
       </c>
       <c r="CO76" s="14">
-        <v>5.2239108587355219</v>
-      </c>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="14"/>
-      <c r="CS76" s="14"/>
-      <c r="CT76" s="9"/>
+        <v>5.233209375216191</v>
+      </c>
+      <c r="CP76" s="29">
+        <v>6.4477054739988375</v>
+      </c>
+      <c r="CQ76" s="29"/>
+      <c r="CR76" s="29"/>
+      <c r="CS76" s="29"/>
+      <c r="CT76" s="29"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
@@ -32923,10 +33000,11 @@
       <c r="CM77" s="12"/>
       <c r="CN77" s="12"/>
       <c r="CO77" s="12"/>
-      <c r="CP77" s="12"/>
-      <c r="CQ77" s="12"/>
-      <c r="CR77" s="12"/>
-      <c r="CS77" s="12"/>
+      <c r="CP77" s="27"/>
+      <c r="CQ77" s="27"/>
+      <c r="CR77" s="27"/>
+      <c r="CS77" s="27"/>
+      <c r="CT77" s="27"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -33026,11 +33104,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
+      <c r="CP79" s="25"/>
+      <c r="CQ79" s="25"/>
+      <c r="CR79" s="25"/>
+      <c r="CS79" s="25"/>
+      <c r="CT79" s="25"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -33176,11 +33254,11 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
-      <c r="CP80" s="9"/>
-      <c r="CQ80" s="9"/>
-      <c r="CR80" s="9"/>
-      <c r="CS80" s="9"/>
-      <c r="CT80" s="9"/>
+      <c r="CP80" s="25"/>
+      <c r="CQ80" s="25"/>
+      <c r="CR80" s="25"/>
+      <c r="CS80" s="25"/>
+      <c r="CT80" s="25"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
@@ -33240,7 +33318,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33250,7 +33328,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33260,150 +33338,153 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="23">
+      <c r="B88" s="30">
         <v>2000</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="23">
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="30">
         <v>2001</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="23">
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="30">
         <v>2002</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="23">
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="30">
         <v>2003</v>
       </c>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="23">
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="30">
         <v>2004</v>
       </c>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="23">
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="30">
         <v>2005</v>
       </c>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="23">
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="30">
         <v>2006</v>
       </c>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
-      <c r="AD88" s="23">
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
+      <c r="AD88" s="30">
         <v>2007</v>
       </c>
-      <c r="AE88" s="25"/>
-      <c r="AF88" s="25"/>
-      <c r="AG88" s="25"/>
-      <c r="AH88" s="23">
+      <c r="AE88" s="32"/>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="30">
         <v>2008</v>
       </c>
-      <c r="AI88" s="25"/>
-      <c r="AJ88" s="25"/>
-      <c r="AK88" s="25"/>
-      <c r="AL88" s="23">
+      <c r="AI88" s="32"/>
+      <c r="AJ88" s="32"/>
+      <c r="AK88" s="32"/>
+      <c r="AL88" s="30">
         <v>2009</v>
       </c>
-      <c r="AM88" s="25"/>
-      <c r="AN88" s="25"/>
-      <c r="AO88" s="25"/>
-      <c r="AP88" s="23">
+      <c r="AM88" s="32"/>
+      <c r="AN88" s="32"/>
+      <c r="AO88" s="32"/>
+      <c r="AP88" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="25"/>
-      <c r="AR88" s="25"/>
-      <c r="AS88" s="25"/>
-      <c r="AT88" s="23">
+      <c r="AQ88" s="32"/>
+      <c r="AR88" s="32"/>
+      <c r="AS88" s="32"/>
+      <c r="AT88" s="30">
         <v>2011</v>
       </c>
-      <c r="AU88" s="25"/>
-      <c r="AV88" s="25"/>
-      <c r="AW88" s="25"/>
-      <c r="AX88" s="23">
+      <c r="AU88" s="32"/>
+      <c r="AV88" s="32"/>
+      <c r="AW88" s="32"/>
+      <c r="AX88" s="30">
         <v>2012</v>
       </c>
-      <c r="AY88" s="25"/>
-      <c r="AZ88" s="25"/>
-      <c r="BA88" s="25"/>
-      <c r="BB88" s="23">
+      <c r="AY88" s="32"/>
+      <c r="AZ88" s="32"/>
+      <c r="BA88" s="32"/>
+      <c r="BB88" s="30">
         <v>2013</v>
       </c>
-      <c r="BC88" s="25"/>
-      <c r="BD88" s="25"/>
-      <c r="BE88" s="25"/>
-      <c r="BF88" s="23">
+      <c r="BC88" s="32"/>
+      <c r="BD88" s="32"/>
+      <c r="BE88" s="32"/>
+      <c r="BF88" s="30">
         <v>2014</v>
       </c>
-      <c r="BG88" s="25"/>
-      <c r="BH88" s="25"/>
-      <c r="BI88" s="25"/>
-      <c r="BJ88" s="23">
+      <c r="BG88" s="32"/>
+      <c r="BH88" s="32"/>
+      <c r="BI88" s="32"/>
+      <c r="BJ88" s="30">
         <v>2015</v>
       </c>
-      <c r="BK88" s="25"/>
-      <c r="BL88" s="25"/>
-      <c r="BM88" s="25"/>
-      <c r="BN88" s="23">
+      <c r="BK88" s="32"/>
+      <c r="BL88" s="32"/>
+      <c r="BM88" s="32"/>
+      <c r="BN88" s="30">
         <v>2016</v>
       </c>
-      <c r="BO88" s="25"/>
-      <c r="BP88" s="25"/>
-      <c r="BQ88" s="25"/>
-      <c r="BR88" s="23">
+      <c r="BO88" s="32"/>
+      <c r="BP88" s="32"/>
+      <c r="BQ88" s="32"/>
+      <c r="BR88" s="30">
         <v>2017</v>
       </c>
-      <c r="BS88" s="25"/>
-      <c r="BT88" s="25"/>
-      <c r="BU88" s="25"/>
-      <c r="BV88" s="23">
+      <c r="BS88" s="32"/>
+      <c r="BT88" s="32"/>
+      <c r="BU88" s="32"/>
+      <c r="BV88" s="30">
         <v>2018</v>
       </c>
-      <c r="BW88" s="23"/>
-      <c r="BX88" s="23"/>
-      <c r="BY88" s="23"/>
-      <c r="BZ88" s="23">
+      <c r="BW88" s="30"/>
+      <c r="BX88" s="30"/>
+      <c r="BY88" s="30"/>
+      <c r="BZ88" s="30">
         <v>2019</v>
       </c>
-      <c r="CA88" s="23"/>
-      <c r="CB88" s="23"/>
-      <c r="CC88" s="23"/>
-      <c r="CD88" s="23">
+      <c r="CA88" s="30"/>
+      <c r="CB88" s="30"/>
+      <c r="CC88" s="30"/>
+      <c r="CD88" s="30">
         <v>2020</v>
       </c>
-      <c r="CE88" s="23"/>
-      <c r="CF88" s="23"/>
-      <c r="CG88" s="23"/>
-      <c r="CH88" s="23">
+      <c r="CE88" s="30"/>
+      <c r="CF88" s="30"/>
+      <c r="CG88" s="30"/>
+      <c r="CH88" s="19">
         <v>2021</v>
       </c>
-      <c r="CI88" s="23"/>
-      <c r="CJ88" s="23"/>
-      <c r="CK88" s="23"/>
-      <c r="CL88" s="22">
+      <c r="CI88" s="19"/>
+      <c r="CJ88" s="19"/>
+      <c r="CK88" s="19"/>
+      <c r="CL88" s="19">
         <v>2022</v>
       </c>
-      <c r="CM88" s="22"/>
-      <c r="CN88" s="22"/>
-      <c r="CO88" s="22"/>
+      <c r="CM88" s="19"/>
+      <c r="CN88" s="19"/>
+      <c r="CO88" s="19"/>
       <c r="CP88" s="22">
         <v>2023</v>
       </c>
       <c r="CQ88" s="22"/>
       <c r="CR88" s="22"/>
       <c r="CS88" s="22"/>
+      <c r="CT88" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33685,17 +33766,20 @@
       <c r="CO89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="6" t="s">
+      <c r="CP89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="6" t="s">
+      <c r="CQ89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="6" t="s">
+      <c r="CR89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="6" t="s">
+      <c r="CS89" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT89" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33970,30 +34054,32 @@
         <v>108.78870881035488</v>
       </c>
       <c r="CL91" s="14">
-        <v>110.71745085575108</v>
+        <v>110.71745085575111</v>
       </c>
       <c r="CM91" s="14">
         <v>110.87518537886029</v>
       </c>
       <c r="CN91" s="14">
-        <v>112.74986973259369</v>
+        <v>112.74813662386434</v>
       </c>
       <c r="CO91" s="14">
-        <v>116.67214987505199</v>
-      </c>
-      <c r="CP91" s="14">
-        <v>117.44093764950081</v>
-      </c>
-      <c r="CQ91" s="14">
-        <v>115.5971302746118</v>
-      </c>
-      <c r="CR91" s="14">
-        <v>118.60801947281358</v>
-      </c>
-      <c r="CS91" s="14">
-        <v>122.0092014658519</v>
-      </c>
-      <c r="CT91" s="9"/>
+        <v>116.67224185771543</v>
+      </c>
+      <c r="CP91" s="29">
+        <v>117.54932745781414</v>
+      </c>
+      <c r="CQ91" s="29">
+        <v>115.85035395355274</v>
+      </c>
+      <c r="CR91" s="29">
+        <v>118.60606986833653</v>
+      </c>
+      <c r="CS91" s="29">
+        <v>121.90133596124548</v>
+      </c>
+      <c r="CT91" s="29">
+        <v>121.45367417324584</v>
+      </c>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
@@ -34322,27 +34408,29 @@
         <v>102.83206478692419</v>
       </c>
       <c r="CM92" s="14">
-        <v>106.26278441914197</v>
+        <v>106.26278441914194</v>
       </c>
       <c r="CN92" s="14">
-        <v>107.46676136700506</v>
+        <v>107.46679025933325</v>
       </c>
       <c r="CO92" s="14">
-        <v>108.26320755358454</v>
-      </c>
-      <c r="CP92" s="14">
-        <v>110.19639673093889</v>
-      </c>
-      <c r="CQ92" s="14">
-        <v>112.43995118907047</v>
-      </c>
-      <c r="CR92" s="14">
-        <v>112.89692243375077</v>
-      </c>
-      <c r="CS92" s="14">
-        <v>114.13125561216158</v>
-      </c>
-      <c r="CT92" s="9"/>
+        <v>108.26336034682507</v>
+      </c>
+      <c r="CP92" s="29">
+        <v>110.61225452244412</v>
+      </c>
+      <c r="CQ92" s="29">
+        <v>112.72873273259061</v>
+      </c>
+      <c r="CR92" s="29">
+        <v>113.00173001809681</v>
+      </c>
+      <c r="CS92" s="29">
+        <v>114.35399237710196</v>
+      </c>
+      <c r="CT92" s="29">
+        <v>116.00198946453963</v>
+      </c>
       <c r="CU92" s="9"/>
       <c r="CV92" s="9"/>
       <c r="CW92" s="9"/>
@@ -34677,21 +34765,23 @@
         <v>98.575233281472379</v>
       </c>
       <c r="CO93" s="14">
-        <v>100.55946263605009</v>
-      </c>
-      <c r="CP93" s="14">
-        <v>105.10921874613108</v>
-      </c>
-      <c r="CQ93" s="14">
-        <v>102.14049199074017</v>
-      </c>
-      <c r="CR93" s="14">
-        <v>101.36483786084854</v>
-      </c>
-      <c r="CS93" s="14">
-        <v>102.72959217478342</v>
-      </c>
-      <c r="CT93" s="9"/>
+        <v>100.55783533003368</v>
+      </c>
+      <c r="CP93" s="29">
+        <v>105.44730599904892</v>
+      </c>
+      <c r="CQ93" s="29">
+        <v>102.52230777380345</v>
+      </c>
+      <c r="CR93" s="29">
+        <v>101.36606951602371</v>
+      </c>
+      <c r="CS93" s="29">
+        <v>102.91840074475832</v>
+      </c>
+      <c r="CT93" s="29">
+        <v>107.32775770259317</v>
+      </c>
       <c r="CU93" s="9"/>
       <c r="CV93" s="9"/>
       <c r="CW93" s="9"/>
@@ -34841,11 +34931,11 @@
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
       <c r="CO94" s="9"/>
-      <c r="CP94" s="9"/>
-      <c r="CQ94" s="9"/>
-      <c r="CR94" s="9"/>
-      <c r="CS94" s="9"/>
-      <c r="CT94" s="9"/>
+      <c r="CP94" s="25"/>
+      <c r="CQ94" s="25"/>
+      <c r="CR94" s="25"/>
+      <c r="CS94" s="25"/>
+      <c r="CT94" s="25"/>
       <c r="CU94" s="9"/>
       <c r="CV94" s="9"/>
       <c r="CW94" s="9"/>
@@ -35171,30 +35261,32 @@
         <v>102.85613254247907</v>
       </c>
       <c r="CL95" s="14">
-        <v>104.15399166503781</v>
+        <v>104.15569205318931</v>
       </c>
       <c r="CM95" s="14">
-        <v>106.82975624609026</v>
+        <v>106.82993678095039</v>
       </c>
       <c r="CN95" s="14">
-        <v>108.03193318049638</v>
+        <v>108.03927422079983</v>
       </c>
       <c r="CO95" s="14">
-        <v>109.6869208836079</v>
-      </c>
-      <c r="CP95" s="14">
-        <v>111.19837765114633</v>
-      </c>
-      <c r="CQ95" s="14">
-        <v>112.69676497964747</v>
-      </c>
-      <c r="CR95" s="14">
-        <v>113.41488148613182</v>
-      </c>
-      <c r="CS95" s="14">
-        <v>115.3040176140278</v>
-      </c>
-      <c r="CT95" s="9"/>
+        <v>109.68975262459142</v>
+      </c>
+      <c r="CP95" s="29">
+        <v>111.55822702090011</v>
+      </c>
+      <c r="CQ95" s="29">
+        <v>112.98119672168635</v>
+      </c>
+      <c r="CR95" s="29">
+        <v>113.50681951104559</v>
+      </c>
+      <c r="CS95" s="29">
+        <v>115.46502451922143</v>
+      </c>
+      <c r="CT95" s="29">
+        <v>116.56569557569514</v>
+      </c>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
@@ -35345,10 +35437,11 @@
       <c r="CM96" s="12"/>
       <c r="CN96" s="12"/>
       <c r="CO96" s="12"/>
-      <c r="CP96" s="12"/>
-      <c r="CQ96" s="12"/>
-      <c r="CR96" s="12"/>
-      <c r="CS96" s="12"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="27"/>
+      <c r="CR96" s="27"/>
+      <c r="CS96" s="27"/>
+      <c r="CT96" s="27"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35367,7 +35460,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35377,7 +35470,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35387,150 +35480,153 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="23">
+      <c r="B108" s="30">
         <v>2000</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="23">
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="30">
         <v>2001</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="23">
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="30">
         <v>2002</v>
       </c>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="23">
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="30">
         <v>2003</v>
       </c>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="23">
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="30">
         <v>2004</v>
       </c>
-      <c r="S108" s="25"/>
-      <c r="T108" s="25"/>
-      <c r="U108" s="25"/>
-      <c r="V108" s="23">
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="30">
         <v>2005</v>
       </c>
-      <c r="W108" s="25"/>
-      <c r="X108" s="25"/>
-      <c r="Y108" s="25"/>
-      <c r="Z108" s="23">
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="30">
         <v>2006</v>
       </c>
-      <c r="AA108" s="25"/>
-      <c r="AB108" s="25"/>
-      <c r="AC108" s="25"/>
-      <c r="AD108" s="23">
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="30">
         <v>2007</v>
       </c>
-      <c r="AE108" s="25"/>
-      <c r="AF108" s="25"/>
-      <c r="AG108" s="25"/>
-      <c r="AH108" s="23">
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="30">
         <v>2008</v>
       </c>
-      <c r="AI108" s="25"/>
-      <c r="AJ108" s="25"/>
-      <c r="AK108" s="25"/>
-      <c r="AL108" s="23">
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="32"/>
+      <c r="AK108" s="32"/>
+      <c r="AL108" s="30">
         <v>2009</v>
       </c>
-      <c r="AM108" s="25"/>
-      <c r="AN108" s="25"/>
-      <c r="AO108" s="25"/>
-      <c r="AP108" s="23">
+      <c r="AM108" s="32"/>
+      <c r="AN108" s="32"/>
+      <c r="AO108" s="32"/>
+      <c r="AP108" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="25"/>
-      <c r="AR108" s="25"/>
-      <c r="AS108" s="25"/>
-      <c r="AT108" s="23">
+      <c r="AQ108" s="32"/>
+      <c r="AR108" s="32"/>
+      <c r="AS108" s="32"/>
+      <c r="AT108" s="30">
         <v>2011</v>
       </c>
-      <c r="AU108" s="25"/>
-      <c r="AV108" s="25"/>
-      <c r="AW108" s="25"/>
-      <c r="AX108" s="23">
+      <c r="AU108" s="32"/>
+      <c r="AV108" s="32"/>
+      <c r="AW108" s="32"/>
+      <c r="AX108" s="30">
         <v>2012</v>
       </c>
-      <c r="AY108" s="25"/>
-      <c r="AZ108" s="25"/>
-      <c r="BA108" s="25"/>
-      <c r="BB108" s="23">
+      <c r="AY108" s="32"/>
+      <c r="AZ108" s="32"/>
+      <c r="BA108" s="32"/>
+      <c r="BB108" s="30">
         <v>2013</v>
       </c>
-      <c r="BC108" s="25"/>
-      <c r="BD108" s="25"/>
-      <c r="BE108" s="25"/>
-      <c r="BF108" s="23">
+      <c r="BC108" s="32"/>
+      <c r="BD108" s="32"/>
+      <c r="BE108" s="32"/>
+      <c r="BF108" s="30">
         <v>2014</v>
       </c>
-      <c r="BG108" s="25"/>
-      <c r="BH108" s="25"/>
-      <c r="BI108" s="25"/>
-      <c r="BJ108" s="23">
+      <c r="BG108" s="32"/>
+      <c r="BH108" s="32"/>
+      <c r="BI108" s="32"/>
+      <c r="BJ108" s="30">
         <v>2015</v>
       </c>
-      <c r="BK108" s="25"/>
-      <c r="BL108" s="25"/>
-      <c r="BM108" s="25"/>
-      <c r="BN108" s="23">
+      <c r="BK108" s="32"/>
+      <c r="BL108" s="32"/>
+      <c r="BM108" s="32"/>
+      <c r="BN108" s="30">
         <v>2016</v>
       </c>
-      <c r="BO108" s="25"/>
-      <c r="BP108" s="25"/>
-      <c r="BQ108" s="25"/>
-      <c r="BR108" s="23">
+      <c r="BO108" s="32"/>
+      <c r="BP108" s="32"/>
+      <c r="BQ108" s="32"/>
+      <c r="BR108" s="30">
         <v>2017</v>
       </c>
-      <c r="BS108" s="25"/>
-      <c r="BT108" s="25"/>
-      <c r="BU108" s="25"/>
-      <c r="BV108" s="23">
+      <c r="BS108" s="32"/>
+      <c r="BT108" s="32"/>
+      <c r="BU108" s="32"/>
+      <c r="BV108" s="30">
         <v>2018</v>
       </c>
-      <c r="BW108" s="23"/>
-      <c r="BX108" s="23"/>
-      <c r="BY108" s="23"/>
-      <c r="BZ108" s="23">
+      <c r="BW108" s="30"/>
+      <c r="BX108" s="30"/>
+      <c r="BY108" s="30"/>
+      <c r="BZ108" s="30">
         <v>2019</v>
       </c>
-      <c r="CA108" s="23"/>
-      <c r="CB108" s="23"/>
-      <c r="CC108" s="23"/>
-      <c r="CD108" s="23">
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
+      <c r="CD108" s="30">
         <v>2020</v>
       </c>
-      <c r="CE108" s="23"/>
-      <c r="CF108" s="23"/>
-      <c r="CG108" s="23"/>
-      <c r="CH108" s="23">
+      <c r="CE108" s="30"/>
+      <c r="CF108" s="30"/>
+      <c r="CG108" s="30"/>
+      <c r="CH108" s="19">
         <v>2021</v>
       </c>
-      <c r="CI108" s="23"/>
-      <c r="CJ108" s="23"/>
-      <c r="CK108" s="23"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="19"/>
+      <c r="CJ108" s="19"/>
+      <c r="CK108" s="19"/>
+      <c r="CL108" s="19">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
+      <c r="CM108" s="19"/>
+      <c r="CN108" s="19"/>
+      <c r="CO108" s="19"/>
       <c r="CP108" s="22">
         <v>2023</v>
       </c>
       <c r="CQ108" s="22"/>
       <c r="CR108" s="22"/>
       <c r="CS108" s="22"/>
+      <c r="CT108" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35812,17 +35908,20 @@
       <c r="CO109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="6" t="s">
+      <c r="CP109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="6" t="s">
+      <c r="CQ109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="6" t="s">
+      <c r="CR109" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="6" t="s">
+      <c r="CS109" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT109" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36097,30 +36196,32 @@
         <v>21.296584424525598</v>
       </c>
       <c r="CL111" s="14">
-        <v>18.014043545354468</v>
+        <v>18.036621667465575</v>
       </c>
       <c r="CM111" s="14">
-        <v>15.085430884502754</v>
+        <v>15.090208877779737</v>
       </c>
       <c r="CN111" s="14">
-        <v>15.449366789410629</v>
+        <v>15.599126912677082</v>
       </c>
       <c r="CO111" s="14">
-        <v>20.310228948122525</v>
-      </c>
-      <c r="CP111" s="14">
-        <v>16.948620010739795</v>
-      </c>
-      <c r="CQ111" s="14">
-        <v>14.470299362982464</v>
-      </c>
-      <c r="CR111" s="14">
-        <v>15.031247835284752</v>
-      </c>
-      <c r="CS111" s="14">
-        <v>19.647319937307749</v>
-      </c>
-      <c r="CT111" s="9"/>
+        <v>20.323727894312995</v>
+      </c>
+      <c r="CP111" s="29">
+        <v>16.850181675098948</v>
+      </c>
+      <c r="CQ111" s="29">
+        <v>14.454166818080013</v>
+      </c>
+      <c r="CR111" s="29">
+        <v>15.175317299168849</v>
+      </c>
+      <c r="CS111" s="29">
+        <v>19.612706615543004</v>
+      </c>
+      <c r="CT111" s="29">
+        <v>16.010175189488134</v>
+      </c>
       <c r="CU111" s="9"/>
       <c r="CV111" s="9"/>
       <c r="CW111" s="9"/>
@@ -36446,30 +36547,32 @@
         <v>76.777941431580572</v>
       </c>
       <c r="CL112" s="14">
-        <v>79.021612332634589</v>
+        <v>78.999850561597029</v>
       </c>
       <c r="CM112" s="14">
-        <v>83.32819110164435</v>
+        <v>83.322910656462412</v>
       </c>
       <c r="CN112" s="14">
-        <v>82.324959181349229</v>
+        <v>82.174627018676588</v>
       </c>
       <c r="CO112" s="14">
-        <v>77.524938768542327</v>
-      </c>
-      <c r="CP112" s="14">
-        <v>80.067248655633264</v>
-      </c>
-      <c r="CQ112" s="14">
-        <v>83.870264459732979</v>
-      </c>
-      <c r="CR112" s="14">
-        <v>82.621206298800317</v>
-      </c>
-      <c r="CS112" s="14">
-        <v>78.086715408681101</v>
-      </c>
-      <c r="CT112" s="9"/>
+        <v>77.530866555993967</v>
+      </c>
+      <c r="CP112" s="29">
+        <v>80.160188185449385</v>
+      </c>
+      <c r="CQ112" s="29">
+        <v>83.87823199083499</v>
+      </c>
+      <c r="CR112" s="29">
+        <v>82.45446568607332</v>
+      </c>
+      <c r="CS112" s="29">
+        <v>78.118722158752888</v>
+      </c>
+      <c r="CT112" s="29">
+        <v>81.081477519362394</v>
+      </c>
       <c r="CU112" s="9"/>
       <c r="CV112" s="9"/>
       <c r="CW112" s="9"/>
@@ -36795,30 +36898,32 @@
         <v>1.9254741438938225</v>
       </c>
       <c r="CL113" s="14">
-        <v>2.9643441220109272</v>
+        <v>2.9635277709373979</v>
       </c>
       <c r="CM113" s="14">
-        <v>1.5863780138528973</v>
+        <v>1.5868804657578492</v>
       </c>
       <c r="CN113" s="14">
-        <v>2.2256740292401487</v>
+        <v>2.226246068646335</v>
       </c>
       <c r="CO113" s="14">
-        <v>2.1648322833351448</v>
-      </c>
-      <c r="CP113" s="14">
-        <v>2.984131333626959</v>
-      </c>
-      <c r="CQ113" s="14">
-        <v>1.6594361772845554</v>
-      </c>
-      <c r="CR113" s="14">
-        <v>2.3475458659149226</v>
-      </c>
-      <c r="CS113" s="14">
-        <v>2.2659646540111296</v>
-      </c>
-      <c r="CT113" s="9"/>
+        <v>2.14540554969303</v>
+      </c>
+      <c r="CP113" s="29">
+        <v>2.9896301394516538</v>
+      </c>
+      <c r="CQ113" s="29">
+        <v>1.6676011910850004</v>
+      </c>
+      <c r="CR113" s="29">
+        <v>2.3702170147578205</v>
+      </c>
+      <c r="CS113" s="29">
+        <v>2.2685712257041022</v>
+      </c>
+      <c r="CT113" s="29">
+        <v>2.9083472911494836</v>
+      </c>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
@@ -36968,11 +37073,11 @@
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
-      <c r="CP114" s="9"/>
-      <c r="CQ114" s="9"/>
-      <c r="CR114" s="9"/>
-      <c r="CS114" s="9"/>
-      <c r="CT114" s="9"/>
+      <c r="CP114" s="25"/>
+      <c r="CQ114" s="25"/>
+      <c r="CR114" s="25"/>
+      <c r="CS114" s="25"/>
+      <c r="CT114" s="25"/>
       <c r="CU114" s="9"/>
       <c r="CV114" s="9"/>
       <c r="CW114" s="9"/>
@@ -37309,19 +37414,21 @@
       <c r="CO115" s="14">
         <v>100</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="29">
         <v>100</v>
       </c>
-      <c r="CQ115" s="14">
+      <c r="CQ115" s="29">
         <v>100</v>
       </c>
-      <c r="CR115" s="14">
+      <c r="CR115" s="29">
         <v>100</v>
       </c>
-      <c r="CS115" s="14">
+      <c r="CS115" s="29">
         <v>100</v>
       </c>
-      <c r="CT115" s="9"/>
+      <c r="CT115" s="29">
+        <v>100</v>
+      </c>
       <c r="CU115" s="9"/>
       <c r="CV115" s="9"/>
       <c r="CW115" s="9"/>
@@ -37472,10 +37579,11 @@
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
       <c r="CO116" s="12"/>
-      <c r="CP116" s="12"/>
-      <c r="CQ116" s="12"/>
-      <c r="CR116" s="12"/>
-      <c r="CS116" s="12"/>
+      <c r="CP116" s="27"/>
+      <c r="CQ116" s="27"/>
+      <c r="CR116" s="27"/>
+      <c r="CS116" s="27"/>
+      <c r="CT116" s="27"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37575,11 +37683,11 @@
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
-      <c r="CP118" s="9"/>
-      <c r="CQ118" s="9"/>
-      <c r="CR118" s="9"/>
-      <c r="CS118" s="9"/>
-      <c r="CT118" s="9"/>
+      <c r="CP118" s="25"/>
+      <c r="CQ118" s="25"/>
+      <c r="CR118" s="25"/>
+      <c r="CS118" s="25"/>
+      <c r="CT118" s="25"/>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
@@ -37729,11 +37837,11 @@
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
-      <c r="CP119" s="9"/>
-      <c r="CQ119" s="9"/>
-      <c r="CR119" s="9"/>
-      <c r="CS119" s="9"/>
-      <c r="CT119" s="9"/>
+      <c r="CP119" s="25"/>
+      <c r="CQ119" s="25"/>
+      <c r="CR119" s="25"/>
+      <c r="CS119" s="25"/>
+      <c r="CT119" s="25"/>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
@@ -37802,7 +37910,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37812,7 +37920,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37822,150 +37930,153 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="23">
+      <c r="B128" s="30">
         <v>2000</v>
       </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="23">
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="30">
         <v>2001</v>
       </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="23">
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="30">
         <v>2002</v>
       </c>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="23">
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="30">
         <v>2003</v>
       </c>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="23">
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="30">
         <v>2004</v>
       </c>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="23">
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="30">
         <v>2005</v>
       </c>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="23">
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="32"/>
+      <c r="Z128" s="30">
         <v>2006</v>
       </c>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="25"/>
-      <c r="AD128" s="23">
+      <c r="AA128" s="32"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="32"/>
+      <c r="AD128" s="30">
         <v>2007</v>
       </c>
-      <c r="AE128" s="25"/>
-      <c r="AF128" s="25"/>
-      <c r="AG128" s="25"/>
-      <c r="AH128" s="23">
+      <c r="AE128" s="32"/>
+      <c r="AF128" s="32"/>
+      <c r="AG128" s="32"/>
+      <c r="AH128" s="30">
         <v>2008</v>
       </c>
-      <c r="AI128" s="25"/>
-      <c r="AJ128" s="25"/>
-      <c r="AK128" s="25"/>
-      <c r="AL128" s="23">
+      <c r="AI128" s="32"/>
+      <c r="AJ128" s="32"/>
+      <c r="AK128" s="32"/>
+      <c r="AL128" s="30">
         <v>2009</v>
       </c>
-      <c r="AM128" s="25"/>
-      <c r="AN128" s="25"/>
-      <c r="AO128" s="25"/>
-      <c r="AP128" s="23">
+      <c r="AM128" s="32"/>
+      <c r="AN128" s="32"/>
+      <c r="AO128" s="32"/>
+      <c r="AP128" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="25"/>
-      <c r="AR128" s="25"/>
-      <c r="AS128" s="25"/>
-      <c r="AT128" s="23">
+      <c r="AQ128" s="32"/>
+      <c r="AR128" s="32"/>
+      <c r="AS128" s="32"/>
+      <c r="AT128" s="30">
         <v>2011</v>
       </c>
-      <c r="AU128" s="25"/>
-      <c r="AV128" s="25"/>
-      <c r="AW128" s="25"/>
-      <c r="AX128" s="23">
+      <c r="AU128" s="32"/>
+      <c r="AV128" s="32"/>
+      <c r="AW128" s="32"/>
+      <c r="AX128" s="30">
         <v>2012</v>
       </c>
-      <c r="AY128" s="25"/>
-      <c r="AZ128" s="25"/>
-      <c r="BA128" s="25"/>
-      <c r="BB128" s="23">
+      <c r="AY128" s="32"/>
+      <c r="AZ128" s="32"/>
+      <c r="BA128" s="32"/>
+      <c r="BB128" s="30">
         <v>2013</v>
       </c>
-      <c r="BC128" s="25"/>
-      <c r="BD128" s="25"/>
-      <c r="BE128" s="25"/>
-      <c r="BF128" s="23">
+      <c r="BC128" s="32"/>
+      <c r="BD128" s="32"/>
+      <c r="BE128" s="32"/>
+      <c r="BF128" s="30">
         <v>2014</v>
       </c>
-      <c r="BG128" s="25"/>
-      <c r="BH128" s="25"/>
-      <c r="BI128" s="25"/>
-      <c r="BJ128" s="23">
+      <c r="BG128" s="32"/>
+      <c r="BH128" s="32"/>
+      <c r="BI128" s="32"/>
+      <c r="BJ128" s="30">
         <v>2015</v>
       </c>
-      <c r="BK128" s="25"/>
-      <c r="BL128" s="25"/>
-      <c r="BM128" s="25"/>
-      <c r="BN128" s="23">
+      <c r="BK128" s="32"/>
+      <c r="BL128" s="32"/>
+      <c r="BM128" s="32"/>
+      <c r="BN128" s="30">
         <v>2016</v>
       </c>
-      <c r="BO128" s="25"/>
-      <c r="BP128" s="25"/>
-      <c r="BQ128" s="25"/>
-      <c r="BR128" s="23">
+      <c r="BO128" s="32"/>
+      <c r="BP128" s="32"/>
+      <c r="BQ128" s="32"/>
+      <c r="BR128" s="30">
         <v>2017</v>
       </c>
-      <c r="BS128" s="25"/>
-      <c r="BT128" s="25"/>
-      <c r="BU128" s="25"/>
-      <c r="BV128" s="23">
+      <c r="BS128" s="32"/>
+      <c r="BT128" s="32"/>
+      <c r="BU128" s="32"/>
+      <c r="BV128" s="30">
         <v>2018</v>
       </c>
-      <c r="BW128" s="23"/>
-      <c r="BX128" s="23"/>
-      <c r="BY128" s="23"/>
-      <c r="BZ128" s="23">
+      <c r="BW128" s="30"/>
+      <c r="BX128" s="30"/>
+      <c r="BY128" s="30"/>
+      <c r="BZ128" s="30">
         <v>2019</v>
       </c>
-      <c r="CA128" s="23"/>
-      <c r="CB128" s="23"/>
-      <c r="CC128" s="23"/>
-      <c r="CD128" s="23">
+      <c r="CA128" s="30"/>
+      <c r="CB128" s="30"/>
+      <c r="CC128" s="30"/>
+      <c r="CD128" s="30">
         <v>2020</v>
       </c>
-      <c r="CE128" s="23"/>
-      <c r="CF128" s="23"/>
-      <c r="CG128" s="23"/>
-      <c r="CH128" s="23">
+      <c r="CE128" s="30"/>
+      <c r="CF128" s="30"/>
+      <c r="CG128" s="30"/>
+      <c r="CH128" s="19">
         <v>2021</v>
       </c>
-      <c r="CI128" s="23"/>
-      <c r="CJ128" s="23"/>
-      <c r="CK128" s="23"/>
-      <c r="CL128" s="22">
+      <c r="CI128" s="19"/>
+      <c r="CJ128" s="19"/>
+      <c r="CK128" s="19"/>
+      <c r="CL128" s="19">
         <v>2022</v>
       </c>
-      <c r="CM128" s="22"/>
-      <c r="CN128" s="22"/>
-      <c r="CO128" s="22"/>
+      <c r="CM128" s="19"/>
+      <c r="CN128" s="19"/>
+      <c r="CO128" s="19"/>
       <c r="CP128" s="22">
         <v>2023</v>
       </c>
       <c r="CQ128" s="22"/>
       <c r="CR128" s="22"/>
       <c r="CS128" s="22"/>
+      <c r="CT128" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38247,17 +38358,20 @@
       <c r="CO129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="6" t="s">
+      <c r="CR129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="6" t="s">
+      <c r="CS129" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT129" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38532,30 +38646,32 @@
         <v>20.135217470864976</v>
       </c>
       <c r="CL131" s="14">
-        <v>16.94615010348225</v>
+        <v>16.967666773000339</v>
       </c>
       <c r="CM131" s="14">
-        <v>14.535018802917261</v>
+        <v>14.539647035682968</v>
       </c>
       <c r="CN131" s="14">
-        <v>14.80289923733817</v>
+        <v>14.947638165818363</v>
       </c>
       <c r="CO131" s="14">
-        <v>19.094243811796265</v>
-      </c>
-      <c r="CP131" s="14">
-        <v>16.047717996298118</v>
-      </c>
-      <c r="CQ131" s="14">
-        <v>14.107235383968128</v>
-      </c>
-      <c r="CR131" s="14">
-        <v>14.373119114582716</v>
-      </c>
-      <c r="CS131" s="14">
-        <v>18.567574387033584</v>
-      </c>
-      <c r="CT131" s="9"/>
+        <v>19.107412779942898</v>
+      </c>
+      <c r="CP131" s="29">
+        <v>15.991383645548375</v>
+      </c>
+      <c r="CQ131" s="29">
+        <v>14.096194003656636</v>
+      </c>
+      <c r="CR131" s="29">
+        <v>14.522882375343348</v>
+      </c>
+      <c r="CS131" s="29">
+        <v>18.577168432115613</v>
+      </c>
+      <c r="CT131" s="29">
+        <v>15.365835739060095</v>
+      </c>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
@@ -38881,30 +38997,32 @@
         <v>77.819212253662258</v>
       </c>
       <c r="CL132" s="14">
-        <v>80.037451054835046</v>
+        <v>80.016715840446281</v>
       </c>
       <c r="CM132" s="14">
-        <v>83.772793951112746</v>
+        <v>83.767626893006408</v>
       </c>
       <c r="CN132" s="14">
-        <v>82.757909294335576</v>
+        <v>82.612377656749658</v>
       </c>
       <c r="CO132" s="14">
-        <v>78.544429057331243</v>
-      </c>
-      <c r="CP132" s="14">
-        <v>80.795274778686391</v>
-      </c>
-      <c r="CQ132" s="14">
-        <v>84.061824846453362</v>
-      </c>
-      <c r="CR132" s="14">
-        <v>83.000263591050398</v>
-      </c>
-      <c r="CS132" s="14">
-        <v>78.889099752835151</v>
-      </c>
-      <c r="CT132" s="9"/>
+        <v>78.552351839562888</v>
+      </c>
+      <c r="CP132" s="29">
+        <v>80.845730070676098</v>
+      </c>
+      <c r="CQ132" s="29">
+        <v>84.066083238102493</v>
+      </c>
+      <c r="CR132" s="29">
+        <v>82.823016541516608</v>
+      </c>
+      <c r="CS132" s="29">
+        <v>78.877702316904802</v>
+      </c>
+      <c r="CT132" s="29">
+        <v>81.475489075458611</v>
+      </c>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
@@ -39230,30 +39348,32 @@
         <v>2.0455702754727612</v>
       </c>
       <c r="CL133" s="14">
-        <v>3.0163988416826872</v>
+        <v>3.0156173865533695</v>
       </c>
       <c r="CM133" s="14">
-        <v>1.6921872459699832</v>
+        <v>1.6927260713106109</v>
       </c>
       <c r="CN133" s="14">
-        <v>2.4391914683262566</v>
+        <v>2.4399841774319793</v>
       </c>
       <c r="CO133" s="14">
-        <v>2.3613271308724779</v>
-      </c>
-      <c r="CP133" s="14">
-        <v>3.1570072250154917</v>
-      </c>
-      <c r="CQ133" s="14">
-        <v>1.8309397695785161</v>
-      </c>
-      <c r="CR133" s="14">
-        <v>2.626617294366882</v>
-      </c>
-      <c r="CS133" s="14">
-        <v>2.5433258601312509</v>
-      </c>
-      <c r="CT133" s="9"/>
+        <v>2.3402353804941955</v>
+      </c>
+      <c r="CP133" s="29">
+        <v>3.1628862837755287</v>
+      </c>
+      <c r="CQ133" s="29">
+        <v>1.8377227582408646</v>
+      </c>
+      <c r="CR133" s="29">
+        <v>2.6541010831400209</v>
+      </c>
+      <c r="CS133" s="29">
+        <v>2.5451292509795937</v>
+      </c>
+      <c r="CT133" s="29">
+        <v>3.1586751854812793</v>
+      </c>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
@@ -39403,11 +39523,11 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
-      <c r="CS134" s="9"/>
-      <c r="CT134" s="9"/>
+      <c r="CP134" s="25"/>
+      <c r="CQ134" s="25"/>
+      <c r="CR134" s="25"/>
+      <c r="CS134" s="25"/>
+      <c r="CT134" s="25"/>
       <c r="CU134" s="9"/>
       <c r="CV134" s="9"/>
       <c r="CW134" s="9"/>
@@ -39744,19 +39864,21 @@
       <c r="CO135" s="14">
         <v>100</v>
       </c>
-      <c r="CP135" s="14">
+      <c r="CP135" s="29">
         <v>100</v>
       </c>
-      <c r="CQ135" s="14">
+      <c r="CQ135" s="29">
         <v>100</v>
       </c>
-      <c r="CR135" s="14">
+      <c r="CR135" s="29">
         <v>100</v>
       </c>
-      <c r="CS135" s="14">
+      <c r="CS135" s="29">
         <v>100</v>
       </c>
-      <c r="CT135" s="9"/>
+      <c r="CT135" s="29">
+        <v>100</v>
+      </c>
       <c r="CU135" s="9"/>
       <c r="CV135" s="9"/>
       <c r="CW135" s="9"/>
@@ -39907,10 +40029,11 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
-      <c r="CR136" s="12"/>
-      <c r="CS136" s="12"/>
+      <c r="CP136" s="27"/>
+      <c r="CQ136" s="27"/>
+      <c r="CR136" s="27"/>
+      <c r="CS136" s="27"/>
+      <c r="CT136" s="27"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40011,11 +40134,11 @@
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
-      <c r="CP138" s="1"/>
-      <c r="CQ138" s="1"/>
-      <c r="CR138" s="1"/>
-      <c r="CS138" s="1"/>
-      <c r="CT138" s="15"/>
+      <c r="CP138" s="21"/>
+      <c r="CQ138" s="21"/>
+      <c r="CR138" s="21"/>
+      <c r="CS138" s="21"/>
+      <c r="CT138" s="21"/>
       <c r="CU138" s="15"/>
       <c r="CV138" s="15"/>
       <c r="CW138" s="15"/>
@@ -40166,11 +40289,11 @@
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
-      <c r="CP139" s="1"/>
-      <c r="CQ139" s="1"/>
-      <c r="CR139" s="1"/>
-      <c r="CS139" s="1"/>
-      <c r="CT139" s="15"/>
+      <c r="CP139" s="21"/>
+      <c r="CQ139" s="21"/>
+      <c r="CR139" s="21"/>
+      <c r="CS139" s="21"/>
+      <c r="CT139" s="21"/>
       <c r="CU139" s="15"/>
       <c r="CV139" s="15"/>
       <c r="CW139" s="15"/>
@@ -40228,19 +40351,12 @@
       <c r="EW139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
+  <mergeCells count="147">
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
     <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CH49:CK49"/>
-    <mergeCell ref="CH69:CK69"/>
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD108:CG108"/>
     <mergeCell ref="AL128:AO128"/>
@@ -40274,6 +40390,7 @@
     <mergeCell ref="J108:M108"/>
     <mergeCell ref="N108:Q108"/>
     <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
     <mergeCell ref="V108:Y108"/>
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
@@ -40287,12 +40404,12 @@
     <mergeCell ref="Z128:AC128"/>
     <mergeCell ref="AD128:AG128"/>
     <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
     <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BF29:BI29"/>
@@ -40311,16 +40428,24 @@
     <mergeCell ref="AP49:AS49"/>
     <mergeCell ref="AT49:AW49"/>
     <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AT29:AW29"/>
     <mergeCell ref="AX29:BA29"/>
     <mergeCell ref="AL29:AO29"/>
     <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -40336,20 +40461,11 @@
     <mergeCell ref="J49:M49"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BN29:BQ29"/>
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
@@ -40359,9 +40475,9 @@
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BB29:BE29"/>
     <mergeCell ref="BJ88:BM88"/>
     <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR69:BU69"/>
@@ -40389,9 +40505,9 @@
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="96" man="1"/>
-    <brk id="80" max="96" man="1"/>
-    <brk id="99" max="96" man="1"/>
+    <brk id="40" max="97" man="1"/>
+    <brk id="80" max="97" man="1"/>
+    <brk id="99" max="97" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515F7E1-F10D-4726-8C33-D59B237169B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570D692-D08C-4BB9-B2E8-6FE5F5ED48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,31 +747,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23637,7 +23622,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX18" sqref="CX18"/>
+      <selection pane="topRight" activeCell="CO1" sqref="CO1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23646,9 +23631,8 @@
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
     <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.109375" style="1" customWidth="1"/>
-    <col min="94" max="98" width="11.109375" style="21" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="93" max="99" width="10.77734375" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23663,7 +23647,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23673,7 +23657,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23683,132 +23667,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23821,15 +23805,16 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="22">
+      <c r="CP9" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22">
+      <c r="CQ9" s="19"/>
+      <c r="CR9" s="19"/>
+      <c r="CS9" s="19"/>
+      <c r="CT9" s="19">
         <v>2024</v>
       </c>
+      <c r="CU9" s="19"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24111,20 +24096,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="23" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="23" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="23" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="23" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="23" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24410,22 +24398,24 @@
       <c r="CO12" s="17">
         <v>241872.07257785328</v>
       </c>
-      <c r="CP12" s="24">
+      <c r="CP12" s="17">
         <v>150250.70697449305</v>
       </c>
-      <c r="CQ12" s="24">
+      <c r="CQ12" s="17">
         <v>147748.40722495565</v>
       </c>
-      <c r="CR12" s="24">
+      <c r="CR12" s="17">
         <v>183900.22750240038</v>
       </c>
-      <c r="CS12" s="24">
+      <c r="CS12" s="17">
         <v>258557.47435867222</v>
       </c>
-      <c r="CT12" s="24">
-        <v>158786.46532802339</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="17">
+        <v>160718.07541940114</v>
+      </c>
+      <c r="CU12" s="17">
+        <v>157658.85087337985</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24761,22 +24751,24 @@
       <c r="CO13" s="17">
         <v>922692.50406086107</v>
       </c>
-      <c r="CP13" s="24">
+      <c r="CP13" s="17">
         <v>714777.15660899249</v>
       </c>
-      <c r="CQ13" s="24">
+      <c r="CQ13" s="17">
         <v>857391.18231218599</v>
       </c>
-      <c r="CR13" s="24">
+      <c r="CR13" s="17">
         <v>999214.36233087827</v>
       </c>
-      <c r="CS13" s="24">
+      <c r="CS13" s="17">
         <v>1029851.7128424793</v>
       </c>
-      <c r="CT13" s="24">
-        <v>804153.67517816415</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="17">
+        <v>802769.48201678286</v>
+      </c>
+      <c r="CU13" s="17">
+        <v>966816.91504943278</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25112,22 +25104,24 @@
       <c r="CO14" s="17">
         <v>25532.406727876172</v>
       </c>
-      <c r="CP14" s="24">
+      <c r="CP14" s="17">
         <v>26658.112696118777</v>
       </c>
-      <c r="CQ14" s="24">
+      <c r="CQ14" s="17">
         <v>17045.978711208467</v>
       </c>
-      <c r="CR14" s="24">
+      <c r="CR14" s="17">
         <v>28723.185133525789</v>
       </c>
-      <c r="CS14" s="24">
+      <c r="CS14" s="17">
         <v>29906.940333057668</v>
       </c>
-      <c r="CT14" s="24">
-        <v>28844.542976092369</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="17">
+        <v>29226.246377773976</v>
+      </c>
+      <c r="CU14" s="17">
+        <v>19551.978066407457</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -25276,11 +25270,11 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="25"/>
-      <c r="CQ15" s="25"/>
-      <c r="CR15" s="25"/>
-      <c r="CS15" s="25"/>
-      <c r="CT15" s="25"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25617,22 +25611,24 @@
       <c r="CO16" s="18">
         <v>1190096.9833665907</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="18">
         <v>891685.97627960437</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="18">
         <v>1022185.5682483501</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="18">
         <v>1211837.7749668045</v>
       </c>
-      <c r="CS16" s="26">
+      <c r="CS16" s="18">
         <v>1318316.1275342093</v>
       </c>
-      <c r="CT16" s="26">
-        <v>991784.68348227988</v>
-      </c>
-      <c r="CU16" s="9"/>
+      <c r="CT16" s="18">
+        <v>992713.80381395796</v>
+      </c>
+      <c r="CU16" s="18">
+        <v>1144027.7439892201</v>
+      </c>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
@@ -25782,11 +25778,12 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="27"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
-      <c r="CS17" s="27"/>
-      <c r="CT17" s="27"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
+      <c r="CT17" s="12"/>
+      <c r="CU17" s="12"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25886,11 +25883,11 @@
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
-      <c r="CP19" s="25"/>
-      <c r="CQ19" s="25"/>
-      <c r="CR19" s="25"/>
-      <c r="CS19" s="25"/>
-      <c r="CT19" s="25"/>
+      <c r="CP19" s="9"/>
+      <c r="CQ19" s="9"/>
+      <c r="CR19" s="9"/>
+      <c r="CS19" s="9"/>
+      <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
@@ -26040,11 +26037,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="25"/>
-      <c r="CQ20" s="25"/>
-      <c r="CR20" s="25"/>
-      <c r="CS20" s="25"/>
-      <c r="CT20" s="25"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26113,7 +26110,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26123,7 +26120,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26133,132 +26130,132 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="30">
+      <c r="B29" s="21">
         <v>2000</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="30">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21">
         <v>2001</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="30">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21">
         <v>2002</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="30">
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="21">
         <v>2003</v>
       </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="30">
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="21">
         <v>2004</v>
       </c>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="30">
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="21">
         <v>2005</v>
       </c>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="30">
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="21">
         <v>2006</v>
       </c>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="30">
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="21">
         <v>2007</v>
       </c>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="30">
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="21">
         <v>2008</v>
       </c>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="30">
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="21">
         <v>2009</v>
       </c>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="30">
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="30">
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="21">
         <v>2011</v>
       </c>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="30">
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="21">
         <v>2012</v>
       </c>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
-      <c r="BA29" s="32"/>
-      <c r="BB29" s="30">
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="21">
         <v>2013</v>
       </c>
-      <c r="BC29" s="32"/>
-      <c r="BD29" s="32"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="30">
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="21">
         <v>2014</v>
       </c>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
-      <c r="BI29" s="32"/>
-      <c r="BJ29" s="30">
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="21">
         <v>2015</v>
       </c>
-      <c r="BK29" s="32"/>
-      <c r="BL29" s="32"/>
-      <c r="BM29" s="32"/>
-      <c r="BN29" s="30">
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="21">
         <v>2016</v>
       </c>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="30">
+      <c r="BO29" s="22"/>
+      <c r="BP29" s="22"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="21">
         <v>2017</v>
       </c>
-      <c r="BS29" s="32"/>
-      <c r="BT29" s="32"/>
-      <c r="BU29" s="32"/>
-      <c r="BV29" s="30">
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="21">
         <v>2018</v>
       </c>
-      <c r="BW29" s="30"/>
-      <c r="BX29" s="30"/>
-      <c r="BY29" s="30"/>
-      <c r="BZ29" s="30">
+      <c r="BW29" s="21"/>
+      <c r="BX29" s="21"/>
+      <c r="BY29" s="21"/>
+      <c r="BZ29" s="21">
         <v>2019</v>
       </c>
-      <c r="CA29" s="30"/>
-      <c r="CB29" s="30"/>
-      <c r="CC29" s="30"/>
-      <c r="CD29" s="30">
+      <c r="CA29" s="21"/>
+      <c r="CB29" s="21"/>
+      <c r="CC29" s="21"/>
+      <c r="CD29" s="21">
         <v>2020</v>
       </c>
-      <c r="CE29" s="30"/>
-      <c r="CF29" s="30"/>
-      <c r="CG29" s="30"/>
+      <c r="CE29" s="21"/>
+      <c r="CF29" s="21"/>
+      <c r="CG29" s="21"/>
       <c r="CH29" s="19">
         <v>2021</v>
       </c>
@@ -26271,15 +26268,16 @@
       <c r="CM29" s="19"/>
       <c r="CN29" s="19"/>
       <c r="CO29" s="19"/>
-      <c r="CP29" s="22">
+      <c r="CP29" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="22"/>
-      <c r="CR29" s="22"/>
-      <c r="CS29" s="22"/>
-      <c r="CT29" s="22">
+      <c r="CQ29" s="19"/>
+      <c r="CR29" s="19"/>
+      <c r="CS29" s="19"/>
+      <c r="CT29" s="19">
         <v>2024</v>
       </c>
+      <c r="CU29" s="19"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26561,20 +26559,23 @@
       <c r="CO30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="23" t="s">
+      <c r="CP30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="23" t="s">
+      <c r="CQ30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="23" t="s">
+      <c r="CR30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="23" t="s">
+      <c r="CS30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT30" s="23" t="s">
+      <c r="CT30" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU30" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26860,22 +26861,24 @@
       <c r="CO32" s="17">
         <v>207309.0126037194</v>
       </c>
-      <c r="CP32" s="24">
+      <c r="CP32" s="17">
         <v>127819.28252921287</v>
       </c>
-      <c r="CQ32" s="24">
+      <c r="CQ32" s="17">
         <v>127533.84187690236</v>
       </c>
-      <c r="CR32" s="24">
+      <c r="CR32" s="17">
         <v>155051.27832542319</v>
       </c>
-      <c r="CS32" s="24">
+      <c r="CS32" s="17">
         <v>212103.88903438437</v>
       </c>
-      <c r="CT32" s="24">
-        <v>130738.29705762934</v>
-      </c>
-      <c r="CU32" s="9"/>
+      <c r="CT32" s="17">
+        <v>132681.50840872602</v>
+      </c>
+      <c r="CU32" s="17">
+        <v>132804.57755484717</v>
+      </c>
       <c r="CV32" s="9"/>
       <c r="CW32" s="9"/>
       <c r="CX32" s="9"/>
@@ -27211,22 +27214,24 @@
       <c r="CO33" s="17">
         <v>852266.64044510224</v>
       </c>
-      <c r="CP33" s="24">
+      <c r="CP33" s="17">
         <v>646200.69421327859</v>
       </c>
-      <c r="CQ33" s="24">
+      <c r="CQ33" s="17">
         <v>760579.10128915042</v>
       </c>
-      <c r="CR33" s="24">
+      <c r="CR33" s="17">
         <v>884246.95991013397</v>
       </c>
-      <c r="CS33" s="24">
+      <c r="CS33" s="17">
         <v>900582.21093529137</v>
       </c>
-      <c r="CT33" s="24">
-        <v>693224.03769978788</v>
-      </c>
-      <c r="CU33" s="9"/>
+      <c r="CT33" s="17">
+        <v>691973.94684803486</v>
+      </c>
+      <c r="CU33" s="17">
+        <v>805780.53113864467</v>
+      </c>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
@@ -27562,22 +27567,24 @@
       <c r="CO34" s="17">
         <v>25390.768053109023</v>
       </c>
-      <c r="CP34" s="24">
+      <c r="CP34" s="17">
         <v>25280.980337571847</v>
       </c>
-      <c r="CQ34" s="24">
+      <c r="CQ34" s="17">
         <v>16626.604571579948</v>
       </c>
-      <c r="CR34" s="24">
+      <c r="CR34" s="17">
         <v>28336.094386085762</v>
       </c>
-      <c r="CS34" s="24">
+      <c r="CS34" s="17">
         <v>29058.885599308971</v>
       </c>
-      <c r="CT34" s="24">
-        <v>26875.193886022505</v>
-      </c>
-      <c r="CU34" s="9"/>
+      <c r="CT34" s="17">
+        <v>27230.596528038215</v>
+      </c>
+      <c r="CU34" s="17">
+        <v>18861.991044583352</v>
+      </c>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
@@ -27726,12 +27733,12 @@
       <c r="CM35" s="18"/>
       <c r="CN35" s="18"/>
       <c r="CO35" s="18"/>
-      <c r="CP35" s="26"/>
-      <c r="CQ35" s="26"/>
-      <c r="CR35" s="26"/>
-      <c r="CS35" s="26"/>
-      <c r="CT35" s="26"/>
-      <c r="CU35" s="9"/>
+      <c r="CP35" s="18"/>
+      <c r="CQ35" s="18"/>
+      <c r="CR35" s="18"/>
+      <c r="CS35" s="18"/>
+      <c r="CT35" s="18"/>
+      <c r="CU35" s="18"/>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
@@ -28067,22 +28074,24 @@
       <c r="CO36" s="18">
         <v>1084966.4211019308</v>
       </c>
-      <c r="CP36" s="26">
+      <c r="CP36" s="18">
         <v>799300.95708006329</v>
       </c>
-      <c r="CQ36" s="26">
+      <c r="CQ36" s="18">
         <v>904739.54773763276</v>
       </c>
-      <c r="CR36" s="26">
+      <c r="CR36" s="18">
         <v>1067634.3326216431</v>
       </c>
-      <c r="CS36" s="26">
+      <c r="CS36" s="18">
         <v>1141744.9855689846</v>
       </c>
-      <c r="CT36" s="26">
-        <v>850837.52864343976</v>
-      </c>
-      <c r="CU36" s="9"/>
+      <c r="CT36" s="18">
+        <v>851886.05178479908</v>
+      </c>
+      <c r="CU36" s="18">
+        <v>957447.09973807528</v>
+      </c>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
@@ -28232,11 +28241,12 @@
       <c r="CM37" s="12"/>
       <c r="CN37" s="12"/>
       <c r="CO37" s="12"/>
-      <c r="CP37" s="27"/>
-      <c r="CQ37" s="27"/>
-      <c r="CR37" s="27"/>
-      <c r="CS37" s="27"/>
-      <c r="CT37" s="27"/>
+      <c r="CP37" s="12"/>
+      <c r="CQ37" s="12"/>
+      <c r="CR37" s="12"/>
+      <c r="CS37" s="12"/>
+      <c r="CT37" s="12"/>
+      <c r="CU37" s="12"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28336,11 +28346,11 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="25"/>
-      <c r="CQ39" s="25"/>
-      <c r="CR39" s="25"/>
-      <c r="CS39" s="25"/>
-      <c r="CT39" s="25"/>
+      <c r="CP39" s="9"/>
+      <c r="CQ39" s="9"/>
+      <c r="CR39" s="9"/>
+      <c r="CS39" s="9"/>
+      <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
@@ -28490,11 +28500,11 @@
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
-      <c r="CP40" s="25"/>
-      <c r="CQ40" s="25"/>
-      <c r="CR40" s="25"/>
-      <c r="CS40" s="25"/>
-      <c r="CT40" s="25"/>
+      <c r="CP40" s="9"/>
+      <c r="CQ40" s="9"/>
+      <c r="CR40" s="9"/>
+      <c r="CS40" s="9"/>
+      <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
@@ -28563,7 +28573,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
@@ -28573,7 +28583,7 @@
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
@@ -28583,132 +28593,132 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30" t="s">
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30" t="s">
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30" t="s">
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30" t="s">
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30" t="s">
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30" t="s">
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30" t="s">
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="30" t="s">
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="30" t="s">
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="30"/>
-      <c r="AT49" s="30" t="s">
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="30"/>
-      <c r="AV49" s="30"/>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="30" t="s">
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="30"/>
-      <c r="AZ49" s="30"/>
-      <c r="BA49" s="30"/>
-      <c r="BB49" s="30" t="s">
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="30"/>
-      <c r="BD49" s="30"/>
-      <c r="BE49" s="30"/>
-      <c r="BF49" s="30" t="s">
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="21"/>
+      <c r="BE49" s="21"/>
+      <c r="BF49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="30"/>
-      <c r="BH49" s="30"/>
-      <c r="BI49" s="30"/>
-      <c r="BJ49" s="30" t="s">
+      <c r="BG49" s="21"/>
+      <c r="BH49" s="21"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="30"/>
-      <c r="BL49" s="30"/>
-      <c r="BM49" s="30"/>
-      <c r="BN49" s="30" t="s">
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="21"/>
+      <c r="BM49" s="21"/>
+      <c r="BN49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="30"/>
-      <c r="BP49" s="30"/>
-      <c r="BQ49" s="30"/>
-      <c r="BR49" s="30" t="s">
+      <c r="BO49" s="21"/>
+      <c r="BP49" s="21"/>
+      <c r="BQ49" s="21"/>
+      <c r="BR49" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="30"/>
-      <c r="BT49" s="30"/>
-      <c r="BU49" s="30"/>
-      <c r="BV49" s="30" t="s">
+      <c r="BS49" s="21"/>
+      <c r="BT49" s="21"/>
+      <c r="BU49" s="21"/>
+      <c r="BV49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="30"/>
-      <c r="BX49" s="30"/>
-      <c r="BY49" s="30"/>
-      <c r="BZ49" s="30" t="s">
+      <c r="BW49" s="21"/>
+      <c r="BX49" s="21"/>
+      <c r="BY49" s="21"/>
+      <c r="BZ49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="30"/>
-      <c r="CB49" s="30"/>
-      <c r="CC49" s="30"/>
-      <c r="CD49" s="30" t="s">
+      <c r="CA49" s="21"/>
+      <c r="CB49" s="21"/>
+      <c r="CC49" s="21"/>
+      <c r="CD49" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="30"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
+      <c r="CE49" s="21"/>
+      <c r="CF49" s="21"/>
+      <c r="CG49" s="21"/>
       <c r="CH49" s="19" t="s">
         <v>48</v>
       </c>
@@ -28721,13 +28731,14 @@
       <c r="CM49" s="19"/>
       <c r="CN49" s="19"/>
       <c r="CO49" s="19"/>
-      <c r="CP49" s="22" t="s">
+      <c r="CP49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="CQ49" s="20"/>
+      <c r="CQ49" s="19"/>
       <c r="CR49" s="20"/>
       <c r="CS49" s="20"/>
-      <c r="CT49" s="20"/>
+      <c r="CT49" s="19"/>
+      <c r="CU49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29009,13 +29020,16 @@
       <c r="CO50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="28" t="s">
+      <c r="CP50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ50" s="28"/>
-      <c r="CR50" s="28"/>
-      <c r="CS50" s="28"/>
-      <c r="CT50" s="28"/>
+      <c r="CQ50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR50" s="5"/>
+      <c r="CS50" s="5"/>
+      <c r="CT50" s="5"/>
+      <c r="CU50" s="5"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29300,14 +29314,16 @@
       <c r="CO52" s="14">
         <v>6.8984408174896998</v>
       </c>
-      <c r="CP52" s="29">
-        <v>5.6810104427524664</v>
-      </c>
-      <c r="CQ52" s="29"/>
-      <c r="CR52" s="29"/>
-      <c r="CS52" s="29"/>
-      <c r="CT52" s="29"/>
-      <c r="CU52" s="9"/>
+      <c r="CP52" s="14">
+        <v>6.9666017922198904</v>
+      </c>
+      <c r="CQ52" s="14">
+        <v>6.7076483831971103</v>
+      </c>
+      <c r="CR52" s="14"/>
+      <c r="CS52" s="14"/>
+      <c r="CT52" s="14"/>
+      <c r="CU52" s="14"/>
       <c r="CV52" s="9"/>
       <c r="CW52" s="9"/>
       <c r="CX52" s="9"/>
@@ -29639,14 +29655,16 @@
       <c r="CO53" s="14">
         <v>11.613750876917265</v>
       </c>
-      <c r="CP53" s="29">
-        <v>12.504109531589805</v>
-      </c>
-      <c r="CQ53" s="29"/>
-      <c r="CR53" s="29"/>
-      <c r="CS53" s="29"/>
-      <c r="CT53" s="29"/>
-      <c r="CU53" s="9"/>
+      <c r="CP53" s="14">
+        <v>12.310455726542642</v>
+      </c>
+      <c r="CQ53" s="14">
+        <v>12.762637987732845</v>
+      </c>
+      <c r="CR53" s="14"/>
+      <c r="CS53" s="14"/>
+      <c r="CT53" s="14"/>
+      <c r="CU53" s="14"/>
       <c r="CV53" s="9"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="9"/>
@@ -29978,14 +29996,16 @@
       <c r="CO54" s="14">
         <v>17.13325990692995</v>
       </c>
-      <c r="CP54" s="29">
-        <v>8.2017444554202115</v>
-      </c>
-      <c r="CQ54" s="29"/>
-      <c r="CR54" s="29"/>
-      <c r="CS54" s="29"/>
-      <c r="CT54" s="29"/>
-      <c r="CU54" s="9"/>
+      <c r="CP54" s="14">
+        <v>9.6335915108840311</v>
+      </c>
+      <c r="CQ54" s="14">
+        <v>14.701410799904295</v>
+      </c>
+      <c r="CR54" s="14"/>
+      <c r="CS54" s="14"/>
+      <c r="CT54" s="14"/>
+      <c r="CU54" s="14"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
@@ -30130,11 +30150,11 @@
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
-      <c r="CP55" s="25"/>
-      <c r="CQ55" s="25"/>
-      <c r="CR55" s="25"/>
-      <c r="CS55" s="25"/>
-      <c r="CT55" s="25"/>
+      <c r="CP55" s="9"/>
+      <c r="CQ55" s="9"/>
+      <c r="CR55" s="9"/>
+      <c r="CS55" s="9"/>
+      <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
@@ -30467,14 +30487,16 @@
       <c r="CO56" s="14">
         <v>10.773839944111742</v>
       </c>
-      <c r="CP56" s="29">
-        <v>11.225780136222284</v>
-      </c>
-      <c r="CQ56" s="29"/>
-      <c r="CR56" s="29"/>
-      <c r="CS56" s="29"/>
-      <c r="CT56" s="29"/>
-      <c r="CU56" s="9"/>
+      <c r="CP56" s="14">
+        <v>11.329978290773795</v>
+      </c>
+      <c r="CQ56" s="14">
+        <v>11.919770687984041</v>
+      </c>
+      <c r="CR56" s="14"/>
+      <c r="CS56" s="14"/>
+      <c r="CT56" s="14"/>
+      <c r="CU56" s="14"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
@@ -30620,11 +30642,12 @@
       <c r="CM57" s="12"/>
       <c r="CN57" s="12"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="27"/>
-      <c r="CQ57" s="27"/>
-      <c r="CR57" s="27"/>
-      <c r="CS57" s="27"/>
-      <c r="CT57" s="27"/>
+      <c r="CP57" s="12"/>
+      <c r="CQ57" s="12"/>
+      <c r="CR57" s="12"/>
+      <c r="CS57" s="12"/>
+      <c r="CT57" s="12"/>
+      <c r="CU57" s="12"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30724,11 +30747,11 @@
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
-      <c r="CP59" s="25"/>
-      <c r="CQ59" s="25"/>
-      <c r="CR59" s="25"/>
-      <c r="CS59" s="25"/>
-      <c r="CT59" s="25"/>
+      <c r="CP59" s="9"/>
+      <c r="CQ59" s="9"/>
+      <c r="CR59" s="9"/>
+      <c r="CS59" s="9"/>
+      <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
@@ -30874,11 +30897,11 @@
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
-      <c r="CP60" s="25"/>
-      <c r="CQ60" s="25"/>
-      <c r="CR60" s="25"/>
-      <c r="CS60" s="25"/>
-      <c r="CT60" s="25"/>
+      <c r="CP60" s="9"/>
+      <c r="CQ60" s="9"/>
+      <c r="CR60" s="9"/>
+      <c r="CS60" s="9"/>
+      <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
@@ -30943,7 +30966,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -30953,7 +30976,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
@@ -30963,132 +30986,132 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="30" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="30" t="s">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="30" t="s">
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="30" t="s">
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="30" t="s">
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
-      <c r="AD69" s="30" t="s">
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="31"/>
-      <c r="AF69" s="31"/>
-      <c r="AG69" s="31"/>
-      <c r="AH69" s="30" t="s">
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="31"/>
-      <c r="AJ69" s="31"/>
-      <c r="AK69" s="31"/>
-      <c r="AL69" s="30" t="s">
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="31"/>
-      <c r="AN69" s="31"/>
-      <c r="AO69" s="31"/>
-      <c r="AP69" s="30" t="s">
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="31"/>
-      <c r="AR69" s="31"/>
-      <c r="AS69" s="31"/>
-      <c r="AT69" s="30" t="s">
+      <c r="AQ69" s="23"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="31"/>
-      <c r="AV69" s="31"/>
-      <c r="AW69" s="31"/>
-      <c r="AX69" s="30" t="s">
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="31"/>
-      <c r="AZ69" s="31"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="30" t="s">
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="31"/>
-      <c r="BD69" s="31"/>
-      <c r="BE69" s="31"/>
-      <c r="BF69" s="30" t="s">
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="31"/>
-      <c r="BH69" s="31"/>
-      <c r="BI69" s="31"/>
-      <c r="BJ69" s="30" t="s">
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="31"/>
-      <c r="BL69" s="31"/>
-      <c r="BM69" s="31"/>
-      <c r="BN69" s="30" t="s">
+      <c r="BK69" s="23"/>
+      <c r="BL69" s="23"/>
+      <c r="BM69" s="23"/>
+      <c r="BN69" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="31"/>
-      <c r="BP69" s="31"/>
-      <c r="BQ69" s="31"/>
-      <c r="BR69" s="30" t="s">
+      <c r="BO69" s="23"/>
+      <c r="BP69" s="23"/>
+      <c r="BQ69" s="23"/>
+      <c r="BR69" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="31"/>
-      <c r="BT69" s="31"/>
-      <c r="BU69" s="31"/>
-      <c r="BV69" s="30" t="s">
+      <c r="BS69" s="23"/>
+      <c r="BT69" s="23"/>
+      <c r="BU69" s="23"/>
+      <c r="BV69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="30"/>
-      <c r="BX69" s="30"/>
-      <c r="BY69" s="30"/>
-      <c r="BZ69" s="30" t="s">
+      <c r="BW69" s="21"/>
+      <c r="BX69" s="21"/>
+      <c r="BY69" s="21"/>
+      <c r="BZ69" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="30"/>
-      <c r="CB69" s="30"/>
-      <c r="CC69" s="30"/>
-      <c r="CD69" s="30" t="s">
+      <c r="CA69" s="21"/>
+      <c r="CB69" s="21"/>
+      <c r="CC69" s="21"/>
+      <c r="CD69" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="30"/>
-      <c r="CF69" s="30"/>
-      <c r="CG69" s="30"/>
+      <c r="CE69" s="21"/>
+      <c r="CF69" s="21"/>
+      <c r="CG69" s="21"/>
       <c r="CH69" s="19" t="s">
         <v>48</v>
       </c>
@@ -31101,13 +31124,14 @@
       <c r="CM69" s="19"/>
       <c r="CN69" s="19"/>
       <c r="CO69" s="19"/>
-      <c r="CP69" s="22" t="s">
+      <c r="CP69" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="CQ69" s="20"/>
+      <c r="CQ69" s="19"/>
       <c r="CR69" s="20"/>
       <c r="CS69" s="20"/>
-      <c r="CT69" s="20"/>
+      <c r="CT69" s="19"/>
+      <c r="CU69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31389,13 +31413,16 @@
       <c r="CO70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="28" t="s">
+      <c r="CP70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ70" s="28"/>
-      <c r="CR70" s="28"/>
-      <c r="CS70" s="28"/>
-      <c r="CT70" s="28"/>
+      <c r="CQ70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR70" s="5"/>
+      <c r="CS70" s="5"/>
+      <c r="CT70" s="5"/>
+      <c r="CU70" s="5"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31680,14 +31707,16 @@
       <c r="CO72" s="14">
         <v>2.3129126758374809</v>
       </c>
-      <c r="CP72" s="29">
-        <v>2.2837043602942515</v>
-      </c>
-      <c r="CQ72" s="29"/>
-      <c r="CR72" s="29"/>
-      <c r="CS72" s="29"/>
-      <c r="CT72" s="29"/>
-      <c r="CU72" s="9"/>
+      <c r="CP72" s="14">
+        <v>3.8039846440241831</v>
+      </c>
+      <c r="CQ72" s="14">
+        <v>4.1328133775129459</v>
+      </c>
+      <c r="CR72" s="14"/>
+      <c r="CS72" s="14"/>
+      <c r="CT72" s="14"/>
+      <c r="CU72" s="14"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
@@ -32019,14 +32048,16 @@
       <c r="CO73" s="14">
         <v>5.6690674253020177</v>
       </c>
-      <c r="CP73" s="29">
-        <v>7.2768946099258187</v>
-      </c>
-      <c r="CQ73" s="29"/>
-      <c r="CR73" s="29"/>
-      <c r="CS73" s="29"/>
-      <c r="CT73" s="29"/>
-      <c r="CU73" s="9"/>
+      <c r="CP73" s="14">
+        <v>7.0834421944537098</v>
+      </c>
+      <c r="CQ73" s="14">
+        <v>5.9430281180326432</v>
+      </c>
+      <c r="CR73" s="14"/>
+      <c r="CS73" s="14"/>
+      <c r="CT73" s="14"/>
+      <c r="CU73" s="14"/>
       <c r="CV73" s="9"/>
       <c r="CW73" s="9"/>
       <c r="CX73" s="9"/>
@@ -32358,14 +32389,16 @@
       <c r="CO74" s="14">
         <v>14.446658480466084</v>
       </c>
-      <c r="CP74" s="29">
-        <v>6.3059799389242386</v>
-      </c>
-      <c r="CQ74" s="29"/>
-      <c r="CR74" s="29"/>
-      <c r="CS74" s="29"/>
-      <c r="CT74" s="29"/>
-      <c r="CU74" s="9"/>
+      <c r="CP74" s="14">
+        <v>7.7117903041477689</v>
+      </c>
+      <c r="CQ74" s="14">
+        <v>13.444636055303661</v>
+      </c>
+      <c r="CR74" s="14"/>
+      <c r="CS74" s="14"/>
+      <c r="CT74" s="14"/>
+      <c r="CU74" s="14"/>
       <c r="CV74" s="9"/>
       <c r="CW74" s="9"/>
       <c r="CX74" s="9"/>
@@ -32510,11 +32543,11 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="25"/>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="25"/>
-      <c r="CS75" s="25"/>
-      <c r="CT75" s="25"/>
+      <c r="CP75" s="9"/>
+      <c r="CQ75" s="9"/>
+      <c r="CR75" s="9"/>
+      <c r="CS75" s="9"/>
+      <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -32847,14 +32880,16 @@
       <c r="CO76" s="14">
         <v>5.233209375216191</v>
       </c>
-      <c r="CP76" s="29">
-        <v>6.4477054739988375</v>
-      </c>
-      <c r="CQ76" s="29"/>
-      <c r="CR76" s="29"/>
-      <c r="CS76" s="29"/>
-      <c r="CT76" s="29"/>
-      <c r="CU76" s="9"/>
+      <c r="CP76" s="14">
+        <v>6.5788854922475224</v>
+      </c>
+      <c r="CQ76" s="14">
+        <v>5.8257154926234449</v>
+      </c>
+      <c r="CR76" s="14"/>
+      <c r="CS76" s="14"/>
+      <c r="CT76" s="14"/>
+      <c r="CU76" s="14"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
@@ -33000,11 +33035,12 @@
       <c r="CM77" s="12"/>
       <c r="CN77" s="12"/>
       <c r="CO77" s="12"/>
-      <c r="CP77" s="27"/>
-      <c r="CQ77" s="27"/>
-      <c r="CR77" s="27"/>
-      <c r="CS77" s="27"/>
-      <c r="CT77" s="27"/>
+      <c r="CP77" s="12"/>
+      <c r="CQ77" s="12"/>
+      <c r="CR77" s="12"/>
+      <c r="CS77" s="12"/>
+      <c r="CT77" s="12"/>
+      <c r="CU77" s="12"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -33104,11 +33140,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="25"/>
-      <c r="CQ79" s="25"/>
-      <c r="CR79" s="25"/>
-      <c r="CS79" s="25"/>
-      <c r="CT79" s="25"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
+      <c r="CS79" s="9"/>
+      <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -33254,11 +33290,11 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
-      <c r="CP80" s="25"/>
-      <c r="CQ80" s="25"/>
-      <c r="CR80" s="25"/>
-      <c r="CS80" s="25"/>
-      <c r="CT80" s="25"/>
+      <c r="CP80" s="9"/>
+      <c r="CQ80" s="9"/>
+      <c r="CR80" s="9"/>
+      <c r="CS80" s="9"/>
+      <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
@@ -33318,7 +33354,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33328,7 +33364,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33338,132 +33374,132 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="30">
+      <c r="B88" s="21">
         <v>2000</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="30">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21">
         <v>2001</v>
       </c>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="30">
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="21">
         <v>2002</v>
       </c>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="30">
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="21">
         <v>2003</v>
       </c>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="30">
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="21">
         <v>2004</v>
       </c>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="30">
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="21">
         <v>2005</v>
       </c>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="30">
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="21">
         <v>2006</v>
       </c>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="30">
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="21">
         <v>2007</v>
       </c>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="32"/>
-      <c r="AH88" s="30">
+      <c r="AE88" s="22"/>
+      <c r="AF88" s="22"/>
+      <c r="AG88" s="22"/>
+      <c r="AH88" s="21">
         <v>2008</v>
       </c>
-      <c r="AI88" s="32"/>
-      <c r="AJ88" s="32"/>
-      <c r="AK88" s="32"/>
-      <c r="AL88" s="30">
+      <c r="AI88" s="22"/>
+      <c r="AJ88" s="22"/>
+      <c r="AK88" s="22"/>
+      <c r="AL88" s="21">
         <v>2009</v>
       </c>
-      <c r="AM88" s="32"/>
-      <c r="AN88" s="32"/>
-      <c r="AO88" s="32"/>
-      <c r="AP88" s="30">
+      <c r="AM88" s="22"/>
+      <c r="AN88" s="22"/>
+      <c r="AO88" s="22"/>
+      <c r="AP88" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="32"/>
-      <c r="AR88" s="32"/>
-      <c r="AS88" s="32"/>
-      <c r="AT88" s="30">
+      <c r="AQ88" s="22"/>
+      <c r="AR88" s="22"/>
+      <c r="AS88" s="22"/>
+      <c r="AT88" s="21">
         <v>2011</v>
       </c>
-      <c r="AU88" s="32"/>
-      <c r="AV88" s="32"/>
-      <c r="AW88" s="32"/>
-      <c r="AX88" s="30">
+      <c r="AU88" s="22"/>
+      <c r="AV88" s="22"/>
+      <c r="AW88" s="22"/>
+      <c r="AX88" s="21">
         <v>2012</v>
       </c>
-      <c r="AY88" s="32"/>
-      <c r="AZ88" s="32"/>
-      <c r="BA88" s="32"/>
-      <c r="BB88" s="30">
+      <c r="AY88" s="22"/>
+      <c r="AZ88" s="22"/>
+      <c r="BA88" s="22"/>
+      <c r="BB88" s="21">
         <v>2013</v>
       </c>
-      <c r="BC88" s="32"/>
-      <c r="BD88" s="32"/>
-      <c r="BE88" s="32"/>
-      <c r="BF88" s="30">
+      <c r="BC88" s="22"/>
+      <c r="BD88" s="22"/>
+      <c r="BE88" s="22"/>
+      <c r="BF88" s="21">
         <v>2014</v>
       </c>
-      <c r="BG88" s="32"/>
-      <c r="BH88" s="32"/>
-      <c r="BI88" s="32"/>
-      <c r="BJ88" s="30">
+      <c r="BG88" s="22"/>
+      <c r="BH88" s="22"/>
+      <c r="BI88" s="22"/>
+      <c r="BJ88" s="21">
         <v>2015</v>
       </c>
-      <c r="BK88" s="32"/>
-      <c r="BL88" s="32"/>
-      <c r="BM88" s="32"/>
-      <c r="BN88" s="30">
+      <c r="BK88" s="22"/>
+      <c r="BL88" s="22"/>
+      <c r="BM88" s="22"/>
+      <c r="BN88" s="21">
         <v>2016</v>
       </c>
-      <c r="BO88" s="32"/>
-      <c r="BP88" s="32"/>
-      <c r="BQ88" s="32"/>
-      <c r="BR88" s="30">
+      <c r="BO88" s="22"/>
+      <c r="BP88" s="22"/>
+      <c r="BQ88" s="22"/>
+      <c r="BR88" s="21">
         <v>2017</v>
       </c>
-      <c r="BS88" s="32"/>
-      <c r="BT88" s="32"/>
-      <c r="BU88" s="32"/>
-      <c r="BV88" s="30">
+      <c r="BS88" s="22"/>
+      <c r="BT88" s="22"/>
+      <c r="BU88" s="22"/>
+      <c r="BV88" s="21">
         <v>2018</v>
       </c>
-      <c r="BW88" s="30"/>
-      <c r="BX88" s="30"/>
-      <c r="BY88" s="30"/>
-      <c r="BZ88" s="30">
+      <c r="BW88" s="21"/>
+      <c r="BX88" s="21"/>
+      <c r="BY88" s="21"/>
+      <c r="BZ88" s="21">
         <v>2019</v>
       </c>
-      <c r="CA88" s="30"/>
-      <c r="CB88" s="30"/>
-      <c r="CC88" s="30"/>
-      <c r="CD88" s="30">
+      <c r="CA88" s="21"/>
+      <c r="CB88" s="21"/>
+      <c r="CC88" s="21"/>
+      <c r="CD88" s="21">
         <v>2020</v>
       </c>
-      <c r="CE88" s="30"/>
-      <c r="CF88" s="30"/>
-      <c r="CG88" s="30"/>
+      <c r="CE88" s="21"/>
+      <c r="CF88" s="21"/>
+      <c r="CG88" s="21"/>
       <c r="CH88" s="19">
         <v>2021</v>
       </c>
@@ -33476,15 +33512,16 @@
       <c r="CM88" s="19"/>
       <c r="CN88" s="19"/>
       <c r="CO88" s="19"/>
-      <c r="CP88" s="22">
+      <c r="CP88" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="22"/>
-      <c r="CR88" s="22"/>
-      <c r="CS88" s="22"/>
-      <c r="CT88" s="22">
+      <c r="CQ88" s="19"/>
+      <c r="CR88" s="19"/>
+      <c r="CS88" s="19"/>
+      <c r="CT88" s="19">
         <v>2024</v>
       </c>
+      <c r="CU88" s="19"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33766,20 +33803,23 @@
       <c r="CO89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="23" t="s">
+      <c r="CP89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="23" t="s">
+      <c r="CQ89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="23" t="s">
+      <c r="CR89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="23" t="s">
+      <c r="CS89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT89" s="23" t="s">
+      <c r="CT89" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU89" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34065,22 +34105,24 @@
       <c r="CO91" s="14">
         <v>116.67224185771543</v>
       </c>
-      <c r="CP91" s="29">
+      <c r="CP91" s="14">
         <v>117.54932745781414</v>
       </c>
-      <c r="CQ91" s="29">
+      <c r="CQ91" s="14">
         <v>115.85035395355274</v>
       </c>
-      <c r="CR91" s="29">
+      <c r="CR91" s="14">
         <v>118.60606986833653</v>
       </c>
-      <c r="CS91" s="29">
+      <c r="CS91" s="14">
         <v>121.90133596124548</v>
       </c>
-      <c r="CT91" s="29">
-        <v>121.45367417324584</v>
-      </c>
-      <c r="CU91" s="9"/>
+      <c r="CT91" s="14">
+        <v>121.13072676586427</v>
+      </c>
+      <c r="CU91" s="14">
+        <v>118.71492216318227</v>
+      </c>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
       <c r="CX91" s="9"/>
@@ -34416,22 +34458,24 @@
       <c r="CO92" s="14">
         <v>108.26336034682507</v>
       </c>
-      <c r="CP92" s="29">
+      <c r="CP92" s="14">
         <v>110.61225452244412</v>
       </c>
-      <c r="CQ92" s="29">
+      <c r="CQ92" s="14">
         <v>112.72873273259061</v>
       </c>
-      <c r="CR92" s="29">
+      <c r="CR92" s="14">
         <v>113.00173001809681</v>
       </c>
-      <c r="CS92" s="29">
+      <c r="CS92" s="14">
         <v>114.35399237710196</v>
       </c>
-      <c r="CT92" s="29">
-        <v>116.00198946453963</v>
-      </c>
-      <c r="CU92" s="9"/>
+      <c r="CT92" s="14">
+        <v>116.01151830548324</v>
+      </c>
+      <c r="CU92" s="14">
+        <v>119.98514206879985</v>
+      </c>
       <c r="CV92" s="9"/>
       <c r="CW92" s="9"/>
       <c r="CX92" s="9"/>
@@ -34767,22 +34811,24 @@
       <c r="CO93" s="14">
         <v>100.55783533003368</v>
       </c>
-      <c r="CP93" s="29">
+      <c r="CP93" s="14">
         <v>105.44730599904892</v>
       </c>
-      <c r="CQ93" s="29">
+      <c r="CQ93" s="14">
         <v>102.52230777380345</v>
       </c>
-      <c r="CR93" s="29">
+      <c r="CR93" s="14">
         <v>101.36606951602371</v>
       </c>
-      <c r="CS93" s="29">
+      <c r="CS93" s="14">
         <v>102.91840074475832</v>
       </c>
-      <c r="CT93" s="29">
-        <v>107.32775770259317</v>
-      </c>
-      <c r="CU93" s="9"/>
+      <c r="CT93" s="14">
+        <v>107.32870412031158</v>
+      </c>
+      <c r="CU93" s="14">
+        <v>103.65808158954806</v>
+      </c>
       <c r="CV93" s="9"/>
       <c r="CW93" s="9"/>
       <c r="CX93" s="9"/>
@@ -34931,11 +34977,11 @@
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
       <c r="CO94" s="9"/>
-      <c r="CP94" s="25"/>
-      <c r="CQ94" s="25"/>
-      <c r="CR94" s="25"/>
-      <c r="CS94" s="25"/>
-      <c r="CT94" s="25"/>
+      <c r="CP94" s="9"/>
+      <c r="CQ94" s="9"/>
+      <c r="CR94" s="9"/>
+      <c r="CS94" s="9"/>
+      <c r="CT94" s="9"/>
       <c r="CU94" s="9"/>
       <c r="CV94" s="9"/>
       <c r="CW94" s="9"/>
@@ -35272,22 +35318,24 @@
       <c r="CO95" s="14">
         <v>109.68975262459142</v>
       </c>
-      <c r="CP95" s="29">
+      <c r="CP95" s="14">
         <v>111.55822702090011</v>
       </c>
-      <c r="CQ95" s="29">
+      <c r="CQ95" s="14">
         <v>112.98119672168635</v>
       </c>
-      <c r="CR95" s="29">
+      <c r="CR95" s="14">
         <v>113.50681951104559</v>
       </c>
-      <c r="CS95" s="29">
+      <c r="CS95" s="14">
         <v>115.46502451922143</v>
       </c>
-      <c r="CT95" s="29">
-        <v>116.56569557569514</v>
-      </c>
-      <c r="CU95" s="9"/>
+      <c r="CT95" s="14">
+        <v>116.53128980502834</v>
+      </c>
+      <c r="CU95" s="14">
+        <v>119.48730580542642</v>
+      </c>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
@@ -35437,11 +35485,12 @@
       <c r="CM96" s="12"/>
       <c r="CN96" s="12"/>
       <c r="CO96" s="12"/>
-      <c r="CP96" s="27"/>
-      <c r="CQ96" s="27"/>
-      <c r="CR96" s="27"/>
-      <c r="CS96" s="27"/>
-      <c r="CT96" s="27"/>
+      <c r="CP96" s="12"/>
+      <c r="CQ96" s="12"/>
+      <c r="CR96" s="12"/>
+      <c r="CS96" s="12"/>
+      <c r="CT96" s="12"/>
+      <c r="CU96" s="12"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35460,7 +35509,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35470,7 +35519,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35480,132 +35529,132 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="30">
+      <c r="B108" s="21">
         <v>2000</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="30">
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21">
         <v>2001</v>
       </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="30">
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="21">
         <v>2002</v>
       </c>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="30">
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="21">
         <v>2003</v>
       </c>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="30">
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="21">
         <v>2004</v>
       </c>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="30">
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="21">
         <v>2005</v>
       </c>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="30">
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="21">
         <v>2006</v>
       </c>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="30">
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="21">
         <v>2007</v>
       </c>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="30">
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="21">
         <v>2008</v>
       </c>
-      <c r="AI108" s="32"/>
-      <c r="AJ108" s="32"/>
-      <c r="AK108" s="32"/>
-      <c r="AL108" s="30">
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="21">
         <v>2009</v>
       </c>
-      <c r="AM108" s="32"/>
-      <c r="AN108" s="32"/>
-      <c r="AO108" s="32"/>
-      <c r="AP108" s="30">
+      <c r="AM108" s="22"/>
+      <c r="AN108" s="22"/>
+      <c r="AO108" s="22"/>
+      <c r="AP108" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="32"/>
-      <c r="AR108" s="32"/>
-      <c r="AS108" s="32"/>
-      <c r="AT108" s="30">
+      <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
+      <c r="AS108" s="22"/>
+      <c r="AT108" s="21">
         <v>2011</v>
       </c>
-      <c r="AU108" s="32"/>
-      <c r="AV108" s="32"/>
-      <c r="AW108" s="32"/>
-      <c r="AX108" s="30">
+      <c r="AU108" s="22"/>
+      <c r="AV108" s="22"/>
+      <c r="AW108" s="22"/>
+      <c r="AX108" s="21">
         <v>2012</v>
       </c>
-      <c r="AY108" s="32"/>
-      <c r="AZ108" s="32"/>
-      <c r="BA108" s="32"/>
-      <c r="BB108" s="30">
+      <c r="AY108" s="22"/>
+      <c r="AZ108" s="22"/>
+      <c r="BA108" s="22"/>
+      <c r="BB108" s="21">
         <v>2013</v>
       </c>
-      <c r="BC108" s="32"/>
-      <c r="BD108" s="32"/>
-      <c r="BE108" s="32"/>
-      <c r="BF108" s="30">
+      <c r="BC108" s="22"/>
+      <c r="BD108" s="22"/>
+      <c r="BE108" s="22"/>
+      <c r="BF108" s="21">
         <v>2014</v>
       </c>
-      <c r="BG108" s="32"/>
-      <c r="BH108" s="32"/>
-      <c r="BI108" s="32"/>
-      <c r="BJ108" s="30">
+      <c r="BG108" s="22"/>
+      <c r="BH108" s="22"/>
+      <c r="BI108" s="22"/>
+      <c r="BJ108" s="21">
         <v>2015</v>
       </c>
-      <c r="BK108" s="32"/>
-      <c r="BL108" s="32"/>
-      <c r="BM108" s="32"/>
-      <c r="BN108" s="30">
+      <c r="BK108" s="22"/>
+      <c r="BL108" s="22"/>
+      <c r="BM108" s="22"/>
+      <c r="BN108" s="21">
         <v>2016</v>
       </c>
-      <c r="BO108" s="32"/>
-      <c r="BP108" s="32"/>
-      <c r="BQ108" s="32"/>
-      <c r="BR108" s="30">
+      <c r="BO108" s="22"/>
+      <c r="BP108" s="22"/>
+      <c r="BQ108" s="22"/>
+      <c r="BR108" s="21">
         <v>2017</v>
       </c>
-      <c r="BS108" s="32"/>
-      <c r="BT108" s="32"/>
-      <c r="BU108" s="32"/>
-      <c r="BV108" s="30">
+      <c r="BS108" s="22"/>
+      <c r="BT108" s="22"/>
+      <c r="BU108" s="22"/>
+      <c r="BV108" s="21">
         <v>2018</v>
       </c>
-      <c r="BW108" s="30"/>
-      <c r="BX108" s="30"/>
-      <c r="BY108" s="30"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="21"/>
+      <c r="BX108" s="21"/>
+      <c r="BY108" s="21"/>
+      <c r="BZ108" s="21">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="30">
+      <c r="CA108" s="21"/>
+      <c r="CB108" s="21"/>
+      <c r="CC108" s="21"/>
+      <c r="CD108" s="21">
         <v>2020</v>
       </c>
-      <c r="CE108" s="30"/>
-      <c r="CF108" s="30"/>
-      <c r="CG108" s="30"/>
+      <c r="CE108" s="21"/>
+      <c r="CF108" s="21"/>
+      <c r="CG108" s="21"/>
       <c r="CH108" s="19">
         <v>2021</v>
       </c>
@@ -35618,15 +35667,16 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="22">
+      <c r="CP108" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="22"/>
-      <c r="CR108" s="22"/>
-      <c r="CS108" s="22"/>
-      <c r="CT108" s="22">
+      <c r="CQ108" s="19"/>
+      <c r="CR108" s="19"/>
+      <c r="CS108" s="19"/>
+      <c r="CT108" s="19">
         <v>2024</v>
       </c>
+      <c r="CU108" s="19"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35908,20 +35958,23 @@
       <c r="CO109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="23" t="s">
+      <c r="CP109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="23" t="s">
+      <c r="CQ109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="23" t="s">
+      <c r="CR109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="23" t="s">
+      <c r="CS109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT109" s="23" t="s">
+      <c r="CT109" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU109" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36207,22 +36260,24 @@
       <c r="CO111" s="14">
         <v>20.323727894312995</v>
       </c>
-      <c r="CP111" s="29">
+      <c r="CP111" s="14">
         <v>16.850181675098948</v>
       </c>
-      <c r="CQ111" s="29">
+      <c r="CQ111" s="14">
         <v>14.454166818080013</v>
       </c>
-      <c r="CR111" s="29">
+      <c r="CR111" s="14">
         <v>15.175317299168849</v>
       </c>
-      <c r="CS111" s="29">
+      <c r="CS111" s="14">
         <v>19.612706615543004</v>
       </c>
-      <c r="CT111" s="29">
-        <v>16.010175189488134</v>
-      </c>
-      <c r="CU111" s="9"/>
+      <c r="CT111" s="14">
+        <v>16.189769377833787</v>
+      </c>
+      <c r="CU111" s="14">
+        <v>13.781033869303212</v>
+      </c>
       <c r="CV111" s="9"/>
       <c r="CW111" s="9"/>
       <c r="CX111" s="9"/>
@@ -36558,22 +36613,24 @@
       <c r="CO112" s="14">
         <v>77.530866555993967</v>
       </c>
-      <c r="CP112" s="29">
+      <c r="CP112" s="14">
         <v>80.160188185449385</v>
       </c>
-      <c r="CQ112" s="29">
+      <c r="CQ112" s="14">
         <v>83.87823199083499</v>
       </c>
-      <c r="CR112" s="29">
+      <c r="CR112" s="14">
         <v>82.45446568607332</v>
       </c>
-      <c r="CS112" s="29">
+      <c r="CS112" s="14">
         <v>78.118722158752888</v>
       </c>
-      <c r="CT112" s="29">
-        <v>81.081477519362394</v>
-      </c>
-      <c r="CU112" s="9"/>
+      <c r="CT112" s="14">
+        <v>80.866154870878361</v>
+      </c>
+      <c r="CU112" s="14">
+        <v>84.509918586252638</v>
+      </c>
       <c r="CV112" s="9"/>
       <c r="CW112" s="9"/>
       <c r="CX112" s="9"/>
@@ -36909,22 +36966,24 @@
       <c r="CO113" s="14">
         <v>2.14540554969303</v>
       </c>
-      <c r="CP113" s="29">
+      <c r="CP113" s="14">
         <v>2.9896301394516538</v>
       </c>
-      <c r="CQ113" s="29">
+      <c r="CQ113" s="14">
         <v>1.6676011910850004</v>
       </c>
-      <c r="CR113" s="29">
+      <c r="CR113" s="14">
         <v>2.3702170147578205</v>
       </c>
-      <c r="CS113" s="29">
+      <c r="CS113" s="14">
         <v>2.2685712257041022</v>
       </c>
-      <c r="CT113" s="29">
-        <v>2.9083472911494836</v>
-      </c>
-      <c r="CU113" s="9"/>
+      <c r="CT113" s="14">
+        <v>2.9440757512878499</v>
+      </c>
+      <c r="CU113" s="14">
+        <v>1.7090475444441398</v>
+      </c>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
@@ -37073,11 +37132,11 @@
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
-      <c r="CP114" s="25"/>
-      <c r="CQ114" s="25"/>
-      <c r="CR114" s="25"/>
-      <c r="CS114" s="25"/>
-      <c r="CT114" s="25"/>
+      <c r="CP114" s="9"/>
+      <c r="CQ114" s="9"/>
+      <c r="CR114" s="9"/>
+      <c r="CS114" s="9"/>
+      <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
       <c r="CV114" s="9"/>
       <c r="CW114" s="9"/>
@@ -37414,22 +37473,24 @@
       <c r="CO115" s="14">
         <v>100</v>
       </c>
-      <c r="CP115" s="29">
+      <c r="CP115" s="14">
         <v>100</v>
       </c>
-      <c r="CQ115" s="29">
+      <c r="CQ115" s="14">
         <v>100</v>
       </c>
-      <c r="CR115" s="29">
+      <c r="CR115" s="14">
         <v>100</v>
       </c>
-      <c r="CS115" s="29">
+      <c r="CS115" s="14">
         <v>100</v>
       </c>
-      <c r="CT115" s="29">
+      <c r="CT115" s="14">
         <v>100</v>
       </c>
-      <c r="CU115" s="9"/>
+      <c r="CU115" s="14">
+        <v>100</v>
+      </c>
       <c r="CV115" s="9"/>
       <c r="CW115" s="9"/>
       <c r="CX115" s="9"/>
@@ -37579,11 +37640,12 @@
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
       <c r="CO116" s="12"/>
-      <c r="CP116" s="27"/>
-      <c r="CQ116" s="27"/>
-      <c r="CR116" s="27"/>
-      <c r="CS116" s="27"/>
-      <c r="CT116" s="27"/>
+      <c r="CP116" s="12"/>
+      <c r="CQ116" s="12"/>
+      <c r="CR116" s="12"/>
+      <c r="CS116" s="12"/>
+      <c r="CT116" s="12"/>
+      <c r="CU116" s="12"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37683,11 +37745,11 @@
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
-      <c r="CP118" s="25"/>
-      <c r="CQ118" s="25"/>
-      <c r="CR118" s="25"/>
-      <c r="CS118" s="25"/>
-      <c r="CT118" s="25"/>
+      <c r="CP118" s="9"/>
+      <c r="CQ118" s="9"/>
+      <c r="CR118" s="9"/>
+      <c r="CS118" s="9"/>
+      <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
@@ -37837,11 +37899,11 @@
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
-      <c r="CP119" s="25"/>
-      <c r="CQ119" s="25"/>
-      <c r="CR119" s="25"/>
-      <c r="CS119" s="25"/>
-      <c r="CT119" s="25"/>
+      <c r="CP119" s="9"/>
+      <c r="CQ119" s="9"/>
+      <c r="CR119" s="9"/>
+      <c r="CS119" s="9"/>
+      <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
@@ -37910,7 +37972,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -37920,7 +37982,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -37930,132 +37992,132 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="30">
+      <c r="B128" s="21">
         <v>2000</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="30">
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="21">
         <v>2001</v>
       </c>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="30">
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="21">
         <v>2002</v>
       </c>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="30">
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="21">
         <v>2003</v>
       </c>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="30">
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="21">
         <v>2004</v>
       </c>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="30">
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="21">
         <v>2005</v>
       </c>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="30">
+      <c r="W128" s="22"/>
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="21">
         <v>2006</v>
       </c>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="30">
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="21">
         <v>2007</v>
       </c>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="30">
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="21">
         <v>2008</v>
       </c>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="30">
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+      <c r="AL128" s="21">
         <v>2009</v>
       </c>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="30">
+      <c r="AM128" s="22"/>
+      <c r="AN128" s="22"/>
+      <c r="AO128" s="22"/>
+      <c r="AP128" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="30">
+      <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
+      <c r="AS128" s="22"/>
+      <c r="AT128" s="21">
         <v>2011</v>
       </c>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="30">
+      <c r="AU128" s="22"/>
+      <c r="AV128" s="22"/>
+      <c r="AW128" s="22"/>
+      <c r="AX128" s="21">
         <v>2012</v>
       </c>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="30">
+      <c r="AY128" s="22"/>
+      <c r="AZ128" s="22"/>
+      <c r="BA128" s="22"/>
+      <c r="BB128" s="21">
         <v>2013</v>
       </c>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="30">
+      <c r="BC128" s="22"/>
+      <c r="BD128" s="22"/>
+      <c r="BE128" s="22"/>
+      <c r="BF128" s="21">
         <v>2014</v>
       </c>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="30">
+      <c r="BG128" s="22"/>
+      <c r="BH128" s="22"/>
+      <c r="BI128" s="22"/>
+      <c r="BJ128" s="21">
         <v>2015</v>
       </c>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="30">
+      <c r="BK128" s="22"/>
+      <c r="BL128" s="22"/>
+      <c r="BM128" s="22"/>
+      <c r="BN128" s="21">
         <v>2016</v>
       </c>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="30">
+      <c r="BO128" s="22"/>
+      <c r="BP128" s="22"/>
+      <c r="BQ128" s="22"/>
+      <c r="BR128" s="21">
         <v>2017</v>
       </c>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="30">
+      <c r="BS128" s="22"/>
+      <c r="BT128" s="22"/>
+      <c r="BU128" s="22"/>
+      <c r="BV128" s="21">
         <v>2018</v>
       </c>
-      <c r="BW128" s="30"/>
-      <c r="BX128" s="30"/>
-      <c r="BY128" s="30"/>
-      <c r="BZ128" s="30">
+      <c r="BW128" s="21"/>
+      <c r="BX128" s="21"/>
+      <c r="BY128" s="21"/>
+      <c r="BZ128" s="21">
         <v>2019</v>
       </c>
-      <c r="CA128" s="30"/>
-      <c r="CB128" s="30"/>
-      <c r="CC128" s="30"/>
-      <c r="CD128" s="30">
+      <c r="CA128" s="21"/>
+      <c r="CB128" s="21"/>
+      <c r="CC128" s="21"/>
+      <c r="CD128" s="21">
         <v>2020</v>
       </c>
-      <c r="CE128" s="30"/>
-      <c r="CF128" s="30"/>
-      <c r="CG128" s="30"/>
+      <c r="CE128" s="21"/>
+      <c r="CF128" s="21"/>
+      <c r="CG128" s="21"/>
       <c r="CH128" s="19">
         <v>2021</v>
       </c>
@@ -38068,15 +38130,16 @@
       <c r="CM128" s="19"/>
       <c r="CN128" s="19"/>
       <c r="CO128" s="19"/>
-      <c r="CP128" s="22">
+      <c r="CP128" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="22"/>
-      <c r="CR128" s="22"/>
-      <c r="CS128" s="22"/>
-      <c r="CT128" s="22">
+      <c r="CQ128" s="19"/>
+      <c r="CR128" s="19"/>
+      <c r="CS128" s="19"/>
+      <c r="CT128" s="19">
         <v>2024</v>
       </c>
+      <c r="CU128" s="19"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38358,20 +38421,23 @@
       <c r="CO129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="23" t="s">
+      <c r="CP129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="23" t="s">
+      <c r="CQ129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="23" t="s">
+      <c r="CR129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="23" t="s">
+      <c r="CS129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT129" s="23" t="s">
+      <c r="CT129" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU129" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38657,22 +38723,24 @@
       <c r="CO131" s="14">
         <v>19.107412779942898</v>
       </c>
-      <c r="CP131" s="29">
+      <c r="CP131" s="14">
         <v>15.991383645548375</v>
       </c>
-      <c r="CQ131" s="29">
+      <c r="CQ131" s="14">
         <v>14.096194003656636</v>
       </c>
-      <c r="CR131" s="29">
+      <c r="CR131" s="14">
         <v>14.522882375343348</v>
       </c>
-      <c r="CS131" s="29">
+      <c r="CS131" s="14">
         <v>18.577168432115613</v>
       </c>
-      <c r="CT131" s="29">
-        <v>15.365835739060095</v>
-      </c>
-      <c r="CU131" s="9"/>
+      <c r="CT131" s="14">
+        <v>15.575030032566332</v>
+      </c>
+      <c r="CU131" s="14">
+        <v>13.870696103333326</v>
+      </c>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
@@ -39008,22 +39076,24 @@
       <c r="CO132" s="14">
         <v>78.552351839562888</v>
       </c>
-      <c r="CP132" s="29">
+      <c r="CP132" s="14">
         <v>80.845730070676098</v>
       </c>
-      <c r="CQ132" s="29">
+      <c r="CQ132" s="14">
         <v>84.066083238102493</v>
       </c>
-      <c r="CR132" s="29">
+      <c r="CR132" s="14">
         <v>82.823016541516608</v>
       </c>
-      <c r="CS132" s="29">
+      <c r="CS132" s="14">
         <v>78.877702316904802</v>
       </c>
-      <c r="CT132" s="29">
-        <v>81.475489075458611</v>
-      </c>
-      <c r="CU132" s="9"/>
+      <c r="CT132" s="14">
+        <v>81.228463055389867</v>
+      </c>
+      <c r="CU132" s="14">
+        <v>84.159274320124695</v>
+      </c>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
       <c r="CX132" s="9"/>
@@ -39359,22 +39429,24 @@
       <c r="CO133" s="14">
         <v>2.3402353804941955</v>
       </c>
-      <c r="CP133" s="29">
+      <c r="CP133" s="14">
         <v>3.1628862837755287</v>
       </c>
-      <c r="CQ133" s="29">
+      <c r="CQ133" s="14">
         <v>1.8377227582408646</v>
       </c>
-      <c r="CR133" s="29">
+      <c r="CR133" s="14">
         <v>2.6541010831400209</v>
       </c>
-      <c r="CS133" s="29">
+      <c r="CS133" s="14">
         <v>2.5451292509795937</v>
       </c>
-      <c r="CT133" s="29">
-        <v>3.1586751854812793</v>
-      </c>
-      <c r="CU133" s="9"/>
+      <c r="CT133" s="14">
+        <v>3.1965069120438101</v>
+      </c>
+      <c r="CU133" s="14">
+        <v>1.9700295765419671</v>
+      </c>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
@@ -39523,11 +39595,11 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="25"/>
-      <c r="CQ134" s="25"/>
-      <c r="CR134" s="25"/>
-      <c r="CS134" s="25"/>
-      <c r="CT134" s="25"/>
+      <c r="CP134" s="9"/>
+      <c r="CQ134" s="9"/>
+      <c r="CR134" s="9"/>
+      <c r="CS134" s="9"/>
+      <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
       <c r="CV134" s="9"/>
       <c r="CW134" s="9"/>
@@ -39864,22 +39936,24 @@
       <c r="CO135" s="14">
         <v>100</v>
       </c>
-      <c r="CP135" s="29">
+      <c r="CP135" s="14">
         <v>100</v>
       </c>
-      <c r="CQ135" s="29">
+      <c r="CQ135" s="14">
         <v>100</v>
       </c>
-      <c r="CR135" s="29">
+      <c r="CR135" s="14">
         <v>100</v>
       </c>
-      <c r="CS135" s="29">
+      <c r="CS135" s="14">
         <v>100</v>
       </c>
-      <c r="CT135" s="29">
+      <c r="CT135" s="14">
         <v>100</v>
       </c>
-      <c r="CU135" s="9"/>
+      <c r="CU135" s="14">
+        <v>100</v>
+      </c>
       <c r="CV135" s="9"/>
       <c r="CW135" s="9"/>
       <c r="CX135" s="9"/>
@@ -40029,11 +40103,12 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="27"/>
-      <c r="CQ136" s="27"/>
-      <c r="CR136" s="27"/>
-      <c r="CS136" s="27"/>
-      <c r="CT136" s="27"/>
+      <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
+      <c r="CR136" s="12"/>
+      <c r="CS136" s="12"/>
+      <c r="CT136" s="12"/>
+      <c r="CU136" s="12"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40134,12 +40209,12 @@
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
-      <c r="CP138" s="21"/>
-      <c r="CQ138" s="21"/>
-      <c r="CR138" s="21"/>
-      <c r="CS138" s="21"/>
-      <c r="CT138" s="21"/>
-      <c r="CU138" s="15"/>
+      <c r="CP138" s="1"/>
+      <c r="CQ138" s="1"/>
+      <c r="CR138" s="1"/>
+      <c r="CS138" s="1"/>
+      <c r="CT138" s="1"/>
+      <c r="CU138" s="1"/>
       <c r="CV138" s="15"/>
       <c r="CW138" s="15"/>
       <c r="CX138" s="15"/>
@@ -40289,12 +40364,12 @@
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
-      <c r="CP139" s="21"/>
-      <c r="CQ139" s="21"/>
-      <c r="CR139" s="21"/>
-      <c r="CS139" s="21"/>
-      <c r="CT139" s="21"/>
-      <c r="CU139" s="15"/>
+      <c r="CP139" s="1"/>
+      <c r="CQ139" s="1"/>
+      <c r="CR139" s="1"/>
+      <c r="CS139" s="1"/>
+      <c r="CT139" s="1"/>
+      <c r="CU139" s="1"/>
       <c r="CV139" s="15"/>
       <c r="CW139" s="15"/>
       <c r="CX139" s="15"/>
@@ -40352,6 +40427,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
@@ -40376,129 +40574,6 @@
     <mergeCell ref="AL69:AO69"/>
     <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570D692-D08C-4BB9-B2E8-6FE5F5ED48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCE116-4F66-4D82-86F8-5CEB8BC765FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CT$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CV$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,9 +747,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23622,7 +23637,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO1" sqref="CO1:CU1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23631,8 +23646,9 @@
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
     <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="99" width="10.77734375" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="93" max="93" width="10.77734375" style="1" customWidth="1"/>
+    <col min="94" max="100" width="10.109375" style="21" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23667,132 +23683,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23805,16 +23821,17 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="19"/>
-      <c r="CT9" s="19">
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
         <v>2024</v>
       </c>
-      <c r="CU9" s="19"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24096,23 +24113,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24398,25 +24418,27 @@
       <c r="CO12" s="17">
         <v>241872.07257785328</v>
       </c>
-      <c r="CP12" s="17">
+      <c r="CP12" s="24">
         <v>150250.70697449305</v>
       </c>
-      <c r="CQ12" s="17">
+      <c r="CQ12" s="24">
         <v>147748.40722495565</v>
       </c>
-      <c r="CR12" s="17">
+      <c r="CR12" s="24">
         <v>183900.22750240038</v>
       </c>
-      <c r="CS12" s="17">
+      <c r="CS12" s="24">
         <v>258557.47435867222</v>
       </c>
-      <c r="CT12" s="17">
+      <c r="CT12" s="24">
         <v>160718.07541940114</v>
       </c>
-      <c r="CU12" s="17">
-        <v>157658.85087337985</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="24">
+        <v>158261.05486827125</v>
+      </c>
+      <c r="CV12" s="24">
+        <v>198172.36451517811</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24751,25 +24773,27 @@
       <c r="CO13" s="17">
         <v>922692.50406086107</v>
       </c>
-      <c r="CP13" s="17">
+      <c r="CP13" s="24">
         <v>714777.15660899249</v>
       </c>
-      <c r="CQ13" s="17">
+      <c r="CQ13" s="24">
         <v>857391.18231218599</v>
       </c>
-      <c r="CR13" s="17">
+      <c r="CR13" s="24">
         <v>999214.36233087827</v>
       </c>
-      <c r="CS13" s="17">
+      <c r="CS13" s="24">
         <v>1029851.7128424793</v>
       </c>
-      <c r="CT13" s="17">
+      <c r="CT13" s="24">
         <v>802769.48201678286</v>
       </c>
-      <c r="CU13" s="17">
-        <v>966816.91504943278</v>
-      </c>
-      <c r="CV13" s="9"/>
+      <c r="CU13" s="24">
+        <v>965968.88898940699</v>
+      </c>
+      <c r="CV13" s="24">
+        <v>1086790.9044482345</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25104,25 +25128,27 @@
       <c r="CO14" s="17">
         <v>25532.406727876172</v>
       </c>
-      <c r="CP14" s="17">
+      <c r="CP14" s="24">
         <v>26658.112696118777</v>
       </c>
-      <c r="CQ14" s="17">
+      <c r="CQ14" s="24">
         <v>17045.978711208467</v>
       </c>
-      <c r="CR14" s="17">
+      <c r="CR14" s="24">
         <v>28723.185133525789</v>
       </c>
-      <c r="CS14" s="17">
+      <c r="CS14" s="24">
         <v>29906.940333057668</v>
       </c>
-      <c r="CT14" s="17">
+      <c r="CT14" s="24">
         <v>29226.246377773976</v>
       </c>
-      <c r="CU14" s="17">
-        <v>19551.978066407457</v>
-      </c>
-      <c r="CV14" s="9"/>
+      <c r="CU14" s="24">
+        <v>19520.889694940019</v>
+      </c>
+      <c r="CV14" s="24">
+        <v>30547.196257946191</v>
+      </c>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25270,13 +25296,13 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
-      <c r="CU15" s="9"/>
-      <c r="CV15" s="9"/>
+      <c r="CP15" s="25"/>
+      <c r="CQ15" s="25"/>
+      <c r="CR15" s="25"/>
+      <c r="CS15" s="25"/>
+      <c r="CT15" s="25"/>
+      <c r="CU15" s="25"/>
+      <c r="CV15" s="25"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25611,25 +25637,27 @@
       <c r="CO16" s="18">
         <v>1190096.9833665907</v>
       </c>
-      <c r="CP16" s="18">
+      <c r="CP16" s="26">
         <v>891685.97627960437</v>
       </c>
-      <c r="CQ16" s="18">
+      <c r="CQ16" s="26">
         <v>1022185.5682483501</v>
       </c>
-      <c r="CR16" s="18">
+      <c r="CR16" s="26">
         <v>1211837.7749668045</v>
       </c>
-      <c r="CS16" s="18">
+      <c r="CS16" s="26">
         <v>1318316.1275342093</v>
       </c>
-      <c r="CT16" s="18">
+      <c r="CT16" s="26">
         <v>992713.80381395796</v>
       </c>
-      <c r="CU16" s="18">
-        <v>1144027.7439892201</v>
-      </c>
-      <c r="CV16" s="9"/>
+      <c r="CU16" s="26">
+        <v>1143750.8335526183</v>
+      </c>
+      <c r="CV16" s="26">
+        <v>1315510.4652213587</v>
+      </c>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
@@ -25778,12 +25806,13 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
-      <c r="CT17" s="12"/>
-      <c r="CU17" s="12"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="27"/>
+      <c r="CT17" s="27"/>
+      <c r="CU17" s="27"/>
+      <c r="CV17" s="27"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25883,13 +25912,13 @@
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
-      <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
-      <c r="CR19" s="9"/>
-      <c r="CS19" s="9"/>
-      <c r="CT19" s="9"/>
-      <c r="CU19" s="9"/>
-      <c r="CV19" s="9"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
+      <c r="CU19" s="25"/>
+      <c r="CV19" s="25"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
@@ -26037,13 +26066,13 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
+      <c r="CP20" s="25"/>
+      <c r="CQ20" s="25"/>
+      <c r="CR20" s="25"/>
+      <c r="CS20" s="25"/>
+      <c r="CT20" s="25"/>
+      <c r="CU20" s="25"/>
+      <c r="CV20" s="25"/>
       <c r="CW20" s="9"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
@@ -26130,132 +26159,132 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="21">
+      <c r="B29" s="30">
         <v>2000</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30">
         <v>2001</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21">
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="30">
         <v>2002</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="21">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="30">
         <v>2003</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="21">
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="30">
         <v>2004</v>
       </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="21">
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="30">
         <v>2005</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="21">
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="30">
         <v>2006</v>
       </c>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="21">
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="30">
         <v>2007</v>
       </c>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="21">
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="30">
         <v>2008</v>
       </c>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="21">
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="30">
         <v>2009</v>
       </c>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="21">
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="21">
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="30">
         <v>2011</v>
       </c>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="21">
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="30">
         <v>2012</v>
       </c>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="21">
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="30">
         <v>2013</v>
       </c>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
-      <c r="BE29" s="22"/>
-      <c r="BF29" s="21">
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="30">
         <v>2014</v>
       </c>
-      <c r="BG29" s="22"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="22"/>
-      <c r="BJ29" s="21">
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="30">
         <v>2015</v>
       </c>
-      <c r="BK29" s="22"/>
-      <c r="BL29" s="22"/>
-      <c r="BM29" s="22"/>
-      <c r="BN29" s="21">
+      <c r="BK29" s="31"/>
+      <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BN29" s="30">
         <v>2016</v>
       </c>
-      <c r="BO29" s="22"/>
-      <c r="BP29" s="22"/>
-      <c r="BQ29" s="22"/>
-      <c r="BR29" s="21">
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="30">
         <v>2017</v>
       </c>
-      <c r="BS29" s="22"/>
-      <c r="BT29" s="22"/>
-      <c r="BU29" s="22"/>
-      <c r="BV29" s="21">
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="31"/>
+      <c r="BU29" s="31"/>
+      <c r="BV29" s="30">
         <v>2018</v>
       </c>
-      <c r="BW29" s="21"/>
-      <c r="BX29" s="21"/>
-      <c r="BY29" s="21"/>
-      <c r="BZ29" s="21">
+      <c r="BW29" s="30"/>
+      <c r="BX29" s="30"/>
+      <c r="BY29" s="30"/>
+      <c r="BZ29" s="30">
         <v>2019</v>
       </c>
-      <c r="CA29" s="21"/>
-      <c r="CB29" s="21"/>
-      <c r="CC29" s="21"/>
-      <c r="CD29" s="21">
+      <c r="CA29" s="30"/>
+      <c r="CB29" s="30"/>
+      <c r="CC29" s="30"/>
+      <c r="CD29" s="30">
         <v>2020</v>
       </c>
-      <c r="CE29" s="21"/>
-      <c r="CF29" s="21"/>
-      <c r="CG29" s="21"/>
+      <c r="CE29" s="30"/>
+      <c r="CF29" s="30"/>
+      <c r="CG29" s="30"/>
       <c r="CH29" s="19">
         <v>2021</v>
       </c>
@@ -26268,16 +26297,17 @@
       <c r="CM29" s="19"/>
       <c r="CN29" s="19"/>
       <c r="CO29" s="19"/>
-      <c r="CP29" s="19">
+      <c r="CP29" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="19"/>
-      <c r="CR29" s="19"/>
-      <c r="CS29" s="19"/>
-      <c r="CT29" s="19">
+      <c r="CQ29" s="22"/>
+      <c r="CR29" s="22"/>
+      <c r="CS29" s="22"/>
+      <c r="CT29" s="22">
         <v>2024</v>
       </c>
-      <c r="CU29" s="19"/>
+      <c r="CU29" s="22"/>
+      <c r="CV29" s="22"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26559,23 +26589,26 @@
       <c r="CO30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="6" t="s">
+      <c r="CP30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="6" t="s">
+      <c r="CQ30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="6" t="s">
+      <c r="CR30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="6" t="s">
+      <c r="CS30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT30" s="6" t="s">
+      <c r="CT30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU30" s="6" t="s">
+      <c r="CU30" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV30" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26861,25 +26894,27 @@
       <c r="CO32" s="17">
         <v>207309.0126037194</v>
       </c>
-      <c r="CP32" s="17">
+      <c r="CP32" s="24">
         <v>127819.28252921287</v>
       </c>
-      <c r="CQ32" s="17">
+      <c r="CQ32" s="24">
         <v>127533.84187690236</v>
       </c>
-      <c r="CR32" s="17">
+      <c r="CR32" s="24">
         <v>155051.27832542319</v>
       </c>
-      <c r="CS32" s="17">
+      <c r="CS32" s="24">
         <v>212103.88903438437</v>
       </c>
-      <c r="CT32" s="17">
+      <c r="CT32" s="24">
         <v>132681.50840872602</v>
       </c>
-      <c r="CU32" s="17">
-        <v>132804.57755484717</v>
-      </c>
-      <c r="CV32" s="9"/>
+      <c r="CU32" s="24">
+        <v>133084.7642254697</v>
+      </c>
+      <c r="CV32" s="24">
+        <v>164512.48495609988</v>
+      </c>
       <c r="CW32" s="9"/>
       <c r="CX32" s="9"/>
       <c r="CY32" s="9"/>
@@ -27214,25 +27249,27 @@
       <c r="CO33" s="17">
         <v>852266.64044510224</v>
       </c>
-      <c r="CP33" s="17">
+      <c r="CP33" s="24">
         <v>646200.69421327859</v>
       </c>
-      <c r="CQ33" s="17">
+      <c r="CQ33" s="24">
         <v>760579.10128915042</v>
       </c>
-      <c r="CR33" s="17">
+      <c r="CR33" s="24">
         <v>884246.95991013397</v>
       </c>
-      <c r="CS33" s="17">
+      <c r="CS33" s="24">
         <v>900582.21093529137</v>
       </c>
-      <c r="CT33" s="17">
+      <c r="CT33" s="24">
         <v>691973.94684803486</v>
       </c>
-      <c r="CU33" s="17">
-        <v>805780.53113864467</v>
-      </c>
-      <c r="CV33" s="9"/>
+      <c r="CU33" s="24">
+        <v>805147.15897834604</v>
+      </c>
+      <c r="CV33" s="24">
+        <v>929012.4647344026</v>
+      </c>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
@@ -27567,25 +27604,27 @@
       <c r="CO34" s="17">
         <v>25390.768053109023</v>
       </c>
-      <c r="CP34" s="17">
+      <c r="CP34" s="24">
         <v>25280.980337571847</v>
       </c>
-      <c r="CQ34" s="17">
+      <c r="CQ34" s="24">
         <v>16626.604571579948</v>
       </c>
-      <c r="CR34" s="17">
+      <c r="CR34" s="24">
         <v>28336.094386085762</v>
       </c>
-      <c r="CS34" s="17">
+      <c r="CS34" s="24">
         <v>29058.885599308971</v>
       </c>
-      <c r="CT34" s="17">
+      <c r="CT34" s="24">
         <v>27230.596528038215</v>
       </c>
-      <c r="CU34" s="17">
-        <v>18861.991044583352</v>
-      </c>
-      <c r="CV34" s="9"/>
+      <c r="CU34" s="24">
+        <v>18830.30674248108</v>
+      </c>
+      <c r="CV34" s="24">
+        <v>29853.089198700683</v>
+      </c>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
@@ -27733,13 +27772,13 @@
       <c r="CM35" s="18"/>
       <c r="CN35" s="18"/>
       <c r="CO35" s="18"/>
-      <c r="CP35" s="18"/>
-      <c r="CQ35" s="18"/>
-      <c r="CR35" s="18"/>
-      <c r="CS35" s="18"/>
-      <c r="CT35" s="18"/>
-      <c r="CU35" s="18"/>
-      <c r="CV35" s="9"/>
+      <c r="CP35" s="26"/>
+      <c r="CQ35" s="26"/>
+      <c r="CR35" s="26"/>
+      <c r="CS35" s="26"/>
+      <c r="CT35" s="26"/>
+      <c r="CU35" s="26"/>
+      <c r="CV35" s="26"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
@@ -28074,25 +28113,27 @@
       <c r="CO36" s="18">
         <v>1084966.4211019308</v>
       </c>
-      <c r="CP36" s="18">
+      <c r="CP36" s="26">
         <v>799300.95708006329</v>
       </c>
-      <c r="CQ36" s="18">
+      <c r="CQ36" s="26">
         <v>904739.54773763276</v>
       </c>
-      <c r="CR36" s="18">
+      <c r="CR36" s="26">
         <v>1067634.3326216431</v>
       </c>
-      <c r="CS36" s="18">
+      <c r="CS36" s="26">
         <v>1141744.9855689846</v>
       </c>
-      <c r="CT36" s="18">
+      <c r="CT36" s="26">
         <v>851886.05178479908</v>
       </c>
-      <c r="CU36" s="18">
-        <v>957447.09973807528</v>
-      </c>
-      <c r="CV36" s="9"/>
+      <c r="CU36" s="26">
+        <v>957062.22994629678</v>
+      </c>
+      <c r="CV36" s="26">
+        <v>1123378.0388892032</v>
+      </c>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
@@ -28241,12 +28282,13 @@
       <c r="CM37" s="12"/>
       <c r="CN37" s="12"/>
       <c r="CO37" s="12"/>
-      <c r="CP37" s="12"/>
-      <c r="CQ37" s="12"/>
-      <c r="CR37" s="12"/>
-      <c r="CS37" s="12"/>
-      <c r="CT37" s="12"/>
-      <c r="CU37" s="12"/>
+      <c r="CP37" s="27"/>
+      <c r="CQ37" s="27"/>
+      <c r="CR37" s="27"/>
+      <c r="CS37" s="27"/>
+      <c r="CT37" s="27"/>
+      <c r="CU37" s="27"/>
+      <c r="CV37" s="27"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28346,13 +28388,13 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
-      <c r="CS39" s="9"/>
-      <c r="CT39" s="9"/>
-      <c r="CU39" s="9"/>
-      <c r="CV39" s="9"/>
+      <c r="CP39" s="25"/>
+      <c r="CQ39" s="25"/>
+      <c r="CR39" s="25"/>
+      <c r="CS39" s="25"/>
+      <c r="CT39" s="25"/>
+      <c r="CU39" s="25"/>
+      <c r="CV39" s="25"/>
       <c r="CW39" s="9"/>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
@@ -28500,13 +28542,13 @@
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
-      <c r="CP40" s="9"/>
-      <c r="CQ40" s="9"/>
-      <c r="CR40" s="9"/>
-      <c r="CS40" s="9"/>
-      <c r="CT40" s="9"/>
-      <c r="CU40" s="9"/>
-      <c r="CV40" s="9"/>
+      <c r="CP40" s="25"/>
+      <c r="CQ40" s="25"/>
+      <c r="CR40" s="25"/>
+      <c r="CS40" s="25"/>
+      <c r="CT40" s="25"/>
+      <c r="CU40" s="25"/>
+      <c r="CV40" s="25"/>
       <c r="CW40" s="9"/>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
@@ -28593,132 +28635,132 @@
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21" t="s">
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21" t="s">
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21" t="s">
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21" t="s">
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21" t="s">
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21" t="s">
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21" t="s">
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21" t="s">
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21" t="s">
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21" t="s">
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21" t="s">
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21" t="s">
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="30"/>
+      <c r="BB49" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="21"/>
-      <c r="BF49" s="21" t="s">
+      <c r="BC49" s="30"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="30"/>
+      <c r="BF49" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="21"/>
-      <c r="BH49" s="21"/>
-      <c r="BI49" s="21"/>
-      <c r="BJ49" s="21" t="s">
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="21"/>
-      <c r="BL49" s="21"/>
-      <c r="BM49" s="21"/>
-      <c r="BN49" s="21" t="s">
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+      <c r="BM49" s="30"/>
+      <c r="BN49" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="21"/>
-      <c r="BP49" s="21"/>
-      <c r="BQ49" s="21"/>
-      <c r="BR49" s="21" t="s">
+      <c r="BO49" s="30"/>
+      <c r="BP49" s="30"/>
+      <c r="BQ49" s="30"/>
+      <c r="BR49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="21"/>
-      <c r="BT49" s="21"/>
-      <c r="BU49" s="21"/>
-      <c r="BV49" s="21" t="s">
+      <c r="BS49" s="30"/>
+      <c r="BT49" s="30"/>
+      <c r="BU49" s="30"/>
+      <c r="BV49" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="21"/>
-      <c r="BX49" s="21"/>
-      <c r="BY49" s="21"/>
-      <c r="BZ49" s="21" t="s">
+      <c r="BW49" s="30"/>
+      <c r="BX49" s="30"/>
+      <c r="BY49" s="30"/>
+      <c r="BZ49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="21"/>
-      <c r="CB49" s="21"/>
-      <c r="CC49" s="21"/>
-      <c r="CD49" s="21" t="s">
+      <c r="CA49" s="30"/>
+      <c r="CB49" s="30"/>
+      <c r="CC49" s="30"/>
+      <c r="CD49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="21"/>
-      <c r="CF49" s="21"/>
-      <c r="CG49" s="21"/>
+      <c r="CE49" s="30"/>
+      <c r="CF49" s="30"/>
+      <c r="CG49" s="30"/>
       <c r="CH49" s="19" t="s">
         <v>48</v>
       </c>
@@ -28731,14 +28773,15 @@
       <c r="CM49" s="19"/>
       <c r="CN49" s="19"/>
       <c r="CO49" s="19"/>
-      <c r="CP49" s="19" t="s">
+      <c r="CP49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CQ49" s="19"/>
-      <c r="CR49" s="20"/>
+      <c r="CQ49" s="22"/>
+      <c r="CR49" s="22"/>
       <c r="CS49" s="20"/>
-      <c r="CT49" s="19"/>
-      <c r="CU49" s="20"/>
+      <c r="CT49" s="22"/>
+      <c r="CU49" s="22"/>
+      <c r="CV49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29020,16 +29063,19 @@
       <c r="CO50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="5" t="s">
+      <c r="CP50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CQ50" s="5" t="s">
+      <c r="CQ50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CR50" s="5"/>
-      <c r="CS50" s="5"/>
-      <c r="CT50" s="5"/>
-      <c r="CU50" s="5"/>
+      <c r="CR50" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS50" s="28"/>
+      <c r="CT50" s="28"/>
+      <c r="CU50" s="28"/>
+      <c r="CV50" s="28"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -29314,17 +29360,19 @@
       <c r="CO52" s="14">
         <v>6.8984408174896998</v>
       </c>
-      <c r="CP52" s="14">
+      <c r="CP52" s="29">
         <v>6.9666017922198904</v>
       </c>
-      <c r="CQ52" s="14">
-        <v>6.7076483831971103</v>
-      </c>
-      <c r="CR52" s="14"/>
-      <c r="CS52" s="14"/>
-      <c r="CT52" s="14"/>
-      <c r="CU52" s="14"/>
-      <c r="CV52" s="9"/>
+      <c r="CQ52" s="29">
+        <v>7.1152358531415274</v>
+      </c>
+      <c r="CR52" s="29">
+        <v>7.7608044354330303</v>
+      </c>
+      <c r="CS52" s="29"/>
+      <c r="CT52" s="29"/>
+      <c r="CU52" s="29"/>
+      <c r="CV52" s="29"/>
       <c r="CW52" s="9"/>
       <c r="CX52" s="9"/>
       <c r="CY52" s="9"/>
@@ -29655,17 +29703,19 @@
       <c r="CO53" s="14">
         <v>11.613750876917265</v>
       </c>
-      <c r="CP53" s="14">
+      <c r="CP53" s="29">
         <v>12.310455726542642</v>
       </c>
-      <c r="CQ53" s="14">
-        <v>12.762637987732845</v>
-      </c>
-      <c r="CR53" s="14"/>
-      <c r="CS53" s="14"/>
-      <c r="CT53" s="14"/>
-      <c r="CU53" s="14"/>
-      <c r="CV53" s="9"/>
+      <c r="CQ53" s="29">
+        <v>12.663730268885203</v>
+      </c>
+      <c r="CR53" s="29">
+        <v>8.764539964484257</v>
+      </c>
+      <c r="CS53" s="29"/>
+      <c r="CT53" s="29"/>
+      <c r="CU53" s="29"/>
+      <c r="CV53" s="29"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="9"/>
       <c r="CY53" s="9"/>
@@ -29996,17 +30046,19 @@
       <c r="CO54" s="14">
         <v>17.13325990692995</v>
       </c>
-      <c r="CP54" s="14">
+      <c r="CP54" s="29">
         <v>9.6335915108840311</v>
       </c>
-      <c r="CQ54" s="14">
-        <v>14.701410799904295</v>
-      </c>
-      <c r="CR54" s="14"/>
-      <c r="CS54" s="14"/>
-      <c r="CT54" s="14"/>
-      <c r="CU54" s="14"/>
-      <c r="CV54" s="9"/>
+      <c r="CQ54" s="29">
+        <v>14.519031295657967</v>
+      </c>
+      <c r="CR54" s="29">
+        <v>6.3503093961936941</v>
+      </c>
+      <c r="CS54" s="29"/>
+      <c r="CT54" s="29"/>
+      <c r="CU54" s="29"/>
+      <c r="CV54" s="29"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
@@ -30150,13 +30202,13 @@
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
-      <c r="CP55" s="9"/>
-      <c r="CQ55" s="9"/>
-      <c r="CR55" s="9"/>
-      <c r="CS55" s="9"/>
-      <c r="CT55" s="9"/>
-      <c r="CU55" s="9"/>
-      <c r="CV55" s="9"/>
+      <c r="CP55" s="25"/>
+      <c r="CQ55" s="25"/>
+      <c r="CR55" s="25"/>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
+      <c r="CU55" s="25"/>
+      <c r="CV55" s="25"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
@@ -30487,17 +30539,19 @@
       <c r="CO56" s="14">
         <v>10.773839944111742</v>
       </c>
-      <c r="CP56" s="14">
+      <c r="CP56" s="29">
         <v>11.329978290773795</v>
       </c>
-      <c r="CQ56" s="14">
-        <v>11.919770687984041</v>
-      </c>
-      <c r="CR56" s="14"/>
-      <c r="CS56" s="14"/>
-      <c r="CT56" s="14"/>
-      <c r="CU56" s="14"/>
-      <c r="CV56" s="9"/>
+      <c r="CQ56" s="29">
+        <v>11.89268065216244</v>
+      </c>
+      <c r="CR56" s="29">
+        <v>8.5549974094011105</v>
+      </c>
+      <c r="CS56" s="29"/>
+      <c r="CT56" s="29"/>
+      <c r="CU56" s="29"/>
+      <c r="CV56" s="29"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
@@ -30642,12 +30696,13 @@
       <c r="CM57" s="12"/>
       <c r="CN57" s="12"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="12"/>
-      <c r="CQ57" s="12"/>
-      <c r="CR57" s="12"/>
-      <c r="CS57" s="12"/>
-      <c r="CT57" s="12"/>
-      <c r="CU57" s="12"/>
+      <c r="CP57" s="27"/>
+      <c r="CQ57" s="27"/>
+      <c r="CR57" s="27"/>
+      <c r="CS57" s="27"/>
+      <c r="CT57" s="27"/>
+      <c r="CU57" s="27"/>
+      <c r="CV57" s="27"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -30747,13 +30802,13 @@
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
-      <c r="CP59" s="9"/>
-      <c r="CQ59" s="9"/>
-      <c r="CR59" s="9"/>
-      <c r="CS59" s="9"/>
-      <c r="CT59" s="9"/>
-      <c r="CU59" s="9"/>
-      <c r="CV59" s="9"/>
+      <c r="CP59" s="25"/>
+      <c r="CQ59" s="25"/>
+      <c r="CR59" s="25"/>
+      <c r="CS59" s="25"/>
+      <c r="CT59" s="25"/>
+      <c r="CU59" s="25"/>
+      <c r="CV59" s="25"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
@@ -30897,13 +30952,13 @@
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
-      <c r="CP60" s="9"/>
-      <c r="CQ60" s="9"/>
-      <c r="CR60" s="9"/>
-      <c r="CS60" s="9"/>
-      <c r="CT60" s="9"/>
-      <c r="CU60" s="9"/>
-      <c r="CV60" s="9"/>
+      <c r="CP60" s="25"/>
+      <c r="CQ60" s="25"/>
+      <c r="CR60" s="25"/>
+      <c r="CS60" s="25"/>
+      <c r="CT60" s="25"/>
+      <c r="CU60" s="25"/>
+      <c r="CV60" s="25"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
@@ -30986,132 +31041,132 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="21" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="21" t="s">
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="21" t="s">
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="21" t="s">
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="21" t="s">
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="21" t="s">
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="21" t="s">
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="32"/>
+      <c r="AC69" s="32"/>
+      <c r="AD69" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="21" t="s">
+      <c r="AE69" s="32"/>
+      <c r="AF69" s="32"/>
+      <c r="AG69" s="32"/>
+      <c r="AH69" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="21" t="s">
+      <c r="AI69" s="32"/>
+      <c r="AJ69" s="32"/>
+      <c r="AK69" s="32"/>
+      <c r="AL69" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="21" t="s">
+      <c r="AM69" s="32"/>
+      <c r="AN69" s="32"/>
+      <c r="AO69" s="32"/>
+      <c r="AP69" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="21" t="s">
+      <c r="AQ69" s="32"/>
+      <c r="AR69" s="32"/>
+      <c r="AS69" s="32"/>
+      <c r="AT69" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="21" t="s">
+      <c r="AU69" s="32"/>
+      <c r="AV69" s="32"/>
+      <c r="AW69" s="32"/>
+      <c r="AX69" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="21" t="s">
+      <c r="AY69" s="32"/>
+      <c r="AZ69" s="32"/>
+      <c r="BA69" s="32"/>
+      <c r="BB69" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="21" t="s">
+      <c r="BC69" s="32"/>
+      <c r="BD69" s="32"/>
+      <c r="BE69" s="32"/>
+      <c r="BF69" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="21" t="s">
+      <c r="BG69" s="32"/>
+      <c r="BH69" s="32"/>
+      <c r="BI69" s="32"/>
+      <c r="BJ69" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="23"/>
-      <c r="BM69" s="23"/>
-      <c r="BN69" s="21" t="s">
+      <c r="BK69" s="32"/>
+      <c r="BL69" s="32"/>
+      <c r="BM69" s="32"/>
+      <c r="BN69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="23"/>
-      <c r="BP69" s="23"/>
-      <c r="BQ69" s="23"/>
-      <c r="BR69" s="21" t="s">
+      <c r="BO69" s="32"/>
+      <c r="BP69" s="32"/>
+      <c r="BQ69" s="32"/>
+      <c r="BR69" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="23"/>
-      <c r="BT69" s="23"/>
-      <c r="BU69" s="23"/>
-      <c r="BV69" s="21" t="s">
+      <c r="BS69" s="32"/>
+      <c r="BT69" s="32"/>
+      <c r="BU69" s="32"/>
+      <c r="BV69" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="21"/>
-      <c r="BX69" s="21"/>
-      <c r="BY69" s="21"/>
-      <c r="BZ69" s="21" t="s">
+      <c r="BW69" s="30"/>
+      <c r="BX69" s="30"/>
+      <c r="BY69" s="30"/>
+      <c r="BZ69" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="21"/>
-      <c r="CB69" s="21"/>
-      <c r="CC69" s="21"/>
-      <c r="CD69" s="21" t="s">
+      <c r="CA69" s="30"/>
+      <c r="CB69" s="30"/>
+      <c r="CC69" s="30"/>
+      <c r="CD69" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="21"/>
-      <c r="CF69" s="21"/>
-      <c r="CG69" s="21"/>
+      <c r="CE69" s="30"/>
+      <c r="CF69" s="30"/>
+      <c r="CG69" s="30"/>
       <c r="CH69" s="19" t="s">
         <v>48</v>
       </c>
@@ -31124,14 +31179,15 @@
       <c r="CM69" s="19"/>
       <c r="CN69" s="19"/>
       <c r="CO69" s="19"/>
-      <c r="CP69" s="19" t="s">
+      <c r="CP69" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CQ69" s="19"/>
-      <c r="CR69" s="20"/>
+      <c r="CQ69" s="22"/>
+      <c r="CR69" s="22"/>
       <c r="CS69" s="20"/>
-      <c r="CT69" s="19"/>
-      <c r="CU69" s="20"/>
+      <c r="CT69" s="22"/>
+      <c r="CU69" s="22"/>
+      <c r="CV69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31413,16 +31469,19 @@
       <c r="CO70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="5" t="s">
+      <c r="CP70" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CQ70" s="5" t="s">
+      <c r="CQ70" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CR70" s="5"/>
-      <c r="CS70" s="5"/>
-      <c r="CT70" s="5"/>
-      <c r="CU70" s="5"/>
+      <c r="CR70" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS70" s="28"/>
+      <c r="CT70" s="28"/>
+      <c r="CU70" s="28"/>
+      <c r="CV70" s="28"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -31707,17 +31766,19 @@
       <c r="CO72" s="14">
         <v>2.3129126758374809</v>
       </c>
-      <c r="CP72" s="14">
+      <c r="CP72" s="29">
         <v>3.8039846440241831</v>
       </c>
-      <c r="CQ72" s="14">
-        <v>4.1328133775129459</v>
-      </c>
-      <c r="CR72" s="14"/>
-      <c r="CS72" s="14"/>
-      <c r="CT72" s="14"/>
-      <c r="CU72" s="14"/>
-      <c r="CV72" s="9"/>
+      <c r="CQ72" s="29">
+        <v>4.3525093158608001</v>
+      </c>
+      <c r="CR72" s="29">
+        <v>6.101985570747388</v>
+      </c>
+      <c r="CS72" s="29"/>
+      <c r="CT72" s="29"/>
+      <c r="CU72" s="29"/>
+      <c r="CV72" s="29"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
@@ -32048,17 +32109,19 @@
       <c r="CO73" s="14">
         <v>5.6690674253020177</v>
       </c>
-      <c r="CP73" s="14">
+      <c r="CP73" s="29">
         <v>7.0834421944537098</v>
       </c>
-      <c r="CQ73" s="14">
-        <v>5.9430281180326432</v>
-      </c>
-      <c r="CR73" s="14"/>
-      <c r="CS73" s="14"/>
-      <c r="CT73" s="14"/>
-      <c r="CU73" s="14"/>
-      <c r="CV73" s="9"/>
+      <c r="CQ73" s="29">
+        <v>5.8597531293792571</v>
+      </c>
+      <c r="CR73" s="29">
+        <v>5.0625568256200921</v>
+      </c>
+      <c r="CS73" s="29"/>
+      <c r="CT73" s="29"/>
+      <c r="CU73" s="29"/>
+      <c r="CV73" s="29"/>
       <c r="CW73" s="9"/>
       <c r="CX73" s="9"/>
       <c r="CY73" s="9"/>
@@ -32389,17 +32452,19 @@
       <c r="CO74" s="14">
         <v>14.446658480466084</v>
       </c>
-      <c r="CP74" s="14">
+      <c r="CP74" s="29">
         <v>7.7117903041477689</v>
       </c>
-      <c r="CQ74" s="14">
-        <v>13.444636055303661</v>
-      </c>
-      <c r="CR74" s="14"/>
-      <c r="CS74" s="14"/>
-      <c r="CT74" s="14"/>
-      <c r="CU74" s="14"/>
-      <c r="CV74" s="9"/>
+      <c r="CQ74" s="29">
+        <v>13.254072179403039</v>
+      </c>
+      <c r="CR74" s="29">
+        <v>5.3535776382783098</v>
+      </c>
+      <c r="CS74" s="29"/>
+      <c r="CT74" s="29"/>
+      <c r="CU74" s="29"/>
+      <c r="CV74" s="29"/>
       <c r="CW74" s="9"/>
       <c r="CX74" s="9"/>
       <c r="CY74" s="9"/>
@@ -32543,13 +32608,13 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
-      <c r="CS75" s="9"/>
-      <c r="CT75" s="9"/>
-      <c r="CU75" s="9"/>
-      <c r="CV75" s="9"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
+      <c r="CU75" s="25"/>
+      <c r="CV75" s="25"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
@@ -32880,17 +32945,19 @@
       <c r="CO76" s="14">
         <v>5.233209375216191</v>
       </c>
-      <c r="CP76" s="14">
+      <c r="CP76" s="29">
         <v>6.5788854922475224</v>
       </c>
-      <c r="CQ76" s="14">
-        <v>5.8257154926234449</v>
-      </c>
-      <c r="CR76" s="14"/>
-      <c r="CS76" s="14"/>
-      <c r="CT76" s="14"/>
-      <c r="CU76" s="14"/>
-      <c r="CV76" s="9"/>
+      <c r="CQ76" s="29">
+        <v>5.783176201316806</v>
+      </c>
+      <c r="CR76" s="29">
+        <v>5.2212358261913323</v>
+      </c>
+      <c r="CS76" s="29"/>
+      <c r="CT76" s="29"/>
+      <c r="CU76" s="29"/>
+      <c r="CV76" s="29"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
@@ -33035,12 +33102,13 @@
       <c r="CM77" s="12"/>
       <c r="CN77" s="12"/>
       <c r="CO77" s="12"/>
-      <c r="CP77" s="12"/>
-      <c r="CQ77" s="12"/>
-      <c r="CR77" s="12"/>
-      <c r="CS77" s="12"/>
-      <c r="CT77" s="12"/>
-      <c r="CU77" s="12"/>
+      <c r="CP77" s="27"/>
+      <c r="CQ77" s="27"/>
+      <c r="CR77" s="27"/>
+      <c r="CS77" s="27"/>
+      <c r="CT77" s="27"/>
+      <c r="CU77" s="27"/>
+      <c r="CV77" s="27"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -33140,13 +33208,13 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
-      <c r="CU79" s="9"/>
-      <c r="CV79" s="9"/>
+      <c r="CP79" s="25"/>
+      <c r="CQ79" s="25"/>
+      <c r="CR79" s="25"/>
+      <c r="CS79" s="25"/>
+      <c r="CT79" s="25"/>
+      <c r="CU79" s="25"/>
+      <c r="CV79" s="25"/>
       <c r="CW79" s="9"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
@@ -33290,13 +33358,13 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
-      <c r="CP80" s="9"/>
-      <c r="CQ80" s="9"/>
-      <c r="CR80" s="9"/>
-      <c r="CS80" s="9"/>
-      <c r="CT80" s="9"/>
-      <c r="CU80" s="9"/>
-      <c r="CV80" s="9"/>
+      <c r="CP80" s="25"/>
+      <c r="CQ80" s="25"/>
+      <c r="CR80" s="25"/>
+      <c r="CS80" s="25"/>
+      <c r="CT80" s="25"/>
+      <c r="CU80" s="25"/>
+      <c r="CV80" s="25"/>
       <c r="CW80" s="9"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
@@ -33374,132 +33442,132 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="21">
+      <c r="B88" s="30">
         <v>2000</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="21">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="30">
         <v>2001</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="21">
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="30">
         <v>2002</v>
       </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="21">
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="30">
         <v>2003</v>
       </c>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="21">
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="30">
         <v>2004</v>
       </c>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="21">
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+      <c r="U88" s="31"/>
+      <c r="V88" s="30">
         <v>2005</v>
       </c>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="21">
+      <c r="W88" s="31"/>
+      <c r="X88" s="31"/>
+      <c r="Y88" s="31"/>
+      <c r="Z88" s="30">
         <v>2006</v>
       </c>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="21">
+      <c r="AA88" s="31"/>
+      <c r="AB88" s="31"/>
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="30">
         <v>2007</v>
       </c>
-      <c r="AE88" s="22"/>
-      <c r="AF88" s="22"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="21">
+      <c r="AE88" s="31"/>
+      <c r="AF88" s="31"/>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="30">
         <v>2008</v>
       </c>
-      <c r="AI88" s="22"/>
-      <c r="AJ88" s="22"/>
-      <c r="AK88" s="22"/>
-      <c r="AL88" s="21">
+      <c r="AI88" s="31"/>
+      <c r="AJ88" s="31"/>
+      <c r="AK88" s="31"/>
+      <c r="AL88" s="30">
         <v>2009</v>
       </c>
-      <c r="AM88" s="22"/>
-      <c r="AN88" s="22"/>
-      <c r="AO88" s="22"/>
-      <c r="AP88" s="21">
+      <c r="AM88" s="31"/>
+      <c r="AN88" s="31"/>
+      <c r="AO88" s="31"/>
+      <c r="AP88" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="22"/>
-      <c r="AR88" s="22"/>
-      <c r="AS88" s="22"/>
-      <c r="AT88" s="21">
+      <c r="AQ88" s="31"/>
+      <c r="AR88" s="31"/>
+      <c r="AS88" s="31"/>
+      <c r="AT88" s="30">
         <v>2011</v>
       </c>
-      <c r="AU88" s="22"/>
-      <c r="AV88" s="22"/>
-      <c r="AW88" s="22"/>
-      <c r="AX88" s="21">
+      <c r="AU88" s="31"/>
+      <c r="AV88" s="31"/>
+      <c r="AW88" s="31"/>
+      <c r="AX88" s="30">
         <v>2012</v>
       </c>
-      <c r="AY88" s="22"/>
-      <c r="AZ88" s="22"/>
-      <c r="BA88" s="22"/>
-      <c r="BB88" s="21">
+      <c r="AY88" s="31"/>
+      <c r="AZ88" s="31"/>
+      <c r="BA88" s="31"/>
+      <c r="BB88" s="30">
         <v>2013</v>
       </c>
-      <c r="BC88" s="22"/>
-      <c r="BD88" s="22"/>
-      <c r="BE88" s="22"/>
-      <c r="BF88" s="21">
+      <c r="BC88" s="31"/>
+      <c r="BD88" s="31"/>
+      <c r="BE88" s="31"/>
+      <c r="BF88" s="30">
         <v>2014</v>
       </c>
-      <c r="BG88" s="22"/>
-      <c r="BH88" s="22"/>
-      <c r="BI88" s="22"/>
-      <c r="BJ88" s="21">
+      <c r="BG88" s="31"/>
+      <c r="BH88" s="31"/>
+      <c r="BI88" s="31"/>
+      <c r="BJ88" s="30">
         <v>2015</v>
       </c>
-      <c r="BK88" s="22"/>
-      <c r="BL88" s="22"/>
-      <c r="BM88" s="22"/>
-      <c r="BN88" s="21">
+      <c r="BK88" s="31"/>
+      <c r="BL88" s="31"/>
+      <c r="BM88" s="31"/>
+      <c r="BN88" s="30">
         <v>2016</v>
       </c>
-      <c r="BO88" s="22"/>
-      <c r="BP88" s="22"/>
-      <c r="BQ88" s="22"/>
-      <c r="BR88" s="21">
+      <c r="BO88" s="31"/>
+      <c r="BP88" s="31"/>
+      <c r="BQ88" s="31"/>
+      <c r="BR88" s="30">
         <v>2017</v>
       </c>
-      <c r="BS88" s="22"/>
-      <c r="BT88" s="22"/>
-      <c r="BU88" s="22"/>
-      <c r="BV88" s="21">
+      <c r="BS88" s="31"/>
+      <c r="BT88" s="31"/>
+      <c r="BU88" s="31"/>
+      <c r="BV88" s="30">
         <v>2018</v>
       </c>
-      <c r="BW88" s="21"/>
-      <c r="BX88" s="21"/>
-      <c r="BY88" s="21"/>
-      <c r="BZ88" s="21">
+      <c r="BW88" s="30"/>
+      <c r="BX88" s="30"/>
+      <c r="BY88" s="30"/>
+      <c r="BZ88" s="30">
         <v>2019</v>
       </c>
-      <c r="CA88" s="21"/>
-      <c r="CB88" s="21"/>
-      <c r="CC88" s="21"/>
-      <c r="CD88" s="21">
+      <c r="CA88" s="30"/>
+      <c r="CB88" s="30"/>
+      <c r="CC88" s="30"/>
+      <c r="CD88" s="30">
         <v>2020</v>
       </c>
-      <c r="CE88" s="21"/>
-      <c r="CF88" s="21"/>
-      <c r="CG88" s="21"/>
+      <c r="CE88" s="30"/>
+      <c r="CF88" s="30"/>
+      <c r="CG88" s="30"/>
       <c r="CH88" s="19">
         <v>2021</v>
       </c>
@@ -33512,16 +33580,17 @@
       <c r="CM88" s="19"/>
       <c r="CN88" s="19"/>
       <c r="CO88" s="19"/>
-      <c r="CP88" s="19">
+      <c r="CP88" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="19"/>
-      <c r="CR88" s="19"/>
-      <c r="CS88" s="19"/>
-      <c r="CT88" s="19">
+      <c r="CQ88" s="22"/>
+      <c r="CR88" s="22"/>
+      <c r="CS88" s="22"/>
+      <c r="CT88" s="22">
         <v>2024</v>
       </c>
-      <c r="CU88" s="19"/>
+      <c r="CU88" s="22"/>
+      <c r="CV88" s="22"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33803,23 +33872,26 @@
       <c r="CO89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="6" t="s">
+      <c r="CP89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="6" t="s">
+      <c r="CQ89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="6" t="s">
+      <c r="CR89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="6" t="s">
+      <c r="CS89" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT89" s="6" t="s">
+      <c r="CT89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU89" s="6" t="s">
+      <c r="CU89" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV89" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34105,25 +34177,27 @@
       <c r="CO91" s="14">
         <v>116.67224185771543</v>
       </c>
-      <c r="CP91" s="14">
+      <c r="CP91" s="29">
         <v>117.54932745781414</v>
       </c>
-      <c r="CQ91" s="14">
+      <c r="CQ91" s="29">
         <v>115.85035395355274</v>
       </c>
-      <c r="CR91" s="14">
+      <c r="CR91" s="29">
         <v>118.60606986833653</v>
       </c>
-      <c r="CS91" s="14">
+      <c r="CS91" s="29">
         <v>121.90133596124548</v>
       </c>
-      <c r="CT91" s="14">
+      <c r="CT91" s="29">
         <v>121.13072676586427</v>
       </c>
-      <c r="CU91" s="14">
-        <v>118.71492216318227</v>
-      </c>
-      <c r="CV91" s="9"/>
+      <c r="CU91" s="29">
+        <v>118.91748525033891</v>
+      </c>
+      <c r="CV91" s="29">
+        <v>120.46037999368883</v>
+      </c>
       <c r="CW91" s="9"/>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
@@ -34458,25 +34532,27 @@
       <c r="CO92" s="14">
         <v>108.26336034682507</v>
       </c>
-      <c r="CP92" s="14">
+      <c r="CP92" s="29">
         <v>110.61225452244412</v>
       </c>
-      <c r="CQ92" s="14">
+      <c r="CQ92" s="29">
         <v>112.72873273259061</v>
       </c>
-      <c r="CR92" s="14">
+      <c r="CR92" s="29">
         <v>113.00173001809681</v>
       </c>
-      <c r="CS92" s="14">
+      <c r="CS92" s="29">
         <v>114.35399237710196</v>
       </c>
-      <c r="CT92" s="14">
+      <c r="CT92" s="29">
         <v>116.01151830548324</v>
       </c>
-      <c r="CU92" s="14">
-        <v>119.98514206879985</v>
-      </c>
-      <c r="CV92" s="9"/>
+      <c r="CU92" s="29">
+        <v>119.97420325187859</v>
+      </c>
+      <c r="CV92" s="29">
+        <v>116.98345777943244</v>
+      </c>
       <c r="CW92" s="9"/>
       <c r="CX92" s="9"/>
       <c r="CY92" s="9"/>
@@ -34811,25 +34887,27 @@
       <c r="CO93" s="14">
         <v>100.55783533003368</v>
       </c>
-      <c r="CP93" s="14">
+      <c r="CP93" s="29">
         <v>105.44730599904892</v>
       </c>
-      <c r="CQ93" s="14">
+      <c r="CQ93" s="29">
         <v>102.52230777380345</v>
       </c>
-      <c r="CR93" s="14">
+      <c r="CR93" s="29">
         <v>101.36606951602371</v>
       </c>
-      <c r="CS93" s="14">
+      <c r="CS93" s="29">
         <v>102.91840074475832</v>
       </c>
-      <c r="CT93" s="14">
+      <c r="CT93" s="29">
         <v>107.32870412031158</v>
       </c>
-      <c r="CU93" s="14">
-        <v>103.65808158954806</v>
-      </c>
-      <c r="CV93" s="9"/>
+      <c r="CU93" s="29">
+        <v>103.66740150281773</v>
+      </c>
+      <c r="CV93" s="29">
+        <v>102.32507615753119</v>
+      </c>
       <c r="CW93" s="9"/>
       <c r="CX93" s="9"/>
       <c r="CY93" s="9"/>
@@ -34977,13 +35055,13 @@
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
       <c r="CO94" s="9"/>
-      <c r="CP94" s="9"/>
-      <c r="CQ94" s="9"/>
-      <c r="CR94" s="9"/>
-      <c r="CS94" s="9"/>
-      <c r="CT94" s="9"/>
-      <c r="CU94" s="9"/>
-      <c r="CV94" s="9"/>
+      <c r="CP94" s="25"/>
+      <c r="CQ94" s="25"/>
+      <c r="CR94" s="25"/>
+      <c r="CS94" s="25"/>
+      <c r="CT94" s="25"/>
+      <c r="CU94" s="25"/>
+      <c r="CV94" s="25"/>
       <c r="CW94" s="9"/>
       <c r="CX94" s="9"/>
       <c r="CY94" s="9"/>
@@ -35318,25 +35396,27 @@
       <c r="CO95" s="14">
         <v>109.68975262459142</v>
       </c>
-      <c r="CP95" s="14">
+      <c r="CP95" s="29">
         <v>111.55822702090011</v>
       </c>
-      <c r="CQ95" s="14">
+      <c r="CQ95" s="29">
         <v>112.98119672168635</v>
       </c>
-      <c r="CR95" s="14">
+      <c r="CR95" s="29">
         <v>113.50681951104559</v>
       </c>
-      <c r="CS95" s="14">
+      <c r="CS95" s="29">
         <v>115.46502451922143</v>
       </c>
-      <c r="CT95" s="14">
+      <c r="CT95" s="29">
         <v>116.53128980502834</v>
       </c>
-      <c r="CU95" s="14">
-        <v>119.48730580542642</v>
-      </c>
-      <c r="CV95" s="9"/>
+      <c r="CU95" s="29">
+        <v>119.50642265099074</v>
+      </c>
+      <c r="CV95" s="29">
+        <v>117.10309616895627</v>
+      </c>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
@@ -35485,12 +35565,13 @@
       <c r="CM96" s="12"/>
       <c r="CN96" s="12"/>
       <c r="CO96" s="12"/>
-      <c r="CP96" s="12"/>
-      <c r="CQ96" s="12"/>
-      <c r="CR96" s="12"/>
-      <c r="CS96" s="12"/>
-      <c r="CT96" s="12"/>
-      <c r="CU96" s="12"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="27"/>
+      <c r="CR96" s="27"/>
+      <c r="CS96" s="27"/>
+      <c r="CT96" s="27"/>
+      <c r="CU96" s="27"/>
+      <c r="CV96" s="27"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35529,132 +35610,132 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="21">
+      <c r="B108" s="30">
         <v>2000</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="21">
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="30">
         <v>2001</v>
       </c>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="21">
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="30">
         <v>2002</v>
       </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="21">
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="30">
         <v>2003</v>
       </c>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="21">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="30">
         <v>2004</v>
       </c>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="21">
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="30">
         <v>2005</v>
       </c>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="21">
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="30">
         <v>2006</v>
       </c>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="21">
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="30">
         <v>2007</v>
       </c>
-      <c r="AE108" s="22"/>
-      <c r="AF108" s="22"/>
-      <c r="AG108" s="22"/>
-      <c r="AH108" s="21">
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="30">
         <v>2008</v>
       </c>
-      <c r="AI108" s="22"/>
-      <c r="AJ108" s="22"/>
-      <c r="AK108" s="22"/>
-      <c r="AL108" s="21">
+      <c r="AI108" s="31"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="31"/>
+      <c r="AL108" s="30">
         <v>2009</v>
       </c>
-      <c r="AM108" s="22"/>
-      <c r="AN108" s="22"/>
-      <c r="AO108" s="22"/>
-      <c r="AP108" s="21">
+      <c r="AM108" s="31"/>
+      <c r="AN108" s="31"/>
+      <c r="AO108" s="31"/>
+      <c r="AP108" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="22"/>
-      <c r="AR108" s="22"/>
-      <c r="AS108" s="22"/>
-      <c r="AT108" s="21">
+      <c r="AQ108" s="31"/>
+      <c r="AR108" s="31"/>
+      <c r="AS108" s="31"/>
+      <c r="AT108" s="30">
         <v>2011</v>
       </c>
-      <c r="AU108" s="22"/>
-      <c r="AV108" s="22"/>
-      <c r="AW108" s="22"/>
-      <c r="AX108" s="21">
+      <c r="AU108" s="31"/>
+      <c r="AV108" s="31"/>
+      <c r="AW108" s="31"/>
+      <c r="AX108" s="30">
         <v>2012</v>
       </c>
-      <c r="AY108" s="22"/>
-      <c r="AZ108" s="22"/>
-      <c r="BA108" s="22"/>
-      <c r="BB108" s="21">
+      <c r="AY108" s="31"/>
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+      <c r="BB108" s="30">
         <v>2013</v>
       </c>
-      <c r="BC108" s="22"/>
-      <c r="BD108" s="22"/>
-      <c r="BE108" s="22"/>
-      <c r="BF108" s="21">
+      <c r="BC108" s="31"/>
+      <c r="BD108" s="31"/>
+      <c r="BE108" s="31"/>
+      <c r="BF108" s="30">
         <v>2014</v>
       </c>
-      <c r="BG108" s="22"/>
-      <c r="BH108" s="22"/>
-      <c r="BI108" s="22"/>
-      <c r="BJ108" s="21">
+      <c r="BG108" s="31"/>
+      <c r="BH108" s="31"/>
+      <c r="BI108" s="31"/>
+      <c r="BJ108" s="30">
         <v>2015</v>
       </c>
-      <c r="BK108" s="22"/>
-      <c r="BL108" s="22"/>
-      <c r="BM108" s="22"/>
-      <c r="BN108" s="21">
+      <c r="BK108" s="31"/>
+      <c r="BL108" s="31"/>
+      <c r="BM108" s="31"/>
+      <c r="BN108" s="30">
         <v>2016</v>
       </c>
-      <c r="BO108" s="22"/>
-      <c r="BP108" s="22"/>
-      <c r="BQ108" s="22"/>
-      <c r="BR108" s="21">
+      <c r="BO108" s="31"/>
+      <c r="BP108" s="31"/>
+      <c r="BQ108" s="31"/>
+      <c r="BR108" s="30">
         <v>2017</v>
       </c>
-      <c r="BS108" s="22"/>
-      <c r="BT108" s="22"/>
-      <c r="BU108" s="22"/>
-      <c r="BV108" s="21">
+      <c r="BS108" s="31"/>
+      <c r="BT108" s="31"/>
+      <c r="BU108" s="31"/>
+      <c r="BV108" s="30">
         <v>2018</v>
       </c>
-      <c r="BW108" s="21"/>
-      <c r="BX108" s="21"/>
-      <c r="BY108" s="21"/>
-      <c r="BZ108" s="21">
+      <c r="BW108" s="30"/>
+      <c r="BX108" s="30"/>
+      <c r="BY108" s="30"/>
+      <c r="BZ108" s="30">
         <v>2019</v>
       </c>
-      <c r="CA108" s="21"/>
-      <c r="CB108" s="21"/>
-      <c r="CC108" s="21"/>
-      <c r="CD108" s="21">
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
+      <c r="CD108" s="30">
         <v>2020</v>
       </c>
-      <c r="CE108" s="21"/>
-      <c r="CF108" s="21"/>
-      <c r="CG108" s="21"/>
+      <c r="CE108" s="30"/>
+      <c r="CF108" s="30"/>
+      <c r="CG108" s="30"/>
       <c r="CH108" s="19">
         <v>2021</v>
       </c>
@@ -35667,16 +35748,17 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="19">
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="19"/>
-      <c r="CR108" s="19"/>
-      <c r="CS108" s="19"/>
-      <c r="CT108" s="19">
+      <c r="CQ108" s="22"/>
+      <c r="CR108" s="22"/>
+      <c r="CS108" s="22"/>
+      <c r="CT108" s="22">
         <v>2024</v>
       </c>
-      <c r="CU108" s="19"/>
+      <c r="CU108" s="22"/>
+      <c r="CV108" s="22"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -35958,23 +36040,26 @@
       <c r="CO109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="6" t="s">
+      <c r="CP109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="6" t="s">
+      <c r="CQ109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="6" t="s">
+      <c r="CR109" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="6" t="s">
+      <c r="CS109" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT109" s="6" t="s">
+      <c r="CT109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU109" s="6" t="s">
+      <c r="CU109" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV109" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36260,25 +36345,27 @@
       <c r="CO111" s="14">
         <v>20.323727894312995</v>
       </c>
-      <c r="CP111" s="14">
+      <c r="CP111" s="29">
         <v>16.850181675098948</v>
       </c>
-      <c r="CQ111" s="14">
+      <c r="CQ111" s="29">
         <v>14.454166818080013</v>
       </c>
-      <c r="CR111" s="14">
+      <c r="CR111" s="29">
         <v>15.175317299168849</v>
       </c>
-      <c r="CS111" s="14">
+      <c r="CS111" s="29">
         <v>19.612706615543004</v>
       </c>
-      <c r="CT111" s="14">
+      <c r="CT111" s="29">
         <v>16.189769377833787</v>
       </c>
-      <c r="CU111" s="14">
-        <v>13.781033869303212</v>
-      </c>
-      <c r="CV111" s="9"/>
+      <c r="CU111" s="29">
+        <v>13.837022035358407</v>
+      </c>
+      <c r="CV111" s="29">
+        <v>15.064294032950318</v>
+      </c>
       <c r="CW111" s="9"/>
       <c r="CX111" s="9"/>
       <c r="CY111" s="9"/>
@@ -36613,25 +36700,27 @@
       <c r="CO112" s="14">
         <v>77.530866555993967</v>
       </c>
-      <c r="CP112" s="14">
+      <c r="CP112" s="29">
         <v>80.160188185449385</v>
       </c>
-      <c r="CQ112" s="14">
+      <c r="CQ112" s="29">
         <v>83.87823199083499</v>
       </c>
-      <c r="CR112" s="14">
+      <c r="CR112" s="29">
         <v>82.45446568607332</v>
       </c>
-      <c r="CS112" s="14">
+      <c r="CS112" s="29">
         <v>78.118722158752888</v>
       </c>
-      <c r="CT112" s="14">
+      <c r="CT112" s="29">
         <v>80.866154870878361</v>
       </c>
-      <c r="CU112" s="14">
-        <v>84.509918586252638</v>
-      </c>
-      <c r="CV112" s="9"/>
+      <c r="CU112" s="29">
+        <v>84.456234754295153</v>
+      </c>
+      <c r="CV112" s="29">
+        <v>82.613626662815037</v>
+      </c>
       <c r="CW112" s="9"/>
       <c r="CX112" s="9"/>
       <c r="CY112" s="9"/>
@@ -36966,25 +37055,27 @@
       <c r="CO113" s="14">
         <v>2.14540554969303</v>
       </c>
-      <c r="CP113" s="14">
+      <c r="CP113" s="29">
         <v>2.9896301394516538</v>
       </c>
-      <c r="CQ113" s="14">
+      <c r="CQ113" s="29">
         <v>1.6676011910850004</v>
       </c>
-      <c r="CR113" s="14">
+      <c r="CR113" s="29">
         <v>2.3702170147578205</v>
       </c>
-      <c r="CS113" s="14">
+      <c r="CS113" s="29">
         <v>2.2685712257041022</v>
       </c>
-      <c r="CT113" s="14">
+      <c r="CT113" s="29">
         <v>2.9440757512878499</v>
       </c>
-      <c r="CU113" s="14">
-        <v>1.7090475444441398</v>
-      </c>
-      <c r="CV113" s="9"/>
+      <c r="CU113" s="29">
+        <v>1.7067432103464306</v>
+      </c>
+      <c r="CV113" s="29">
+        <v>2.3220793042346544</v>
+      </c>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
@@ -37132,13 +37223,13 @@
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
-      <c r="CP114" s="9"/>
-      <c r="CQ114" s="9"/>
-      <c r="CR114" s="9"/>
-      <c r="CS114" s="9"/>
-      <c r="CT114" s="9"/>
-      <c r="CU114" s="9"/>
-      <c r="CV114" s="9"/>
+      <c r="CP114" s="25"/>
+      <c r="CQ114" s="25"/>
+      <c r="CR114" s="25"/>
+      <c r="CS114" s="25"/>
+      <c r="CT114" s="25"/>
+      <c r="CU114" s="25"/>
+      <c r="CV114" s="25"/>
       <c r="CW114" s="9"/>
       <c r="CX114" s="9"/>
       <c r="CY114" s="9"/>
@@ -37473,25 +37564,27 @@
       <c r="CO115" s="14">
         <v>100</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="29">
         <v>100</v>
       </c>
-      <c r="CQ115" s="14">
+      <c r="CQ115" s="29">
         <v>100</v>
       </c>
-      <c r="CR115" s="14">
+      <c r="CR115" s="29">
         <v>100</v>
       </c>
-      <c r="CS115" s="14">
+      <c r="CS115" s="29">
         <v>100</v>
       </c>
-      <c r="CT115" s="14">
+      <c r="CT115" s="29">
         <v>100</v>
       </c>
-      <c r="CU115" s="14">
+      <c r="CU115" s="29">
         <v>100</v>
       </c>
-      <c r="CV115" s="9"/>
+      <c r="CV115" s="29">
+        <v>100</v>
+      </c>
       <c r="CW115" s="9"/>
       <c r="CX115" s="9"/>
       <c r="CY115" s="9"/>
@@ -37640,12 +37733,13 @@
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
       <c r="CO116" s="12"/>
-      <c r="CP116" s="12"/>
-      <c r="CQ116" s="12"/>
-      <c r="CR116" s="12"/>
-      <c r="CS116" s="12"/>
-      <c r="CT116" s="12"/>
-      <c r="CU116" s="12"/>
+      <c r="CP116" s="27"/>
+      <c r="CQ116" s="27"/>
+      <c r="CR116" s="27"/>
+      <c r="CS116" s="27"/>
+      <c r="CT116" s="27"/>
+      <c r="CU116" s="27"/>
+      <c r="CV116" s="27"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37745,13 +37839,13 @@
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
-      <c r="CP118" s="9"/>
-      <c r="CQ118" s="9"/>
-      <c r="CR118" s="9"/>
-      <c r="CS118" s="9"/>
-      <c r="CT118" s="9"/>
-      <c r="CU118" s="9"/>
-      <c r="CV118" s="9"/>
+      <c r="CP118" s="25"/>
+      <c r="CQ118" s="25"/>
+      <c r="CR118" s="25"/>
+      <c r="CS118" s="25"/>
+      <c r="CT118" s="25"/>
+      <c r="CU118" s="25"/>
+      <c r="CV118" s="25"/>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
@@ -37899,13 +37993,13 @@
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
-      <c r="CP119" s="9"/>
-      <c r="CQ119" s="9"/>
-      <c r="CR119" s="9"/>
-      <c r="CS119" s="9"/>
-      <c r="CT119" s="9"/>
-      <c r="CU119" s="9"/>
-      <c r="CV119" s="9"/>
+      <c r="CP119" s="25"/>
+      <c r="CQ119" s="25"/>
+      <c r="CR119" s="25"/>
+      <c r="CS119" s="25"/>
+      <c r="CT119" s="25"/>
+      <c r="CU119" s="25"/>
+      <c r="CV119" s="25"/>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
@@ -37992,132 +38086,132 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="21">
+      <c r="B128" s="30">
         <v>2000</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="21">
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="30">
         <v>2001</v>
       </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="21">
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="30">
         <v>2002</v>
       </c>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="21">
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="30">
         <v>2003</v>
       </c>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="21">
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="30">
         <v>2004</v>
       </c>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-      <c r="U128" s="22"/>
-      <c r="V128" s="21">
+      <c r="S128" s="31"/>
+      <c r="T128" s="31"/>
+      <c r="U128" s="31"/>
+      <c r="V128" s="30">
         <v>2005</v>
       </c>
-      <c r="W128" s="22"/>
-      <c r="X128" s="22"/>
-      <c r="Y128" s="22"/>
-      <c r="Z128" s="21">
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="30">
         <v>2006</v>
       </c>
-      <c r="AA128" s="22"/>
-      <c r="AB128" s="22"/>
-      <c r="AC128" s="22"/>
-      <c r="AD128" s="21">
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="30">
         <v>2007</v>
       </c>
-      <c r="AE128" s="22"/>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="22"/>
-      <c r="AH128" s="21">
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
+      <c r="AG128" s="31"/>
+      <c r="AH128" s="30">
         <v>2008</v>
       </c>
-      <c r="AI128" s="22"/>
-      <c r="AJ128" s="22"/>
-      <c r="AK128" s="22"/>
-      <c r="AL128" s="21">
+      <c r="AI128" s="31"/>
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="30">
         <v>2009</v>
       </c>
-      <c r="AM128" s="22"/>
-      <c r="AN128" s="22"/>
-      <c r="AO128" s="22"/>
-      <c r="AP128" s="21">
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="22"/>
-      <c r="AR128" s="22"/>
-      <c r="AS128" s="22"/>
-      <c r="AT128" s="21">
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="30">
         <v>2011</v>
       </c>
-      <c r="AU128" s="22"/>
-      <c r="AV128" s="22"/>
-      <c r="AW128" s="22"/>
-      <c r="AX128" s="21">
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="30">
         <v>2012</v>
       </c>
-      <c r="AY128" s="22"/>
-      <c r="AZ128" s="22"/>
-      <c r="BA128" s="22"/>
-      <c r="BB128" s="21">
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="30">
         <v>2013</v>
       </c>
-      <c r="BC128" s="22"/>
-      <c r="BD128" s="22"/>
-      <c r="BE128" s="22"/>
-      <c r="BF128" s="21">
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="30">
         <v>2014</v>
       </c>
-      <c r="BG128" s="22"/>
-      <c r="BH128" s="22"/>
-      <c r="BI128" s="22"/>
-      <c r="BJ128" s="21">
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="30">
         <v>2015</v>
       </c>
-      <c r="BK128" s="22"/>
-      <c r="BL128" s="22"/>
-      <c r="BM128" s="22"/>
-      <c r="BN128" s="21">
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="30">
         <v>2016</v>
       </c>
-      <c r="BO128" s="22"/>
-      <c r="BP128" s="22"/>
-      <c r="BQ128" s="22"/>
-      <c r="BR128" s="21">
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="30">
         <v>2017</v>
       </c>
-      <c r="BS128" s="22"/>
-      <c r="BT128" s="22"/>
-      <c r="BU128" s="22"/>
-      <c r="BV128" s="21">
+      <c r="BS128" s="31"/>
+      <c r="BT128" s="31"/>
+      <c r="BU128" s="31"/>
+      <c r="BV128" s="30">
         <v>2018</v>
       </c>
-      <c r="BW128" s="21"/>
-      <c r="BX128" s="21"/>
-      <c r="BY128" s="21"/>
-      <c r="BZ128" s="21">
+      <c r="BW128" s="30"/>
+      <c r="BX128" s="30"/>
+      <c r="BY128" s="30"/>
+      <c r="BZ128" s="30">
         <v>2019</v>
       </c>
-      <c r="CA128" s="21"/>
-      <c r="CB128" s="21"/>
-      <c r="CC128" s="21"/>
-      <c r="CD128" s="21">
+      <c r="CA128" s="30"/>
+      <c r="CB128" s="30"/>
+      <c r="CC128" s="30"/>
+      <c r="CD128" s="30">
         <v>2020</v>
       </c>
-      <c r="CE128" s="21"/>
-      <c r="CF128" s="21"/>
-      <c r="CG128" s="21"/>
+      <c r="CE128" s="30"/>
+      <c r="CF128" s="30"/>
+      <c r="CG128" s="30"/>
       <c r="CH128" s="19">
         <v>2021</v>
       </c>
@@ -38130,16 +38224,17 @@
       <c r="CM128" s="19"/>
       <c r="CN128" s="19"/>
       <c r="CO128" s="19"/>
-      <c r="CP128" s="19">
+      <c r="CP128" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="19"/>
-      <c r="CR128" s="19"/>
-      <c r="CS128" s="19"/>
-      <c r="CT128" s="19">
+      <c r="CQ128" s="22"/>
+      <c r="CR128" s="22"/>
+      <c r="CS128" s="22"/>
+      <c r="CT128" s="22">
         <v>2024</v>
       </c>
-      <c r="CU128" s="19"/>
+      <c r="CU128" s="22"/>
+      <c r="CV128" s="22"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38421,23 +38516,26 @@
       <c r="CO129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="6" t="s">
+      <c r="CR129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="6" t="s">
+      <c r="CS129" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT129" s="6" t="s">
+      <c r="CT129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU129" s="6" t="s">
+      <c r="CU129" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV129" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38723,25 +38821,27 @@
       <c r="CO131" s="14">
         <v>19.107412779942898</v>
       </c>
-      <c r="CP131" s="14">
+      <c r="CP131" s="29">
         <v>15.991383645548375</v>
       </c>
-      <c r="CQ131" s="14">
+      <c r="CQ131" s="29">
         <v>14.096194003656636</v>
       </c>
-      <c r="CR131" s="14">
+      <c r="CR131" s="29">
         <v>14.522882375343348</v>
       </c>
-      <c r="CS131" s="14">
+      <c r="CS131" s="29">
         <v>18.577168432115613</v>
       </c>
-      <c r="CT131" s="14">
+      <c r="CT131" s="29">
         <v>15.575030032566332</v>
       </c>
-      <c r="CU131" s="14">
-        <v>13.870696103333326</v>
-      </c>
-      <c r="CV131" s="9"/>
+      <c r="CU131" s="29">
+        <v>13.905549718845078</v>
+      </c>
+      <c r="CV131" s="29">
+        <v>14.644445525993182</v>
+      </c>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
@@ -39076,25 +39176,27 @@
       <c r="CO132" s="14">
         <v>78.552351839562888</v>
       </c>
-      <c r="CP132" s="14">
+      <c r="CP132" s="29">
         <v>80.845730070676098</v>
       </c>
-      <c r="CQ132" s="14">
+      <c r="CQ132" s="29">
         <v>84.066083238102493</v>
       </c>
-      <c r="CR132" s="14">
+      <c r="CR132" s="29">
         <v>82.823016541516608</v>
       </c>
-      <c r="CS132" s="14">
+      <c r="CS132" s="29">
         <v>78.877702316904802</v>
       </c>
-      <c r="CT132" s="14">
+      <c r="CT132" s="29">
         <v>81.228463055389867</v>
       </c>
-      <c r="CU132" s="14">
-        <v>84.159274320124695</v>
-      </c>
-      <c r="CV132" s="9"/>
+      <c r="CU132" s="29">
+        <v>84.126939062627613</v>
+      </c>
+      <c r="CV132" s="29">
+        <v>82.698115200205507</v>
+      </c>
       <c r="CW132" s="9"/>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
@@ -39429,25 +39531,27 @@
       <c r="CO133" s="14">
         <v>2.3402353804941955</v>
       </c>
-      <c r="CP133" s="14">
+      <c r="CP133" s="29">
         <v>3.1628862837755287</v>
       </c>
-      <c r="CQ133" s="14">
+      <c r="CQ133" s="29">
         <v>1.8377227582408646</v>
       </c>
-      <c r="CR133" s="14">
+      <c r="CR133" s="29">
         <v>2.6541010831400209</v>
       </c>
-      <c r="CS133" s="14">
+      <c r="CS133" s="29">
         <v>2.5451292509795937</v>
       </c>
-      <c r="CT133" s="14">
+      <c r="CT133" s="29">
         <v>3.1965069120438101</v>
       </c>
-      <c r="CU133" s="14">
-        <v>1.9700295765419671</v>
-      </c>
-      <c r="CV133" s="9"/>
+      <c r="CU133" s="29">
+        <v>1.9675112185273154</v>
+      </c>
+      <c r="CV133" s="29">
+        <v>2.6574392738013137</v>
+      </c>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
@@ -39595,13 +39699,13 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
-      <c r="CS134" s="9"/>
-      <c r="CT134" s="9"/>
-      <c r="CU134" s="9"/>
-      <c r="CV134" s="9"/>
+      <c r="CP134" s="25"/>
+      <c r="CQ134" s="25"/>
+      <c r="CR134" s="25"/>
+      <c r="CS134" s="25"/>
+      <c r="CT134" s="25"/>
+      <c r="CU134" s="25"/>
+      <c r="CV134" s="25"/>
       <c r="CW134" s="9"/>
       <c r="CX134" s="9"/>
       <c r="CY134" s="9"/>
@@ -39936,25 +40040,27 @@
       <c r="CO135" s="14">
         <v>100</v>
       </c>
-      <c r="CP135" s="14">
+      <c r="CP135" s="29">
         <v>100</v>
       </c>
-      <c r="CQ135" s="14">
+      <c r="CQ135" s="29">
         <v>100</v>
       </c>
-      <c r="CR135" s="14">
+      <c r="CR135" s="29">
         <v>100</v>
       </c>
-      <c r="CS135" s="14">
+      <c r="CS135" s="29">
         <v>100</v>
       </c>
-      <c r="CT135" s="14">
+      <c r="CT135" s="29">
         <v>100</v>
       </c>
-      <c r="CU135" s="14">
+      <c r="CU135" s="29">
         <v>100</v>
       </c>
-      <c r="CV135" s="9"/>
+      <c r="CV135" s="29">
+        <v>100</v>
+      </c>
       <c r="CW135" s="9"/>
       <c r="CX135" s="9"/>
       <c r="CY135" s="9"/>
@@ -40103,12 +40209,13 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
-      <c r="CR136" s="12"/>
-      <c r="CS136" s="12"/>
-      <c r="CT136" s="12"/>
-      <c r="CU136" s="12"/>
+      <c r="CP136" s="27"/>
+      <c r="CQ136" s="27"/>
+      <c r="CR136" s="27"/>
+      <c r="CS136" s="27"/>
+      <c r="CT136" s="27"/>
+      <c r="CU136" s="27"/>
+      <c r="CV136" s="27"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40209,13 +40316,13 @@
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
-      <c r="CP138" s="1"/>
-      <c r="CQ138" s="1"/>
-      <c r="CR138" s="1"/>
-      <c r="CS138" s="1"/>
-      <c r="CT138" s="1"/>
-      <c r="CU138" s="1"/>
-      <c r="CV138" s="15"/>
+      <c r="CP138" s="21"/>
+      <c r="CQ138" s="21"/>
+      <c r="CR138" s="21"/>
+      <c r="CS138" s="21"/>
+      <c r="CT138" s="21"/>
+      <c r="CU138" s="21"/>
+      <c r="CV138" s="21"/>
       <c r="CW138" s="15"/>
       <c r="CX138" s="15"/>
       <c r="CY138" s="15"/>
@@ -40364,13 +40471,13 @@
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
-      <c r="CP139" s="1"/>
-      <c r="CQ139" s="1"/>
-      <c r="CR139" s="1"/>
-      <c r="CS139" s="1"/>
-      <c r="CT139" s="1"/>
-      <c r="CU139" s="1"/>
-      <c r="CV139" s="15"/>
+      <c r="CP139" s="21"/>
+      <c r="CQ139" s="21"/>
+      <c r="CR139" s="21"/>
+      <c r="CS139" s="21"/>
+      <c r="CT139" s="21"/>
+      <c r="CU139" s="21"/>
+      <c r="CV139" s="21"/>
       <c r="CW139" s="15"/>
       <c r="CX139" s="15"/>
       <c r="CY139" s="15"/>
@@ -40580,9 +40687,9 @@
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="97" man="1"/>
-    <brk id="80" max="97" man="1"/>
-    <brk id="99" max="97" man="1"/>
+    <brk id="40" max="99" man="1"/>
+    <brk id="80" max="99" man="1"/>
+    <brk id="99" max="99" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCE116-4F66-4D82-86F8-5CEB8BC765FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9DC74-B47F-4A11-8586-00D0B4F157C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="7" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CV$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CW$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,13 +765,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23632,12 +23641,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EW139"/>
+  <dimension ref="A1:EW145"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23647,8 +23656,8 @@
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
     <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="21" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="21" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23663,7 +23672,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23673,7 +23682,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23683,132 +23692,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23832,6 +23841,7 @@
       </c>
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24133,6 +24143,9 @@
       </c>
       <c r="CV10" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24437,9 +24450,11 @@
         <v>158261.05486827125</v>
       </c>
       <c r="CV12" s="24">
-        <v>198172.36451517811</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>195864.44426988318</v>
+      </c>
+      <c r="CW12" s="24">
+        <v>273862.48085946921</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24792,9 +24807,11 @@
         <v>965968.88898940699</v>
       </c>
       <c r="CV13" s="24">
-        <v>1086790.9044482345</v>
-      </c>
-      <c r="CW13" s="9"/>
+        <v>1086234.2623468628</v>
+      </c>
+      <c r="CW13" s="24">
+        <v>1121492.0363367577</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25147,9 +25164,11 @@
         <v>19520.889694940019</v>
       </c>
       <c r="CV14" s="24">
-        <v>30547.196257946191</v>
-      </c>
-      <c r="CW14" s="9"/>
+        <v>30498.272060820076</v>
+      </c>
+      <c r="CW14" s="24">
+        <v>31834.641817655567</v>
+      </c>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25303,7 +25322,7 @@
       <c r="CT15" s="25"/>
       <c r="CU15" s="25"/>
       <c r="CV15" s="25"/>
-      <c r="CW15" s="9"/>
+      <c r="CW15" s="25"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25656,9 +25675,11 @@
         <v>1143750.8335526183</v>
       </c>
       <c r="CV16" s="26">
-        <v>1315510.4652213587</v>
-      </c>
-      <c r="CW16" s="9"/>
+        <v>1312596.9786775662</v>
+      </c>
+      <c r="CW16" s="26">
+        <v>1427189.1590138825</v>
+      </c>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
@@ -25813,6 +25834,7 @@
       <c r="CT17" s="27"/>
       <c r="CU17" s="27"/>
       <c r="CV17" s="27"/>
+      <c r="CW17" s="27"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25919,7 +25941,7 @@
       <c r="CT19" s="25"/>
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
-      <c r="CW19" s="9"/>
+      <c r="CW19" s="25"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
@@ -26073,7 +26095,7 @@
       <c r="CT20" s="25"/>
       <c r="CU20" s="25"/>
       <c r="CV20" s="25"/>
-      <c r="CW20" s="9"/>
+      <c r="CW20" s="25"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
@@ -26139,7 +26161,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26149,7 +26171,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26159,132 +26181,132 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="30">
+      <c r="B29" s="33">
         <v>2000</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="33">
         <v>2001</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="30">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="33">
         <v>2002</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="30">
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="33">
         <v>2003</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="30">
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="33">
         <v>2004</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="30">
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="33">
         <v>2005</v>
       </c>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="30">
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="33">
         <v>2006</v>
       </c>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="30">
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="33">
         <v>2007</v>
       </c>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="30">
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="33">
         <v>2008</v>
       </c>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="30">
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="33">
         <v>2009</v>
       </c>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="30">
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="30">
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="33">
         <v>2011</v>
       </c>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="30">
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="35"/>
+      <c r="AX29" s="33">
         <v>2012</v>
       </c>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="30">
+      <c r="AY29" s="35"/>
+      <c r="AZ29" s="35"/>
+      <c r="BA29" s="35"/>
+      <c r="BB29" s="33">
         <v>2013</v>
       </c>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="30">
+      <c r="BC29" s="35"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="35"/>
+      <c r="BF29" s="33">
         <v>2014</v>
       </c>
-      <c r="BG29" s="31"/>
-      <c r="BH29" s="31"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="30">
+      <c r="BG29" s="35"/>
+      <c r="BH29" s="35"/>
+      <c r="BI29" s="35"/>
+      <c r="BJ29" s="33">
         <v>2015</v>
       </c>
-      <c r="BK29" s="31"/>
-      <c r="BL29" s="31"/>
-      <c r="BM29" s="31"/>
-      <c r="BN29" s="30">
+      <c r="BK29" s="35"/>
+      <c r="BL29" s="35"/>
+      <c r="BM29" s="35"/>
+      <c r="BN29" s="33">
         <v>2016</v>
       </c>
-      <c r="BO29" s="31"/>
-      <c r="BP29" s="31"/>
-      <c r="BQ29" s="31"/>
-      <c r="BR29" s="30">
+      <c r="BO29" s="35"/>
+      <c r="BP29" s="35"/>
+      <c r="BQ29" s="35"/>
+      <c r="BR29" s="33">
         <v>2017</v>
       </c>
-      <c r="BS29" s="31"/>
-      <c r="BT29" s="31"/>
-      <c r="BU29" s="31"/>
-      <c r="BV29" s="30">
+      <c r="BS29" s="35"/>
+      <c r="BT29" s="35"/>
+      <c r="BU29" s="35"/>
+      <c r="BV29" s="33">
         <v>2018</v>
       </c>
-      <c r="BW29" s="30"/>
-      <c r="BX29" s="30"/>
-      <c r="BY29" s="30"/>
-      <c r="BZ29" s="30">
+      <c r="BW29" s="33"/>
+      <c r="BX29" s="33"/>
+      <c r="BY29" s="33"/>
+      <c r="BZ29" s="33">
         <v>2019</v>
       </c>
-      <c r="CA29" s="30"/>
-      <c r="CB29" s="30"/>
-      <c r="CC29" s="30"/>
-      <c r="CD29" s="30">
+      <c r="CA29" s="33"/>
+      <c r="CB29" s="33"/>
+      <c r="CC29" s="33"/>
+      <c r="CD29" s="33">
         <v>2020</v>
       </c>
-      <c r="CE29" s="30"/>
-      <c r="CF29" s="30"/>
-      <c r="CG29" s="30"/>
+      <c r="CE29" s="33"/>
+      <c r="CF29" s="33"/>
+      <c r="CG29" s="33"/>
       <c r="CH29" s="19">
         <v>2021</v>
       </c>
@@ -26308,6 +26330,7 @@
       </c>
       <c r="CU29" s="22"/>
       <c r="CV29" s="22"/>
+      <c r="CW29" s="22"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26609,6 +26632,9 @@
       </c>
       <c r="CV30" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW30" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26913,9 +26939,11 @@
         <v>133084.7642254697</v>
       </c>
       <c r="CV32" s="24">
-        <v>164512.48495609988</v>
-      </c>
-      <c r="CW32" s="9"/>
+        <v>161106.52919626463</v>
+      </c>
+      <c r="CW32" s="24">
+        <v>219564.75032484892</v>
+      </c>
       <c r="CX32" s="9"/>
       <c r="CY32" s="9"/>
       <c r="CZ32" s="9"/>
@@ -27268,9 +27296,11 @@
         <v>805147.15897834604</v>
       </c>
       <c r="CV33" s="24">
-        <v>929012.4647344026</v>
-      </c>
-      <c r="CW33" s="9"/>
+        <v>929020.24389120191</v>
+      </c>
+      <c r="CW33" s="24">
+        <v>954841.0521651567</v>
+      </c>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
@@ -27623,9 +27653,11 @@
         <v>18830.30674248108</v>
       </c>
       <c r="CV34" s="24">
-        <v>29853.089198700683</v>
-      </c>
-      <c r="CW34" s="9"/>
+        <v>29793.974953180848</v>
+      </c>
+      <c r="CW34" s="24">
+        <v>30625.350243105429</v>
+      </c>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
@@ -27779,7 +27811,7 @@
       <c r="CT35" s="26"/>
       <c r="CU35" s="26"/>
       <c r="CV35" s="26"/>
-      <c r="CW35" s="9"/>
+      <c r="CW35" s="26"/>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
@@ -28132,9 +28164,11 @@
         <v>957062.22994629678</v>
       </c>
       <c r="CV36" s="26">
-        <v>1123378.0388892032</v>
-      </c>
-      <c r="CW36" s="9"/>
+        <v>1119920.7480406475</v>
+      </c>
+      <c r="CW36" s="26">
+        <v>1205031.1527331111</v>
+      </c>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
@@ -28289,6 +28323,7 @@
       <c r="CT37" s="27"/>
       <c r="CU37" s="27"/>
       <c r="CV37" s="27"/>
+      <c r="CW37" s="27"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28395,7 +28430,7 @@
       <c r="CT39" s="25"/>
       <c r="CU39" s="25"/>
       <c r="CV39" s="25"/>
-      <c r="CW39" s="9"/>
+      <c r="CW39" s="25"/>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
       <c r="CZ39" s="9"/>
@@ -28549,7 +28584,7 @@
       <c r="CT40" s="25"/>
       <c r="CU40" s="25"/>
       <c r="CV40" s="25"/>
-      <c r="CW40" s="9"/>
+      <c r="CW40" s="25"/>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
       <c r="CZ40" s="9"/>
@@ -28615,152 +28650,176 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT44" s="30"/>
+      <c r="CU44" s="30"/>
+      <c r="CV44" s="30"/>
+      <c r="CW44" s="30"/>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CT45" s="30"/>
+      <c r="CU45" s="30"/>
+      <c r="CV45" s="30"/>
+      <c r="CW45" s="30"/>
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CT46" s="30"/>
+      <c r="CU46" s="30"/>
+      <c r="CV46" s="30"/>
+      <c r="CW46" s="30"/>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CT47" s="30"/>
+      <c r="CU47" s="30"/>
+      <c r="CV47" s="30"/>
+      <c r="CW47" s="30"/>
+    </row>
+    <row r="48" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT48" s="30"/>
+      <c r="CU48" s="30"/>
+      <c r="CV48" s="30"/>
+      <c r="CW48" s="30"/>
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30" t="s">
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30" t="s">
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30" t="s">
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30" t="s">
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30" t="s">
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30" t="s">
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30" t="s">
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="30" t="s">
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="33"/>
+      <c r="AL49" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="30" t="s">
+      <c r="AM49" s="33"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="30"/>
-      <c r="AT49" s="30" t="s">
+      <c r="AQ49" s="33"/>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="33"/>
+      <c r="AT49" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="30"/>
-      <c r="AV49" s="30"/>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="30" t="s">
+      <c r="AU49" s="33"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="30"/>
-      <c r="AZ49" s="30"/>
-      <c r="BA49" s="30"/>
-      <c r="BB49" s="30" t="s">
+      <c r="AY49" s="33"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="33"/>
+      <c r="BB49" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="30"/>
-      <c r="BD49" s="30"/>
-      <c r="BE49" s="30"/>
-      <c r="BF49" s="30" t="s">
+      <c r="BC49" s="33"/>
+      <c r="BD49" s="33"/>
+      <c r="BE49" s="33"/>
+      <c r="BF49" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="30"/>
-      <c r="BH49" s="30"/>
-      <c r="BI49" s="30"/>
-      <c r="BJ49" s="30" t="s">
+      <c r="BG49" s="33"/>
+      <c r="BH49" s="33"/>
+      <c r="BI49" s="33"/>
+      <c r="BJ49" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="30"/>
-      <c r="BL49" s="30"/>
-      <c r="BM49" s="30"/>
-      <c r="BN49" s="30" t="s">
+      <c r="BK49" s="33"/>
+      <c r="BL49" s="33"/>
+      <c r="BM49" s="33"/>
+      <c r="BN49" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="30"/>
-      <c r="BP49" s="30"/>
-      <c r="BQ49" s="30"/>
-      <c r="BR49" s="30" t="s">
+      <c r="BO49" s="33"/>
+      <c r="BP49" s="33"/>
+      <c r="BQ49" s="33"/>
+      <c r="BR49" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="30"/>
-      <c r="BT49" s="30"/>
-      <c r="BU49" s="30"/>
-      <c r="BV49" s="30" t="s">
+      <c r="BS49" s="33"/>
+      <c r="BT49" s="33"/>
+      <c r="BU49" s="33"/>
+      <c r="BV49" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="30"/>
-      <c r="BX49" s="30"/>
-      <c r="BY49" s="30"/>
-      <c r="BZ49" s="30" t="s">
+      <c r="BW49" s="33"/>
+      <c r="BX49" s="33"/>
+      <c r="BY49" s="33"/>
+      <c r="BZ49" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="30"/>
-      <c r="CB49" s="30"/>
-      <c r="CC49" s="30"/>
-      <c r="CD49" s="30" t="s">
+      <c r="CA49" s="33"/>
+      <c r="CB49" s="33"/>
+      <c r="CC49" s="33"/>
+      <c r="CD49" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="30"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
+      <c r="CE49" s="33"/>
+      <c r="CF49" s="33"/>
+      <c r="CG49" s="33"/>
       <c r="CH49" s="19" t="s">
         <v>48</v>
       </c>
@@ -28778,10 +28837,11 @@
       </c>
       <c r="CQ49" s="22"/>
       <c r="CR49" s="22"/>
-      <c r="CS49" s="20"/>
-      <c r="CT49" s="22"/>
-      <c r="CU49" s="22"/>
+      <c r="CS49" s="22"/>
+      <c r="CT49" s="20"/>
+      <c r="CU49" s="20"/>
       <c r="CV49" s="20"/>
+      <c r="CW49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29072,13 +29132,20 @@
       <c r="CR50" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CS50" s="28"/>
+      <c r="CS50" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CT50" s="28"/>
       <c r="CU50" s="28"/>
       <c r="CV50" s="28"/>
+      <c r="CW50" s="28"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
+      <c r="CT51" s="30"/>
+      <c r="CU51" s="30"/>
+      <c r="CV51" s="30"/>
+      <c r="CW51" s="30"/>
     </row>
     <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -29367,13 +29434,15 @@
         <v>7.1152358531415274</v>
       </c>
       <c r="CR52" s="29">
-        <v>7.7608044354330303</v>
-      </c>
-      <c r="CS52" s="29"/>
-      <c r="CT52" s="29"/>
-      <c r="CU52" s="29"/>
-      <c r="CV52" s="29"/>
-      <c r="CW52" s="9"/>
+        <v>6.5058194489327832</v>
+      </c>
+      <c r="CS52" s="29">
+        <v>5.9193827363759794</v>
+      </c>
+      <c r="CT52" s="31"/>
+      <c r="CU52" s="31"/>
+      <c r="CV52" s="31"/>
+      <c r="CW52" s="31"/>
       <c r="CX52" s="9"/>
       <c r="CY52" s="9"/>
       <c r="CZ52" s="9"/>
@@ -29710,13 +29779,15 @@
         <v>12.663730268885203</v>
       </c>
       <c r="CR53" s="29">
-        <v>8.764539964484257</v>
-      </c>
-      <c r="CS53" s="29"/>
-      <c r="CT53" s="29"/>
-      <c r="CU53" s="29"/>
-      <c r="CV53" s="29"/>
-      <c r="CW53" s="9"/>
+        <v>8.708831988062343</v>
+      </c>
+      <c r="CS53" s="29">
+        <v>8.8983998717002919</v>
+      </c>
+      <c r="CT53" s="31"/>
+      <c r="CU53" s="31"/>
+      <c r="CV53" s="31"/>
+      <c r="CW53" s="31"/>
       <c r="CX53" s="9"/>
       <c r="CY53" s="9"/>
       <c r="CZ53" s="9"/>
@@ -30053,13 +30124,15 @@
         <v>14.519031295657967</v>
       </c>
       <c r="CR54" s="29">
-        <v>6.3503093961936941</v>
-      </c>
-      <c r="CS54" s="29"/>
-      <c r="CT54" s="29"/>
-      <c r="CU54" s="29"/>
-      <c r="CV54" s="29"/>
-      <c r="CW54" s="9"/>
+        <v>6.1799794105090484</v>
+      </c>
+      <c r="CS54" s="29">
+        <v>6.4456659996981074</v>
+      </c>
+      <c r="CT54" s="31"/>
+      <c r="CU54" s="31"/>
+      <c r="CV54" s="31"/>
+      <c r="CW54" s="31"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
@@ -30206,10 +30279,10 @@
       <c r="CQ55" s="25"/>
       <c r="CR55" s="25"/>
       <c r="CS55" s="25"/>
-      <c r="CT55" s="25"/>
-      <c r="CU55" s="25"/>
-      <c r="CV55" s="25"/>
-      <c r="CW55" s="9"/>
+      <c r="CT55" s="32"/>
+      <c r="CU55" s="32"/>
+      <c r="CV55" s="32"/>
+      <c r="CW55" s="32"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
@@ -30546,13 +30619,15 @@
         <v>11.89268065216244</v>
       </c>
       <c r="CR56" s="29">
-        <v>8.5549974094011105</v>
-      </c>
-      <c r="CS56" s="29"/>
-      <c r="CT56" s="29"/>
-      <c r="CU56" s="29"/>
-      <c r="CV56" s="29"/>
-      <c r="CW56" s="9"/>
+        <v>8.3145785510376271</v>
+      </c>
+      <c r="CS56" s="29">
+        <v>8.2584919660590401</v>
+      </c>
+      <c r="CT56" s="31"/>
+      <c r="CU56" s="31"/>
+      <c r="CV56" s="31"/>
+      <c r="CW56" s="31"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
@@ -30700,14 +30775,19 @@
       <c r="CQ57" s="27"/>
       <c r="CR57" s="27"/>
       <c r="CS57" s="27"/>
-      <c r="CT57" s="27"/>
-      <c r="CU57" s="27"/>
-      <c r="CV57" s="27"/>
+      <c r="CT57" s="23"/>
+      <c r="CU57" s="23"/>
+      <c r="CV57" s="23"/>
+      <c r="CW57" s="23"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT58" s="30"/>
+      <c r="CU58" s="30"/>
+      <c r="CV58" s="30"/>
+      <c r="CW58" s="30"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
@@ -30806,10 +30886,10 @@
       <c r="CQ59" s="25"/>
       <c r="CR59" s="25"/>
       <c r="CS59" s="25"/>
-      <c r="CT59" s="25"/>
-      <c r="CU59" s="25"/>
-      <c r="CV59" s="25"/>
-      <c r="CW59" s="9"/>
+      <c r="CT59" s="32"/>
+      <c r="CU59" s="32"/>
+      <c r="CV59" s="32"/>
+      <c r="CW59" s="32"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
@@ -30956,10 +31036,10 @@
       <c r="CQ60" s="25"/>
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
-      <c r="CT60" s="25"/>
-      <c r="CU60" s="25"/>
-      <c r="CV60" s="25"/>
-      <c r="CW60" s="9"/>
+      <c r="CT60" s="32"/>
+      <c r="CU60" s="32"/>
+      <c r="CV60" s="32"/>
+      <c r="CW60" s="32"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
       <c r="CZ60" s="9"/>
@@ -31013,160 +31093,196 @@
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT61" s="30"/>
+      <c r="CU61" s="30"/>
+      <c r="CV61" s="30"/>
+      <c r="CW61" s="30"/>
     </row>
     <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT62" s="30"/>
+      <c r="CU62" s="30"/>
+      <c r="CV62" s="30"/>
+      <c r="CW62" s="30"/>
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CT63" s="30"/>
+      <c r="CU63" s="30"/>
+      <c r="CV63" s="30"/>
+      <c r="CW63" s="30"/>
+    </row>
+    <row r="64" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CT64" s="30"/>
+      <c r="CU64" s="30"/>
+      <c r="CV64" s="30"/>
+      <c r="CW64" s="30"/>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CT65" s="30"/>
+      <c r="CU65" s="30"/>
+      <c r="CV65" s="30"/>
+      <c r="CW65" s="30"/>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CT66" s="30"/>
+      <c r="CU66" s="30"/>
+      <c r="CV66" s="30"/>
+      <c r="CW66" s="30"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CT67" s="30"/>
+      <c r="CU67" s="30"/>
+      <c r="CV67" s="30"/>
+      <c r="CW67" s="30"/>
+    </row>
+    <row r="68" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CT68" s="30"/>
+      <c r="CU68" s="30"/>
+      <c r="CV68" s="30"/>
+      <c r="CW68" s="30"/>
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="30" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="30" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="30" t="s">
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="30" t="s">
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="30" t="s">
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="30" t="s">
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="30" t="s">
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="30" t="s">
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="34"/>
+      <c r="AG69" s="34"/>
+      <c r="AH69" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="32"/>
-      <c r="AJ69" s="32"/>
-      <c r="AK69" s="32"/>
-      <c r="AL69" s="30" t="s">
+      <c r="AI69" s="34"/>
+      <c r="AJ69" s="34"/>
+      <c r="AK69" s="34"/>
+      <c r="AL69" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="32"/>
-      <c r="AO69" s="32"/>
-      <c r="AP69" s="30" t="s">
+      <c r="AM69" s="34"/>
+      <c r="AN69" s="34"/>
+      <c r="AO69" s="34"/>
+      <c r="AP69" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="32"/>
-      <c r="AR69" s="32"/>
-      <c r="AS69" s="32"/>
-      <c r="AT69" s="30" t="s">
+      <c r="AQ69" s="34"/>
+      <c r="AR69" s="34"/>
+      <c r="AS69" s="34"/>
+      <c r="AT69" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="32"/>
-      <c r="AV69" s="32"/>
-      <c r="AW69" s="32"/>
-      <c r="AX69" s="30" t="s">
+      <c r="AU69" s="34"/>
+      <c r="AV69" s="34"/>
+      <c r="AW69" s="34"/>
+      <c r="AX69" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="32"/>
-      <c r="AZ69" s="32"/>
-      <c r="BA69" s="32"/>
-      <c r="BB69" s="30" t="s">
+      <c r="AY69" s="34"/>
+      <c r="AZ69" s="34"/>
+      <c r="BA69" s="34"/>
+      <c r="BB69" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="32"/>
-      <c r="BD69" s="32"/>
-      <c r="BE69" s="32"/>
-      <c r="BF69" s="30" t="s">
+      <c r="BC69" s="34"/>
+      <c r="BD69" s="34"/>
+      <c r="BE69" s="34"/>
+      <c r="BF69" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="32"/>
-      <c r="BH69" s="32"/>
-      <c r="BI69" s="32"/>
-      <c r="BJ69" s="30" t="s">
+      <c r="BG69" s="34"/>
+      <c r="BH69" s="34"/>
+      <c r="BI69" s="34"/>
+      <c r="BJ69" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="32"/>
-      <c r="BL69" s="32"/>
-      <c r="BM69" s="32"/>
-      <c r="BN69" s="30" t="s">
+      <c r="BK69" s="34"/>
+      <c r="BL69" s="34"/>
+      <c r="BM69" s="34"/>
+      <c r="BN69" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="32"/>
-      <c r="BP69" s="32"/>
-      <c r="BQ69" s="32"/>
-      <c r="BR69" s="30" t="s">
+      <c r="BO69" s="34"/>
+      <c r="BP69" s="34"/>
+      <c r="BQ69" s="34"/>
+      <c r="BR69" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="32"/>
-      <c r="BT69" s="32"/>
-      <c r="BU69" s="32"/>
-      <c r="BV69" s="30" t="s">
+      <c r="BS69" s="34"/>
+      <c r="BT69" s="34"/>
+      <c r="BU69" s="34"/>
+      <c r="BV69" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="30"/>
-      <c r="BX69" s="30"/>
-      <c r="BY69" s="30"/>
-      <c r="BZ69" s="30" t="s">
+      <c r="BW69" s="33"/>
+      <c r="BX69" s="33"/>
+      <c r="BY69" s="33"/>
+      <c r="BZ69" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="30"/>
-      <c r="CB69" s="30"/>
-      <c r="CC69" s="30"/>
-      <c r="CD69" s="30" t="s">
+      <c r="CA69" s="33"/>
+      <c r="CB69" s="33"/>
+      <c r="CC69" s="33"/>
+      <c r="CD69" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="30"/>
-      <c r="CF69" s="30"/>
-      <c r="CG69" s="30"/>
+      <c r="CE69" s="33"/>
+      <c r="CF69" s="33"/>
+      <c r="CG69" s="33"/>
       <c r="CH69" s="19" t="s">
         <v>48</v>
       </c>
@@ -31184,10 +31300,11 @@
       </c>
       <c r="CQ69" s="22"/>
       <c r="CR69" s="22"/>
-      <c r="CS69" s="20"/>
-      <c r="CT69" s="22"/>
-      <c r="CU69" s="22"/>
+      <c r="CS69" s="22"/>
+      <c r="CT69" s="20"/>
+      <c r="CU69" s="20"/>
       <c r="CV69" s="20"/>
+      <c r="CW69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31478,13 +31595,20 @@
       <c r="CR70" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CS70" s="28"/>
+      <c r="CS70" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CT70" s="28"/>
       <c r="CU70" s="28"/>
       <c r="CV70" s="28"/>
+      <c r="CW70" s="28"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
+      <c r="CT71" s="30"/>
+      <c r="CU71" s="30"/>
+      <c r="CV71" s="30"/>
+      <c r="CW71" s="30"/>
     </row>
     <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -31773,13 +31897,15 @@
         <v>4.3525093158608001</v>
       </c>
       <c r="CR72" s="29">
-        <v>6.101985570747388</v>
-      </c>
-      <c r="CS72" s="29"/>
-      <c r="CT72" s="29"/>
-      <c r="CU72" s="29"/>
-      <c r="CV72" s="29"/>
-      <c r="CW72" s="9"/>
+        <v>3.905321475733075</v>
+      </c>
+      <c r="CS72" s="29">
+        <v>3.5175504439973082</v>
+      </c>
+      <c r="CT72" s="31"/>
+      <c r="CU72" s="31"/>
+      <c r="CV72" s="31"/>
+      <c r="CW72" s="31"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
@@ -32116,13 +32242,15 @@
         <v>5.8597531293792571</v>
       </c>
       <c r="CR73" s="29">
-        <v>5.0625568256200921</v>
-      </c>
-      <c r="CS73" s="29"/>
-      <c r="CT73" s="29"/>
-      <c r="CU73" s="29"/>
-      <c r="CV73" s="29"/>
-      <c r="CW73" s="9"/>
+        <v>5.0634365749607184</v>
+      </c>
+      <c r="CS73" s="29">
+        <v>6.0248626467443955</v>
+      </c>
+      <c r="CT73" s="31"/>
+      <c r="CU73" s="31"/>
+      <c r="CV73" s="31"/>
+      <c r="CW73" s="31"/>
       <c r="CX73" s="9"/>
       <c r="CY73" s="9"/>
       <c r="CZ73" s="9"/>
@@ -32459,13 +32587,15 @@
         <v>13.254072179403039</v>
       </c>
       <c r="CR74" s="29">
-        <v>5.3535776382783098</v>
-      </c>
-      <c r="CS74" s="29"/>
-      <c r="CT74" s="29"/>
-      <c r="CU74" s="29"/>
-      <c r="CV74" s="29"/>
-      <c r="CW74" s="9"/>
+        <v>5.1449594542957442</v>
+      </c>
+      <c r="CS74" s="29">
+        <v>5.3906562880501809</v>
+      </c>
+      <c r="CT74" s="31"/>
+      <c r="CU74" s="31"/>
+      <c r="CV74" s="31"/>
+      <c r="CW74" s="31"/>
       <c r="CX74" s="9"/>
       <c r="CY74" s="9"/>
       <c r="CZ74" s="9"/>
@@ -32612,10 +32742,10 @@
       <c r="CQ75" s="25"/>
       <c r="CR75" s="25"/>
       <c r="CS75" s="25"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="25"/>
-      <c r="CV75" s="25"/>
-      <c r="CW75" s="9"/>
+      <c r="CT75" s="32"/>
+      <c r="CU75" s="32"/>
+      <c r="CV75" s="32"/>
+      <c r="CW75" s="32"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
@@ -32952,13 +33082,15 @@
         <v>5.783176201316806</v>
       </c>
       <c r="CR76" s="29">
-        <v>5.2212358261913323</v>
-      </c>
-      <c r="CS76" s="29"/>
-      <c r="CT76" s="29"/>
-      <c r="CU76" s="29"/>
-      <c r="CV76" s="29"/>
-      <c r="CW76" s="9"/>
+        <v>4.8974085809522165</v>
+      </c>
+      <c r="CS76" s="29">
+        <v>5.5429336641743987</v>
+      </c>
+      <c r="CT76" s="31"/>
+      <c r="CU76" s="31"/>
+      <c r="CV76" s="31"/>
+      <c r="CW76" s="31"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
@@ -33106,14 +33238,19 @@
       <c r="CQ77" s="27"/>
       <c r="CR77" s="27"/>
       <c r="CS77" s="27"/>
-      <c r="CT77" s="27"/>
-      <c r="CU77" s="27"/>
-      <c r="CV77" s="27"/>
+      <c r="CT77" s="23"/>
+      <c r="CU77" s="23"/>
+      <c r="CV77" s="23"/>
+      <c r="CW77" s="23"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT78" s="30"/>
+      <c r="CU78" s="30"/>
+      <c r="CV78" s="30"/>
+      <c r="CW78" s="30"/>
     </row>
     <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
@@ -33212,10 +33349,10 @@
       <c r="CQ79" s="25"/>
       <c r="CR79" s="25"/>
       <c r="CS79" s="25"/>
-      <c r="CT79" s="25"/>
-      <c r="CU79" s="25"/>
-      <c r="CV79" s="25"/>
-      <c r="CW79" s="9"/>
+      <c r="CT79" s="32"/>
+      <c r="CU79" s="32"/>
+      <c r="CV79" s="32"/>
+      <c r="CW79" s="32"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
@@ -33365,7 +33502,7 @@
       <c r="CT80" s="25"/>
       <c r="CU80" s="25"/>
       <c r="CV80" s="25"/>
-      <c r="CW80" s="9"/>
+      <c r="CW80" s="25"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
@@ -33422,7 +33559,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33432,7 +33569,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33442,132 +33579,132 @@
     </row>
     <row r="88" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="30">
+      <c r="B88" s="33">
         <v>2000</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="30">
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="33">
         <v>2001</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="30">
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="33">
         <v>2002</v>
       </c>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="30">
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="33">
         <v>2003</v>
       </c>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="30">
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="33">
         <v>2004</v>
       </c>
-      <c r="S88" s="31"/>
-      <c r="T88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="V88" s="30">
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="33">
         <v>2005</v>
       </c>
-      <c r="W88" s="31"/>
-      <c r="X88" s="31"/>
-      <c r="Y88" s="31"/>
-      <c r="Z88" s="30">
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="33">
         <v>2006</v>
       </c>
-      <c r="AA88" s="31"/>
-      <c r="AB88" s="31"/>
-      <c r="AC88" s="31"/>
-      <c r="AD88" s="30">
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="33">
         <v>2007</v>
       </c>
-      <c r="AE88" s="31"/>
-      <c r="AF88" s="31"/>
-      <c r="AG88" s="31"/>
-      <c r="AH88" s="30">
+      <c r="AE88" s="35"/>
+      <c r="AF88" s="35"/>
+      <c r="AG88" s="35"/>
+      <c r="AH88" s="33">
         <v>2008</v>
       </c>
-      <c r="AI88" s="31"/>
-      <c r="AJ88" s="31"/>
-      <c r="AK88" s="31"/>
-      <c r="AL88" s="30">
+      <c r="AI88" s="35"/>
+      <c r="AJ88" s="35"/>
+      <c r="AK88" s="35"/>
+      <c r="AL88" s="33">
         <v>2009</v>
       </c>
-      <c r="AM88" s="31"/>
-      <c r="AN88" s="31"/>
-      <c r="AO88" s="31"/>
-      <c r="AP88" s="30">
+      <c r="AM88" s="35"/>
+      <c r="AN88" s="35"/>
+      <c r="AO88" s="35"/>
+      <c r="AP88" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="31"/>
-      <c r="AR88" s="31"/>
-      <c r="AS88" s="31"/>
-      <c r="AT88" s="30">
+      <c r="AQ88" s="35"/>
+      <c r="AR88" s="35"/>
+      <c r="AS88" s="35"/>
+      <c r="AT88" s="33">
         <v>2011</v>
       </c>
-      <c r="AU88" s="31"/>
-      <c r="AV88" s="31"/>
-      <c r="AW88" s="31"/>
-      <c r="AX88" s="30">
+      <c r="AU88" s="35"/>
+      <c r="AV88" s="35"/>
+      <c r="AW88" s="35"/>
+      <c r="AX88" s="33">
         <v>2012</v>
       </c>
-      <c r="AY88" s="31"/>
-      <c r="AZ88" s="31"/>
-      <c r="BA88" s="31"/>
-      <c r="BB88" s="30">
+      <c r="AY88" s="35"/>
+      <c r="AZ88" s="35"/>
+      <c r="BA88" s="35"/>
+      <c r="BB88" s="33">
         <v>2013</v>
       </c>
-      <c r="BC88" s="31"/>
-      <c r="BD88" s="31"/>
-      <c r="BE88" s="31"/>
-      <c r="BF88" s="30">
+      <c r="BC88" s="35"/>
+      <c r="BD88" s="35"/>
+      <c r="BE88" s="35"/>
+      <c r="BF88" s="33">
         <v>2014</v>
       </c>
-      <c r="BG88" s="31"/>
-      <c r="BH88" s="31"/>
-      <c r="BI88" s="31"/>
-      <c r="BJ88" s="30">
+      <c r="BG88" s="35"/>
+      <c r="BH88" s="35"/>
+      <c r="BI88" s="35"/>
+      <c r="BJ88" s="33">
         <v>2015</v>
       </c>
-      <c r="BK88" s="31"/>
-      <c r="BL88" s="31"/>
-      <c r="BM88" s="31"/>
-      <c r="BN88" s="30">
+      <c r="BK88" s="35"/>
+      <c r="BL88" s="35"/>
+      <c r="BM88" s="35"/>
+      <c r="BN88" s="33">
         <v>2016</v>
       </c>
-      <c r="BO88" s="31"/>
-      <c r="BP88" s="31"/>
-      <c r="BQ88" s="31"/>
-      <c r="BR88" s="30">
+      <c r="BO88" s="35"/>
+      <c r="BP88" s="35"/>
+      <c r="BQ88" s="35"/>
+      <c r="BR88" s="33">
         <v>2017</v>
       </c>
-      <c r="BS88" s="31"/>
-      <c r="BT88" s="31"/>
-      <c r="BU88" s="31"/>
-      <c r="BV88" s="30">
+      <c r="BS88" s="35"/>
+      <c r="BT88" s="35"/>
+      <c r="BU88" s="35"/>
+      <c r="BV88" s="33">
         <v>2018</v>
       </c>
-      <c r="BW88" s="30"/>
-      <c r="BX88" s="30"/>
-      <c r="BY88" s="30"/>
-      <c r="BZ88" s="30">
+      <c r="BW88" s="33"/>
+      <c r="BX88" s="33"/>
+      <c r="BY88" s="33"/>
+      <c r="BZ88" s="33">
         <v>2019</v>
       </c>
-      <c r="CA88" s="30"/>
-      <c r="CB88" s="30"/>
-      <c r="CC88" s="30"/>
-      <c r="CD88" s="30">
+      <c r="CA88" s="33"/>
+      <c r="CB88" s="33"/>
+      <c r="CC88" s="33"/>
+      <c r="CD88" s="33">
         <v>2020</v>
       </c>
-      <c r="CE88" s="30"/>
-      <c r="CF88" s="30"/>
-      <c r="CG88" s="30"/>
+      <c r="CE88" s="33"/>
+      <c r="CF88" s="33"/>
+      <c r="CG88" s="33"/>
       <c r="CH88" s="19">
         <v>2021</v>
       </c>
@@ -33591,6 +33728,7 @@
       </c>
       <c r="CU88" s="22"/>
       <c r="CV88" s="22"/>
+      <c r="CW88" s="22"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33892,6 +34030,9 @@
       </c>
       <c r="CV89" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW89" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34196,9 +34337,11 @@
         <v>118.91748525033891</v>
       </c>
       <c r="CV91" s="29">
-        <v>120.46037999368883</v>
-      </c>
-      <c r="CW91" s="9"/>
+        <v>121.57449188870271</v>
+      </c>
+      <c r="CW91" s="29">
+        <v>124.72971205727971</v>
+      </c>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
       <c r="CZ91" s="9"/>
@@ -34551,9 +34694,11 @@
         <v>119.97420325187859</v>
       </c>
       <c r="CV92" s="29">
-        <v>116.98345777943244</v>
-      </c>
-      <c r="CW92" s="9"/>
+        <v>116.92256110557611</v>
+      </c>
+      <c r="CW92" s="29">
+        <v>117.45326971370893</v>
+      </c>
       <c r="CX92" s="9"/>
       <c r="CY92" s="9"/>
       <c r="CZ92" s="9"/>
@@ -34906,9 +35051,11 @@
         <v>103.66740150281773</v>
       </c>
       <c r="CV93" s="29">
-        <v>102.32507615753119</v>
-      </c>
-      <c r="CW93" s="9"/>
+        <v>102.36389105094563</v>
+      </c>
+      <c r="CW93" s="29">
+        <v>103.94866202329354</v>
+      </c>
       <c r="CX93" s="9"/>
       <c r="CY93" s="9"/>
       <c r="CZ93" s="9"/>
@@ -35062,7 +35209,7 @@
       <c r="CT94" s="25"/>
       <c r="CU94" s="25"/>
       <c r="CV94" s="25"/>
-      <c r="CW94" s="9"/>
+      <c r="CW94" s="25"/>
       <c r="CX94" s="9"/>
       <c r="CY94" s="9"/>
       <c r="CZ94" s="9"/>
@@ -35415,9 +35562,11 @@
         <v>119.50642265099074</v>
       </c>
       <c r="CV95" s="29">
-        <v>117.10309616895627</v>
-      </c>
-      <c r="CW95" s="9"/>
+        <v>117.20445227700394</v>
+      </c>
+      <c r="CW95" s="29">
+        <v>118.43587244835112</v>
+      </c>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
@@ -35572,6 +35721,7 @@
       <c r="CT96" s="27"/>
       <c r="CU96" s="27"/>
       <c r="CV96" s="27"/>
+      <c r="CW96" s="27"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35590,7 +35740,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35600,7 +35750,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35610,132 +35760,132 @@
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="30">
+      <c r="B108" s="33">
         <v>2000</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="30">
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="33">
         <v>2001</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="30">
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="33">
         <v>2002</v>
       </c>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="30">
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="33">
         <v>2003</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="30">
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="33">
         <v>2004</v>
       </c>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="30">
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="33">
         <v>2005</v>
       </c>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="31"/>
-      <c r="Z108" s="30">
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="33">
         <v>2006</v>
       </c>
-      <c r="AA108" s="31"/>
-      <c r="AB108" s="31"/>
-      <c r="AC108" s="31"/>
-      <c r="AD108" s="30">
+      <c r="AA108" s="35"/>
+      <c r="AB108" s="35"/>
+      <c r="AC108" s="35"/>
+      <c r="AD108" s="33">
         <v>2007</v>
       </c>
-      <c r="AE108" s="31"/>
-      <c r="AF108" s="31"/>
-      <c r="AG108" s="31"/>
-      <c r="AH108" s="30">
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+      <c r="AH108" s="33">
         <v>2008</v>
       </c>
-      <c r="AI108" s="31"/>
-      <c r="AJ108" s="31"/>
-      <c r="AK108" s="31"/>
-      <c r="AL108" s="30">
+      <c r="AI108" s="35"/>
+      <c r="AJ108" s="35"/>
+      <c r="AK108" s="35"/>
+      <c r="AL108" s="33">
         <v>2009</v>
       </c>
-      <c r="AM108" s="31"/>
-      <c r="AN108" s="31"/>
-      <c r="AO108" s="31"/>
-      <c r="AP108" s="30">
+      <c r="AM108" s="35"/>
+      <c r="AN108" s="35"/>
+      <c r="AO108" s="35"/>
+      <c r="AP108" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="31"/>
-      <c r="AR108" s="31"/>
-      <c r="AS108" s="31"/>
-      <c r="AT108" s="30">
+      <c r="AQ108" s="35"/>
+      <c r="AR108" s="35"/>
+      <c r="AS108" s="35"/>
+      <c r="AT108" s="33">
         <v>2011</v>
       </c>
-      <c r="AU108" s="31"/>
-      <c r="AV108" s="31"/>
-      <c r="AW108" s="31"/>
-      <c r="AX108" s="30">
+      <c r="AU108" s="35"/>
+      <c r="AV108" s="35"/>
+      <c r="AW108" s="35"/>
+      <c r="AX108" s="33">
         <v>2012</v>
       </c>
-      <c r="AY108" s="31"/>
-      <c r="AZ108" s="31"/>
-      <c r="BA108" s="31"/>
-      <c r="BB108" s="30">
+      <c r="AY108" s="35"/>
+      <c r="AZ108" s="35"/>
+      <c r="BA108" s="35"/>
+      <c r="BB108" s="33">
         <v>2013</v>
       </c>
-      <c r="BC108" s="31"/>
-      <c r="BD108" s="31"/>
-      <c r="BE108" s="31"/>
-      <c r="BF108" s="30">
+      <c r="BC108" s="35"/>
+      <c r="BD108" s="35"/>
+      <c r="BE108" s="35"/>
+      <c r="BF108" s="33">
         <v>2014</v>
       </c>
-      <c r="BG108" s="31"/>
-      <c r="BH108" s="31"/>
-      <c r="BI108" s="31"/>
-      <c r="BJ108" s="30">
+      <c r="BG108" s="35"/>
+      <c r="BH108" s="35"/>
+      <c r="BI108" s="35"/>
+      <c r="BJ108" s="33">
         <v>2015</v>
       </c>
-      <c r="BK108" s="31"/>
-      <c r="BL108" s="31"/>
-      <c r="BM108" s="31"/>
-      <c r="BN108" s="30">
+      <c r="BK108" s="35"/>
+      <c r="BL108" s="35"/>
+      <c r="BM108" s="35"/>
+      <c r="BN108" s="33">
         <v>2016</v>
       </c>
-      <c r="BO108" s="31"/>
-      <c r="BP108" s="31"/>
-      <c r="BQ108" s="31"/>
-      <c r="BR108" s="30">
+      <c r="BO108" s="35"/>
+      <c r="BP108" s="35"/>
+      <c r="BQ108" s="35"/>
+      <c r="BR108" s="33">
         <v>2017</v>
       </c>
-      <c r="BS108" s="31"/>
-      <c r="BT108" s="31"/>
-      <c r="BU108" s="31"/>
-      <c r="BV108" s="30">
+      <c r="BS108" s="35"/>
+      <c r="BT108" s="35"/>
+      <c r="BU108" s="35"/>
+      <c r="BV108" s="33">
         <v>2018</v>
       </c>
-      <c r="BW108" s="30"/>
-      <c r="BX108" s="30"/>
-      <c r="BY108" s="30"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="33"/>
+      <c r="BX108" s="33"/>
+      <c r="BY108" s="33"/>
+      <c r="BZ108" s="33">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="30">
+      <c r="CA108" s="33"/>
+      <c r="CB108" s="33"/>
+      <c r="CC108" s="33"/>
+      <c r="CD108" s="33">
         <v>2020</v>
       </c>
-      <c r="CE108" s="30"/>
-      <c r="CF108" s="30"/>
-      <c r="CG108" s="30"/>
+      <c r="CE108" s="33"/>
+      <c r="CF108" s="33"/>
+      <c r="CG108" s="33"/>
       <c r="CH108" s="19">
         <v>2021</v>
       </c>
@@ -35759,6 +35909,7 @@
       </c>
       <c r="CU108" s="22"/>
       <c r="CV108" s="22"/>
+      <c r="CW108" s="22"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -36060,6 +36211,9 @@
       </c>
       <c r="CV109" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW109" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36364,9 +36518,11 @@
         <v>13.837022035358407</v>
       </c>
       <c r="CV111" s="29">
-        <v>15.064294032950318</v>
-      </c>
-      <c r="CW111" s="9"/>
+        <v>14.921902720453881</v>
+      </c>
+      <c r="CW111" s="29">
+        <v>19.188940662126015</v>
+      </c>
       <c r="CX111" s="9"/>
       <c r="CY111" s="9"/>
       <c r="CZ111" s="9"/>
@@ -36719,9 +36875,11 @@
         <v>84.456234754295153</v>
       </c>
       <c r="CV112" s="29">
-        <v>82.613626662815037</v>
-      </c>
-      <c r="CW112" s="9"/>
+        <v>82.754591088670466</v>
+      </c>
+      <c r="CW112" s="29">
+        <v>78.580476123547186</v>
+      </c>
       <c r="CX112" s="9"/>
       <c r="CY112" s="9"/>
       <c r="CZ112" s="9"/>
@@ -37074,9 +37232,11 @@
         <v>1.7067432103464306</v>
       </c>
       <c r="CV113" s="29">
-        <v>2.3220793042346544</v>
-      </c>
-      <c r="CW113" s="9"/>
+        <v>2.3235061908756567</v>
+      </c>
+      <c r="CW113" s="29">
+        <v>2.2305832143268058</v>
+      </c>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
@@ -37230,7 +37390,7 @@
       <c r="CT114" s="25"/>
       <c r="CU114" s="25"/>
       <c r="CV114" s="25"/>
-      <c r="CW114" s="9"/>
+      <c r="CW114" s="25"/>
       <c r="CX114" s="9"/>
       <c r="CY114" s="9"/>
       <c r="CZ114" s="9"/>
@@ -37585,7 +37745,9 @@
       <c r="CV115" s="29">
         <v>100</v>
       </c>
-      <c r="CW115" s="9"/>
+      <c r="CW115" s="29">
+        <v>100</v>
+      </c>
       <c r="CX115" s="9"/>
       <c r="CY115" s="9"/>
       <c r="CZ115" s="9"/>
@@ -37740,6 +37902,7 @@
       <c r="CT116" s="27"/>
       <c r="CU116" s="27"/>
       <c r="CV116" s="27"/>
+      <c r="CW116" s="27"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37846,7 +38009,7 @@
       <c r="CT118" s="25"/>
       <c r="CU118" s="25"/>
       <c r="CV118" s="25"/>
-      <c r="CW118" s="9"/>
+      <c r="CW118" s="25"/>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
@@ -38000,7 +38163,7 @@
       <c r="CT119" s="25"/>
       <c r="CU119" s="25"/>
       <c r="CV119" s="25"/>
-      <c r="CW119" s="9"/>
+      <c r="CW119" s="25"/>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
@@ -38066,7 +38229,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -38076,7 +38239,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -38086,132 +38249,132 @@
     </row>
     <row r="128" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="30">
+      <c r="B128" s="33">
         <v>2000</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="30">
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="33">
         <v>2001</v>
       </c>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="30">
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="33">
         <v>2002</v>
       </c>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="30">
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="33">
         <v>2003</v>
       </c>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="30">
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="33">
         <v>2004</v>
       </c>
-      <c r="S128" s="31"/>
-      <c r="T128" s="31"/>
-      <c r="U128" s="31"/>
-      <c r="V128" s="30">
+      <c r="S128" s="35"/>
+      <c r="T128" s="35"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="33">
         <v>2005</v>
       </c>
-      <c r="W128" s="31"/>
-      <c r="X128" s="31"/>
-      <c r="Y128" s="31"/>
-      <c r="Z128" s="30">
+      <c r="W128" s="35"/>
+      <c r="X128" s="35"/>
+      <c r="Y128" s="35"/>
+      <c r="Z128" s="33">
         <v>2006</v>
       </c>
-      <c r="AA128" s="31"/>
-      <c r="AB128" s="31"/>
-      <c r="AC128" s="31"/>
-      <c r="AD128" s="30">
+      <c r="AA128" s="35"/>
+      <c r="AB128" s="35"/>
+      <c r="AC128" s="35"/>
+      <c r="AD128" s="33">
         <v>2007</v>
       </c>
-      <c r="AE128" s="31"/>
-      <c r="AF128" s="31"/>
-      <c r="AG128" s="31"/>
-      <c r="AH128" s="30">
+      <c r="AE128" s="35"/>
+      <c r="AF128" s="35"/>
+      <c r="AG128" s="35"/>
+      <c r="AH128" s="33">
         <v>2008</v>
       </c>
-      <c r="AI128" s="31"/>
-      <c r="AJ128" s="31"/>
-      <c r="AK128" s="31"/>
-      <c r="AL128" s="30">
+      <c r="AI128" s="35"/>
+      <c r="AJ128" s="35"/>
+      <c r="AK128" s="35"/>
+      <c r="AL128" s="33">
         <v>2009</v>
       </c>
-      <c r="AM128" s="31"/>
-      <c r="AN128" s="31"/>
-      <c r="AO128" s="31"/>
-      <c r="AP128" s="30">
+      <c r="AM128" s="35"/>
+      <c r="AN128" s="35"/>
+      <c r="AO128" s="35"/>
+      <c r="AP128" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="31"/>
-      <c r="AR128" s="31"/>
-      <c r="AS128" s="31"/>
-      <c r="AT128" s="30">
+      <c r="AQ128" s="35"/>
+      <c r="AR128" s="35"/>
+      <c r="AS128" s="35"/>
+      <c r="AT128" s="33">
         <v>2011</v>
       </c>
-      <c r="AU128" s="31"/>
-      <c r="AV128" s="31"/>
-      <c r="AW128" s="31"/>
-      <c r="AX128" s="30">
+      <c r="AU128" s="35"/>
+      <c r="AV128" s="35"/>
+      <c r="AW128" s="35"/>
+      <c r="AX128" s="33">
         <v>2012</v>
       </c>
-      <c r="AY128" s="31"/>
-      <c r="AZ128" s="31"/>
-      <c r="BA128" s="31"/>
-      <c r="BB128" s="30">
+      <c r="AY128" s="35"/>
+      <c r="AZ128" s="35"/>
+      <c r="BA128" s="35"/>
+      <c r="BB128" s="33">
         <v>2013</v>
       </c>
-      <c r="BC128" s="31"/>
-      <c r="BD128" s="31"/>
-      <c r="BE128" s="31"/>
-      <c r="BF128" s="30">
+      <c r="BC128" s="35"/>
+      <c r="BD128" s="35"/>
+      <c r="BE128" s="35"/>
+      <c r="BF128" s="33">
         <v>2014</v>
       </c>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="31"/>
-      <c r="BI128" s="31"/>
-      <c r="BJ128" s="30">
+      <c r="BG128" s="35"/>
+      <c r="BH128" s="35"/>
+      <c r="BI128" s="35"/>
+      <c r="BJ128" s="33">
         <v>2015</v>
       </c>
-      <c r="BK128" s="31"/>
-      <c r="BL128" s="31"/>
-      <c r="BM128" s="31"/>
-      <c r="BN128" s="30">
+      <c r="BK128" s="35"/>
+      <c r="BL128" s="35"/>
+      <c r="BM128" s="35"/>
+      <c r="BN128" s="33">
         <v>2016</v>
       </c>
-      <c r="BO128" s="31"/>
-      <c r="BP128" s="31"/>
-      <c r="BQ128" s="31"/>
-      <c r="BR128" s="30">
+      <c r="BO128" s="35"/>
+      <c r="BP128" s="35"/>
+      <c r="BQ128" s="35"/>
+      <c r="BR128" s="33">
         <v>2017</v>
       </c>
-      <c r="BS128" s="31"/>
-      <c r="BT128" s="31"/>
-      <c r="BU128" s="31"/>
-      <c r="BV128" s="30">
+      <c r="BS128" s="35"/>
+      <c r="BT128" s="35"/>
+      <c r="BU128" s="35"/>
+      <c r="BV128" s="33">
         <v>2018</v>
       </c>
-      <c r="BW128" s="30"/>
-      <c r="BX128" s="30"/>
-      <c r="BY128" s="30"/>
-      <c r="BZ128" s="30">
+      <c r="BW128" s="33"/>
+      <c r="BX128" s="33"/>
+      <c r="BY128" s="33"/>
+      <c r="BZ128" s="33">
         <v>2019</v>
       </c>
-      <c r="CA128" s="30"/>
-      <c r="CB128" s="30"/>
-      <c r="CC128" s="30"/>
-      <c r="CD128" s="30">
+      <c r="CA128" s="33"/>
+      <c r="CB128" s="33"/>
+      <c r="CC128" s="33"/>
+      <c r="CD128" s="33">
         <v>2020</v>
       </c>
-      <c r="CE128" s="30"/>
-      <c r="CF128" s="30"/>
-      <c r="CG128" s="30"/>
+      <c r="CE128" s="33"/>
+      <c r="CF128" s="33"/>
+      <c r="CG128" s="33"/>
       <c r="CH128" s="19">
         <v>2021</v>
       </c>
@@ -38235,6 +38398,7 @@
       </c>
       <c r="CU128" s="22"/>
       <c r="CV128" s="22"/>
+      <c r="CW128" s="22"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38536,6 +38700,9 @@
       </c>
       <c r="CV129" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW129" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38840,9 +39007,11 @@
         <v>13.905549718845078</v>
       </c>
       <c r="CV131" s="29">
-        <v>14.644445525993182</v>
-      </c>
-      <c r="CW131" s="9"/>
+        <v>14.385529465199021</v>
+      </c>
+      <c r="CW131" s="29">
+        <v>18.220670048808095</v>
+      </c>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
       <c r="CZ131" s="9"/>
@@ -39195,9 +39364,11 @@
         <v>84.126939062627613</v>
       </c>
       <c r="CV132" s="29">
-        <v>82.698115200205507</v>
-      </c>
-      <c r="CW132" s="9"/>
+        <v>82.95410595049384</v>
+      </c>
+      <c r="CW132" s="29">
+        <v>79.23787281345362</v>
+      </c>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
       <c r="CZ132" s="9"/>
@@ -39550,9 +39721,11 @@
         <v>1.9675112185273154</v>
       </c>
       <c r="CV133" s="29">
-        <v>2.6574392738013137</v>
-      </c>
-      <c r="CW133" s="9"/>
+        <v>2.660364584307128</v>
+      </c>
+      <c r="CW133" s="29">
+        <v>2.5414571377382718</v>
+      </c>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
       <c r="CZ133" s="9"/>
@@ -39706,7 +39879,7 @@
       <c r="CT134" s="25"/>
       <c r="CU134" s="25"/>
       <c r="CV134" s="25"/>
-      <c r="CW134" s="9"/>
+      <c r="CW134" s="25"/>
       <c r="CX134" s="9"/>
       <c r="CY134" s="9"/>
       <c r="CZ134" s="9"/>
@@ -40061,7 +40234,9 @@
       <c r="CV135" s="29">
         <v>100</v>
       </c>
-      <c r="CW135" s="9"/>
+      <c r="CW135" s="29">
+        <v>100</v>
+      </c>
       <c r="CX135" s="9"/>
       <c r="CY135" s="9"/>
       <c r="CZ135" s="9"/>
@@ -40216,6 +40391,7 @@
       <c r="CT136" s="27"/>
       <c r="CU136" s="27"/>
       <c r="CV136" s="27"/>
+      <c r="CW136" s="27"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40320,10 +40496,10 @@
       <c r="CQ138" s="21"/>
       <c r="CR138" s="21"/>
       <c r="CS138" s="21"/>
-      <c r="CT138" s="21"/>
-      <c r="CU138" s="21"/>
-      <c r="CV138" s="21"/>
-      <c r="CW138" s="15"/>
+      <c r="CT138" s="30"/>
+      <c r="CU138" s="30"/>
+      <c r="CV138" s="30"/>
+      <c r="CW138" s="21"/>
       <c r="CX138" s="15"/>
       <c r="CY138" s="15"/>
       <c r="CZ138" s="15"/>
@@ -40475,10 +40651,10 @@
       <c r="CQ139" s="21"/>
       <c r="CR139" s="21"/>
       <c r="CS139" s="21"/>
-      <c r="CT139" s="21"/>
-      <c r="CU139" s="21"/>
-      <c r="CV139" s="21"/>
-      <c r="CW139" s="15"/>
+      <c r="CT139" s="30"/>
+      <c r="CU139" s="30"/>
+      <c r="CV139" s="30"/>
+      <c r="CW139" s="21"/>
       <c r="CX139" s="15"/>
       <c r="CY139" s="15"/>
       <c r="CZ139" s="15"/>
@@ -40532,63 +40708,106 @@
       <c r="EV139" s="15"/>
       <c r="EW139" s="15"/>
     </row>
+    <row r="140" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT140" s="30"/>
+      <c r="CU140" s="30"/>
+      <c r="CV140" s="30"/>
+    </row>
+    <row r="141" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT141" s="30"/>
+      <c r="CU141" s="30"/>
+      <c r="CV141" s="30"/>
+    </row>
+    <row r="142" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT142" s="30"/>
+      <c r="CU142" s="30"/>
+      <c r="CV142" s="30"/>
+    </row>
+    <row r="143" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT143" s="30"/>
+      <c r="CU143" s="30"/>
+      <c r="CV143" s="30"/>
+    </row>
+    <row r="144" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT144" s="30"/>
+      <c r="CU144" s="30"/>
+      <c r="CV144" s="30"/>
+    </row>
+    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT145" s="30"/>
+      <c r="CU145" s="30"/>
+      <c r="CV145" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
     <mergeCell ref="AX49:BA49"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
@@ -40613,83 +40832,70 @@
     <mergeCell ref="AD29:AG29"/>
     <mergeCell ref="AH29:AK29"/>
     <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="99" man="1"/>
-    <brk id="80" max="99" man="1"/>
-    <brk id="99" max="99" man="1"/>
+    <brk id="40" max="100" man="1"/>
+    <brk id="80" max="100" man="1"/>
+    <brk id="99" max="100" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9DC74-B47F-4A11-8586-00D0B4F157C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF27DCCE-F499-476B-ADF1-37301B45EA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CW$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CX$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -777,10 +780,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23641,12 +23644,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EW145"/>
+  <dimension ref="A1:EW140"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23654,10 +23657,9 @@
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
-    <col min="74" max="92" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="21" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="89" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="21" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23672,7 +23674,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23682,7 +23684,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23824,12 +23826,12 @@
       <c r="CI9" s="19"/>
       <c r="CJ9" s="19"/>
       <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
       <c r="CP9" s="22">
         <v>2023</v>
       </c>
@@ -23842,6 +23844,9 @@
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
       <c r="CW9" s="22"/>
+      <c r="CX9" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24111,16 +24116,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="23" t="s">
@@ -24146,6 +24151,9 @@
       </c>
       <c r="CW10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24419,43 +24427,45 @@
       <c r="CK12" s="17">
         <v>218460.87099809165</v>
       </c>
-      <c r="CL12" s="17">
+      <c r="CL12" s="24">
         <v>140563.01910051252</v>
       </c>
-      <c r="CM12" s="17">
+      <c r="CM12" s="24">
         <v>138690.4582942425</v>
       </c>
-      <c r="CN12" s="17">
+      <c r="CN12" s="24">
         <v>171443.26743782181</v>
       </c>
-      <c r="CO12" s="17">
+      <c r="CO12" s="24">
         <v>241872.07257785328</v>
       </c>
       <c r="CP12" s="24">
         <v>150250.70697449305</v>
       </c>
       <c r="CQ12" s="24">
-        <v>147748.40722495565</v>
+        <v>147719.37052977819</v>
       </c>
       <c r="CR12" s="24">
-        <v>183900.22750240038</v>
+        <v>183652.4919062285</v>
       </c>
       <c r="CS12" s="24">
-        <v>258557.47435867222</v>
+        <v>258560.22760432865</v>
       </c>
       <c r="CT12" s="24">
-        <v>160718.07541940114</v>
+        <v>160429.83260692499</v>
       </c>
       <c r="CU12" s="24">
-        <v>158261.05486827125</v>
+        <v>157858.26166563126</v>
       </c>
       <c r="CV12" s="24">
-        <v>195864.44426988318</v>
+        <v>194932.73884800117</v>
       </c>
       <c r="CW12" s="24">
-        <v>273862.48085946921</v>
-      </c>
-      <c r="CX12" s="9"/>
+        <v>273800.92722069391</v>
+      </c>
+      <c r="CX12" s="24">
+        <v>175546.14785614519</v>
+      </c>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
@@ -24776,43 +24786,45 @@
       <c r="CK13" s="17">
         <v>787589.95453127439</v>
       </c>
-      <c r="CL13" s="17">
+      <c r="CL13" s="24">
         <v>615661.71914874716</v>
       </c>
-      <c r="CM13" s="17">
+      <c r="CM13" s="24">
         <v>765800.70951643935</v>
       </c>
-      <c r="CN13" s="17">
+      <c r="CN13" s="24">
         <v>903145.8385736302</v>
       </c>
-      <c r="CO13" s="17">
+      <c r="CO13" s="24">
         <v>922692.50406086107</v>
       </c>
       <c r="CP13" s="24">
         <v>714777.15660899249</v>
       </c>
       <c r="CQ13" s="24">
-        <v>857391.18231218599</v>
+        <v>857361.26682473859</v>
       </c>
       <c r="CR13" s="24">
-        <v>999214.36233087827</v>
+        <v>999138.60914628685</v>
       </c>
       <c r="CS13" s="24">
-        <v>1029851.7128424793</v>
+        <v>1031672.7201150245</v>
       </c>
       <c r="CT13" s="24">
-        <v>802769.48201678286</v>
+        <v>802883.71334401332</v>
       </c>
       <c r="CU13" s="24">
-        <v>965968.88898940699</v>
+        <v>966511.85994364903</v>
       </c>
       <c r="CV13" s="24">
-        <v>1086234.2623468628</v>
+        <v>1088018.7502523635</v>
       </c>
       <c r="CW13" s="24">
-        <v>1121492.0363367577</v>
-      </c>
-      <c r="CX13" s="9"/>
+        <v>1121247.8452660744</v>
+      </c>
+      <c r="CX13" s="24">
+        <v>875752.50155229936</v>
+      </c>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
@@ -25133,16 +25145,16 @@
       <c r="CK14" s="17">
         <v>19751.559694940119</v>
       </c>
-      <c r="CL14" s="17">
+      <c r="CL14" s="24">
         <v>23095.367766268962</v>
       </c>
-      <c r="CM14" s="17">
+      <c r="CM14" s="24">
         <v>14584.634370317533</v>
       </c>
-      <c r="CN14" s="17">
+      <c r="CN14" s="24">
         <v>24467.709139487404</v>
       </c>
-      <c r="CO14" s="17">
+      <c r="CO14" s="24">
         <v>25532.406727876172</v>
       </c>
       <c r="CP14" s="24">
@@ -25152,24 +25164,26 @@
         <v>17045.978711208467</v>
       </c>
       <c r="CR14" s="24">
-        <v>28723.185133525789</v>
+        <v>28705.663512490515</v>
       </c>
       <c r="CS14" s="24">
-        <v>29906.940333057668</v>
+        <v>29840.693562342767</v>
       </c>
       <c r="CT14" s="24">
-        <v>29226.246377773976</v>
+        <v>29334.059617179522</v>
       </c>
       <c r="CU14" s="24">
-        <v>19520.889694940019</v>
+        <v>19434.505465774331</v>
       </c>
       <c r="CV14" s="24">
-        <v>30498.272060820076</v>
+        <v>30473.238410368398</v>
       </c>
       <c r="CW14" s="24">
-        <v>31834.641817655567</v>
-      </c>
-      <c r="CX14" s="9"/>
+        <v>31830.157533077287</v>
+      </c>
+      <c r="CX14" s="24">
+        <v>31586.375556594117</v>
+      </c>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
@@ -25311,10 +25325,10 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="9"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
+      <c r="CL15" s="25"/>
+      <c r="CM15" s="25"/>
+      <c r="CN15" s="25"/>
+      <c r="CO15" s="25"/>
       <c r="CP15" s="25"/>
       <c r="CQ15" s="25"/>
       <c r="CR15" s="25"/>
@@ -25323,7 +25337,7 @@
       <c r="CU15" s="25"/>
       <c r="CV15" s="25"/>
       <c r="CW15" s="25"/>
-      <c r="CX15" s="9"/>
+      <c r="CX15" s="25"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
@@ -25644,43 +25658,45 @@
       <c r="CK16" s="18">
         <v>1025802.3852243061</v>
       </c>
-      <c r="CL16" s="18">
+      <c r="CL16" s="26">
         <v>779320.10601552867</v>
       </c>
-      <c r="CM16" s="18">
+      <c r="CM16" s="26">
         <v>919075.80218099942</v>
       </c>
-      <c r="CN16" s="18">
+      <c r="CN16" s="26">
         <v>1099056.8151509394</v>
       </c>
-      <c r="CO16" s="18">
+      <c r="CO16" s="26">
         <v>1190096.9833665907</v>
       </c>
       <c r="CP16" s="26">
         <v>891685.97627960437</v>
       </c>
       <c r="CQ16" s="26">
-        <v>1022185.5682483501</v>
+        <v>1022126.6160657252</v>
       </c>
       <c r="CR16" s="26">
-        <v>1211837.7749668045</v>
+        <v>1211496.7645650059</v>
       </c>
       <c r="CS16" s="26">
-        <v>1318316.1275342093</v>
+        <v>1320073.641281696</v>
       </c>
       <c r="CT16" s="26">
-        <v>992713.80381395796</v>
+        <v>992647.60556811781</v>
       </c>
       <c r="CU16" s="26">
-        <v>1143750.8335526183</v>
+        <v>1143804.6270750547</v>
       </c>
       <c r="CV16" s="26">
-        <v>1312596.9786775662</v>
+        <v>1313424.7275107331</v>
       </c>
       <c r="CW16" s="26">
-        <v>1427189.1590138825</v>
-      </c>
-      <c r="CX16" s="9"/>
+        <v>1426878.9300198455</v>
+      </c>
+      <c r="CX16" s="26">
+        <v>1082885.0249650388</v>
+      </c>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
@@ -25823,10 +25839,10 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="12"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="27"/>
+      <c r="CN17" s="27"/>
+      <c r="CO17" s="27"/>
       <c r="CP17" s="27"/>
       <c r="CQ17" s="27"/>
       <c r="CR17" s="27"/>
@@ -25835,6 +25851,7 @@
       <c r="CU17" s="27"/>
       <c r="CV17" s="27"/>
       <c r="CW17" s="27"/>
+      <c r="CX17" s="27"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25930,10 +25947,10 @@
       <c r="CI19" s="9"/>
       <c r="CJ19" s="9"/>
       <c r="CK19" s="9"/>
-      <c r="CL19" s="9"/>
-      <c r="CM19" s="9"/>
-      <c r="CN19" s="9"/>
-      <c r="CO19" s="9"/>
+      <c r="CL19" s="25"/>
+      <c r="CM19" s="25"/>
+      <c r="CN19" s="25"/>
+      <c r="CO19" s="25"/>
       <c r="CP19" s="25"/>
       <c r="CQ19" s="25"/>
       <c r="CR19" s="25"/>
@@ -25942,7 +25959,7 @@
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
-      <c r="CX19" s="9"/>
+      <c r="CX19" s="25"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
@@ -26084,10 +26101,10 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
+      <c r="CL20" s="25"/>
+      <c r="CM20" s="25"/>
+      <c r="CN20" s="25"/>
+      <c r="CO20" s="25"/>
       <c r="CP20" s="25"/>
       <c r="CQ20" s="25"/>
       <c r="CR20" s="25"/>
@@ -26096,7 +26113,7 @@
       <c r="CU20" s="25"/>
       <c r="CV20" s="25"/>
       <c r="CW20" s="25"/>
-      <c r="CX20" s="9"/>
+      <c r="CX20" s="25"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
@@ -26161,7 +26178,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26171,7 +26188,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26184,111 +26201,111 @@
       <c r="B29" s="33">
         <v>2000</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="33">
         <v>2001</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="33">
         <v>2002</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
       <c r="N29" s="33">
         <v>2003</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
       <c r="R29" s="33">
         <v>2004</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
       <c r="V29" s="33">
         <v>2005</v>
       </c>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
       <c r="Z29" s="33">
         <v>2006</v>
       </c>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
       <c r="AD29" s="33">
         <v>2007</v>
       </c>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
       <c r="AH29" s="33">
         <v>2008</v>
       </c>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
       <c r="AL29" s="33">
         <v>2009</v>
       </c>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
       <c r="AP29" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
       <c r="AT29" s="33">
         <v>2011</v>
       </c>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="35"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
       <c r="AX29" s="33">
         <v>2012</v>
       </c>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
-      <c r="BA29" s="35"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
       <c r="BB29" s="33">
         <v>2013</v>
       </c>
-      <c r="BC29" s="35"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="35"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
       <c r="BF29" s="33">
         <v>2014</v>
       </c>
-      <c r="BG29" s="35"/>
-      <c r="BH29" s="35"/>
-      <c r="BI29" s="35"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
+      <c r="BI29" s="34"/>
       <c r="BJ29" s="33">
         <v>2015</v>
       </c>
-      <c r="BK29" s="35"/>
-      <c r="BL29" s="35"/>
-      <c r="BM29" s="35"/>
+      <c r="BK29" s="34"/>
+      <c r="BL29" s="34"/>
+      <c r="BM29" s="34"/>
       <c r="BN29" s="33">
         <v>2016</v>
       </c>
-      <c r="BO29" s="35"/>
-      <c r="BP29" s="35"/>
-      <c r="BQ29" s="35"/>
+      <c r="BO29" s="34"/>
+      <c r="BP29" s="34"/>
+      <c r="BQ29" s="34"/>
       <c r="BR29" s="33">
         <v>2017</v>
       </c>
-      <c r="BS29" s="35"/>
-      <c r="BT29" s="35"/>
-      <c r="BU29" s="35"/>
+      <c r="BS29" s="34"/>
+      <c r="BT29" s="34"/>
+      <c r="BU29" s="34"/>
       <c r="BV29" s="33">
         <v>2018</v>
       </c>
@@ -26313,12 +26330,12 @@
       <c r="CI29" s="19"/>
       <c r="CJ29" s="19"/>
       <c r="CK29" s="19"/>
-      <c r="CL29" s="19">
+      <c r="CL29" s="22">
         <v>2022</v>
       </c>
-      <c r="CM29" s="19"/>
-      <c r="CN29" s="19"/>
-      <c r="CO29" s="19"/>
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
       <c r="CP29" s="22">
         <v>2023</v>
       </c>
@@ -26331,6 +26348,9 @@
       <c r="CU29" s="22"/>
       <c r="CV29" s="22"/>
       <c r="CW29" s="22"/>
+      <c r="CX29" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26600,16 +26620,16 @@
       <c r="CK30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="6" t="s">
+      <c r="CL30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="6" t="s">
+      <c r="CM30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="6" t="s">
+      <c r="CN30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="6" t="s">
+      <c r="CO30" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP30" s="23" t="s">
@@ -26635,6 +26655,9 @@
       </c>
       <c r="CW30" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX30" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26908,43 +26931,45 @@
       <c r="CK32" s="17">
         <v>200812.08186680658</v>
       </c>
-      <c r="CL32" s="17">
+      <c r="CL32" s="24">
         <v>126956.51680388296</v>
       </c>
-      <c r="CM32" s="17">
+      <c r="CM32" s="24">
         <v>125087.01367247998</v>
       </c>
-      <c r="CN32" s="17">
+      <c r="CN32" s="24">
         <v>152058.62604166003</v>
       </c>
-      <c r="CO32" s="17">
+      <c r="CO32" s="24">
         <v>207309.0126037194</v>
       </c>
       <c r="CP32" s="24">
         <v>127819.28252921287</v>
       </c>
       <c r="CQ32" s="24">
-        <v>127533.84187690236</v>
+        <v>127508.77790930402</v>
       </c>
       <c r="CR32" s="24">
-        <v>155051.27832542319</v>
+        <v>154842.06669305378</v>
       </c>
       <c r="CS32" s="24">
-        <v>212103.88903438437</v>
+        <v>212106.14582230421</v>
       </c>
       <c r="CT32" s="24">
-        <v>132681.50840872602</v>
+        <v>132437.32112756697</v>
       </c>
       <c r="CU32" s="24">
-        <v>133084.7642254697</v>
+        <v>132750.52359066412</v>
       </c>
       <c r="CV32" s="24">
-        <v>161106.52919626463</v>
+        <v>160410.79425667468</v>
       </c>
       <c r="CW32" s="24">
-        <v>219564.75032484892</v>
-      </c>
-      <c r="CX32" s="9"/>
+        <v>219365.64211005261</v>
+      </c>
+      <c r="CX32" s="24">
+        <v>140453.38444956517</v>
+      </c>
       <c r="CY32" s="9"/>
       <c r="CZ32" s="9"/>
       <c r="DA32" s="9"/>
@@ -27265,43 +27290,45 @@
       <c r="CK33" s="17">
         <v>776104.75498984067</v>
       </c>
-      <c r="CL33" s="17">
+      <c r="CL33" s="24">
         <v>598705.97796946391</v>
       </c>
-      <c r="CM33" s="17">
+      <c r="CM33" s="24">
         <v>720666.8954728517</v>
       </c>
-      <c r="CN33" s="17">
+      <c r="CN33" s="24">
         <v>840395.28527297196</v>
       </c>
-      <c r="CO33" s="17">
+      <c r="CO33" s="24">
         <v>852266.64044510224</v>
       </c>
       <c r="CP33" s="24">
         <v>646200.69421327859</v>
       </c>
       <c r="CQ33" s="24">
-        <v>760579.10128915042</v>
+        <v>760552.56370044313</v>
       </c>
       <c r="CR33" s="24">
-        <v>884246.95991013397</v>
+        <v>884179.95882843318</v>
       </c>
       <c r="CS33" s="24">
-        <v>900582.21093529137</v>
+        <v>902169.15043285268</v>
       </c>
       <c r="CT33" s="24">
-        <v>691973.94684803486</v>
+        <v>692049.82878255961</v>
       </c>
       <c r="CU33" s="24">
-        <v>805147.15897834604</v>
+        <v>805670.28401699965</v>
       </c>
       <c r="CV33" s="24">
-        <v>929020.24389120191</v>
+        <v>930545.60788527806</v>
       </c>
       <c r="CW33" s="24">
-        <v>954841.0521651567</v>
-      </c>
-      <c r="CX33" s="9"/>
+        <v>954791.17130854283</v>
+      </c>
+      <c r="CX33" s="24">
+        <v>736306.02048928174</v>
+      </c>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
@@ -27622,16 +27649,16 @@
       <c r="CK34" s="17">
         <v>20400.833823469795</v>
       </c>
-      <c r="CL34" s="17">
+      <c r="CL34" s="24">
         <v>22563.637330458128</v>
       </c>
-      <c r="CM34" s="17">
+      <c r="CM34" s="24">
         <v>14562.805321625045</v>
       </c>
-      <c r="CN34" s="17">
+      <c r="CN34" s="24">
         <v>24821.355552486639</v>
       </c>
-      <c r="CO34" s="17">
+      <c r="CO34" s="24">
         <v>25390.768053109023</v>
       </c>
       <c r="CP34" s="24">
@@ -27641,24 +27668,26 @@
         <v>16626.604571579948</v>
       </c>
       <c r="CR34" s="24">
-        <v>28336.094386085762</v>
+        <v>28318.805189648454</v>
       </c>
       <c r="CS34" s="24">
-        <v>29058.885599308971</v>
+        <v>28994.636033961735</v>
       </c>
       <c r="CT34" s="24">
-        <v>27230.596528038215</v>
+        <v>27329.380710912366</v>
       </c>
       <c r="CU34" s="24">
-        <v>18830.30674248108</v>
+        <v>18749.758011041071</v>
       </c>
       <c r="CV34" s="24">
-        <v>29793.974953180848</v>
+        <v>29745.490233338191</v>
       </c>
       <c r="CW34" s="24">
-        <v>30625.350243105429</v>
-      </c>
-      <c r="CX34" s="9"/>
+        <v>30624.415059308398</v>
+      </c>
+      <c r="CX34" s="24">
+        <v>29236.763924454099</v>
+      </c>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
@@ -27800,10 +27829,10 @@
       <c r="CI35" s="18"/>
       <c r="CJ35" s="18"/>
       <c r="CK35" s="18"/>
-      <c r="CL35" s="18"/>
-      <c r="CM35" s="18"/>
-      <c r="CN35" s="18"/>
-      <c r="CO35" s="18"/>
+      <c r="CL35" s="26"/>
+      <c r="CM35" s="26"/>
+      <c r="CN35" s="26"/>
+      <c r="CO35" s="26"/>
       <c r="CP35" s="26"/>
       <c r="CQ35" s="26"/>
       <c r="CR35" s="26"/>
@@ -27812,7 +27841,7 @@
       <c r="CU35" s="26"/>
       <c r="CV35" s="26"/>
       <c r="CW35" s="26"/>
-      <c r="CX35" s="9"/>
+      <c r="CX35" s="26"/>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
@@ -28133,43 +28162,45 @@
       <c r="CK36" s="18">
         <v>997317.67068011709</v>
       </c>
-      <c r="CL36" s="18">
+      <c r="CL36" s="26">
         <v>748226.13210380508</v>
       </c>
-      <c r="CM36" s="18">
+      <c r="CM36" s="26">
         <v>860316.71446695679</v>
       </c>
-      <c r="CN36" s="18">
+      <c r="CN36" s="26">
         <v>1017275.2668671187</v>
       </c>
-      <c r="CO36" s="18">
+      <c r="CO36" s="26">
         <v>1084966.4211019308</v>
       </c>
       <c r="CP36" s="26">
         <v>799300.95708006329</v>
       </c>
       <c r="CQ36" s="26">
-        <v>904739.54773763276</v>
+        <v>904687.9461813271</v>
       </c>
       <c r="CR36" s="26">
-        <v>1067634.3326216431</v>
+        <v>1067340.8307111354</v>
       </c>
       <c r="CS36" s="26">
-        <v>1141744.9855689846</v>
+        <v>1143269.9322891186</v>
       </c>
       <c r="CT36" s="26">
-        <v>851886.05178479908</v>
+        <v>851816.53062103898</v>
       </c>
       <c r="CU36" s="26">
-        <v>957062.22994629678</v>
+        <v>957170.56561870489</v>
       </c>
       <c r="CV36" s="26">
-        <v>1119920.7480406475</v>
+        <v>1120701.8923752909</v>
       </c>
       <c r="CW36" s="26">
-        <v>1205031.1527331111</v>
-      </c>
-      <c r="CX36" s="9"/>
+        <v>1204781.2284779036</v>
+      </c>
+      <c r="CX36" s="26">
+        <v>905996.16886330105</v>
+      </c>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
@@ -28312,10 +28343,10 @@
       <c r="CI37" s="12"/>
       <c r="CJ37" s="12"/>
       <c r="CK37" s="12"/>
-      <c r="CL37" s="12"/>
-      <c r="CM37" s="12"/>
-      <c r="CN37" s="12"/>
-      <c r="CO37" s="12"/>
+      <c r="CL37" s="27"/>
+      <c r="CM37" s="27"/>
+      <c r="CN37" s="27"/>
+      <c r="CO37" s="27"/>
       <c r="CP37" s="27"/>
       <c r="CQ37" s="27"/>
       <c r="CR37" s="27"/>
@@ -28324,6 +28355,7 @@
       <c r="CU37" s="27"/>
       <c r="CV37" s="27"/>
       <c r="CW37" s="27"/>
+      <c r="CX37" s="27"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28419,10 +28451,10 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="9"/>
-      <c r="CM39" s="9"/>
-      <c r="CN39" s="9"/>
-      <c r="CO39" s="9"/>
+      <c r="CL39" s="25"/>
+      <c r="CM39" s="25"/>
+      <c r="CN39" s="25"/>
+      <c r="CO39" s="25"/>
       <c r="CP39" s="25"/>
       <c r="CQ39" s="25"/>
       <c r="CR39" s="25"/>
@@ -28431,7 +28463,7 @@
       <c r="CU39" s="25"/>
       <c r="CV39" s="25"/>
       <c r="CW39" s="25"/>
-      <c r="CX39" s="9"/>
+      <c r="CX39" s="25"/>
       <c r="CY39" s="9"/>
       <c r="CZ39" s="9"/>
       <c r="DA39" s="9"/>
@@ -28573,10 +28605,10 @@
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
-      <c r="CL40" s="9"/>
-      <c r="CM40" s="9"/>
-      <c r="CN40" s="9"/>
-      <c r="CO40" s="9"/>
+      <c r="CL40" s="25"/>
+      <c r="CM40" s="25"/>
+      <c r="CN40" s="25"/>
+      <c r="CO40" s="25"/>
       <c r="CP40" s="25"/>
       <c r="CQ40" s="25"/>
       <c r="CR40" s="25"/>
@@ -28585,7 +28617,7 @@
       <c r="CU40" s="25"/>
       <c r="CV40" s="25"/>
       <c r="CW40" s="25"/>
-      <c r="CX40" s="9"/>
+      <c r="CX40" s="25"/>
       <c r="CY40" s="9"/>
       <c r="CZ40" s="9"/>
       <c r="DA40" s="9"/>
@@ -28650,7 +28682,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:153" x14ac:dyDescent="0.2">
@@ -28658,6 +28690,7 @@
       <c r="CU44" s="30"/>
       <c r="CV44" s="30"/>
       <c r="CW44" s="30"/>
+      <c r="CX44" s="30"/>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -28667,30 +28700,32 @@
       <c r="CU45" s="30"/>
       <c r="CV45" s="30"/>
       <c r="CW45" s="30"/>
+      <c r="CX45" s="30"/>
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CT46" s="30"/>
       <c r="CU46" s="30"/>
       <c r="CV46" s="30"/>
       <c r="CW46" s="30"/>
+      <c r="CX46" s="30"/>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CT47" s="30"/>
       <c r="CU47" s="30"/>
       <c r="CV47" s="30"/>
       <c r="CW47" s="30"/>
+      <c r="CX47" s="30"/>
     </row>
     <row r="48" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CT48" s="30"/>
       <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
       <c r="CW48" s="30"/>
+      <c r="CX48" s="30"/>
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -28826,22 +28861,25 @@
       <c r="CI49" s="19"/>
       <c r="CJ49" s="19"/>
       <c r="CK49" s="19"/>
-      <c r="CL49" s="19" t="s">
+      <c r="CL49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="19"/>
-      <c r="CN49" s="19"/>
-      <c r="CO49" s="19"/>
+      <c r="CM49" s="22"/>
+      <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
       <c r="CP49" s="22" t="s">
         <v>50</v>
       </c>
       <c r="CQ49" s="22"/>
       <c r="CR49" s="22"/>
       <c r="CS49" s="22"/>
-      <c r="CT49" s="20"/>
+      <c r="CT49" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="CU49" s="20"/>
       <c r="CV49" s="20"/>
       <c r="CW49" s="20"/>
+      <c r="CX49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29111,16 +29149,16 @@
       <c r="CK50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="5" t="s">
+      <c r="CL50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="5" t="s">
+      <c r="CM50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="5" t="s">
+      <c r="CN50" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CO50" s="5" t="s">
+      <c r="CO50" s="28" t="s">
         <v>9</v>
       </c>
       <c r="CP50" s="28" t="s">
@@ -29135,17 +29173,20 @@
       <c r="CS50" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CT50" s="28"/>
+      <c r="CT50" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="CU50" s="28"/>
       <c r="CV50" s="28"/>
       <c r="CW50" s="28"/>
+      <c r="CX50" s="28"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
-      <c r="CT51" s="30"/>
       <c r="CU51" s="30"/>
       <c r="CV51" s="30"/>
       <c r="CW51" s="30"/>
+      <c r="CX51" s="30"/>
     </row>
     <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -29415,35 +29456,37 @@
       <c r="CK52" s="14">
         <v>10.71642783112685</v>
       </c>
-      <c r="CL52" s="14">
+      <c r="CL52" s="29">
         <v>6.8920601848009113</v>
       </c>
-      <c r="CM52" s="14">
-        <v>6.5310541490143521</v>
-      </c>
-      <c r="CN52" s="14">
-        <v>7.2659371527064422</v>
-      </c>
-      <c r="CO52" s="14">
-        <v>6.8984408174896998</v>
+      <c r="CM52" s="29">
+        <v>6.5101178167427776</v>
+      </c>
+      <c r="CN52" s="29">
+        <v>7.1214371091210467</v>
+      </c>
+      <c r="CO52" s="29">
+        <v>6.8995791240445357</v>
       </c>
       <c r="CP52" s="29">
-        <v>6.9666017922198904</v>
+        <v>6.7747605568072089</v>
       </c>
       <c r="CQ52" s="29">
-        <v>7.1152358531415274</v>
+        <v>6.8636165314617443</v>
       </c>
       <c r="CR52" s="29">
-        <v>6.5058194489327832</v>
+        <v>6.1421692810638575</v>
       </c>
       <c r="CS52" s="29">
-        <v>5.9193827363759794</v>
-      </c>
-      <c r="CT52" s="31"/>
+        <v>5.8944485613958761</v>
+      </c>
+      <c r="CT52" s="29">
+        <v>9.4223842309037593</v>
+      </c>
       <c r="CU52" s="31"/>
       <c r="CV52" s="31"/>
       <c r="CW52" s="31"/>
-      <c r="CX52" s="9"/>
+      <c r="CX52" s="31"/>
       <c r="CY52" s="9"/>
       <c r="CZ52" s="9"/>
       <c r="DA52" s="9"/>
@@ -29760,35 +29803,37 @@
       <c r="CK53" s="14">
         <v>17.153919847795862</v>
       </c>
-      <c r="CL53" s="14">
+      <c r="CL53" s="29">
         <v>16.099009306163879</v>
       </c>
-      <c r="CM53" s="14">
-        <v>11.96009244410088</v>
-      </c>
-      <c r="CN53" s="14">
-        <v>10.637099752236296</v>
-      </c>
-      <c r="CO53" s="14">
-        <v>11.613750876917265</v>
+      <c r="CM53" s="29">
+        <v>11.956186011647162</v>
+      </c>
+      <c r="CN53" s="29">
+        <v>10.628712049901196</v>
+      </c>
+      <c r="CO53" s="29">
+        <v>11.811108855282853</v>
       </c>
       <c r="CP53" s="29">
-        <v>12.310455726542642</v>
+        <v>12.326437116850684</v>
       </c>
       <c r="CQ53" s="29">
-        <v>12.663730268885203</v>
+        <v>12.730991863342837</v>
       </c>
       <c r="CR53" s="29">
-        <v>8.708831988062343</v>
+        <v>8.8956767652108084</v>
       </c>
       <c r="CS53" s="29">
-        <v>8.8983998717002919</v>
-      </c>
-      <c r="CT53" s="31"/>
+        <v>8.6825136891341685</v>
+      </c>
+      <c r="CT53" s="29">
+        <v>9.0758832191012289</v>
+      </c>
       <c r="CU53" s="31"/>
       <c r="CV53" s="31"/>
       <c r="CW53" s="31"/>
-      <c r="CX53" s="9"/>
+      <c r="CX53" s="31"/>
       <c r="CY53" s="9"/>
       <c r="CZ53" s="9"/>
       <c r="DA53" s="9"/>
@@ -30105,35 +30150,37 @@
       <c r="CK54" s="14">
         <v>29.267800225503066</v>
       </c>
-      <c r="CL54" s="14">
+      <c r="CL54" s="29">
         <v>15.426231640499097</v>
       </c>
-      <c r="CM54" s="14">
+      <c r="CM54" s="29">
         <v>16.876284165890581</v>
       </c>
-      <c r="CN54" s="14">
-        <v>17.392212608783424</v>
-      </c>
-      <c r="CO54" s="14">
-        <v>17.13325990692995</v>
+      <c r="CN54" s="29">
+        <v>17.320601405072523</v>
+      </c>
+      <c r="CO54" s="29">
+        <v>16.873798386435794</v>
       </c>
       <c r="CP54" s="29">
-        <v>9.6335915108840311</v>
+        <v>10.03802088904196</v>
       </c>
       <c r="CQ54" s="29">
-        <v>14.519031295657967</v>
+        <v>14.012259401657616</v>
       </c>
       <c r="CR54" s="29">
-        <v>6.1799794105090484</v>
+        <v>6.1575824474803227</v>
       </c>
       <c r="CS54" s="29">
-        <v>6.4456659996981074</v>
-      </c>
-      <c r="CT54" s="31"/>
+        <v>6.6669495016198539</v>
+      </c>
+      <c r="CT54" s="29">
+        <v>7.6781596847083762</v>
+      </c>
       <c r="CU54" s="31"/>
       <c r="CV54" s="31"/>
       <c r="CW54" s="31"/>
-      <c r="CX54" s="9"/>
+      <c r="CX54" s="31"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
@@ -30271,19 +30318,19 @@
       <c r="CI55" s="9"/>
       <c r="CJ55" s="9"/>
       <c r="CK55" s="9"/>
-      <c r="CL55" s="9"/>
-      <c r="CM55" s="9"/>
-      <c r="CN55" s="9"/>
-      <c r="CO55" s="9"/>
+      <c r="CL55" s="25"/>
+      <c r="CM55" s="25"/>
+      <c r="CN55" s="25"/>
+      <c r="CO55" s="25"/>
       <c r="CP55" s="25"/>
       <c r="CQ55" s="25"/>
       <c r="CR55" s="25"/>
       <c r="CS55" s="25"/>
-      <c r="CT55" s="32"/>
+      <c r="CT55" s="25"/>
       <c r="CU55" s="32"/>
       <c r="CV55" s="32"/>
       <c r="CW55" s="32"/>
-      <c r="CX55" s="9"/>
+      <c r="CX55" s="32"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
@@ -30600,35 +30647,37 @@
       <c r="CK56" s="14">
         <v>16.016203560138848</v>
       </c>
-      <c r="CL56" s="14">
+      <c r="CL56" s="29">
         <v>14.418448773068945</v>
       </c>
-      <c r="CM56" s="14">
-        <v>11.218853311409944</v>
-      </c>
-      <c r="CN56" s="14">
-        <v>10.261613254304464</v>
-      </c>
-      <c r="CO56" s="14">
-        <v>10.773839944111742</v>
+      <c r="CM56" s="29">
+        <v>11.212439021915557</v>
+      </c>
+      <c r="CN56" s="29">
+        <v>10.230585704400056</v>
+      </c>
+      <c r="CO56" s="29">
+        <v>10.921518139422773</v>
       </c>
       <c r="CP56" s="29">
-        <v>11.329978290773795</v>
+        <v>11.322554349206797</v>
       </c>
       <c r="CQ56" s="29">
-        <v>11.89268065216244</v>
+        <v>11.904397077309369</v>
       </c>
       <c r="CR56" s="29">
-        <v>8.3145785510376271</v>
+        <v>8.4133912633538728</v>
       </c>
       <c r="CS56" s="29">
-        <v>8.2584919660590401</v>
-      </c>
-      <c r="CT56" s="31"/>
+        <v>8.0908583732078228</v>
+      </c>
+      <c r="CT56" s="29">
+        <v>9.0905794655370897</v>
+      </c>
       <c r="CU56" s="31"/>
       <c r="CV56" s="31"/>
       <c r="CW56" s="31"/>
-      <c r="CX56" s="9"/>
+      <c r="CX56" s="31"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
@@ -30767,27 +30816,28 @@
       <c r="CI57" s="12"/>
       <c r="CJ57" s="12"/>
       <c r="CK57" s="12"/>
-      <c r="CL57" s="12"/>
-      <c r="CM57" s="12"/>
-      <c r="CN57" s="12"/>
-      <c r="CO57" s="12"/>
+      <c r="CL57" s="27"/>
+      <c r="CM57" s="27"/>
+      <c r="CN57" s="27"/>
+      <c r="CO57" s="27"/>
       <c r="CP57" s="27"/>
       <c r="CQ57" s="27"/>
       <c r="CR57" s="27"/>
       <c r="CS57" s="27"/>
-      <c r="CT57" s="23"/>
+      <c r="CT57" s="27"/>
       <c r="CU57" s="23"/>
       <c r="CV57" s="23"/>
       <c r="CW57" s="23"/>
+      <c r="CX57" s="23"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT58" s="30"/>
       <c r="CU58" s="30"/>
       <c r="CV58" s="30"/>
       <c r="CW58" s="30"/>
+      <c r="CX58" s="30"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
@@ -30878,19 +30928,19 @@
       <c r="CI59" s="9"/>
       <c r="CJ59" s="9"/>
       <c r="CK59" s="9"/>
-      <c r="CL59" s="9"/>
-      <c r="CM59" s="9"/>
-      <c r="CN59" s="9"/>
-      <c r="CO59" s="9"/>
+      <c r="CL59" s="25"/>
+      <c r="CM59" s="25"/>
+      <c r="CN59" s="25"/>
+      <c r="CO59" s="25"/>
       <c r="CP59" s="25"/>
       <c r="CQ59" s="25"/>
       <c r="CR59" s="25"/>
       <c r="CS59" s="25"/>
-      <c r="CT59" s="32"/>
+      <c r="CT59" s="25"/>
       <c r="CU59" s="32"/>
       <c r="CV59" s="32"/>
       <c r="CW59" s="32"/>
-      <c r="CX59" s="9"/>
+      <c r="CX59" s="32"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
@@ -31028,19 +31078,19 @@
       <c r="CI60" s="9"/>
       <c r="CJ60" s="9"/>
       <c r="CK60" s="9"/>
-      <c r="CL60" s="9"/>
-      <c r="CM60" s="9"/>
-      <c r="CN60" s="9"/>
-      <c r="CO60" s="9"/>
+      <c r="CL60" s="25"/>
+      <c r="CM60" s="25"/>
+      <c r="CN60" s="25"/>
+      <c r="CO60" s="25"/>
       <c r="CP60" s="25"/>
       <c r="CQ60" s="25"/>
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
-      <c r="CT60" s="32"/>
+      <c r="CT60" s="25"/>
       <c r="CU60" s="32"/>
       <c r="CV60" s="32"/>
       <c r="CW60" s="32"/>
-      <c r="CX60" s="9"/>
+      <c r="CX60" s="32"/>
       <c r="CY60" s="9"/>
       <c r="CZ60" s="9"/>
       <c r="DA60" s="9"/>
@@ -31093,178 +31143,178 @@
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT61" s="30"/>
       <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
       <c r="CW61" s="30"/>
+      <c r="CX61" s="30"/>
     </row>
     <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT62" s="30"/>
       <c r="CU62" s="30"/>
       <c r="CV62" s="30"/>
       <c r="CW62" s="30"/>
+      <c r="CX62" s="30"/>
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT63" s="30"/>
+        <v>54</v>
+      </c>
       <c r="CU63" s="30"/>
       <c r="CV63" s="30"/>
       <c r="CW63" s="30"/>
+      <c r="CX63" s="30"/>
     </row>
     <row r="64" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CT64" s="30"/>
       <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
       <c r="CW64" s="30"/>
+      <c r="CX64" s="30"/>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CT65" s="30"/>
       <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
       <c r="CW65" s="30"/>
+      <c r="CX65" s="30"/>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CT66" s="30"/>
+        <v>53</v>
+      </c>
       <c r="CU66" s="30"/>
       <c r="CV66" s="30"/>
       <c r="CW66" s="30"/>
+      <c r="CX66" s="30"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CT67" s="30"/>
       <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
       <c r="CW67" s="30"/>
+      <c r="CX67" s="30"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CT68" s="30"/>
       <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
       <c r="CW68" s="30"/>
+      <c r="CX68" s="30"/>
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
       <c r="N69" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
       <c r="R69" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
       <c r="V69" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
       <c r="Z69" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
       <c r="AD69" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="34"/>
-      <c r="AF69" s="34"/>
-      <c r="AG69" s="34"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
       <c r="AH69" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="34"/>
-      <c r="AJ69" s="34"/>
-      <c r="AK69" s="34"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
       <c r="AL69" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="34"/>
-      <c r="AN69" s="34"/>
-      <c r="AO69" s="34"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
       <c r="AP69" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="34"/>
-      <c r="AR69" s="34"/>
-      <c r="AS69" s="34"/>
+      <c r="AQ69" s="35"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="35"/>
       <c r="AT69" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="34"/>
-      <c r="AV69" s="34"/>
-      <c r="AW69" s="34"/>
+      <c r="AU69" s="35"/>
+      <c r="AV69" s="35"/>
+      <c r="AW69" s="35"/>
       <c r="AX69" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="34"/>
-      <c r="AZ69" s="34"/>
-      <c r="BA69" s="34"/>
+      <c r="AY69" s="35"/>
+      <c r="AZ69" s="35"/>
+      <c r="BA69" s="35"/>
       <c r="BB69" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="34"/>
-      <c r="BD69" s="34"/>
-      <c r="BE69" s="34"/>
+      <c r="BC69" s="35"/>
+      <c r="BD69" s="35"/>
+      <c r="BE69" s="35"/>
       <c r="BF69" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="34"/>
-      <c r="BH69" s="34"/>
-      <c r="BI69" s="34"/>
+      <c r="BG69" s="35"/>
+      <c r="BH69" s="35"/>
+      <c r="BI69" s="35"/>
       <c r="BJ69" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="34"/>
-      <c r="BL69" s="34"/>
-      <c r="BM69" s="34"/>
+      <c r="BK69" s="35"/>
+      <c r="BL69" s="35"/>
+      <c r="BM69" s="35"/>
       <c r="BN69" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="34"/>
-      <c r="BP69" s="34"/>
-      <c r="BQ69" s="34"/>
+      <c r="BO69" s="35"/>
+      <c r="BP69" s="35"/>
+      <c r="BQ69" s="35"/>
       <c r="BR69" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="34"/>
-      <c r="BT69" s="34"/>
-      <c r="BU69" s="34"/>
+      <c r="BS69" s="35"/>
+      <c r="BT69" s="35"/>
+      <c r="BU69" s="35"/>
       <c r="BV69" s="33" t="s">
         <v>27</v>
       </c>
@@ -31289,22 +31339,25 @@
       <c r="CI69" s="19"/>
       <c r="CJ69" s="19"/>
       <c r="CK69" s="19"/>
-      <c r="CL69" s="19" t="s">
+      <c r="CL69" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="19"/>
-      <c r="CN69" s="19"/>
-      <c r="CO69" s="19"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
       <c r="CP69" s="22" t="s">
         <v>50</v>
       </c>
       <c r="CQ69" s="22"/>
       <c r="CR69" s="22"/>
       <c r="CS69" s="22"/>
-      <c r="CT69" s="20"/>
+      <c r="CT69" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="CU69" s="20"/>
       <c r="CV69" s="20"/>
       <c r="CW69" s="20"/>
+      <c r="CX69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31574,16 +31627,16 @@
       <c r="CK70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="5" t="s">
+      <c r="CL70" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="5" t="s">
+      <c r="CM70" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="5" t="s">
+      <c r="CN70" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CO70" s="5" t="s">
+      <c r="CO70" s="28" t="s">
         <v>9</v>
       </c>
       <c r="CP70" s="28" t="s">
@@ -31598,17 +31651,20 @@
       <c r="CS70" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CT70" s="28"/>
+      <c r="CT70" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="CU70" s="28"/>
       <c r="CV70" s="28"/>
       <c r="CW70" s="28"/>
+      <c r="CX70" s="28"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
-      <c r="CT71" s="30"/>
       <c r="CU71" s="30"/>
       <c r="CV71" s="30"/>
       <c r="CW71" s="30"/>
+      <c r="CX71" s="30"/>
     </row>
     <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -31878,35 +31934,37 @@
       <c r="CK72" s="14">
         <v>3.2353286099698266</v>
       </c>
-      <c r="CL72" s="14">
+      <c r="CL72" s="29">
         <v>0.67957576897188687</v>
       </c>
-      <c r="CM72" s="14">
-        <v>1.9561009033511709</v>
-      </c>
-      <c r="CN72" s="14">
-        <v>1.9680910985893263</v>
-      </c>
-      <c r="CO72" s="14">
-        <v>2.3129126758374809</v>
+      <c r="CM72" s="29">
+        <v>1.9360636773734399</v>
+      </c>
+      <c r="CN72" s="29">
+        <v>1.8305049334269086</v>
+      </c>
+      <c r="CO72" s="29">
+        <v>2.3140012864538448</v>
       </c>
       <c r="CP72" s="29">
-        <v>3.8039846440241831</v>
+        <v>3.6129436083312925</v>
       </c>
       <c r="CQ72" s="29">
-        <v>4.3525093158608001</v>
+        <v>4.1108900636538976</v>
       </c>
       <c r="CR72" s="29">
-        <v>3.905321475733075</v>
+        <v>3.5963919124509545</v>
       </c>
       <c r="CS72" s="29">
-        <v>3.5175504439973082</v>
-      </c>
-      <c r="CT72" s="31"/>
+        <v>3.4225770590495586</v>
+      </c>
+      <c r="CT72" s="29">
+        <v>6.0527223397073442</v>
+      </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="31"/>
-      <c r="CX72" s="9"/>
+      <c r="CX72" s="31"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
@@ -32223,35 +32281,37 @@
       <c r="CK73" s="14">
         <v>9.8133512216734857</v>
       </c>
-      <c r="CL73" s="14">
+      <c r="CL73" s="29">
         <v>7.9328949420039123</v>
       </c>
-      <c r="CM73" s="14">
-        <v>5.5382321662092124</v>
-      </c>
-      <c r="CN73" s="14">
-        <v>5.2179819908102445</v>
-      </c>
-      <c r="CO73" s="14">
-        <v>5.6690674253020177</v>
+      <c r="CM73" s="29">
+        <v>5.5345498007676781</v>
+      </c>
+      <c r="CN73" s="29">
+        <v>5.2100094232726804</v>
+      </c>
+      <c r="CO73" s="29">
+        <v>5.8552696561827702</v>
       </c>
       <c r="CP73" s="29">
-        <v>7.0834421944537098</v>
+        <v>7.0951849757915113</v>
       </c>
       <c r="CQ73" s="29">
-        <v>5.8597531293792571</v>
+        <v>5.9322290752709819</v>
       </c>
       <c r="CR73" s="29">
-        <v>5.0634365749607184</v>
+        <v>5.2439154036335367</v>
       </c>
       <c r="CS73" s="29">
-        <v>6.0248626467443955</v>
-      </c>
-      <c r="CT73" s="31"/>
+        <v>5.8328331056811891</v>
+      </c>
+      <c r="CT73" s="29">
+        <v>6.3949429457379949</v>
+      </c>
       <c r="CU73" s="31"/>
       <c r="CV73" s="31"/>
       <c r="CW73" s="31"/>
-      <c r="CX73" s="9"/>
+      <c r="CX73" s="31"/>
       <c r="CY73" s="9"/>
       <c r="CZ73" s="9"/>
       <c r="DA73" s="9"/>
@@ -32568,35 +32628,37 @@
       <c r="CK74" s="14">
         <v>24.459462161289906</v>
       </c>
-      <c r="CL74" s="14">
+      <c r="CL74" s="29">
         <v>12.043018451841732</v>
       </c>
-      <c r="CM74" s="14">
+      <c r="CM74" s="29">
         <v>14.171714888547356</v>
       </c>
-      <c r="CN74" s="14">
-        <v>14.160140553834538</v>
-      </c>
-      <c r="CO74" s="14">
-        <v>14.446658480466084</v>
+      <c r="CN74" s="29">
+        <v>14.09048603234497</v>
+      </c>
+      <c r="CO74" s="29">
+        <v>14.193615464150682</v>
       </c>
       <c r="CP74" s="29">
-        <v>7.7117903041477689</v>
+        <v>8.1025353684415649</v>
       </c>
       <c r="CQ74" s="29">
-        <v>13.254072179403039</v>
+        <v>12.769615289283138</v>
       </c>
       <c r="CR74" s="29">
-        <v>5.1449594542957442</v>
+        <v>5.0379422229693631</v>
       </c>
       <c r="CS74" s="29">
-        <v>5.3906562880501809</v>
-      </c>
-      <c r="CT74" s="31"/>
+        <v>5.6209673521601786</v>
+      </c>
+      <c r="CT74" s="29">
+        <v>6.979240524027432</v>
+      </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="31"/>
-      <c r="CX74" s="9"/>
+      <c r="CX74" s="31"/>
       <c r="CY74" s="9"/>
       <c r="CZ74" s="9"/>
       <c r="DA74" s="9"/>
@@ -32734,19 +32796,19 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
-      <c r="CO75" s="9"/>
+      <c r="CL75" s="25"/>
+      <c r="CM75" s="25"/>
+      <c r="CN75" s="25"/>
+      <c r="CO75" s="25"/>
       <c r="CP75" s="25"/>
       <c r="CQ75" s="25"/>
       <c r="CR75" s="25"/>
       <c r="CS75" s="25"/>
-      <c r="CT75" s="32"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="32"/>
       <c r="CV75" s="32"/>
       <c r="CW75" s="32"/>
-      <c r="CX75" s="9"/>
+      <c r="CX75" s="32"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
@@ -33063,35 +33125,37 @@
       <c r="CK76" s="14">
         <v>8.788448555417844</v>
       </c>
-      <c r="CL76" s="14">
+      <c r="CL76" s="29">
         <v>6.8261215139131792</v>
       </c>
-      <c r="CM76" s="14">
-        <v>5.1635441371379045</v>
-      </c>
-      <c r="CN76" s="14">
-        <v>4.9503873135158472</v>
-      </c>
-      <c r="CO76" s="14">
-        <v>5.233209375216191</v>
+      <c r="CM76" s="29">
+        <v>5.1575461650611203</v>
+      </c>
+      <c r="CN76" s="29">
+        <v>4.9215355444748496</v>
+      </c>
+      <c r="CO76" s="29">
+        <v>5.3737618098791131</v>
       </c>
       <c r="CP76" s="29">
-        <v>6.5788854922475224</v>
+        <v>6.5701877466556482</v>
       </c>
       <c r="CQ76" s="29">
-        <v>5.783176201316806</v>
+        <v>5.8011847796697396</v>
       </c>
       <c r="CR76" s="29">
-        <v>4.8974085809522165</v>
+        <v>4.9994397411558396</v>
       </c>
       <c r="CS76" s="29">
-        <v>5.5429336641743987</v>
-      </c>
-      <c r="CT76" s="31"/>
+        <v>5.3802951036789466</v>
+      </c>
+      <c r="CT76" s="29">
+        <v>6.3604821337243749</v>
+      </c>
       <c r="CU76" s="31"/>
       <c r="CV76" s="31"/>
       <c r="CW76" s="31"/>
-      <c r="CX76" s="9"/>
+      <c r="CX76" s="31"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
@@ -33230,27 +33294,28 @@
       <c r="CI77" s="12"/>
       <c r="CJ77" s="12"/>
       <c r="CK77" s="12"/>
-      <c r="CL77" s="12"/>
-      <c r="CM77" s="12"/>
-      <c r="CN77" s="12"/>
-      <c r="CO77" s="12"/>
+      <c r="CL77" s="27"/>
+      <c r="CM77" s="27"/>
+      <c r="CN77" s="27"/>
+      <c r="CO77" s="27"/>
       <c r="CP77" s="27"/>
       <c r="CQ77" s="27"/>
       <c r="CR77" s="27"/>
       <c r="CS77" s="27"/>
-      <c r="CT77" s="23"/>
+      <c r="CT77" s="27"/>
       <c r="CU77" s="23"/>
       <c r="CV77" s="23"/>
       <c r="CW77" s="23"/>
+      <c r="CX77" s="23"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT78" s="30"/>
       <c r="CU78" s="30"/>
       <c r="CV78" s="30"/>
       <c r="CW78" s="30"/>
+      <c r="CX78" s="30"/>
     </row>
     <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
@@ -33341,19 +33406,19 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
+      <c r="CL79" s="25"/>
+      <c r="CM79" s="25"/>
+      <c r="CN79" s="25"/>
+      <c r="CO79" s="25"/>
       <c r="CP79" s="25"/>
       <c r="CQ79" s="25"/>
       <c r="CR79" s="25"/>
       <c r="CS79" s="25"/>
-      <c r="CT79" s="32"/>
+      <c r="CT79" s="25"/>
       <c r="CU79" s="32"/>
       <c r="CV79" s="32"/>
       <c r="CW79" s="32"/>
-      <c r="CX79" s="9"/>
+      <c r="CX79" s="32"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
@@ -33491,10 +33556,10 @@
       <c r="CI80" s="9"/>
       <c r="CJ80" s="9"/>
       <c r="CK80" s="9"/>
-      <c r="CL80" s="9"/>
-      <c r="CM80" s="9"/>
-      <c r="CN80" s="9"/>
-      <c r="CO80" s="9"/>
+      <c r="CL80" s="25"/>
+      <c r="CM80" s="25"/>
+      <c r="CN80" s="25"/>
+      <c r="CO80" s="25"/>
       <c r="CP80" s="25"/>
       <c r="CQ80" s="25"/>
       <c r="CR80" s="25"/>
@@ -33503,7 +33568,7 @@
       <c r="CU80" s="25"/>
       <c r="CV80" s="25"/>
       <c r="CW80" s="25"/>
-      <c r="CX80" s="9"/>
+      <c r="CX80" s="25"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
@@ -33559,7 +33624,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33569,7 +33634,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33582,111 +33647,111 @@
       <c r="B88" s="33">
         <v>2000</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="33">
         <v>2001</v>
       </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
       <c r="J88" s="33">
         <v>2002</v>
       </c>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
       <c r="N88" s="33">
         <v>2003</v>
       </c>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
       <c r="R88" s="33">
         <v>2004</v>
       </c>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
       <c r="V88" s="33">
         <v>2005</v>
       </c>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
       <c r="Z88" s="33">
         <v>2006</v>
       </c>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="35"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
       <c r="AD88" s="33">
         <v>2007</v>
       </c>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-      <c r="AG88" s="35"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
+      <c r="AG88" s="34"/>
       <c r="AH88" s="33">
         <v>2008</v>
       </c>
-      <c r="AI88" s="35"/>
-      <c r="AJ88" s="35"/>
-      <c r="AK88" s="35"/>
+      <c r="AI88" s="34"/>
+      <c r="AJ88" s="34"/>
+      <c r="AK88" s="34"/>
       <c r="AL88" s="33">
         <v>2009</v>
       </c>
-      <c r="AM88" s="35"/>
-      <c r="AN88" s="35"/>
-      <c r="AO88" s="35"/>
+      <c r="AM88" s="34"/>
+      <c r="AN88" s="34"/>
+      <c r="AO88" s="34"/>
       <c r="AP88" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="35"/>
-      <c r="AR88" s="35"/>
-      <c r="AS88" s="35"/>
+      <c r="AQ88" s="34"/>
+      <c r="AR88" s="34"/>
+      <c r="AS88" s="34"/>
       <c r="AT88" s="33">
         <v>2011</v>
       </c>
-      <c r="AU88" s="35"/>
-      <c r="AV88" s="35"/>
-      <c r="AW88" s="35"/>
+      <c r="AU88" s="34"/>
+      <c r="AV88" s="34"/>
+      <c r="AW88" s="34"/>
       <c r="AX88" s="33">
         <v>2012</v>
       </c>
-      <c r="AY88" s="35"/>
-      <c r="AZ88" s="35"/>
-      <c r="BA88" s="35"/>
+      <c r="AY88" s="34"/>
+      <c r="AZ88" s="34"/>
+      <c r="BA88" s="34"/>
       <c r="BB88" s="33">
         <v>2013</v>
       </c>
-      <c r="BC88" s="35"/>
-      <c r="BD88" s="35"/>
-      <c r="BE88" s="35"/>
+      <c r="BC88" s="34"/>
+      <c r="BD88" s="34"/>
+      <c r="BE88" s="34"/>
       <c r="BF88" s="33">
         <v>2014</v>
       </c>
-      <c r="BG88" s="35"/>
-      <c r="BH88" s="35"/>
-      <c r="BI88" s="35"/>
+      <c r="BG88" s="34"/>
+      <c r="BH88" s="34"/>
+      <c r="BI88" s="34"/>
       <c r="BJ88" s="33">
         <v>2015</v>
       </c>
-      <c r="BK88" s="35"/>
-      <c r="BL88" s="35"/>
-      <c r="BM88" s="35"/>
+      <c r="BK88" s="34"/>
+      <c r="BL88" s="34"/>
+      <c r="BM88" s="34"/>
       <c r="BN88" s="33">
         <v>2016</v>
       </c>
-      <c r="BO88" s="35"/>
-      <c r="BP88" s="35"/>
-      <c r="BQ88" s="35"/>
+      <c r="BO88" s="34"/>
+      <c r="BP88" s="34"/>
+      <c r="BQ88" s="34"/>
       <c r="BR88" s="33">
         <v>2017</v>
       </c>
-      <c r="BS88" s="35"/>
-      <c r="BT88" s="35"/>
-      <c r="BU88" s="35"/>
+      <c r="BS88" s="34"/>
+      <c r="BT88" s="34"/>
+      <c r="BU88" s="34"/>
       <c r="BV88" s="33">
         <v>2018</v>
       </c>
@@ -33711,12 +33776,12 @@
       <c r="CI88" s="19"/>
       <c r="CJ88" s="19"/>
       <c r="CK88" s="19"/>
-      <c r="CL88" s="19">
+      <c r="CL88" s="22">
         <v>2022</v>
       </c>
-      <c r="CM88" s="19"/>
-      <c r="CN88" s="19"/>
-      <c r="CO88" s="19"/>
+      <c r="CM88" s="22"/>
+      <c r="CN88" s="22"/>
+      <c r="CO88" s="22"/>
       <c r="CP88" s="22">
         <v>2023</v>
       </c>
@@ -33729,6 +33794,9 @@
       <c r="CU88" s="22"/>
       <c r="CV88" s="22"/>
       <c r="CW88" s="22"/>
+      <c r="CX88" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -33998,16 +34066,16 @@
       <c r="CK89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="6" t="s">
+      <c r="CL89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="6" t="s">
+      <c r="CM89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="6" t="s">
+      <c r="CN89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="6" t="s">
+      <c r="CO89" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP89" s="23" t="s">
@@ -34033,6 +34101,9 @@
       </c>
       <c r="CW89" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX89" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34306,43 +34377,45 @@
       <c r="CK91" s="14">
         <v>108.78870881035488</v>
       </c>
-      <c r="CL91" s="14">
+      <c r="CL91" s="29">
         <v>110.71745085575111</v>
       </c>
-      <c r="CM91" s="14">
+      <c r="CM91" s="29">
         <v>110.87518537886029</v>
       </c>
-      <c r="CN91" s="14">
+      <c r="CN91" s="29">
         <v>112.74813662386434</v>
       </c>
-      <c r="CO91" s="14">
+      <c r="CO91" s="29">
         <v>116.67224185771543</v>
       </c>
       <c r="CP91" s="29">
         <v>117.54932745781414</v>
       </c>
       <c r="CQ91" s="29">
-        <v>115.85035395355274</v>
+        <v>115.85035395355277</v>
       </c>
       <c r="CR91" s="29">
-        <v>118.60606986833653</v>
+        <v>118.606329551443</v>
       </c>
       <c r="CS91" s="29">
-        <v>121.90133596124548</v>
+        <v>121.90133699423411</v>
       </c>
       <c r="CT91" s="29">
-        <v>121.13072676586427</v>
+        <v>121.13642230228663</v>
       </c>
       <c r="CU91" s="29">
-        <v>118.91748525033891</v>
+        <v>118.91347574069597</v>
       </c>
       <c r="CV91" s="29">
-        <v>121.57449188870271</v>
+        <v>121.52096107453194</v>
       </c>
       <c r="CW91" s="29">
-        <v>124.72971205727971</v>
-      </c>
-      <c r="CX91" s="9"/>
+        <v>124.81486370747699</v>
+      </c>
+      <c r="CX91" s="29">
+        <v>124.98534552521328</v>
+      </c>
       <c r="CY91" s="9"/>
       <c r="CZ91" s="9"/>
       <c r="DA91" s="9"/>
@@ -34663,43 +34736,45 @@
       <c r="CK92" s="14">
         <v>101.47985171687088</v>
       </c>
-      <c r="CL92" s="14">
+      <c r="CL92" s="29">
         <v>102.83206478692419</v>
       </c>
-      <c r="CM92" s="14">
+      <c r="CM92" s="29">
         <v>106.26278441914194</v>
       </c>
-      <c r="CN92" s="14">
+      <c r="CN92" s="29">
         <v>107.46679025933325</v>
       </c>
-      <c r="CO92" s="14">
+      <c r="CO92" s="29">
         <v>108.26336034682507</v>
       </c>
       <c r="CP92" s="29">
         <v>110.61225452244412</v>
       </c>
       <c r="CQ92" s="29">
-        <v>112.72873273259061</v>
+        <v>112.72873273259063</v>
       </c>
       <c r="CR92" s="29">
-        <v>113.00173001809681</v>
+        <v>113.00172540329658</v>
       </c>
       <c r="CS92" s="29">
-        <v>114.35399237710196</v>
+        <v>114.3546883220333</v>
       </c>
       <c r="CT92" s="29">
-        <v>116.01151830548324</v>
+        <v>116.0153040939885</v>
       </c>
       <c r="CU92" s="29">
-        <v>119.97420325187859</v>
+        <v>119.96369719939375</v>
       </c>
       <c r="CV92" s="29">
-        <v>116.92256110557611</v>
+        <v>116.92266784483061</v>
       </c>
       <c r="CW92" s="29">
-        <v>117.45326971370893</v>
-      </c>
-      <c r="CX92" s="9"/>
+        <v>117.43383045000326</v>
+      </c>
+      <c r="CX92" s="29">
+        <v>118.93865827286787</v>
+      </c>
       <c r="CY92" s="9"/>
       <c r="CZ92" s="9"/>
       <c r="DA92" s="9"/>
@@ -35020,16 +35095,16 @@
       <c r="CK93" s="14">
         <v>96.817413767751347</v>
       </c>
-      <c r="CL93" s="14">
+      <c r="CL93" s="29">
         <v>102.35658120197253</v>
       </c>
-      <c r="CM93" s="14">
+      <c r="CM93" s="29">
         <v>100.14989590405409</v>
       </c>
-      <c r="CN93" s="14">
+      <c r="CN93" s="29">
         <v>98.575233281472379</v>
       </c>
-      <c r="CO93" s="14">
+      <c r="CO93" s="29">
         <v>100.55783533003368</v>
       </c>
       <c r="CP93" s="29">
@@ -35039,24 +35114,26 @@
         <v>102.52230777380345</v>
       </c>
       <c r="CR93" s="29">
-        <v>101.36606951602371</v>
+        <v>101.36608278580719</v>
       </c>
       <c r="CS93" s="29">
-        <v>102.91840074475832</v>
+        <v>102.91797947520374</v>
       </c>
       <c r="CT93" s="29">
-        <v>107.32870412031158</v>
+        <v>107.33525185759774</v>
       </c>
       <c r="CU93" s="29">
-        <v>103.66740150281773</v>
+        <v>103.65203355867332</v>
       </c>
       <c r="CV93" s="29">
-        <v>102.36389105094563</v>
+        <v>102.44658323437064</v>
       </c>
       <c r="CW93" s="29">
-        <v>103.94866202329354</v>
-      </c>
-      <c r="CX93" s="9"/>
+        <v>103.93719348250016</v>
+      </c>
+      <c r="CX93" s="29">
+        <v>108.03649691946504</v>
+      </c>
       <c r="CY93" s="9"/>
       <c r="CZ93" s="9"/>
       <c r="DA93" s="9"/>
@@ -35198,10 +35275,10 @@
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
       <c r="CK94" s="9"/>
-      <c r="CL94" s="9"/>
-      <c r="CM94" s="9"/>
-      <c r="CN94" s="9"/>
-      <c r="CO94" s="9"/>
+      <c r="CL94" s="25"/>
+      <c r="CM94" s="25"/>
+      <c r="CN94" s="25"/>
+      <c r="CO94" s="25"/>
       <c r="CP94" s="25"/>
       <c r="CQ94" s="25"/>
       <c r="CR94" s="25"/>
@@ -35210,7 +35287,7 @@
       <c r="CU94" s="25"/>
       <c r="CV94" s="25"/>
       <c r="CW94" s="25"/>
-      <c r="CX94" s="9"/>
+      <c r="CX94" s="25"/>
       <c r="CY94" s="9"/>
       <c r="CZ94" s="9"/>
       <c r="DA94" s="9"/>
@@ -35531,43 +35608,45 @@
       <c r="CK95" s="14">
         <v>102.85613254247907</v>
       </c>
-      <c r="CL95" s="14">
+      <c r="CL95" s="29">
         <v>104.15569205318931</v>
       </c>
-      <c r="CM95" s="14">
+      <c r="CM95" s="29">
         <v>106.82993678095039</v>
       </c>
-      <c r="CN95" s="14">
+      <c r="CN95" s="29">
         <v>108.03927422079983</v>
       </c>
-      <c r="CO95" s="14">
+      <c r="CO95" s="29">
         <v>109.68975262459142</v>
       </c>
       <c r="CP95" s="29">
         <v>111.55822702090011</v>
       </c>
       <c r="CQ95" s="29">
-        <v>112.98119672168635</v>
+        <v>112.98112463862316</v>
       </c>
       <c r="CR95" s="29">
-        <v>113.50681951104559</v>
+        <v>113.50608256575588</v>
       </c>
       <c r="CS95" s="29">
-        <v>115.46502451922143</v>
+        <v>115.46473881619288</v>
       </c>
       <c r="CT95" s="29">
-        <v>116.53128980502834</v>
+        <v>116.53302910714849</v>
       </c>
       <c r="CU95" s="29">
-        <v>119.50642265099074</v>
+        <v>119.49851658212154</v>
       </c>
       <c r="CV95" s="29">
-        <v>117.20445227700394</v>
+        <v>117.19661905156353</v>
       </c>
       <c r="CW95" s="29">
-        <v>118.43587244835112</v>
-      </c>
-      <c r="CX95" s="9"/>
+        <v>118.43469140223372</v>
+      </c>
+      <c r="CX95" s="29">
+        <v>119.5242388633574</v>
+      </c>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
@@ -35710,10 +35789,10 @@
       <c r="CI96" s="12"/>
       <c r="CJ96" s="12"/>
       <c r="CK96" s="12"/>
-      <c r="CL96" s="12"/>
-      <c r="CM96" s="12"/>
-      <c r="CN96" s="12"/>
-      <c r="CO96" s="12"/>
+      <c r="CL96" s="27"/>
+      <c r="CM96" s="27"/>
+      <c r="CN96" s="27"/>
+      <c r="CO96" s="27"/>
       <c r="CP96" s="27"/>
       <c r="CQ96" s="27"/>
       <c r="CR96" s="27"/>
@@ -35722,6 +35801,7 @@
       <c r="CU96" s="27"/>
       <c r="CV96" s="27"/>
       <c r="CW96" s="27"/>
+      <c r="CX96" s="27"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35740,7 +35820,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35750,7 +35830,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35763,111 +35843,111 @@
       <c r="B108" s="33">
         <v>2000</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="33">
         <v>2001</v>
       </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
       <c r="J108" s="33">
         <v>2002</v>
       </c>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
       <c r="N108" s="33">
         <v>2003</v>
       </c>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
       <c r="R108" s="33">
         <v>2004</v>
       </c>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="34"/>
       <c r="V108" s="33">
         <v>2005</v>
       </c>
-      <c r="W108" s="35"/>
-      <c r="X108" s="35"/>
-      <c r="Y108" s="35"/>
+      <c r="W108" s="34"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
       <c r="Z108" s="33">
         <v>2006</v>
       </c>
-      <c r="AA108" s="35"/>
-      <c r="AB108" s="35"/>
-      <c r="AC108" s="35"/>
+      <c r="AA108" s="34"/>
+      <c r="AB108" s="34"/>
+      <c r="AC108" s="34"/>
       <c r="AD108" s="33">
         <v>2007</v>
       </c>
-      <c r="AE108" s="35"/>
-      <c r="AF108" s="35"/>
-      <c r="AG108" s="35"/>
+      <c r="AE108" s="34"/>
+      <c r="AF108" s="34"/>
+      <c r="AG108" s="34"/>
       <c r="AH108" s="33">
         <v>2008</v>
       </c>
-      <c r="AI108" s="35"/>
-      <c r="AJ108" s="35"/>
-      <c r="AK108" s="35"/>
+      <c r="AI108" s="34"/>
+      <c r="AJ108" s="34"/>
+      <c r="AK108" s="34"/>
       <c r="AL108" s="33">
         <v>2009</v>
       </c>
-      <c r="AM108" s="35"/>
-      <c r="AN108" s="35"/>
-      <c r="AO108" s="35"/>
+      <c r="AM108" s="34"/>
+      <c r="AN108" s="34"/>
+      <c r="AO108" s="34"/>
       <c r="AP108" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="35"/>
-      <c r="AR108" s="35"/>
-      <c r="AS108" s="35"/>
+      <c r="AQ108" s="34"/>
+      <c r="AR108" s="34"/>
+      <c r="AS108" s="34"/>
       <c r="AT108" s="33">
         <v>2011</v>
       </c>
-      <c r="AU108" s="35"/>
-      <c r="AV108" s="35"/>
-      <c r="AW108" s="35"/>
+      <c r="AU108" s="34"/>
+      <c r="AV108" s="34"/>
+      <c r="AW108" s="34"/>
       <c r="AX108" s="33">
         <v>2012</v>
       </c>
-      <c r="AY108" s="35"/>
-      <c r="AZ108" s="35"/>
-      <c r="BA108" s="35"/>
+      <c r="AY108" s="34"/>
+      <c r="AZ108" s="34"/>
+      <c r="BA108" s="34"/>
       <c r="BB108" s="33">
         <v>2013</v>
       </c>
-      <c r="BC108" s="35"/>
-      <c r="BD108" s="35"/>
-      <c r="BE108" s="35"/>
+      <c r="BC108" s="34"/>
+      <c r="BD108" s="34"/>
+      <c r="BE108" s="34"/>
       <c r="BF108" s="33">
         <v>2014</v>
       </c>
-      <c r="BG108" s="35"/>
-      <c r="BH108" s="35"/>
-      <c r="BI108" s="35"/>
+      <c r="BG108" s="34"/>
+      <c r="BH108" s="34"/>
+      <c r="BI108" s="34"/>
       <c r="BJ108" s="33">
         <v>2015</v>
       </c>
-      <c r="BK108" s="35"/>
-      <c r="BL108" s="35"/>
-      <c r="BM108" s="35"/>
+      <c r="BK108" s="34"/>
+      <c r="BL108" s="34"/>
+      <c r="BM108" s="34"/>
       <c r="BN108" s="33">
         <v>2016</v>
       </c>
-      <c r="BO108" s="35"/>
-      <c r="BP108" s="35"/>
-      <c r="BQ108" s="35"/>
+      <c r="BO108" s="34"/>
+      <c r="BP108" s="34"/>
+      <c r="BQ108" s="34"/>
       <c r="BR108" s="33">
         <v>2017</v>
       </c>
-      <c r="BS108" s="35"/>
-      <c r="BT108" s="35"/>
-      <c r="BU108" s="35"/>
+      <c r="BS108" s="34"/>
+      <c r="BT108" s="34"/>
+      <c r="BU108" s="34"/>
       <c r="BV108" s="33">
         <v>2018</v>
       </c>
@@ -35892,12 +35972,12 @@
       <c r="CI108" s="19"/>
       <c r="CJ108" s="19"/>
       <c r="CK108" s="19"/>
-      <c r="CL108" s="19">
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
       <c r="CP108" s="22">
         <v>2023</v>
       </c>
@@ -35910,6 +35990,9 @@
       <c r="CU108" s="22"/>
       <c r="CV108" s="22"/>
       <c r="CW108" s="22"/>
+      <c r="CX108" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -36179,16 +36262,16 @@
       <c r="CK109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="6" t="s">
+      <c r="CL109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="6" t="s">
+      <c r="CM109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="6" t="s">
+      <c r="CN109" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="6" t="s">
+      <c r="CO109" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP109" s="23" t="s">
@@ -36214,6 +36297,9 @@
       </c>
       <c r="CW109" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX109" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36487,43 +36573,45 @@
       <c r="CK111" s="14">
         <v>21.296584424525598</v>
       </c>
-      <c r="CL111" s="14">
+      <c r="CL111" s="29">
         <v>18.036621667465575</v>
       </c>
-      <c r="CM111" s="14">
+      <c r="CM111" s="29">
         <v>15.090208877779737</v>
       </c>
-      <c r="CN111" s="14">
+      <c r="CN111" s="29">
         <v>15.599126912677082</v>
       </c>
-      <c r="CO111" s="14">
+      <c r="CO111" s="29">
         <v>20.323727894312995</v>
       </c>
       <c r="CP111" s="29">
         <v>16.850181675098948</v>
       </c>
       <c r="CQ111" s="29">
-        <v>14.454166818080013</v>
+        <v>14.452159664755222</v>
       </c>
       <c r="CR111" s="29">
-        <v>15.175317299168849</v>
+        <v>15.159140104857801</v>
       </c>
       <c r="CS111" s="29">
-        <v>19.612706615543004</v>
+        <v>19.586803305403887</v>
       </c>
       <c r="CT111" s="29">
-        <v>16.189769377833787</v>
+        <v>16.161811271897125</v>
       </c>
       <c r="CU111" s="29">
-        <v>13.837022035358407</v>
+        <v>13.801156065376963</v>
       </c>
       <c r="CV111" s="29">
-        <v>14.921902720453881</v>
+        <v>14.841561512051571</v>
       </c>
       <c r="CW111" s="29">
-        <v>19.188940662126015</v>
-      </c>
-      <c r="CX111" s="9"/>
+        <v>19.188798815389742</v>
+      </c>
+      <c r="CX111" s="29">
+        <v>16.210968275400496</v>
+      </c>
       <c r="CY111" s="9"/>
       <c r="CZ111" s="9"/>
       <c r="DA111" s="9"/>
@@ -36844,43 +36932,45 @@
       <c r="CK112" s="14">
         <v>76.777941431580572</v>
       </c>
-      <c r="CL112" s="14">
+      <c r="CL112" s="29">
         <v>78.999850561597029</v>
       </c>
-      <c r="CM112" s="14">
+      <c r="CM112" s="29">
         <v>83.322910656462412</v>
       </c>
-      <c r="CN112" s="14">
+      <c r="CN112" s="29">
         <v>82.174627018676588</v>
       </c>
-      <c r="CO112" s="14">
+      <c r="CO112" s="29">
         <v>77.530866555993967</v>
       </c>
       <c r="CP112" s="29">
         <v>80.160188185449385</v>
       </c>
       <c r="CQ112" s="29">
-        <v>83.87823199083499</v>
+        <v>83.880142963580568</v>
       </c>
       <c r="CR112" s="29">
-        <v>82.45446568607332</v>
+        <v>82.471421993853426</v>
       </c>
       <c r="CS112" s="29">
-        <v>78.118722158752888</v>
+        <v>78.152664203895839</v>
       </c>
       <c r="CT112" s="29">
-        <v>80.866154870878361</v>
+        <v>80.883055461006464</v>
       </c>
       <c r="CU112" s="29">
-        <v>84.456234754295153</v>
+        <v>84.499733351771795</v>
       </c>
       <c r="CV112" s="29">
-        <v>82.754591088670466</v>
+        <v>82.838302604095944</v>
       </c>
       <c r="CW112" s="29">
-        <v>78.580476123547186</v>
-      </c>
-      <c r="CX112" s="9"/>
+        <v>78.580447273860841</v>
+      </c>
+      <c r="CX112" s="29">
+        <v>80.872159219356945</v>
+      </c>
       <c r="CY112" s="9"/>
       <c r="CZ112" s="9"/>
       <c r="DA112" s="9"/>
@@ -37201,43 +37291,45 @@
       <c r="CK113" s="14">
         <v>1.9254741438938225</v>
       </c>
-      <c r="CL113" s="14">
+      <c r="CL113" s="29">
         <v>2.9635277709373979</v>
       </c>
-      <c r="CM113" s="14">
+      <c r="CM113" s="29">
         <v>1.5868804657578492</v>
       </c>
-      <c r="CN113" s="14">
+      <c r="CN113" s="29">
         <v>2.226246068646335</v>
       </c>
-      <c r="CO113" s="14">
+      <c r="CO113" s="29">
         <v>2.14540554969303</v>
       </c>
       <c r="CP113" s="29">
         <v>2.9896301394516538</v>
       </c>
       <c r="CQ113" s="29">
-        <v>1.6676011910850004</v>
+        <v>1.6676973716642136</v>
       </c>
       <c r="CR113" s="29">
-        <v>2.3702170147578205</v>
+        <v>2.3694379012887774</v>
       </c>
       <c r="CS113" s="29">
-        <v>2.2685712257041022</v>
+        <v>2.2605324907002622</v>
       </c>
       <c r="CT113" s="29">
-        <v>2.9440757512878499</v>
+        <v>2.9551332670964219</v>
       </c>
       <c r="CU113" s="29">
-        <v>1.7067432103464306</v>
+        <v>1.6991105828512327</v>
       </c>
       <c r="CV113" s="29">
-        <v>2.3235061908756567</v>
+        <v>2.320135883852497</v>
       </c>
       <c r="CW113" s="29">
-        <v>2.2305832143268058</v>
-      </c>
-      <c r="CX113" s="9"/>
+        <v>2.230753910749427</v>
+      </c>
+      <c r="CX113" s="29">
+        <v>2.9168725052425479</v>
+      </c>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
@@ -37379,10 +37471,10 @@
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
       <c r="CK114" s="9"/>
-      <c r="CL114" s="9"/>
-      <c r="CM114" s="9"/>
-      <c r="CN114" s="9"/>
-      <c r="CO114" s="9"/>
+      <c r="CL114" s="25"/>
+      <c r="CM114" s="25"/>
+      <c r="CN114" s="25"/>
+      <c r="CO114" s="25"/>
       <c r="CP114" s="25"/>
       <c r="CQ114" s="25"/>
       <c r="CR114" s="25"/>
@@ -37391,7 +37483,7 @@
       <c r="CU114" s="25"/>
       <c r="CV114" s="25"/>
       <c r="CW114" s="25"/>
-      <c r="CX114" s="9"/>
+      <c r="CX114" s="25"/>
       <c r="CY114" s="9"/>
       <c r="CZ114" s="9"/>
       <c r="DA114" s="9"/>
@@ -37712,16 +37804,16 @@
       <c r="CK115" s="14">
         <v>100</v>
       </c>
-      <c r="CL115" s="14">
+      <c r="CL115" s="29">
         <v>100</v>
       </c>
-      <c r="CM115" s="14">
+      <c r="CM115" s="29">
         <v>100</v>
       </c>
-      <c r="CN115" s="14">
+      <c r="CN115" s="29">
         <v>100</v>
       </c>
-      <c r="CO115" s="14">
+      <c r="CO115" s="29">
         <v>100</v>
       </c>
       <c r="CP115" s="29">
@@ -37748,7 +37840,9 @@
       <c r="CW115" s="29">
         <v>100</v>
       </c>
-      <c r="CX115" s="9"/>
+      <c r="CX115" s="29">
+        <v>100</v>
+      </c>
       <c r="CY115" s="9"/>
       <c r="CZ115" s="9"/>
       <c r="DA115" s="9"/>
@@ -37891,10 +37985,10 @@
       <c r="CI116" s="12"/>
       <c r="CJ116" s="12"/>
       <c r="CK116" s="12"/>
-      <c r="CL116" s="12"/>
-      <c r="CM116" s="12"/>
-      <c r="CN116" s="12"/>
-      <c r="CO116" s="12"/>
+      <c r="CL116" s="27"/>
+      <c r="CM116" s="27"/>
+      <c r="CN116" s="27"/>
+      <c r="CO116" s="27"/>
       <c r="CP116" s="27"/>
       <c r="CQ116" s="27"/>
       <c r="CR116" s="27"/>
@@ -37903,6 +37997,7 @@
       <c r="CU116" s="27"/>
       <c r="CV116" s="27"/>
       <c r="CW116" s="27"/>
+      <c r="CX116" s="27"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -37998,10 +38093,10 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
       <c r="CK118" s="9"/>
-      <c r="CL118" s="9"/>
-      <c r="CM118" s="9"/>
-      <c r="CN118" s="9"/>
-      <c r="CO118" s="9"/>
+      <c r="CL118" s="25"/>
+      <c r="CM118" s="25"/>
+      <c r="CN118" s="25"/>
+      <c r="CO118" s="25"/>
       <c r="CP118" s="25"/>
       <c r="CQ118" s="25"/>
       <c r="CR118" s="25"/>
@@ -38010,7 +38105,7 @@
       <c r="CU118" s="25"/>
       <c r="CV118" s="25"/>
       <c r="CW118" s="25"/>
-      <c r="CX118" s="9"/>
+      <c r="CX118" s="25"/>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
@@ -38152,10 +38247,10 @@
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
       <c r="CK119" s="9"/>
-      <c r="CL119" s="9"/>
-      <c r="CM119" s="9"/>
-      <c r="CN119" s="9"/>
-      <c r="CO119" s="9"/>
+      <c r="CL119" s="25"/>
+      <c r="CM119" s="25"/>
+      <c r="CN119" s="25"/>
+      <c r="CO119" s="25"/>
       <c r="CP119" s="25"/>
       <c r="CQ119" s="25"/>
       <c r="CR119" s="25"/>
@@ -38164,7 +38259,7 @@
       <c r="CU119" s="25"/>
       <c r="CV119" s="25"/>
       <c r="CW119" s="25"/>
-      <c r="CX119" s="9"/>
+      <c r="CX119" s="25"/>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
@@ -38229,7 +38324,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -38239,7 +38334,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -38252,111 +38347,111 @@
       <c r="B128" s="33">
         <v>2000</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
       <c r="F128" s="33">
         <v>2001</v>
       </c>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
       <c r="J128" s="33">
         <v>2002</v>
       </c>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="34"/>
       <c r="N128" s="33">
         <v>2003</v>
       </c>
-      <c r="O128" s="35"/>
-      <c r="P128" s="35"/>
-      <c r="Q128" s="35"/>
+      <c r="O128" s="34"/>
+      <c r="P128" s="34"/>
+      <c r="Q128" s="34"/>
       <c r="R128" s="33">
         <v>2004</v>
       </c>
-      <c r="S128" s="35"/>
-      <c r="T128" s="35"/>
-      <c r="U128" s="35"/>
+      <c r="S128" s="34"/>
+      <c r="T128" s="34"/>
+      <c r="U128" s="34"/>
       <c r="V128" s="33">
         <v>2005</v>
       </c>
-      <c r="W128" s="35"/>
-      <c r="X128" s="35"/>
-      <c r="Y128" s="35"/>
+      <c r="W128" s="34"/>
+      <c r="X128" s="34"/>
+      <c r="Y128" s="34"/>
       <c r="Z128" s="33">
         <v>2006</v>
       </c>
-      <c r="AA128" s="35"/>
-      <c r="AB128" s="35"/>
-      <c r="AC128" s="35"/>
+      <c r="AA128" s="34"/>
+      <c r="AB128" s="34"/>
+      <c r="AC128" s="34"/>
       <c r="AD128" s="33">
         <v>2007</v>
       </c>
-      <c r="AE128" s="35"/>
-      <c r="AF128" s="35"/>
-      <c r="AG128" s="35"/>
+      <c r="AE128" s="34"/>
+      <c r="AF128" s="34"/>
+      <c r="AG128" s="34"/>
       <c r="AH128" s="33">
         <v>2008</v>
       </c>
-      <c r="AI128" s="35"/>
-      <c r="AJ128" s="35"/>
-      <c r="AK128" s="35"/>
+      <c r="AI128" s="34"/>
+      <c r="AJ128" s="34"/>
+      <c r="AK128" s="34"/>
       <c r="AL128" s="33">
         <v>2009</v>
       </c>
-      <c r="AM128" s="35"/>
-      <c r="AN128" s="35"/>
-      <c r="AO128" s="35"/>
+      <c r="AM128" s="34"/>
+      <c r="AN128" s="34"/>
+      <c r="AO128" s="34"/>
       <c r="AP128" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="35"/>
-      <c r="AR128" s="35"/>
-      <c r="AS128" s="35"/>
+      <c r="AQ128" s="34"/>
+      <c r="AR128" s="34"/>
+      <c r="AS128" s="34"/>
       <c r="AT128" s="33">
         <v>2011</v>
       </c>
-      <c r="AU128" s="35"/>
-      <c r="AV128" s="35"/>
-      <c r="AW128" s="35"/>
+      <c r="AU128" s="34"/>
+      <c r="AV128" s="34"/>
+      <c r="AW128" s="34"/>
       <c r="AX128" s="33">
         <v>2012</v>
       </c>
-      <c r="AY128" s="35"/>
-      <c r="AZ128" s="35"/>
-      <c r="BA128" s="35"/>
+      <c r="AY128" s="34"/>
+      <c r="AZ128" s="34"/>
+      <c r="BA128" s="34"/>
       <c r="BB128" s="33">
         <v>2013</v>
       </c>
-      <c r="BC128" s="35"/>
-      <c r="BD128" s="35"/>
-      <c r="BE128" s="35"/>
+      <c r="BC128" s="34"/>
+      <c r="BD128" s="34"/>
+      <c r="BE128" s="34"/>
       <c r="BF128" s="33">
         <v>2014</v>
       </c>
-      <c r="BG128" s="35"/>
-      <c r="BH128" s="35"/>
-      <c r="BI128" s="35"/>
+      <c r="BG128" s="34"/>
+      <c r="BH128" s="34"/>
+      <c r="BI128" s="34"/>
       <c r="BJ128" s="33">
         <v>2015</v>
       </c>
-      <c r="BK128" s="35"/>
-      <c r="BL128" s="35"/>
-      <c r="BM128" s="35"/>
+      <c r="BK128" s="34"/>
+      <c r="BL128" s="34"/>
+      <c r="BM128" s="34"/>
       <c r="BN128" s="33">
         <v>2016</v>
       </c>
-      <c r="BO128" s="35"/>
-      <c r="BP128" s="35"/>
-      <c r="BQ128" s="35"/>
+      <c r="BO128" s="34"/>
+      <c r="BP128" s="34"/>
+      <c r="BQ128" s="34"/>
       <c r="BR128" s="33">
         <v>2017</v>
       </c>
-      <c r="BS128" s="35"/>
-      <c r="BT128" s="35"/>
-      <c r="BU128" s="35"/>
+      <c r="BS128" s="34"/>
+      <c r="BT128" s="34"/>
+      <c r="BU128" s="34"/>
       <c r="BV128" s="33">
         <v>2018</v>
       </c>
@@ -38381,12 +38476,12 @@
       <c r="CI128" s="19"/>
       <c r="CJ128" s="19"/>
       <c r="CK128" s="19"/>
-      <c r="CL128" s="19">
+      <c r="CL128" s="22">
         <v>2022</v>
       </c>
-      <c r="CM128" s="19"/>
-      <c r="CN128" s="19"/>
-      <c r="CO128" s="19"/>
+      <c r="CM128" s="22"/>
+      <c r="CN128" s="22"/>
+      <c r="CO128" s="22"/>
       <c r="CP128" s="22">
         <v>2023</v>
       </c>
@@ -38399,6 +38494,9 @@
       <c r="CU128" s="22"/>
       <c r="CV128" s="22"/>
       <c r="CW128" s="22"/>
+      <c r="CX128" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38668,16 +38766,16 @@
       <c r="CK129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="6" t="s">
+      <c r="CL129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="6" t="s">
+      <c r="CM129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="6" t="s">
+      <c r="CN129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="6" t="s">
+      <c r="CO129" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP129" s="23" t="s">
@@ -38703,6 +38801,9 @@
       </c>
       <c r="CW129" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX129" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38976,43 +39077,45 @@
       <c r="CK131" s="14">
         <v>20.135217470864976</v>
       </c>
-      <c r="CL131" s="14">
+      <c r="CL131" s="29">
         <v>16.967666773000339</v>
       </c>
-      <c r="CM131" s="14">
+      <c r="CM131" s="29">
         <v>14.539647035682968</v>
       </c>
-      <c r="CN131" s="14">
+      <c r="CN131" s="29">
         <v>14.947638165818363</v>
       </c>
-      <c r="CO131" s="14">
+      <c r="CO131" s="29">
         <v>19.107412779942898</v>
       </c>
       <c r="CP131" s="29">
         <v>15.991383645548375</v>
       </c>
       <c r="CQ131" s="29">
-        <v>14.096194003656636</v>
+        <v>14.094227567363582</v>
       </c>
       <c r="CR131" s="29">
-        <v>14.522882375343348</v>
+        <v>14.507274737150963</v>
       </c>
       <c r="CS131" s="29">
-        <v>18.577168432115613</v>
+        <v>18.552586736678492</v>
       </c>
       <c r="CT131" s="29">
-        <v>15.575030032566332</v>
+        <v>15.547634539448312</v>
       </c>
       <c r="CU131" s="29">
-        <v>13.905549718845078</v>
+        <v>13.86905619113513</v>
       </c>
       <c r="CV131" s="29">
-        <v>14.385529465199021</v>
+        <v>14.313422271170548</v>
       </c>
       <c r="CW131" s="29">
-        <v>18.220670048808095</v>
-      </c>
-      <c r="CX131" s="9"/>
+        <v>18.207923307968098</v>
+      </c>
+      <c r="CX131" s="29">
+        <v>15.502646619994387</v>
+      </c>
       <c r="CY131" s="9"/>
       <c r="CZ131" s="9"/>
       <c r="DA131" s="9"/>
@@ -39333,43 +39436,45 @@
       <c r="CK132" s="14">
         <v>77.819212253662258</v>
       </c>
-      <c r="CL132" s="14">
+      <c r="CL132" s="29">
         <v>80.016715840446281</v>
       </c>
-      <c r="CM132" s="14">
+      <c r="CM132" s="29">
         <v>83.767626893006408</v>
       </c>
-      <c r="CN132" s="14">
+      <c r="CN132" s="29">
         <v>82.612377656749658</v>
       </c>
-      <c r="CO132" s="14">
+      <c r="CO132" s="29">
         <v>78.552351839562888</v>
       </c>
       <c r="CP132" s="29">
         <v>80.845730070676098</v>
       </c>
       <c r="CQ132" s="29">
-        <v>84.066083238102493</v>
+        <v>84.067944854435495</v>
       </c>
       <c r="CR132" s="29">
-        <v>82.823016541516608</v>
+        <v>82.83951418211295</v>
       </c>
       <c r="CS132" s="29">
-        <v>78.877702316904802</v>
+        <v>78.911298631503357</v>
       </c>
       <c r="CT132" s="29">
-        <v>81.228463055389867</v>
+        <v>81.244000780074401</v>
       </c>
       <c r="CU132" s="29">
-        <v>84.126939062627613</v>
+        <v>84.172070575135479</v>
       </c>
       <c r="CV132" s="29">
-        <v>82.95410595049384</v>
+        <v>83.032393736127034</v>
       </c>
       <c r="CW132" s="29">
-        <v>79.23787281345362</v>
-      </c>
-      <c r="CX132" s="9"/>
+        <v>79.250169967771384</v>
+      </c>
+      <c r="CX132" s="29">
+        <v>81.270323848397794</v>
+      </c>
       <c r="CY132" s="9"/>
       <c r="CZ132" s="9"/>
       <c r="DA132" s="9"/>
@@ -39690,43 +39795,45 @@
       <c r="CK133" s="14">
         <v>2.0455702754727612</v>
       </c>
-      <c r="CL133" s="14">
+      <c r="CL133" s="29">
         <v>3.0156173865533695</v>
       </c>
-      <c r="CM133" s="14">
+      <c r="CM133" s="29">
         <v>1.6927260713106109</v>
       </c>
-      <c r="CN133" s="14">
+      <c r="CN133" s="29">
         <v>2.4399841774319793</v>
       </c>
-      <c r="CO133" s="14">
+      <c r="CO133" s="29">
         <v>2.3402353804941955</v>
       </c>
       <c r="CP133" s="29">
         <v>3.1628862837755287</v>
       </c>
       <c r="CQ133" s="29">
-        <v>1.8377227582408646</v>
+        <v>1.8378275782009224</v>
       </c>
       <c r="CR133" s="29">
-        <v>2.6541010831400209</v>
+        <v>2.6532110807360878</v>
       </c>
       <c r="CS133" s="29">
-        <v>2.5451292509795937</v>
+        <v>2.5361146318181449</v>
       </c>
       <c r="CT133" s="29">
-        <v>3.1965069120438101</v>
+        <v>3.2083646804772816</v>
       </c>
       <c r="CU133" s="29">
-        <v>1.9675112185273154</v>
+        <v>1.9588732337293955</v>
       </c>
       <c r="CV133" s="29">
-        <v>2.660364584307128</v>
+        <v>2.6541839927024307</v>
       </c>
       <c r="CW133" s="29">
-        <v>2.5414571377382718</v>
-      </c>
-      <c r="CX133" s="9"/>
+        <v>2.5419067242605253</v>
+      </c>
+      <c r="CX133" s="29">
+        <v>3.227029531607811</v>
+      </c>
       <c r="CY133" s="9"/>
       <c r="CZ133" s="9"/>
       <c r="DA133" s="9"/>
@@ -39868,10 +39975,10 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="9"/>
-      <c r="CM134" s="9"/>
-      <c r="CN134" s="9"/>
-      <c r="CO134" s="9"/>
+      <c r="CL134" s="25"/>
+      <c r="CM134" s="25"/>
+      <c r="CN134" s="25"/>
+      <c r="CO134" s="25"/>
       <c r="CP134" s="25"/>
       <c r="CQ134" s="25"/>
       <c r="CR134" s="25"/>
@@ -39880,7 +39987,7 @@
       <c r="CU134" s="25"/>
       <c r="CV134" s="25"/>
       <c r="CW134" s="25"/>
-      <c r="CX134" s="9"/>
+      <c r="CX134" s="25"/>
       <c r="CY134" s="9"/>
       <c r="CZ134" s="9"/>
       <c r="DA134" s="9"/>
@@ -40201,16 +40308,16 @@
       <c r="CK135" s="14">
         <v>100</v>
       </c>
-      <c r="CL135" s="14">
+      <c r="CL135" s="29">
         <v>100</v>
       </c>
-      <c r="CM135" s="14">
+      <c r="CM135" s="29">
         <v>100</v>
       </c>
-      <c r="CN135" s="14">
+      <c r="CN135" s="29">
         <v>100</v>
       </c>
-      <c r="CO135" s="14">
+      <c r="CO135" s="29">
         <v>100</v>
       </c>
       <c r="CP135" s="29">
@@ -40237,7 +40344,9 @@
       <c r="CW135" s="29">
         <v>100</v>
       </c>
-      <c r="CX135" s="9"/>
+      <c r="CX135" s="29">
+        <v>100</v>
+      </c>
       <c r="CY135" s="9"/>
       <c r="CZ135" s="9"/>
       <c r="DA135" s="9"/>
@@ -40380,10 +40489,10 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="12"/>
-      <c r="CM136" s="12"/>
-      <c r="CN136" s="12"/>
-      <c r="CO136" s="12"/>
+      <c r="CL136" s="27"/>
+      <c r="CM136" s="27"/>
+      <c r="CN136" s="27"/>
+      <c r="CO136" s="27"/>
       <c r="CP136" s="27"/>
       <c r="CQ136" s="27"/>
       <c r="CR136" s="27"/>
@@ -40392,6 +40501,7 @@
       <c r="CU136" s="27"/>
       <c r="CV136" s="27"/>
       <c r="CW136" s="27"/>
+      <c r="CX136" s="27"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40488,10 +40598,10 @@
       <c r="CI138" s="1"/>
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-      <c r="CM138" s="1"/>
-      <c r="CN138" s="1"/>
-      <c r="CO138" s="1"/>
+      <c r="CL138" s="21"/>
+      <c r="CM138" s="21"/>
+      <c r="CN138" s="21"/>
+      <c r="CO138" s="21"/>
       <c r="CP138" s="21"/>
       <c r="CQ138" s="21"/>
       <c r="CR138" s="21"/>
@@ -40500,7 +40610,7 @@
       <c r="CU138" s="30"/>
       <c r="CV138" s="30"/>
       <c r="CW138" s="21"/>
-      <c r="CX138" s="15"/>
+      <c r="CX138" s="30"/>
       <c r="CY138" s="15"/>
       <c r="CZ138" s="15"/>
       <c r="DA138" s="15"/>
@@ -40643,10 +40753,10 @@
       <c r="CI139" s="1"/>
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-      <c r="CM139" s="1"/>
-      <c r="CN139" s="1"/>
-      <c r="CO139" s="1"/>
+      <c r="CL139" s="21"/>
+      <c r="CM139" s="21"/>
+      <c r="CN139" s="21"/>
+      <c r="CO139" s="21"/>
       <c r="CP139" s="21"/>
       <c r="CQ139" s="21"/>
       <c r="CR139" s="21"/>
@@ -40655,7 +40765,7 @@
       <c r="CU139" s="30"/>
       <c r="CV139" s="30"/>
       <c r="CW139" s="21"/>
-      <c r="CX139" s="15"/>
+      <c r="CX139" s="30"/>
       <c r="CY139" s="15"/>
       <c r="CZ139" s="15"/>
       <c r="DA139" s="15"/>
@@ -40712,34 +40822,133 @@
       <c r="CT140" s="30"/>
       <c r="CU140" s="30"/>
       <c r="CV140" s="30"/>
-    </row>
-    <row r="141" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CT141" s="30"/>
-      <c r="CU141" s="30"/>
-      <c r="CV141" s="30"/>
-    </row>
-    <row r="142" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CT142" s="30"/>
-      <c r="CU142" s="30"/>
-      <c r="CV142" s="30"/>
-    </row>
-    <row r="143" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CT143" s="30"/>
-      <c r="CU143" s="30"/>
-      <c r="CV143" s="30"/>
-    </row>
-    <row r="144" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CT144" s="30"/>
-      <c r="CU144" s="30"/>
-      <c r="CV144" s="30"/>
-    </row>
-    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
-      <c r="CT145" s="30"/>
-      <c r="CU145" s="30"/>
-      <c r="CV145" s="30"/>
+      <c r="CX140" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
@@ -40764,138 +40973,15 @@
     <mergeCell ref="AL69:AO69"/>
     <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BR49:BU49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="100" man="1"/>
-    <brk id="80" max="100" man="1"/>
-    <brk id="99" max="100" man="1"/>
+    <brk id="40" max="101" man="1"/>
+    <brk id="80" max="101" man="1"/>
+    <brk id="99" max="101" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF27DCCE-F499-476B-ADF1-37301B45EA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447929F7-ED45-4A3B-8993-96D3F1980858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CX$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$CY$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -638,10 +638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -715,9 +715,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -734,19 +734,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -760,18 +760,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23644,12 +23644,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EW140"/>
+  <dimension ref="A1:EW141"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23658,8 +23658,8 @@
     <col min="2" max="69" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10.109375" style="1" customWidth="1"/>
     <col min="74" max="89" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="21" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="21" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -23674,7 +23674,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -23684,7 +23684,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -23847,6 +23847,7 @@
       <c r="CX9" s="22">
         <v>2025</v>
       </c>
+      <c r="CY9" s="22"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24154,6 +24155,9 @@
       </c>
       <c r="CX10" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24464,9 +24468,11 @@
         <v>273800.92722069391</v>
       </c>
       <c r="CX12" s="24">
-        <v>175546.14785614519</v>
-      </c>
-      <c r="CY12" s="9"/>
+        <v>175156.58389910762</v>
+      </c>
+      <c r="CY12" s="24">
+        <v>161372.39460500574</v>
+      </c>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
       <c r="DB12" s="9"/>
@@ -24823,9 +24829,11 @@
         <v>1121247.8452660744</v>
       </c>
       <c r="CX13" s="24">
-        <v>875752.50155229936</v>
-      </c>
-      <c r="CY13" s="9"/>
+        <v>876344.07257966325</v>
+      </c>
+      <c r="CY13" s="24">
+        <v>1031965.8819139291</v>
+      </c>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
       <c r="DB13" s="9"/>
@@ -25182,9 +25190,11 @@
         <v>31830.157533077287</v>
       </c>
       <c r="CX14" s="24">
-        <v>31586.375556594117</v>
-      </c>
-      <c r="CY14" s="9"/>
+        <v>31622.016926876073</v>
+      </c>
+      <c r="CY14" s="24">
+        <v>20737.415184643258</v>
+      </c>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
       <c r="DB14" s="9"/>
@@ -25338,7 +25348,7 @@
       <c r="CV15" s="25"/>
       <c r="CW15" s="25"/>
       <c r="CX15" s="25"/>
-      <c r="CY15" s="9"/>
+      <c r="CY15" s="25"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
       <c r="DB15" s="9"/>
@@ -25695,9 +25705,11 @@
         <v>1426878.9300198455</v>
       </c>
       <c r="CX16" s="26">
-        <v>1082885.0249650388</v>
-      </c>
-      <c r="CY16" s="9"/>
+        <v>1083122.6734056468</v>
+      </c>
+      <c r="CY16" s="26">
+        <v>1214075.6917035782</v>
+      </c>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
       <c r="DB16" s="9"/>
@@ -25852,6 +25864,7 @@
       <c r="CV17" s="27"/>
       <c r="CW17" s="27"/>
       <c r="CX17" s="27"/>
+      <c r="CY17" s="27"/>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -25960,7 +25973,7 @@
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
       <c r="CX19" s="25"/>
-      <c r="CY19" s="9"/>
+      <c r="CY19" s="25"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
       <c r="DB19" s="9"/>
@@ -26114,7 +26127,7 @@
       <c r="CV20" s="25"/>
       <c r="CW20" s="25"/>
       <c r="CX20" s="25"/>
-      <c r="CY20" s="9"/>
+      <c r="CY20" s="25"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
       <c r="DB20" s="9"/>
@@ -26178,7 +26191,7 @@
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:153" x14ac:dyDescent="0.2">
@@ -26188,7 +26201,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
@@ -26351,6 +26364,7 @@
       <c r="CX29" s="22">
         <v>2025</v>
       </c>
+      <c r="CY29" s="22"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -26658,6 +26672,9 @@
       </c>
       <c r="CX30" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY30" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26968,9 +26985,11 @@
         <v>219365.64211005261</v>
       </c>
       <c r="CX32" s="24">
-        <v>140453.38444956517</v>
-      </c>
-      <c r="CY32" s="9"/>
+        <v>139805.81334557943</v>
+      </c>
+      <c r="CY32" s="24">
+        <v>130958.73962339733</v>
+      </c>
       <c r="CZ32" s="9"/>
       <c r="DA32" s="9"/>
       <c r="DB32" s="9"/>
@@ -27327,9 +27346,11 @@
         <v>954791.17130854283</v>
       </c>
       <c r="CX33" s="24">
-        <v>736306.02048928174</v>
-      </c>
-      <c r="CY33" s="9"/>
+        <v>737084.04194265581</v>
+      </c>
+      <c r="CY33" s="24">
+        <v>855192.76071623294</v>
+      </c>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
       <c r="DB33" s="9"/>
@@ -27686,9 +27707,11 @@
         <v>30624.415059308398</v>
       </c>
       <c r="CX34" s="24">
-        <v>29236.763924454099</v>
-      </c>
-      <c r="CY34" s="9"/>
+        <v>29269.781197498447</v>
+      </c>
+      <c r="CY34" s="24">
+        <v>19785.430904310233</v>
+      </c>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
       <c r="DB34" s="9"/>
@@ -27842,7 +27865,7 @@
       <c r="CV35" s="26"/>
       <c r="CW35" s="26"/>
       <c r="CX35" s="26"/>
-      <c r="CY35" s="9"/>
+      <c r="CY35" s="26"/>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
       <c r="DB35" s="9"/>
@@ -28199,9 +28222,11 @@
         <v>1204781.2284779036</v>
       </c>
       <c r="CX36" s="26">
-        <v>905996.16886330105</v>
-      </c>
-      <c r="CY36" s="9"/>
+        <v>906159.63648573367</v>
+      </c>
+      <c r="CY36" s="26">
+        <v>1005936.9312439405</v>
+      </c>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
       <c r="DB36" s="9"/>
@@ -28356,6 +28381,7 @@
       <c r="CV37" s="27"/>
       <c r="CW37" s="27"/>
       <c r="CX37" s="27"/>
+      <c r="CY37" s="27"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -28464,7 +28490,7 @@
       <c r="CV39" s="25"/>
       <c r="CW39" s="25"/>
       <c r="CX39" s="25"/>
-      <c r="CY39" s="9"/>
+      <c r="CY39" s="25"/>
       <c r="CZ39" s="9"/>
       <c r="DA39" s="9"/>
       <c r="DB39" s="9"/>
@@ -28618,7 +28644,7 @@
       <c r="CV40" s="25"/>
       <c r="CW40" s="25"/>
       <c r="CX40" s="25"/>
-      <c r="CY40" s="9"/>
+      <c r="CY40" s="25"/>
       <c r="CZ40" s="9"/>
       <c r="DA40" s="9"/>
       <c r="DB40" s="9"/>
@@ -28682,7 +28708,7 @@
     </row>
     <row r="43" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:153" x14ac:dyDescent="0.2">
@@ -28691,6 +28717,7 @@
       <c r="CV44" s="30"/>
       <c r="CW44" s="30"/>
       <c r="CX44" s="30"/>
+      <c r="CY44" s="30"/>
     </row>
     <row r="45" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -28701,31 +28728,32 @@
       <c r="CV45" s="30"/>
       <c r="CW45" s="30"/>
       <c r="CX45" s="30"/>
+      <c r="CY45" s="30"/>
     </row>
     <row r="46" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CT46" s="30"/>
-      <c r="CU46" s="30"/>
       <c r="CV46" s="30"/>
       <c r="CW46" s="30"/>
       <c r="CX46" s="30"/>
+      <c r="CY46" s="30"/>
     </row>
     <row r="47" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CU47" s="30"/>
       <c r="CV47" s="30"/>
       <c r="CW47" s="30"/>
       <c r="CX47" s="30"/>
+      <c r="CY47" s="30"/>
     </row>
     <row r="48" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
       <c r="CW48" s="30"/>
       <c r="CX48" s="30"/>
+      <c r="CY48" s="30"/>
     </row>
     <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -28876,10 +28904,11 @@
       <c r="CT49" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CU49" s="20"/>
+      <c r="CU49" s="22"/>
       <c r="CV49" s="20"/>
       <c r="CW49" s="20"/>
       <c r="CX49" s="20"/>
+      <c r="CY49" s="20"/>
     </row>
     <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -29176,17 +29205,20 @@
       <c r="CT50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CU50" s="28"/>
+      <c r="CU50" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="CV50" s="28"/>
       <c r="CW50" s="28"/>
       <c r="CX50" s="28"/>
+      <c r="CY50" s="28"/>
     </row>
     <row r="51" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
-      <c r="CU51" s="30"/>
       <c r="CV51" s="30"/>
       <c r="CW51" s="30"/>
       <c r="CX51" s="30"/>
+      <c r="CY51" s="30"/>
     </row>
     <row r="52" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -29481,13 +29513,15 @@
         <v>5.8944485613958761</v>
       </c>
       <c r="CT52" s="29">
-        <v>9.4223842309037593</v>
-      </c>
-      <c r="CU52" s="31"/>
+        <v>9.1795590962593394</v>
+      </c>
+      <c r="CU52" s="29">
+        <v>2.2261317857521874</v>
+      </c>
       <c r="CV52" s="31"/>
       <c r="CW52" s="31"/>
       <c r="CX52" s="31"/>
-      <c r="CY52" s="9"/>
+      <c r="CY52" s="31"/>
       <c r="CZ52" s="9"/>
       <c r="DA52" s="9"/>
       <c r="DB52" s="9"/>
@@ -29828,13 +29862,15 @@
         <v>8.6825136891341685</v>
       </c>
       <c r="CT53" s="29">
-        <v>9.0758832191012289</v>
-      </c>
-      <c r="CU53" s="31"/>
+        <v>9.1495640046909585</v>
+      </c>
+      <c r="CU53" s="29">
+        <v>6.7721902526986355</v>
+      </c>
       <c r="CV53" s="31"/>
       <c r="CW53" s="31"/>
       <c r="CX53" s="31"/>
-      <c r="CY53" s="9"/>
+      <c r="CY53" s="31"/>
       <c r="CZ53" s="9"/>
       <c r="DA53" s="9"/>
       <c r="DB53" s="9"/>
@@ -30175,13 +30211,15 @@
         <v>6.6669495016198539</v>
       </c>
       <c r="CT54" s="29">
-        <v>7.6781596847083762</v>
-      </c>
-      <c r="CU54" s="31"/>
+        <v>7.7996613477822478</v>
+      </c>
+      <c r="CU54" s="29">
+        <v>6.7041053406964721</v>
+      </c>
       <c r="CV54" s="31"/>
       <c r="CW54" s="31"/>
       <c r="CX54" s="31"/>
-      <c r="CY54" s="9"/>
+      <c r="CY54" s="31"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
       <c r="DB54" s="9"/>
@@ -30327,11 +30365,11 @@
       <c r="CR55" s="25"/>
       <c r="CS55" s="25"/>
       <c r="CT55" s="25"/>
-      <c r="CU55" s="32"/>
+      <c r="CU55" s="25"/>
       <c r="CV55" s="32"/>
       <c r="CW55" s="32"/>
       <c r="CX55" s="32"/>
-      <c r="CY55" s="9"/>
+      <c r="CY55" s="32"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
       <c r="DB55" s="9"/>
@@ -30672,13 +30710,15 @@
         <v>8.0908583732078228</v>
       </c>
       <c r="CT56" s="29">
-        <v>9.0905794655370897</v>
-      </c>
-      <c r="CU56" s="31"/>
+        <v>9.1145203322933384</v>
+      </c>
+      <c r="CU56" s="29">
+        <v>6.1436247909069266</v>
+      </c>
       <c r="CV56" s="31"/>
       <c r="CW56" s="31"/>
       <c r="CX56" s="31"/>
-      <c r="CY56" s="9"/>
+      <c r="CY56" s="31"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
       <c r="DB56" s="9"/>
@@ -30825,19 +30865,20 @@
       <c r="CR57" s="27"/>
       <c r="CS57" s="27"/>
       <c r="CT57" s="27"/>
-      <c r="CU57" s="23"/>
+      <c r="CU57" s="27"/>
       <c r="CV57" s="23"/>
       <c r="CW57" s="23"/>
       <c r="CX57" s="23"/>
+      <c r="CY57" s="23"/>
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU58" s="30"/>
       <c r="CV58" s="30"/>
       <c r="CW58" s="30"/>
       <c r="CX58" s="30"/>
+      <c r="CY58" s="30"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
@@ -30937,11 +30978,11 @@
       <c r="CR59" s="25"/>
       <c r="CS59" s="25"/>
       <c r="CT59" s="25"/>
-      <c r="CU59" s="32"/>
+      <c r="CU59" s="25"/>
       <c r="CV59" s="32"/>
       <c r="CW59" s="32"/>
       <c r="CX59" s="32"/>
-      <c r="CY59" s="9"/>
+      <c r="CY59" s="32"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
       <c r="DB59" s="9"/>
@@ -31087,11 +31128,11 @@
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
       <c r="CT60" s="25"/>
-      <c r="CU60" s="32"/>
+      <c r="CU60" s="25"/>
       <c r="CV60" s="32"/>
       <c r="CW60" s="32"/>
       <c r="CX60" s="32"/>
-      <c r="CY60" s="9"/>
+      <c r="CY60" s="32"/>
       <c r="CZ60" s="9"/>
       <c r="DA60" s="9"/>
       <c r="DB60" s="9"/>
@@ -31143,67 +31184,67 @@
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
       <c r="CW61" s="30"/>
       <c r="CX61" s="30"/>
+      <c r="CY61" s="30"/>
     </row>
     <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU62" s="30"/>
       <c r="CV62" s="30"/>
       <c r="CW62" s="30"/>
       <c r="CX62" s="30"/>
+      <c r="CY62" s="30"/>
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU63" s="30"/>
+        <v>52</v>
+      </c>
       <c r="CV63" s="30"/>
       <c r="CW63" s="30"/>
       <c r="CX63" s="30"/>
+      <c r="CY63" s="30"/>
     </row>
     <row r="64" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
       <c r="CW64" s="30"/>
       <c r="CX64" s="30"/>
+      <c r="CY64" s="30"/>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
       <c r="CW65" s="30"/>
       <c r="CX65" s="30"/>
+      <c r="CY65" s="30"/>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU66" s="30"/>
+        <v>54</v>
+      </c>
       <c r="CV66" s="30"/>
       <c r="CW66" s="30"/>
       <c r="CX66" s="30"/>
+      <c r="CY66" s="30"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
       <c r="CW67" s="30"/>
       <c r="CX67" s="30"/>
+      <c r="CY67" s="30"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
       <c r="CW68" s="30"/>
       <c r="CX68" s="30"/>
+      <c r="CY68" s="30"/>
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
@@ -31354,10 +31395,11 @@
       <c r="CT69" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CU69" s="20"/>
+      <c r="CU69" s="22"/>
       <c r="CV69" s="20"/>
       <c r="CW69" s="20"/>
       <c r="CX69" s="20"/>
+      <c r="CY69" s="20"/>
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -31654,17 +31696,20 @@
       <c r="CT70" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CU70" s="28"/>
+      <c r="CU70" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="CV70" s="28"/>
       <c r="CW70" s="28"/>
       <c r="CX70" s="28"/>
+      <c r="CY70" s="28"/>
     </row>
     <row r="71" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
-      <c r="CU71" s="30"/>
       <c r="CV71" s="30"/>
       <c r="CW71" s="30"/>
       <c r="CX71" s="30"/>
+      <c r="CY71" s="30"/>
     </row>
     <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -31959,13 +32004,15 @@
         <v>3.4225770590495586</v>
       </c>
       <c r="CT72" s="29">
-        <v>6.0527223397073442</v>
-      </c>
-      <c r="CU72" s="31"/>
+        <v>5.563758127450285</v>
+      </c>
+      <c r="CU72" s="29">
+        <v>-1.3497377779026749</v>
+      </c>
       <c r="CV72" s="31"/>
       <c r="CW72" s="31"/>
       <c r="CX72" s="31"/>
-      <c r="CY72" s="9"/>
+      <c r="CY72" s="31"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
       <c r="DB72" s="9"/>
@@ -32306,13 +32353,15 @@
         <v>5.8328331056811891</v>
       </c>
       <c r="CT73" s="29">
-        <v>6.3949429457379949</v>
-      </c>
-      <c r="CU73" s="31"/>
+        <v>6.5073656963862732</v>
+      </c>
+      <c r="CU73" s="29">
+        <v>6.1467423686422507</v>
+      </c>
       <c r="CV73" s="31"/>
       <c r="CW73" s="31"/>
       <c r="CX73" s="31"/>
-      <c r="CY73" s="9"/>
+      <c r="CY73" s="31"/>
       <c r="CZ73" s="9"/>
       <c r="DA73" s="9"/>
       <c r="DB73" s="9"/>
@@ -32653,13 +32702,15 @@
         <v>5.6209673521601786</v>
       </c>
       <c r="CT74" s="29">
-        <v>6.979240524027432</v>
-      </c>
-      <c r="CU74" s="31"/>
+        <v>7.1000528958612676</v>
+      </c>
+      <c r="CU74" s="29">
+        <v>5.5236600528886299</v>
+      </c>
       <c r="CV74" s="31"/>
       <c r="CW74" s="31"/>
       <c r="CX74" s="31"/>
-      <c r="CY74" s="9"/>
+      <c r="CY74" s="31"/>
       <c r="CZ74" s="9"/>
       <c r="DA74" s="9"/>
       <c r="DB74" s="9"/>
@@ -32805,11 +32856,11 @@
       <c r="CR75" s="25"/>
       <c r="CS75" s="25"/>
       <c r="CT75" s="25"/>
-      <c r="CU75" s="32"/>
+      <c r="CU75" s="25"/>
       <c r="CV75" s="32"/>
       <c r="CW75" s="32"/>
       <c r="CX75" s="32"/>
-      <c r="CY75" s="9"/>
+      <c r="CY75" s="32"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
       <c r="DB75" s="9"/>
@@ -33150,13 +33201,15 @@
         <v>5.3802951036789466</v>
       </c>
       <c r="CT76" s="29">
-        <v>6.3604821337243749</v>
-      </c>
-      <c r="CU76" s="31"/>
+        <v>6.3796726068551948</v>
+      </c>
+      <c r="CU76" s="29">
+        <v>5.0948459320532464</v>
+      </c>
       <c r="CV76" s="31"/>
       <c r="CW76" s="31"/>
       <c r="CX76" s="31"/>
-      <c r="CY76" s="9"/>
+      <c r="CY76" s="31"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
       <c r="DB76" s="9"/>
@@ -33303,19 +33356,20 @@
       <c r="CR77" s="27"/>
       <c r="CS77" s="27"/>
       <c r="CT77" s="27"/>
-      <c r="CU77" s="23"/>
+      <c r="CU77" s="27"/>
       <c r="CV77" s="23"/>
       <c r="CW77" s="23"/>
       <c r="CX77" s="23"/>
+      <c r="CY77" s="23"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU78" s="30"/>
       <c r="CV78" s="30"/>
       <c r="CW78" s="30"/>
       <c r="CX78" s="30"/>
+      <c r="CY78" s="30"/>
     </row>
     <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
@@ -33415,11 +33469,11 @@
       <c r="CR79" s="25"/>
       <c r="CS79" s="25"/>
       <c r="CT79" s="25"/>
-      <c r="CU79" s="32"/>
+      <c r="CU79" s="25"/>
       <c r="CV79" s="32"/>
       <c r="CW79" s="32"/>
       <c r="CX79" s="32"/>
-      <c r="CY79" s="9"/>
+      <c r="CY79" s="32"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
       <c r="DB79" s="9"/>
@@ -33569,7 +33623,7 @@
       <c r="CV80" s="25"/>
       <c r="CW80" s="25"/>
       <c r="CX80" s="25"/>
-      <c r="CY80" s="9"/>
+      <c r="CY80" s="25"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
       <c r="DB80" s="9"/>
@@ -33624,7 +33678,7 @@
     </row>
     <row r="82" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:153" x14ac:dyDescent="0.2">
@@ -33634,7 +33688,7 @@
     </row>
     <row r="85" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:153" x14ac:dyDescent="0.2">
@@ -33797,6 +33851,7 @@
       <c r="CX88" s="22">
         <v>2025</v>
       </c>
+      <c r="CY88" s="22"/>
     </row>
     <row r="89" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -34104,6 +34159,9 @@
       </c>
       <c r="CX89" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY89" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34414,9 +34472,11 @@
         <v>124.81486370747699</v>
       </c>
       <c r="CX91" s="29">
-        <v>124.98534552521328</v>
-      </c>
-      <c r="CY91" s="9"/>
+        <v>125.28562275600534</v>
+      </c>
+      <c r="CY91" s="29">
+        <v>123.22384521191181</v>
+      </c>
       <c r="CZ91" s="9"/>
       <c r="DA91" s="9"/>
       <c r="DB91" s="9"/>
@@ -34773,9 +34833,11 @@
         <v>117.43383045000326</v>
       </c>
       <c r="CX92" s="29">
-        <v>118.93865827286787</v>
-      </c>
-      <c r="CY92" s="9"/>
+        <v>118.89337208684836</v>
+      </c>
+      <c r="CY92" s="29">
+        <v>120.67055865272374</v>
+      </c>
       <c r="CZ92" s="9"/>
       <c r="DA92" s="9"/>
       <c r="DB92" s="9"/>
@@ -35132,9 +35194,11 @@
         <v>103.93719348250016</v>
       </c>
       <c r="CX93" s="29">
-        <v>108.03649691946504</v>
-      </c>
-      <c r="CY93" s="9"/>
+        <v>108.03639669700932</v>
+      </c>
+      <c r="CY93" s="29">
+        <v>104.81154181042191</v>
+      </c>
       <c r="CZ93" s="9"/>
       <c r="DA93" s="9"/>
       <c r="DB93" s="9"/>
@@ -35288,7 +35352,7 @@
       <c r="CV94" s="25"/>
       <c r="CW94" s="25"/>
       <c r="CX94" s="25"/>
-      <c r="CY94" s="9"/>
+      <c r="CY94" s="25"/>
       <c r="CZ94" s="9"/>
       <c r="DA94" s="9"/>
       <c r="DB94" s="9"/>
@@ -35645,9 +35709,11 @@
         <v>118.43469140223372</v>
       </c>
       <c r="CX95" s="29">
-        <v>119.5242388633574</v>
-      </c>
-      <c r="CY95" s="9"/>
+        <v>119.52890305357352</v>
+      </c>
+      <c r="CY95" s="29">
+        <v>120.69103479501977</v>
+      </c>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
       <c r="DB95" s="9"/>
@@ -35802,6 +35868,7 @@
       <c r="CV96" s="27"/>
       <c r="CW96" s="27"/>
       <c r="CX96" s="27"/>
+      <c r="CY96" s="27"/>
     </row>
     <row r="97" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -35820,7 +35887,7 @@
     </row>
     <row r="102" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:153" x14ac:dyDescent="0.2">
@@ -35830,7 +35897,7 @@
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:153" x14ac:dyDescent="0.2">
@@ -35993,6 +36060,7 @@
       <c r="CX108" s="22">
         <v>2025</v>
       </c>
+      <c r="CY108" s="22"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -36300,6 +36368,9 @@
       </c>
       <c r="CX109" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY109" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36610,9 +36681,11 @@
         <v>19.188798815389742</v>
       </c>
       <c r="CX111" s="29">
-        <v>16.210968275400496</v>
-      </c>
-      <c r="CY111" s="9"/>
+        <v>16.17144467564005</v>
+      </c>
+      <c r="CY111" s="29">
+        <v>13.291790265446274</v>
+      </c>
       <c r="CZ111" s="9"/>
       <c r="DA111" s="9"/>
       <c r="DB111" s="9"/>
@@ -36969,9 +37042,11 @@
         <v>78.580447273860841</v>
       </c>
       <c r="CX112" s="29">
-        <v>80.872159219356945</v>
-      </c>
-      <c r="CY112" s="9"/>
+        <v>80.909032198927875</v>
+      </c>
+      <c r="CY112" s="29">
+        <v>85.000127172127577</v>
+      </c>
       <c r="CZ112" s="9"/>
       <c r="DA112" s="9"/>
       <c r="DB112" s="9"/>
@@ -37328,9 +37403,11 @@
         <v>2.230753910749427</v>
       </c>
       <c r="CX113" s="29">
-        <v>2.9168725052425479</v>
-      </c>
-      <c r="CY113" s="9"/>
+        <v>2.9195231254320833</v>
+      </c>
+      <c r="CY113" s="29">
+        <v>1.7080825624261313</v>
+      </c>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
       <c r="DB113" s="9"/>
@@ -37484,7 +37561,7 @@
       <c r="CV114" s="25"/>
       <c r="CW114" s="25"/>
       <c r="CX114" s="25"/>
-      <c r="CY114" s="9"/>
+      <c r="CY114" s="25"/>
       <c r="CZ114" s="9"/>
       <c r="DA114" s="9"/>
       <c r="DB114" s="9"/>
@@ -37843,7 +37920,9 @@
       <c r="CX115" s="29">
         <v>100</v>
       </c>
-      <c r="CY115" s="9"/>
+      <c r="CY115" s="29">
+        <v>100</v>
+      </c>
       <c r="CZ115" s="9"/>
       <c r="DA115" s="9"/>
       <c r="DB115" s="9"/>
@@ -37998,6 +38077,7 @@
       <c r="CV116" s="27"/>
       <c r="CW116" s="27"/>
       <c r="CX116" s="27"/>
+      <c r="CY116" s="27"/>
     </row>
     <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -38106,7 +38186,7 @@
       <c r="CV118" s="25"/>
       <c r="CW118" s="25"/>
       <c r="CX118" s="25"/>
-      <c r="CY118" s="9"/>
+      <c r="CY118" s="25"/>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
       <c r="DB118" s="9"/>
@@ -38260,7 +38340,7 @@
       <c r="CV119" s="25"/>
       <c r="CW119" s="25"/>
       <c r="CX119" s="25"/>
-      <c r="CY119" s="9"/>
+      <c r="CY119" s="25"/>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
       <c r="DB119" s="9"/>
@@ -38324,7 +38404,7 @@
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
@@ -38334,7 +38414,7 @@
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:153" x14ac:dyDescent="0.2">
@@ -38497,6 +38577,7 @@
       <c r="CX128" s="22">
         <v>2025</v>
       </c>
+      <c r="CY128" s="22"/>
     </row>
     <row r="129" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38804,6 +38885,9 @@
       </c>
       <c r="CX129" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY129" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39114,9 +39198,11 @@
         <v>18.207923307968098</v>
       </c>
       <c r="CX131" s="29">
-        <v>15.502646619994387</v>
-      </c>
-      <c r="CY131" s="9"/>
+        <v>15.428386756198281</v>
+      </c>
+      <c r="CY131" s="29">
+        <v>13.018583527046163</v>
+      </c>
       <c r="CZ131" s="9"/>
       <c r="DA131" s="9"/>
       <c r="DB131" s="9"/>
@@ -39473,9 +39559,11 @@
         <v>79.250169967771384</v>
       </c>
       <c r="CX132" s="29">
-        <v>81.270323848397794</v>
-      </c>
-      <c r="CY132" s="9"/>
+        <v>81.341522206971561</v>
+      </c>
+      <c r="CY132" s="29">
+        <v>85.014550530389869</v>
+      </c>
       <c r="CZ132" s="9"/>
       <c r="DA132" s="9"/>
       <c r="DB132" s="9"/>
@@ -39832,9 +39920,11 @@
         <v>2.5419067242605253</v>
       </c>
       <c r="CX133" s="29">
-        <v>3.227029531607811</v>
-      </c>
-      <c r="CY133" s="9"/>
+        <v>3.2300910368301605</v>
+      </c>
+      <c r="CY133" s="29">
+        <v>1.9668659425639727</v>
+      </c>
       <c r="CZ133" s="9"/>
       <c r="DA133" s="9"/>
       <c r="DB133" s="9"/>
@@ -39988,7 +40078,7 @@
       <c r="CV134" s="25"/>
       <c r="CW134" s="25"/>
       <c r="CX134" s="25"/>
-      <c r="CY134" s="9"/>
+      <c r="CY134" s="25"/>
       <c r="CZ134" s="9"/>
       <c r="DA134" s="9"/>
       <c r="DB134" s="9"/>
@@ -40347,7 +40437,9 @@
       <c r="CX135" s="29">
         <v>100</v>
       </c>
-      <c r="CY135" s="9"/>
+      <c r="CY135" s="29">
+        <v>100</v>
+      </c>
       <c r="CZ135" s="9"/>
       <c r="DA135" s="9"/>
       <c r="DB135" s="9"/>
@@ -40502,6 +40594,7 @@
       <c r="CV136" s="27"/>
       <c r="CW136" s="27"/>
       <c r="CX136" s="27"/>
+      <c r="CY136" s="27"/>
     </row>
     <row r="137" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -40611,7 +40704,7 @@
       <c r="CV138" s="30"/>
       <c r="CW138" s="21"/>
       <c r="CX138" s="30"/>
-      <c r="CY138" s="15"/>
+      <c r="CY138" s="30"/>
       <c r="CZ138" s="15"/>
       <c r="DA138" s="15"/>
       <c r="DB138" s="15"/>
@@ -40766,7 +40859,7 @@
       <c r="CV139" s="30"/>
       <c r="CW139" s="21"/>
       <c r="CX139" s="30"/>
-      <c r="CY139" s="15"/>
+      <c r="CY139" s="30"/>
       <c r="CZ139" s="15"/>
       <c r="DA139" s="15"/>
       <c r="DB139" s="15"/>
@@ -40823,6 +40916,14 @@
       <c r="CU140" s="30"/>
       <c r="CV140" s="30"/>
       <c r="CX140" s="30"/>
+      <c r="CY140" s="30"/>
+    </row>
+    <row r="141" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT141" s="30"/>
+      <c r="CU141" s="30"/>
+      <c r="CV141" s="30"/>
+      <c r="CX141" s="30"/>
+      <c r="CY141" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -40979,9 +41080,9 @@
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="101" man="1"/>
-    <brk id="80" max="101" man="1"/>
-    <brk id="99" max="101" man="1"/>
+    <brk id="40" max="102" man="1"/>
+    <brk id="80" max="102" man="1"/>
+    <brk id="99" max="102" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" max="138" man="1"/>
